--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A18816-A9D9-4134-BE74-05D909DA118D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF5176-BD7E-4735-8C78-C601B4DCF69F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -772,14 +772,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="124" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -788,18 +788,18 @@
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -850,7 +850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -936,7 +936,7 @@
         <v>99.84</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>60016</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>71.680000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>532.48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>143.36000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>532.48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>28926.720000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>286.72000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2129.92</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>573.44000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>2129.92</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>13411.84</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>860.16000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4792.32</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>1290.2400000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>4792.32</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>1720.3200000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>8519.68</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>2293.7600000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>8519.68</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>35840</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1000</v>
       </c>
       <c r="L67" s="6">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M67" s="6">
         <v>1</v>
@@ -3253,14 +3253,14 @@
       </c>
       <c r="O67" s="6">
         <f>K67*L67</f>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="P67" s="6">
         <f>K67*L67*M67</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I69" s="2">
         <f>SUM(I2:I68)</f>
         <v>3071416</v>
@@ -3301,11 +3301,11 @@
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:P69" si="32">SUM(O3:O68)</f>
-        <v>182583.68000000002</v>
+        <v>182983.68000000002</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" si="32"/>
-        <v>178282.88</v>
+        <v>178682.88</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF5176-BD7E-4735-8C78-C601B4DCF69F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8532D2-4055-41BB-B712-9A7CDF2E7D89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -772,14 +772,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -788,18 +788,18 @@
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -850,7 +850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -911,7 +911,7 @@
         <v>788544</v>
       </c>
       <c r="J3" s="4">
-        <v>576</v>
+        <v>1728</v>
       </c>
       <c r="K3" s="4">
         <f>D3*E3</f>
@@ -925,7 +925,7 @@
       </c>
       <c r="N3" s="4">
         <f>0.0000032*J3+0.0000064*I3</f>
-        <v>5.0485247999999991</v>
+        <v>5.0522111999999995</v>
       </c>
       <c r="O3" s="4">
         <f>K3*L3</f>
@@ -936,7 +936,7 @@
         <v>99.84</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>60016</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>71.680000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>532.48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>143.36000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>532.48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>28926.720000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>286.72000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2129.92</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>573.44000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>2129.92</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>13411.84</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>860.16000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4792.32</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>1290.2400000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>4792.32</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>1720.3200000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>8519.68</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>2293.7600000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>8519.68</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>35840</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -3282,14 +3282,14 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I69" s="2">
         <f>SUM(I2:I68)</f>
         <v>3071416</v>
       </c>
       <c r="J69" s="2">
         <f>SUM(J3:J68)</f>
-        <v>1230400</v>
+        <v>1231552</v>
       </c>
       <c r="K69" s="2">
         <f>SUM(K3:K68)</f>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="N69" s="2">
         <f>SUM(N2:N68)</f>
-        <v>23.112652799999999</v>
+        <v>23.116339199999999</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" ref="O69:P69" si="32">SUM(O3:O68)</f>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8532D2-4055-41BB-B712-9A7CDF2E7D89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700FD16-FED2-46B1-A5C2-91D24FD96C7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -770,11 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3308,6 +3308,12 @@
         <v>178682.88</v>
       </c>
     </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J70" s="2">
+        <f>J69*16/1024/8</f>
+        <v>2405.375</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B69" xr:uid="{5611B078-3ED8-409A-972B-20710E035DA1}"/>
   <mergeCells count="1">

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700FD16-FED2-46B1-A5C2-91D24FD96C7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114768CC-2717-495D-A552-10D04B853CF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -445,6 +445,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -772,9 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,7 +790,7 @@
     <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -821,10 +824,10 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
@@ -3309,6 +3312,10 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I70" s="7">
+        <f>I69*16/1024/8</f>
+        <v>5998.859375</v>
+      </c>
       <c r="J70" s="2">
         <f>J69*16/1024/8</f>
         <v>2405.375</v>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114768CC-2717-495D-A552-10D04B853CF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89684071-EAAD-49D0-8873-0FE862000615}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SqueezeNet @ 100MHz + 312.5MHz" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SqueezeNet @ 100MHz + 312.5MHz'!$B$1:$B$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SqueezeNet @ 100MHz + 312.5MHz'!$B$1:$B$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
   <si>
     <t>INPUT</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>Operation Time Considering Parallelity(us)</t>
+  </si>
+  <si>
+    <t>Weight Mem</t>
+  </si>
+  <si>
+    <t>Data Mem</t>
+  </si>
+  <si>
+    <t>Bias Mem</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Output Mem</t>
+  </si>
+  <si>
+    <t>Op Paral</t>
   </si>
 </sst>
 </file>
@@ -417,10 +435,59 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -429,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,7 +517,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,16 +900,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -790,19 +917,24 @@
     <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.1796875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" style="15" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -824,36 +956,58 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -872,20 +1026,35 @@
         <v>150528</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="K2" s="9"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16">
+        <v>655360</v>
+      </c>
+      <c r="S2" s="17">
+        <f>R2+I2/2-1</f>
+        <v>730623</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3">
         <f>0.0000032*I2</f>
         <v>0.4816896</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="2" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -916,30 +1085,60 @@
       <c r="J3" s="4">
         <v>1728</v>
       </c>
-      <c r="K3" s="4">
-        <f>D3*E3</f>
-        <v>192</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="10"/>
+      <c r="L3" s="18">
+        <v>4096</v>
+      </c>
+      <c r="M3" s="18">
+        <f>L3+J3/2-1</f>
+        <v>4959</v>
+      </c>
+      <c r="N3" s="18">
+        <f>M3+1</f>
+        <v>4960</v>
+      </c>
+      <c r="O3" s="18">
+        <f>N3+E3/2-1</f>
+        <v>4991</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18">
+        <f>S2+1</f>
+        <v>730624</v>
+      </c>
+      <c r="S3" s="19">
+        <f>R3+I3/2-1</f>
+        <v>1124895</v>
+      </c>
+      <c r="T3" s="18">
+        <f>U3/E3</f>
+        <v>36963</v>
+      </c>
+      <c r="U3" s="4">
+        <f>D3*I3</f>
+        <v>2365632</v>
+      </c>
+      <c r="V3" s="4">
         <v>0.52</v>
       </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4">
         <f>0.0000032*J3+0.0000064*I3</f>
         <v>5.0522111999999995</v>
       </c>
-      <c r="O3" s="4">
-        <f>K3*L3</f>
-        <v>99.84</v>
-      </c>
-      <c r="P3" s="4">
-        <f>K3*L3*M3</f>
-        <v>99.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Y3" s="4">
+        <f>U3*V3</f>
+        <v>1230128.6400000001</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>T3*V3*W3</f>
+        <v>19220.760000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -954,14 +1153,24 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K4" s="11"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -972,7 +1181,9 @@
         <v>83</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6">
+        <v>64</v>
+      </c>
       <c r="F5" s="6">
         <v>2</v>
       </c>
@@ -986,29 +1197,48 @@
         <v>193600</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="K5" s="12"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22">
+        <f>S3+1</f>
+        <v>1124896</v>
+      </c>
+      <c r="S5" s="23">
+        <f>R5+I5/2-1</f>
+        <v>1221695</v>
+      </c>
+      <c r="T5" s="22">
+        <f>U5/E5</f>
+        <v>3025</v>
+      </c>
+      <c r="U5" s="6">
         <v>193600</v>
       </c>
-      <c r="L5" s="6">
+      <c r="V5" s="6">
         <v>0.31</v>
       </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
         <f>0.0000064*I5</f>
         <v>1.2390399999999999</v>
       </c>
-      <c r="O5" s="6">
-        <f>K5*L5</f>
+      <c r="Y5" s="6">
+        <f>U5*V5</f>
         <v>60016</v>
       </c>
-      <c r="P5" s="6">
-        <f>K5*L5*M5</f>
-        <v>60016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Z5" s="6">
+        <f>T5*V5*W5</f>
+        <v>937.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1039,30 +1269,61 @@
       <c r="J6" s="4">
         <v>1024</v>
       </c>
-      <c r="K6" s="4">
-        <f>D6*E6</f>
-        <v>1024</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" s="10"/>
+      <c r="L6" s="18">
+        <f>L3+J3/2+E3/2</f>
+        <v>4992</v>
+      </c>
+      <c r="M6" s="18">
+        <f>L6+J6/2-1</f>
+        <v>5503</v>
+      </c>
+      <c r="N6" s="18">
+        <f>M6+1</f>
+        <v>5504</v>
+      </c>
+      <c r="O6" s="18">
+        <f>N6+E6/2-1</f>
+        <v>5511</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18">
+        <f>S5+1</f>
+        <v>1221696</v>
+      </c>
+      <c r="S6" s="19">
+        <f>R6+I6/2-1</f>
+        <v>1245895</v>
+      </c>
+      <c r="T6" s="18">
+        <f>U6/E6</f>
+        <v>193600</v>
+      </c>
+      <c r="U6" s="4">
+        <f>D6*I6</f>
+        <v>3097600</v>
+      </c>
+      <c r="V6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
         <f>0.0000032*J6+0.0000064*I6</f>
         <v>0.3130368</v>
       </c>
-      <c r="O6" s="4">
-        <f>K6*L6</f>
-        <v>71.680000000000007</v>
-      </c>
-      <c r="P6" s="4">
-        <f>K6*L6*M6</f>
-        <v>71.680000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Y6" s="4">
+        <f>U6*V6</f>
+        <v>216832.00000000003</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>T6*V6*W6</f>
+        <v>13552.000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1077,14 +1338,24 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K7" s="11"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1115,30 +1386,61 @@
       <c r="J8" s="4">
         <v>1024</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" ref="K8:K9" si="0">D8*E8</f>
-        <v>1024</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" s="10"/>
+      <c r="L8" s="18">
+        <f>L6+J6/2+E6/2</f>
+        <v>5512</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" ref="M8:M9" si="0">L8+J8/2-1</f>
+        <v>6023</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" ref="N8:N9" si="1">M8+1</f>
+        <v>6024</v>
+      </c>
+      <c r="O8" s="18">
+        <f>N8+E8/2-1</f>
+        <v>6055</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18">
+        <f>S6+1</f>
+        <v>1245896</v>
+      </c>
+      <c r="S8" s="19">
+        <f>R8+I8/2-1</f>
+        <v>1342695</v>
+      </c>
+      <c r="T8" s="18">
+        <f>U8/E8</f>
+        <v>48400</v>
+      </c>
+      <c r="U8" s="4">
+        <f>D8*I8</f>
+        <v>3097600</v>
+      </c>
+      <c r="V8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="W8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
-        <f t="shared" ref="N8:N9" si="1">0.0000032*J8+0.0000064*I8</f>
+      <c r="X8" s="4">
+        <f>0.0000032*J8+0.0000064*I8</f>
         <v>1.2423168</v>
       </c>
-      <c r="O8" s="4">
-        <f t="shared" ref="O8:O9" si="2">K8*L8</f>
-        <v>71.680000000000007</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" ref="P8:P9" si="3">K8*L8*M8</f>
+      <c r="Y8" s="4">
+        <f t="shared" ref="Y8:Y9" si="2">U8*V8</f>
+        <v>216832.00000000003</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" ref="Z8:Z9" si="3">T8*V8*W8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1169,30 +1471,61 @@
       <c r="J9" s="4">
         <v>9216</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="10"/>
+      <c r="L9" s="18">
+        <f>L8+J8/2+E8/2</f>
+        <v>6056</v>
+      </c>
+      <c r="M9" s="18">
         <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="L9" s="4">
+        <v>10663</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="1"/>
+        <v>10664</v>
+      </c>
+      <c r="O9" s="18">
+        <f>N9+E9/2-1</f>
+        <v>10695</v>
+      </c>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18">
+        <f>S8+1</f>
+        <v>1342696</v>
+      </c>
+      <c r="S9" s="19">
+        <f>R9+I9/2-1</f>
+        <v>1439495</v>
+      </c>
+      <c r="T9" s="18">
+        <f>U9/E9</f>
+        <v>48400</v>
+      </c>
+      <c r="U9" s="4">
+        <f>D9*I9</f>
+        <v>3097600</v>
+      </c>
+      <c r="V9" s="4">
         <v>0.52</v>
       </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="1"/>
+      <c r="W9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
+        <f>0.0000032*J9+0.0000064*I9</f>
         <v>1.2685312</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="2"/>
-        <v>532.48</v>
-      </c>
-      <c r="P9" s="4">
+        <v>1610752</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="3"/>
-        <v>532.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1207,14 +1540,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K10" s="11"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1229,14 +1572,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K11" s="11"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1253,14 +1606,24 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K12" s="9"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1291,30 +1654,61 @@
       <c r="J13" s="4">
         <v>2048</v>
       </c>
-      <c r="K13" s="4">
-        <f>D13*E13</f>
-        <v>2048</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="K13" s="10"/>
+      <c r="L13" s="18">
+        <f>L9+J9/2+E9/2</f>
+        <v>10696</v>
+      </c>
+      <c r="M13" s="18">
+        <f>L13+J13/2-1</f>
+        <v>11719</v>
+      </c>
+      <c r="N13" s="18">
+        <f>M13+1</f>
+        <v>11720</v>
+      </c>
+      <c r="O13" s="18">
+        <f>N13+E13/2-1</f>
+        <v>11727</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18">
+        <f>S9+1</f>
+        <v>1439496</v>
+      </c>
+      <c r="S13" s="19">
+        <f>R13+I13/2-1</f>
+        <v>1463695</v>
+      </c>
+      <c r="T13" s="18">
+        <f>U13/E13</f>
+        <v>387200</v>
+      </c>
+      <c r="U13" s="4">
+        <f>D13*I13</f>
+        <v>6195200</v>
+      </c>
+      <c r="V13" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
         <f>0.0000032*J13+0.0000064*I13</f>
         <v>0.31631359999999997</v>
       </c>
-      <c r="O13" s="4">
-        <f>K13*L13</f>
-        <v>143.36000000000001</v>
-      </c>
-      <c r="P13" s="4">
-        <f>K13*L13*M13</f>
-        <v>143.36000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Y13" s="4">
+        <f>U13*V13</f>
+        <v>433664.00000000006</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>T13*V13*W13</f>
+        <v>27104.000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1329,14 +1723,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K14" s="11"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1367,30 +1771,61 @@
       <c r="J15" s="4">
         <v>1024</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" ref="K15:K16" si="4">D15*E15</f>
-        <v>1024</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" s="10"/>
+      <c r="L15" s="18">
+        <f>L13+J13/2+E13/2</f>
+        <v>11728</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" ref="M15:M16" si="4">L15+J15/2-1</f>
+        <v>12239</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" ref="N15:N16" si="5">M15+1</f>
+        <v>12240</v>
+      </c>
+      <c r="O15" s="18">
+        <f>N15+E15/2-1</f>
+        <v>12271</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18">
+        <f>S13+1</f>
+        <v>1463696</v>
+      </c>
+      <c r="S15" s="19">
+        <f>R15+I15/2-1</f>
+        <v>1560495</v>
+      </c>
+      <c r="T15" s="18">
+        <f>U15/E15</f>
+        <v>48400</v>
+      </c>
+      <c r="U15" s="4">
+        <f>D15*I15</f>
+        <v>3097600</v>
+      </c>
+      <c r="V15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="W15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="4">
-        <f t="shared" ref="N15:N16" si="5">0.0000032*J15+0.0000064*I15</f>
+      <c r="X15" s="4">
+        <f>0.0000032*J15+0.0000064*I15</f>
         <v>1.2423168</v>
       </c>
-      <c r="O15" s="4">
-        <f t="shared" ref="O15:O16" si="6">K15*L15</f>
-        <v>71.680000000000007</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" ref="P15:P16" si="7">K15*L15*M15</f>
+      <c r="Y15" s="4">
+        <f t="shared" ref="Y15:Y16" si="6">U15*V15</f>
+        <v>216832.00000000003</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" ref="Z15:Z16" si="7">T15*V15*W15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1421,30 +1856,61 @@
       <c r="J16" s="4">
         <v>9216</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="10"/>
+      <c r="L16" s="18">
+        <f>L15+J15/2+E15/2</f>
+        <v>12272</v>
+      </c>
+      <c r="M16" s="18">
         <f t="shared" si="4"/>
-        <v>1024</v>
-      </c>
-      <c r="L16" s="4">
+        <v>16879</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" si="5"/>
+        <v>16880</v>
+      </c>
+      <c r="O16" s="18">
+        <f>N16+E16/2-1</f>
+        <v>16911</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18">
+        <f>S15+1</f>
+        <v>1560496</v>
+      </c>
+      <c r="S16" s="19">
+        <f>R16+I16/2-1</f>
+        <v>1657295</v>
+      </c>
+      <c r="T16" s="18">
+        <f>U16/E16</f>
+        <v>48400</v>
+      </c>
+      <c r="U16" s="4">
+        <f>D16*I16</f>
+        <v>3097600</v>
+      </c>
+      <c r="V16" s="4">
         <v>0.52</v>
       </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="5"/>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <f>0.0000032*J16+0.0000064*I16</f>
         <v>1.2685312</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="6"/>
-        <v>532.48</v>
-      </c>
-      <c r="P16" s="4">
+        <v>1610752</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="7"/>
-        <v>532.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1459,14 +1925,24 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K17" s="11"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1481,14 +1957,24 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K18" s="11"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1505,14 +1991,24 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K19" s="9"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +2019,9 @@
         <v>83</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>128</v>
+      </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
@@ -1537,29 +2035,48 @@
         <v>93312</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6">
+      <c r="K20" s="12"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22">
+        <f>S16+1</f>
+        <v>1657296</v>
+      </c>
+      <c r="S20" s="23">
+        <f>R20+I20/2-1</f>
+        <v>1703951</v>
+      </c>
+      <c r="T20" s="22">
+        <f>U20/E20</f>
+        <v>729</v>
+      </c>
+      <c r="U20" s="6">
         <v>93312</v>
       </c>
-      <c r="L20" s="6">
+      <c r="V20" s="6">
         <v>0.31</v>
       </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
         <f>0.0000064*I20</f>
         <v>0.59719679999999997</v>
       </c>
-      <c r="O20" s="6">
-        <f>K20*L20</f>
+      <c r="Y20" s="6">
+        <f>U20*V20</f>
         <v>28926.720000000001</v>
       </c>
-      <c r="P20" s="6">
-        <f>K20*L20*M20</f>
-        <v>28926.720000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Z20" s="6">
+        <f>T20*V20*W20</f>
+        <v>225.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1590,30 +2107,61 @@
       <c r="J21" s="4">
         <v>4096</v>
       </c>
-      <c r="K21" s="4">
-        <f>D21*E21</f>
-        <v>4096</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" s="10"/>
+      <c r="L21" s="18">
+        <f>L16+J16/2+E16/2</f>
+        <v>16912</v>
+      </c>
+      <c r="M21" s="18">
+        <f>L21+J21/2-1</f>
+        <v>18959</v>
+      </c>
+      <c r="N21" s="18">
+        <f>M21+1</f>
+        <v>18960</v>
+      </c>
+      <c r="O21" s="18">
+        <f>N21+E21/2-1</f>
+        <v>18975</v>
+      </c>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18">
+        <f>S20+1</f>
+        <v>1703952</v>
+      </c>
+      <c r="S21" s="19">
+        <f>R21+I21/2-1</f>
+        <v>1715615</v>
+      </c>
+      <c r="T21" s="18">
+        <f>U21/E21</f>
+        <v>93312</v>
+      </c>
+      <c r="U21" s="4">
+        <f>D21*I21</f>
+        <v>2985984</v>
+      </c>
+      <c r="V21" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
         <f>0.0000032*J21+0.0000064*I21</f>
         <v>0.16240640000000001</v>
       </c>
-      <c r="O21" s="4">
-        <f>K21*L21</f>
-        <v>286.72000000000003</v>
-      </c>
-      <c r="P21" s="4">
-        <f>K21*L21*M21</f>
-        <v>286.72000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y21" s="4">
+        <f>U21*V21</f>
+        <v>209018.88000000003</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>T21*V21*W21</f>
+        <v>6531.8400000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1628,14 +2176,24 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K22" s="11"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1666,30 +2224,61 @@
       <c r="J23" s="4">
         <v>4096</v>
       </c>
-      <c r="K23" s="4">
-        <f t="shared" ref="K23:K24" si="8">D23*E23</f>
-        <v>4096</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="K23" s="10"/>
+      <c r="L23" s="18">
+        <f>L21+J21/2+E21/2</f>
+        <v>18976</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" ref="M23:M24" si="8">L23+J23/2-1</f>
+        <v>21023</v>
+      </c>
+      <c r="N23" s="18">
+        <f t="shared" ref="N23:N24" si="9">M23+1</f>
+        <v>21024</v>
+      </c>
+      <c r="O23" s="18">
+        <f>N23+E23/2-1</f>
+        <v>21087</v>
+      </c>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18">
+        <f>S21+1</f>
+        <v>1715616</v>
+      </c>
+      <c r="S23" s="19">
+        <f>R23+I23/2-1</f>
+        <v>1762271</v>
+      </c>
+      <c r="T23" s="18">
+        <f>U23/E23</f>
+        <v>23328</v>
+      </c>
+      <c r="U23" s="4">
+        <f>D23*I23</f>
+        <v>2985984</v>
+      </c>
+      <c r="V23" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="W23" s="4">
         <v>0</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" ref="N23:N24" si="9">0.0000032*J23+0.0000064*I23</f>
+      <c r="X23" s="4">
+        <f>0.0000032*J23+0.0000064*I23</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" ref="O23:O24" si="10">K23*L23</f>
-        <v>286.72000000000003</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" ref="P23:P24" si="11">K23*L23*M23</f>
+      <c r="Y23" s="4">
+        <f t="shared" ref="Y23:Y24" si="10">U23*V23</f>
+        <v>209018.88000000003</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" ref="Z23:Z24" si="11">T23*V23*W23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1720,30 +2309,61 @@
       <c r="J24" s="4">
         <v>36864</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="10"/>
+      <c r="L24" s="18">
+        <f>L23+J23/2+E23/2</f>
+        <v>21088</v>
+      </c>
+      <c r="M24" s="18">
         <f t="shared" si="8"/>
-        <v>4096</v>
-      </c>
-      <c r="L24" s="4">
+        <v>39519</v>
+      </c>
+      <c r="N24" s="18">
+        <f t="shared" si="9"/>
+        <v>39520</v>
+      </c>
+      <c r="O24" s="18">
+        <f>N24+E24/2-1</f>
+        <v>39583</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18">
+        <f>S23+1</f>
+        <v>1762272</v>
+      </c>
+      <c r="S24" s="19">
+        <f>R24+I24/2-1</f>
+        <v>1808927</v>
+      </c>
+      <c r="T24" s="18">
+        <f>U24/E24</f>
+        <v>23328</v>
+      </c>
+      <c r="U24" s="4">
+        <f>D24*I24</f>
+        <v>2985984</v>
+      </c>
+      <c r="V24" s="4">
         <v>0.52</v>
       </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="9"/>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <f>0.0000032*J24+0.0000064*I24</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="O24" s="4">
+      <c r="Y24" s="4">
         <f t="shared" si="10"/>
-        <v>2129.92</v>
-      </c>
-      <c r="P24" s="4">
+        <v>1552711.6800000002</v>
+      </c>
+      <c r="Z24" s="4">
         <f t="shared" si="11"/>
-        <v>2129.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12130.560000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1758,14 +2378,24 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K25" s="11"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1780,14 +2410,24 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K26" s="11"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1804,14 +2444,24 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K27" s="9"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1842,30 +2492,61 @@
       <c r="J28" s="4">
         <v>8192</v>
       </c>
-      <c r="K28" s="4">
-        <f>D28*E28</f>
-        <v>8192</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" s="10"/>
+      <c r="L28" s="18">
+        <f>L24+J24/2+E24/2</f>
+        <v>39584</v>
+      </c>
+      <c r="M28" s="18">
+        <f>L28+J28/2-1</f>
+        <v>43679</v>
+      </c>
+      <c r="N28" s="18">
+        <f>M28+1</f>
+        <v>43680</v>
+      </c>
+      <c r="O28" s="18">
+        <f>N28+E28/2-1</f>
+        <v>43695</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18">
+        <f>S24+1</f>
+        <v>1808928</v>
+      </c>
+      <c r="S28" s="19">
+        <f>R28+I28/2-1</f>
+        <v>1820591</v>
+      </c>
+      <c r="T28" s="18">
+        <f>U28/E28</f>
+        <v>186624</v>
+      </c>
+      <c r="U28" s="4">
+        <f>D28*I28</f>
+        <v>5971968</v>
+      </c>
+      <c r="V28" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M28" s="4">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="W28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
         <f>0.0000032*J28+0.0000064*I28</f>
         <v>0.17551359999999999</v>
       </c>
-      <c r="O28" s="4">
-        <f>K28*L28</f>
-        <v>573.44000000000005</v>
-      </c>
-      <c r="P28" s="4">
-        <f>K28*L28*M28</f>
-        <v>573.44000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y28" s="4">
+        <f>U28*V28</f>
+        <v>418037.76000000007</v>
+      </c>
+      <c r="Z28" s="4">
+        <f>T28*V28*W28</f>
+        <v>13063.680000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1880,14 +2561,24 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K29" s="11"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1918,30 +2609,61 @@
       <c r="J30" s="4">
         <v>4096</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" ref="K30:K31" si="12">D30*E30</f>
-        <v>4096</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="K30" s="10"/>
+      <c r="L30" s="18">
+        <f>L28+J28/2+E28/2</f>
+        <v>43696</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" ref="M30:M31" si="12">L30+J30/2-1</f>
+        <v>45743</v>
+      </c>
+      <c r="N30" s="18">
+        <f t="shared" ref="N30:N31" si="13">M30+1</f>
+        <v>45744</v>
+      </c>
+      <c r="O30" s="18">
+        <f>N30+E30/2-1</f>
+        <v>45807</v>
+      </c>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18">
+        <f>S28+1</f>
+        <v>1820592</v>
+      </c>
+      <c r="S30" s="19">
+        <f>R30+I30/2-1</f>
+        <v>1867247</v>
+      </c>
+      <c r="T30" s="18">
+        <f>U30/E30</f>
+        <v>23328</v>
+      </c>
+      <c r="U30" s="4">
+        <f>D30*I30</f>
+        <v>2985984</v>
+      </c>
+      <c r="V30" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M30" s="4">
+      <c r="W30" s="4">
         <v>0</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" ref="N30:N31" si="13">0.0000032*J30+0.0000064*I30</f>
+      <c r="X30" s="4">
+        <f>0.0000032*J30+0.0000064*I30</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" ref="O30:O31" si="14">K30*L30</f>
-        <v>286.72000000000003</v>
-      </c>
-      <c r="P30" s="4">
-        <f t="shared" ref="P30:P31" si="15">K30*L30*M30</f>
+      <c r="Y30" s="4">
+        <f t="shared" ref="Y30:Y31" si="14">U30*V30</f>
+        <v>209018.88000000003</v>
+      </c>
+      <c r="Z30" s="4">
+        <f t="shared" ref="Z30:Z31" si="15">T30*V30*W30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1972,30 +2694,61 @@
       <c r="J31" s="4">
         <v>36864</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="10"/>
+      <c r="L31" s="18">
+        <f>L30+J30/2+E30/2</f>
+        <v>45808</v>
+      </c>
+      <c r="M31" s="18">
         <f t="shared" si="12"/>
-        <v>4096</v>
-      </c>
-      <c r="L31" s="4">
+        <v>64239</v>
+      </c>
+      <c r="N31" s="18">
+        <f t="shared" si="13"/>
+        <v>64240</v>
+      </c>
+      <c r="O31" s="18">
+        <f>N31+E31/2-1</f>
+        <v>64303</v>
+      </c>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18">
+        <f>S30+1</f>
+        <v>1867248</v>
+      </c>
+      <c r="S31" s="19">
+        <f>R31+I31/2-1</f>
+        <v>1913903</v>
+      </c>
+      <c r="T31" s="18">
+        <f>U31/E31</f>
+        <v>23328</v>
+      </c>
+      <c r="U31" s="4">
+        <f>D31*I31</f>
+        <v>2985984</v>
+      </c>
+      <c r="V31" s="4">
         <v>0.52</v>
       </c>
-      <c r="M31" s="4">
-        <v>1</v>
-      </c>
-      <c r="N31" s="4">
-        <f t="shared" si="13"/>
+      <c r="W31" s="4">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4">
+        <f>0.0000032*J31+0.0000064*I31</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="O31" s="4">
+      <c r="Y31" s="4">
         <f t="shared" si="14"/>
-        <v>2129.92</v>
-      </c>
-      <c r="P31" s="4">
+        <v>1552711.6800000002</v>
+      </c>
+      <c r="Z31" s="4">
         <f t="shared" si="15"/>
-        <v>2129.92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12130.560000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -2010,14 +2763,24 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K32" s="11"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -2032,14 +2795,24 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K33" s="11"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2056,14 +2829,24 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K34" s="9"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -2074,7 +2857,9 @@
         <v>83</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>256</v>
+      </c>
       <c r="F35" s="6">
         <v>2</v>
       </c>
@@ -2088,29 +2873,48 @@
         <v>43624</v>
       </c>
       <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="K35" s="12"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22">
+        <f>S31+1</f>
+        <v>1913904</v>
+      </c>
+      <c r="S35" s="23">
+        <f>R35+I35/2-1</f>
+        <v>1935715</v>
+      </c>
+      <c r="T35" s="22">
+        <f>U35/E35</f>
+        <v>169</v>
+      </c>
+      <c r="U35" s="6">
         <v>43264</v>
       </c>
-      <c r="L35" s="6">
+      <c r="V35" s="6">
         <v>0.31</v>
       </c>
-      <c r="M35" s="6">
-        <v>1</v>
-      </c>
-      <c r="N35" s="6">
+      <c r="W35" s="6">
+        <v>1</v>
+      </c>
+      <c r="X35" s="6">
         <f>0.0000064*I35</f>
         <v>0.27919359999999999</v>
       </c>
-      <c r="O35" s="6">
-        <f>K35*L35</f>
+      <c r="Y35" s="6">
+        <f>U35*V35</f>
         <v>13411.84</v>
       </c>
-      <c r="P35" s="6">
-        <f>K35*L35*M35</f>
-        <v>13411.84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Z35" s="6">
+        <f>T35*V35*W35</f>
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2141,30 +2945,61 @@
       <c r="J36" s="4">
         <v>12288</v>
       </c>
-      <c r="K36" s="4">
-        <f>D36*E36</f>
-        <v>12288</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="K36" s="10"/>
+      <c r="L36" s="18">
+        <f>L31+J31/2+E31/2</f>
+        <v>64304</v>
+      </c>
+      <c r="M36" s="18">
+        <f>L36+J36/2-1</f>
+        <v>70447</v>
+      </c>
+      <c r="N36" s="18">
+        <f>M36+1</f>
+        <v>70448</v>
+      </c>
+      <c r="O36" s="18">
+        <f>N36+E36/2-1</f>
+        <v>70471</v>
+      </c>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18">
+        <f>S35+1</f>
+        <v>1935716</v>
+      </c>
+      <c r="S36" s="19">
+        <f>R36+I36/2-1</f>
+        <v>1939771</v>
+      </c>
+      <c r="T36" s="18">
+        <f>U36/E36</f>
+        <v>43264</v>
+      </c>
+      <c r="U36" s="4">
+        <f>D36*I36</f>
+        <v>2076672</v>
+      </c>
+      <c r="V36" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M36" s="4">
-        <v>1</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
         <f>0.0000032*J36+0.0000064*I36</f>
         <v>9.1238399999999997E-2</v>
       </c>
-      <c r="O36" s="4">
-        <f>K36*L36</f>
-        <v>860.16000000000008</v>
-      </c>
-      <c r="P36" s="4">
-        <f>K36*L36*M36</f>
-        <v>860.16000000000008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4">
+        <f>U36*V36</f>
+        <v>145367.04000000001</v>
+      </c>
+      <c r="Z36" s="4">
+        <f>T36*V36*W36</f>
+        <v>3028.4800000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -2179,14 +3014,24 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K37" s="11"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2217,30 +3062,61 @@
       <c r="J38" s="4">
         <v>9216</v>
       </c>
-      <c r="K38" s="4">
-        <f t="shared" ref="K38:K39" si="16">D38*E38</f>
-        <v>9216</v>
-      </c>
-      <c r="L38" s="4">
+      <c r="K38" s="10"/>
+      <c r="L38" s="18">
+        <f>L36+J36/2+E36/2</f>
+        <v>70472</v>
+      </c>
+      <c r="M38" s="18">
+        <f t="shared" ref="M38:M39" si="16">L38+J38/2-1</f>
+        <v>75079</v>
+      </c>
+      <c r="N38" s="18">
+        <f>M38+1</f>
+        <v>75080</v>
+      </c>
+      <c r="O38" s="18">
+        <f>N38+E38/2-1</f>
+        <v>75175</v>
+      </c>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18">
+        <f>S36+1</f>
+        <v>1939772</v>
+      </c>
+      <c r="S38" s="19">
+        <f>R38+I38/2-1</f>
+        <v>1955995</v>
+      </c>
+      <c r="T38" s="18">
+        <f>U38/E38</f>
+        <v>8112</v>
+      </c>
+      <c r="U38" s="4">
+        <f>D38*I38</f>
+        <v>1557504</v>
+      </c>
+      <c r="V38" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M38" s="4">
+      <c r="W38" s="4">
         <v>0</v>
       </c>
-      <c r="N38" s="4">
-        <f t="shared" ref="N38:N39" si="17">0.0000032*J38+0.0000064*I38</f>
+      <c r="X38" s="4">
+        <f>0.0000032*J38+0.0000064*I38</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="O38" s="4">
-        <f t="shared" ref="O38:O39" si="18">K38*L38</f>
-        <v>645.12000000000012</v>
-      </c>
-      <c r="P38" s="4">
-        <f t="shared" ref="P38:P39" si="19">K38*L38*M38</f>
+      <c r="Y38" s="4">
+        <f t="shared" ref="Y38:Y39" si="17">U38*V38</f>
+        <v>109025.28000000001</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" ref="Z38:Z39" si="18">T38*V38*W38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2271,30 +3147,61 @@
       <c r="J39" s="4">
         <v>82944</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="10"/>
+      <c r="L39" s="18">
+        <f>L38+J38/2+E38/2</f>
+        <v>75176</v>
+      </c>
+      <c r="M39" s="18">
         <f t="shared" si="16"/>
-        <v>9216</v>
-      </c>
-      <c r="L39" s="4">
+        <v>116647</v>
+      </c>
+      <c r="N39" s="18">
+        <f>M39+1</f>
+        <v>116648</v>
+      </c>
+      <c r="O39" s="18">
+        <f>N39+E39/2-1</f>
+        <v>116743</v>
+      </c>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18">
+        <f>S38+1</f>
+        <v>1955996</v>
+      </c>
+      <c r="S39" s="19">
+        <f>R39+I39/2-1</f>
+        <v>1972219</v>
+      </c>
+      <c r="T39" s="18">
+        <f>U39/E39</f>
+        <v>8112</v>
+      </c>
+      <c r="U39" s="4">
+        <f>D39*I39</f>
+        <v>1557504</v>
+      </c>
+      <c r="V39" s="4">
         <v>0.52</v>
       </c>
-      <c r="M39" s="4">
-        <v>1</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="W39" s="4">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4">
+        <f>0.0000032*J39+0.0000064*I39</f>
+        <v>0.47308800000000001</v>
+      </c>
+      <c r="Y39" s="4">
         <f t="shared" si="17"/>
-        <v>0.47308800000000001</v>
-      </c>
-      <c r="O39" s="4">
+        <v>809902.08000000007</v>
+      </c>
+      <c r="Z39" s="4">
         <f t="shared" si="18"/>
-        <v>4792.32</v>
-      </c>
-      <c r="P39" s="4">
-        <f t="shared" si="19"/>
-        <v>4792.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4218.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -2309,14 +3216,24 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K40" s="11"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2331,14 +3248,24 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K41" s="11"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -2355,14 +3282,24 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K42" s="9"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -2393,30 +3330,61 @@
       <c r="J43" s="4">
         <v>18432</v>
       </c>
-      <c r="K43" s="4">
-        <f>D43*E43</f>
-        <v>18432</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="K43" s="10"/>
+      <c r="L43" s="18">
+        <f>L39+J39/2+E39/2</f>
+        <v>116744</v>
+      </c>
+      <c r="M43" s="18">
+        <f>L43+J43/2-1</f>
+        <v>125959</v>
+      </c>
+      <c r="N43" s="18">
+        <f>M43+1</f>
+        <v>125960</v>
+      </c>
+      <c r="O43" s="18">
+        <f>N43+E43/2-1</f>
+        <v>125983</v>
+      </c>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18">
+        <f>S39+1</f>
+        <v>1972220</v>
+      </c>
+      <c r="S43" s="19">
+        <f>R43+I43/2-1</f>
+        <v>1976275</v>
+      </c>
+      <c r="T43" s="18">
+        <f>U43/E43</f>
+        <v>64896</v>
+      </c>
+      <c r="U43" s="4">
+        <f>D43*I43</f>
+        <v>3115008</v>
+      </c>
+      <c r="V43" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M43" s="4">
-        <v>1</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="W43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
         <f>0.0000032*J43+0.0000064*I43</f>
         <v>0.1108992</v>
       </c>
-      <c r="O43" s="4">
-        <f>K43*L43</f>
-        <v>1290.2400000000002</v>
-      </c>
-      <c r="P43" s="4">
-        <f>K43*L43*M43</f>
-        <v>1290.2400000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4">
+        <f>U43*V43</f>
+        <v>218050.56000000003</v>
+      </c>
+      <c r="Z43" s="4">
+        <f>T43*V43*W43</f>
+        <v>4542.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -2431,14 +3399,24 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K44" s="11"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -2469,30 +3447,61 @@
       <c r="J45" s="4">
         <v>9216</v>
       </c>
-      <c r="K45" s="4">
-        <f t="shared" ref="K45:K46" si="20">D45*E45</f>
-        <v>9216</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="K45" s="10"/>
+      <c r="L45" s="18">
+        <f>L43+J43/2+E43/2</f>
+        <v>125984</v>
+      </c>
+      <c r="M45" s="18">
+        <f t="shared" ref="M45:M46" si="19">L45+J45/2-1</f>
+        <v>130591</v>
+      </c>
+      <c r="N45" s="18">
+        <f t="shared" ref="N45:N46" si="20">M45+1</f>
+        <v>130592</v>
+      </c>
+      <c r="O45" s="18">
+        <f>N45+E45/2-1</f>
+        <v>130687</v>
+      </c>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18">
+        <f>S43+1</f>
+        <v>1976276</v>
+      </c>
+      <c r="S45" s="19">
+        <f>R45+I45/2-1</f>
+        <v>1992499</v>
+      </c>
+      <c r="T45" s="18">
+        <f>U45/E45</f>
+        <v>8112</v>
+      </c>
+      <c r="U45" s="4">
+        <f>D45*I45</f>
+        <v>1557504</v>
+      </c>
+      <c r="V45" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M45" s="4">
+      <c r="W45" s="4">
         <v>0</v>
       </c>
-      <c r="N45" s="4">
-        <f t="shared" ref="N45:N46" si="21">0.0000032*J45+0.0000064*I45</f>
+      <c r="X45" s="4">
+        <f>0.0000032*J45+0.0000064*I45</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="O45" s="4">
-        <f t="shared" ref="O45:O46" si="22">K45*L45</f>
-        <v>645.12000000000012</v>
-      </c>
-      <c r="P45" s="4">
-        <f t="shared" ref="P45:P46" si="23">K45*L45*M45</f>
+      <c r="Y45" s="4">
+        <f t="shared" ref="Y45:Y46" si="21">U45*V45</f>
+        <v>109025.28000000001</v>
+      </c>
+      <c r="Z45" s="4">
+        <f t="shared" ref="Z45:Z46" si="22">T45*V45*W45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -2523,30 +3532,61 @@
       <c r="J46" s="4">
         <v>82944</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="10"/>
+      <c r="L46" s="18">
+        <f>L45+J45/2+E45/2</f>
+        <v>130688</v>
+      </c>
+      <c r="M46" s="18">
+        <f t="shared" si="19"/>
+        <v>172159</v>
+      </c>
+      <c r="N46" s="18">
         <f t="shared" si="20"/>
-        <v>9216</v>
-      </c>
-      <c r="L46" s="4">
+        <v>172160</v>
+      </c>
+      <c r="O46" s="18">
+        <f>N46+E46/2-1</f>
+        <v>172255</v>
+      </c>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18">
+        <f>S45+1</f>
+        <v>1992500</v>
+      </c>
+      <c r="S46" s="19">
+        <f>R46+I46/2-1</f>
+        <v>2008723</v>
+      </c>
+      <c r="T46" s="18">
+        <f>U46/E46</f>
+        <v>8112</v>
+      </c>
+      <c r="U46" s="4">
+        <f>D46*I46</f>
+        <v>1557504</v>
+      </c>
+      <c r="V46" s="4">
         <v>0.52</v>
       </c>
-      <c r="M46" s="4">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="W46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4">
+        <f>0.0000032*J46+0.0000064*I46</f>
+        <v>0.47308800000000001</v>
+      </c>
+      <c r="Y46" s="4">
         <f t="shared" si="21"/>
-        <v>0.47308800000000001</v>
-      </c>
-      <c r="O46" s="4">
+        <v>809902.08000000007</v>
+      </c>
+      <c r="Z46" s="4">
         <f t="shared" si="22"/>
-        <v>4792.32</v>
-      </c>
-      <c r="P46" s="4">
-        <f t="shared" si="23"/>
-        <v>4792.32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4218.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
@@ -2561,14 +3601,24 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K47" s="11"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
@@ -2583,14 +3633,24 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K48" s="11"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2607,14 +3667,24 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K49" s="9"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -2645,30 +3715,61 @@
       <c r="J50" s="4">
         <v>24576</v>
       </c>
-      <c r="K50" s="4">
-        <f>D50*E50</f>
-        <v>24576</v>
-      </c>
-      <c r="L50" s="4">
+      <c r="K50" s="10"/>
+      <c r="L50" s="18">
+        <f>L46+J46/2+E46/2</f>
+        <v>172256</v>
+      </c>
+      <c r="M50" s="18">
+        <f>L50+J50/2-1</f>
+        <v>184543</v>
+      </c>
+      <c r="N50" s="18">
+        <f>M50+1</f>
+        <v>184544</v>
+      </c>
+      <c r="O50" s="18">
+        <f>N50+E50/2-1</f>
+        <v>184575</v>
+      </c>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18">
+        <f>S46+1</f>
+        <v>2008724</v>
+      </c>
+      <c r="S50" s="19">
+        <f>R50+I50/2-1</f>
+        <v>2014131</v>
+      </c>
+      <c r="T50" s="18">
+        <f>U50/E50</f>
+        <v>64896</v>
+      </c>
+      <c r="U50" s="4">
+        <f>D50*I50</f>
+        <v>4153344</v>
+      </c>
+      <c r="V50" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M50" s="4">
-        <v>1</v>
-      </c>
-      <c r="N50" s="4">
+      <c r="W50" s="4">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4">
         <f>0.0000032*J50+0.0000064*I50</f>
         <v>0.14786559999999999</v>
       </c>
-      <c r="O50" s="4">
-        <f>K50*L50</f>
-        <v>1720.3200000000002</v>
-      </c>
-      <c r="P50" s="4">
-        <f>K50*L50*M50</f>
-        <v>1720.3200000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y50" s="4">
+        <f>U50*V50</f>
+        <v>290734.08000000002</v>
+      </c>
+      <c r="Z50" s="4">
+        <f>T50*V50*W50</f>
+        <v>4542.72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
@@ -2683,14 +3784,24 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="11"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -2721,30 +3832,61 @@
       <c r="J52" s="4">
         <v>16384</v>
       </c>
-      <c r="K52" s="4">
-        <f t="shared" ref="K52:K53" si="24">D52*E52</f>
-        <v>16384</v>
-      </c>
-      <c r="L52" s="4">
+      <c r="K52" s="10"/>
+      <c r="L52" s="18">
+        <f>L50+J50/2+E50/2</f>
+        <v>184576</v>
+      </c>
+      <c r="M52" s="18">
+        <f t="shared" ref="M52:M53" si="23">L52+J52/2-1</f>
+        <v>192767</v>
+      </c>
+      <c r="N52" s="18">
+        <f t="shared" ref="N52:N53" si="24">M52+1</f>
+        <v>192768</v>
+      </c>
+      <c r="O52" s="18">
+        <f>N52+E52/2-1</f>
+        <v>192895</v>
+      </c>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18">
+        <f>S50+1</f>
+        <v>2014132</v>
+      </c>
+      <c r="S52" s="19">
+        <f>R52+I52/2-1</f>
+        <v>2035763</v>
+      </c>
+      <c r="T52" s="18">
+        <f>U52/E52</f>
+        <v>10816</v>
+      </c>
+      <c r="U52" s="4">
+        <f>D52*I52</f>
+        <v>2768896</v>
+      </c>
+      <c r="V52" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M52" s="4">
+      <c r="W52" s="4">
         <v>0</v>
       </c>
-      <c r="N52" s="4">
-        <f t="shared" ref="N52:N53" si="25">0.0000032*J52+0.0000064*I52</f>
+      <c r="X52" s="4">
+        <f>0.0000032*J52+0.0000064*I52</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="O52" s="4">
-        <f t="shared" ref="O52:O53" si="26">K52*L52</f>
-        <v>1146.8800000000001</v>
-      </c>
-      <c r="P52" s="4">
-        <f t="shared" ref="P52:P53" si="27">K52*L52*M52</f>
+      <c r="Y52" s="4">
+        <f t="shared" ref="Y52:Y53" si="25">U52*V52</f>
+        <v>193822.72000000003</v>
+      </c>
+      <c r="Z52" s="4">
+        <f t="shared" ref="Z52:Z53" si="26">T52*V52*W52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -2775,30 +3917,61 @@
       <c r="J53" s="4">
         <v>147456</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="10"/>
+      <c r="L53" s="18">
+        <f>L52+J52/2+E52/2</f>
+        <v>192896</v>
+      </c>
+      <c r="M53" s="18">
+        <f t="shared" si="23"/>
+        <v>266623</v>
+      </c>
+      <c r="N53" s="18">
         <f t="shared" si="24"/>
-        <v>16384</v>
-      </c>
-      <c r="L53" s="4">
+        <v>266624</v>
+      </c>
+      <c r="O53" s="18">
+        <f>N53+E53/2-1</f>
+        <v>266751</v>
+      </c>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18">
+        <f>S52+1</f>
+        <v>2035764</v>
+      </c>
+      <c r="S53" s="19">
+        <f>R53+I53/2-1</f>
+        <v>2057395</v>
+      </c>
+      <c r="T53" s="18">
+        <f>U53/E52</f>
+        <v>10816</v>
+      </c>
+      <c r="U53" s="4">
+        <f>D53*I53</f>
+        <v>2768896</v>
+      </c>
+      <c r="V53" s="4">
         <v>0.52</v>
       </c>
-      <c r="M53" s="4">
-        <v>1</v>
-      </c>
-      <c r="N53" s="4">
+      <c r="W53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4">
+        <f>0.0000032*J53+0.0000064*I53</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="Y53" s="4">
         <f t="shared" si="25"/>
-        <v>0.74874879999999999</v>
-      </c>
-      <c r="O53" s="4">
+        <v>1439825.9200000002</v>
+      </c>
+      <c r="Z53" s="4">
         <f t="shared" si="26"/>
-        <v>8519.68</v>
-      </c>
-      <c r="P53" s="4">
-        <f t="shared" si="27"/>
-        <v>8519.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5624.3200000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
@@ -2813,14 +3986,24 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K54" s="11"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
@@ -2835,14 +4018,24 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K55" s="11"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2859,14 +4052,24 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K56" s="9"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -2897,30 +4100,61 @@
       <c r="J57" s="4">
         <v>32768</v>
       </c>
-      <c r="K57" s="4">
-        <f>D57*E57</f>
-        <v>32768</v>
-      </c>
-      <c r="L57" s="4">
+      <c r="K57" s="10"/>
+      <c r="L57" s="18">
+        <f>L53+J53/2+E53/2</f>
+        <v>266752</v>
+      </c>
+      <c r="M57" s="18">
+        <f>L57+J57/2-1</f>
+        <v>283135</v>
+      </c>
+      <c r="N57" s="18">
+        <f>M57+1</f>
+        <v>283136</v>
+      </c>
+      <c r="O57" s="18">
+        <f>N57+E57/2-1</f>
+        <v>283167</v>
+      </c>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18">
+        <f>S53+1</f>
+        <v>2057396</v>
+      </c>
+      <c r="S57" s="19">
+        <f>R57+I57/2-1</f>
+        <v>2062803</v>
+      </c>
+      <c r="T57" s="18">
+        <f>U57/E57</f>
+        <v>86528</v>
+      </c>
+      <c r="U57" s="4">
+        <f>D57*I57</f>
+        <v>5537792</v>
+      </c>
+      <c r="V57" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M57" s="4">
-        <v>1</v>
-      </c>
-      <c r="N57" s="4">
+      <c r="W57" s="4">
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
         <f>0.0000032*J57+0.0000064*I57</f>
         <v>0.17408000000000001</v>
       </c>
-      <c r="O57" s="4">
-        <f>K57*L57</f>
-        <v>2293.7600000000002</v>
-      </c>
-      <c r="P57" s="4">
-        <f>K57*L57*M57</f>
-        <v>2293.7600000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y57" s="4">
+        <f>U57*V57</f>
+        <v>387645.44000000006</v>
+      </c>
+      <c r="Z57" s="4">
+        <f>T57*V57*W57</f>
+        <v>6056.9600000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
@@ -2935,14 +4169,24 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K58" s="11"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -2973,30 +4217,61 @@
       <c r="J59" s="4">
         <v>16384</v>
       </c>
-      <c r="K59" s="4">
-        <f t="shared" ref="K59:K60" si="28">D59*E59</f>
-        <v>16384</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="K59" s="10"/>
+      <c r="L59" s="18">
+        <f>L57+J57/2+E57/2</f>
+        <v>283168</v>
+      </c>
+      <c r="M59" s="18">
+        <f t="shared" ref="M59:M60" si="27">L59+J59/2-1</f>
+        <v>291359</v>
+      </c>
+      <c r="N59" s="18">
+        <f t="shared" ref="N59:N60" si="28">M59+1</f>
+        <v>291360</v>
+      </c>
+      <c r="O59" s="18">
+        <f>N59+E59/2-1</f>
+        <v>291487</v>
+      </c>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18">
+        <f>S57+1</f>
+        <v>2062804</v>
+      </c>
+      <c r="S59" s="19">
+        <f>R59+I59/2-1</f>
+        <v>2084435</v>
+      </c>
+      <c r="T59" s="18">
+        <f>U59/E59</f>
+        <v>10816</v>
+      </c>
+      <c r="U59" s="4">
+        <f>D59*I59</f>
+        <v>2768896</v>
+      </c>
+      <c r="V59" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M59" s="4">
+      <c r="W59" s="4">
         <v>0</v>
       </c>
-      <c r="N59" s="4">
-        <f t="shared" ref="N59:N60" si="29">0.0000032*J59+0.0000064*I59</f>
+      <c r="X59" s="4">
+        <f>0.0000032*J59+0.0000064*I59</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="O59" s="4">
-        <f t="shared" ref="O59:O60" si="30">K59*L59</f>
-        <v>1146.8800000000001</v>
-      </c>
-      <c r="P59" s="4">
-        <f t="shared" ref="P59:P60" si="31">K59*L59*M59</f>
+      <c r="Y59" s="4">
+        <f t="shared" ref="Y59:Y60" si="29">U59*V59</f>
+        <v>193822.72000000003</v>
+      </c>
+      <c r="Z59" s="4">
+        <f t="shared" ref="Z59:Z60" si="30">T59*V59*W59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3027,30 +4302,61 @@
       <c r="J60" s="4">
         <v>147456</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="10"/>
+      <c r="L60" s="18">
+        <f>L59+J59/2+E59/2</f>
+        <v>291488</v>
+      </c>
+      <c r="M60" s="18">
+        <f t="shared" si="27"/>
+        <v>365215</v>
+      </c>
+      <c r="N60" s="18">
         <f t="shared" si="28"/>
-        <v>16384</v>
-      </c>
-      <c r="L60" s="4">
+        <v>365216</v>
+      </c>
+      <c r="O60" s="18">
+        <f>N60+E60/2-1</f>
+        <v>365343</v>
+      </c>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18">
+        <f>S59+1</f>
+        <v>2084436</v>
+      </c>
+      <c r="S60" s="19">
+        <f>R60+I60/2-1</f>
+        <v>2106067</v>
+      </c>
+      <c r="T60" s="18">
+        <f>U60/E60</f>
+        <v>10816</v>
+      </c>
+      <c r="U60" s="4">
+        <f>D60*I60</f>
+        <v>2768896</v>
+      </c>
+      <c r="V60" s="4">
         <v>0.52</v>
       </c>
-      <c r="M60" s="4">
-        <v>1</v>
-      </c>
-      <c r="N60" s="4">
+      <c r="W60" s="4">
+        <v>1</v>
+      </c>
+      <c r="X60" s="4">
+        <f>0.0000032*J60+0.0000064*I60</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="Y60" s="4">
         <f t="shared" si="29"/>
-        <v>0.74874879999999999</v>
-      </c>
-      <c r="O60" s="4">
+        <v>1439825.9200000002</v>
+      </c>
+      <c r="Z60" s="4">
         <f t="shared" si="30"/>
-        <v>8519.68</v>
-      </c>
-      <c r="P60" s="4">
-        <f t="shared" si="31"/>
-        <v>8519.68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5624.3200000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
@@ -3065,14 +4371,24 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K61" s="11"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -3087,14 +4403,24 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K62" s="11"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -3111,14 +4437,24 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K63" s="9"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
@@ -3133,14 +4469,24 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K64" s="11"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -3171,30 +4517,61 @@
       <c r="J65" s="4">
         <v>512000</v>
       </c>
-      <c r="K65" s="4">
-        <f>D65*E65</f>
-        <v>512000</v>
-      </c>
-      <c r="L65" s="4">
+      <c r="K65" s="10"/>
+      <c r="L65" s="18">
+        <f>L60+J60/2+E60/2</f>
+        <v>365344</v>
+      </c>
+      <c r="M65" s="18">
+        <f>L65+J65/2-1</f>
+        <v>621343</v>
+      </c>
+      <c r="N65" s="18">
+        <f>M65+1</f>
+        <v>621344</v>
+      </c>
+      <c r="O65" s="18">
+        <f>N65+E65/2-1</f>
+        <v>621843</v>
+      </c>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18">
+        <f>S60+1</f>
+        <v>2106068</v>
+      </c>
+      <c r="S65" s="19">
+        <f>R65+I65/2-1</f>
+        <v>2190567</v>
+      </c>
+      <c r="T65" s="18">
+        <f>U65/E65</f>
+        <v>86528</v>
+      </c>
+      <c r="U65" s="4">
+        <f>D65*I65</f>
+        <v>86528000</v>
+      </c>
+      <c r="V65" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M65" s="4">
-        <v>1</v>
-      </c>
-      <c r="N65" s="4">
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
         <f>0.0000032*J65+0.0000064*I65</f>
         <v>2.7199999999999998</v>
       </c>
-      <c r="O65" s="4">
-        <f>K65*L65</f>
-        <v>35840</v>
-      </c>
-      <c r="P65" s="4">
-        <f>K65*L65*M65</f>
-        <v>35840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y65" s="4">
+        <f>U65*V65</f>
+        <v>6056960.0000000009</v>
+      </c>
+      <c r="Z65" s="4">
+        <f>T65*V65*W65</f>
+        <v>6056.9600000000009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -3209,14 +4586,24 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K66" s="11"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
@@ -3227,7 +4614,9 @@
         <v>103</v>
       </c>
       <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="6">
+        <v>1000</v>
+      </c>
       <c r="F67" s="6">
         <v>1</v>
       </c>
@@ -3241,29 +4630,47 @@
         <v>1000</v>
       </c>
       <c r="J67" s="6"/>
-      <c r="K67" s="6">
+      <c r="K67" s="12"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22">
+        <f>S65+1</f>
+        <v>2190568</v>
+      </c>
+      <c r="S67" s="23">
+        <f>R67+I67/2-1</f>
+        <v>2191067</v>
+      </c>
+      <c r="T67" s="22">
         <v>1000</v>
       </c>
-      <c r="L67" s="6">
+      <c r="U67" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V67" s="6">
         <v>1.2</v>
       </c>
-      <c r="M67" s="6">
-        <v>1</v>
-      </c>
-      <c r="N67" s="6">
+      <c r="W67" s="6">
+        <v>1</v>
+      </c>
+      <c r="X67" s="6">
         <f>0.0000064*I67</f>
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="O67" s="6">
-        <f>K67*L67</f>
+      <c r="Y67" s="6">
+        <f>U67*V67</f>
         <v>1200</v>
       </c>
-      <c r="P67" s="6">
-        <f>K67*L67*M67</f>
+      <c r="Z67" s="6">
+        <f>T67*V67*W67</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -3278,14 +4685,24 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K68" s="9"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I69" s="2">
         <f>SUM(I2:I68)</f>
         <v>3071416</v>
@@ -3294,24 +4711,33 @@
         <f>SUM(J3:J68)</f>
         <v>1231552</v>
       </c>
-      <c r="K69" s="2">
-        <f>SUM(K3:K68)</f>
-        <v>1069672</v>
-      </c>
-      <c r="N69" s="2">
-        <f>SUM(N2:N68)</f>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="2">
+        <f>SUM(U3:U68)</f>
+        <v>163998312</v>
+      </c>
+      <c r="X69" s="2">
+        <f>SUM(X2:X68)</f>
         <v>23.116339199999999</v>
       </c>
-      <c r="O69" s="2">
-        <f t="shared" ref="O69:P69" si="32">SUM(O3:O68)</f>
-        <v>182983.68000000002</v>
-      </c>
-      <c r="P69" s="2">
-        <f t="shared" si="32"/>
-        <v>178682.88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Y69" s="2">
+        <f t="shared" ref="Y69:Z69" si="31">SUM(Y3:Y68)</f>
+        <v>21993774.080000002</v>
+      </c>
+      <c r="Z69" s="2">
+        <f t="shared" si="31"/>
+        <v>200398.49000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I70" s="7">
         <f>I69*16/1024/8</f>
         <v>5998.859375</v>
@@ -3320,11 +4746,57 @@
         <f>J69*16/1024/8</f>
         <v>2405.375</v>
       </c>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="24"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="24"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="24"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B69" xr:uid="{5611B078-3ED8-409A-972B-20710E035DA1}"/>
-  <mergeCells count="1">
+  <autoFilter ref="B1:B70" xr:uid="{5611B078-3ED8-409A-972B-20710E035DA1}"/>
+  <mergeCells count="5">
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114768CC-2717-495D-A552-10D04B853CF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA509EF-2FEE-4C55-88D9-41108E438C7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SqueezeNet @ 100MHz + 312.5MHz" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SqueezeNet @ 100MHz + 312.5MHz'!$B$1:$B$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SqueezeNet @ 100MHz + 312.5MHz'!$B$1:$B$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
   <si>
     <t>INPUT</t>
   </si>
@@ -363,6 +363,21 @@
   </si>
   <si>
     <t>Operation Time Considering Parallelity(us)</t>
+  </si>
+  <si>
+    <t>Weight Mem</t>
+  </si>
+  <si>
+    <t>Data Mem</t>
+  </si>
+  <si>
+    <t>Bias Mem</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Output Mem</t>
   </si>
 </sst>
 </file>
@@ -417,10 +432,59 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -429,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -451,6 +515,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,16 +897,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -790,19 +914,23 @@
     <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.1796875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -831,29 +959,48 @@
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -872,20 +1019,34 @@
         <v>150528</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="K2" s="10"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18">
+        <v>655360</v>
+      </c>
+      <c r="S2" s="19">
+        <f>R2+I2/2-1</f>
+        <v>730623</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3">
         <f>0.0000032*I2</f>
         <v>0.4816896</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="2" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -916,30 +1077,56 @@
       <c r="J3" s="4">
         <v>1728</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="11"/>
+      <c r="L3" s="20">
+        <v>4096</v>
+      </c>
+      <c r="M3" s="20">
+        <f>L3+J3/2-1</f>
+        <v>4959</v>
+      </c>
+      <c r="N3" s="20">
+        <f>M3+1</f>
+        <v>4960</v>
+      </c>
+      <c r="O3" s="20">
+        <f>N3+E3/2-1</f>
+        <v>4991</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20">
+        <f>S2+1</f>
+        <v>730624</v>
+      </c>
+      <c r="S3" s="21">
+        <f>R3+I3/2-1</f>
+        <v>1124895</v>
+      </c>
+      <c r="T3" s="4">
         <f>D3*E3</f>
         <v>192</v>
       </c>
-      <c r="L3" s="4">
+      <c r="U3" s="4">
         <v>0.52</v>
       </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
+      <c r="W3" s="4">
         <f>0.0000032*J3+0.0000064*I3</f>
         <v>5.0522111999999995</v>
       </c>
-      <c r="O3" s="4">
-        <f>K3*L3</f>
+      <c r="X3" s="4">
+        <f>T3*U3</f>
         <v>99.84</v>
       </c>
-      <c r="P3" s="4">
-        <f>K3*L3*M3</f>
+      <c r="Y3" s="4">
+        <f>T3*U3*V3</f>
         <v>99.84</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -954,14 +1141,23 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K4" s="12"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -986,29 +1182,44 @@
         <v>193600</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="K5" s="13"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24">
+        <f>S3+1</f>
+        <v>1124896</v>
+      </c>
+      <c r="S5" s="25">
+        <f>R5+I5/2-1</f>
+        <v>1221695</v>
+      </c>
+      <c r="T5" s="6">
         <v>193600</v>
       </c>
-      <c r="L5" s="6">
+      <c r="U5" s="6">
         <v>0.31</v>
       </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="V5" s="6">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6">
         <f>0.0000064*I5</f>
         <v>1.2390399999999999</v>
       </c>
-      <c r="O5" s="6">
-        <f>K5*L5</f>
+      <c r="X5" s="6">
+        <f>T5*U5</f>
         <v>60016</v>
       </c>
-      <c r="P5" s="6">
-        <f>K5*L5*M5</f>
+      <c r="Y5" s="6">
+        <f>T5*U5*V5</f>
         <v>60016</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1039,30 +1250,57 @@
       <c r="J6" s="4">
         <v>1024</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="11"/>
+      <c r="L6" s="20">
+        <f>L3+J3/2+E3/2</f>
+        <v>4992</v>
+      </c>
+      <c r="M6" s="20">
+        <f>L6+J6/2-1</f>
+        <v>5503</v>
+      </c>
+      <c r="N6" s="20">
+        <f>M6+1</f>
+        <v>5504</v>
+      </c>
+      <c r="O6" s="20">
+        <f>N6+E6/2-1</f>
+        <v>5511</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20">
+        <f>S5+1</f>
+        <v>1221696</v>
+      </c>
+      <c r="S6" s="21">
+        <f>R6+I6/2-1</f>
+        <v>1245895</v>
+      </c>
+      <c r="T6" s="4">
         <f>D6*E6</f>
         <v>1024</v>
       </c>
-      <c r="L6" s="4">
+      <c r="U6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
         <f>0.0000032*J6+0.0000064*I6</f>
         <v>0.3130368</v>
       </c>
-      <c r="O6" s="4">
-        <f>K6*L6</f>
+      <c r="X6" s="4">
+        <f>T6*U6</f>
         <v>71.680000000000007</v>
       </c>
-      <c r="P6" s="4">
-        <f>K6*L6*M6</f>
+      <c r="Y6" s="4">
+        <f>T6*U6*V6</f>
         <v>71.680000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1077,14 +1315,23 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K7" s="12"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1115,30 +1362,57 @@
       <c r="J8" s="4">
         <v>1024</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" ref="K8:K9" si="0">D8*E8</f>
+      <c r="K8" s="11"/>
+      <c r="L8" s="20">
+        <f>L6+J6/2+E6/2</f>
+        <v>5512</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" ref="M8:M9" si="0">L8+J8/2-1</f>
+        <v>6023</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" ref="N8:N9" si="1">M8+1</f>
+        <v>6024</v>
+      </c>
+      <c r="O8" s="20">
+        <f>N8+E8/2-1</f>
+        <v>6055</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20">
+        <f>S6+1</f>
+        <v>1245896</v>
+      </c>
+      <c r="S8" s="21">
+        <f>R8+I8/2-1</f>
+        <v>1342695</v>
+      </c>
+      <c r="T8" s="4">
+        <f>D8*E8</f>
         <v>1024</v>
       </c>
-      <c r="L8" s="4">
+      <c r="U8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="V8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
-        <f t="shared" ref="N8:N9" si="1">0.0000032*J8+0.0000064*I8</f>
+      <c r="W8" s="4">
+        <f>0.0000032*J8+0.0000064*I8</f>
         <v>1.2423168</v>
       </c>
-      <c r="O8" s="4">
-        <f t="shared" ref="O8:O9" si="2">K8*L8</f>
+      <c r="X8" s="4">
+        <f t="shared" ref="X8:X9" si="2">T8*U8</f>
         <v>71.680000000000007</v>
       </c>
-      <c r="P8" s="4">
-        <f t="shared" ref="P8:P9" si="3">K8*L8*M8</f>
+      <c r="Y8" s="4">
+        <f t="shared" ref="Y8:Y9" si="3">T8*U8*V8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1169,30 +1443,57 @@
       <c r="J9" s="4">
         <v>9216</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="11"/>
+      <c r="L9" s="20">
+        <f>L8+J8/2+E8/2</f>
+        <v>6056</v>
+      </c>
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
+        <v>10663</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="1"/>
+        <v>10664</v>
+      </c>
+      <c r="O9" s="20">
+        <f>N9+E9/2-1</f>
+        <v>10695</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
+        <f>S8+1</f>
+        <v>1342696</v>
+      </c>
+      <c r="S9" s="21">
+        <f>R9+I9/2-1</f>
+        <v>1439495</v>
+      </c>
+      <c r="T9" s="4">
+        <f>D9*E9</f>
         <v>1024</v>
       </c>
-      <c r="L9" s="4">
+      <c r="U9" s="4">
         <v>0.52</v>
       </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="1"/>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <f>0.0000032*J9+0.0000064*I9</f>
         <v>1.2685312</v>
       </c>
-      <c r="O9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="2"/>
         <v>532.48</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="3"/>
         <v>532.48</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1207,14 +1508,23 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K10" s="12"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1229,14 +1539,23 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K11" s="12"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1253,14 +1572,23 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K12" s="10"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1291,30 +1619,57 @@
       <c r="J13" s="4">
         <v>2048</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="11"/>
+      <c r="L13" s="20">
+        <f>L9+J9/2+E9/2</f>
+        <v>10696</v>
+      </c>
+      <c r="M13" s="20">
+        <f>L13+J13/2-1</f>
+        <v>11719</v>
+      </c>
+      <c r="N13" s="20">
+        <f>M13+1</f>
+        <v>11720</v>
+      </c>
+      <c r="O13" s="20">
+        <f>N13+E13/2-1</f>
+        <v>11727</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20">
+        <f>S9+1</f>
+        <v>1439496</v>
+      </c>
+      <c r="S13" s="21">
+        <f>R13+I13/2-1</f>
+        <v>1463695</v>
+      </c>
+      <c r="T13" s="4">
         <f>D13*E13</f>
         <v>2048</v>
       </c>
-      <c r="L13" s="4">
+      <c r="U13" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
         <f>0.0000032*J13+0.0000064*I13</f>
         <v>0.31631359999999997</v>
       </c>
-      <c r="O13" s="4">
-        <f>K13*L13</f>
+      <c r="X13" s="4">
+        <f>T13*U13</f>
         <v>143.36000000000001</v>
       </c>
-      <c r="P13" s="4">
-        <f>K13*L13*M13</f>
+      <c r="Y13" s="4">
+        <f>T13*U13*V13</f>
         <v>143.36000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1329,14 +1684,23 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K14" s="12"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1367,30 +1731,57 @@
       <c r="J15" s="4">
         <v>1024</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" ref="K15:K16" si="4">D15*E15</f>
+      <c r="K15" s="11"/>
+      <c r="L15" s="20">
+        <f>L13+J13/2+E13/2</f>
+        <v>11728</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" ref="M15:M16" si="4">L15+J15/2-1</f>
+        <v>12239</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" ref="N15:N16" si="5">M15+1</f>
+        <v>12240</v>
+      </c>
+      <c r="O15" s="20">
+        <f>N15+E15/2-1</f>
+        <v>12271</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20">
+        <f>S13+1</f>
+        <v>1463696</v>
+      </c>
+      <c r="S15" s="21">
+        <f>R15+I15/2-1</f>
+        <v>1560495</v>
+      </c>
+      <c r="T15" s="4">
+        <f>D15*E15</f>
         <v>1024</v>
       </c>
-      <c r="L15" s="4">
+      <c r="U15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="V15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="4">
-        <f t="shared" ref="N15:N16" si="5">0.0000032*J15+0.0000064*I15</f>
+      <c r="W15" s="4">
+        <f>0.0000032*J15+0.0000064*I15</f>
         <v>1.2423168</v>
       </c>
-      <c r="O15" s="4">
-        <f t="shared" ref="O15:O16" si="6">K15*L15</f>
+      <c r="X15" s="4">
+        <f t="shared" ref="X15:X16" si="6">T15*U15</f>
         <v>71.680000000000007</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" ref="P15:P16" si="7">K15*L15*M15</f>
+      <c r="Y15" s="4">
+        <f t="shared" ref="Y15:Y16" si="7">T15*U15*V15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1421,30 +1812,57 @@
       <c r="J16" s="4">
         <v>9216</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="11"/>
+      <c r="L16" s="20">
+        <f>L15+J15/2+E15/2</f>
+        <v>12272</v>
+      </c>
+      <c r="M16" s="20">
         <f t="shared" si="4"/>
+        <v>16879</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="5"/>
+        <v>16880</v>
+      </c>
+      <c r="O16" s="20">
+        <f>N16+E16/2-1</f>
+        <v>16911</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20">
+        <f>S15+1</f>
+        <v>1560496</v>
+      </c>
+      <c r="S16" s="21">
+        <f>R16+I16/2-1</f>
+        <v>1657295</v>
+      </c>
+      <c r="T16" s="4">
+        <f>D16*E16</f>
         <v>1024</v>
       </c>
-      <c r="L16" s="4">
+      <c r="U16" s="4">
         <v>0.52</v>
       </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="5"/>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="W16" s="4">
+        <f>0.0000032*J16+0.0000064*I16</f>
         <v>1.2685312</v>
       </c>
-      <c r="O16" s="4">
+      <c r="X16" s="4">
         <f t="shared" si="6"/>
         <v>532.48</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="7"/>
         <v>532.48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1459,14 +1877,23 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K17" s="12"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1481,14 +1908,23 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K18" s="12"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1505,14 +1941,23 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K19" s="10"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1537,29 +1982,44 @@
         <v>93312</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6">
+      <c r="K20" s="13"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24">
+        <f>S16+1</f>
+        <v>1657296</v>
+      </c>
+      <c r="S20" s="25">
+        <f>R20+I20/2-1</f>
+        <v>1703951</v>
+      </c>
+      <c r="T20" s="6">
         <v>93312</v>
       </c>
-      <c r="L20" s="6">
+      <c r="U20" s="6">
         <v>0.31</v>
       </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="V20" s="6">
+        <v>1</v>
+      </c>
+      <c r="W20" s="6">
         <f>0.0000064*I20</f>
         <v>0.59719679999999997</v>
       </c>
-      <c r="O20" s="6">
-        <f>K20*L20</f>
+      <c r="X20" s="6">
+        <f>T20*U20</f>
         <v>28926.720000000001</v>
       </c>
-      <c r="P20" s="6">
-        <f>K20*L20*M20</f>
+      <c r="Y20" s="6">
+        <f>T20*U20*V20</f>
         <v>28926.720000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1590,30 +2050,57 @@
       <c r="J21" s="4">
         <v>4096</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="11"/>
+      <c r="L21" s="20">
+        <f>L16+J16/2+E16/2</f>
+        <v>16912</v>
+      </c>
+      <c r="M21" s="20">
+        <f>L21+J21/2-1</f>
+        <v>18959</v>
+      </c>
+      <c r="N21" s="20">
+        <f>M21+1</f>
+        <v>18960</v>
+      </c>
+      <c r="O21" s="20">
+        <f>N21+E21/2-1</f>
+        <v>18975</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20">
+        <f>S20+1</f>
+        <v>1703952</v>
+      </c>
+      <c r="S21" s="21">
+        <f>R21+I21/2-1</f>
+        <v>1715615</v>
+      </c>
+      <c r="T21" s="4">
         <f>D21*E21</f>
         <v>4096</v>
       </c>
-      <c r="L21" s="4">
+      <c r="U21" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
         <f>0.0000032*J21+0.0000064*I21</f>
         <v>0.16240640000000001</v>
       </c>
-      <c r="O21" s="4">
-        <f>K21*L21</f>
+      <c r="X21" s="4">
+        <f>T21*U21</f>
         <v>286.72000000000003</v>
       </c>
-      <c r="P21" s="4">
-        <f>K21*L21*M21</f>
+      <c r="Y21" s="4">
+        <f>T21*U21*V21</f>
         <v>286.72000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1628,14 +2115,23 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K22" s="12"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1666,30 +2162,57 @@
       <c r="J23" s="4">
         <v>4096</v>
       </c>
-      <c r="K23" s="4">
-        <f t="shared" ref="K23:K24" si="8">D23*E23</f>
+      <c r="K23" s="11"/>
+      <c r="L23" s="20">
+        <f>L21+J21/2+E21/2</f>
+        <v>18976</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" ref="M23:M24" si="8">L23+J23/2-1</f>
+        <v>21023</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" ref="N23:N24" si="9">M23+1</f>
+        <v>21024</v>
+      </c>
+      <c r="O23" s="20">
+        <f>N23+E23/2-1</f>
+        <v>21087</v>
+      </c>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20">
+        <f>S21+1</f>
+        <v>1715616</v>
+      </c>
+      <c r="S23" s="21">
+        <f>R23+I23/2-1</f>
+        <v>1762271</v>
+      </c>
+      <c r="T23" s="4">
+        <f>D23*E23</f>
         <v>4096</v>
       </c>
-      <c r="L23" s="4">
+      <c r="U23" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="V23" s="4">
         <v>0</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" ref="N23:N24" si="9">0.0000032*J23+0.0000064*I23</f>
+      <c r="W23" s="4">
+        <f>0.0000032*J23+0.0000064*I23</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" ref="O23:O24" si="10">K23*L23</f>
+      <c r="X23" s="4">
+        <f t="shared" ref="X23:X24" si="10">T23*U23</f>
         <v>286.72000000000003</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" ref="P23:P24" si="11">K23*L23*M23</f>
+      <c r="Y23" s="4">
+        <f t="shared" ref="Y23:Y24" si="11">T23*U23*V23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1720,30 +2243,57 @@
       <c r="J24" s="4">
         <v>36864</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="11"/>
+      <c r="L24" s="20">
+        <f>L23+J23/2+E23/2</f>
+        <v>21088</v>
+      </c>
+      <c r="M24" s="20">
         <f t="shared" si="8"/>
+        <v>39519</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="9"/>
+        <v>39520</v>
+      </c>
+      <c r="O24" s="20">
+        <f>N24+E24/2-1</f>
+        <v>39583</v>
+      </c>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20">
+        <f>S23+1</f>
+        <v>1762272</v>
+      </c>
+      <c r="S24" s="21">
+        <f>R24+I24/2-1</f>
+        <v>1808927</v>
+      </c>
+      <c r="T24" s="4">
+        <f>D24*E24</f>
         <v>4096</v>
       </c>
-      <c r="L24" s="4">
+      <c r="U24" s="4">
         <v>0.52</v>
       </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="9"/>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
+        <f>0.0000032*J24+0.0000064*I24</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="O24" s="4">
+      <c r="X24" s="4">
         <f t="shared" si="10"/>
         <v>2129.92</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Y24" s="4">
         <f t="shared" si="11"/>
         <v>2129.92</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1758,14 +2308,23 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K25" s="12"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1780,14 +2339,23 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K26" s="12"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1804,14 +2372,23 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K27" s="10"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1842,30 +2419,57 @@
       <c r="J28" s="4">
         <v>8192</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="11"/>
+      <c r="L28" s="20">
+        <f>L24+J24/2+E24/2</f>
+        <v>39584</v>
+      </c>
+      <c r="M28" s="20">
+        <f>L28+J28/2-1</f>
+        <v>43679</v>
+      </c>
+      <c r="N28" s="20">
+        <f>M28+1</f>
+        <v>43680</v>
+      </c>
+      <c r="O28" s="20">
+        <f>N28+E28/2-1</f>
+        <v>43695</v>
+      </c>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20">
+        <f>S24+1</f>
+        <v>1808928</v>
+      </c>
+      <c r="S28" s="21">
+        <f>R28+I28/2-1</f>
+        <v>1820591</v>
+      </c>
+      <c r="T28" s="4">
         <f>D28*E28</f>
         <v>8192</v>
       </c>
-      <c r="L28" s="4">
+      <c r="U28" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M28" s="4">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
         <f>0.0000032*J28+0.0000064*I28</f>
         <v>0.17551359999999999</v>
       </c>
-      <c r="O28" s="4">
-        <f>K28*L28</f>
+      <c r="X28" s="4">
+        <f>T28*U28</f>
         <v>573.44000000000005</v>
       </c>
-      <c r="P28" s="4">
-        <f>K28*L28*M28</f>
+      <c r="Y28" s="4">
+        <f>T28*U28*V28</f>
         <v>573.44000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1880,14 +2484,23 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K29" s="12"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1918,30 +2531,57 @@
       <c r="J30" s="4">
         <v>4096</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" ref="K30:K31" si="12">D30*E30</f>
+      <c r="K30" s="11"/>
+      <c r="L30" s="20">
+        <f>L28+J28/2+E28/2</f>
+        <v>43696</v>
+      </c>
+      <c r="M30" s="20">
+        <f t="shared" ref="M30:M31" si="12">L30+J30/2-1</f>
+        <v>45743</v>
+      </c>
+      <c r="N30" s="20">
+        <f t="shared" ref="N30:N31" si="13">M30+1</f>
+        <v>45744</v>
+      </c>
+      <c r="O30" s="20">
+        <f>N30+E30/2-1</f>
+        <v>45807</v>
+      </c>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20">
+        <f>S28+1</f>
+        <v>1820592</v>
+      </c>
+      <c r="S30" s="21">
+        <f>R30+I30/2-1</f>
+        <v>1867247</v>
+      </c>
+      <c r="T30" s="4">
+        <f>D30*E30</f>
         <v>4096</v>
       </c>
-      <c r="L30" s="4">
+      <c r="U30" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M30" s="4">
+      <c r="V30" s="4">
         <v>0</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" ref="N30:N31" si="13">0.0000032*J30+0.0000064*I30</f>
+      <c r="W30" s="4">
+        <f>0.0000032*J30+0.0000064*I30</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" ref="O30:O31" si="14">K30*L30</f>
+      <c r="X30" s="4">
+        <f t="shared" ref="X30:X31" si="14">T30*U30</f>
         <v>286.72000000000003</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" ref="P30:P31" si="15">K30*L30*M30</f>
+      <c r="Y30" s="4">
+        <f t="shared" ref="Y30:Y31" si="15">T30*U30*V30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1972,30 +2612,57 @@
       <c r="J31" s="4">
         <v>36864</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="11"/>
+      <c r="L31" s="20">
+        <f>L30+J30/2+E30/2</f>
+        <v>45808</v>
+      </c>
+      <c r="M31" s="20">
         <f t="shared" si="12"/>
+        <v>64239</v>
+      </c>
+      <c r="N31" s="20">
+        <f t="shared" si="13"/>
+        <v>64240</v>
+      </c>
+      <c r="O31" s="20">
+        <f>N31+E31/2-1</f>
+        <v>64303</v>
+      </c>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20">
+        <f>S30+1</f>
+        <v>1867248</v>
+      </c>
+      <c r="S31" s="21">
+        <f>R31+I31/2-1</f>
+        <v>1913903</v>
+      </c>
+      <c r="T31" s="4">
+        <f>D31*E31</f>
         <v>4096</v>
       </c>
-      <c r="L31" s="4">
+      <c r="U31" s="4">
         <v>0.52</v>
       </c>
-      <c r="M31" s="4">
-        <v>1</v>
-      </c>
-      <c r="N31" s="4">
-        <f t="shared" si="13"/>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4">
+        <f>0.0000032*J31+0.0000064*I31</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="O31" s="4">
+      <c r="X31" s="4">
         <f t="shared" si="14"/>
         <v>2129.92</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Y31" s="4">
         <f t="shared" si="15"/>
         <v>2129.92</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -2010,14 +2677,23 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K32" s="12"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -2032,14 +2708,23 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K33" s="12"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2056,14 +2741,23 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K34" s="10"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -2088,29 +2782,44 @@
         <v>43624</v>
       </c>
       <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="K35" s="13"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24">
+        <f>S31+1</f>
+        <v>1913904</v>
+      </c>
+      <c r="S35" s="25">
+        <f>R35+I35/2-1</f>
+        <v>1935715</v>
+      </c>
+      <c r="T35" s="6">
         <v>43264</v>
       </c>
-      <c r="L35" s="6">
+      <c r="U35" s="6">
         <v>0.31</v>
       </c>
-      <c r="M35" s="6">
-        <v>1</v>
-      </c>
-      <c r="N35" s="6">
+      <c r="V35" s="6">
+        <v>1</v>
+      </c>
+      <c r="W35" s="6">
         <f>0.0000064*I35</f>
         <v>0.27919359999999999</v>
       </c>
-      <c r="O35" s="6">
-        <f>K35*L35</f>
+      <c r="X35" s="6">
+        <f>T35*U35</f>
         <v>13411.84</v>
       </c>
-      <c r="P35" s="6">
-        <f>K35*L35*M35</f>
+      <c r="Y35" s="6">
+        <f>T35*U35*V35</f>
         <v>13411.84</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2141,30 +2850,57 @@
       <c r="J36" s="4">
         <v>12288</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="11"/>
+      <c r="L36" s="20">
+        <f>L31+J31/2+E31/2</f>
+        <v>64304</v>
+      </c>
+      <c r="M36" s="20">
+        <f>L36+J36/2-1</f>
+        <v>70447</v>
+      </c>
+      <c r="N36" s="20">
+        <f>M36+1</f>
+        <v>70448</v>
+      </c>
+      <c r="O36" s="20">
+        <f>N36+E36/2-1</f>
+        <v>70471</v>
+      </c>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20">
+        <f>S35+1</f>
+        <v>1935716</v>
+      </c>
+      <c r="S36" s="21">
+        <f>R36+I36/2-1</f>
+        <v>1939771</v>
+      </c>
+      <c r="T36" s="4">
         <f>D36*E36</f>
         <v>12288</v>
       </c>
-      <c r="L36" s="4">
+      <c r="U36" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M36" s="4">
-        <v>1</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="V36" s="4">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
         <f>0.0000032*J36+0.0000064*I36</f>
         <v>9.1238399999999997E-2</v>
       </c>
-      <c r="O36" s="4">
-        <f>K36*L36</f>
+      <c r="X36" s="4">
+        <f>T36*U36</f>
         <v>860.16000000000008</v>
       </c>
-      <c r="P36" s="4">
-        <f>K36*L36*M36</f>
+      <c r="Y36" s="4">
+        <f>T36*U36*V36</f>
         <v>860.16000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -2179,14 +2915,23 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K37" s="12"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2217,30 +2962,57 @@
       <c r="J38" s="4">
         <v>9216</v>
       </c>
-      <c r="K38" s="4">
-        <f t="shared" ref="K38:K39" si="16">D38*E38</f>
+      <c r="K38" s="11"/>
+      <c r="L38" s="20">
+        <f>L36+J36/2+E36/2</f>
+        <v>70472</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" ref="M38:M39" si="16">L38+J38/2-1</f>
+        <v>75079</v>
+      </c>
+      <c r="N38" s="20">
+        <f>M38+1</f>
+        <v>75080</v>
+      </c>
+      <c r="O38" s="20">
+        <f>N38+E38/2-1</f>
+        <v>75175</v>
+      </c>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20">
+        <f>S36+1</f>
+        <v>1939772</v>
+      </c>
+      <c r="S38" s="21">
+        <f>R38+I38/2-1</f>
+        <v>1955995</v>
+      </c>
+      <c r="T38" s="4">
+        <f>D38*E38</f>
         <v>9216</v>
       </c>
-      <c r="L38" s="4">
+      <c r="U38" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M38" s="4">
+      <c r="V38" s="4">
         <v>0</v>
       </c>
-      <c r="N38" s="4">
-        <f t="shared" ref="N38:N39" si="17">0.0000032*J38+0.0000064*I38</f>
+      <c r="W38" s="4">
+        <f>0.0000032*J38+0.0000064*I38</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="O38" s="4">
-        <f t="shared" ref="O38:O39" si="18">K38*L38</f>
+      <c r="X38" s="4">
+        <f t="shared" ref="X38:X39" si="17">T38*U38</f>
         <v>645.12000000000012</v>
       </c>
-      <c r="P38" s="4">
-        <f t="shared" ref="P38:P39" si="19">K38*L38*M38</f>
+      <c r="Y38" s="4">
+        <f t="shared" ref="Y38:Y39" si="18">T38*U38*V38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2271,30 +3043,57 @@
       <c r="J39" s="4">
         <v>82944</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="11"/>
+      <c r="L39" s="20">
+        <f>L38+J38/2+E38/2</f>
+        <v>75176</v>
+      </c>
+      <c r="M39" s="20">
         <f t="shared" si="16"/>
+        <v>116647</v>
+      </c>
+      <c r="N39" s="20">
+        <f>M39+1</f>
+        <v>116648</v>
+      </c>
+      <c r="O39" s="20">
+        <f>N39+E39/2-1</f>
+        <v>116743</v>
+      </c>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20">
+        <f>S38+1</f>
+        <v>1955996</v>
+      </c>
+      <c r="S39" s="21">
+        <f>R39+I39/2-1</f>
+        <v>1972219</v>
+      </c>
+      <c r="T39" s="4">
+        <f>D39*E39</f>
         <v>9216</v>
       </c>
-      <c r="L39" s="4">
+      <c r="U39" s="4">
         <v>0.52</v>
       </c>
-      <c r="M39" s="4">
-        <v>1</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <f>0.0000032*J39+0.0000064*I39</f>
+        <v>0.47308800000000001</v>
+      </c>
+      <c r="X39" s="4">
         <f t="shared" si="17"/>
-        <v>0.47308800000000001</v>
-      </c>
-      <c r="O39" s="4">
+        <v>4792.32</v>
+      </c>
+      <c r="Y39" s="4">
         <f t="shared" si="18"/>
         <v>4792.32</v>
       </c>
-      <c r="P39" s="4">
-        <f t="shared" si="19"/>
-        <v>4792.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -2309,14 +3108,23 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K40" s="12"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2331,14 +3139,23 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K41" s="12"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -2355,14 +3172,23 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K42" s="10"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -2393,30 +3219,57 @@
       <c r="J43" s="4">
         <v>18432</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="11"/>
+      <c r="L43" s="20">
+        <f>L39+J39/2+E39/2</f>
+        <v>116744</v>
+      </c>
+      <c r="M43" s="20">
+        <f>L43+J43/2-1</f>
+        <v>125959</v>
+      </c>
+      <c r="N43" s="20">
+        <f>M43+1</f>
+        <v>125960</v>
+      </c>
+      <c r="O43" s="20">
+        <f>N43+E43/2-1</f>
+        <v>125983</v>
+      </c>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20">
+        <f>S39+1</f>
+        <v>1972220</v>
+      </c>
+      <c r="S43" s="21">
+        <f>R43+I43/2-1</f>
+        <v>1976275</v>
+      </c>
+      <c r="T43" s="4">
         <f>D43*E43</f>
         <v>18432</v>
       </c>
-      <c r="L43" s="4">
+      <c r="U43" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M43" s="4">
-        <v>1</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="V43" s="4">
+        <v>1</v>
+      </c>
+      <c r="W43" s="4">
         <f>0.0000032*J43+0.0000064*I43</f>
         <v>0.1108992</v>
       </c>
-      <c r="O43" s="4">
-        <f>K43*L43</f>
+      <c r="X43" s="4">
+        <f>T43*U43</f>
         <v>1290.2400000000002</v>
       </c>
-      <c r="P43" s="4">
-        <f>K43*L43*M43</f>
+      <c r="Y43" s="4">
+        <f>T43*U43*V43</f>
         <v>1290.2400000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -2431,14 +3284,23 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K44" s="12"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -2469,30 +3331,57 @@
       <c r="J45" s="4">
         <v>9216</v>
       </c>
-      <c r="K45" s="4">
-        <f t="shared" ref="K45:K46" si="20">D45*E45</f>
+      <c r="K45" s="11"/>
+      <c r="L45" s="20">
+        <f>L43+J43/2+E43/2</f>
+        <v>125984</v>
+      </c>
+      <c r="M45" s="20">
+        <f t="shared" ref="M45:M46" si="19">L45+J45/2-1</f>
+        <v>130591</v>
+      </c>
+      <c r="N45" s="20">
+        <f t="shared" ref="N45:N46" si="20">M45+1</f>
+        <v>130592</v>
+      </c>
+      <c r="O45" s="20">
+        <f>N45+E45/2-1</f>
+        <v>130687</v>
+      </c>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20">
+        <f>S43+1</f>
+        <v>1976276</v>
+      </c>
+      <c r="S45" s="21">
+        <f>R45+I45/2-1</f>
+        <v>1992499</v>
+      </c>
+      <c r="T45" s="4">
+        <f>D45*E45</f>
         <v>9216</v>
       </c>
-      <c r="L45" s="4">
+      <c r="U45" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M45" s="4">
+      <c r="V45" s="4">
         <v>0</v>
       </c>
-      <c r="N45" s="4">
-        <f t="shared" ref="N45:N46" si="21">0.0000032*J45+0.0000064*I45</f>
+      <c r="W45" s="4">
+        <f>0.0000032*J45+0.0000064*I45</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="O45" s="4">
-        <f t="shared" ref="O45:O46" si="22">K45*L45</f>
+      <c r="X45" s="4">
+        <f t="shared" ref="X45:X46" si="21">T45*U45</f>
         <v>645.12000000000012</v>
       </c>
-      <c r="P45" s="4">
-        <f t="shared" ref="P45:P46" si="23">K45*L45*M45</f>
+      <c r="Y45" s="4">
+        <f t="shared" ref="Y45:Y46" si="22">T45*U45*V45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -2523,30 +3412,57 @@
       <c r="J46" s="4">
         <v>82944</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="11"/>
+      <c r="L46" s="20">
+        <f>L45+J45/2+E45/2</f>
+        <v>130688</v>
+      </c>
+      <c r="M46" s="20">
+        <f t="shared" si="19"/>
+        <v>172159</v>
+      </c>
+      <c r="N46" s="20">
         <f t="shared" si="20"/>
+        <v>172160</v>
+      </c>
+      <c r="O46" s="20">
+        <f>N46+E46/2-1</f>
+        <v>172255</v>
+      </c>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20">
+        <f>S45+1</f>
+        <v>1992500</v>
+      </c>
+      <c r="S46" s="21">
+        <f>R46+I46/2-1</f>
+        <v>2008723</v>
+      </c>
+      <c r="T46" s="4">
+        <f>D46*E46</f>
         <v>9216</v>
       </c>
-      <c r="L46" s="4">
+      <c r="U46" s="4">
         <v>0.52</v>
       </c>
-      <c r="M46" s="4">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="V46" s="4">
+        <v>1</v>
+      </c>
+      <c r="W46" s="4">
+        <f>0.0000032*J46+0.0000064*I46</f>
+        <v>0.47308800000000001</v>
+      </c>
+      <c r="X46" s="4">
         <f t="shared" si="21"/>
-        <v>0.47308800000000001</v>
-      </c>
-      <c r="O46" s="4">
+        <v>4792.32</v>
+      </c>
+      <c r="Y46" s="4">
         <f t="shared" si="22"/>
         <v>4792.32</v>
       </c>
-      <c r="P46" s="4">
-        <f t="shared" si="23"/>
-        <v>4792.32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
@@ -2561,14 +3477,23 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K47" s="12"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
@@ -2583,14 +3508,23 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K48" s="12"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2607,14 +3541,23 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K49" s="10"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -2645,30 +3588,57 @@
       <c r="J50" s="4">
         <v>24576</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="11"/>
+      <c r="L50" s="20">
+        <f>L46+J46/2+E46/2</f>
+        <v>172256</v>
+      </c>
+      <c r="M50" s="20">
+        <f>L50+J50/2-1</f>
+        <v>184543</v>
+      </c>
+      <c r="N50" s="20">
+        <f>M50+1</f>
+        <v>184544</v>
+      </c>
+      <c r="O50" s="20">
+        <f>N50+E50/2-1</f>
+        <v>184575</v>
+      </c>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20">
+        <f>S46+1</f>
+        <v>2008724</v>
+      </c>
+      <c r="S50" s="21">
+        <f>R50+I50/2-1</f>
+        <v>2014131</v>
+      </c>
+      <c r="T50" s="4">
         <f>D50*E50</f>
         <v>24576</v>
       </c>
-      <c r="L50" s="4">
+      <c r="U50" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M50" s="4">
-        <v>1</v>
-      </c>
-      <c r="N50" s="4">
+      <c r="V50" s="4">
+        <v>1</v>
+      </c>
+      <c r="W50" s="4">
         <f>0.0000032*J50+0.0000064*I50</f>
         <v>0.14786559999999999</v>
       </c>
-      <c r="O50" s="4">
-        <f>K50*L50</f>
+      <c r="X50" s="4">
+        <f>T50*U50</f>
         <v>1720.3200000000002</v>
       </c>
-      <c r="P50" s="4">
-        <f>K50*L50*M50</f>
+      <c r="Y50" s="4">
+        <f>T50*U50*V50</f>
         <v>1720.3200000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
@@ -2683,14 +3653,23 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="12"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -2721,30 +3700,57 @@
       <c r="J52" s="4">
         <v>16384</v>
       </c>
-      <c r="K52" s="4">
-        <f t="shared" ref="K52:K53" si="24">D52*E52</f>
+      <c r="K52" s="11"/>
+      <c r="L52" s="20">
+        <f>L50+J50/2+E50/2</f>
+        <v>184576</v>
+      </c>
+      <c r="M52" s="20">
+        <f t="shared" ref="M52:M53" si="23">L52+J52/2-1</f>
+        <v>192767</v>
+      </c>
+      <c r="N52" s="20">
+        <f t="shared" ref="N52:N53" si="24">M52+1</f>
+        <v>192768</v>
+      </c>
+      <c r="O52" s="20">
+        <f>N52+E52/2-1</f>
+        <v>192895</v>
+      </c>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20">
+        <f>S50+1</f>
+        <v>2014132</v>
+      </c>
+      <c r="S52" s="21">
+        <f>R52+I52/2-1</f>
+        <v>2035763</v>
+      </c>
+      <c r="T52" s="4">
+        <f>D52*E52</f>
         <v>16384</v>
       </c>
-      <c r="L52" s="4">
+      <c r="U52" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M52" s="4">
+      <c r="V52" s="4">
         <v>0</v>
       </c>
-      <c r="N52" s="4">
-        <f t="shared" ref="N52:N53" si="25">0.0000032*J52+0.0000064*I52</f>
+      <c r="W52" s="4">
+        <f>0.0000032*J52+0.0000064*I52</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="O52" s="4">
-        <f t="shared" ref="O52:O53" si="26">K52*L52</f>
+      <c r="X52" s="4">
+        <f t="shared" ref="X52:X53" si="25">T52*U52</f>
         <v>1146.8800000000001</v>
       </c>
-      <c r="P52" s="4">
-        <f t="shared" ref="P52:P53" si="27">K52*L52*M52</f>
+      <c r="Y52" s="4">
+        <f t="shared" ref="Y52:Y53" si="26">T52*U52*V52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -2775,30 +3781,57 @@
       <c r="J53" s="4">
         <v>147456</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="11"/>
+      <c r="L53" s="20">
+        <f>L52+J52/2+E52/2</f>
+        <v>192896</v>
+      </c>
+      <c r="M53" s="20">
+        <f t="shared" si="23"/>
+        <v>266623</v>
+      </c>
+      <c r="N53" s="20">
         <f t="shared" si="24"/>
+        <v>266624</v>
+      </c>
+      <c r="O53" s="20">
+        <f>N53+E53/2-1</f>
+        <v>266751</v>
+      </c>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20">
+        <f>S52+1</f>
+        <v>2035764</v>
+      </c>
+      <c r="S53" s="21">
+        <f>R53+I53/2-1</f>
+        <v>2057395</v>
+      </c>
+      <c r="T53" s="4">
+        <f>D53*E53</f>
         <v>16384</v>
       </c>
-      <c r="L53" s="4">
+      <c r="U53" s="4">
         <v>0.52</v>
       </c>
-      <c r="M53" s="4">
-        <v>1</v>
-      </c>
-      <c r="N53" s="4">
+      <c r="V53" s="4">
+        <v>1</v>
+      </c>
+      <c r="W53" s="4">
+        <f>0.0000032*J53+0.0000064*I53</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="X53" s="4">
         <f t="shared" si="25"/>
-        <v>0.74874879999999999</v>
-      </c>
-      <c r="O53" s="4">
+        <v>8519.68</v>
+      </c>
+      <c r="Y53" s="4">
         <f t="shared" si="26"/>
         <v>8519.68</v>
       </c>
-      <c r="P53" s="4">
-        <f t="shared" si="27"/>
-        <v>8519.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
@@ -2813,14 +3846,23 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K54" s="12"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
@@ -2835,14 +3877,23 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K55" s="12"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2859,14 +3910,23 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K56" s="10"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -2897,30 +3957,57 @@
       <c r="J57" s="4">
         <v>32768</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="11"/>
+      <c r="L57" s="20">
+        <f>L53+J53/2+E53/2</f>
+        <v>266752</v>
+      </c>
+      <c r="M57" s="20">
+        <f>L57+J57/2-1</f>
+        <v>283135</v>
+      </c>
+      <c r="N57" s="20">
+        <f>M57+1</f>
+        <v>283136</v>
+      </c>
+      <c r="O57" s="20">
+        <f>N57+E57/2-1</f>
+        <v>283167</v>
+      </c>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20">
+        <f>S53+1</f>
+        <v>2057396</v>
+      </c>
+      <c r="S57" s="21">
+        <f>R57+I57/2-1</f>
+        <v>2062803</v>
+      </c>
+      <c r="T57" s="4">
         <f>D57*E57</f>
         <v>32768</v>
       </c>
-      <c r="L57" s="4">
+      <c r="U57" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M57" s="4">
-        <v>1</v>
-      </c>
-      <c r="N57" s="4">
+      <c r="V57" s="4">
+        <v>1</v>
+      </c>
+      <c r="W57" s="4">
         <f>0.0000032*J57+0.0000064*I57</f>
         <v>0.17408000000000001</v>
       </c>
-      <c r="O57" s="4">
-        <f>K57*L57</f>
+      <c r="X57" s="4">
+        <f>T57*U57</f>
         <v>2293.7600000000002</v>
       </c>
-      <c r="P57" s="4">
-        <f>K57*L57*M57</f>
+      <c r="Y57" s="4">
+        <f>T57*U57*V57</f>
         <v>2293.7600000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
@@ -2935,14 +4022,23 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K58" s="12"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -2973,30 +4069,57 @@
       <c r="J59" s="4">
         <v>16384</v>
       </c>
-      <c r="K59" s="4">
-        <f t="shared" ref="K59:K60" si="28">D59*E59</f>
+      <c r="K59" s="11"/>
+      <c r="L59" s="20">
+        <f>L57+J57/2+E57/2</f>
+        <v>283168</v>
+      </c>
+      <c r="M59" s="20">
+        <f t="shared" ref="M59:M60" si="27">L59+J59/2-1</f>
+        <v>291359</v>
+      </c>
+      <c r="N59" s="20">
+        <f t="shared" ref="N59:N60" si="28">M59+1</f>
+        <v>291360</v>
+      </c>
+      <c r="O59" s="20">
+        <f>N59+E59/2-1</f>
+        <v>291487</v>
+      </c>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20">
+        <f>S57+1</f>
+        <v>2062804</v>
+      </c>
+      <c r="S59" s="21">
+        <f>R59+I59/2-1</f>
+        <v>2084435</v>
+      </c>
+      <c r="T59" s="4">
+        <f>D59*E59</f>
         <v>16384</v>
       </c>
-      <c r="L59" s="4">
+      <c r="U59" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M59" s="4">
+      <c r="V59" s="4">
         <v>0</v>
       </c>
-      <c r="N59" s="4">
-        <f t="shared" ref="N59:N60" si="29">0.0000032*J59+0.0000064*I59</f>
+      <c r="W59" s="4">
+        <f>0.0000032*J59+0.0000064*I59</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="O59" s="4">
-        <f t="shared" ref="O59:O60" si="30">K59*L59</f>
+      <c r="X59" s="4">
+        <f t="shared" ref="X59:X60" si="29">T59*U59</f>
         <v>1146.8800000000001</v>
       </c>
-      <c r="P59" s="4">
-        <f t="shared" ref="P59:P60" si="31">K59*L59*M59</f>
+      <c r="Y59" s="4">
+        <f t="shared" ref="Y59:Y60" si="30">T59*U59*V59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -3027,30 +4150,57 @@
       <c r="J60" s="4">
         <v>147456</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="11"/>
+      <c r="L60" s="20">
+        <f>L59+J59/2+E59/2</f>
+        <v>291488</v>
+      </c>
+      <c r="M60" s="20">
+        <f t="shared" si="27"/>
+        <v>365215</v>
+      </c>
+      <c r="N60" s="20">
         <f t="shared" si="28"/>
+        <v>365216</v>
+      </c>
+      <c r="O60" s="20">
+        <f>N60+E60/2-1</f>
+        <v>365343</v>
+      </c>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20">
+        <f>S59+1</f>
+        <v>2084436</v>
+      </c>
+      <c r="S60" s="21">
+        <f>R60+I60/2-1</f>
+        <v>2106067</v>
+      </c>
+      <c r="T60" s="4">
+        <f>D60*E60</f>
         <v>16384</v>
       </c>
-      <c r="L60" s="4">
+      <c r="U60" s="4">
         <v>0.52</v>
       </c>
-      <c r="M60" s="4">
-        <v>1</v>
-      </c>
-      <c r="N60" s="4">
+      <c r="V60" s="4">
+        <v>1</v>
+      </c>
+      <c r="W60" s="4">
+        <f>0.0000032*J60+0.0000064*I60</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="X60" s="4">
         <f t="shared" si="29"/>
-        <v>0.74874879999999999</v>
-      </c>
-      <c r="O60" s="4">
+        <v>8519.68</v>
+      </c>
+      <c r="Y60" s="4">
         <f t="shared" si="30"/>
         <v>8519.68</v>
       </c>
-      <c r="P60" s="4">
-        <f t="shared" si="31"/>
-        <v>8519.68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
@@ -3065,14 +4215,23 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K61" s="12"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -3087,14 +4246,23 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K62" s="12"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -3111,14 +4279,23 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K63" s="10"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
@@ -3133,14 +4310,23 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K64" s="12"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -3171,30 +4357,57 @@
       <c r="J65" s="4">
         <v>512000</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="11"/>
+      <c r="L65" s="20">
+        <f>L60+J60/2+E60/2</f>
+        <v>365344</v>
+      </c>
+      <c r="M65" s="20">
+        <f>L65+J65/2-1</f>
+        <v>621343</v>
+      </c>
+      <c r="N65" s="20">
+        <f>M65+1</f>
+        <v>621344</v>
+      </c>
+      <c r="O65" s="20">
+        <f>N65+E65/2-1</f>
+        <v>621843</v>
+      </c>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20">
+        <f>S60+1</f>
+        <v>2106068</v>
+      </c>
+      <c r="S65" s="21">
+        <f>R65+I65/2-1</f>
+        <v>2190567</v>
+      </c>
+      <c r="T65" s="4">
         <f>D65*E65</f>
         <v>512000</v>
       </c>
-      <c r="L65" s="4">
+      <c r="U65" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M65" s="4">
-        <v>1</v>
-      </c>
-      <c r="N65" s="4">
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
         <f>0.0000032*J65+0.0000064*I65</f>
         <v>2.7199999999999998</v>
       </c>
-      <c r="O65" s="4">
-        <f>K65*L65</f>
+      <c r="X65" s="4">
+        <f>T65*U65</f>
         <v>35840</v>
       </c>
-      <c r="P65" s="4">
-        <f>K65*L65*M65</f>
+      <c r="Y65" s="4">
+        <f>T65*U65*V65</f>
         <v>35840</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -3209,14 +4422,23 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K66" s="12"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
@@ -3241,29 +4463,44 @@
         <v>1000</v>
       </c>
       <c r="J67" s="6"/>
-      <c r="K67" s="6">
+      <c r="K67" s="13"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24">
+        <f>S65+1</f>
+        <v>2190568</v>
+      </c>
+      <c r="S67" s="25">
+        <f>R67+I67/2-1</f>
+        <v>2191067</v>
+      </c>
+      <c r="T67" s="6">
         <v>1000</v>
       </c>
-      <c r="L67" s="6">
+      <c r="U67" s="6">
         <v>1.2</v>
       </c>
-      <c r="M67" s="6">
-        <v>1</v>
-      </c>
-      <c r="N67" s="6">
+      <c r="V67" s="6">
+        <v>1</v>
+      </c>
+      <c r="W67" s="6">
         <f>0.0000064*I67</f>
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="O67" s="6">
-        <f>K67*L67</f>
+      <c r="X67" s="6">
+        <f>T67*U67</f>
         <v>1200</v>
       </c>
-      <c r="P67" s="6">
-        <f>K67*L67*M67</f>
+      <c r="Y67" s="6">
+        <f>T67*U67*V67</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -3278,14 +4515,23 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K68" s="10"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I69" s="2">
         <f>SUM(I2:I68)</f>
         <v>3071416</v>
@@ -3294,24 +4540,32 @@
         <f>SUM(J3:J68)</f>
         <v>1231552</v>
       </c>
-      <c r="K69" s="2">
-        <f>SUM(K3:K68)</f>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="2">
+        <f>SUM(T3:T68)</f>
         <v>1069672</v>
       </c>
-      <c r="N69" s="2">
-        <f>SUM(N2:N68)</f>
+      <c r="W69" s="2">
+        <f>SUM(W2:W68)</f>
         <v>23.116339199999999</v>
       </c>
-      <c r="O69" s="2">
-        <f t="shared" ref="O69:P69" si="32">SUM(O3:O68)</f>
+      <c r="X69" s="2">
+        <f t="shared" ref="X69:Y69" si="31">SUM(X3:X68)</f>
         <v>182983.68000000002</v>
       </c>
-      <c r="P69" s="2">
-        <f t="shared" si="32"/>
+      <c r="Y69" s="2">
+        <f t="shared" si="31"/>
         <v>178682.88</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I70" s="7">
         <f>I69*16/1024/8</f>
         <v>5998.859375</v>
@@ -3320,11 +4574,53 @@
         <f>J69*16/1024/8</f>
         <v>2405.375</v>
       </c>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="27"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="27"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="27"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B69" xr:uid="{5611B078-3ED8-409A-972B-20710E035DA1}"/>
-  <mergeCells count="1">
+  <autoFilter ref="B1:B70" xr:uid="{5611B078-3ED8-409A-972B-20710E035DA1}"/>
+  <mergeCells count="5">
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA509EF-2FEE-4C55-88D9-41108E438C7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89684071-EAAD-49D0-8873-0FE862000615}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
   <si>
     <t>INPUT</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Output Mem</t>
+  </si>
+  <si>
+    <t>Op Paral</t>
   </si>
 </sst>
 </file>
@@ -514,9 +517,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,9 +533,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -572,6 +569,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,11 +900,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -916,21 +919,22 @@
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="13.1796875" style="16" customWidth="1"/>
-    <col min="19" max="19" width="13.1796875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="22.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.1796875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" style="15" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -952,55 +956,58 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27" t="s">
         <v>114</v>
       </c>
       <c r="S1" s="28"/>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1019,34 +1026,35 @@
         <v>150528</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18">
+      <c r="K2" s="9"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16">
         <v>655360</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="17">
         <f>R2+I2/2-1</f>
         <v>730623</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="16"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3">
+      <c r="W2" s="3"/>
+      <c r="X2" s="3">
         <f>0.0000032*I2</f>
         <v>0.4816896</v>
       </c>
-      <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1077,56 +1085,60 @@
       <c r="J3" s="4">
         <v>1728</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="20">
+      <c r="K3" s="10"/>
+      <c r="L3" s="18">
         <v>4096</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <f>L3+J3/2-1</f>
         <v>4959</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="18">
         <f>M3+1</f>
         <v>4960</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="18">
         <f>N3+E3/2-1</f>
         <v>4991</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18">
         <f>S2+1</f>
         <v>730624</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="19">
         <f>R3+I3/2-1</f>
         <v>1124895</v>
       </c>
-      <c r="T3" s="4">
-        <f>D3*E3</f>
-        <v>192</v>
+      <c r="T3" s="18">
+        <f>U3/E3</f>
+        <v>36963</v>
       </c>
       <c r="U3" s="4">
+        <f>D3*I3</f>
+        <v>2365632</v>
+      </c>
+      <c r="V3" s="4">
         <v>0.52</v>
       </c>
-      <c r="V3" s="4">
-        <v>1</v>
-      </c>
       <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4">
         <f>0.0000032*J3+0.0000064*I3</f>
         <v>5.0522111999999995</v>
       </c>
-      <c r="X3" s="4">
-        <f>T3*U3</f>
-        <v>99.84</v>
-      </c>
       <c r="Y3" s="4">
-        <f>T3*U3*V3</f>
-        <v>99.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <f>U3*V3</f>
+        <v>1230128.6400000001</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>T3*V3*W3</f>
+        <v>19220.760000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1141,23 +1153,24 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="5"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1168,7 +1181,9 @@
         <v>83</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6">
+        <v>64</v>
+      </c>
       <c r="F5" s="6">
         <v>2</v>
       </c>
@@ -1182,44 +1197,48 @@
         <v>193600</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24">
+      <c r="K5" s="12"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22">
         <f>S3+1</f>
         <v>1124896</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="23">
         <f>R5+I5/2-1</f>
         <v>1221695</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="22">
+        <f>U5/E5</f>
+        <v>3025</v>
+      </c>
+      <c r="U5" s="6">
         <v>193600</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <v>0.31</v>
       </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
       <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
         <f>0.0000064*I5</f>
         <v>1.2390399999999999</v>
       </c>
-      <c r="X5" s="6">
-        <f>T5*U5</f>
+      <c r="Y5" s="6">
+        <f>U5*V5</f>
         <v>60016</v>
       </c>
-      <c r="Y5" s="6">
-        <f>T5*U5*V5</f>
-        <v>60016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5" s="6">
+        <f>T5*V5*W5</f>
+        <v>937.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1250,57 +1269,61 @@
       <c r="J6" s="4">
         <v>1024</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="20">
+      <c r="K6" s="10"/>
+      <c r="L6" s="18">
         <f>L3+J3/2+E3/2</f>
         <v>4992</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <f>L6+J6/2-1</f>
         <v>5503</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="18">
         <f>M6+1</f>
         <v>5504</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <f>N6+E6/2-1</f>
         <v>5511</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20">
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18">
         <f>S5+1</f>
         <v>1221696</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="19">
         <f>R6+I6/2-1</f>
         <v>1245895</v>
       </c>
-      <c r="T6" s="4">
-        <f>D6*E6</f>
-        <v>1024</v>
+      <c r="T6" s="18">
+        <f>U6/E6</f>
+        <v>193600</v>
       </c>
       <c r="U6" s="4">
+        <f>D6*I6</f>
+        <v>3097600</v>
+      </c>
+      <c r="V6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V6" s="4">
-        <v>1</v>
-      </c>
       <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
         <f>0.0000032*J6+0.0000064*I6</f>
         <v>0.3130368</v>
       </c>
-      <c r="X6" s="4">
-        <f>T6*U6</f>
-        <v>71.680000000000007</v>
-      </c>
       <c r="Y6" s="4">
-        <f>T6*U6*V6</f>
-        <v>71.680000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <f>U6*V6</f>
+        <v>216832.00000000003</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>T6*V6*W6</f>
+        <v>13552.000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1315,23 +1338,24 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="5"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="20"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1362,57 +1386,61 @@
       <c r="J8" s="4">
         <v>1024</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="20">
+      <c r="K8" s="10"/>
+      <c r="L8" s="18">
         <f>L6+J6/2+E6/2</f>
         <v>5512</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <f t="shared" ref="M8:M9" si="0">L8+J8/2-1</f>
         <v>6023</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="18">
         <f t="shared" ref="N8:N9" si="1">M8+1</f>
         <v>6024</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="18">
         <f>N8+E8/2-1</f>
         <v>6055</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20">
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18">
         <f>S6+1</f>
         <v>1245896</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="19">
         <f>R8+I8/2-1</f>
         <v>1342695</v>
       </c>
-      <c r="T8" s="4">
-        <f>D8*E8</f>
-        <v>1024</v>
+      <c r="T8" s="18">
+        <f>U8/E8</f>
+        <v>48400</v>
       </c>
       <c r="U8" s="4">
+        <f>D8*I8</f>
+        <v>3097600</v>
+      </c>
+      <c r="V8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>0</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <f>0.0000032*J8+0.0000064*I8</f>
         <v>1.2423168</v>
       </c>
-      <c r="X8" s="4">
-        <f t="shared" ref="X8:X9" si="2">T8*U8</f>
-        <v>71.680000000000007</v>
-      </c>
       <c r="Y8" s="4">
-        <f t="shared" ref="Y8:Y9" si="3">T8*U8*V8</f>
+        <f t="shared" ref="Y8:Y9" si="2">U8*V8</f>
+        <v>216832.00000000003</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" ref="Z8:Z9" si="3">T8*V8*W8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1443,57 +1471,61 @@
       <c r="J9" s="4">
         <v>9216</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="20">
+      <c r="K9" s="10"/>
+      <c r="L9" s="18">
         <f>L8+J8/2+E8/2</f>
         <v>6056</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <f t="shared" si="0"/>
         <v>10663</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="18">
         <f t="shared" si="1"/>
         <v>10664</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="18">
         <f>N9+E9/2-1</f>
         <v>10695</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18">
         <f>S8+1</f>
         <v>1342696</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="19">
         <f>R9+I9/2-1</f>
         <v>1439495</v>
       </c>
-      <c r="T9" s="4">
-        <f>D9*E9</f>
-        <v>1024</v>
+      <c r="T9" s="18">
+        <f>U9/E9</f>
+        <v>48400</v>
       </c>
       <c r="U9" s="4">
+        <f>D9*I9</f>
+        <v>3097600</v>
+      </c>
+      <c r="V9" s="4">
         <v>0.52</v>
       </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
       <c r="W9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
         <f>0.0000032*J9+0.0000064*I9</f>
         <v>1.2685312</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="2"/>
-        <v>532.48</v>
-      </c>
-      <c r="Y9" s="4">
+        <v>1610752</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="3"/>
-        <v>532.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1508,23 +1540,24 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="5"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1539,23 +1572,24 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="5"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1572,23 +1606,24 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="3"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1619,57 +1654,61 @@
       <c r="J13" s="4">
         <v>2048</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="20">
+      <c r="K13" s="10"/>
+      <c r="L13" s="18">
         <f>L9+J9/2+E9/2</f>
         <v>10696</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="18">
         <f>L13+J13/2-1</f>
         <v>11719</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="18">
         <f>M13+1</f>
         <v>11720</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="18">
         <f>N13+E13/2-1</f>
         <v>11727</v>
       </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18">
         <f>S9+1</f>
         <v>1439496</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="19">
         <f>R13+I13/2-1</f>
         <v>1463695</v>
       </c>
-      <c r="T13" s="4">
-        <f>D13*E13</f>
-        <v>2048</v>
+      <c r="T13" s="18">
+        <f>U13/E13</f>
+        <v>387200</v>
       </c>
       <c r="U13" s="4">
+        <f>D13*I13</f>
+        <v>6195200</v>
+      </c>
+      <c r="V13" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V13" s="4">
-        <v>1</v>
-      </c>
       <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
         <f>0.0000032*J13+0.0000064*I13</f>
         <v>0.31631359999999997</v>
       </c>
-      <c r="X13" s="4">
-        <f>T13*U13</f>
-        <v>143.36000000000001</v>
-      </c>
       <c r="Y13" s="4">
-        <f>T13*U13*V13</f>
-        <v>143.36000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <f>U13*V13</f>
+        <v>433664.00000000006</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>T13*V13*W13</f>
+        <v>27104.000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1684,23 +1723,24 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="5"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="20"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1731,57 +1771,61 @@
       <c r="J15" s="4">
         <v>1024</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="20">
+      <c r="K15" s="10"/>
+      <c r="L15" s="18">
         <f>L13+J13/2+E13/2</f>
         <v>11728</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="18">
         <f t="shared" ref="M15:M16" si="4">L15+J15/2-1</f>
         <v>12239</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="18">
         <f t="shared" ref="N15:N16" si="5">M15+1</f>
         <v>12240</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="18">
         <f>N15+E15/2-1</f>
         <v>12271</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18">
         <f>S13+1</f>
         <v>1463696</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="19">
         <f>R15+I15/2-1</f>
         <v>1560495</v>
       </c>
-      <c r="T15" s="4">
-        <f>D15*E15</f>
-        <v>1024</v>
+      <c r="T15" s="18">
+        <f>U15/E15</f>
+        <v>48400</v>
       </c>
       <c r="U15" s="4">
+        <f>D15*I15</f>
+        <v>3097600</v>
+      </c>
+      <c r="V15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <v>0</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <f>0.0000032*J15+0.0000064*I15</f>
         <v>1.2423168</v>
       </c>
-      <c r="X15" s="4">
-        <f t="shared" ref="X15:X16" si="6">T15*U15</f>
-        <v>71.680000000000007</v>
-      </c>
       <c r="Y15" s="4">
-        <f t="shared" ref="Y15:Y16" si="7">T15*U15*V15</f>
+        <f t="shared" ref="Y15:Y16" si="6">U15*V15</f>
+        <v>216832.00000000003</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" ref="Z15:Z16" si="7">T15*V15*W15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1812,57 +1856,61 @@
       <c r="J16" s="4">
         <v>9216</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="20">
+      <c r="K16" s="10"/>
+      <c r="L16" s="18">
         <f>L15+J15/2+E15/2</f>
         <v>12272</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="18">
         <f t="shared" si="4"/>
         <v>16879</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="18">
         <f t="shared" si="5"/>
         <v>16880</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="18">
         <f>N16+E16/2-1</f>
         <v>16911</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18">
         <f>S15+1</f>
         <v>1560496</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="19">
         <f>R16+I16/2-1</f>
         <v>1657295</v>
       </c>
-      <c r="T16" s="4">
-        <f>D16*E16</f>
-        <v>1024</v>
+      <c r="T16" s="18">
+        <f>U16/E16</f>
+        <v>48400</v>
       </c>
       <c r="U16" s="4">
+        <f>D16*I16</f>
+        <v>3097600</v>
+      </c>
+      <c r="V16" s="4">
         <v>0.52</v>
       </c>
-      <c r="V16" s="4">
-        <v>1</v>
-      </c>
       <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
         <f>0.0000032*J16+0.0000064*I16</f>
         <v>1.2685312</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <f t="shared" si="6"/>
-        <v>532.48</v>
-      </c>
-      <c r="Y16" s="4">
+        <v>1610752</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="7"/>
-        <v>532.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1877,23 +1925,24 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="5"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1908,23 +1957,24 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="5"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="20"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1941,23 +1991,24 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="3"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1968,7 +2019,9 @@
         <v>83</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>128</v>
+      </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
@@ -1982,44 +2035,48 @@
         <v>93312</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24">
+      <c r="K20" s="12"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22">
         <f>S16+1</f>
         <v>1657296</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20" s="23">
         <f>R20+I20/2-1</f>
         <v>1703951</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="22">
+        <f>U20/E20</f>
+        <v>729</v>
+      </c>
+      <c r="U20" s="6">
         <v>93312</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>0.31</v>
       </c>
-      <c r="V20" s="6">
-        <v>1</v>
-      </c>
       <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
         <f>0.0000064*I20</f>
         <v>0.59719679999999997</v>
       </c>
-      <c r="X20" s="6">
-        <f>T20*U20</f>
+      <c r="Y20" s="6">
+        <f>U20*V20</f>
         <v>28926.720000000001</v>
       </c>
-      <c r="Y20" s="6">
-        <f>T20*U20*V20</f>
-        <v>28926.720000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="6">
+        <f>T20*V20*W20</f>
+        <v>225.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -2050,57 +2107,61 @@
       <c r="J21" s="4">
         <v>4096</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="20">
+      <c r="K21" s="10"/>
+      <c r="L21" s="18">
         <f>L16+J16/2+E16/2</f>
         <v>16912</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="18">
         <f>L21+J21/2-1</f>
         <v>18959</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="18">
         <f>M21+1</f>
         <v>18960</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="18">
         <f>N21+E21/2-1</f>
         <v>18975</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18">
         <f>S20+1</f>
         <v>1703952</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="19">
         <f>R21+I21/2-1</f>
         <v>1715615</v>
       </c>
-      <c r="T21" s="4">
-        <f>D21*E21</f>
-        <v>4096</v>
+      <c r="T21" s="18">
+        <f>U21/E21</f>
+        <v>93312</v>
       </c>
       <c r="U21" s="4">
+        <f>D21*I21</f>
+        <v>2985984</v>
+      </c>
+      <c r="V21" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V21" s="4">
-        <v>1</v>
-      </c>
       <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
         <f>0.0000032*J21+0.0000064*I21</f>
         <v>0.16240640000000001</v>
       </c>
-      <c r="X21" s="4">
-        <f>T21*U21</f>
-        <v>286.72000000000003</v>
-      </c>
       <c r="Y21" s="4">
-        <f>T21*U21*V21</f>
-        <v>286.72000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <f>U21*V21</f>
+        <v>209018.88000000003</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>T21*V21*W21</f>
+        <v>6531.8400000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -2115,23 +2176,24 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="5"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="20"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -2162,57 +2224,61 @@
       <c r="J23" s="4">
         <v>4096</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="20">
+      <c r="K23" s="10"/>
+      <c r="L23" s="18">
         <f>L21+J21/2+E21/2</f>
         <v>18976</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="18">
         <f t="shared" ref="M23:M24" si="8">L23+J23/2-1</f>
         <v>21023</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="18">
         <f t="shared" ref="N23:N24" si="9">M23+1</f>
         <v>21024</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="18">
         <f>N23+E23/2-1</f>
         <v>21087</v>
       </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18">
         <f>S21+1</f>
         <v>1715616</v>
       </c>
-      <c r="S23" s="21">
+      <c r="S23" s="19">
         <f>R23+I23/2-1</f>
         <v>1762271</v>
       </c>
-      <c r="T23" s="4">
-        <f>D23*E23</f>
-        <v>4096</v>
+      <c r="T23" s="18">
+        <f>U23/E23</f>
+        <v>23328</v>
       </c>
       <c r="U23" s="4">
+        <f>D23*I23</f>
+        <v>2985984</v>
+      </c>
+      <c r="V23" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="4">
         <v>0</v>
       </c>
-      <c r="W23" s="4">
+      <c r="X23" s="4">
         <f>0.0000032*J23+0.0000064*I23</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="X23" s="4">
-        <f t="shared" ref="X23:X24" si="10">T23*U23</f>
-        <v>286.72000000000003</v>
-      </c>
       <c r="Y23" s="4">
-        <f t="shared" ref="Y23:Y24" si="11">T23*U23*V23</f>
+        <f t="shared" ref="Y23:Y24" si="10">U23*V23</f>
+        <v>209018.88000000003</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" ref="Z23:Z24" si="11">T23*V23*W23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2243,57 +2309,61 @@
       <c r="J24" s="4">
         <v>36864</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="20">
+      <c r="K24" s="10"/>
+      <c r="L24" s="18">
         <f>L23+J23/2+E23/2</f>
         <v>21088</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="18">
         <f t="shared" si="8"/>
         <v>39519</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="18">
         <f t="shared" si="9"/>
         <v>39520</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="18">
         <f>N24+E24/2-1</f>
         <v>39583</v>
       </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20">
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18">
         <f>S23+1</f>
         <v>1762272</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="19">
         <f>R24+I24/2-1</f>
         <v>1808927</v>
       </c>
-      <c r="T24" s="4">
-        <f>D24*E24</f>
-        <v>4096</v>
+      <c r="T24" s="18">
+        <f>U24/E24</f>
+        <v>23328</v>
       </c>
       <c r="U24" s="4">
+        <f>D24*I24</f>
+        <v>2985984</v>
+      </c>
+      <c r="V24" s="4">
         <v>0.52</v>
       </c>
-      <c r="V24" s="4">
-        <v>1</v>
-      </c>
       <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
         <f>0.0000032*J24+0.0000064*I24</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <f t="shared" si="10"/>
-        <v>2129.92</v>
-      </c>
-      <c r="Y24" s="4">
+        <v>1552711.6800000002</v>
+      </c>
+      <c r="Z24" s="4">
         <f t="shared" si="11"/>
-        <v>2129.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>12130.560000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2308,23 +2378,24 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="5"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="20"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2339,23 +2410,24 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="5"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="20"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -2372,23 +2444,24 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="3"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="16"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -2419,57 +2492,61 @@
       <c r="J28" s="4">
         <v>8192</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="20">
+      <c r="K28" s="10"/>
+      <c r="L28" s="18">
         <f>L24+J24/2+E24/2</f>
         <v>39584</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="18">
         <f>L28+J28/2-1</f>
         <v>43679</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="18">
         <f>M28+1</f>
         <v>43680</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="18">
         <f>N28+E28/2-1</f>
         <v>43695</v>
       </c>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18">
         <f>S24+1</f>
         <v>1808928</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="19">
         <f>R28+I28/2-1</f>
         <v>1820591</v>
       </c>
-      <c r="T28" s="4">
-        <f>D28*E28</f>
-        <v>8192</v>
+      <c r="T28" s="18">
+        <f>U28/E28</f>
+        <v>186624</v>
       </c>
       <c r="U28" s="4">
+        <f>D28*I28</f>
+        <v>5971968</v>
+      </c>
+      <c r="V28" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V28" s="4">
-        <v>1</v>
-      </c>
       <c r="W28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
         <f>0.0000032*J28+0.0000064*I28</f>
         <v>0.17551359999999999</v>
       </c>
-      <c r="X28" s="4">
-        <f>T28*U28</f>
-        <v>573.44000000000005</v>
-      </c>
       <c r="Y28" s="4">
-        <f>T28*U28*V28</f>
-        <v>573.44000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <f>U28*V28</f>
+        <v>418037.76000000007</v>
+      </c>
+      <c r="Z28" s="4">
+        <f>T28*V28*W28</f>
+        <v>13063.680000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -2484,23 +2561,24 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="5"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="20"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -2531,57 +2609,61 @@
       <c r="J30" s="4">
         <v>4096</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="20">
+      <c r="K30" s="10"/>
+      <c r="L30" s="18">
         <f>L28+J28/2+E28/2</f>
         <v>43696</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="18">
         <f t="shared" ref="M30:M31" si="12">L30+J30/2-1</f>
         <v>45743</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="18">
         <f t="shared" ref="N30:N31" si="13">M30+1</f>
         <v>45744</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="18">
         <f>N30+E30/2-1</f>
         <v>45807</v>
       </c>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20">
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18">
         <f>S28+1</f>
         <v>1820592</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="19">
         <f>R30+I30/2-1</f>
         <v>1867247</v>
       </c>
-      <c r="T30" s="4">
-        <f>D30*E30</f>
-        <v>4096</v>
+      <c r="T30" s="18">
+        <f>U30/E30</f>
+        <v>23328</v>
       </c>
       <c r="U30" s="4">
+        <f>D30*I30</f>
+        <v>2985984</v>
+      </c>
+      <c r="V30" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <v>0</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <f>0.0000032*J30+0.0000064*I30</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="X30" s="4">
-        <f t="shared" ref="X30:X31" si="14">T30*U30</f>
-        <v>286.72000000000003</v>
-      </c>
       <c r="Y30" s="4">
-        <f t="shared" ref="Y30:Y31" si="15">T30*U30*V30</f>
+        <f t="shared" ref="Y30:Y31" si="14">U30*V30</f>
+        <v>209018.88000000003</v>
+      </c>
+      <c r="Z30" s="4">
+        <f t="shared" ref="Z30:Z31" si="15">T30*V30*W30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2612,57 +2694,61 @@
       <c r="J31" s="4">
         <v>36864</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="20">
+      <c r="K31" s="10"/>
+      <c r="L31" s="18">
         <f>L30+J30/2+E30/2</f>
         <v>45808</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="18">
         <f t="shared" si="12"/>
         <v>64239</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="18">
         <f t="shared" si="13"/>
         <v>64240</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="18">
         <f>N31+E31/2-1</f>
         <v>64303</v>
       </c>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20">
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18">
         <f>S30+1</f>
         <v>1867248</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31" s="19">
         <f>R31+I31/2-1</f>
         <v>1913903</v>
       </c>
-      <c r="T31" s="4">
-        <f>D31*E31</f>
-        <v>4096</v>
+      <c r="T31" s="18">
+        <f>U31/E31</f>
+        <v>23328</v>
       </c>
       <c r="U31" s="4">
+        <f>D31*I31</f>
+        <v>2985984</v>
+      </c>
+      <c r="V31" s="4">
         <v>0.52</v>
       </c>
-      <c r="V31" s="4">
-        <v>1</v>
-      </c>
       <c r="W31" s="4">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4">
         <f>0.0000032*J31+0.0000064*I31</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Y31" s="4">
         <f t="shared" si="14"/>
-        <v>2129.92</v>
-      </c>
-      <c r="Y31" s="4">
+        <v>1552711.6800000002</v>
+      </c>
+      <c r="Z31" s="4">
         <f t="shared" si="15"/>
-        <v>2129.92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>12130.560000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -2677,23 +2763,24 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="5"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="20"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -2708,23 +2795,24 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="5"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="20"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2741,23 +2829,24 @@
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="3"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="16"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
@@ -2768,7 +2857,9 @@
         <v>83</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>256</v>
+      </c>
       <c r="F35" s="6">
         <v>2</v>
       </c>
@@ -2782,44 +2873,48 @@
         <v>43624</v>
       </c>
       <c r="J35" s="6"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24">
+      <c r="K35" s="12"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22">
         <f>S31+1</f>
         <v>1913904</v>
       </c>
-      <c r="S35" s="25">
+      <c r="S35" s="23">
         <f>R35+I35/2-1</f>
         <v>1935715</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="22">
+        <f>U35/E35</f>
+        <v>169</v>
+      </c>
+      <c r="U35" s="6">
         <v>43264</v>
       </c>
-      <c r="U35" s="6">
+      <c r="V35" s="6">
         <v>0.31</v>
       </c>
-      <c r="V35" s="6">
-        <v>1</v>
-      </c>
       <c r="W35" s="6">
+        <v>1</v>
+      </c>
+      <c r="X35" s="6">
         <f>0.0000064*I35</f>
         <v>0.27919359999999999</v>
       </c>
-      <c r="X35" s="6">
-        <f>T35*U35</f>
+      <c r="Y35" s="6">
+        <f>U35*V35</f>
         <v>13411.84</v>
       </c>
-      <c r="Y35" s="6">
-        <f>T35*U35*V35</f>
-        <v>13411.84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" s="6">
+        <f>T35*V35*W35</f>
+        <v>52.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2850,57 +2945,61 @@
       <c r="J36" s="4">
         <v>12288</v>
       </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="20">
+      <c r="K36" s="10"/>
+      <c r="L36" s="18">
         <f>L31+J31/2+E31/2</f>
         <v>64304</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="18">
         <f>L36+J36/2-1</f>
         <v>70447</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="18">
         <f>M36+1</f>
         <v>70448</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="18">
         <f>N36+E36/2-1</f>
         <v>70471</v>
       </c>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20">
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18">
         <f>S35+1</f>
         <v>1935716</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="19">
         <f>R36+I36/2-1</f>
         <v>1939771</v>
       </c>
-      <c r="T36" s="4">
-        <f>D36*E36</f>
-        <v>12288</v>
+      <c r="T36" s="18">
+        <f>U36/E36</f>
+        <v>43264</v>
       </c>
       <c r="U36" s="4">
+        <f>D36*I36</f>
+        <v>2076672</v>
+      </c>
+      <c r="V36" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V36" s="4">
-        <v>1</v>
-      </c>
       <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
         <f>0.0000032*J36+0.0000064*I36</f>
         <v>9.1238399999999997E-2</v>
       </c>
-      <c r="X36" s="4">
-        <f>T36*U36</f>
-        <v>860.16000000000008</v>
-      </c>
       <c r="Y36" s="4">
-        <f>T36*U36*V36</f>
-        <v>860.16000000000008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <f>U36*V36</f>
+        <v>145367.04000000001</v>
+      </c>
+      <c r="Z36" s="4">
+        <f>T36*V36*W36</f>
+        <v>3028.4800000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -2915,23 +3014,24 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="5"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="20"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2962,57 +3062,61 @@
       <c r="J38" s="4">
         <v>9216</v>
       </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="20">
+      <c r="K38" s="10"/>
+      <c r="L38" s="18">
         <f>L36+J36/2+E36/2</f>
         <v>70472</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="18">
         <f t="shared" ref="M38:M39" si="16">L38+J38/2-1</f>
         <v>75079</v>
       </c>
-      <c r="N38" s="20">
+      <c r="N38" s="18">
         <f>M38+1</f>
         <v>75080</v>
       </c>
-      <c r="O38" s="20">
+      <c r="O38" s="18">
         <f>N38+E38/2-1</f>
         <v>75175</v>
       </c>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18">
         <f>S36+1</f>
         <v>1939772</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="19">
         <f>R38+I38/2-1</f>
         <v>1955995</v>
       </c>
-      <c r="T38" s="4">
-        <f>D38*E38</f>
-        <v>9216</v>
+      <c r="T38" s="18">
+        <f>U38/E38</f>
+        <v>8112</v>
       </c>
       <c r="U38" s="4">
+        <f>D38*I38</f>
+        <v>1557504</v>
+      </c>
+      <c r="V38" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V38" s="4">
+      <c r="W38" s="4">
         <v>0</v>
       </c>
-      <c r="W38" s="4">
+      <c r="X38" s="4">
         <f>0.0000032*J38+0.0000064*I38</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="X38" s="4">
-        <f t="shared" ref="X38:X39" si="17">T38*U38</f>
-        <v>645.12000000000012</v>
-      </c>
       <c r="Y38" s="4">
-        <f t="shared" ref="Y38:Y39" si="18">T38*U38*V38</f>
+        <f t="shared" ref="Y38:Y39" si="17">U38*V38</f>
+        <v>109025.28000000001</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" ref="Z38:Z39" si="18">T38*V38*W38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -3043,57 +3147,61 @@
       <c r="J39" s="4">
         <v>82944</v>
       </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="20">
+      <c r="K39" s="10"/>
+      <c r="L39" s="18">
         <f>L38+J38/2+E38/2</f>
         <v>75176</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="18">
         <f t="shared" si="16"/>
         <v>116647</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="18">
         <f>M39+1</f>
         <v>116648</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="18">
         <f>N39+E39/2-1</f>
         <v>116743</v>
       </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20">
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18">
         <f>S38+1</f>
         <v>1955996</v>
       </c>
-      <c r="S39" s="21">
+      <c r="S39" s="19">
         <f>R39+I39/2-1</f>
         <v>1972219</v>
       </c>
-      <c r="T39" s="4">
-        <f>D39*E39</f>
-        <v>9216</v>
+      <c r="T39" s="18">
+        <f>U39/E39</f>
+        <v>8112</v>
       </c>
       <c r="U39" s="4">
+        <f>D39*I39</f>
+        <v>1557504</v>
+      </c>
+      <c r="V39" s="4">
         <v>0.52</v>
       </c>
-      <c r="V39" s="4">
-        <v>1</v>
-      </c>
       <c r="W39" s="4">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4">
         <f>0.0000032*J39+0.0000064*I39</f>
         <v>0.47308800000000001</v>
       </c>
-      <c r="X39" s="4">
+      <c r="Y39" s="4">
         <f t="shared" si="17"/>
-        <v>4792.32</v>
-      </c>
-      <c r="Y39" s="4">
+        <v>809902.08000000007</v>
+      </c>
+      <c r="Z39" s="4">
         <f t="shared" si="18"/>
-        <v>4792.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4218.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
@@ -3108,23 +3216,24 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="5"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="20"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40" s="5"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -3139,23 +3248,24 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="5"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="20"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="5"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -3172,23 +3282,24 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="3"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="16"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -3219,57 +3330,61 @@
       <c r="J43" s="4">
         <v>18432</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="20">
+      <c r="K43" s="10"/>
+      <c r="L43" s="18">
         <f>L39+J39/2+E39/2</f>
         <v>116744</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="18">
         <f>L43+J43/2-1</f>
         <v>125959</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="18">
         <f>M43+1</f>
         <v>125960</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="18">
         <f>N43+E43/2-1</f>
         <v>125983</v>
       </c>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20">
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18">
         <f>S39+1</f>
         <v>1972220</v>
       </c>
-      <c r="S43" s="21">
+      <c r="S43" s="19">
         <f>R43+I43/2-1</f>
         <v>1976275</v>
       </c>
-      <c r="T43" s="4">
-        <f>D43*E43</f>
-        <v>18432</v>
+      <c r="T43" s="18">
+        <f>U43/E43</f>
+        <v>64896</v>
       </c>
       <c r="U43" s="4">
+        <f>D43*I43</f>
+        <v>3115008</v>
+      </c>
+      <c r="V43" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V43" s="4">
-        <v>1</v>
-      </c>
       <c r="W43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
         <f>0.0000032*J43+0.0000064*I43</f>
         <v>0.1108992</v>
       </c>
-      <c r="X43" s="4">
-        <f>T43*U43</f>
-        <v>1290.2400000000002</v>
-      </c>
       <c r="Y43" s="4">
-        <f>T43*U43*V43</f>
-        <v>1290.2400000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+        <f>U43*V43</f>
+        <v>218050.56000000003</v>
+      </c>
+      <c r="Z43" s="4">
+        <f>T43*V43*W43</f>
+        <v>4542.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -3284,23 +3399,24 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="5"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="20"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -3331,57 +3447,61 @@
       <c r="J45" s="4">
         <v>9216</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="20">
+      <c r="K45" s="10"/>
+      <c r="L45" s="18">
         <f>L43+J43/2+E43/2</f>
         <v>125984</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="18">
         <f t="shared" ref="M45:M46" si="19">L45+J45/2-1</f>
         <v>130591</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="18">
         <f t="shared" ref="N45:N46" si="20">M45+1</f>
         <v>130592</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="18">
         <f>N45+E45/2-1</f>
         <v>130687</v>
       </c>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20">
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18">
         <f>S43+1</f>
         <v>1976276</v>
       </c>
-      <c r="S45" s="21">
+      <c r="S45" s="19">
         <f>R45+I45/2-1</f>
         <v>1992499</v>
       </c>
-      <c r="T45" s="4">
-        <f>D45*E45</f>
-        <v>9216</v>
+      <c r="T45" s="18">
+        <f>U45/E45</f>
+        <v>8112</v>
       </c>
       <c r="U45" s="4">
+        <f>D45*I45</f>
+        <v>1557504</v>
+      </c>
+      <c r="V45" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V45" s="4">
+      <c r="W45" s="4">
         <v>0</v>
       </c>
-      <c r="W45" s="4">
+      <c r="X45" s="4">
         <f>0.0000032*J45+0.0000064*I45</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="X45" s="4">
-        <f t="shared" ref="X45:X46" si="21">T45*U45</f>
-        <v>645.12000000000012</v>
-      </c>
       <c r="Y45" s="4">
-        <f t="shared" ref="Y45:Y46" si="22">T45*U45*V45</f>
+        <f t="shared" ref="Y45:Y46" si="21">U45*V45</f>
+        <v>109025.28000000001</v>
+      </c>
+      <c r="Z45" s="4">
+        <f t="shared" ref="Z45:Z46" si="22">T45*V45*W45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -3412,57 +3532,61 @@
       <c r="J46" s="4">
         <v>82944</v>
       </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="20">
+      <c r="K46" s="10"/>
+      <c r="L46" s="18">
         <f>L45+J45/2+E45/2</f>
         <v>130688</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="18">
         <f t="shared" si="19"/>
         <v>172159</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="18">
         <f t="shared" si="20"/>
         <v>172160</v>
       </c>
-      <c r="O46" s="20">
+      <c r="O46" s="18">
         <f>N46+E46/2-1</f>
         <v>172255</v>
       </c>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20">
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18">
         <f>S45+1</f>
         <v>1992500</v>
       </c>
-      <c r="S46" s="21">
+      <c r="S46" s="19">
         <f>R46+I46/2-1</f>
         <v>2008723</v>
       </c>
-      <c r="T46" s="4">
-        <f>D46*E46</f>
-        <v>9216</v>
+      <c r="T46" s="18">
+        <f>U46/E46</f>
+        <v>8112</v>
       </c>
       <c r="U46" s="4">
+        <f>D46*I46</f>
+        <v>1557504</v>
+      </c>
+      <c r="V46" s="4">
         <v>0.52</v>
       </c>
-      <c r="V46" s="4">
-        <v>1</v>
-      </c>
       <c r="W46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4">
         <f>0.0000032*J46+0.0000064*I46</f>
         <v>0.47308800000000001</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Y46" s="4">
         <f t="shared" si="21"/>
-        <v>4792.32</v>
-      </c>
-      <c r="Y46" s="4">
+        <v>809902.08000000007</v>
+      </c>
+      <c r="Z46" s="4">
         <f t="shared" si="22"/>
-        <v>4792.32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4218.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
@@ -3477,23 +3601,24 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="5"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="20"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
@@ -3508,23 +3633,24 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="5"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="20"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48" s="5"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -3541,23 +3667,24 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="3"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="16"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -3588,57 +3715,61 @@
       <c r="J50" s="4">
         <v>24576</v>
       </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="20">
+      <c r="K50" s="10"/>
+      <c r="L50" s="18">
         <f>L46+J46/2+E46/2</f>
         <v>172256</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="18">
         <f>L50+J50/2-1</f>
         <v>184543</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="18">
         <f>M50+1</f>
         <v>184544</v>
       </c>
-      <c r="O50" s="20">
+      <c r="O50" s="18">
         <f>N50+E50/2-1</f>
         <v>184575</v>
       </c>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20">
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18">
         <f>S46+1</f>
         <v>2008724</v>
       </c>
-      <c r="S50" s="21">
+      <c r="S50" s="19">
         <f>R50+I50/2-1</f>
         <v>2014131</v>
       </c>
-      <c r="T50" s="4">
-        <f>D50*E50</f>
-        <v>24576</v>
+      <c r="T50" s="18">
+        <f>U50/E50</f>
+        <v>64896</v>
       </c>
       <c r="U50" s="4">
+        <f>D50*I50</f>
+        <v>4153344</v>
+      </c>
+      <c r="V50" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V50" s="4">
-        <v>1</v>
-      </c>
       <c r="W50" s="4">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4">
         <f>0.0000032*J50+0.0000064*I50</f>
         <v>0.14786559999999999</v>
       </c>
-      <c r="X50" s="4">
-        <f>T50*U50</f>
-        <v>1720.3200000000002</v>
-      </c>
       <c r="Y50" s="4">
-        <f>T50*U50*V50</f>
-        <v>1720.3200000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+        <f>U50*V50</f>
+        <v>290734.08000000002</v>
+      </c>
+      <c r="Z50" s="4">
+        <f>T50*V50*W50</f>
+        <v>4542.72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
@@ -3653,23 +3784,24 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="5"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="20"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -3700,57 +3832,61 @@
       <c r="J52" s="4">
         <v>16384</v>
       </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="20">
+      <c r="K52" s="10"/>
+      <c r="L52" s="18">
         <f>L50+J50/2+E50/2</f>
         <v>184576</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="18">
         <f t="shared" ref="M52:M53" si="23">L52+J52/2-1</f>
         <v>192767</v>
       </c>
-      <c r="N52" s="20">
+      <c r="N52" s="18">
         <f t="shared" ref="N52:N53" si="24">M52+1</f>
         <v>192768</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="18">
         <f>N52+E52/2-1</f>
         <v>192895</v>
       </c>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20">
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18">
         <f>S50+1</f>
         <v>2014132</v>
       </c>
-      <c r="S52" s="21">
+      <c r="S52" s="19">
         <f>R52+I52/2-1</f>
         <v>2035763</v>
       </c>
-      <c r="T52" s="4">
-        <f>D52*E52</f>
-        <v>16384</v>
+      <c r="T52" s="18">
+        <f>U52/E52</f>
+        <v>10816</v>
       </c>
       <c r="U52" s="4">
+        <f>D52*I52</f>
+        <v>2768896</v>
+      </c>
+      <c r="V52" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V52" s="4">
+      <c r="W52" s="4">
         <v>0</v>
       </c>
-      <c r="W52" s="4">
+      <c r="X52" s="4">
         <f>0.0000032*J52+0.0000064*I52</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="X52" s="4">
-        <f t="shared" ref="X52:X53" si="25">T52*U52</f>
-        <v>1146.8800000000001</v>
-      </c>
       <c r="Y52" s="4">
-        <f t="shared" ref="Y52:Y53" si="26">T52*U52*V52</f>
+        <f t="shared" ref="Y52:Y53" si="25">U52*V52</f>
+        <v>193822.72000000003</v>
+      </c>
+      <c r="Z52" s="4">
+        <f t="shared" ref="Z52:Z53" si="26">T52*V52*W52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -3781,57 +3917,61 @@
       <c r="J53" s="4">
         <v>147456</v>
       </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="20">
+      <c r="K53" s="10"/>
+      <c r="L53" s="18">
         <f>L52+J52/2+E52/2</f>
         <v>192896</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="18">
         <f t="shared" si="23"/>
         <v>266623</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="18">
         <f t="shared" si="24"/>
         <v>266624</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O53" s="18">
         <f>N53+E53/2-1</f>
         <v>266751</v>
       </c>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20">
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18">
         <f>S52+1</f>
         <v>2035764</v>
       </c>
-      <c r="S53" s="21">
+      <c r="S53" s="19">
         <f>R53+I53/2-1</f>
         <v>2057395</v>
       </c>
-      <c r="T53" s="4">
-        <f>D53*E53</f>
-        <v>16384</v>
+      <c r="T53" s="18">
+        <f>U53/E52</f>
+        <v>10816</v>
       </c>
       <c r="U53" s="4">
+        <f>D53*I53</f>
+        <v>2768896</v>
+      </c>
+      <c r="V53" s="4">
         <v>0.52</v>
       </c>
-      <c r="V53" s="4">
-        <v>1</v>
-      </c>
       <c r="W53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4">
         <f>0.0000032*J53+0.0000064*I53</f>
         <v>0.74874879999999999</v>
       </c>
-      <c r="X53" s="4">
+      <c r="Y53" s="4">
         <f t="shared" si="25"/>
-        <v>8519.68</v>
-      </c>
-      <c r="Y53" s="4">
+        <v>1439825.9200000002</v>
+      </c>
+      <c r="Z53" s="4">
         <f t="shared" si="26"/>
-        <v>8519.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5624.3200000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
@@ -3846,23 +3986,24 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="5"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="20"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>56</v>
       </c>
@@ -3877,23 +4018,24 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="5"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="20"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -3910,23 +4052,24 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="3"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="16"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>58</v>
       </c>
@@ -3957,57 +4100,61 @@
       <c r="J57" s="4">
         <v>32768</v>
       </c>
-      <c r="K57" s="11"/>
-      <c r="L57" s="20">
+      <c r="K57" s="10"/>
+      <c r="L57" s="18">
         <f>L53+J53/2+E53/2</f>
         <v>266752</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="18">
         <f>L57+J57/2-1</f>
         <v>283135</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N57" s="18">
         <f>M57+1</f>
         <v>283136</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="18">
         <f>N57+E57/2-1</f>
         <v>283167</v>
       </c>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20">
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18">
         <f>S53+1</f>
         <v>2057396</v>
       </c>
-      <c r="S57" s="21">
+      <c r="S57" s="19">
         <f>R57+I57/2-1</f>
         <v>2062803</v>
       </c>
-      <c r="T57" s="4">
-        <f>D57*E57</f>
-        <v>32768</v>
+      <c r="T57" s="18">
+        <f>U57/E57</f>
+        <v>86528</v>
       </c>
       <c r="U57" s="4">
+        <f>D57*I57</f>
+        <v>5537792</v>
+      </c>
+      <c r="V57" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V57" s="4">
-        <v>1</v>
-      </c>
       <c r="W57" s="4">
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
         <f>0.0000032*J57+0.0000064*I57</f>
         <v>0.17408000000000001</v>
       </c>
-      <c r="X57" s="4">
-        <f>T57*U57</f>
-        <v>2293.7600000000002</v>
-      </c>
       <c r="Y57" s="4">
-        <f>T57*U57*V57</f>
-        <v>2293.7600000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+        <f>U57*V57</f>
+        <v>387645.44000000006</v>
+      </c>
+      <c r="Z57" s="4">
+        <f>T57*V57*W57</f>
+        <v>6056.9600000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
@@ -4022,23 +4169,24 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="5"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="20"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="5"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -4069,57 +4217,61 @@
       <c r="J59" s="4">
         <v>16384</v>
       </c>
-      <c r="K59" s="11"/>
-      <c r="L59" s="20">
+      <c r="K59" s="10"/>
+      <c r="L59" s="18">
         <f>L57+J57/2+E57/2</f>
         <v>283168</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="18">
         <f t="shared" ref="M59:M60" si="27">L59+J59/2-1</f>
         <v>291359</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="18">
         <f t="shared" ref="N59:N60" si="28">M59+1</f>
         <v>291360</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O59" s="18">
         <f>N59+E59/2-1</f>
         <v>291487</v>
       </c>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20">
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18">
         <f>S57+1</f>
         <v>2062804</v>
       </c>
-      <c r="S59" s="21">
+      <c r="S59" s="19">
         <f>R59+I59/2-1</f>
         <v>2084435</v>
       </c>
-      <c r="T59" s="4">
-        <f>D59*E59</f>
-        <v>16384</v>
+      <c r="T59" s="18">
+        <f>U59/E59</f>
+        <v>10816</v>
       </c>
       <c r="U59" s="4">
+        <f>D59*I59</f>
+        <v>2768896</v>
+      </c>
+      <c r="V59" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V59" s="4">
+      <c r="W59" s="4">
         <v>0</v>
       </c>
-      <c r="W59" s="4">
+      <c r="X59" s="4">
         <f>0.0000032*J59+0.0000064*I59</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="X59" s="4">
-        <f t="shared" ref="X59:X60" si="29">T59*U59</f>
-        <v>1146.8800000000001</v>
-      </c>
       <c r="Y59" s="4">
-        <f t="shared" ref="Y59:Y60" si="30">T59*U59*V59</f>
+        <f t="shared" ref="Y59:Y60" si="29">U59*V59</f>
+        <v>193822.72000000003</v>
+      </c>
+      <c r="Z59" s="4">
+        <f t="shared" ref="Z59:Z60" si="30">T59*V59*W59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
@@ -4150,57 +4302,61 @@
       <c r="J60" s="4">
         <v>147456</v>
       </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="20">
+      <c r="K60" s="10"/>
+      <c r="L60" s="18">
         <f>L59+J59/2+E59/2</f>
         <v>291488</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="18">
         <f t="shared" si="27"/>
         <v>365215</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="18">
         <f t="shared" si="28"/>
         <v>365216</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="18">
         <f>N60+E60/2-1</f>
         <v>365343</v>
       </c>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20">
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18">
         <f>S59+1</f>
         <v>2084436</v>
       </c>
-      <c r="S60" s="21">
+      <c r="S60" s="19">
         <f>R60+I60/2-1</f>
         <v>2106067</v>
       </c>
-      <c r="T60" s="4">
-        <f>D60*E60</f>
-        <v>16384</v>
+      <c r="T60" s="18">
+        <f>U60/E60</f>
+        <v>10816</v>
       </c>
       <c r="U60" s="4">
+        <f>D60*I60</f>
+        <v>2768896</v>
+      </c>
+      <c r="V60" s="4">
         <v>0.52</v>
       </c>
-      <c r="V60" s="4">
-        <v>1</v>
-      </c>
       <c r="W60" s="4">
+        <v>1</v>
+      </c>
+      <c r="X60" s="4">
         <f>0.0000032*J60+0.0000064*I60</f>
         <v>0.74874879999999999</v>
       </c>
-      <c r="X60" s="4">
+      <c r="Y60" s="4">
         <f t="shared" si="29"/>
-        <v>8519.68</v>
-      </c>
-      <c r="Y60" s="4">
+        <v>1439825.9200000002</v>
+      </c>
+      <c r="Z60" s="4">
         <f t="shared" si="30"/>
-        <v>8519.68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5624.3200000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
@@ -4215,23 +4371,24 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="5"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="20"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61" s="5"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
@@ -4246,23 +4403,24 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="5"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="20"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62" s="5"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -4279,23 +4437,24 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="3"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="16"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
@@ -4310,23 +4469,24 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="5"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="20"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64" s="5"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>66</v>
       </c>
@@ -4357,57 +4517,61 @@
       <c r="J65" s="4">
         <v>512000</v>
       </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="20">
+      <c r="K65" s="10"/>
+      <c r="L65" s="18">
         <f>L60+J60/2+E60/2</f>
         <v>365344</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="18">
         <f>L65+J65/2-1</f>
         <v>621343</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="18">
         <f>M65+1</f>
         <v>621344</v>
       </c>
-      <c r="O65" s="20">
+      <c r="O65" s="18">
         <f>N65+E65/2-1</f>
         <v>621843</v>
       </c>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20">
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18">
         <f>S60+1</f>
         <v>2106068</v>
       </c>
-      <c r="S65" s="21">
+      <c r="S65" s="19">
         <f>R65+I65/2-1</f>
         <v>2190567</v>
       </c>
-      <c r="T65" s="4">
-        <f>D65*E65</f>
-        <v>512000</v>
+      <c r="T65" s="18">
+        <f>U65/E65</f>
+        <v>86528</v>
       </c>
       <c r="U65" s="4">
+        <f>D65*I65</f>
+        <v>86528000</v>
+      </c>
+      <c r="V65" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V65" s="4">
-        <v>1</v>
-      </c>
       <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
         <f>0.0000032*J65+0.0000064*I65</f>
         <v>2.7199999999999998</v>
       </c>
-      <c r="X65" s="4">
-        <f>T65*U65</f>
-        <v>35840</v>
-      </c>
       <c r="Y65" s="4">
-        <f>T65*U65*V65</f>
-        <v>35840</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+        <f>U65*V65</f>
+        <v>6056960.0000000009</v>
+      </c>
+      <c r="Z65" s="4">
+        <f>T65*V65*W65</f>
+        <v>6056.9600000000009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
@@ -4422,23 +4586,24 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="5"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="20"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
@@ -4449,7 +4614,9 @@
         <v>103</v>
       </c>
       <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="6">
+        <v>1000</v>
+      </c>
       <c r="F67" s="6">
         <v>1</v>
       </c>
@@ -4463,44 +4630,47 @@
         <v>1000</v>
       </c>
       <c r="J67" s="6"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24">
+      <c r="K67" s="12"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22">
         <f>S65+1</f>
         <v>2190568</v>
       </c>
-      <c r="S67" s="25">
+      <c r="S67" s="23">
         <f>R67+I67/2-1</f>
         <v>2191067</v>
       </c>
-      <c r="T67" s="6">
+      <c r="T67" s="22">
         <v>1000</v>
       </c>
       <c r="U67" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V67" s="6">
         <v>1.2</v>
       </c>
-      <c r="V67" s="6">
-        <v>1</v>
-      </c>
       <c r="W67" s="6">
+        <v>1</v>
+      </c>
+      <c r="X67" s="6">
         <f>0.0000064*I67</f>
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="X67" s="6">
-        <f>T67*U67</f>
+      <c r="Y67" s="6">
+        <f>U67*V67</f>
         <v>1200</v>
       </c>
-      <c r="Y67" s="6">
-        <f>T67*U67*V67</f>
+      <c r="Z67" s="6">
+        <f>T67*V67*W67</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -4515,23 +4685,24 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="3"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="16"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I69" s="2">
         <f>SUM(I2:I68)</f>
         <v>3071416</v>
@@ -4540,32 +4711,33 @@
         <f>SUM(J3:J68)</f>
         <v>1231552</v>
       </c>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="2">
-        <f>SUM(T3:T68)</f>
-        <v>1069672</v>
-      </c>
-      <c r="W69" s="2">
-        <f>SUM(W2:W68)</f>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="2">
+        <f>SUM(U3:U68)</f>
+        <v>163998312</v>
+      </c>
+      <c r="X69" s="2">
+        <f>SUM(X2:X68)</f>
         <v>23.116339199999999</v>
       </c>
-      <c r="X69" s="2">
-        <f t="shared" ref="X69:Y69" si="31">SUM(X3:X68)</f>
-        <v>182983.68000000002</v>
-      </c>
       <c r="Y69" s="2">
+        <f t="shared" ref="Y69:Z69" si="31">SUM(Y3:Y68)</f>
+        <v>21993774.080000002</v>
+      </c>
+      <c r="Z69" s="2">
         <f t="shared" si="31"/>
-        <v>178682.88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+        <v>200398.49000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I70" s="7">
         <f>I69*16/1024/8</f>
         <v>5998.859375</v>
@@ -4574,44 +4746,48 @@
         <f>J69*16/1024/8</f>
         <v>2405.375</v>
       </c>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="27"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="27"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="27"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="27"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="24"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="24"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="24"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B70" xr:uid="{5611B078-3ED8-409A-972B-20710E035DA1}"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89684071-EAAD-49D0-8873-0FE862000615}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3EE31-7757-4292-B76C-EABD2284D0AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
   <sheets>
     <sheet name="SqueezeNet @ 100MHz + 312.5MHz" sheetId="1" r:id="rId1"/>
+    <sheet name="SqueezeNet v2 MEC Parallel Ch" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SqueezeNet @ 100MHz + 312.5MHz'!$B$1:$B$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SqueezeNet v2 MEC Parallel Ch'!$B$1:$B$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="117">
   <si>
     <t>INPUT</t>
   </si>
@@ -381,6 +383,9 @@
   </si>
   <si>
     <t>Op Paral</t>
+  </si>
+  <si>
+    <t>Operations</t>
   </si>
 </sst>
 </file>
@@ -496,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -569,6 +574,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -902,9 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF8812-1429-4032-9C9C-F25909298566}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -956,32 +964,32 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="28"/>
+      <c r="S1" s="29"/>
       <c r="T1" s="14" t="s">
         <v>115</v>
       </c>
@@ -4801,4 +4809,3811 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
+  <dimension ref="A1:Z70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U1:U1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="29"/>
+      <c r="V1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="3">
+        <v>224</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2^2*E2</f>
+        <v>150528</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16">
+        <v>655360</v>
+      </c>
+      <c r="U2" s="17">
+        <f>T2+J2/2-1</f>
+        <v>730623</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3">
+        <f>0.0000032*J2</f>
+        <v>0.4816896</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="4">
+        <v>111</v>
+      </c>
+      <c r="J3" s="4">
+        <f>I3^2*E3</f>
+        <v>788544</v>
+      </c>
+      <c r="K3" s="4">
+        <f>I3^2*D3</f>
+        <v>36963</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1728</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="18">
+        <v>4096</v>
+      </c>
+      <c r="O3" s="18">
+        <f>N3+L3/2-1</f>
+        <v>4959</v>
+      </c>
+      <c r="P3" s="18">
+        <f>O3+1</f>
+        <v>4960</v>
+      </c>
+      <c r="Q3" s="18">
+        <f>P3+E3/2-1</f>
+        <v>4991</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18">
+        <f>U2+1</f>
+        <v>730624</v>
+      </c>
+      <c r="U3" s="19">
+        <f>T3+J3/2-1</f>
+        <v>1124895</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4">
+        <f>0.0000032*L3+0.0000064*J3</f>
+        <v>5.0522111999999995</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>K3*V3*W3</f>
+        <v>7392.6</v>
+      </c>
+      <c r="Z3" s="26"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="26"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>64</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="6">
+        <v>55</v>
+      </c>
+      <c r="J5" s="6">
+        <f>I5^2*E5</f>
+        <v>193600</v>
+      </c>
+      <c r="K5" s="6">
+        <f>J5</f>
+        <v>193600</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22">
+        <f>U3+1</f>
+        <v>1124896</v>
+      </c>
+      <c r="U5" s="23">
+        <f>T5+J5/2-1</f>
+        <v>1221695</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <f>0.0000064*J5</f>
+        <v>1.2390399999999999</v>
+      </c>
+      <c r="Y5" s="6">
+        <f>K5*V5*W5</f>
+        <v>60016</v>
+      </c>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="4">
+        <v>55</v>
+      </c>
+      <c r="J6" s="4">
+        <f>I6^2*E6</f>
+        <v>48400</v>
+      </c>
+      <c r="K6" s="4">
+        <f>I6^2*D6</f>
+        <v>193600</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1024</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="18">
+        <f>N3+L3/2+E3/2</f>
+        <v>4992</v>
+      </c>
+      <c r="O6" s="18">
+        <f>N6+L6/2-1</f>
+        <v>5503</v>
+      </c>
+      <c r="P6" s="18">
+        <f>O6+1</f>
+        <v>5504</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>P6+E6/2-1</f>
+        <v>5511</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18">
+        <f>U5+1</f>
+        <v>1221696</v>
+      </c>
+      <c r="U6" s="19">
+        <f>T6+J6/2-1</f>
+        <v>1245895</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
+        <f>0.0000032*L6+0.0000064*J6</f>
+        <v>0.3130368</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>K6*V6*W6</f>
+        <v>38720</v>
+      </c>
+      <c r="Z6" s="26"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="4">
+        <v>55</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" ref="J8:J9" si="0">I8^2*E8</f>
+        <v>193600</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" ref="K8:K9" si="1">I8^2*D8</f>
+        <v>48400</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1024</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="18">
+        <f>N6+L6/2+E6/2</f>
+        <v>5512</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" ref="O8:O9" si="2">N8+L8/2-1</f>
+        <v>6023</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" ref="P8:P9" si="3">O8+1</f>
+        <v>6024</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>P8+E8/2-1</f>
+        <v>6055</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18">
+        <f>U6+1</f>
+        <v>1245896</v>
+      </c>
+      <c r="U8" s="19">
+        <f>T8+J8/2-1</f>
+        <v>1342695</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <f>0.0000032*L8+0.0000064*J8</f>
+        <v>1.2423168</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" ref="Y8:Y9" si="4">K8*V8*W8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="26"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="4">
+        <v>55</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>193600</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>48400</v>
+      </c>
+      <c r="L9" s="4">
+        <v>9216</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="18">
+        <f>N8+L8/2+E8/2</f>
+        <v>6056</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="2"/>
+        <v>10663</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="3"/>
+        <v>10664</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>P9+E9/2-1</f>
+        <v>10695</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18">
+        <f>U8+1</f>
+        <v>1342696</v>
+      </c>
+      <c r="U9" s="19">
+        <f>T9+J9/2-1</f>
+        <v>1439495</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W9" s="4">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
+        <f>0.0000032*L9+0.0000064*J9</f>
+        <v>1.2685312</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="4"/>
+        <v>9680</v>
+      </c>
+      <c r="Z9" s="26"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="26"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="26"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="3">
+        <v>55</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="4">
+        <v>128</v>
+      </c>
+      <c r="E13" s="4">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="4">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4">
+        <f>I13^2*E13</f>
+        <v>48400</v>
+      </c>
+      <c r="K13" s="4">
+        <f>I13^2*D13</f>
+        <v>387200</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2048</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="18">
+        <f>N9+L9/2+E9/2</f>
+        <v>10696</v>
+      </c>
+      <c r="O13" s="18">
+        <f>N13+L13/2-1</f>
+        <v>11719</v>
+      </c>
+      <c r="P13" s="18">
+        <f>O13+1</f>
+        <v>11720</v>
+      </c>
+      <c r="Q13" s="18">
+        <f>P13+E13/2-1</f>
+        <v>11727</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18">
+        <f>U9+1</f>
+        <v>1439496</v>
+      </c>
+      <c r="U13" s="19">
+        <f>T13+J13/2-1</f>
+        <v>1463695</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <f>0.0000032*L13+0.0000064*J13</f>
+        <v>0.31631359999999997</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>K13*V13*W13</f>
+        <v>77440</v>
+      </c>
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="26"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="4">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="4">
+        <v>55</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15:J16" si="5">I15^2*E15</f>
+        <v>193600</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ref="K15:K16" si="6">I15^2*D15</f>
+        <v>48400</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1024</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="18">
+        <f>N13+L13/2+E13/2</f>
+        <v>11728</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" ref="O15:O16" si="7">N15+L15/2-1</f>
+        <v>12239</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" ref="P15:P16" si="8">O15+1</f>
+        <v>12240</v>
+      </c>
+      <c r="Q15" s="18">
+        <f>P15+E15/2-1</f>
+        <v>12271</v>
+      </c>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18">
+        <f>U13+1</f>
+        <v>1463696</v>
+      </c>
+      <c r="U15" s="19">
+        <f>T15+J15/2-1</f>
+        <v>1560495</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <f>0.0000032*L15+0.0000064*J15</f>
+        <v>1.2423168</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" ref="Y15:Y16" si="9">K15*V15*W15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="26"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="4">
+        <v>55</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="5"/>
+        <v>193600</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="6"/>
+        <v>48400</v>
+      </c>
+      <c r="L16" s="4">
+        <v>9216</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="18">
+        <f>N15+L15/2+E15/2</f>
+        <v>12272</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="7"/>
+        <v>16879</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="8"/>
+        <v>16880</v>
+      </c>
+      <c r="Q16" s="18">
+        <f>P16+E16/2-1</f>
+        <v>16911</v>
+      </c>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18">
+        <f>U15+1</f>
+        <v>1560496</v>
+      </c>
+      <c r="U16" s="19">
+        <f>T16+J16/2-1</f>
+        <v>1657295</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <f>0.0000032*L16+0.0000064*J16</f>
+        <v>1.2685312</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="9"/>
+        <v>9680</v>
+      </c>
+      <c r="Z16" s="26"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="26"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="26"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="3">
+        <v>55</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="26"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>128</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="6">
+        <v>27</v>
+      </c>
+      <c r="J20" s="6">
+        <f>I20^2*E20</f>
+        <v>93312</v>
+      </c>
+      <c r="K20" s="6">
+        <f>J20</f>
+        <v>93312</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22">
+        <f>U16+1</f>
+        <v>1657296</v>
+      </c>
+      <c r="U20" s="23">
+        <f>T20+J20/2-1</f>
+        <v>1703951</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <f>0.0000064*J20</f>
+        <v>0.59719679999999997</v>
+      </c>
+      <c r="Y20" s="6">
+        <f>K20*V20*W20</f>
+        <v>28926.720000000001</v>
+      </c>
+      <c r="Z20" s="26"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="4">
+        <v>128</v>
+      </c>
+      <c r="E21" s="4">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="4">
+        <v>27</v>
+      </c>
+      <c r="J21" s="4">
+        <f>I21^2*E21</f>
+        <v>23328</v>
+      </c>
+      <c r="K21" s="4">
+        <f>I21^2*D21</f>
+        <v>93312</v>
+      </c>
+      <c r="L21" s="4">
+        <v>4096</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="18">
+        <f>N16+L16/2+E16/2</f>
+        <v>16912</v>
+      </c>
+      <c r="O21" s="18">
+        <f>N21+L21/2-1</f>
+        <v>18959</v>
+      </c>
+      <c r="P21" s="18">
+        <f>O21+1</f>
+        <v>18960</v>
+      </c>
+      <c r="Q21" s="18">
+        <f>P21+E21/2-1</f>
+        <v>18975</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18">
+        <f>U20+1</f>
+        <v>1703952</v>
+      </c>
+      <c r="U21" s="19">
+        <f>T21+J21/2-1</f>
+        <v>1715615</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <f>0.0000032*L21+0.0000064*J21</f>
+        <v>0.16240640000000001</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>K21*V21*W21</f>
+        <v>18662.400000000001</v>
+      </c>
+      <c r="Z21" s="26"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="26"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="4">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4">
+        <v>128</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="4">
+        <v>27</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" ref="J23:J24" si="10">I23^2*E23</f>
+        <v>93312</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" ref="K23:K24" si="11">I23^2*D23</f>
+        <v>23328</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4096</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="18">
+        <f>N21+L21/2+E21/2</f>
+        <v>18976</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" ref="O23:O24" si="12">N23+L23/2-1</f>
+        <v>21023</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" ref="P23:P24" si="13">O23+1</f>
+        <v>21024</v>
+      </c>
+      <c r="Q23" s="18">
+        <f>P23+E23/2-1</f>
+        <v>21087</v>
+      </c>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18">
+        <f>U21+1</f>
+        <v>1715616</v>
+      </c>
+      <c r="U23" s="19">
+        <f>T23+J23/2-1</f>
+        <v>1762271</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <f>0.0000032*L23+0.0000064*J23</f>
+        <v>0.61030399999999996</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" ref="Y23:Y24" si="14">K23*V23*W23</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="26"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4">
+        <v>128</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="4">
+        <v>27</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="10"/>
+        <v>93312</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="11"/>
+        <v>23328</v>
+      </c>
+      <c r="L24" s="4">
+        <v>36864</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="18">
+        <f>N23+L23/2+E23/2</f>
+        <v>21088</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" si="12"/>
+        <v>39519</v>
+      </c>
+      <c r="P24" s="18">
+        <f t="shared" si="13"/>
+        <v>39520</v>
+      </c>
+      <c r="Q24" s="18">
+        <f>P24+E24/2-1</f>
+        <v>39583</v>
+      </c>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18">
+        <f>U23+1</f>
+        <v>1762272</v>
+      </c>
+      <c r="U24" s="19">
+        <f>T24+J24/2-1</f>
+        <v>1808927</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <f>0.0000032*L24+0.0000064*J24</f>
+        <v>0.71516159999999995</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" si="14"/>
+        <v>4665.6000000000004</v>
+      </c>
+      <c r="Z24" s="26"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="26"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="26"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="3">
+        <v>27</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="26"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="4">
+        <v>256</v>
+      </c>
+      <c r="E28" s="4">
+        <v>32</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="4">
+        <v>27</v>
+      </c>
+      <c r="J28" s="4">
+        <f>I28^2*E28</f>
+        <v>23328</v>
+      </c>
+      <c r="K28" s="4">
+        <f>I28^2*D28</f>
+        <v>186624</v>
+      </c>
+      <c r="L28" s="4">
+        <v>8192</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="18">
+        <f>N24+L24/2+E24/2</f>
+        <v>39584</v>
+      </c>
+      <c r="O28" s="18">
+        <f>N28+L28/2-1</f>
+        <v>43679</v>
+      </c>
+      <c r="P28" s="18">
+        <f>O28+1</f>
+        <v>43680</v>
+      </c>
+      <c r="Q28" s="18">
+        <f>P28+E28/2-1</f>
+        <v>43695</v>
+      </c>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18">
+        <f>U24+1</f>
+        <v>1808928</v>
+      </c>
+      <c r="U28" s="19">
+        <f>T28+J28/2-1</f>
+        <v>1820591</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
+        <f>0.0000032*L28+0.0000064*J28</f>
+        <v>0.17551359999999999</v>
+      </c>
+      <c r="Y28" s="4">
+        <f>K28*V28*W28</f>
+        <v>37324.800000000003</v>
+      </c>
+      <c r="Z28" s="26"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="26"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="4">
+        <v>32</v>
+      </c>
+      <c r="E30" s="4">
+        <v>128</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="4">
+        <v>27</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" ref="J30:J31" si="15">I30^2*E30</f>
+        <v>93312</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" ref="K30:K31" si="16">I30^2*D30</f>
+        <v>23328</v>
+      </c>
+      <c r="L30" s="4">
+        <v>4096</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="18">
+        <f>N28+L28/2+E28/2</f>
+        <v>43696</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" ref="O30:O31" si="17">N30+L30/2-1</f>
+        <v>45743</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" ref="P30:P31" si="18">O30+1</f>
+        <v>45744</v>
+      </c>
+      <c r="Q30" s="18">
+        <f>P30+E30/2-1</f>
+        <v>45807</v>
+      </c>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18">
+        <f>U28+1</f>
+        <v>1820592</v>
+      </c>
+      <c r="U30" s="19">
+        <f>T30+J30/2-1</f>
+        <v>1867247</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <f>0.0000032*L30+0.0000064*J30</f>
+        <v>0.61030399999999996</v>
+      </c>
+      <c r="Y30" s="4">
+        <f t="shared" ref="Y30:Y31" si="19">K30*V30*W30</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="26"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4">
+        <v>32</v>
+      </c>
+      <c r="E31" s="4">
+        <v>128</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="4">
+        <v>27</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="15"/>
+        <v>93312</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="16"/>
+        <v>23328</v>
+      </c>
+      <c r="L31" s="4">
+        <v>36864</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="18">
+        <f>N30+L30/2+E30/2</f>
+        <v>45808</v>
+      </c>
+      <c r="O31" s="18">
+        <f t="shared" si="17"/>
+        <v>64239</v>
+      </c>
+      <c r="P31" s="18">
+        <f t="shared" si="18"/>
+        <v>64240</v>
+      </c>
+      <c r="Q31" s="18">
+        <f>P31+E31/2-1</f>
+        <v>64303</v>
+      </c>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18">
+        <f>U30+1</f>
+        <v>1867248</v>
+      </c>
+      <c r="U31" s="19">
+        <f>T31+J31/2-1</f>
+        <v>1913903</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W31" s="4">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4">
+        <f>0.0000032*L31+0.0000064*J31</f>
+        <v>0.71516159999999995</v>
+      </c>
+      <c r="Y31" s="4">
+        <f t="shared" si="19"/>
+        <v>4665.6000000000004</v>
+      </c>
+      <c r="Z31" s="26"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="26"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="26"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="26"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>256</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="6">
+        <v>13</v>
+      </c>
+      <c r="J35" s="6">
+        <f>I35^2*E35</f>
+        <v>43264</v>
+      </c>
+      <c r="K35" s="6">
+        <f>J35</f>
+        <v>43264</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22">
+        <f>U31+1</f>
+        <v>1913904</v>
+      </c>
+      <c r="U35" s="23">
+        <f>T35+J35/2-1</f>
+        <v>1935535</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="W35" s="6">
+        <v>1</v>
+      </c>
+      <c r="X35" s="6">
+        <f>0.0000064*J35</f>
+        <v>0.27688960000000001</v>
+      </c>
+      <c r="Y35" s="6">
+        <f>K35*V35*W35</f>
+        <v>13411.84</v>
+      </c>
+      <c r="Z35" s="26"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="4">
+        <v>256</v>
+      </c>
+      <c r="E36" s="4">
+        <v>48</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="4">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4">
+        <f>I36^2*E36</f>
+        <v>8112</v>
+      </c>
+      <c r="K36" s="4">
+        <f>I36^2*D36</f>
+        <v>43264</v>
+      </c>
+      <c r="L36" s="4">
+        <v>12288</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="18">
+        <f>N31+L31/2+E31/2</f>
+        <v>64304</v>
+      </c>
+      <c r="O36" s="18">
+        <f>N36+L36/2-1</f>
+        <v>70447</v>
+      </c>
+      <c r="P36" s="18">
+        <f>O36+1</f>
+        <v>70448</v>
+      </c>
+      <c r="Q36" s="18">
+        <f>P36+E36/2-1</f>
+        <v>70471</v>
+      </c>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18">
+        <f>U35+1</f>
+        <v>1935536</v>
+      </c>
+      <c r="U36" s="19">
+        <f>T36+J36/2-1</f>
+        <v>1939591</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
+        <f>0.0000032*L36+0.0000064*J36</f>
+        <v>9.1238399999999997E-2</v>
+      </c>
+      <c r="Y36" s="4">
+        <f>K36*V36*W36</f>
+        <v>8652.8000000000011</v>
+      </c>
+      <c r="Z36" s="26"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="26"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="4">
+        <v>48</v>
+      </c>
+      <c r="E38" s="4">
+        <v>192</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="4">
+        <v>13</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" ref="J38:J39" si="20">I38^2*E38</f>
+        <v>32448</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:K39" si="21">I38^2*D38</f>
+        <v>8112</v>
+      </c>
+      <c r="L38" s="4">
+        <v>9216</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="18">
+        <f>N36+L36/2+E36/2</f>
+        <v>70472</v>
+      </c>
+      <c r="O38" s="18">
+        <f t="shared" ref="O38:O39" si="22">N38+L38/2-1</f>
+        <v>75079</v>
+      </c>
+      <c r="P38" s="18">
+        <f>O38+1</f>
+        <v>75080</v>
+      </c>
+      <c r="Q38" s="18">
+        <f>P38+E38/2-1</f>
+        <v>75175</v>
+      </c>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18">
+        <f>U36+1</f>
+        <v>1939592</v>
+      </c>
+      <c r="U38" s="19">
+        <f>T38+J38/2-1</f>
+        <v>1955815</v>
+      </c>
+      <c r="V38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <f>0.0000032*L38+0.0000064*J38</f>
+        <v>0.23715839999999999</v>
+      </c>
+      <c r="Y38" s="4">
+        <f t="shared" ref="Y38:Y39" si="23">K38*V38*W38</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="26"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="4">
+        <v>48</v>
+      </c>
+      <c r="E39" s="4">
+        <v>192</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="4">
+        <v>13</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="20"/>
+        <v>32448</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="21"/>
+        <v>8112</v>
+      </c>
+      <c r="L39" s="4">
+        <v>82944</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="18">
+        <f>N38+L38/2+E38/2</f>
+        <v>75176</v>
+      </c>
+      <c r="O39" s="18">
+        <f t="shared" si="22"/>
+        <v>116647</v>
+      </c>
+      <c r="P39" s="18">
+        <f>O39+1</f>
+        <v>116648</v>
+      </c>
+      <c r="Q39" s="18">
+        <f>P39+E39/2-1</f>
+        <v>116743</v>
+      </c>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18">
+        <f>U38+1</f>
+        <v>1955816</v>
+      </c>
+      <c r="U39" s="19">
+        <f>T39+J39/2-1</f>
+        <v>1972039</v>
+      </c>
+      <c r="V39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4">
+        <f>0.0000032*L39+0.0000064*J39</f>
+        <v>0.47308800000000001</v>
+      </c>
+      <c r="Y39" s="4">
+        <f t="shared" si="23"/>
+        <v>1622.4</v>
+      </c>
+      <c r="Z39" s="26"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="26"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="26"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="3">
+        <v>13</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="26"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="4">
+        <v>384</v>
+      </c>
+      <c r="E43" s="4">
+        <v>48</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="4">
+        <v>13</v>
+      </c>
+      <c r="J43" s="4">
+        <f>I43^2*E43</f>
+        <v>8112</v>
+      </c>
+      <c r="K43" s="4">
+        <f>I43^2*D43</f>
+        <v>64896</v>
+      </c>
+      <c r="L43" s="4">
+        <v>18432</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c r="N43" s="18">
+        <f>N39+L39/2+E39/2</f>
+        <v>116744</v>
+      </c>
+      <c r="O43" s="18">
+        <f>N43+L43/2-1</f>
+        <v>125959</v>
+      </c>
+      <c r="P43" s="18">
+        <f>O43+1</f>
+        <v>125960</v>
+      </c>
+      <c r="Q43" s="18">
+        <f>P43+E43/2-1</f>
+        <v>125983</v>
+      </c>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18">
+        <f>U39+1</f>
+        <v>1972040</v>
+      </c>
+      <c r="U43" s="19">
+        <f>T43+J43/2-1</f>
+        <v>1976095</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
+        <f>0.0000032*L43+0.0000064*J43</f>
+        <v>0.1108992</v>
+      </c>
+      <c r="Y43" s="4">
+        <f>K43*V43*W43</f>
+        <v>12979.2</v>
+      </c>
+      <c r="Z43" s="26"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="26"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="4">
+        <v>48</v>
+      </c>
+      <c r="E45" s="4">
+        <v>192</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="4">
+        <v>13</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" ref="J45:J46" si="24">I45^2*E45</f>
+        <v>32448</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" ref="K45:K46" si="25">I45^2*D45</f>
+        <v>8112</v>
+      </c>
+      <c r="L45" s="4">
+        <v>9216</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="18">
+        <f>N43+L43/2+E43/2</f>
+        <v>125984</v>
+      </c>
+      <c r="O45" s="18">
+        <f t="shared" ref="O45:O46" si="26">N45+L45/2-1</f>
+        <v>130591</v>
+      </c>
+      <c r="P45" s="18">
+        <f t="shared" ref="P45:P46" si="27">O45+1</f>
+        <v>130592</v>
+      </c>
+      <c r="Q45" s="18">
+        <f>P45+E45/2-1</f>
+        <v>130687</v>
+      </c>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18">
+        <f>U43+1</f>
+        <v>1976096</v>
+      </c>
+      <c r="U45" s="19">
+        <f>T45+J45/2-1</f>
+        <v>1992319</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W45" s="4">
+        <v>0</v>
+      </c>
+      <c r="X45" s="4">
+        <f>0.0000032*L45+0.0000064*J45</f>
+        <v>0.23715839999999999</v>
+      </c>
+      <c r="Y45" s="4">
+        <f t="shared" ref="Y45:Y46" si="28">K45*V45*W45</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="26"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="4">
+        <v>48</v>
+      </c>
+      <c r="E46" s="4">
+        <v>192</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="4">
+        <v>13</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="24"/>
+        <v>32448</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="25"/>
+        <v>8112</v>
+      </c>
+      <c r="L46" s="4">
+        <v>82944</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="18">
+        <f>N45+L45/2+E45/2</f>
+        <v>130688</v>
+      </c>
+      <c r="O46" s="18">
+        <f t="shared" si="26"/>
+        <v>172159</v>
+      </c>
+      <c r="P46" s="18">
+        <f t="shared" si="27"/>
+        <v>172160</v>
+      </c>
+      <c r="Q46" s="18">
+        <f>P46+E46/2-1</f>
+        <v>172255</v>
+      </c>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18">
+        <f>U45+1</f>
+        <v>1992320</v>
+      </c>
+      <c r="U46" s="19">
+        <f>T46+J46/2-1</f>
+        <v>2008543</v>
+      </c>
+      <c r="V46" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4">
+        <f>0.0000032*L46+0.0000064*J46</f>
+        <v>0.47308800000000001</v>
+      </c>
+      <c r="Y46" s="4">
+        <f t="shared" si="28"/>
+        <v>1622.4</v>
+      </c>
+      <c r="Z46" s="26"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="26"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="26"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="3">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="26"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="4">
+        <v>384</v>
+      </c>
+      <c r="E50" s="4">
+        <v>64</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="4">
+        <v>13</v>
+      </c>
+      <c r="J50" s="4">
+        <f>I50^2*E50</f>
+        <v>10816</v>
+      </c>
+      <c r="K50" s="4">
+        <f>I50^2*D50</f>
+        <v>64896</v>
+      </c>
+      <c r="L50" s="4">
+        <v>24576</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c r="N50" s="18">
+        <f>N46+L46/2+E46/2</f>
+        <v>172256</v>
+      </c>
+      <c r="O50" s="18">
+        <f>N50+L50/2-1</f>
+        <v>184543</v>
+      </c>
+      <c r="P50" s="18">
+        <f>O50+1</f>
+        <v>184544</v>
+      </c>
+      <c r="Q50" s="18">
+        <f>P50+E50/2-1</f>
+        <v>184575</v>
+      </c>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18">
+        <f>U46+1</f>
+        <v>2008544</v>
+      </c>
+      <c r="U50" s="19">
+        <f>T50+J50/2-1</f>
+        <v>2013951</v>
+      </c>
+      <c r="V50" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W50" s="4">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4">
+        <f>0.0000032*L50+0.0000064*J50</f>
+        <v>0.14786559999999999</v>
+      </c>
+      <c r="Y50" s="4">
+        <f>K50*V50*W50</f>
+        <v>12979.2</v>
+      </c>
+      <c r="Z50" s="26"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="26"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="4">
+        <v>64</v>
+      </c>
+      <c r="E52" s="4">
+        <v>256</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="4">
+        <v>13</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" ref="J52:J53" si="29">I52^2*E52</f>
+        <v>43264</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" ref="K52:K53" si="30">I52^2*D52</f>
+        <v>10816</v>
+      </c>
+      <c r="L52" s="4">
+        <v>16384</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="18">
+        <f>N50+L50/2+E50/2</f>
+        <v>184576</v>
+      </c>
+      <c r="O52" s="18">
+        <f t="shared" ref="O52:O53" si="31">N52+L52/2-1</f>
+        <v>192767</v>
+      </c>
+      <c r="P52" s="18">
+        <f t="shared" ref="P52:P53" si="32">O52+1</f>
+        <v>192768</v>
+      </c>
+      <c r="Q52" s="18">
+        <f>P52+E52/2-1</f>
+        <v>192895</v>
+      </c>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18">
+        <f>U50+1</f>
+        <v>2013952</v>
+      </c>
+      <c r="U52" s="19">
+        <f>T52+J52/2-1</f>
+        <v>2035583</v>
+      </c>
+      <c r="V52" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W52" s="4">
+        <v>0</v>
+      </c>
+      <c r="X52" s="4">
+        <f>0.0000032*L52+0.0000064*J52</f>
+        <v>0.32931840000000001</v>
+      </c>
+      <c r="Y52" s="4">
+        <f t="shared" ref="Y52:Y53" si="33">K52*V52*W52</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="26"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="4">
+        <v>64</v>
+      </c>
+      <c r="E53" s="4">
+        <v>256</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="4">
+        <v>13</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="29"/>
+        <v>43264</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="30"/>
+        <v>10816</v>
+      </c>
+      <c r="L53" s="4">
+        <v>147456</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c r="N53" s="18">
+        <f>N52+L52/2+E52/2</f>
+        <v>192896</v>
+      </c>
+      <c r="O53" s="18">
+        <f t="shared" si="31"/>
+        <v>266623</v>
+      </c>
+      <c r="P53" s="18">
+        <f t="shared" si="32"/>
+        <v>266624</v>
+      </c>
+      <c r="Q53" s="18">
+        <f>P53+E53/2-1</f>
+        <v>266751</v>
+      </c>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18">
+        <f>U52+1</f>
+        <v>2035584</v>
+      </c>
+      <c r="U53" s="19">
+        <f>T53+J53/2-1</f>
+        <v>2057215</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4">
+        <f>0.0000032*L53+0.0000064*J53</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="Y53" s="4">
+        <f t="shared" si="33"/>
+        <v>2163.2000000000003</v>
+      </c>
+      <c r="Z53" s="26"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="26"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="26"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" s="3">
+        <v>13</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="26"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="4">
+        <v>512</v>
+      </c>
+      <c r="E57" s="4">
+        <v>64</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="4">
+        <v>13</v>
+      </c>
+      <c r="J57" s="4">
+        <f>I57^2*E57</f>
+        <v>10816</v>
+      </c>
+      <c r="K57" s="4">
+        <f>I57^2*D57</f>
+        <v>86528</v>
+      </c>
+      <c r="L57" s="4">
+        <v>32768</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c r="N57" s="18">
+        <f>N53+L53/2+E53/2</f>
+        <v>266752</v>
+      </c>
+      <c r="O57" s="18">
+        <f>N57+L57/2-1</f>
+        <v>283135</v>
+      </c>
+      <c r="P57" s="18">
+        <f>O57+1</f>
+        <v>283136</v>
+      </c>
+      <c r="Q57" s="18">
+        <f>P57+E57/2-1</f>
+        <v>283167</v>
+      </c>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18">
+        <f>U53+1</f>
+        <v>2057216</v>
+      </c>
+      <c r="U57" s="19">
+        <f>T57+J57/2-1</f>
+        <v>2062623</v>
+      </c>
+      <c r="V57" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W57" s="4">
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
+        <f>0.0000032*L57+0.0000064*J57</f>
+        <v>0.17408000000000001</v>
+      </c>
+      <c r="Y57" s="4">
+        <f>K57*V57*W57</f>
+        <v>17305.600000000002</v>
+      </c>
+      <c r="Z57" s="26"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="26"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="4">
+        <v>64</v>
+      </c>
+      <c r="E59" s="4">
+        <v>256</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="4">
+        <v>13</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" ref="J59:J60" si="34">I59^2*E59</f>
+        <v>43264</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" ref="K59:K60" si="35">I59^2*D59</f>
+        <v>10816</v>
+      </c>
+      <c r="L59" s="4">
+        <v>16384</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="18">
+        <f>N57+L57/2+E57/2</f>
+        <v>283168</v>
+      </c>
+      <c r="O59" s="18">
+        <f t="shared" ref="O59:O60" si="36">N59+L59/2-1</f>
+        <v>291359</v>
+      </c>
+      <c r="P59" s="18">
+        <f t="shared" ref="P59:P60" si="37">O59+1</f>
+        <v>291360</v>
+      </c>
+      <c r="Q59" s="18">
+        <f>P59+E59/2-1</f>
+        <v>291487</v>
+      </c>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18">
+        <f>U57+1</f>
+        <v>2062624</v>
+      </c>
+      <c r="U59" s="19">
+        <f>T59+J59/2-1</f>
+        <v>2084255</v>
+      </c>
+      <c r="V59" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W59" s="4">
+        <v>0</v>
+      </c>
+      <c r="X59" s="4">
+        <f>0.0000032*L59+0.0000064*J59</f>
+        <v>0.32931840000000001</v>
+      </c>
+      <c r="Y59" s="4">
+        <f t="shared" ref="Y59:Y60" si="38">K59*V59*W59</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="26"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="4">
+        <v>64</v>
+      </c>
+      <c r="E60" s="4">
+        <v>256</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="4">
+        <v>13</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="34"/>
+        <v>43264</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="35"/>
+        <v>10816</v>
+      </c>
+      <c r="L60" s="4">
+        <v>147456</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c r="N60" s="18">
+        <f>N59+L59/2+E59/2</f>
+        <v>291488</v>
+      </c>
+      <c r="O60" s="18">
+        <f t="shared" si="36"/>
+        <v>365215</v>
+      </c>
+      <c r="P60" s="18">
+        <f t="shared" si="37"/>
+        <v>365216</v>
+      </c>
+      <c r="Q60" s="18">
+        <f>P60+E60/2-1</f>
+        <v>365343</v>
+      </c>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18">
+        <f>U59+1</f>
+        <v>2084256</v>
+      </c>
+      <c r="U60" s="19">
+        <f>T60+J60/2-1</f>
+        <v>2105887</v>
+      </c>
+      <c r="V60" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W60" s="4">
+        <v>1</v>
+      </c>
+      <c r="X60" s="4">
+        <f>0.0000032*L60+0.0000064*J60</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="Y60" s="4">
+        <f t="shared" si="38"/>
+        <v>2163.2000000000003</v>
+      </c>
+      <c r="Z60" s="26"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="26"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="26"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="3">
+        <v>13</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="26"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="26"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="4">
+        <v>512</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="4">
+        <v>13</v>
+      </c>
+      <c r="J65" s="4">
+        <f>I65^2*E65</f>
+        <v>169000</v>
+      </c>
+      <c r="K65" s="4">
+        <f>I65^2*D65</f>
+        <v>86528</v>
+      </c>
+      <c r="L65" s="4">
+        <v>512000</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c r="N65" s="18">
+        <f>N60+L60/2+E60/2</f>
+        <v>365344</v>
+      </c>
+      <c r="O65" s="18">
+        <f>N65+L65/2-1</f>
+        <v>621343</v>
+      </c>
+      <c r="P65" s="18">
+        <f>O65+1</f>
+        <v>621344</v>
+      </c>
+      <c r="Q65" s="18">
+        <f>P65+E65/2-1</f>
+        <v>621843</v>
+      </c>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18">
+        <f>U60+1</f>
+        <v>2105888</v>
+      </c>
+      <c r="U65" s="19">
+        <f>T65+J65/2-1</f>
+        <v>2190387</v>
+      </c>
+      <c r="V65" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <f>0.0000032*L65+0.0000064*J65</f>
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="Y65" s="4">
+        <f>K65*V65*W65</f>
+        <v>17305.600000000002</v>
+      </c>
+      <c r="Z65" s="26"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="26"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <f>I67^2*E67</f>
+        <v>1000</v>
+      </c>
+      <c r="K67" s="6">
+        <f>J67</f>
+        <v>1000</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22">
+        <f>U65+1</f>
+        <v>2190388</v>
+      </c>
+      <c r="U67" s="23">
+        <f>T67+J67/2-1</f>
+        <v>2190887</v>
+      </c>
+      <c r="V67" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="W67" s="6">
+        <v>1</v>
+      </c>
+      <c r="X67" s="6">
+        <f>0.0000064*J67</f>
+        <v>6.3999999999999994E-3</v>
+      </c>
+      <c r="Y67" s="6">
+        <f>K67*V67*W67</f>
+        <v>1200</v>
+      </c>
+      <c r="Z67" s="26"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="26"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26">
+        <f>SUM(J2:J68)</f>
+        <v>3071056</v>
+      </c>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26">
+        <f>SUM(L3:L68)</f>
+        <v>1231552</v>
+      </c>
+      <c r="M69" s="13"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="26"/>
+      <c r="W69" s="26"/>
+      <c r="X69" s="26">
+        <f>SUM(X2:X68)</f>
+        <v>23.114035199999996</v>
+      </c>
+      <c r="Y69" s="26">
+        <f t="shared" ref="Y69" si="39">SUM(Y3:Y68)</f>
+        <v>388579.16000000003</v>
+      </c>
+      <c r="Z69" s="26"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26">
+        <f>J69*16/1024/8</f>
+        <v>5998.15625</v>
+      </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26">
+        <f>L69*16/1024/8</f>
+        <v>2405.375</v>
+      </c>
+      <c r="M70" s="13"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="26"/>
+      <c r="W70" s="26"/>
+      <c r="X70" s="26"/>
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="26"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B70" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
+  <mergeCells count="5">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3EE31-7757-4292-B76C-EABD2284D0AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F17E8-C6D4-4CC8-931F-A2A0F89888FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SqueezeNet @ 100MHz + 312.5MHz'!$B$1:$B$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SqueezeNet v2 MEC Parallel Ch'!$B$1:$B$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SqueezeNet v2 MEC Parallel Ch'!$B$2:$B$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="153">
   <si>
     <t>INPUT</t>
   </si>
@@ -386,6 +386,114 @@
   </si>
   <si>
     <t>Operations</t>
+  </si>
+  <si>
+    <t>OP_NUM</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>WB addr</t>
+  </si>
+  <si>
+    <t>data staddr</t>
+  </si>
+  <si>
+    <t>wgt staddr</t>
+  </si>
+  <si>
+    <t>oiknsize</t>
+  </si>
+  <si>
+    <t>oichsize</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>????_0101</t>
+  </si>
+  <si>
+    <t>????_0212</t>
+  </si>
+  <si>
+    <t>????_0103</t>
+  </si>
+  <si>
+    <t>0040_0003</t>
+  </si>
+  <si>
+    <t>0010_0040</t>
+  </si>
+  <si>
+    <t>0040_0010</t>
+  </si>
+  <si>
+    <t>0010_0080</t>
+  </si>
+  <si>
+    <t>0020_0080</t>
+  </si>
+  <si>
+    <t>0020_0100</t>
+  </si>
+  <si>
+    <t>0080_0020</t>
+  </si>
+  <si>
+    <t>0030_0100</t>
+  </si>
+  <si>
+    <t>00c0_0030</t>
+  </si>
+  <si>
+    <t>0030_0180</t>
+  </si>
+  <si>
+    <t>0040_0180</t>
+  </si>
+  <si>
+    <t>0100_0040</t>
+  </si>
+  <si>
+    <t>0040_0200</t>
+  </si>
+  <si>
+    <t>03e8_0200</t>
+  </si>
+  <si>
+    <t>006f_0003</t>
+  </si>
+  <si>
+    <t>0037_0001</t>
+  </si>
+  <si>
+    <t>001b_0001</t>
+  </si>
+  <si>
+    <t>000d_0001</t>
+  </si>
+  <si>
+    <t>Single OP</t>
+  </si>
+  <si>
+    <t>Time(us)</t>
+  </si>
+  <si>
+    <t>Memory Access</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>2B Aligned</t>
   </si>
 </sst>
 </file>
@@ -501,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,6 +687,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,9 +777,30 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +822,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -964,32 +1174,32 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="29"/>
+      <c r="S1" s="62"/>
       <c r="T1" s="14" t="s">
         <v>115</v>
       </c>
@@ -4813,3807 +5023,4463 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7265625" style="41"/>
+    <col min="9" max="9" width="10.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="41"/>
+    <col min="12" max="12" width="10.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.81640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C2" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28" t="s">
+      <c r="N2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="69"/>
+      <c r="V2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32">
+        <v>3</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="32">
+        <v>224</v>
+      </c>
+      <c r="K3" s="32">
+        <f>J3^2*F3</f>
+        <v>150528</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="54">
+        <f>R4</f>
+        <v>805888</v>
+      </c>
+      <c r="Q3" s="16" t="str">
+        <f>DEC2HEX(P3)</f>
+        <v>C4C00</v>
+      </c>
+      <c r="R3" s="16">
+        <v>655360</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3">
+        <f>0.0000032*K3</f>
+        <v>0.4816896</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="34">
+        <v>3</v>
+      </c>
+      <c r="E4" s="34">
+        <v>3</v>
+      </c>
+      <c r="F4" s="34">
+        <v>64</v>
+      </c>
+      <c r="G4" s="34">
+        <v>2</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="34">
         <v>111</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="K4" s="34">
+        <f>J4^2*F4</f>
+        <v>788544</v>
+      </c>
+      <c r="L4" s="34">
+        <f>J4^2*E4</f>
+        <v>36963</v>
+      </c>
+      <c r="M4" s="34">
+        <f>D4^2*E4*F4</f>
+        <v>1728</v>
+      </c>
+      <c r="N4" s="34">
+        <f>F4</f>
+        <v>64</v>
+      </c>
+      <c r="O4" s="35">
+        <f>_xlfn.CEILING.MATH(D4^2*E4/2)*F4</f>
+        <v>896</v>
+      </c>
+      <c r="P4" s="55">
+        <f>R6</f>
+        <v>1594432</v>
+      </c>
+      <c r="Q4" s="18" t="str">
+        <f>DEC2HEX(P4)</f>
+        <v>185440</v>
+      </c>
+      <c r="R4" s="18">
+        <f>R3+K3</f>
+        <v>805888</v>
+      </c>
+      <c r="S4" s="18" t="str">
+        <f>DEC2HEX(R4)</f>
+        <v>C4C00</v>
+      </c>
+      <c r="T4" s="18">
+        <v>4096</v>
+      </c>
+      <c r="U4" s="18" t="str">
+        <f>DEC2HEX(T4)</f>
+        <v>1000</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>0.0000032*M4+0.0000064*K4</f>
+        <v>5.0522111999999995</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>L4*Y4*Z4</f>
+        <v>7392.6</v>
+      </c>
+      <c r="AC4" s="26"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="26"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38">
+        <v>64</v>
+      </c>
+      <c r="G6" s="38">
+        <v>2</v>
+      </c>
+      <c r="H6" s="38">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I6" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="38">
+        <v>55</v>
+      </c>
+      <c r="K6" s="38">
+        <f>J6^2*F6</f>
+        <v>193600</v>
+      </c>
+      <c r="L6" s="38">
+        <f>K6</f>
+        <v>193600</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="57">
+        <f>R7</f>
+        <v>1788032</v>
+      </c>
+      <c r="Q6" s="22" t="str">
+        <f>DEC2HEX(P6)</f>
+        <v>1B4880</v>
+      </c>
+      <c r="R6" s="22">
+        <f>R4+K4</f>
+        <v>1594432</v>
+      </c>
+      <c r="S6" s="22" t="str">
+        <f>DEC2HEX(R6)</f>
+        <v>185440</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <f>0.0000064*K6</f>
+        <v>1.2390399999999999</v>
+      </c>
+      <c r="AB6" s="6">
+        <f>L6*Y6*Z6</f>
+        <v>60016</v>
+      </c>
+      <c r="AC6" s="26"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34">
+        <v>64</v>
+      </c>
+      <c r="F7" s="34">
+        <v>16</v>
+      </c>
+      <c r="G7" s="34">
+        <v>1</v>
+      </c>
+      <c r="H7" s="34">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="I7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="34">
+        <v>55</v>
+      </c>
+      <c r="K7" s="34">
+        <f>J7^2*F7</f>
+        <v>48400</v>
+      </c>
+      <c r="L7" s="34">
+        <f>J7^2*E7</f>
+        <v>193600</v>
+      </c>
+      <c r="M7" s="34">
+        <f>D7^2*E7*F7</f>
+        <v>1024</v>
+      </c>
+      <c r="N7" s="34">
+        <f>F7</f>
+        <v>16</v>
+      </c>
+      <c r="O7" s="35">
+        <f>_xlfn.CEILING.MATH(D7^2*E7/2)*F7</f>
+        <v>512</v>
+      </c>
+      <c r="P7" s="55">
+        <f>R9</f>
+        <v>1836432</v>
+      </c>
+      <c r="Q7" s="18" t="str">
+        <f>DEC2HEX(P7)</f>
+        <v>1C0590</v>
+      </c>
+      <c r="R7" s="18">
+        <f>R6+K6</f>
+        <v>1788032</v>
+      </c>
+      <c r="S7" s="18" t="str">
+        <f>DEC2HEX(R7)</f>
+        <v>1B4880</v>
+      </c>
+      <c r="T7" s="18">
+        <f>T4+O4</f>
+        <v>4992</v>
+      </c>
+      <c r="U7" s="18" t="str">
+        <f>DEC2HEX(T7)</f>
+        <v>1380</v>
+      </c>
+      <c r="V7" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W7" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="X7" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>0.0000032*M7+0.0000064*K7</f>
+        <v>0.3130368</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>L7*Y7*Z7</f>
+        <v>38720</v>
+      </c>
+      <c r="AC7" s="26"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="26"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+      <c r="E9" s="34">
+        <v>16</v>
+      </c>
+      <c r="F9" s="34">
+        <v>64</v>
+      </c>
+      <c r="G9" s="34">
+        <v>1</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="34">
+        <v>55</v>
+      </c>
+      <c r="K9" s="34">
+        <f t="shared" ref="K9:K10" si="0">J9^2*F9</f>
+        <v>193600</v>
+      </c>
+      <c r="L9" s="34">
+        <f t="shared" ref="L9:L10" si="1">J9^2*E9</f>
+        <v>48400</v>
+      </c>
+      <c r="M9" s="34">
+        <f t="shared" ref="M9:M10" si="2">D9^2*E9*F9</f>
+        <v>1024</v>
+      </c>
+      <c r="N9" s="34">
+        <f t="shared" ref="N9:N10" si="3">F9</f>
+        <v>64</v>
+      </c>
+      <c r="O9" s="35">
+        <f t="shared" ref="O9:O10" si="4">_xlfn.CEILING.MATH(D9^2*E9/2)*F9</f>
+        <v>512</v>
+      </c>
+      <c r="P9" s="55">
+        <f>R10</f>
+        <v>2030032</v>
+      </c>
+      <c r="Q9" s="18" t="str">
+        <f t="shared" ref="Q9:Q10" si="5">DEC2HEX(P9)</f>
+        <v>1EF9D0</v>
+      </c>
+      <c r="R9" s="18">
+        <f>R7+K7</f>
+        <v>1836432</v>
+      </c>
+      <c r="S9" s="18" t="str">
+        <f t="shared" ref="S9:S10" si="6">DEC2HEX(R9)</f>
+        <v>1C0590</v>
+      </c>
+      <c r="T9" s="18">
+        <f>T7+O7</f>
+        <v>5504</v>
+      </c>
+      <c r="U9" s="18" t="str">
+        <f t="shared" ref="U9:U10" si="7">DEC2HEX(T9)</f>
+        <v>1580</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="X9" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>0.0000032*M9+0.0000064*K9</f>
+        <v>1.2423168</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>L9*Y9*Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="26"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="34">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="3">
-        <v>224</v>
-      </c>
-      <c r="J2" s="3">
-        <f>I2^2*E2</f>
-        <v>150528</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16">
-        <v>655360</v>
-      </c>
-      <c r="U2" s="17">
-        <f>T2+J2/2-1</f>
-        <v>730623</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3">
-        <f>0.0000032*J2</f>
-        <v>0.4816896</v>
-      </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="E10" s="34">
+        <v>16</v>
+      </c>
+      <c r="F10" s="34">
         <v>64</v>
       </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="4">
-        <v>111</v>
-      </c>
-      <c r="J3" s="4">
-        <f>I3^2*E3</f>
-        <v>788544</v>
-      </c>
-      <c r="K3" s="4">
-        <f>I3^2*D3</f>
-        <v>36963</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1728</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="18">
-        <v>4096</v>
-      </c>
-      <c r="O3" s="18">
-        <f>N3+L3/2-1</f>
-        <v>4959</v>
-      </c>
-      <c r="P3" s="18">
-        <f>O3+1</f>
-        <v>4960</v>
-      </c>
-      <c r="Q3" s="18">
-        <f>P3+E3/2-1</f>
-        <v>4991</v>
-      </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18">
-        <f>U2+1</f>
-        <v>730624</v>
-      </c>
-      <c r="U3" s="19">
-        <f>T3+J3/2-1</f>
-        <v>1124895</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W3" s="4">
-        <v>1</v>
-      </c>
-      <c r="X3" s="4">
-        <f>0.0000032*L3+0.0000064*J3</f>
-        <v>5.0522111999999995</v>
-      </c>
-      <c r="Y3" s="4">
-        <f>K3*V3*W3</f>
-        <v>7392.6</v>
-      </c>
-      <c r="Z3" s="26"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="26"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>64</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="H10" s="34">
+        <v>1</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J10" s="34">
         <v>55</v>
       </c>
-      <c r="J5" s="6">
-        <f>I5^2*E5</f>
-        <v>193600</v>
-      </c>
-      <c r="K5" s="6">
-        <f>J5</f>
-        <v>193600</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22">
-        <f>U3+1</f>
-        <v>1124896</v>
-      </c>
-      <c r="U5" s="23">
-        <f>T5+J5/2-1</f>
-        <v>1221695</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
-        <f>0.0000064*J5</f>
-        <v>1.2390399999999999</v>
-      </c>
-      <c r="Y5" s="6">
-        <f>K5*V5*W5</f>
-        <v>60016</v>
-      </c>
-      <c r="Z5" s="26"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="4">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="4">
-        <v>55</v>
-      </c>
-      <c r="J6" s="4">
-        <f>I6^2*E6</f>
-        <v>48400</v>
-      </c>
-      <c r="K6" s="4">
-        <f>I6^2*D6</f>
-        <v>193600</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1024</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="18">
-        <f>N3+L3/2+E3/2</f>
-        <v>4992</v>
-      </c>
-      <c r="O6" s="18">
-        <f>N6+L6/2-1</f>
-        <v>5503</v>
-      </c>
-      <c r="P6" s="18">
-        <f>O6+1</f>
-        <v>5504</v>
-      </c>
-      <c r="Q6" s="18">
-        <f>P6+E6/2-1</f>
-        <v>5511</v>
-      </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18">
-        <f>U5+1</f>
-        <v>1221696</v>
-      </c>
-      <c r="U6" s="19">
-        <f>T6+J6/2-1</f>
-        <v>1245895</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4">
-        <f>0.0000032*L6+0.0000064*J6</f>
-        <v>0.3130368</v>
-      </c>
-      <c r="Y6" s="4">
-        <f>K6*V6*W6</f>
-        <v>38720</v>
-      </c>
-      <c r="Z6" s="26"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="26"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="4">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="4">
-        <v>55</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" ref="J8:J9" si="0">I8^2*E8</f>
-        <v>193600</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" ref="K8:K9" si="1">I8^2*D8</f>
-        <v>48400</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1024</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="18">
-        <f>N6+L6/2+E6/2</f>
-        <v>5512</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" ref="O8:O9" si="2">N8+L8/2-1</f>
-        <v>6023</v>
-      </c>
-      <c r="P8" s="18">
-        <f t="shared" ref="P8:P9" si="3">O8+1</f>
-        <v>6024</v>
-      </c>
-      <c r="Q8" s="18">
-        <f>P8+E8/2-1</f>
-        <v>6055</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18">
-        <f>U6+1</f>
-        <v>1245896</v>
-      </c>
-      <c r="U8" s="19">
-        <f>T8+J8/2-1</f>
-        <v>1342695</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <f>0.0000032*L8+0.0000064*J8</f>
-        <v>1.2423168</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" ref="Y8:Y9" si="4">K8*V8*W8</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="26"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="4">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="4">
-        <v>55</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="K10" s="34">
         <f t="shared" si="0"/>
         <v>193600</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L10" s="34">
         <f t="shared" si="1"/>
         <v>48400</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M10" s="34">
+        <f t="shared" si="2"/>
         <v>9216</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="18">
-        <f>N8+L8/2+E8/2</f>
-        <v>6056</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" si="2"/>
-        <v>10663</v>
-      </c>
-      <c r="P9" s="18">
+      <c r="N10" s="34">
         <f t="shared" si="3"/>
-        <v>10664</v>
-      </c>
-      <c r="Q9" s="18">
-        <f>P9+E9/2-1</f>
-        <v>10695</v>
-      </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18">
-        <f>U8+1</f>
-        <v>1342696</v>
-      </c>
-      <c r="U9" s="19">
-        <f>T9+J9/2-1</f>
-        <v>1439495</v>
-      </c>
-      <c r="V9" s="4">
+        <v>64</v>
+      </c>
+      <c r="O10" s="35">
+        <f t="shared" si="4"/>
+        <v>4608</v>
+      </c>
+      <c r="P10" s="55">
+        <f>R14</f>
+        <v>2223632</v>
+      </c>
+      <c r="Q10" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>21EE10</v>
+      </c>
+      <c r="R10" s="18">
+        <f>R9+K9</f>
+        <v>2030032</v>
+      </c>
+      <c r="S10" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>1EF9D0</v>
+      </c>
+      <c r="T10" s="18">
+        <f>T9+O9</f>
+        <v>6016</v>
+      </c>
+      <c r="U10" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1780</v>
+      </c>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="4">
         <v>0.2</v>
       </c>
-      <c r="W9" s="4">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
-        <f>0.0000032*L9+0.0000064*J9</f>
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>0.0000032*M10+0.0000064*K10</f>
         <v>1.2685312</v>
       </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="4"/>
+      <c r="AB10" s="4">
+        <f>L10*Y10*Z10</f>
         <v>9680</v>
       </c>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="AC10" s="26"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="56"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="48"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="26"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="26"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="26"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J13" s="32">
         <v>55</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="26"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="26"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34">
         <v>128</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F14" s="34">
         <v>16</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="H14" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I14" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J14" s="34">
         <v>55</v>
       </c>
-      <c r="J13" s="4">
-        <f>I13^2*E13</f>
+      <c r="K14" s="34">
+        <f>J14^2*F14</f>
         <v>48400</v>
       </c>
-      <c r="K13" s="4">
-        <f>I13^2*D13</f>
+      <c r="L14" s="34">
+        <f>J14^2*E14</f>
         <v>387200</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M14" s="34">
+        <f>D14^2*E14*F14</f>
         <v>2048</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="18">
-        <f>N9+L9/2+E9/2</f>
-        <v>10696</v>
-      </c>
-      <c r="O13" s="18">
-        <f>N13+L13/2-1</f>
-        <v>11719</v>
-      </c>
-      <c r="P13" s="18">
-        <f>O13+1</f>
-        <v>11720</v>
-      </c>
-      <c r="Q13" s="18">
-        <f>P13+E13/2-1</f>
-        <v>11727</v>
-      </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18">
-        <f>U9+1</f>
-        <v>1439496</v>
-      </c>
-      <c r="U13" s="19">
-        <f>T13+J13/2-1</f>
-        <v>1463695</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="N14" s="34">
+        <f>F14</f>
+        <v>16</v>
+      </c>
+      <c r="O14" s="35">
+        <f>_xlfn.CEILING.MATH(D14^2*E14/2)*F14</f>
+        <v>1024</v>
+      </c>
+      <c r="P14" s="55">
+        <f>R16</f>
+        <v>2272032</v>
+      </c>
+      <c r="Q14" s="18" t="str">
+        <f>DEC2HEX(P14)</f>
+        <v>22AB20</v>
+      </c>
+      <c r="R14" s="18">
+        <f>R10+K10</f>
+        <v>2223632</v>
+      </c>
+      <c r="S14" s="18" t="str">
+        <f>DEC2HEX(R14)</f>
+        <v>21EE10</v>
+      </c>
+      <c r="T14" s="18">
+        <f>T10+O10</f>
+        <v>10624</v>
+      </c>
+      <c r="U14" s="18" t="str">
+        <f>DEC2HEX(T14)</f>
+        <v>2980</v>
+      </c>
+      <c r="V14" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y14" s="4">
         <v>0.2</v>
       </c>
-      <c r="W13" s="4">
-        <v>1</v>
-      </c>
-      <c r="X13" s="4">
-        <f>0.0000032*L13+0.0000064*J13</f>
+      <c r="Z14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="4">
+        <f>0.0000032*M14+0.0000064*K14</f>
         <v>0.31631359999999997</v>
       </c>
-      <c r="Y13" s="4">
-        <f>K13*V13*W13</f>
+      <c r="AB14" s="4">
+        <f>L14*Y14*Z14</f>
         <v>77440</v>
       </c>
-      <c r="Z13" s="26"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="AC14" s="26"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="26"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="26"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="34">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F16" s="34">
         <v>64</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G16" s="34">
+        <v>1</v>
+      </c>
+      <c r="H16" s="34">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I16" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J16" s="34">
         <v>55</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" ref="J15:J16" si="5">I15^2*E15</f>
+      <c r="K16" s="34">
+        <f t="shared" ref="K16:K17" si="8">J16^2*F16</f>
         <v>193600</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" ref="K15:K16" si="6">I15^2*D15</f>
+      <c r="L16" s="34">
+        <f t="shared" ref="L16:L17" si="9">J16^2*E16</f>
         <v>48400</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M16" s="34">
+        <f t="shared" ref="M16:M17" si="10">D16^2*E16*F16</f>
         <v>1024</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="18">
-        <f>N13+L13/2+E13/2</f>
-        <v>11728</v>
-      </c>
-      <c r="O15" s="18">
-        <f t="shared" ref="O15:O16" si="7">N15+L15/2-1</f>
-        <v>12239</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" ref="P15:P16" si="8">O15+1</f>
-        <v>12240</v>
-      </c>
-      <c r="Q15" s="18">
-        <f>P15+E15/2-1</f>
-        <v>12271</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18">
-        <f>U13+1</f>
-        <v>1463696</v>
-      </c>
-      <c r="U15" s="19">
-        <f>T15+J15/2-1</f>
-        <v>1560495</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="N16" s="34">
+        <f t="shared" ref="N16:N17" si="11">F16</f>
+        <v>64</v>
+      </c>
+      <c r="O16" s="35">
+        <f t="shared" ref="O16:O17" si="12">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
+        <v>512</v>
+      </c>
+      <c r="P16" s="55">
+        <f>R17</f>
+        <v>2465632</v>
+      </c>
+      <c r="Q16" s="18" t="str">
+        <f t="shared" ref="Q16:Q17" si="13">DEC2HEX(P16)</f>
+        <v>259F60</v>
+      </c>
+      <c r="R16" s="18">
+        <f>R14+K14</f>
+        <v>2272032</v>
+      </c>
+      <c r="S16" s="18" t="str">
+        <f t="shared" ref="S16:S17" si="14">DEC2HEX(R16)</f>
+        <v>22AB20</v>
+      </c>
+      <c r="T16" s="18">
+        <f>T14+O14</f>
+        <v>11648</v>
+      </c>
+      <c r="U16" s="18" t="str">
+        <f t="shared" ref="U16:U17" si="15">DEC2HEX(T16)</f>
+        <v>2D80</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" s="4">
         <v>0.2</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Z16" s="4">
         <v>0</v>
       </c>
-      <c r="X15" s="4">
-        <f>0.0000032*L15+0.0000064*J15</f>
+      <c r="AA16" s="4">
+        <f>0.0000032*M16+0.0000064*K16</f>
         <v>1.2423168</v>
       </c>
-      <c r="Y15" s="4">
-        <f t="shared" ref="Y15:Y16" si="9">K15*V15*W15</f>
+      <c r="AB16" s="4">
+        <f>L16*Y16*Z16</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="26"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="AC16" s="26"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="34">
+        <v>3</v>
+      </c>
+      <c r="E17" s="34">
         <v>16</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F17" s="34">
         <v>64</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G17" s="34">
+        <v>1</v>
+      </c>
+      <c r="H17" s="34">
+        <v>1</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J17" s="34">
         <v>55</v>
       </c>
-      <c r="J16" s="4">
-        <f t="shared" si="5"/>
+      <c r="K17" s="34">
+        <f t="shared" si="8"/>
         <v>193600</v>
       </c>
-      <c r="K16" s="4">
-        <f t="shared" si="6"/>
+      <c r="L17" s="34">
+        <f t="shared" si="9"/>
         <v>48400</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M17" s="34">
+        <f t="shared" si="10"/>
         <v>9216</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="18">
-        <f>N15+L15/2+E15/2</f>
-        <v>12272</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="7"/>
-        <v>16879</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="8"/>
-        <v>16880</v>
-      </c>
-      <c r="Q16" s="18">
-        <f>P16+E16/2-1</f>
-        <v>16911</v>
-      </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18">
-        <f>U15+1</f>
-        <v>1560496</v>
-      </c>
-      <c r="U16" s="19">
-        <f>T16+J16/2-1</f>
-        <v>1657295</v>
-      </c>
-      <c r="V16" s="4">
+      <c r="N17" s="34">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="O17" s="35">
+        <f t="shared" si="12"/>
+        <v>4608</v>
+      </c>
+      <c r="P17" s="55">
+        <f>R21</f>
+        <v>2659232</v>
+      </c>
+      <c r="Q17" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>2893A0</v>
+      </c>
+      <c r="R17" s="18">
+        <f>R16+K16</f>
+        <v>2465632</v>
+      </c>
+      <c r="S17" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>259F60</v>
+      </c>
+      <c r="T17" s="18">
+        <f>T16+O16</f>
+        <v>12160</v>
+      </c>
+      <c r="U17" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v>2F80</v>
+      </c>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="4">
         <v>0.2</v>
       </c>
-      <c r="W16" s="4">
-        <v>1</v>
-      </c>
-      <c r="X16" s="4">
-        <f>0.0000032*L16+0.0000064*J16</f>
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="4">
+        <f>0.0000032*M17+0.0000064*K17</f>
         <v>1.2685312</v>
       </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="9"/>
+      <c r="AB17" s="4">
+        <f>L17*Y17*Z17</f>
         <v>9680</v>
       </c>
-      <c r="Z16" s="26"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="AC17" s="26"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="26"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="48"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="26"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="26"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="26"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J20" s="32">
         <v>55</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="26"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="26"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38">
         <v>128</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G21" s="38">
         <v>2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H21" s="38">
         <v>0</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I21" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J21" s="38">
         <v>27</v>
       </c>
-      <c r="J20" s="6">
-        <f>I20^2*E20</f>
+      <c r="K21" s="38">
+        <f>J21^2*F21</f>
         <v>93312</v>
       </c>
-      <c r="K20" s="6">
-        <f>J20</f>
+      <c r="L21" s="38">
+        <f>K21</f>
         <v>93312</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22">
-        <f>U16+1</f>
-        <v>1657296</v>
-      </c>
-      <c r="U20" s="23">
-        <f>T20+J20/2-1</f>
-        <v>1703951</v>
-      </c>
-      <c r="V20" s="6">
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="57">
+        <f>R22</f>
+        <v>2752544</v>
+      </c>
+      <c r="Q21" s="22" t="str">
+        <f>DEC2HEX(P21)</f>
+        <v>2A0020</v>
+      </c>
+      <c r="R21" s="22">
+        <f>R17+K17</f>
+        <v>2659232</v>
+      </c>
+      <c r="S21" s="22" t="str">
+        <f>DEC2HEX(R21)</f>
+        <v>2893A0</v>
+      </c>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="6">
         <v>0.31</v>
       </c>
-      <c r="W20" s="6">
-        <v>1</v>
-      </c>
-      <c r="X20" s="6">
-        <f>0.0000064*J20</f>
+      <c r="Z21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>0.0000064*K21</f>
         <v>0.59719679999999997</v>
       </c>
-      <c r="Y20" s="6">
-        <f>K20*V20*W20</f>
+      <c r="AB21" s="6">
+        <f>L21*Y21*Z21</f>
         <v>28926.720000000001</v>
       </c>
-      <c r="Z20" s="26"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="AC21" s="26"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
         <v>128</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F22" s="34">
         <v>32</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="H22" s="34">
         <v>0</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I22" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J22" s="34">
         <v>27</v>
       </c>
-      <c r="J21" s="4">
-        <f>I21^2*E21</f>
+      <c r="K22" s="34">
+        <f>J22^2*F22</f>
         <v>23328</v>
       </c>
-      <c r="K21" s="4">
-        <f>I21^2*D21</f>
+      <c r="L22" s="34">
+        <f>J22^2*E22</f>
         <v>93312</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M22" s="34">
+        <f>D22^2*E22*F22</f>
         <v>4096</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="18">
-        <f>N16+L16/2+E16/2</f>
-        <v>16912</v>
-      </c>
-      <c r="O21" s="18">
-        <f>N21+L21/2-1</f>
-        <v>18959</v>
-      </c>
-      <c r="P21" s="18">
-        <f>O21+1</f>
-        <v>18960</v>
-      </c>
-      <c r="Q21" s="18">
-        <f>P21+E21/2-1</f>
-        <v>18975</v>
-      </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18">
-        <f>U20+1</f>
-        <v>1703952</v>
-      </c>
-      <c r="U21" s="19">
-        <f>T21+J21/2-1</f>
-        <v>1715615</v>
-      </c>
-      <c r="V21" s="4">
+      <c r="N22" s="34">
+        <f>F22</f>
+        <v>32</v>
+      </c>
+      <c r="O22" s="35">
+        <f>_xlfn.CEILING.MATH(D22^2*E22/2)*F22</f>
+        <v>2048</v>
+      </c>
+      <c r="P22" s="55">
+        <f>R24</f>
+        <v>2775872</v>
+      </c>
+      <c r="Q22" s="18" t="str">
+        <f>DEC2HEX(P22)</f>
+        <v>2A5B40</v>
+      </c>
+      <c r="R22" s="18">
+        <f>R21+K21</f>
+        <v>2752544</v>
+      </c>
+      <c r="S22" s="18" t="str">
+        <f>DEC2HEX(R22)</f>
+        <v>2A0020</v>
+      </c>
+      <c r="T22" s="18">
+        <f>T17+O17</f>
+        <v>16768</v>
+      </c>
+      <c r="U22" s="18" t="str">
+        <f>DEC2HEX(T22)</f>
+        <v>4180</v>
+      </c>
+      <c r="V22" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W22" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="X22" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y22" s="4">
         <v>0.2</v>
       </c>
-      <c r="W21" s="4">
-        <v>1</v>
-      </c>
-      <c r="X21" s="4">
-        <f>0.0000032*L21+0.0000064*J21</f>
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4">
+        <f>0.0000032*M22+0.0000064*K22</f>
         <v>0.16240640000000001</v>
       </c>
-      <c r="Y21" s="4">
-        <f>K21*V21*W21</f>
+      <c r="AB22" s="4">
+        <f>L22*Y22*Z22</f>
         <v>18662.400000000001</v>
       </c>
-      <c r="Z21" s="26"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="AC22" s="26"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="26"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="26"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34">
         <v>32</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F24" s="34">
         <v>128</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="G24" s="34">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34">
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I24" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J24" s="34">
         <v>27</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" ref="J23:J24" si="10">I23^2*E23</f>
+      <c r="K24" s="34">
+        <f t="shared" ref="K24:K25" si="16">J24^2*F24</f>
         <v>93312</v>
       </c>
-      <c r="K23" s="4">
-        <f t="shared" ref="K23:K24" si="11">I23^2*D23</f>
+      <c r="L24" s="34">
+        <f t="shared" ref="L24:L25" si="17">J24^2*E24</f>
         <v>23328</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M24" s="34">
+        <f t="shared" ref="M24:M25" si="18">D24^2*E24*F24</f>
         <v>4096</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="18">
-        <f>N21+L21/2+E21/2</f>
-        <v>18976</v>
-      </c>
-      <c r="O23" s="18">
-        <f t="shared" ref="O23:O24" si="12">N23+L23/2-1</f>
-        <v>21023</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" ref="P23:P24" si="13">O23+1</f>
-        <v>21024</v>
-      </c>
-      <c r="Q23" s="18">
-        <f>P23+E23/2-1</f>
-        <v>21087</v>
-      </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18">
-        <f>U21+1</f>
-        <v>1715616</v>
-      </c>
-      <c r="U23" s="19">
-        <f>T23+J23/2-1</f>
-        <v>1762271</v>
-      </c>
-      <c r="V23" s="4">
+      <c r="N24" s="34">
+        <f t="shared" ref="N24:N25" si="19">F24</f>
+        <v>128</v>
+      </c>
+      <c r="O24" s="35">
+        <f t="shared" ref="O24:O25" si="20">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
+        <v>2048</v>
+      </c>
+      <c r="P24" s="55">
+        <f>R25</f>
+        <v>2869184</v>
+      </c>
+      <c r="Q24" s="18" t="str">
+        <f t="shared" ref="Q24:Q25" si="21">DEC2HEX(P24)</f>
+        <v>2BC7C0</v>
+      </c>
+      <c r="R24" s="18">
+        <f>R22+K22</f>
+        <v>2775872</v>
+      </c>
+      <c r="S24" s="18" t="str">
+        <f t="shared" ref="S24:S25" si="22">DEC2HEX(R24)</f>
+        <v>2A5B40</v>
+      </c>
+      <c r="T24" s="18">
+        <f>T22+O22</f>
+        <v>18816</v>
+      </c>
+      <c r="U24" s="18" t="str">
+        <f t="shared" ref="U24:U25" si="23">DEC2HEX(T24)</f>
+        <v>4980</v>
+      </c>
+      <c r="V24" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="X24" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y24" s="4">
         <v>0.2</v>
       </c>
-      <c r="W23" s="4">
+      <c r="Z24" s="4">
         <v>0</v>
       </c>
-      <c r="X23" s="4">
-        <f>0.0000032*L23+0.0000064*J23</f>
+      <c r="AA24" s="4">
+        <f>0.0000032*M24+0.0000064*K24</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="Y23" s="4">
-        <f t="shared" ref="Y23:Y24" si="14">K23*V23*W23</f>
+      <c r="AB24" s="4">
+        <f>L24*Y24*Z24</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="26"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="AC24" s="26"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="34">
+        <v>3</v>
+      </c>
+      <c r="E25" s="34">
         <v>32</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F25" s="34">
         <v>128</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="G25" s="34">
+        <v>1</v>
+      </c>
+      <c r="H25" s="34">
+        <v>1</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J25" s="34">
         <v>27</v>
       </c>
-      <c r="J24" s="4">
-        <f t="shared" si="10"/>
+      <c r="K25" s="34">
+        <f t="shared" si="16"/>
         <v>93312</v>
       </c>
-      <c r="K24" s="4">
-        <f t="shared" si="11"/>
+      <c r="L25" s="34">
+        <f t="shared" si="17"/>
         <v>23328</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M25" s="34">
+        <f t="shared" si="18"/>
         <v>36864</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="18">
-        <f>N23+L23/2+E23/2</f>
-        <v>21088</v>
-      </c>
-      <c r="O24" s="18">
-        <f t="shared" si="12"/>
-        <v>39519</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="13"/>
-        <v>39520</v>
-      </c>
-      <c r="Q24" s="18">
-        <f>P24+E24/2-1</f>
-        <v>39583</v>
-      </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18">
-        <f>U23+1</f>
-        <v>1762272</v>
-      </c>
-      <c r="U24" s="19">
-        <f>T24+J24/2-1</f>
-        <v>1808927</v>
-      </c>
-      <c r="V24" s="4">
+      <c r="N25" s="34">
+        <f t="shared" si="19"/>
+        <v>128</v>
+      </c>
+      <c r="O25" s="35">
+        <f t="shared" si="20"/>
+        <v>18432</v>
+      </c>
+      <c r="P25" s="55">
+        <f>R29</f>
+        <v>2962496</v>
+      </c>
+      <c r="Q25" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v>2D3440</v>
+      </c>
+      <c r="R25" s="18">
+        <f>R24+K24</f>
+        <v>2869184</v>
+      </c>
+      <c r="S25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>2BC7C0</v>
+      </c>
+      <c r="T25" s="18">
+        <f>T24+O24</f>
+        <v>20864</v>
+      </c>
+      <c r="U25" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v>5180</v>
+      </c>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="4">
         <v>0.2</v>
       </c>
-      <c r="W24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
-        <f>0.0000032*L24+0.0000064*J24</f>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
+        <f>0.0000032*M25+0.0000064*K25</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="14"/>
+      <c r="AB25" s="4">
+        <f>L25*Y25*Z25</f>
         <v>4665.6000000000004</v>
       </c>
-      <c r="Z24" s="26"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="AC25" s="26"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="26"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="56"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="48"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="26"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="26"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="26"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J28" s="32">
         <v>27</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="26"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="26"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="34">
+        <v>1</v>
+      </c>
+      <c r="E29" s="34">
         <v>256</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F29" s="34">
         <v>32</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="G29" s="34">
+        <v>1</v>
+      </c>
+      <c r="H29" s="34">
         <v>0</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I29" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J29" s="34">
         <v>27</v>
       </c>
-      <c r="J28" s="4">
-        <f>I28^2*E28</f>
+      <c r="K29" s="34">
+        <f>J29^2*F29</f>
         <v>23328</v>
       </c>
-      <c r="K28" s="4">
-        <f>I28^2*D28</f>
+      <c r="L29" s="34">
+        <f>J29^2*E29</f>
         <v>186624</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M29" s="34">
+        <f>D29^2*E29*F29</f>
         <v>8192</v>
       </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="18">
-        <f>N24+L24/2+E24/2</f>
-        <v>39584</v>
-      </c>
-      <c r="O28" s="18">
-        <f>N28+L28/2-1</f>
-        <v>43679</v>
-      </c>
-      <c r="P28" s="18">
-        <f>O28+1</f>
-        <v>43680</v>
-      </c>
-      <c r="Q28" s="18">
-        <f>P28+E28/2-1</f>
-        <v>43695</v>
-      </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18">
-        <f>U24+1</f>
-        <v>1808928</v>
-      </c>
-      <c r="U28" s="19">
-        <f>T28+J28/2-1</f>
-        <v>1820591</v>
-      </c>
-      <c r="V28" s="4">
+      <c r="N29" s="34">
+        <f>F29</f>
+        <v>32</v>
+      </c>
+      <c r="O29" s="35">
+        <f>_xlfn.CEILING.MATH(D29^2*E29/2)*F29</f>
+        <v>4096</v>
+      </c>
+      <c r="P29" s="55">
+        <f>R31</f>
+        <v>2985824</v>
+      </c>
+      <c r="Q29" s="18" t="str">
+        <f>DEC2HEX(P29)</f>
+        <v>2D8F60</v>
+      </c>
+      <c r="R29" s="18">
+        <f>R25+K25</f>
+        <v>2962496</v>
+      </c>
+      <c r="S29" s="18" t="str">
+        <f>DEC2HEX(R29)</f>
+        <v>2D3440</v>
+      </c>
+      <c r="T29" s="18">
+        <f>T25+O25</f>
+        <v>39296</v>
+      </c>
+      <c r="U29" s="18" t="str">
+        <f>DEC2HEX(T29)</f>
+        <v>9980</v>
+      </c>
+      <c r="V29" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W29" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="X29" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y29" s="4">
         <v>0.2</v>
       </c>
-      <c r="W28" s="4">
-        <v>1</v>
-      </c>
-      <c r="X28" s="4">
-        <f>0.0000032*L28+0.0000064*J28</f>
+      <c r="Z29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="4">
+        <f>0.0000032*M29+0.0000064*K29</f>
         <v>0.17551359999999999</v>
       </c>
-      <c r="Y28" s="4">
-        <f>K28*V28*W28</f>
+      <c r="AB29" s="4">
+        <f>L29*Y29*Z29</f>
         <v>37324.800000000003</v>
       </c>
-      <c r="Z28" s="26"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="AC29" s="26"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="26"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="26"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="34">
+        <v>1</v>
+      </c>
+      <c r="E31" s="34">
         <v>32</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F31" s="34">
         <v>128</v>
       </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="G31" s="34">
+        <v>1</v>
+      </c>
+      <c r="H31" s="34">
         <v>0</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I31" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J31" s="34">
         <v>27</v>
       </c>
-      <c r="J30" s="4">
-        <f t="shared" ref="J30:J31" si="15">I30^2*E30</f>
+      <c r="K31" s="34">
+        <f t="shared" ref="K31:K32" si="24">J31^2*F31</f>
         <v>93312</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" ref="K30:K31" si="16">I30^2*D30</f>
+      <c r="L31" s="34">
+        <f t="shared" ref="L31:L32" si="25">J31^2*E31</f>
         <v>23328</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M31" s="34">
+        <f t="shared" ref="M31:M32" si="26">D31^2*E31*F31</f>
         <v>4096</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="18">
-        <f>N28+L28/2+E28/2</f>
-        <v>43696</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" ref="O30:O31" si="17">N30+L30/2-1</f>
-        <v>45743</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" ref="P30:P31" si="18">O30+1</f>
-        <v>45744</v>
-      </c>
-      <c r="Q30" s="18">
-        <f>P30+E30/2-1</f>
-        <v>45807</v>
-      </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18">
-        <f>U28+1</f>
-        <v>1820592</v>
-      </c>
-      <c r="U30" s="19">
-        <f>T30+J30/2-1</f>
-        <v>1867247</v>
-      </c>
-      <c r="V30" s="4">
+      <c r="N31" s="34">
+        <f t="shared" ref="N31:N32" si="27">F31</f>
+        <v>128</v>
+      </c>
+      <c r="O31" s="35">
+        <f t="shared" ref="O31:O32" si="28">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
+        <v>2048</v>
+      </c>
+      <c r="P31" s="55">
+        <f>R32</f>
+        <v>3079136</v>
+      </c>
+      <c r="Q31" s="18" t="str">
+        <f t="shared" ref="Q31:Q32" si="29">DEC2HEX(P31)</f>
+        <v>2EFBE0</v>
+      </c>
+      <c r="R31" s="18">
+        <f>R29+K29</f>
+        <v>2985824</v>
+      </c>
+      <c r="S31" s="18" t="str">
+        <f t="shared" ref="S31:S32" si="30">DEC2HEX(R31)</f>
+        <v>2D8F60</v>
+      </c>
+      <c r="T31" s="18">
+        <f>T29+O29</f>
+        <v>43392</v>
+      </c>
+      <c r="U31" s="18" t="str">
+        <f t="shared" ref="U31:U32" si="31">DEC2HEX(T31)</f>
+        <v>A980</v>
+      </c>
+      <c r="V31" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W31" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="X31" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y31" s="4">
         <v>0.2</v>
       </c>
-      <c r="W30" s="4">
+      <c r="Z31" s="4">
         <v>0</v>
       </c>
-      <c r="X30" s="4">
-        <f>0.0000032*L30+0.0000064*J30</f>
+      <c r="AA31" s="4">
+        <f>0.0000032*M31+0.0000064*K31</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="Y30" s="4">
-        <f t="shared" ref="Y30:Y31" si="19">K30*V30*W30</f>
+      <c r="AB31" s="4">
+        <f>L31*Y31*Z31</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="26"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="AC31" s="26"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D32" s="34">
+        <v>3</v>
+      </c>
+      <c r="E32" s="34">
         <v>32</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F32" s="34">
         <v>128</v>
       </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G32" s="34">
+        <v>1</v>
+      </c>
+      <c r="H32" s="34">
+        <v>1</v>
+      </c>
+      <c r="I32" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J32" s="34">
         <v>27</v>
       </c>
-      <c r="J31" s="4">
-        <f t="shared" si="15"/>
+      <c r="K32" s="34">
+        <f t="shared" si="24"/>
         <v>93312</v>
       </c>
-      <c r="K31" s="4">
-        <f t="shared" si="16"/>
+      <c r="L32" s="34">
+        <f t="shared" si="25"/>
         <v>23328</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M32" s="34">
+        <f t="shared" si="26"/>
         <v>36864</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="18">
-        <f>N30+L30/2+E30/2</f>
-        <v>45808</v>
-      </c>
-      <c r="O31" s="18">
-        <f t="shared" si="17"/>
-        <v>64239</v>
-      </c>
-      <c r="P31" s="18">
-        <f t="shared" si="18"/>
-        <v>64240</v>
-      </c>
-      <c r="Q31" s="18">
-        <f>P31+E31/2-1</f>
-        <v>64303</v>
-      </c>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18">
-        <f>U30+1</f>
-        <v>1867248</v>
-      </c>
-      <c r="U31" s="19">
-        <f>T31+J31/2-1</f>
-        <v>1913903</v>
-      </c>
-      <c r="V31" s="4">
+      <c r="N32" s="34">
+        <f t="shared" si="27"/>
+        <v>128</v>
+      </c>
+      <c r="O32" s="35">
+        <f t="shared" si="28"/>
+        <v>18432</v>
+      </c>
+      <c r="P32" s="55">
+        <f>R36</f>
+        <v>3172448</v>
+      </c>
+      <c r="Q32" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>306860</v>
+      </c>
+      <c r="R32" s="18">
+        <f>R31+K31</f>
+        <v>3079136</v>
+      </c>
+      <c r="S32" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>2EFBE0</v>
+      </c>
+      <c r="T32" s="18">
+        <f>T31+O31</f>
+        <v>45440</v>
+      </c>
+      <c r="U32" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v>B180</v>
+      </c>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="4">
         <v>0.2</v>
       </c>
-      <c r="W31" s="4">
-        <v>1</v>
-      </c>
-      <c r="X31" s="4">
-        <f>0.0000032*L31+0.0000064*J31</f>
+      <c r="Z32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="4">
+        <f>0.0000032*M32+0.0000064*K32</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="Y31" s="4">
-        <f t="shared" si="19"/>
+      <c r="AB32" s="4">
+        <f>L32*Y32*Z32</f>
         <v>4665.6000000000004</v>
       </c>
-      <c r="Z31" s="26"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="AC32" s="26"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="26"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="56"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="48"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="26"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="26"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="26"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="26"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="26"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38">
         <v>256</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G36" s="38">
         <v>2</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H36" s="38">
         <v>0</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I36" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J36" s="38">
         <v>13</v>
       </c>
-      <c r="J35" s="6">
-        <f>I35^2*E35</f>
+      <c r="K36" s="38">
+        <f>J36^2*F36</f>
         <v>43264</v>
       </c>
-      <c r="K35" s="6">
-        <f>J35</f>
+      <c r="L36" s="38">
+        <f>K36</f>
         <v>43264</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22">
-        <f>U31+1</f>
-        <v>1913904</v>
-      </c>
-      <c r="U35" s="23">
-        <f>T35+J35/2-1</f>
-        <v>1935535</v>
-      </c>
-      <c r="V35" s="6">
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="57">
+        <f>R37</f>
+        <v>3215712</v>
+      </c>
+      <c r="Q36" s="22" t="str">
+        <f>DEC2HEX(P36)</f>
+        <v>311160</v>
+      </c>
+      <c r="R36" s="22">
+        <f>R32+K32</f>
+        <v>3172448</v>
+      </c>
+      <c r="S36" s="22" t="str">
+        <f>DEC2HEX(R36)</f>
+        <v>306860</v>
+      </c>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="6">
         <v>0.31</v>
       </c>
-      <c r="W35" s="6">
-        <v>1</v>
-      </c>
-      <c r="X35" s="6">
-        <f>0.0000064*J35</f>
+      <c r="Z36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="6">
+        <f>0.0000064*K36</f>
         <v>0.27688960000000001</v>
       </c>
-      <c r="Y35" s="6">
-        <f>K35*V35*W35</f>
+      <c r="AB36" s="6">
+        <f>L36*Y36*Z36</f>
         <v>13411.84</v>
       </c>
-      <c r="Z35" s="26"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="AC36" s="26"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D37" s="34">
+        <v>1</v>
+      </c>
+      <c r="E37" s="34">
         <v>256</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F37" s="34">
         <v>48</v>
       </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="G37" s="34">
+        <v>1</v>
+      </c>
+      <c r="H37" s="34">
         <v>0</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I37" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J37" s="34">
         <v>13</v>
       </c>
-      <c r="J36" s="4">
-        <f>I36^2*E36</f>
+      <c r="K37" s="34">
+        <f>J37^2*F37</f>
         <v>8112</v>
       </c>
-      <c r="K36" s="4">
-        <f>I36^2*D36</f>
+      <c r="L37" s="34">
+        <f>J37^2*E37</f>
         <v>43264</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M37" s="34">
+        <f>D37^2*E37*F37</f>
         <v>12288</v>
       </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="18">
-        <f>N31+L31/2+E31/2</f>
-        <v>64304</v>
-      </c>
-      <c r="O36" s="18">
-        <f>N36+L36/2-1</f>
-        <v>70447</v>
-      </c>
-      <c r="P36" s="18">
-        <f>O36+1</f>
-        <v>70448</v>
-      </c>
-      <c r="Q36" s="18">
-        <f>P36+E36/2-1</f>
-        <v>70471</v>
-      </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18">
-        <f>U35+1</f>
-        <v>1935536</v>
-      </c>
-      <c r="U36" s="19">
-        <f>T36+J36/2-1</f>
-        <v>1939591</v>
-      </c>
-      <c r="V36" s="4">
+      <c r="N37" s="34">
+        <f>F37</f>
+        <v>48</v>
+      </c>
+      <c r="O37" s="35">
+        <f>_xlfn.CEILING.MATH(D37^2*E37/2)*F37</f>
+        <v>6144</v>
+      </c>
+      <c r="P37" s="55">
+        <f>R39</f>
+        <v>3223824</v>
+      </c>
+      <c r="Q37" s="18" t="str">
+        <f>DEC2HEX(P37)</f>
+        <v>313110</v>
+      </c>
+      <c r="R37" s="18">
+        <f>R36+K36</f>
+        <v>3215712</v>
+      </c>
+      <c r="S37" s="18" t="str">
+        <f>DEC2HEX(R37)</f>
+        <v>311160</v>
+      </c>
+      <c r="T37" s="18">
+        <f>T32+O32</f>
+        <v>63872</v>
+      </c>
+      <c r="U37" s="18" t="str">
+        <f>DEC2HEX(T37)</f>
+        <v>F980</v>
+      </c>
+      <c r="V37" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W37" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="X37" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y37" s="4">
         <v>0.2</v>
       </c>
-      <c r="W36" s="4">
-        <v>1</v>
-      </c>
-      <c r="X36" s="4">
-        <f>0.0000032*L36+0.0000064*J36</f>
+      <c r="Z37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="4">
+        <f>0.0000032*M37+0.0000064*K37</f>
         <v>9.1238399999999997E-2</v>
       </c>
-      <c r="Y36" s="4">
-        <f>K36*V36*W36</f>
+      <c r="AB37" s="4">
+        <f>L37*Y37*Z37</f>
         <v>8652.8000000000011</v>
       </c>
-      <c r="Z36" s="26"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="AC37" s="26"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="26"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="26"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="34">
+        <v>1</v>
+      </c>
+      <c r="E39" s="34">
         <v>48</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F39" s="34">
         <v>192</v>
       </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="G39" s="34">
+        <v>1</v>
+      </c>
+      <c r="H39" s="34">
         <v>0</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I39" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J39" s="34">
         <v>13</v>
       </c>
-      <c r="J38" s="4">
-        <f t="shared" ref="J38:J39" si="20">I38^2*E38</f>
+      <c r="K39" s="34">
+        <f t="shared" ref="K39:K40" si="32">J39^2*F39</f>
         <v>32448</v>
       </c>
-      <c r="K38" s="4">
-        <f t="shared" ref="K38:K39" si="21">I38^2*D38</f>
+      <c r="L39" s="34">
+        <f t="shared" ref="L39:L40" si="33">J39^2*E39</f>
         <v>8112</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M39" s="34">
+        <f t="shared" ref="M39:M40" si="34">D39^2*E39*F39</f>
         <v>9216</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="18">
-        <f>N36+L36/2+E36/2</f>
-        <v>70472</v>
-      </c>
-      <c r="O38" s="18">
-        <f t="shared" ref="O38:O39" si="22">N38+L38/2-1</f>
-        <v>75079</v>
-      </c>
-      <c r="P38" s="18">
-        <f>O38+1</f>
-        <v>75080</v>
-      </c>
-      <c r="Q38" s="18">
-        <f>P38+E38/2-1</f>
-        <v>75175</v>
-      </c>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18">
-        <f>U36+1</f>
-        <v>1939592</v>
-      </c>
-      <c r="U38" s="19">
-        <f>T38+J38/2-1</f>
-        <v>1955815</v>
-      </c>
-      <c r="V38" s="4">
+      <c r="N39" s="34">
+        <f t="shared" ref="N39:N40" si="35">F39</f>
+        <v>192</v>
+      </c>
+      <c r="O39" s="35">
+        <f t="shared" ref="O39:O40" si="36">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
+        <v>4608</v>
+      </c>
+      <c r="P39" s="55">
+        <f>R40</f>
+        <v>3256272</v>
+      </c>
+      <c r="Q39" s="18" t="str">
+        <f t="shared" ref="Q39:Q40" si="37">DEC2HEX(P39)</f>
+        <v>31AFD0</v>
+      </c>
+      <c r="R39" s="18">
+        <f>R37+K37</f>
+        <v>3223824</v>
+      </c>
+      <c r="S39" s="18" t="str">
+        <f t="shared" ref="S39:S40" si="38">DEC2HEX(R39)</f>
+        <v>313110</v>
+      </c>
+      <c r="T39" s="18">
+        <f>T37+O37</f>
+        <v>70016</v>
+      </c>
+      <c r="U39" s="18" t="str">
+        <f t="shared" ref="U39:U40" si="39">DEC2HEX(T39)</f>
+        <v>11180</v>
+      </c>
+      <c r="V39" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W39" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="X39" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y39" s="4">
         <v>0.2</v>
       </c>
-      <c r="W38" s="4">
+      <c r="Z39" s="4">
         <v>0</v>
       </c>
-      <c r="X38" s="4">
-        <f>0.0000032*L38+0.0000064*J38</f>
+      <c r="AA39" s="4">
+        <f>0.0000032*M39+0.0000064*K39</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="Y38" s="4">
-        <f t="shared" ref="Y38:Y39" si="23">K38*V38*W38</f>
+      <c r="AB39" s="4">
+        <f>L39*Y39*Z39</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="26"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="AC39" s="26"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="34">
+        <v>3</v>
+      </c>
+      <c r="E40" s="34">
         <v>48</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F40" s="34">
         <v>192</v>
       </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4" t="s">
+      <c r="G40" s="34">
+        <v>1</v>
+      </c>
+      <c r="H40" s="34">
+        <v>1</v>
+      </c>
+      <c r="I40" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J40" s="34">
         <v>13</v>
       </c>
-      <c r="J39" s="4">
-        <f t="shared" si="20"/>
+      <c r="K40" s="34">
+        <f t="shared" si="32"/>
         <v>32448</v>
       </c>
-      <c r="K39" s="4">
-        <f t="shared" si="21"/>
+      <c r="L40" s="34">
+        <f t="shared" si="33"/>
         <v>8112</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M40" s="34">
+        <f t="shared" si="34"/>
         <v>82944</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="18">
-        <f>N38+L38/2+E38/2</f>
-        <v>75176</v>
-      </c>
-      <c r="O39" s="18">
-        <f t="shared" si="22"/>
-        <v>116647</v>
-      </c>
-      <c r="P39" s="18">
-        <f>O39+1</f>
-        <v>116648</v>
-      </c>
-      <c r="Q39" s="18">
-        <f>P39+E39/2-1</f>
-        <v>116743</v>
-      </c>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18">
-        <f>U38+1</f>
-        <v>1955816</v>
-      </c>
-      <c r="U39" s="19">
-        <f>T39+J39/2-1</f>
-        <v>1972039</v>
-      </c>
-      <c r="V39" s="4">
+      <c r="N40" s="34">
+        <f t="shared" si="35"/>
+        <v>192</v>
+      </c>
+      <c r="O40" s="35">
+        <f t="shared" si="36"/>
+        <v>41472</v>
+      </c>
+      <c r="P40" s="55">
+        <f>R44</f>
+        <v>3288720</v>
+      </c>
+      <c r="Q40" s="18" t="str">
+        <f t="shared" si="37"/>
+        <v>322E90</v>
+      </c>
+      <c r="R40" s="18">
+        <f>R39+K39</f>
+        <v>3256272</v>
+      </c>
+      <c r="S40" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>31AFD0</v>
+      </c>
+      <c r="T40" s="18">
+        <f>T39+O39</f>
+        <v>74624</v>
+      </c>
+      <c r="U40" s="18" t="str">
+        <f t="shared" si="39"/>
+        <v>12380</v>
+      </c>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="4">
         <v>0.2</v>
       </c>
-      <c r="W39" s="4">
-        <v>1</v>
-      </c>
-      <c r="X39" s="4">
-        <f>0.0000032*L39+0.0000064*J39</f>
+      <c r="Z40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="4">
+        <f>0.0000032*M40+0.0000064*K40</f>
         <v>0.47308800000000001</v>
       </c>
-      <c r="Y39" s="4">
-        <f t="shared" si="23"/>
+      <c r="AB40" s="4">
+        <f>L40*Y40*Z40</f>
         <v>1622.4</v>
       </c>
-      <c r="Z39" s="26"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="AC40" s="26"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="26"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="56"/>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="48"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="26"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="26"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="26"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J43" s="32">
         <v>13</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="26"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="26"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D44" s="34">
+        <v>1</v>
+      </c>
+      <c r="E44" s="34">
         <v>384</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F44" s="34">
         <v>48</v>
       </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="G44" s="34">
+        <v>1</v>
+      </c>
+      <c r="H44" s="34">
         <v>0</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I44" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J44" s="34">
         <v>13</v>
       </c>
-      <c r="J43" s="4">
-        <f>I43^2*E43</f>
+      <c r="K44" s="34">
+        <f>J44^2*F44</f>
         <v>8112</v>
       </c>
-      <c r="K43" s="4">
-        <f>I43^2*D43</f>
+      <c r="L44" s="34">
+        <f>J44^2*E44</f>
         <v>64896</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M44" s="34">
+        <f>D44^2*E44*F44</f>
         <v>18432</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="18">
-        <f>N39+L39/2+E39/2</f>
-        <v>116744</v>
-      </c>
-      <c r="O43" s="18">
-        <f>N43+L43/2-1</f>
-        <v>125959</v>
-      </c>
-      <c r="P43" s="18">
-        <f>O43+1</f>
-        <v>125960</v>
-      </c>
-      <c r="Q43" s="18">
-        <f>P43+E43/2-1</f>
-        <v>125983</v>
-      </c>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18">
-        <f>U39+1</f>
-        <v>1972040</v>
-      </c>
-      <c r="U43" s="19">
-        <f>T43+J43/2-1</f>
-        <v>1976095</v>
-      </c>
-      <c r="V43" s="4">
+      <c r="N44" s="34">
+        <f>F44</f>
+        <v>48</v>
+      </c>
+      <c r="O44" s="35">
+        <f>_xlfn.CEILING.MATH(D44^2*E44/2)*F44</f>
+        <v>9216</v>
+      </c>
+      <c r="P44" s="55">
+        <f>R46</f>
+        <v>3296832</v>
+      </c>
+      <c r="Q44" s="18" t="str">
+        <f>DEC2HEX(P44)</f>
+        <v>324E40</v>
+      </c>
+      <c r="R44" s="18">
+        <f>R40+K40</f>
+        <v>3288720</v>
+      </c>
+      <c r="S44" s="18" t="str">
+        <f>DEC2HEX(R44)</f>
+        <v>322E90</v>
+      </c>
+      <c r="T44" s="18">
+        <f>T40+O40</f>
+        <v>116096</v>
+      </c>
+      <c r="U44" s="18" t="str">
+        <f>DEC2HEX(T44)</f>
+        <v>1C580</v>
+      </c>
+      <c r="V44" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W44" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="X44" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y44" s="4">
         <v>0.2</v>
       </c>
-      <c r="W43" s="4">
-        <v>1</v>
-      </c>
-      <c r="X43" s="4">
-        <f>0.0000032*L43+0.0000064*J43</f>
+      <c r="Z44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="4">
+        <f>0.0000032*M44+0.0000064*K44</f>
         <v>0.1108992</v>
       </c>
-      <c r="Y43" s="4">
-        <f>K43*V43*W43</f>
+      <c r="AB44" s="4">
+        <f>L44*Y44*Z44</f>
         <v>12979.2</v>
       </c>
-      <c r="Z43" s="26"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="AC44" s="26"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="26"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="26"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D46" s="34">
+        <v>1</v>
+      </c>
+      <c r="E46" s="34">
         <v>48</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F46" s="34">
         <v>192</v>
       </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="34">
         <v>0</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I46" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J46" s="34">
         <v>13</v>
       </c>
-      <c r="J45" s="4">
-        <f t="shared" ref="J45:J46" si="24">I45^2*E45</f>
+      <c r="K46" s="34">
+        <f t="shared" ref="K46:K47" si="40">J46^2*F46</f>
         <v>32448</v>
       </c>
-      <c r="K45" s="4">
-        <f t="shared" ref="K45:K46" si="25">I45^2*D45</f>
+      <c r="L46" s="34">
+        <f t="shared" ref="L46:L47" si="41">J46^2*E46</f>
         <v>8112</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M46" s="34">
+        <f t="shared" ref="M46:M47" si="42">D46^2*E46*F46</f>
         <v>9216</v>
       </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="18">
-        <f>N43+L43/2+E43/2</f>
-        <v>125984</v>
-      </c>
-      <c r="O45" s="18">
-        <f t="shared" ref="O45:O46" si="26">N45+L45/2-1</f>
-        <v>130591</v>
-      </c>
-      <c r="P45" s="18">
-        <f t="shared" ref="P45:P46" si="27">O45+1</f>
-        <v>130592</v>
-      </c>
-      <c r="Q45" s="18">
-        <f>P45+E45/2-1</f>
-        <v>130687</v>
-      </c>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18">
-        <f>U43+1</f>
-        <v>1976096</v>
-      </c>
-      <c r="U45" s="19">
-        <f>T45+J45/2-1</f>
-        <v>1992319</v>
-      </c>
-      <c r="V45" s="4">
+      <c r="N46" s="34">
+        <f t="shared" ref="N46:N47" si="43">F46</f>
+        <v>192</v>
+      </c>
+      <c r="O46" s="35">
+        <f t="shared" ref="O46:O47" si="44">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
+        <v>4608</v>
+      </c>
+      <c r="P46" s="55">
+        <f>R47</f>
+        <v>3329280</v>
+      </c>
+      <c r="Q46" s="18" t="str">
+        <f t="shared" ref="Q46:Q47" si="45">DEC2HEX(P46)</f>
+        <v>32CD00</v>
+      </c>
+      <c r="R46" s="18">
+        <f>R44+K44</f>
+        <v>3296832</v>
+      </c>
+      <c r="S46" s="18" t="str">
+        <f t="shared" ref="S46:S47" si="46">DEC2HEX(R46)</f>
+        <v>324E40</v>
+      </c>
+      <c r="T46" s="18">
+        <f>T44+O44</f>
+        <v>125312</v>
+      </c>
+      <c r="U46" s="18" t="str">
+        <f t="shared" ref="U46:U47" si="47">DEC2HEX(T46)</f>
+        <v>1E980</v>
+      </c>
+      <c r="V46" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W46" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="X46" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y46" s="4">
         <v>0.2</v>
       </c>
-      <c r="W45" s="4">
+      <c r="Z46" s="4">
         <v>0</v>
       </c>
-      <c r="X45" s="4">
-        <f>0.0000032*L45+0.0000064*J45</f>
+      <c r="AA46" s="4">
+        <f>0.0000032*M46+0.0000064*K46</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="Y45" s="4">
-        <f t="shared" ref="Y45:Y46" si="28">K45*V45*W45</f>
+      <c r="AB46" s="4">
+        <f>L46*Y46*Z46</f>
         <v>0</v>
       </c>
-      <c r="Z45" s="26"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="AC46" s="26"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D47" s="34">
+        <v>3</v>
+      </c>
+      <c r="E47" s="34">
         <v>48</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F47" s="34">
         <v>192</v>
       </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="G47" s="34">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34">
+        <v>1</v>
+      </c>
+      <c r="I47" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J47" s="34">
         <v>13</v>
       </c>
-      <c r="J46" s="4">
-        <f t="shared" si="24"/>
+      <c r="K47" s="34">
+        <f t="shared" si="40"/>
         <v>32448</v>
       </c>
-      <c r="K46" s="4">
-        <f t="shared" si="25"/>
+      <c r="L47" s="34">
+        <f t="shared" si="41"/>
         <v>8112</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M47" s="34">
+        <f t="shared" si="42"/>
         <v>82944</v>
       </c>
-      <c r="M46" s="10"/>
-      <c r="N46" s="18">
-        <f>N45+L45/2+E45/2</f>
-        <v>130688</v>
-      </c>
-      <c r="O46" s="18">
-        <f t="shared" si="26"/>
-        <v>172159</v>
-      </c>
-      <c r="P46" s="18">
-        <f t="shared" si="27"/>
-        <v>172160</v>
-      </c>
-      <c r="Q46" s="18">
-        <f>P46+E46/2-1</f>
-        <v>172255</v>
-      </c>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18">
-        <f>U45+1</f>
-        <v>1992320</v>
-      </c>
-      <c r="U46" s="19">
-        <f>T46+J46/2-1</f>
-        <v>2008543</v>
-      </c>
-      <c r="V46" s="4">
+      <c r="N47" s="34">
+        <f t="shared" si="43"/>
+        <v>192</v>
+      </c>
+      <c r="O47" s="35">
+        <f t="shared" si="44"/>
+        <v>41472</v>
+      </c>
+      <c r="P47" s="55">
+        <f>R51</f>
+        <v>3361728</v>
+      </c>
+      <c r="Q47" s="18" t="str">
+        <f t="shared" si="45"/>
+        <v>334BC0</v>
+      </c>
+      <c r="R47" s="18">
+        <f>R46+K46</f>
+        <v>3329280</v>
+      </c>
+      <c r="S47" s="18" t="str">
+        <f t="shared" si="46"/>
+        <v>32CD00</v>
+      </c>
+      <c r="T47" s="18">
+        <f>T46+O46</f>
+        <v>129920</v>
+      </c>
+      <c r="U47" s="18" t="str">
+        <f t="shared" si="47"/>
+        <v>1FB80</v>
+      </c>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="4">
         <v>0.2</v>
       </c>
-      <c r="W46" s="4">
-        <v>1</v>
-      </c>
-      <c r="X46" s="4">
-        <f>0.0000032*L46+0.0000064*J46</f>
+      <c r="Z47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="4">
+        <f>0.0000032*M47+0.0000064*K47</f>
         <v>0.47308800000000001</v>
       </c>
-      <c r="Y46" s="4">
-        <f t="shared" si="28"/>
+      <c r="AB47" s="4">
+        <f>L47*Y47*Z47</f>
         <v>1622.4</v>
       </c>
-      <c r="Z46" s="26"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="AC47" s="26"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="26"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="56"/>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="48"/>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="26"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="26"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="26"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J50" s="32">
         <v>13</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="26"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="26"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D51" s="34">
+        <v>1</v>
+      </c>
+      <c r="E51" s="34">
         <v>384</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F51" s="34">
         <v>64</v>
       </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="G51" s="34">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34">
         <v>0</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I51" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J51" s="34">
         <v>13</v>
       </c>
-      <c r="J50" s="4">
-        <f>I50^2*E50</f>
+      <c r="K51" s="34">
+        <f>J51^2*F51</f>
         <v>10816</v>
       </c>
-      <c r="K50" s="4">
-        <f>I50^2*D50</f>
+      <c r="L51" s="34">
+        <f>J51^2*E51</f>
         <v>64896</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M51" s="34">
+        <f>D51^2*E51*F51</f>
         <v>24576</v>
       </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="18">
-        <f>N46+L46/2+E46/2</f>
-        <v>172256</v>
-      </c>
-      <c r="O50" s="18">
-        <f>N50+L50/2-1</f>
-        <v>184543</v>
-      </c>
-      <c r="P50" s="18">
-        <f>O50+1</f>
-        <v>184544</v>
-      </c>
-      <c r="Q50" s="18">
-        <f>P50+E50/2-1</f>
-        <v>184575</v>
-      </c>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18">
-        <f>U46+1</f>
-        <v>2008544</v>
-      </c>
-      <c r="U50" s="19">
-        <f>T50+J50/2-1</f>
-        <v>2013951</v>
-      </c>
-      <c r="V50" s="4">
+      <c r="N51" s="34">
+        <f>F51</f>
+        <v>64</v>
+      </c>
+      <c r="O51" s="35">
+        <f>_xlfn.CEILING.MATH(D51^2*E51/2)*F51</f>
+        <v>12288</v>
+      </c>
+      <c r="P51" s="55">
+        <f>R53</f>
+        <v>3372544</v>
+      </c>
+      <c r="Q51" s="18" t="str">
+        <f>DEC2HEX(P51)</f>
+        <v>337600</v>
+      </c>
+      <c r="R51" s="18">
+        <f>R47+K47</f>
+        <v>3361728</v>
+      </c>
+      <c r="S51" s="18" t="str">
+        <f>DEC2HEX(R51)</f>
+        <v>334BC0</v>
+      </c>
+      <c r="T51" s="18">
+        <f>T47+O47</f>
+        <v>171392</v>
+      </c>
+      <c r="U51" s="18" t="str">
+        <f>DEC2HEX(T51)</f>
+        <v>29D80</v>
+      </c>
+      <c r="V51" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W51" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="X51" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y51" s="4">
         <v>0.2</v>
       </c>
-      <c r="W50" s="4">
-        <v>1</v>
-      </c>
-      <c r="X50" s="4">
-        <f>0.0000032*L50+0.0000064*J50</f>
+      <c r="Z51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="4">
+        <f>0.0000032*M51+0.0000064*K51</f>
         <v>0.14786559999999999</v>
       </c>
-      <c r="Y50" s="4">
-        <f>K50*V50*W50</f>
+      <c r="AB51" s="4">
+        <f>L51*Y51*Z51</f>
         <v>12979.2</v>
       </c>
-      <c r="Z50" s="26"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+      <c r="AC51" s="26"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="26"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="26"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D53" s="34">
+        <v>1</v>
+      </c>
+      <c r="E53" s="34">
         <v>64</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F53" s="34">
         <v>256</v>
       </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="G53" s="34">
+        <v>1</v>
+      </c>
+      <c r="H53" s="34">
         <v>0</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I53" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J53" s="34">
         <v>13</v>
       </c>
-      <c r="J52" s="4">
-        <f t="shared" ref="J52:J53" si="29">I52^2*E52</f>
+      <c r="K53" s="34">
+        <f t="shared" ref="K53:K54" si="48">J53^2*F53</f>
         <v>43264</v>
       </c>
-      <c r="K52" s="4">
-        <f t="shared" ref="K52:K53" si="30">I52^2*D52</f>
+      <c r="L53" s="34">
+        <f t="shared" ref="L53:L54" si="49">J53^2*E53</f>
         <v>10816</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M53" s="34">
+        <f t="shared" ref="M53:M54" si="50">D53^2*E53*F53</f>
         <v>16384</v>
       </c>
-      <c r="M52" s="10"/>
-      <c r="N52" s="18">
-        <f>N50+L50/2+E50/2</f>
-        <v>184576</v>
-      </c>
-      <c r="O52" s="18">
-        <f t="shared" ref="O52:O53" si="31">N52+L52/2-1</f>
-        <v>192767</v>
-      </c>
-      <c r="P52" s="18">
-        <f t="shared" ref="P52:P53" si="32">O52+1</f>
-        <v>192768</v>
-      </c>
-      <c r="Q52" s="18">
-        <f>P52+E52/2-1</f>
-        <v>192895</v>
-      </c>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18">
-        <f>U50+1</f>
-        <v>2013952</v>
-      </c>
-      <c r="U52" s="19">
-        <f>T52+J52/2-1</f>
-        <v>2035583</v>
-      </c>
-      <c r="V52" s="4">
+      <c r="N53" s="34">
+        <f t="shared" ref="N53:N54" si="51">F53</f>
+        <v>256</v>
+      </c>
+      <c r="O53" s="35">
+        <f t="shared" ref="O53:O54" si="52">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
+        <v>8192</v>
+      </c>
+      <c r="P53" s="55">
+        <f>R54</f>
+        <v>3415808</v>
+      </c>
+      <c r="Q53" s="18" t="str">
+        <f t="shared" ref="Q53:Q54" si="53">DEC2HEX(P53)</f>
+        <v>341F00</v>
+      </c>
+      <c r="R53" s="18">
+        <f>R51+K51</f>
+        <v>3372544</v>
+      </c>
+      <c r="S53" s="18" t="str">
+        <f t="shared" ref="S53:S54" si="54">DEC2HEX(R53)</f>
+        <v>337600</v>
+      </c>
+      <c r="T53" s="18">
+        <f>T51+O51</f>
+        <v>183680</v>
+      </c>
+      <c r="U53" s="18" t="str">
+        <f t="shared" ref="U53:U54" si="55">DEC2HEX(T53)</f>
+        <v>2CD80</v>
+      </c>
+      <c r="V53" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W53" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="X53" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y53" s="4">
         <v>0.2</v>
       </c>
-      <c r="W52" s="4">
+      <c r="Z53" s="4">
         <v>0</v>
       </c>
-      <c r="X52" s="4">
-        <f>0.0000032*L52+0.0000064*J52</f>
+      <c r="AA53" s="4">
+        <f>0.0000032*M53+0.0000064*K53</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="Y52" s="4">
-        <f t="shared" ref="Y52:Y53" si="33">K52*V52*W52</f>
+      <c r="AB53" s="4">
+        <f>L53*Y53*Z53</f>
         <v>0</v>
       </c>
-      <c r="Z52" s="26"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="AC53" s="26"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D54" s="34">
+        <v>3</v>
+      </c>
+      <c r="E54" s="34">
         <v>64</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F54" s="34">
         <v>256</v>
       </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4" t="s">
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
+        <v>1</v>
+      </c>
+      <c r="I54" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J54" s="34">
         <v>13</v>
       </c>
-      <c r="J53" s="4">
-        <f t="shared" si="29"/>
+      <c r="K54" s="34">
+        <f t="shared" si="48"/>
         <v>43264</v>
       </c>
-      <c r="K53" s="4">
-        <f t="shared" si="30"/>
+      <c r="L54" s="34">
+        <f t="shared" si="49"/>
         <v>10816</v>
       </c>
-      <c r="L53" s="4">
+      <c r="M54" s="34">
+        <f t="shared" si="50"/>
         <v>147456</v>
       </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="18">
-        <f>N52+L52/2+E52/2</f>
-        <v>192896</v>
-      </c>
-      <c r="O53" s="18">
-        <f t="shared" si="31"/>
-        <v>266623</v>
-      </c>
-      <c r="P53" s="18">
-        <f t="shared" si="32"/>
-        <v>266624</v>
-      </c>
-      <c r="Q53" s="18">
-        <f>P53+E53/2-1</f>
-        <v>266751</v>
-      </c>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18">
-        <f>U52+1</f>
-        <v>2035584</v>
-      </c>
-      <c r="U53" s="19">
-        <f>T53+J53/2-1</f>
-        <v>2057215</v>
-      </c>
-      <c r="V53" s="4">
+      <c r="N54" s="34">
+        <f t="shared" si="51"/>
+        <v>256</v>
+      </c>
+      <c r="O54" s="35">
+        <f t="shared" si="52"/>
+        <v>73728</v>
+      </c>
+      <c r="P54" s="55">
+        <f>R58</f>
+        <v>3459072</v>
+      </c>
+      <c r="Q54" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v>34C800</v>
+      </c>
+      <c r="R54" s="18">
+        <f>R53+K53</f>
+        <v>3415808</v>
+      </c>
+      <c r="S54" s="18" t="str">
+        <f t="shared" si="54"/>
+        <v>341F00</v>
+      </c>
+      <c r="T54" s="18">
+        <f>T53+O53</f>
+        <v>191872</v>
+      </c>
+      <c r="U54" s="18" t="str">
+        <f t="shared" si="55"/>
+        <v>2ED80</v>
+      </c>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="4">
         <v>0.2</v>
       </c>
-      <c r="W53" s="4">
-        <v>1</v>
-      </c>
-      <c r="X53" s="4">
-        <f>0.0000032*L53+0.0000064*J53</f>
+      <c r="Z54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="4">
+        <f>0.0000032*M54+0.0000064*K54</f>
         <v>0.74874879999999999</v>
       </c>
-      <c r="Y53" s="4">
-        <f t="shared" si="33"/>
+      <c r="AB54" s="4">
+        <f>L54*Y54*Z54</f>
         <v>2163.2000000000003</v>
       </c>
-      <c r="Z53" s="26"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
+      <c r="AC54" s="26"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="26"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="56"/>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="48"/>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="26"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="26"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="26"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J57" s="32">
         <v>13</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="26"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="26"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D58" s="34">
+        <v>1</v>
+      </c>
+      <c r="E58" s="34">
         <v>512</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F58" s="34">
         <v>64</v>
       </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" s="34">
         <v>0</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I58" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="I57" s="4">
+      <c r="J58" s="34">
         <v>13</v>
       </c>
-      <c r="J57" s="4">
-        <f>I57^2*E57</f>
+      <c r="K58" s="34">
+        <f>J58^2*F58</f>
         <v>10816</v>
       </c>
-      <c r="K57" s="4">
-        <f>I57^2*D57</f>
+      <c r="L58" s="34">
+        <f>J58^2*E58</f>
         <v>86528</v>
       </c>
-      <c r="L57" s="4">
+      <c r="M58" s="34">
+        <f>D58^2*E58*F58</f>
         <v>32768</v>
       </c>
-      <c r="M57" s="10"/>
-      <c r="N57" s="18">
-        <f>N53+L53/2+E53/2</f>
-        <v>266752</v>
-      </c>
-      <c r="O57" s="18">
-        <f>N57+L57/2-1</f>
-        <v>283135</v>
-      </c>
-      <c r="P57" s="18">
-        <f>O57+1</f>
-        <v>283136</v>
-      </c>
-      <c r="Q57" s="18">
-        <f>P57+E57/2-1</f>
-        <v>283167</v>
-      </c>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18">
-        <f>U53+1</f>
-        <v>2057216</v>
-      </c>
-      <c r="U57" s="19">
-        <f>T57+J57/2-1</f>
-        <v>2062623</v>
-      </c>
-      <c r="V57" s="4">
+      <c r="N58" s="34">
+        <f>F58</f>
+        <v>64</v>
+      </c>
+      <c r="O58" s="35">
+        <f>_xlfn.CEILING.MATH(D58^2*E58/2)*F58</f>
+        <v>16384</v>
+      </c>
+      <c r="P58" s="55">
+        <f>R60</f>
+        <v>3469888</v>
+      </c>
+      <c r="Q58" s="18" t="str">
+        <f>DEC2HEX(P58)</f>
+        <v>34F240</v>
+      </c>
+      <c r="R58" s="18">
+        <f>R54+K54</f>
+        <v>3459072</v>
+      </c>
+      <c r="S58" s="18" t="str">
+        <f>DEC2HEX(R58)</f>
+        <v>34C800</v>
+      </c>
+      <c r="T58" s="18">
+        <f>T54+O54</f>
+        <v>265600</v>
+      </c>
+      <c r="U58" s="18" t="str">
+        <f>DEC2HEX(T58)</f>
+        <v>40D80</v>
+      </c>
+      <c r="V58" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W58" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="X58" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y58" s="4">
         <v>0.2</v>
       </c>
-      <c r="W57" s="4">
-        <v>1</v>
-      </c>
-      <c r="X57" s="4">
-        <f>0.0000032*L57+0.0000064*J57</f>
+      <c r="Z58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="4">
+        <f>0.0000032*M58+0.0000064*K58</f>
         <v>0.17408000000000001</v>
       </c>
-      <c r="Y57" s="4">
-        <f>K57*V57*W57</f>
+      <c r="AB58" s="4">
+        <f>L58*Y58*Z58</f>
         <v>17305.600000000002</v>
       </c>
-      <c r="Z57" s="26"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="AC58" s="26"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="26"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="26"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D60" s="34">
+        <v>1</v>
+      </c>
+      <c r="E60" s="34">
         <v>64</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F60" s="34">
         <v>256</v>
       </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4">
+      <c r="G60" s="34">
+        <v>1</v>
+      </c>
+      <c r="H60" s="34">
         <v>0</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="I60" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I59" s="4">
+      <c r="J60" s="34">
         <v>13</v>
       </c>
-      <c r="J59" s="4">
-        <f t="shared" ref="J59:J60" si="34">I59^2*E59</f>
+      <c r="K60" s="34">
+        <f t="shared" ref="K60:K61" si="56">J60^2*F60</f>
         <v>43264</v>
       </c>
-      <c r="K59" s="4">
-        <f t="shared" ref="K59:K60" si="35">I59^2*D59</f>
+      <c r="L60" s="34">
+        <f t="shared" ref="L60:L61" si="57">J60^2*E60</f>
         <v>10816</v>
       </c>
-      <c r="L59" s="4">
+      <c r="M60" s="34">
+        <f t="shared" ref="M60:M61" si="58">D60^2*E60*F60</f>
         <v>16384</v>
       </c>
-      <c r="M59" s="10"/>
-      <c r="N59" s="18">
-        <f>N57+L57/2+E57/2</f>
-        <v>283168</v>
-      </c>
-      <c r="O59" s="18">
-        <f t="shared" ref="O59:O60" si="36">N59+L59/2-1</f>
-        <v>291359</v>
-      </c>
-      <c r="P59" s="18">
-        <f t="shared" ref="P59:P60" si="37">O59+1</f>
-        <v>291360</v>
-      </c>
-      <c r="Q59" s="18">
-        <f>P59+E59/2-1</f>
-        <v>291487</v>
-      </c>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18">
-        <f>U57+1</f>
-        <v>2062624</v>
-      </c>
-      <c r="U59" s="19">
-        <f>T59+J59/2-1</f>
-        <v>2084255</v>
-      </c>
-      <c r="V59" s="4">
+      <c r="N60" s="34">
+        <f t="shared" ref="N60:N61" si="59">F60</f>
+        <v>256</v>
+      </c>
+      <c r="O60" s="35">
+        <f t="shared" ref="O60:O61" si="60">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
+        <v>8192</v>
+      </c>
+      <c r="P60" s="55">
+        <f>R61</f>
+        <v>3513152</v>
+      </c>
+      <c r="Q60" s="18" t="str">
+        <f t="shared" ref="Q60:Q61" si="61">DEC2HEX(P60)</f>
+        <v>359B40</v>
+      </c>
+      <c r="R60" s="18">
+        <f>R58+K58</f>
+        <v>3469888</v>
+      </c>
+      <c r="S60" s="18" t="str">
+        <f t="shared" ref="S60:S61" si="62">DEC2HEX(R60)</f>
+        <v>34F240</v>
+      </c>
+      <c r="T60" s="18">
+        <f>T58+O58</f>
+        <v>281984</v>
+      </c>
+      <c r="U60" s="18" t="str">
+        <f t="shared" ref="U60:U61" si="63">DEC2HEX(T60)</f>
+        <v>44D80</v>
+      </c>
+      <c r="V60" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W60" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="X60" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y60" s="4">
         <v>0.2</v>
       </c>
-      <c r="W59" s="4">
+      <c r="Z60" s="4">
         <v>0</v>
       </c>
-      <c r="X59" s="4">
-        <f>0.0000032*L59+0.0000064*J59</f>
+      <c r="AA60" s="4">
+        <f>0.0000032*M60+0.0000064*K60</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="Y59" s="4">
-        <f t="shared" ref="Y59:Y60" si="38">K59*V59*W59</f>
+      <c r="AB60" s="4">
+        <f>L60*Y60*Z60</f>
         <v>0</v>
       </c>
-      <c r="Z59" s="26"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="AC60" s="26"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D61" s="34">
+        <v>3</v>
+      </c>
+      <c r="E61" s="34">
         <v>64</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F61" s="34">
         <v>256</v>
       </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4" t="s">
+      <c r="G61" s="34">
+        <v>1</v>
+      </c>
+      <c r="H61" s="34">
+        <v>1</v>
+      </c>
+      <c r="I61" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I60" s="4">
+      <c r="J61" s="34">
         <v>13</v>
       </c>
-      <c r="J60" s="4">
-        <f t="shared" si="34"/>
+      <c r="K61" s="34">
+        <f t="shared" si="56"/>
         <v>43264</v>
       </c>
-      <c r="K60" s="4">
-        <f t="shared" si="35"/>
+      <c r="L61" s="34">
+        <f t="shared" si="57"/>
         <v>10816</v>
       </c>
-      <c r="L60" s="4">
+      <c r="M61" s="34">
+        <f t="shared" si="58"/>
         <v>147456</v>
       </c>
-      <c r="M60" s="10"/>
-      <c r="N60" s="18">
-        <f>N59+L59/2+E59/2</f>
-        <v>291488</v>
-      </c>
-      <c r="O60" s="18">
-        <f t="shared" si="36"/>
-        <v>365215</v>
-      </c>
-      <c r="P60" s="18">
-        <f t="shared" si="37"/>
-        <v>365216</v>
-      </c>
-      <c r="Q60" s="18">
-        <f>P60+E60/2-1</f>
-        <v>365343</v>
-      </c>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18">
-        <f>U59+1</f>
-        <v>2084256</v>
-      </c>
-      <c r="U60" s="19">
-        <f>T60+J60/2-1</f>
-        <v>2105887</v>
-      </c>
-      <c r="V60" s="4">
+      <c r="N61" s="34">
+        <f t="shared" si="59"/>
+        <v>256</v>
+      </c>
+      <c r="O61" s="35">
+        <f t="shared" si="60"/>
+        <v>73728</v>
+      </c>
+      <c r="P61" s="55">
+        <f>R66</f>
+        <v>3556416</v>
+      </c>
+      <c r="Q61" s="18" t="str">
+        <f t="shared" si="61"/>
+        <v>364440</v>
+      </c>
+      <c r="R61" s="18">
+        <f>R60+K60</f>
+        <v>3513152</v>
+      </c>
+      <c r="S61" s="18" t="str">
+        <f t="shared" si="62"/>
+        <v>359B40</v>
+      </c>
+      <c r="T61" s="18">
+        <f>T60+O60</f>
+        <v>290176</v>
+      </c>
+      <c r="U61" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v>46D80</v>
+      </c>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="4">
         <v>0.2</v>
       </c>
-      <c r="W60" s="4">
-        <v>1</v>
-      </c>
-      <c r="X60" s="4">
-        <f>0.0000032*L60+0.0000064*J60</f>
+      <c r="Z61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="4">
+        <f>0.0000032*M61+0.0000064*K61</f>
         <v>0.74874879999999999</v>
       </c>
-      <c r="Y60" s="4">
-        <f t="shared" si="38"/>
+      <c r="AB61" s="4">
+        <f>L61*Y61*Z61</f>
         <v>2163.2000000000003</v>
       </c>
-      <c r="Z60" s="26"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+      <c r="AC61" s="26"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="26"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="56"/>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="48"/>
       <c r="Y62" s="5"/>
-      <c r="Z62" s="26"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="26"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="26"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J64" s="32">
         <v>13</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="26"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="26"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="26"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="48"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="26"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D66" s="34">
+        <v>1</v>
+      </c>
+      <c r="E66" s="34">
         <v>512</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F66" s="34">
         <v>1000</v>
       </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4">
+      <c r="G66" s="34">
+        <v>1</v>
+      </c>
+      <c r="H66" s="34">
         <v>0</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="I66" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="I65" s="4">
+      <c r="J66" s="34">
         <v>13</v>
       </c>
-      <c r="J65" s="4">
-        <f>I65^2*E65</f>
+      <c r="K66" s="34">
+        <f>J66^2*F66</f>
         <v>169000</v>
       </c>
-      <c r="K65" s="4">
-        <f>I65^2*D65</f>
+      <c r="L66" s="34">
+        <f>J66^2*E66</f>
         <v>86528</v>
       </c>
-      <c r="L65" s="4">
+      <c r="M66" s="34">
+        <f>D66^2*E66*F66</f>
         <v>512000</v>
       </c>
-      <c r="M65" s="10"/>
-      <c r="N65" s="18">
-        <f>N60+L60/2+E60/2</f>
-        <v>365344</v>
-      </c>
-      <c r="O65" s="18">
-        <f>N65+L65/2-1</f>
-        <v>621343</v>
-      </c>
-      <c r="P65" s="18">
-        <f>O65+1</f>
-        <v>621344</v>
-      </c>
-      <c r="Q65" s="18">
-        <f>P65+E65/2-1</f>
-        <v>621843</v>
-      </c>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18">
-        <f>U60+1</f>
-        <v>2105888</v>
-      </c>
-      <c r="U65" s="19">
-        <f>T65+J65/2-1</f>
-        <v>2190387</v>
-      </c>
-      <c r="V65" s="4">
+      <c r="N66" s="34">
+        <f>F66</f>
+        <v>1000</v>
+      </c>
+      <c r="O66" s="35">
+        <f>_xlfn.CEILING.MATH(D66^2*E66/2)*F66</f>
+        <v>256000</v>
+      </c>
+      <c r="P66" s="55">
+        <f>R68</f>
+        <v>3725416</v>
+      </c>
+      <c r="Q66" s="18" t="str">
+        <f>DEC2HEX(P66)</f>
+        <v>38D868</v>
+      </c>
+      <c r="R66" s="18">
+        <f>R61+K61</f>
+        <v>3556416</v>
+      </c>
+      <c r="S66" s="18" t="str">
+        <f>DEC2HEX(R66)</f>
+        <v>364440</v>
+      </c>
+      <c r="T66" s="18">
+        <f>T61+O61</f>
+        <v>363904</v>
+      </c>
+      <c r="U66" s="18" t="str">
+        <f>DEC2HEX(T66)</f>
+        <v>58D80</v>
+      </c>
+      <c r="V66" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W66" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="X66" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y66" s="4">
         <v>0.2</v>
       </c>
-      <c r="W65" s="4">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4">
-        <f>0.0000032*L65+0.0000064*J65</f>
+      <c r="Z66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="4">
+        <f>0.0000032*M66+0.0000064*K66</f>
         <v>2.7199999999999998</v>
       </c>
-      <c r="Y65" s="4">
-        <f>K65*V65*W65</f>
+      <c r="AB66" s="4">
+        <f>L66*Y66*Z66</f>
         <v>17305.600000000002</v>
       </c>
-      <c r="Z65" s="26"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
+      <c r="AC66" s="26"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="26"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="26"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B68" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6">
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38">
         <v>1000</v>
       </c>
-      <c r="F67" s="6">
-        <v>1</v>
-      </c>
-      <c r="G67" s="6">
+      <c r="G68" s="38">
+        <v>1</v>
+      </c>
+      <c r="H68" s="38">
         <v>0</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="I68" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="I67" s="6">
-        <v>1</v>
-      </c>
-      <c r="J67" s="6">
-        <f>I67^2*E67</f>
+      <c r="J68" s="38">
+        <v>1</v>
+      </c>
+      <c r="K68" s="38">
+        <f>J68^2*F68</f>
         <v>1000</v>
       </c>
-      <c r="K67" s="6">
-        <f>J67</f>
+      <c r="L68" s="38">
+        <f>K68</f>
         <v>1000</v>
       </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22">
-        <f>U65+1</f>
-        <v>2190388</v>
-      </c>
-      <c r="U67" s="23">
-        <f>T67+J67/2-1</f>
-        <v>2190887</v>
-      </c>
-      <c r="V67" s="6">
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="57">
+        <f>R69</f>
+        <v>3726416</v>
+      </c>
+      <c r="Q68" s="22" t="str">
+        <f>DEC2HEX(P68)</f>
+        <v>38DC50</v>
+      </c>
+      <c r="R68" s="22">
+        <f>R66+K66</f>
+        <v>3725416</v>
+      </c>
+      <c r="S68" s="22" t="str">
+        <f>DEC2HEX(R68)</f>
+        <v>38D868</v>
+      </c>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="6">
         <v>1.2</v>
       </c>
-      <c r="W67" s="6">
-        <v>1</v>
-      </c>
-      <c r="X67" s="6">
-        <f>0.0000064*J67</f>
+      <c r="Z68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="6">
+        <f>0.0000064*K68</f>
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="Y67" s="6">
-        <f>K67*V67*W67</f>
+      <c r="AB68" s="6">
+        <f>L68*Y68*Z68</f>
         <v>1200</v>
       </c>
-      <c r="Z67" s="26"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+      <c r="AC68" s="26"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="26"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26">
-        <f>SUM(J2:J68)</f>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16">
+        <f>R68+L68</f>
+        <v>3726416</v>
+      </c>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="44"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="26"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A70" s="13"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30">
+        <f>SUM(K3:K69)</f>
         <v>3071056</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26">
-        <f>SUM(L3:L68)</f>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30">
+        <f>SUM(M4:M69)</f>
         <v>1231552</v>
       </c>
-      <c r="M69" s="13"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26">
-        <f>SUM(X2:X68)</f>
-        <v>23.114035199999996</v>
-      </c>
-      <c r="Y69" s="26">
-        <f t="shared" ref="Y69" si="39">SUM(Y3:Y68)</f>
-        <v>388579.16000000003</v>
-      </c>
-      <c r="Z69" s="26"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26">
-        <f>J69*16/1024/8</f>
-        <v>5998.15625</v>
-      </c>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26">
-        <f>L69*16/1024/8</f>
-        <v>2405.375</v>
-      </c>
-      <c r="M70" s="13"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
+      <c r="N70" s="30">
+        <f>SUM(N4:N69)</f>
+        <v>3944</v>
+      </c>
+      <c r="O70" s="31">
+        <f>SUM(O4:O69)</f>
+        <v>615808</v>
+      </c>
+      <c r="P70" s="53"/>
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="25"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="26"/>
-      <c r="X70" s="26"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="15"/>
       <c r="Y70" s="26"/>
       <c r="Z70" s="26"/>
+      <c r="AA70" s="26">
+        <f>SUM(AA3:AA69)</f>
+        <v>23.114035199999996</v>
+      </c>
+      <c r="AB70" s="26">
+        <f t="shared" ref="AB70" si="64">SUM(AB4:AB69)</f>
+        <v>388579.16000000003</v>
+      </c>
+      <c r="AC70" s="26"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A71" s="13"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30">
+        <f>K70*16/1024/8</f>
+        <v>5998.15625</v>
+      </c>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30">
+        <f>M70*16/1024/8</f>
+        <v>2405.375</v>
+      </c>
+      <c r="N71" s="30">
+        <f>M70+N70</f>
+        <v>1235496</v>
+      </c>
+      <c r="O71" s="31"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B70" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
-  <mergeCells count="5">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
+  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
+  <mergeCells count="9">
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="R4 R58 R60:R61 R66 R68 R6:R10 R14:R25 R29:R40 R44:R54 T7:T24 T25:T40 T44:T54 T58:T66" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3EE31-7757-4292-B76C-EABD2284D0AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6441C75-318D-40B4-9687-733D3CBB9083}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SqueezeNet @ 100MHz + 312.5MHz'!$B$1:$B$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SqueezeNet v2 MEC Parallel Ch'!$B$1:$B$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SqueezeNet v2 MEC Parallel Ch'!$B$2:$B$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="121">
   <si>
     <t>INPUT</t>
   </si>
@@ -386,6 +386,18 @@
   </si>
   <si>
     <t>Operations</t>
+  </si>
+  <si>
+    <t>OP_NUM</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>Aligned(2B)</t>
+  </si>
+  <si>
+    <t>Bias Num</t>
   </si>
 </sst>
 </file>
@@ -501,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,9 +600,54 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,7 +669,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4813,3807 +4870,3126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.81640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7265625" style="47"/>
+    <col min="9" max="9" width="10.81640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="47"/>
+    <col min="12" max="12" width="10.81640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.90625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="12.90625" style="48" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C2" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G2" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H2" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28" t="s">
+      <c r="N2" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38">
+        <v>3</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="38">
+        <v>224</v>
+      </c>
+      <c r="K3" s="38">
+        <f>J3^2*F3</f>
+        <v>150528</v>
+      </c>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
+        <f>0.0000032*K3</f>
+        <v>0.4816896</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="40">
+        <v>3</v>
+      </c>
+      <c r="E4" s="40">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40">
+        <v>64</v>
+      </c>
+      <c r="G4" s="40">
+        <v>2</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="40">
         <v>111</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="K4" s="40">
+        <f>J4^2*F4</f>
+        <v>788544</v>
+      </c>
+      <c r="L4" s="40">
+        <f>J4^2*E4</f>
+        <v>36963</v>
+      </c>
+      <c r="M4" s="40">
+        <v>1728</v>
+      </c>
+      <c r="N4" s="40">
+        <f>F4</f>
+        <v>64</v>
+      </c>
+      <c r="O4" s="41">
+        <f>_xlfn.CEILING.MATH(D4^2*E4/2)*F4</f>
+        <v>896</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <f>0.0000032*M4+0.0000064*K4</f>
+        <v>5.0522111999999995</v>
+      </c>
+      <c r="S4" s="4">
+        <f>L4*P4*Q4</f>
+        <v>7392.6</v>
+      </c>
+      <c r="T4" s="26"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="26"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44">
+        <v>64</v>
+      </c>
+      <c r="G6" s="44">
+        <v>2</v>
+      </c>
+      <c r="H6" s="44">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I6" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="44">
+        <v>55</v>
+      </c>
+      <c r="K6" s="44">
+        <f>J6^2*F6</f>
+        <v>193600</v>
+      </c>
+      <c r="L6" s="44">
+        <f>K6</f>
+        <v>193600</v>
+      </c>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <f>0.0000064*K6</f>
+        <v>1.2390399999999999</v>
+      </c>
+      <c r="S6" s="6">
+        <f>L6*P6*Q6</f>
+        <v>60016</v>
+      </c>
+      <c r="T6" s="26"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="40">
+        <v>64</v>
+      </c>
+      <c r="F7" s="40">
+        <v>16</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="H7" s="40">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="I7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="40">
+        <v>55</v>
+      </c>
+      <c r="K7" s="40">
+        <f>J7^2*F7</f>
+        <v>48400</v>
+      </c>
+      <c r="L7" s="40">
+        <f>J7^2*E7</f>
+        <v>193600</v>
+      </c>
+      <c r="M7" s="40">
+        <v>1024</v>
+      </c>
+      <c r="N7" s="40">
+        <f>F7</f>
+        <v>16</v>
+      </c>
+      <c r="O7" s="41">
+        <f>_xlfn.CEILING.MATH(D7^2*E7/2)*F7</f>
+        <v>512</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <f>0.0000032*M7+0.0000064*K7</f>
+        <v>0.3130368</v>
+      </c>
+      <c r="S7" s="4">
+        <f>L7*P7*Q7</f>
+        <v>38720</v>
+      </c>
+      <c r="T7" s="26"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1</v>
+      </c>
+      <c r="E9" s="40">
+        <v>16</v>
+      </c>
+      <c r="F9" s="40">
+        <v>64</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="40">
+        <v>55</v>
+      </c>
+      <c r="K9" s="40">
+        <f t="shared" ref="K9:K10" si="0">J9^2*F9</f>
+        <v>193600</v>
+      </c>
+      <c r="L9" s="40">
+        <f t="shared" ref="L9:L10" si="1">J9^2*E9</f>
+        <v>48400</v>
+      </c>
+      <c r="M9" s="40">
+        <v>1024</v>
+      </c>
+      <c r="N9" s="40">
+        <f t="shared" ref="N9:N10" si="2">F9</f>
+        <v>64</v>
+      </c>
+      <c r="O9" s="41">
+        <f t="shared" ref="O9:O10" si="3">_xlfn.CEILING.MATH(D9^2*E9/2)*F9</f>
+        <v>512</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <f>0.0000032*M9+0.0000064*K9</f>
+        <v>1.2423168</v>
+      </c>
+      <c r="S9" s="4">
+        <f>L9*P9*Q9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="26"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="40">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="3">
-        <v>224</v>
-      </c>
-      <c r="J2" s="3">
-        <f>I2^2*E2</f>
-        <v>150528</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16">
-        <v>655360</v>
-      </c>
-      <c r="U2" s="17">
-        <f>T2+J2/2-1</f>
-        <v>730623</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3">
-        <f>0.0000032*J2</f>
-        <v>0.4816896</v>
-      </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="E10" s="40">
+        <v>16</v>
+      </c>
+      <c r="F10" s="40">
         <v>64</v>
       </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="4">
-        <v>111</v>
-      </c>
-      <c r="J3" s="4">
-        <f>I3^2*E3</f>
-        <v>788544</v>
-      </c>
-      <c r="K3" s="4">
-        <f>I3^2*D3</f>
-        <v>36963</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1728</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="18">
-        <v>4096</v>
-      </c>
-      <c r="O3" s="18">
-        <f>N3+L3/2-1</f>
-        <v>4959</v>
-      </c>
-      <c r="P3" s="18">
-        <f>O3+1</f>
-        <v>4960</v>
-      </c>
-      <c r="Q3" s="18">
-        <f>P3+E3/2-1</f>
-        <v>4991</v>
-      </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18">
-        <f>U2+1</f>
-        <v>730624</v>
-      </c>
-      <c r="U3" s="19">
-        <f>T3+J3/2-1</f>
-        <v>1124895</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W3" s="4">
-        <v>1</v>
-      </c>
-      <c r="X3" s="4">
-        <f>0.0000032*L3+0.0000064*J3</f>
-        <v>5.0522111999999995</v>
-      </c>
-      <c r="Y3" s="4">
-        <f>K3*V3*W3</f>
-        <v>7392.6</v>
-      </c>
-      <c r="Z3" s="26"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="26"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>64</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G10" s="40">
+        <v>1</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J10" s="40">
         <v>55</v>
       </c>
-      <c r="J5" s="6">
-        <f>I5^2*E5</f>
-        <v>193600</v>
-      </c>
-      <c r="K5" s="6">
-        <f>J5</f>
-        <v>193600</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22">
-        <f>U3+1</f>
-        <v>1124896</v>
-      </c>
-      <c r="U5" s="23">
-        <f>T5+J5/2-1</f>
-        <v>1221695</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
-        <f>0.0000064*J5</f>
-        <v>1.2390399999999999</v>
-      </c>
-      <c r="Y5" s="6">
-        <f>K5*V5*W5</f>
-        <v>60016</v>
-      </c>
-      <c r="Z5" s="26"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="4">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="4">
-        <v>55</v>
-      </c>
-      <c r="J6" s="4">
-        <f>I6^2*E6</f>
-        <v>48400</v>
-      </c>
-      <c r="K6" s="4">
-        <f>I6^2*D6</f>
-        <v>193600</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1024</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="18">
-        <f>N3+L3/2+E3/2</f>
-        <v>4992</v>
-      </c>
-      <c r="O6" s="18">
-        <f>N6+L6/2-1</f>
-        <v>5503</v>
-      </c>
-      <c r="P6" s="18">
-        <f>O6+1</f>
-        <v>5504</v>
-      </c>
-      <c r="Q6" s="18">
-        <f>P6+E6/2-1</f>
-        <v>5511</v>
-      </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18">
-        <f>U5+1</f>
-        <v>1221696</v>
-      </c>
-      <c r="U6" s="19">
-        <f>T6+J6/2-1</f>
-        <v>1245895</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4">
-        <f>0.0000032*L6+0.0000064*J6</f>
-        <v>0.3130368</v>
-      </c>
-      <c r="Y6" s="4">
-        <f>K6*V6*W6</f>
-        <v>38720</v>
-      </c>
-      <c r="Z6" s="26"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="26"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="4">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="4">
-        <v>55</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" ref="J8:J9" si="0">I8^2*E8</f>
-        <v>193600</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" ref="K8:K9" si="1">I8^2*D8</f>
-        <v>48400</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1024</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="18">
-        <f>N6+L6/2+E6/2</f>
-        <v>5512</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" ref="O8:O9" si="2">N8+L8/2-1</f>
-        <v>6023</v>
-      </c>
-      <c r="P8" s="18">
-        <f t="shared" ref="P8:P9" si="3">O8+1</f>
-        <v>6024</v>
-      </c>
-      <c r="Q8" s="18">
-        <f>P8+E8/2-1</f>
-        <v>6055</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18">
-        <f>U6+1</f>
-        <v>1245896</v>
-      </c>
-      <c r="U8" s="19">
-        <f>T8+J8/2-1</f>
-        <v>1342695</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <f>0.0000032*L8+0.0000064*J8</f>
-        <v>1.2423168</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" ref="Y8:Y9" si="4">K8*V8*W8</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="26"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="4">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="4">
-        <v>55</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="K10" s="40">
         <f t="shared" si="0"/>
         <v>193600</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L10" s="40">
         <f t="shared" si="1"/>
         <v>48400</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M10" s="40">
         <v>9216</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="18">
-        <f>N8+L8/2+E8/2</f>
-        <v>6056</v>
-      </c>
-      <c r="O9" s="18">
+      <c r="N10" s="40">
         <f t="shared" si="2"/>
-        <v>10663</v>
-      </c>
-      <c r="P9" s="18">
+        <v>64</v>
+      </c>
+      <c r="O10" s="41">
         <f t="shared" si="3"/>
-        <v>10664</v>
-      </c>
-      <c r="Q9" s="18">
-        <f>P9+E9/2-1</f>
-        <v>10695</v>
-      </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18">
-        <f>U8+1</f>
-        <v>1342696</v>
-      </c>
-      <c r="U9" s="19">
-        <f>T9+J9/2-1</f>
-        <v>1439495</v>
-      </c>
-      <c r="V9" s="4">
+        <v>4608</v>
+      </c>
+      <c r="P10" s="4">
         <v>0.2</v>
       </c>
-      <c r="W9" s="4">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
-        <f>0.0000032*L9+0.0000064*J9</f>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <f>0.0000032*M10+0.0000064*K10</f>
         <v>1.2685312</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="S10" s="4">
+        <f>L10*P10*Q10</f>
+        <v>9680</v>
+      </c>
+      <c r="T10" s="26"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="26"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="38">
+        <v>55</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="26"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="40">
+        <v>1</v>
+      </c>
+      <c r="E14" s="40">
+        <v>128</v>
+      </c>
+      <c r="F14" s="40">
+        <v>16</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="40">
+        <v>55</v>
+      </c>
+      <c r="K14" s="40">
+        <f>J14^2*F14</f>
+        <v>48400</v>
+      </c>
+      <c r="L14" s="40">
+        <f>J14^2*E14</f>
+        <v>387200</v>
+      </c>
+      <c r="M14" s="40">
+        <v>2048</v>
+      </c>
+      <c r="N14" s="40">
+        <f>F14</f>
+        <v>16</v>
+      </c>
+      <c r="O14" s="41">
+        <f>_xlfn.CEILING.MATH(D14^2*E14/2)*F14</f>
+        <v>1024</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <f>0.0000032*M14+0.0000064*K14</f>
+        <v>0.31631359999999997</v>
+      </c>
+      <c r="S14" s="4">
+        <f>L14*P14*Q14</f>
+        <v>77440</v>
+      </c>
+      <c r="T14" s="26"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="40">
+        <v>3</v>
+      </c>
+      <c r="E16" s="40">
+        <v>16</v>
+      </c>
+      <c r="F16" s="40">
+        <v>64</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1</v>
+      </c>
+      <c r="H16" s="40">
+        <v>0</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="40">
+        <v>55</v>
+      </c>
+      <c r="K16" s="40">
+        <f t="shared" ref="K16:K17" si="4">J16^2*F16</f>
+        <v>193600</v>
+      </c>
+      <c r="L16" s="40">
+        <f t="shared" ref="L16:L17" si="5">J16^2*E16</f>
+        <v>48400</v>
+      </c>
+      <c r="M16" s="40">
+        <v>1024</v>
+      </c>
+      <c r="N16" s="40">
+        <f t="shared" ref="N16:N17" si="6">F16</f>
+        <v>64</v>
+      </c>
+      <c r="O16" s="41">
+        <f t="shared" ref="O16:O17" si="7">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
+        <v>4608</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>0.0000032*M16+0.0000064*K16</f>
+        <v>1.2423168</v>
+      </c>
+      <c r="S16" s="4">
+        <f>L16*P16*Q16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="26"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="40">
+        <v>3</v>
+      </c>
+      <c r="E17" s="40">
+        <v>16</v>
+      </c>
+      <c r="F17" s="40">
+        <v>64</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="40">
+        <v>55</v>
+      </c>
+      <c r="K17" s="40">
         <f t="shared" si="4"/>
+        <v>193600</v>
+      </c>
+      <c r="L17" s="40">
+        <f t="shared" si="5"/>
+        <v>48400</v>
+      </c>
+      <c r="M17" s="40">
+        <v>9216</v>
+      </c>
+      <c r="N17" s="40">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="O17" s="41">
+        <f t="shared" si="7"/>
+        <v>4608</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <f>0.0000032*M17+0.0000064*K17</f>
+        <v>1.2685312</v>
+      </c>
+      <c r="S17" s="4">
+        <f>L17*P17*Q17</f>
         <v>9680</v>
       </c>
-      <c r="Z9" s="26"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="T17" s="26"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="26"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="26"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="26"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="26"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J20" s="38">
         <v>55</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="26"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="26"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44">
+        <v>128</v>
+      </c>
+      <c r="G21" s="44">
+        <v>2</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="44">
+        <v>27</v>
+      </c>
+      <c r="K21" s="44">
+        <f>J21^2*F21</f>
+        <v>93312</v>
+      </c>
+      <c r="L21" s="44">
+        <f>K21</f>
+        <v>93312</v>
+      </c>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6">
+        <f>0.0000064*K21</f>
+        <v>0.59719679999999997</v>
+      </c>
+      <c r="S21" s="6">
+        <f>L21*P21*Q21</f>
+        <v>28926.720000000001</v>
+      </c>
+      <c r="T21" s="26"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="40">
+        <v>1</v>
+      </c>
+      <c r="E22" s="40">
+        <v>128</v>
+      </c>
+      <c r="F22" s="40">
+        <v>32</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
+      <c r="H22" s="40">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="40">
+        <v>27</v>
+      </c>
+      <c r="K22" s="40">
+        <f>J22^2*F22</f>
+        <v>23328</v>
+      </c>
+      <c r="L22" s="40">
+        <f>J22^2*E22</f>
+        <v>93312</v>
+      </c>
+      <c r="M22" s="40">
+        <v>4096</v>
+      </c>
+      <c r="N22" s="40">
+        <f>F22</f>
+        <v>32</v>
+      </c>
+      <c r="O22" s="41">
+        <f>_xlfn.CEILING.MATH(D22^2*E22/2)*F22</f>
+        <v>2048</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <f>0.0000032*M22+0.0000064*K22</f>
+        <v>0.16240640000000001</v>
+      </c>
+      <c r="S22" s="4">
+        <f>L22*P22*Q22</f>
+        <v>18662.400000000001</v>
+      </c>
+      <c r="T22" s="26"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="26"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="40">
+        <v>1</v>
+      </c>
+      <c r="E24" s="40">
+        <v>32</v>
+      </c>
+      <c r="F24" s="40">
+        <v>128</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="40">
+        <v>27</v>
+      </c>
+      <c r="K24" s="40">
+        <f t="shared" ref="K24:K25" si="8">J24^2*F24</f>
+        <v>93312</v>
+      </c>
+      <c r="L24" s="40">
+        <f t="shared" ref="L24:L25" si="9">J24^2*E24</f>
+        <v>23328</v>
+      </c>
+      <c r="M24" s="40">
+        <v>4096</v>
+      </c>
+      <c r="N24" s="40">
+        <f t="shared" ref="N24:N25" si="10">F24</f>
+        <v>128</v>
+      </c>
+      <c r="O24" s="41">
+        <f t="shared" ref="O24:O25" si="11">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
+        <v>2048</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <f>0.0000032*M24+0.0000064*K24</f>
+        <v>0.61030399999999996</v>
+      </c>
+      <c r="S24" s="4">
+        <f>L24*P24*Q24</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="26"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="40">
+        <v>3</v>
+      </c>
+      <c r="E25" s="40">
+        <v>32</v>
+      </c>
+      <c r="F25" s="40">
+        <v>128</v>
+      </c>
+      <c r="G25" s="40">
+        <v>1</v>
+      </c>
+      <c r="H25" s="40">
+        <v>1</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="40">
+        <v>27</v>
+      </c>
+      <c r="K25" s="40">
+        <f t="shared" si="8"/>
+        <v>93312</v>
+      </c>
+      <c r="L25" s="40">
+        <f t="shared" si="9"/>
+        <v>23328</v>
+      </c>
+      <c r="M25" s="40">
+        <v>36864</v>
+      </c>
+      <c r="N25" s="40">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="O25" s="41">
+        <f t="shared" si="11"/>
+        <v>18432</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
+        <f>0.0000032*M25+0.0000064*K25</f>
+        <v>0.71516159999999995</v>
+      </c>
+      <c r="S25" s="4">
+        <f>L25*P25*Q25</f>
+        <v>4665.6000000000004</v>
+      </c>
+      <c r="T25" s="26"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="26"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="26"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="38">
+        <v>27</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="26"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="40">
+        <v>1</v>
+      </c>
+      <c r="E29" s="40">
+        <v>256</v>
+      </c>
+      <c r="F29" s="40">
+        <v>32</v>
+      </c>
+      <c r="G29" s="40">
+        <v>1</v>
+      </c>
+      <c r="H29" s="40">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="40">
+        <v>27</v>
+      </c>
+      <c r="K29" s="40">
+        <f>J29^2*F29</f>
+        <v>23328</v>
+      </c>
+      <c r="L29" s="40">
+        <f>J29^2*E29</f>
+        <v>186624</v>
+      </c>
+      <c r="M29" s="40">
+        <v>8192</v>
+      </c>
+      <c r="N29" s="40">
+        <f>F29</f>
+        <v>32</v>
+      </c>
+      <c r="O29" s="41">
+        <f>_xlfn.CEILING.MATH(D29^2*E29/2)*F29</f>
+        <v>4096</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
+        <f>0.0000032*M29+0.0000064*K29</f>
+        <v>0.17551359999999999</v>
+      </c>
+      <c r="S29" s="4">
+        <f>L29*P29*Q29</f>
+        <v>37324.800000000003</v>
+      </c>
+      <c r="T29" s="26"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="26"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="40">
+        <v>1</v>
+      </c>
+      <c r="E31" s="40">
+        <v>32</v>
+      </c>
+      <c r="F31" s="40">
+        <v>128</v>
+      </c>
+      <c r="G31" s="40">
+        <v>1</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="40">
+        <v>27</v>
+      </c>
+      <c r="K31" s="40">
+        <f t="shared" ref="K31:K32" si="12">J31^2*F31</f>
+        <v>93312</v>
+      </c>
+      <c r="L31" s="40">
+        <f t="shared" ref="L31:L32" si="13">J31^2*E31</f>
+        <v>23328</v>
+      </c>
+      <c r="M31" s="40">
+        <v>4096</v>
+      </c>
+      <c r="N31" s="40">
+        <f t="shared" ref="N31:N32" si="14">F31</f>
+        <v>128</v>
+      </c>
+      <c r="O31" s="41">
+        <f t="shared" ref="O31:O32" si="15">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
+        <v>2048</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <f>0.0000032*M31+0.0000064*K31</f>
+        <v>0.61030399999999996</v>
+      </c>
+      <c r="S31" s="4">
+        <f>L31*P31*Q31</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="26"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="40">
+        <v>3</v>
+      </c>
+      <c r="E32" s="40">
+        <v>32</v>
+      </c>
+      <c r="F32" s="40">
+        <v>128</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="40">
+        <v>27</v>
+      </c>
+      <c r="K32" s="40">
+        <f t="shared" si="12"/>
+        <v>93312</v>
+      </c>
+      <c r="L32" s="40">
+        <f t="shared" si="13"/>
+        <v>23328</v>
+      </c>
+      <c r="M32" s="40">
+        <v>36864</v>
+      </c>
+      <c r="N32" s="40">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="O32" s="41">
+        <f t="shared" si="15"/>
+        <v>18432</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1</v>
+      </c>
+      <c r="R32" s="4">
+        <f>0.0000032*M32+0.0000064*K32</f>
+        <v>0.71516159999999995</v>
+      </c>
+      <c r="S32" s="4">
+        <f>L32*P32*Q32</f>
+        <v>4665.6000000000004</v>
+      </c>
+      <c r="T32" s="26"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="26"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="26"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="26"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44">
+        <v>256</v>
+      </c>
+      <c r="G36" s="44">
+        <v>2</v>
+      </c>
+      <c r="H36" s="44">
+        <v>0</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="44">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="K36" s="44">
+        <f>J36^2*F36</f>
+        <v>43264</v>
+      </c>
+      <c r="L36" s="44">
+        <f>K36</f>
+        <v>43264</v>
+      </c>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6">
+        <f>0.0000064*K36</f>
+        <v>0.27688960000000001</v>
+      </c>
+      <c r="S36" s="6">
+        <f>L36*P36*Q36</f>
+        <v>13411.84</v>
+      </c>
+      <c r="T36" s="26"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C37" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="4">
-        <v>128</v>
-      </c>
-      <c r="E13" s="4">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="D37" s="40">
+        <v>1</v>
+      </c>
+      <c r="E37" s="40">
+        <v>256</v>
+      </c>
+      <c r="F37" s="40">
+        <v>48</v>
+      </c>
+      <c r="G37" s="40">
+        <v>1</v>
+      </c>
+      <c r="H37" s="40">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="4">
-        <v>55</v>
-      </c>
-      <c r="J13" s="4">
-        <f>I13^2*E13</f>
-        <v>48400</v>
-      </c>
-      <c r="K13" s="4">
-        <f>I13^2*D13</f>
-        <v>387200</v>
-      </c>
-      <c r="L13" s="4">
-        <v>2048</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="18">
-        <f>N9+L9/2+E9/2</f>
-        <v>10696</v>
-      </c>
-      <c r="O13" s="18">
-        <f>N13+L13/2-1</f>
-        <v>11719</v>
-      </c>
-      <c r="P13" s="18">
-        <f>O13+1</f>
-        <v>11720</v>
-      </c>
-      <c r="Q13" s="18">
-        <f>P13+E13/2-1</f>
-        <v>11727</v>
-      </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18">
-        <f>U9+1</f>
-        <v>1439496</v>
-      </c>
-      <c r="U13" s="19">
-        <f>T13+J13/2-1</f>
-        <v>1463695</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="I37" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="40">
+        <v>13</v>
+      </c>
+      <c r="K37" s="40">
+        <f>J37^2*F37</f>
+        <v>8112</v>
+      </c>
+      <c r="L37" s="40">
+        <f>J37^2*E37</f>
+        <v>43264</v>
+      </c>
+      <c r="M37" s="40">
+        <v>12288</v>
+      </c>
+      <c r="N37" s="40">
+        <f>F37</f>
+        <v>48</v>
+      </c>
+      <c r="O37" s="41">
+        <f>_xlfn.CEILING.MATH(D37^2*E37/2)*F37</f>
+        <v>6144</v>
+      </c>
+      <c r="P37" s="4">
         <v>0.2</v>
       </c>
-      <c r="W13" s="4">
-        <v>1</v>
-      </c>
-      <c r="X13" s="4">
-        <f>0.0000032*L13+0.0000064*J13</f>
-        <v>0.31631359999999997</v>
-      </c>
-      <c r="Y13" s="4">
-        <f>K13*V13*W13</f>
-        <v>77440</v>
-      </c>
-      <c r="Z13" s="26"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="Q37" s="4">
+        <v>1</v>
+      </c>
+      <c r="R37" s="4">
+        <f>0.0000032*M37+0.0000064*K37</f>
+        <v>9.1238399999999997E-2</v>
+      </c>
+      <c r="S37" s="4">
+        <f>L37*P37*Q37</f>
+        <v>8652.8000000000011</v>
+      </c>
+      <c r="T37" s="26"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="26"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="26"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C39" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="4">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="D39" s="40">
+        <v>1</v>
+      </c>
+      <c r="E39" s="40">
+        <v>48</v>
+      </c>
+      <c r="F39" s="40">
+        <v>192</v>
+      </c>
+      <c r="G39" s="40">
+        <v>1</v>
+      </c>
+      <c r="H39" s="40">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="4">
-        <v>55</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" ref="J15:J16" si="5">I15^2*E15</f>
-        <v>193600</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" ref="K15:K16" si="6">I15^2*D15</f>
-        <v>48400</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1024</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="18">
-        <f>N13+L13/2+E13/2</f>
-        <v>11728</v>
-      </c>
-      <c r="O15" s="18">
-        <f t="shared" ref="O15:O16" si="7">N15+L15/2-1</f>
-        <v>12239</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" ref="P15:P16" si="8">O15+1</f>
-        <v>12240</v>
-      </c>
-      <c r="Q15" s="18">
-        <f>P15+E15/2-1</f>
-        <v>12271</v>
-      </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18">
-        <f>U13+1</f>
-        <v>1463696</v>
-      </c>
-      <c r="U15" s="19">
-        <f>T15+J15/2-1</f>
-        <v>1560495</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="I39" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="40">
+        <v>13</v>
+      </c>
+      <c r="K39" s="40">
+        <f t="shared" ref="K39:K40" si="16">J39^2*F39</f>
+        <v>32448</v>
+      </c>
+      <c r="L39" s="40">
+        <f t="shared" ref="L39:L40" si="17">J39^2*E39</f>
+        <v>8112</v>
+      </c>
+      <c r="M39" s="40">
+        <v>9216</v>
+      </c>
+      <c r="N39" s="40">
+        <f t="shared" ref="N39:N40" si="18">F39</f>
+        <v>192</v>
+      </c>
+      <c r="O39" s="41">
+        <f t="shared" ref="O39:O40" si="19">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
+        <v>4608</v>
+      </c>
+      <c r="P39" s="4">
         <v>0.2</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="X15" s="4">
-        <f>0.0000032*L15+0.0000064*J15</f>
-        <v>1.2423168</v>
-      </c>
-      <c r="Y15" s="4">
-        <f t="shared" ref="Y15:Y16" si="9">K15*V15*W15</f>
+      <c r="R39" s="4">
+        <f>0.0000032*M39+0.0000064*K39</f>
+        <v>0.23715839999999999</v>
+      </c>
+      <c r="S39" s="4">
+        <f>L39*P39*Q39</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="26"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="T39" s="26"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C40" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="4">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4">
-        <v>64</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="4">
-        <v>55</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="5"/>
-        <v>193600</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="6"/>
-        <v>48400</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="D40" s="40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="40">
+        <v>48</v>
+      </c>
+      <c r="F40" s="40">
+        <v>192</v>
+      </c>
+      <c r="G40" s="40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="40">
+        <v>13</v>
+      </c>
+      <c r="K40" s="40">
+        <f t="shared" si="16"/>
+        <v>32448</v>
+      </c>
+      <c r="L40" s="40">
+        <f t="shared" si="17"/>
+        <v>8112</v>
+      </c>
+      <c r="M40" s="40">
+        <v>82944</v>
+      </c>
+      <c r="N40" s="40">
+        <f t="shared" si="18"/>
+        <v>192</v>
+      </c>
+      <c r="O40" s="41">
+        <f t="shared" si="19"/>
+        <v>41472</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <f>0.0000032*M40+0.0000064*K40</f>
+        <v>0.47308800000000001</v>
+      </c>
+      <c r="S40" s="4">
+        <f>L40*P40*Q40</f>
+        <v>1622.4</v>
+      </c>
+      <c r="T40" s="26"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="26"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="26"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="38">
+        <v>13</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="26"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="40">
+        <v>1</v>
+      </c>
+      <c r="E44" s="40">
+        <v>384</v>
+      </c>
+      <c r="F44" s="40">
+        <v>48</v>
+      </c>
+      <c r="G44" s="40">
+        <v>1</v>
+      </c>
+      <c r="H44" s="40">
+        <v>0</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="40">
+        <v>13</v>
+      </c>
+      <c r="K44" s="40">
+        <f>J44^2*F44</f>
+        <v>8112</v>
+      </c>
+      <c r="L44" s="40">
+        <f>J44^2*E44</f>
+        <v>64896</v>
+      </c>
+      <c r="M44" s="40">
+        <v>18432</v>
+      </c>
+      <c r="N44" s="40">
+        <f>F44</f>
+        <v>48</v>
+      </c>
+      <c r="O44" s="41">
+        <f>_xlfn.CEILING.MATH(D44^2*E44/2)*F44</f>
         <v>9216</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="18">
-        <f>N15+L15/2+E15/2</f>
-        <v>12272</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="7"/>
-        <v>16879</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="8"/>
-        <v>16880</v>
-      </c>
-      <c r="Q16" s="18">
-        <f>P16+E16/2-1</f>
-        <v>16911</v>
-      </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18">
-        <f>U15+1</f>
-        <v>1560496</v>
-      </c>
-      <c r="U16" s="19">
-        <f>T16+J16/2-1</f>
-        <v>1657295</v>
-      </c>
-      <c r="V16" s="4">
+      <c r="P44" s="4">
         <v>0.2</v>
       </c>
-      <c r="W16" s="4">
-        <v>1</v>
-      </c>
-      <c r="X16" s="4">
-        <f>0.0000032*L16+0.0000064*J16</f>
-        <v>1.2685312</v>
-      </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="9"/>
-        <v>9680</v>
-      </c>
-      <c r="Z16" s="26"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="Q44" s="4">
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <f>0.0000032*M44+0.0000064*K44</f>
+        <v>0.1108992</v>
+      </c>
+      <c r="S44" s="4">
+        <f>L44*P44*Q44</f>
+        <v>12979.2</v>
+      </c>
+      <c r="T44" s="26"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="26"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="26"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="3">
-        <v>55</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="26"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="26"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="40">
+        <v>1</v>
+      </c>
+      <c r="E46" s="40">
+        <v>48</v>
+      </c>
+      <c r="F46" s="40">
+        <v>192</v>
+      </c>
+      <c r="G46" s="40">
+        <v>1</v>
+      </c>
+      <c r="H46" s="40">
+        <v>0</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="40">
+        <v>13</v>
+      </c>
+      <c r="K46" s="40">
+        <f t="shared" ref="K46:K47" si="20">J46^2*F46</f>
+        <v>32448</v>
+      </c>
+      <c r="L46" s="40">
+        <f t="shared" ref="L46:L47" si="21">J46^2*E46</f>
+        <v>8112</v>
+      </c>
+      <c r="M46" s="40">
+        <v>9216</v>
+      </c>
+      <c r="N46" s="40">
+        <f t="shared" ref="N46:N47" si="22">F46</f>
+        <v>192</v>
+      </c>
+      <c r="O46" s="41">
+        <f t="shared" ref="O46:O47" si="23">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
+        <v>4608</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <f>0.0000032*M46+0.0000064*K46</f>
+        <v>0.23715839999999999</v>
+      </c>
+      <c r="S46" s="4">
+        <f>L46*P46*Q46</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="26"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>128</v>
-      </c>
-      <c r="F20" s="6">
-        <v>2</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="6">
-        <v>27</v>
-      </c>
-      <c r="J20" s="6">
-        <f>I20^2*E20</f>
-        <v>93312</v>
-      </c>
-      <c r="K20" s="6">
-        <f>J20</f>
-        <v>93312</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22">
-        <f>U16+1</f>
-        <v>1657296</v>
-      </c>
-      <c r="U20" s="23">
-        <f>T20+J20/2-1</f>
-        <v>1703951</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="W20" s="6">
-        <v>1</v>
-      </c>
-      <c r="X20" s="6">
-        <f>0.0000064*J20</f>
-        <v>0.59719679999999997</v>
-      </c>
-      <c r="Y20" s="6">
-        <f>K20*V20*W20</f>
-        <v>28926.720000000001</v>
-      </c>
-      <c r="Z20" s="26"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="4">
-        <v>128</v>
-      </c>
-      <c r="E21" s="4">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="4">
-        <v>27</v>
-      </c>
-      <c r="J21" s="4">
-        <f>I21^2*E21</f>
-        <v>23328</v>
-      </c>
-      <c r="K21" s="4">
-        <f>I21^2*D21</f>
-        <v>93312</v>
-      </c>
-      <c r="L21" s="4">
-        <v>4096</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="18">
-        <f>N16+L16/2+E16/2</f>
-        <v>16912</v>
-      </c>
-      <c r="O21" s="18">
-        <f>N21+L21/2-1</f>
-        <v>18959</v>
-      </c>
-      <c r="P21" s="18">
-        <f>O21+1</f>
-        <v>18960</v>
-      </c>
-      <c r="Q21" s="18">
-        <f>P21+E21/2-1</f>
-        <v>18975</v>
-      </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18">
-        <f>U20+1</f>
-        <v>1703952</v>
-      </c>
-      <c r="U21" s="19">
-        <f>T21+J21/2-1</f>
-        <v>1715615</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W21" s="4">
-        <v>1</v>
-      </c>
-      <c r="X21" s="4">
-        <f>0.0000032*L21+0.0000064*J21</f>
-        <v>0.16240640000000001</v>
-      </c>
-      <c r="Y21" s="4">
-        <f>K21*V21*W21</f>
-        <v>18662.400000000001</v>
-      </c>
-      <c r="Z21" s="26"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="26"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="4">
-        <v>32</v>
-      </c>
-      <c r="E23" s="4">
-        <v>128</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="4">
-        <v>27</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" ref="J23:J24" si="10">I23^2*E23</f>
-        <v>93312</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" ref="K23:K24" si="11">I23^2*D23</f>
-        <v>23328</v>
-      </c>
-      <c r="L23" s="4">
-        <v>4096</v>
-      </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="18">
-        <f>N21+L21/2+E21/2</f>
-        <v>18976</v>
-      </c>
-      <c r="O23" s="18">
-        <f t="shared" ref="O23:O24" si="12">N23+L23/2-1</f>
-        <v>21023</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" ref="P23:P24" si="13">O23+1</f>
-        <v>21024</v>
-      </c>
-      <c r="Q23" s="18">
-        <f>P23+E23/2-1</f>
-        <v>21087</v>
-      </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18">
-        <f>U21+1</f>
-        <v>1715616</v>
-      </c>
-      <c r="U23" s="19">
-        <f>T23+J23/2-1</f>
-        <v>1762271</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
-        <f>0.0000032*L23+0.0000064*J23</f>
-        <v>0.61030399999999996</v>
-      </c>
-      <c r="Y23" s="4">
-        <f t="shared" ref="Y23:Y24" si="14">K23*V23*W23</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="26"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="4">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4">
-        <v>128</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="4">
-        <v>27</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="10"/>
-        <v>93312</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="11"/>
-        <v>23328</v>
-      </c>
-      <c r="L24" s="4">
-        <v>36864</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="18">
-        <f>N23+L23/2+E23/2</f>
-        <v>21088</v>
-      </c>
-      <c r="O24" s="18">
-        <f t="shared" si="12"/>
-        <v>39519</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="13"/>
-        <v>39520</v>
-      </c>
-      <c r="Q24" s="18">
-        <f>P24+E24/2-1</f>
-        <v>39583</v>
-      </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18">
-        <f>U23+1</f>
-        <v>1762272</v>
-      </c>
-      <c r="U24" s="19">
-        <f>T24+J24/2-1</f>
-        <v>1808927</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
-        <f>0.0000032*L24+0.0000064*J24</f>
-        <v>0.71516159999999995</v>
-      </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="14"/>
-        <v>4665.6000000000004</v>
-      </c>
-      <c r="Z24" s="26"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="26"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="26"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="3">
-        <v>27</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="26"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="4">
-        <v>256</v>
-      </c>
-      <c r="E28" s="4">
-        <v>32</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="4">
-        <v>27</v>
-      </c>
-      <c r="J28" s="4">
-        <f>I28^2*E28</f>
-        <v>23328</v>
-      </c>
-      <c r="K28" s="4">
-        <f>I28^2*D28</f>
-        <v>186624</v>
-      </c>
-      <c r="L28" s="4">
-        <v>8192</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="18">
-        <f>N24+L24/2+E24/2</f>
-        <v>39584</v>
-      </c>
-      <c r="O28" s="18">
-        <f>N28+L28/2-1</f>
-        <v>43679</v>
-      </c>
-      <c r="P28" s="18">
-        <f>O28+1</f>
-        <v>43680</v>
-      </c>
-      <c r="Q28" s="18">
-        <f>P28+E28/2-1</f>
-        <v>43695</v>
-      </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18">
-        <f>U24+1</f>
-        <v>1808928</v>
-      </c>
-      <c r="U28" s="19">
-        <f>T28+J28/2-1</f>
-        <v>1820591</v>
-      </c>
-      <c r="V28" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W28" s="4">
-        <v>1</v>
-      </c>
-      <c r="X28" s="4">
-        <f>0.0000032*L28+0.0000064*J28</f>
-        <v>0.17551359999999999</v>
-      </c>
-      <c r="Y28" s="4">
-        <f>K28*V28*W28</f>
-        <v>37324.800000000003</v>
-      </c>
-      <c r="Z28" s="26"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="26"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="4">
-        <v>32</v>
-      </c>
-      <c r="E30" s="4">
-        <v>128</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="4">
-        <v>27</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" ref="J30:J31" si="15">I30^2*E30</f>
-        <v>93312</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" ref="K30:K31" si="16">I30^2*D30</f>
-        <v>23328</v>
-      </c>
-      <c r="L30" s="4">
-        <v>4096</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="18">
-        <f>N28+L28/2+E28/2</f>
-        <v>43696</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" ref="O30:O31" si="17">N30+L30/2-1</f>
-        <v>45743</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" ref="P30:P31" si="18">O30+1</f>
-        <v>45744</v>
-      </c>
-      <c r="Q30" s="18">
-        <f>P30+E30/2-1</f>
-        <v>45807</v>
-      </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18">
-        <f>U28+1</f>
-        <v>1820592</v>
-      </c>
-      <c r="U30" s="19">
-        <f>T30+J30/2-1</f>
-        <v>1867247</v>
-      </c>
-      <c r="V30" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W30" s="4">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4">
-        <f>0.0000032*L30+0.0000064*J30</f>
-        <v>0.61030399999999996</v>
-      </c>
-      <c r="Y30" s="4">
-        <f t="shared" ref="Y30:Y31" si="19">K30*V30*W30</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="26"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="4">
-        <v>32</v>
-      </c>
-      <c r="E31" s="4">
-        <v>128</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="4">
-        <v>27</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="15"/>
-        <v>93312</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="16"/>
-        <v>23328</v>
-      </c>
-      <c r="L31" s="4">
-        <v>36864</v>
-      </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="18">
-        <f>N30+L30/2+E30/2</f>
-        <v>45808</v>
-      </c>
-      <c r="O31" s="18">
-        <f t="shared" si="17"/>
-        <v>64239</v>
-      </c>
-      <c r="P31" s="18">
-        <f t="shared" si="18"/>
-        <v>64240</v>
-      </c>
-      <c r="Q31" s="18">
-        <f>P31+E31/2-1</f>
-        <v>64303</v>
-      </c>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18">
-        <f>U30+1</f>
-        <v>1867248</v>
-      </c>
-      <c r="U31" s="19">
-        <f>T31+J31/2-1</f>
-        <v>1913903</v>
-      </c>
-      <c r="V31" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W31" s="4">
-        <v>1</v>
-      </c>
-      <c r="X31" s="4">
-        <f>0.0000032*L31+0.0000064*J31</f>
-        <v>0.71516159999999995</v>
-      </c>
-      <c r="Y31" s="4">
-        <f t="shared" si="19"/>
-        <v>4665.6000000000004</v>
-      </c>
-      <c r="Z31" s="26"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="26"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="26"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="26"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>256</v>
-      </c>
-      <c r="F35" s="6">
-        <v>2</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="D47" s="40">
+        <v>3</v>
+      </c>
+      <c r="E47" s="40">
+        <v>48</v>
+      </c>
+      <c r="F47" s="40">
+        <v>192</v>
+      </c>
+      <c r="G47" s="40">
+        <v>1</v>
+      </c>
+      <c r="H47" s="40">
+        <v>1</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="40">
         <v>13</v>
       </c>
-      <c r="J35" s="6">
-        <f>I35^2*E35</f>
-        <v>43264</v>
-      </c>
-      <c r="K35" s="6">
-        <f>J35</f>
-        <v>43264</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22">
-        <f>U31+1</f>
-        <v>1913904</v>
-      </c>
-      <c r="U35" s="23">
-        <f>T35+J35/2-1</f>
-        <v>1935535</v>
-      </c>
-      <c r="V35" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="W35" s="6">
-        <v>1</v>
-      </c>
-      <c r="X35" s="6">
-        <f>0.0000064*J35</f>
-        <v>0.27688960000000001</v>
-      </c>
-      <c r="Y35" s="6">
-        <f>K35*V35*W35</f>
-        <v>13411.84</v>
-      </c>
-      <c r="Z35" s="26"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="4">
-        <v>256</v>
-      </c>
-      <c r="E36" s="4">
-        <v>48</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="4">
-        <v>13</v>
-      </c>
-      <c r="J36" s="4">
-        <f>I36^2*E36</f>
-        <v>8112</v>
-      </c>
-      <c r="K36" s="4">
-        <f>I36^2*D36</f>
-        <v>43264</v>
-      </c>
-      <c r="L36" s="4">
-        <v>12288</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="18">
-        <f>N31+L31/2+E31/2</f>
-        <v>64304</v>
-      </c>
-      <c r="O36" s="18">
-        <f>N36+L36/2-1</f>
-        <v>70447</v>
-      </c>
-      <c r="P36" s="18">
-        <f>O36+1</f>
-        <v>70448</v>
-      </c>
-      <c r="Q36" s="18">
-        <f>P36+E36/2-1</f>
-        <v>70471</v>
-      </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18">
-        <f>U35+1</f>
-        <v>1935536</v>
-      </c>
-      <c r="U36" s="19">
-        <f>T36+J36/2-1</f>
-        <v>1939591</v>
-      </c>
-      <c r="V36" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W36" s="4">
-        <v>1</v>
-      </c>
-      <c r="X36" s="4">
-        <f>0.0000032*L36+0.0000064*J36</f>
-        <v>9.1238399999999997E-2</v>
-      </c>
-      <c r="Y36" s="4">
-        <f>K36*V36*W36</f>
-        <v>8652.8000000000011</v>
-      </c>
-      <c r="Z36" s="26"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="26"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="4">
-        <v>48</v>
-      </c>
-      <c r="E38" s="4">
-        <v>192</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="4">
-        <v>13</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" ref="J38:J39" si="20">I38^2*E38</f>
-        <v>32448</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" ref="K38:K39" si="21">I38^2*D38</f>
-        <v>8112</v>
-      </c>
-      <c r="L38" s="4">
-        <v>9216</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="18">
-        <f>N36+L36/2+E36/2</f>
-        <v>70472</v>
-      </c>
-      <c r="O38" s="18">
-        <f t="shared" ref="O38:O39" si="22">N38+L38/2-1</f>
-        <v>75079</v>
-      </c>
-      <c r="P38" s="18">
-        <f>O38+1</f>
-        <v>75080</v>
-      </c>
-      <c r="Q38" s="18">
-        <f>P38+E38/2-1</f>
-        <v>75175</v>
-      </c>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18">
-        <f>U36+1</f>
-        <v>1939592</v>
-      </c>
-      <c r="U38" s="19">
-        <f>T38+J38/2-1</f>
-        <v>1955815</v>
-      </c>
-      <c r="V38" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W38" s="4">
-        <v>0</v>
-      </c>
-      <c r="X38" s="4">
-        <f>0.0000032*L38+0.0000064*J38</f>
-        <v>0.23715839999999999</v>
-      </c>
-      <c r="Y38" s="4">
-        <f t="shared" ref="Y38:Y39" si="23">K38*V38*W38</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="26"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="4">
-        <v>48</v>
-      </c>
-      <c r="E39" s="4">
-        <v>192</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="4">
-        <v>13</v>
-      </c>
-      <c r="J39" s="4">
+      <c r="K47" s="40">
         <f t="shared" si="20"/>
         <v>32448</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L47" s="40">
         <f t="shared" si="21"/>
         <v>8112</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M47" s="40">
         <v>82944</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="18">
-        <f>N38+L38/2+E38/2</f>
-        <v>75176</v>
-      </c>
-      <c r="O39" s="18">
+      <c r="N47" s="40">
         <f t="shared" si="22"/>
-        <v>116647</v>
-      </c>
-      <c r="P39" s="18">
-        <f>O39+1</f>
-        <v>116648</v>
-      </c>
-      <c r="Q39" s="18">
-        <f>P39+E39/2-1</f>
-        <v>116743</v>
-      </c>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18">
-        <f>U38+1</f>
-        <v>1955816</v>
-      </c>
-      <c r="U39" s="19">
-        <f>T39+J39/2-1</f>
-        <v>1972039</v>
-      </c>
-      <c r="V39" s="4">
+        <v>192</v>
+      </c>
+      <c r="O47" s="41">
+        <f t="shared" si="23"/>
+        <v>41472</v>
+      </c>
+      <c r="P47" s="4">
         <v>0.2</v>
       </c>
-      <c r="W39" s="4">
-        <v>1</v>
-      </c>
-      <c r="X39" s="4">
-        <f>0.0000032*L39+0.0000064*J39</f>
+      <c r="Q47" s="4">
+        <v>1</v>
+      </c>
+      <c r="R47" s="4">
+        <f>0.0000032*M47+0.0000064*K47</f>
         <v>0.47308800000000001</v>
       </c>
-      <c r="Y39" s="4">
-        <f t="shared" si="23"/>
+      <c r="S47" s="4">
+        <f>L47*P47*Q47</f>
         <v>1622.4</v>
       </c>
-      <c r="Z39" s="26"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="T47" s="26"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="26"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="26"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="26"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="26"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3" t="s">
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J50" s="38">
         <v>13</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="26"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="26"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C51" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D51" s="40">
+        <v>1</v>
+      </c>
+      <c r="E51" s="40">
         <v>384</v>
       </c>
-      <c r="E43" s="4">
-        <v>48</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="F51" s="40">
+        <v>64</v>
+      </c>
+      <c r="G51" s="40">
+        <v>1</v>
+      </c>
+      <c r="H51" s="40">
         <v>0</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="4">
+      <c r="I51" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="40">
         <v>13</v>
       </c>
-      <c r="J43" s="4">
-        <f>I43^2*E43</f>
-        <v>8112</v>
-      </c>
-      <c r="K43" s="4">
-        <f>I43^2*D43</f>
+      <c r="K51" s="40">
+        <f>J51^2*F51</f>
+        <v>10816</v>
+      </c>
+      <c r="L51" s="40">
+        <f>J51^2*E51</f>
         <v>64896</v>
       </c>
-      <c r="L43" s="4">
-        <v>18432</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="18">
-        <f>N39+L39/2+E39/2</f>
-        <v>116744</v>
-      </c>
-      <c r="O43" s="18">
-        <f>N43+L43/2-1</f>
-        <v>125959</v>
-      </c>
-      <c r="P43" s="18">
-        <f>O43+1</f>
-        <v>125960</v>
-      </c>
-      <c r="Q43" s="18">
-        <f>P43+E43/2-1</f>
-        <v>125983</v>
-      </c>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18">
-        <f>U39+1</f>
-        <v>1972040</v>
-      </c>
-      <c r="U43" s="19">
-        <f>T43+J43/2-1</f>
-        <v>1976095</v>
-      </c>
-      <c r="V43" s="4">
+      <c r="M51" s="40">
+        <v>24576</v>
+      </c>
+      <c r="N51" s="40">
+        <f>F51</f>
+        <v>64</v>
+      </c>
+      <c r="O51" s="41">
+        <f>_xlfn.CEILING.MATH(D51^2*E51/2)*F51</f>
+        <v>12288</v>
+      </c>
+      <c r="P51" s="4">
         <v>0.2</v>
       </c>
-      <c r="W43" s="4">
-        <v>1</v>
-      </c>
-      <c r="X43" s="4">
-        <f>0.0000032*L43+0.0000064*J43</f>
-        <v>0.1108992</v>
-      </c>
-      <c r="Y43" s="4">
-        <f>K43*V43*W43</f>
+      <c r="Q51" s="4">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4">
+        <f>0.0000032*M51+0.0000064*K51</f>
+        <v>0.14786559999999999</v>
+      </c>
+      <c r="S51" s="4">
+        <f>L51*P51*Q51</f>
         <v>12979.2</v>
       </c>
-      <c r="Z43" s="26"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="T51" s="26"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="26"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="26"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C53" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="4">
-        <v>48</v>
-      </c>
-      <c r="E45" s="4">
-        <v>192</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="D53" s="40">
+        <v>1</v>
+      </c>
+      <c r="E53" s="40">
+        <v>64</v>
+      </c>
+      <c r="F53" s="40">
+        <v>256</v>
+      </c>
+      <c r="G53" s="40">
+        <v>1</v>
+      </c>
+      <c r="H53" s="40">
         <v>0</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="I53" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="40">
         <v>13</v>
       </c>
-      <c r="J45" s="4">
-        <f t="shared" ref="J45:J46" si="24">I45^2*E45</f>
-        <v>32448</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" ref="K45:K46" si="25">I45^2*D45</f>
-        <v>8112</v>
-      </c>
-      <c r="L45" s="4">
-        <v>9216</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="18">
-        <f>N43+L43/2+E43/2</f>
-        <v>125984</v>
-      </c>
-      <c r="O45" s="18">
-        <f t="shared" ref="O45:O46" si="26">N45+L45/2-1</f>
-        <v>130591</v>
-      </c>
-      <c r="P45" s="18">
-        <f t="shared" ref="P45:P46" si="27">O45+1</f>
-        <v>130592</v>
-      </c>
-      <c r="Q45" s="18">
-        <f>P45+E45/2-1</f>
-        <v>130687</v>
-      </c>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18">
-        <f>U43+1</f>
-        <v>1976096</v>
-      </c>
-      <c r="U45" s="19">
-        <f>T45+J45/2-1</f>
-        <v>1992319</v>
-      </c>
-      <c r="V45" s="4">
+      <c r="K53" s="40">
+        <f t="shared" ref="K53:K54" si="24">J53^2*F53</f>
+        <v>43264</v>
+      </c>
+      <c r="L53" s="40">
+        <f t="shared" ref="L53:L54" si="25">J53^2*E53</f>
+        <v>10816</v>
+      </c>
+      <c r="M53" s="40">
+        <v>16384</v>
+      </c>
+      <c r="N53" s="40">
+        <f t="shared" ref="N53:N54" si="26">F53</f>
+        <v>256</v>
+      </c>
+      <c r="O53" s="41">
+        <f t="shared" ref="O53:O54" si="27">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
+        <v>8192</v>
+      </c>
+      <c r="P53" s="4">
         <v>0.2</v>
       </c>
-      <c r="W45" s="4">
+      <c r="Q53" s="4">
         <v>0</v>
       </c>
-      <c r="X45" s="4">
-        <f>0.0000032*L45+0.0000064*J45</f>
-        <v>0.23715839999999999</v>
-      </c>
-      <c r="Y45" s="4">
-        <f t="shared" ref="Y45:Y46" si="28">K45*V45*W45</f>
+      <c r="R53" s="4">
+        <f>0.0000032*M53+0.0000064*K53</f>
+        <v>0.32931840000000001</v>
+      </c>
+      <c r="S53" s="4">
+        <f>L53*P53*Q53</f>
         <v>0</v>
       </c>
-      <c r="Z45" s="26"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="T53" s="26"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C54" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="4">
-        <v>48</v>
-      </c>
-      <c r="E46" s="4">
-        <v>192</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="4">
+      <c r="D54" s="40">
+        <v>3</v>
+      </c>
+      <c r="E54" s="40">
+        <v>64</v>
+      </c>
+      <c r="F54" s="40">
+        <v>256</v>
+      </c>
+      <c r="G54" s="40">
+        <v>1</v>
+      </c>
+      <c r="H54" s="40">
+        <v>1</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54" s="40">
         <v>13</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K54" s="40">
         <f t="shared" si="24"/>
-        <v>32448</v>
-      </c>
-      <c r="K46" s="4">
+        <v>43264</v>
+      </c>
+      <c r="L54" s="40">
         <f t="shared" si="25"/>
-        <v>8112</v>
-      </c>
-      <c r="L46" s="4">
-        <v>82944</v>
-      </c>
-      <c r="M46" s="10"/>
-      <c r="N46" s="18">
-        <f>N45+L45/2+E45/2</f>
-        <v>130688</v>
-      </c>
-      <c r="O46" s="18">
+        <v>10816</v>
+      </c>
+      <c r="M54" s="40">
+        <v>147456</v>
+      </c>
+      <c r="N54" s="40">
         <f t="shared" si="26"/>
-        <v>172159</v>
-      </c>
-      <c r="P46" s="18">
+        <v>256</v>
+      </c>
+      <c r="O54" s="41">
         <f t="shared" si="27"/>
-        <v>172160</v>
-      </c>
-      <c r="Q46" s="18">
-        <f>P46+E46/2-1</f>
-        <v>172255</v>
-      </c>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18">
-        <f>U45+1</f>
-        <v>1992320</v>
-      </c>
-      <c r="U46" s="19">
-        <f>T46+J46/2-1</f>
-        <v>2008543</v>
-      </c>
-      <c r="V46" s="4">
+        <v>73728</v>
+      </c>
+      <c r="P54" s="4">
         <v>0.2</v>
       </c>
-      <c r="W46" s="4">
-        <v>1</v>
-      </c>
-      <c r="X46" s="4">
-        <f>0.0000032*L46+0.0000064*J46</f>
-        <v>0.47308800000000001</v>
-      </c>
-      <c r="Y46" s="4">
+      <c r="Q54" s="4">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4">
+        <f>0.0000032*M54+0.0000064*K54</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="S54" s="4">
+        <f>L54*P54*Q54</f>
+        <v>2163.2000000000003</v>
+      </c>
+      <c r="T54" s="26"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="26"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="26"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="38">
+        <v>13</v>
+      </c>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="26"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="40">
+        <v>1</v>
+      </c>
+      <c r="E58" s="40">
+        <v>512</v>
+      </c>
+      <c r="F58" s="40">
+        <v>64</v>
+      </c>
+      <c r="G58" s="40">
+        <v>1</v>
+      </c>
+      <c r="H58" s="40">
+        <v>0</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="40">
+        <v>13</v>
+      </c>
+      <c r="K58" s="40">
+        <f>J58^2*F58</f>
+        <v>10816</v>
+      </c>
+      <c r="L58" s="40">
+        <f>J58^2*E58</f>
+        <v>86528</v>
+      </c>
+      <c r="M58" s="40">
+        <v>32768</v>
+      </c>
+      <c r="N58" s="40">
+        <f>F58</f>
+        <v>64</v>
+      </c>
+      <c r="O58" s="41">
+        <f>_xlfn.CEILING.MATH(D58^2*E58/2)*F58</f>
+        <v>16384</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4">
+        <f>0.0000032*M58+0.0000064*K58</f>
+        <v>0.17408000000000001</v>
+      </c>
+      <c r="S58" s="4">
+        <f>L58*P58*Q58</f>
+        <v>17305.600000000002</v>
+      </c>
+      <c r="T58" s="26"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="26"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="40">
+        <v>1</v>
+      </c>
+      <c r="E60" s="40">
+        <v>64</v>
+      </c>
+      <c r="F60" s="40">
+        <v>256</v>
+      </c>
+      <c r="G60" s="40">
+        <v>1</v>
+      </c>
+      <c r="H60" s="40">
+        <v>0</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="40">
+        <v>13</v>
+      </c>
+      <c r="K60" s="40">
+        <f t="shared" ref="K60:K61" si="28">J60^2*F60</f>
+        <v>43264</v>
+      </c>
+      <c r="L60" s="40">
+        <f t="shared" ref="L60:L61" si="29">J60^2*E60</f>
+        <v>10816</v>
+      </c>
+      <c r="M60" s="40">
+        <v>16384</v>
+      </c>
+      <c r="N60" s="40">
+        <f t="shared" ref="N60:N61" si="30">F60</f>
+        <v>256</v>
+      </c>
+      <c r="O60" s="41">
+        <f t="shared" ref="O60:O61" si="31">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
+        <v>8192</v>
+      </c>
+      <c r="P60" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>0</v>
+      </c>
+      <c r="R60" s="4">
+        <f>0.0000032*M60+0.0000064*K60</f>
+        <v>0.32931840000000001</v>
+      </c>
+      <c r="S60" s="4">
+        <f>L60*P60*Q60</f>
+        <v>0</v>
+      </c>
+      <c r="T60" s="26"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="40">
+        <v>3</v>
+      </c>
+      <c r="E61" s="40">
+        <v>64</v>
+      </c>
+      <c r="F61" s="40">
+        <v>256</v>
+      </c>
+      <c r="G61" s="40">
+        <v>1</v>
+      </c>
+      <c r="H61" s="40">
+        <v>1</v>
+      </c>
+      <c r="I61" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="40">
+        <v>13</v>
+      </c>
+      <c r="K61" s="40">
         <f t="shared" si="28"/>
-        <v>1622.4</v>
-      </c>
-      <c r="Z46" s="26"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="5" t="s">
+        <v>43264</v>
+      </c>
+      <c r="L61" s="40">
+        <f t="shared" si="29"/>
+        <v>10816</v>
+      </c>
+      <c r="M61" s="40">
+        <v>147456</v>
+      </c>
+      <c r="N61" s="40">
+        <f t="shared" si="30"/>
+        <v>256</v>
+      </c>
+      <c r="O61" s="41">
+        <f t="shared" si="31"/>
+        <v>73728</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>1</v>
+      </c>
+      <c r="R61" s="4">
+        <f>0.0000032*M61+0.0000064*K61</f>
+        <v>0.74874879999999999</v>
+      </c>
+      <c r="S61" s="4">
+        <f>L61*P61*Q61</f>
+        <v>2163.2000000000003</v>
+      </c>
+      <c r="T61" s="26"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="26"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="26"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="26"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="26"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" s="38">
         <v>13</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="26"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="26"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="26"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C66" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="4">
-        <v>384</v>
-      </c>
-      <c r="E50" s="4">
-        <v>64</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="D66" s="40">
+        <v>1</v>
+      </c>
+      <c r="E66" s="40">
+        <v>512</v>
+      </c>
+      <c r="F66" s="40">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="40">
+        <v>1</v>
+      </c>
+      <c r="H66" s="40">
         <v>0</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I50" s="4">
+      <c r="I66" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" s="40">
         <v>13</v>
       </c>
-      <c r="J50" s="4">
-        <f>I50^2*E50</f>
-        <v>10816</v>
-      </c>
-      <c r="K50" s="4">
-        <f>I50^2*D50</f>
-        <v>64896</v>
-      </c>
-      <c r="L50" s="4">
-        <v>24576</v>
-      </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="18">
-        <f>N46+L46/2+E46/2</f>
-        <v>172256</v>
-      </c>
-      <c r="O50" s="18">
-        <f>N50+L50/2-1</f>
-        <v>184543</v>
-      </c>
-      <c r="P50" s="18">
-        <f>O50+1</f>
-        <v>184544</v>
-      </c>
-      <c r="Q50" s="18">
-        <f>P50+E50/2-1</f>
-        <v>184575</v>
-      </c>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18">
-        <f>U46+1</f>
-        <v>2008544</v>
-      </c>
-      <c r="U50" s="19">
-        <f>T50+J50/2-1</f>
-        <v>2013951</v>
-      </c>
-      <c r="V50" s="4">
+      <c r="K66" s="40">
+        <f>J66^2*F66</f>
+        <v>169000</v>
+      </c>
+      <c r="L66" s="40">
+        <f>J66^2*E66</f>
+        <v>86528</v>
+      </c>
+      <c r="M66" s="40">
+        <v>512000</v>
+      </c>
+      <c r="N66" s="40">
+        <f>F66</f>
+        <v>1000</v>
+      </c>
+      <c r="O66" s="41">
+        <f>_xlfn.CEILING.MATH(D66^2*E66/2)*F66</f>
+        <v>256000</v>
+      </c>
+      <c r="P66" s="4">
         <v>0.2</v>
       </c>
-      <c r="W50" s="4">
-        <v>1</v>
-      </c>
-      <c r="X50" s="4">
-        <f>0.0000032*L50+0.0000064*J50</f>
-        <v>0.14786559999999999</v>
-      </c>
-      <c r="Y50" s="4">
-        <f>K50*V50*W50</f>
-        <v>12979.2</v>
-      </c>
-      <c r="Z50" s="26"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="Q66" s="4">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4">
+        <f>0.0000032*M66+0.0000064*K66</f>
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="S66" s="4">
+        <f>L66*P66*Q66</f>
+        <v>17305.600000000002</v>
+      </c>
+      <c r="T66" s="26"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="26"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="4">
-        <v>64</v>
-      </c>
-      <c r="E52" s="4">
-        <v>256</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="26"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44">
+        <v>1000</v>
+      </c>
+      <c r="G68" s="44">
+        <v>1</v>
+      </c>
+      <c r="H68" s="44">
         <v>0</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" s="4">
-        <v>13</v>
-      </c>
-      <c r="J52" s="4">
-        <f t="shared" ref="J52:J53" si="29">I52^2*E52</f>
-        <v>43264</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" ref="K52:K53" si="30">I52^2*D52</f>
-        <v>10816</v>
-      </c>
-      <c r="L52" s="4">
-        <v>16384</v>
-      </c>
-      <c r="M52" s="10"/>
-      <c r="N52" s="18">
-        <f>N50+L50/2+E50/2</f>
-        <v>184576</v>
-      </c>
-      <c r="O52" s="18">
-        <f t="shared" ref="O52:O53" si="31">N52+L52/2-1</f>
-        <v>192767</v>
-      </c>
-      <c r="P52" s="18">
-        <f t="shared" ref="P52:P53" si="32">O52+1</f>
-        <v>192768</v>
-      </c>
-      <c r="Q52" s="18">
-        <f>P52+E52/2-1</f>
-        <v>192895</v>
-      </c>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18">
-        <f>U50+1</f>
-        <v>2013952</v>
-      </c>
-      <c r="U52" s="19">
-        <f>T52+J52/2-1</f>
-        <v>2035583</v>
-      </c>
-      <c r="V52" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W52" s="4">
-        <v>0</v>
-      </c>
-      <c r="X52" s="4">
-        <f>0.0000032*L52+0.0000064*J52</f>
-        <v>0.32931840000000001</v>
-      </c>
-      <c r="Y52" s="4">
-        <f t="shared" ref="Y52:Y53" si="33">K52*V52*W52</f>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="26"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="4">
-        <v>64</v>
-      </c>
-      <c r="E53" s="4">
-        <v>256</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="4">
-        <v>13</v>
-      </c>
-      <c r="J53" s="4">
-        <f t="shared" si="29"/>
-        <v>43264</v>
-      </c>
-      <c r="K53" s="4">
-        <f t="shared" si="30"/>
-        <v>10816</v>
-      </c>
-      <c r="L53" s="4">
-        <v>147456</v>
-      </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="18">
-        <f>N52+L52/2+E52/2</f>
-        <v>192896</v>
-      </c>
-      <c r="O53" s="18">
-        <f t="shared" si="31"/>
-        <v>266623</v>
-      </c>
-      <c r="P53" s="18">
-        <f t="shared" si="32"/>
-        <v>266624</v>
-      </c>
-      <c r="Q53" s="18">
-        <f>P53+E53/2-1</f>
-        <v>266751</v>
-      </c>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18">
-        <f>U52+1</f>
-        <v>2035584</v>
-      </c>
-      <c r="U53" s="19">
-        <f>T53+J53/2-1</f>
-        <v>2057215</v>
-      </c>
-      <c r="V53" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W53" s="4">
-        <v>1</v>
-      </c>
-      <c r="X53" s="4">
-        <f>0.0000032*L53+0.0000064*J53</f>
-        <v>0.74874879999999999</v>
-      </c>
-      <c r="Y53" s="4">
-        <f t="shared" si="33"/>
-        <v>2163.2000000000003</v>
-      </c>
-      <c r="Z53" s="26"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="26"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="26"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56" s="3">
-        <v>13</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="26"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="4">
-        <v>512</v>
-      </c>
-      <c r="E57" s="4">
-        <v>64</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" s="4">
-        <v>13</v>
-      </c>
-      <c r="J57" s="4">
-        <f>I57^2*E57</f>
-        <v>10816</v>
-      </c>
-      <c r="K57" s="4">
-        <f>I57^2*D57</f>
-        <v>86528</v>
-      </c>
-      <c r="L57" s="4">
-        <v>32768</v>
-      </c>
-      <c r="M57" s="10"/>
-      <c r="N57" s="18">
-        <f>N53+L53/2+E53/2</f>
-        <v>266752</v>
-      </c>
-      <c r="O57" s="18">
-        <f>N57+L57/2-1</f>
-        <v>283135</v>
-      </c>
-      <c r="P57" s="18">
-        <f>O57+1</f>
-        <v>283136</v>
-      </c>
-      <c r="Q57" s="18">
-        <f>P57+E57/2-1</f>
-        <v>283167</v>
-      </c>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18">
-        <f>U53+1</f>
-        <v>2057216</v>
-      </c>
-      <c r="U57" s="19">
-        <f>T57+J57/2-1</f>
-        <v>2062623</v>
-      </c>
-      <c r="V57" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W57" s="4">
-        <v>1</v>
-      </c>
-      <c r="X57" s="4">
-        <f>0.0000032*L57+0.0000064*J57</f>
-        <v>0.17408000000000001</v>
-      </c>
-      <c r="Y57" s="4">
-        <f>K57*V57*W57</f>
-        <v>17305.600000000002</v>
-      </c>
-      <c r="Z57" s="26"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="26"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="4">
-        <v>64</v>
-      </c>
-      <c r="E59" s="4">
-        <v>256</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="4">
-        <v>13</v>
-      </c>
-      <c r="J59" s="4">
-        <f t="shared" ref="J59:J60" si="34">I59^2*E59</f>
-        <v>43264</v>
-      </c>
-      <c r="K59" s="4">
-        <f t="shared" ref="K59:K60" si="35">I59^2*D59</f>
-        <v>10816</v>
-      </c>
-      <c r="L59" s="4">
-        <v>16384</v>
-      </c>
-      <c r="M59" s="10"/>
-      <c r="N59" s="18">
-        <f>N57+L57/2+E57/2</f>
-        <v>283168</v>
-      </c>
-      <c r="O59" s="18">
-        <f t="shared" ref="O59:O60" si="36">N59+L59/2-1</f>
-        <v>291359</v>
-      </c>
-      <c r="P59" s="18">
-        <f t="shared" ref="P59:P60" si="37">O59+1</f>
-        <v>291360</v>
-      </c>
-      <c r="Q59" s="18">
-        <f>P59+E59/2-1</f>
-        <v>291487</v>
-      </c>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18">
-        <f>U57+1</f>
-        <v>2062624</v>
-      </c>
-      <c r="U59" s="19">
-        <f>T59+J59/2-1</f>
-        <v>2084255</v>
-      </c>
-      <c r="V59" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W59" s="4">
-        <v>0</v>
-      </c>
-      <c r="X59" s="4">
-        <f>0.0000032*L59+0.0000064*J59</f>
-        <v>0.32931840000000001</v>
-      </c>
-      <c r="Y59" s="4">
-        <f t="shared" ref="Y59:Y60" si="38">K59*V59*W59</f>
-        <v>0</v>
-      </c>
-      <c r="Z59" s="26"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="4">
-        <v>64</v>
-      </c>
-      <c r="E60" s="4">
-        <v>256</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="4">
-        <v>13</v>
-      </c>
-      <c r="J60" s="4">
-        <f t="shared" si="34"/>
-        <v>43264</v>
-      </c>
-      <c r="K60" s="4">
-        <f t="shared" si="35"/>
-        <v>10816</v>
-      </c>
-      <c r="L60" s="4">
-        <v>147456</v>
-      </c>
-      <c r="M60" s="10"/>
-      <c r="N60" s="18">
-        <f>N59+L59/2+E59/2</f>
-        <v>291488</v>
-      </c>
-      <c r="O60" s="18">
-        <f t="shared" si="36"/>
-        <v>365215</v>
-      </c>
-      <c r="P60" s="18">
-        <f t="shared" si="37"/>
-        <v>365216</v>
-      </c>
-      <c r="Q60" s="18">
-        <f>P60+E60/2-1</f>
-        <v>365343</v>
-      </c>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18">
-        <f>U59+1</f>
-        <v>2084256</v>
-      </c>
-      <c r="U60" s="19">
-        <f>T60+J60/2-1</f>
-        <v>2105887</v>
-      </c>
-      <c r="V60" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W60" s="4">
-        <v>1</v>
-      </c>
-      <c r="X60" s="4">
-        <f>0.0000032*L60+0.0000064*J60</f>
-        <v>0.74874879999999999</v>
-      </c>
-      <c r="Y60" s="4">
-        <f t="shared" si="38"/>
-        <v>2163.2000000000003</v>
-      </c>
-      <c r="Z60" s="26"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="26"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="26"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="3">
-        <v>13</v>
-      </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="26"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="26"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="4">
-        <v>512</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="I68" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" s="44">
+        <v>1</v>
+      </c>
+      <c r="K68" s="44">
+        <f>J68^2*F68</f>
         <v>1000</v>
       </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="4">
-        <v>13</v>
-      </c>
-      <c r="J65" s="4">
-        <f>I65^2*E65</f>
-        <v>169000</v>
-      </c>
-      <c r="K65" s="4">
-        <f>I65^2*D65</f>
-        <v>86528</v>
-      </c>
-      <c r="L65" s="4">
-        <v>512000</v>
-      </c>
-      <c r="M65" s="10"/>
-      <c r="N65" s="18">
-        <f>N60+L60/2+E60/2</f>
-        <v>365344</v>
-      </c>
-      <c r="O65" s="18">
-        <f>N65+L65/2-1</f>
-        <v>621343</v>
-      </c>
-      <c r="P65" s="18">
-        <f>O65+1</f>
-        <v>621344</v>
-      </c>
-      <c r="Q65" s="18">
-        <f>P65+E65/2-1</f>
-        <v>621843</v>
-      </c>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18">
-        <f>U60+1</f>
-        <v>2105888</v>
-      </c>
-      <c r="U65" s="19">
-        <f>T65+J65/2-1</f>
-        <v>2190387</v>
-      </c>
-      <c r="V65" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="W65" s="4">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4">
-        <f>0.0000032*L65+0.0000064*J65</f>
-        <v>2.7199999999999998</v>
-      </c>
-      <c r="Y65" s="4">
-        <f>K65*V65*W65</f>
-        <v>17305.600000000002</v>
-      </c>
-      <c r="Z65" s="26"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="26"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6">
+      <c r="L68" s="44">
+        <f>K68</f>
         <v>1000</v>
       </c>
-      <c r="F67" s="6">
-        <v>1</v>
-      </c>
-      <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I67" s="6">
-        <v>1</v>
-      </c>
-      <c r="J67" s="6">
-        <f>I67^2*E67</f>
-        <v>1000</v>
-      </c>
-      <c r="K67" s="6">
-        <f>J67</f>
-        <v>1000</v>
-      </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22">
-        <f>U65+1</f>
-        <v>2190388</v>
-      </c>
-      <c r="U67" s="23">
-        <f>T67+J67/2-1</f>
-        <v>2190887</v>
-      </c>
-      <c r="V67" s="6">
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="6">
         <v>1.2</v>
       </c>
-      <c r="W67" s="6">
-        <v>1</v>
-      </c>
-      <c r="X67" s="6">
-        <f>0.0000064*J67</f>
+      <c r="Q68" s="6">
+        <v>1</v>
+      </c>
+      <c r="R68" s="6">
+        <f>0.0000064*K68</f>
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="Y67" s="6">
-        <f>K67*V67*W67</f>
+      <c r="S68" s="6">
+        <f>L68*P68*Q68</f>
         <v>1200</v>
       </c>
-      <c r="Z67" s="26"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+      <c r="T68" s="26"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="26"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26">
-        <f>SUM(J2:J68)</f>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="26"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A70" s="13"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35">
+        <f>SUM(K3:K69)</f>
         <v>3071056</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26">
-        <f>SUM(L3:L68)</f>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35">
+        <f>SUM(M4:M69)</f>
         <v>1231552</v>
       </c>
-      <c r="M69" s="13"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26">
-        <f>SUM(X2:X68)</f>
+      <c r="N70" s="35">
+        <f>SUM(N4:N69)</f>
+        <v>3944</v>
+      </c>
+      <c r="O70" s="37">
+        <f>SUM(O4:O69)</f>
+        <v>619904</v>
+      </c>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26">
+        <f>SUM(R3:R69)</f>
         <v>23.114035199999996</v>
       </c>
-      <c r="Y69" s="26">
-        <f t="shared" ref="Y69" si="39">SUM(Y3:Y68)</f>
+      <c r="S70" s="26">
+        <f t="shared" ref="S70" si="32">SUM(S4:S69)</f>
         <v>388579.16000000003</v>
       </c>
-      <c r="Z69" s="26"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26">
-        <f>J69*16/1024/8</f>
+      <c r="T70" s="26"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A71" s="13"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35">
+        <f>K70*16/1024/8</f>
         <v>5998.15625</v>
       </c>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26">
-        <f>L69*16/1024/8</f>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35">
+        <f>M70*16/1024/8</f>
         <v>2405.375</v>
       </c>
-      <c r="M70" s="13"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="25"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="26"/>
-      <c r="X70" s="26"/>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="26"/>
+      <c r="N71" s="35">
+        <f>M70+N70</f>
+        <v>1235496</v>
+      </c>
+      <c r="O71" s="37"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B70" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
-  <mergeCells count="5">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
+  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6441C75-318D-40B4-9687-733D3CBB9083}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F17E8-C6D4-4CC8-931F-A2A0F89888FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="153">
   <si>
     <t>INPUT</t>
   </si>
@@ -394,10 +394,106 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>Aligned(2B)</t>
-  </si>
-  <si>
-    <t>Bias Num</t>
+    <t>WB addr</t>
+  </si>
+  <si>
+    <t>data staddr</t>
+  </si>
+  <si>
+    <t>wgt staddr</t>
+  </si>
+  <si>
+    <t>oiknsize</t>
+  </si>
+  <si>
+    <t>oichsize</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>????_0101</t>
+  </si>
+  <si>
+    <t>????_0212</t>
+  </si>
+  <si>
+    <t>????_0103</t>
+  </si>
+  <si>
+    <t>0040_0003</t>
+  </si>
+  <si>
+    <t>0010_0040</t>
+  </si>
+  <si>
+    <t>0040_0010</t>
+  </si>
+  <si>
+    <t>0010_0080</t>
+  </si>
+  <si>
+    <t>0020_0080</t>
+  </si>
+  <si>
+    <t>0020_0100</t>
+  </si>
+  <si>
+    <t>0080_0020</t>
+  </si>
+  <si>
+    <t>0030_0100</t>
+  </si>
+  <si>
+    <t>00c0_0030</t>
+  </si>
+  <si>
+    <t>0030_0180</t>
+  </si>
+  <si>
+    <t>0040_0180</t>
+  </si>
+  <si>
+    <t>0100_0040</t>
+  </si>
+  <si>
+    <t>0040_0200</t>
+  </si>
+  <si>
+    <t>03e8_0200</t>
+  </si>
+  <si>
+    <t>006f_0003</t>
+  </si>
+  <si>
+    <t>0037_0001</t>
+  </si>
+  <si>
+    <t>001b_0001</t>
+  </si>
+  <si>
+    <t>000d_0001</t>
+  </si>
+  <si>
+    <t>Single OP</t>
+  </si>
+  <si>
+    <t>Time(us)</t>
+  </si>
+  <si>
+    <t>Memory Access</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>2B Aligned</t>
   </si>
 </sst>
 </file>
@@ -513,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -591,25 +687,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,6 +725,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1021,32 +1174,32 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="29"/>
+      <c r="S1" s="62"/>
       <c r="T1" s="14" t="s">
         <v>115</v>
       </c>
@@ -4870,3126 +5023,4463 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.7265625" style="47"/>
-    <col min="9" max="9" width="10.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="47"/>
-    <col min="12" max="12" width="10.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.90625" style="47" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" style="48" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7265625" style="41"/>
+    <col min="9" max="9" width="10.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="41"/>
+    <col min="12" max="12" width="10.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" style="41" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.81640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="34"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="35" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" s="26" t="s">
+      <c r="S2" s="69"/>
+      <c r="T2" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="69"/>
+      <c r="V2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" s="26" t="s">
+      <c r="AA2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC2" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32">
         <v>3</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="32">
         <v>224</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="32">
         <f>J3^2*F3</f>
         <v>150528</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="54">
+        <f>R4</f>
+        <v>805888</v>
+      </c>
+      <c r="Q3" s="16" t="str">
+        <f>DEC2HEX(P3)</f>
+        <v>C4C00</v>
+      </c>
+      <c r="R3" s="16">
+        <v>655360</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3">
         <f>0.0000032*K3</f>
         <v>0.4816896</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="26" t="s">
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="34">
         <v>3</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="34">
         <v>3</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="34">
         <v>64</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="34">
         <v>2</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="34">
         <v>0</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="34">
         <v>111</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="34">
         <f>J4^2*F4</f>
         <v>788544</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="34">
         <f>J4^2*E4</f>
         <v>36963</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="34">
+        <f>D4^2*E4*F4</f>
         <v>1728</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="34">
         <f>F4</f>
         <v>64</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="35">
         <f>_xlfn.CEILING.MATH(D4^2*E4/2)*F4</f>
         <v>896</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="55">
+        <f>R6</f>
+        <v>1594432</v>
+      </c>
+      <c r="Q4" s="18" t="str">
+        <f>DEC2HEX(P4)</f>
+        <v>185440</v>
+      </c>
+      <c r="R4" s="18">
+        <f>R3+K3</f>
+        <v>805888</v>
+      </c>
+      <c r="S4" s="18" t="str">
+        <f>DEC2HEX(R4)</f>
+        <v>C4C00</v>
+      </c>
+      <c r="T4" s="18">
+        <v>4096</v>
+      </c>
+      <c r="U4" s="18" t="str">
+        <f>DEC2HEX(T4)</f>
+        <v>1000</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="Z4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
         <f>0.0000032*M4+0.0000064*K4</f>
         <v>5.0522111999999995</v>
       </c>
-      <c r="S4" s="4">
-        <f>L4*P4*Q4</f>
+      <c r="AB4" s="4">
+        <f>L4*Y4*Z4</f>
         <v>7392.6</v>
       </c>
-      <c r="T4" s="26"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC4" s="26"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="26"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="26"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38">
         <v>64</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="38">
         <v>2</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="38">
         <v>0</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="38">
         <v>55</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="38">
         <f>J6^2*F6</f>
         <v>193600</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="38">
         <f>K6</f>
         <v>193600</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="6">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="57">
+        <f>R7</f>
+        <v>1788032</v>
+      </c>
+      <c r="Q6" s="22" t="str">
+        <f>DEC2HEX(P6)</f>
+        <v>1B4880</v>
+      </c>
+      <c r="R6" s="22">
+        <f>R4+K4</f>
+        <v>1594432</v>
+      </c>
+      <c r="S6" s="22" t="str">
+        <f>DEC2HEX(R6)</f>
+        <v>185440</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="6">
         <v>0.31</v>
       </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
         <f>0.0000064*K6</f>
         <v>1.2390399999999999</v>
       </c>
-      <c r="S6" s="6">
-        <f>L6*P6*Q6</f>
+      <c r="AB6" s="6">
+        <f>L6*Y6*Z6</f>
         <v>60016</v>
       </c>
-      <c r="T6" s="26"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC6" s="26"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="40">
-        <v>1</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34">
         <v>64</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="34">
         <v>16</v>
       </c>
-      <c r="G7" s="40">
-        <v>1</v>
-      </c>
-      <c r="H7" s="40">
+      <c r="G7" s="34">
+        <v>1</v>
+      </c>
+      <c r="H7" s="34">
         <v>0</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="34">
         <v>55</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="34">
         <f>J7^2*F7</f>
         <v>48400</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="34">
         <f>J7^2*E7</f>
         <v>193600</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="34">
+        <f>D7^2*E7*F7</f>
         <v>1024</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="34">
         <f>F7</f>
         <v>16</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="35">
         <f>_xlfn.CEILING.MATH(D7^2*E7/2)*F7</f>
         <v>512</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="55">
+        <f>R9</f>
+        <v>1836432</v>
+      </c>
+      <c r="Q7" s="18" t="str">
+        <f>DEC2HEX(P7)</f>
+        <v>1C0590</v>
+      </c>
+      <c r="R7" s="18">
+        <f>R6+K6</f>
+        <v>1788032</v>
+      </c>
+      <c r="S7" s="18" t="str">
+        <f>DEC2HEX(R7)</f>
+        <v>1B4880</v>
+      </c>
+      <c r="T7" s="18">
+        <f>T4+O4</f>
+        <v>4992</v>
+      </c>
+      <c r="U7" s="18" t="str">
+        <f>DEC2HEX(T7)</f>
+        <v>1380</v>
+      </c>
+      <c r="V7" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W7" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="X7" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y7" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="4">
         <f>0.0000032*M7+0.0000064*K7</f>
         <v>0.3130368</v>
       </c>
-      <c r="S7" s="4">
-        <f>L7*P7*Q7</f>
+      <c r="AB7" s="4">
+        <f>L7*Y7*Z7</f>
         <v>38720</v>
       </c>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC7" s="26"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="26"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="26"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="40">
-        <v>1</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+      <c r="E9" s="34">
         <v>16</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="34">
         <v>64</v>
       </c>
-      <c r="G9" s="40">
-        <v>1</v>
-      </c>
-      <c r="H9" s="40">
+      <c r="G9" s="34">
+        <v>1</v>
+      </c>
+      <c r="H9" s="34">
         <v>0</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="34">
         <v>55</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="34">
         <f t="shared" ref="K9:K10" si="0">J9^2*F9</f>
         <v>193600</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="34">
         <f t="shared" ref="L9:L10" si="1">J9^2*E9</f>
         <v>48400</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="34">
+        <f t="shared" ref="M9:M10" si="2">D9^2*E9*F9</f>
         <v>1024</v>
       </c>
-      <c r="N9" s="40">
-        <f t="shared" ref="N9:N10" si="2">F9</f>
+      <c r="N9" s="34">
+        <f t="shared" ref="N9:N10" si="3">F9</f>
         <v>64</v>
       </c>
-      <c r="O9" s="41">
-        <f t="shared" ref="O9:O10" si="3">_xlfn.CEILING.MATH(D9^2*E9/2)*F9</f>
+      <c r="O9" s="35">
+        <f t="shared" ref="O9:O10" si="4">_xlfn.CEILING.MATH(D9^2*E9/2)*F9</f>
         <v>512</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="55">
+        <f>R10</f>
+        <v>2030032</v>
+      </c>
+      <c r="Q9" s="18" t="str">
+        <f t="shared" ref="Q9:Q10" si="5">DEC2HEX(P9)</f>
+        <v>1EF9D0</v>
+      </c>
+      <c r="R9" s="18">
+        <f>R7+K7</f>
+        <v>1836432</v>
+      </c>
+      <c r="S9" s="18" t="str">
+        <f t="shared" ref="S9:S10" si="6">DEC2HEX(R9)</f>
+        <v>1C0590</v>
+      </c>
+      <c r="T9" s="18">
+        <f>T7+O7</f>
+        <v>5504</v>
+      </c>
+      <c r="U9" s="18" t="str">
+        <f t="shared" ref="U9:U10" si="7">DEC2HEX(T9)</f>
+        <v>1580</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="X9" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y9" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Z9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="4">
+      <c r="AA9" s="4">
         <f>0.0000032*M9+0.0000064*K9</f>
         <v>1.2423168</v>
       </c>
-      <c r="S9" s="4">
-        <f>L9*P9*Q9</f>
+      <c r="AB9" s="4">
+        <f>L9*Y9*Z9</f>
         <v>0</v>
       </c>
-      <c r="T9" s="26"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC9" s="26"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="34">
         <v>3</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="34">
         <v>16</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="34">
         <v>64</v>
       </c>
-      <c r="G10" s="40">
-        <v>1</v>
-      </c>
-      <c r="H10" s="40">
-        <v>1</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="H10" s="34">
+        <v>1</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="34">
         <v>55</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="34">
         <f t="shared" si="0"/>
         <v>193600</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="34">
         <f t="shared" si="1"/>
         <v>48400</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="34">
+        <f t="shared" si="2"/>
         <v>9216</v>
       </c>
-      <c r="N10" s="40">
-        <f t="shared" si="2"/>
+      <c r="N10" s="34">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="O10" s="41">
-        <f t="shared" si="3"/>
+      <c r="O10" s="35">
+        <f t="shared" si="4"/>
         <v>4608</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="55">
+        <f>R14</f>
+        <v>2223632</v>
+      </c>
+      <c r="Q10" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>21EE10</v>
+      </c>
+      <c r="R10" s="18">
+        <f>R9+K9</f>
+        <v>2030032</v>
+      </c>
+      <c r="S10" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>1EF9D0</v>
+      </c>
+      <c r="T10" s="18">
+        <f>T9+O9</f>
+        <v>6016</v>
+      </c>
+      <c r="U10" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>1780</v>
+      </c>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="Z10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="4">
         <f>0.0000032*M10+0.0000064*K10</f>
         <v>1.2685312</v>
       </c>
-      <c r="S10" s="4">
-        <f>L10*P10*Q10</f>
+      <c r="AB10" s="4">
+        <f>L10*Y10*Z10</f>
         <v>9680</v>
       </c>
-      <c r="T10" s="26"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC10" s="26"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="26"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="26"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="26"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="26"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="32">
         <v>55</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="26"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="26"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="40">
-        <v>1</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34">
         <v>128</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="34">
         <v>16</v>
       </c>
-      <c r="G14" s="40">
-        <v>1</v>
-      </c>
-      <c r="H14" s="40">
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="H14" s="34">
         <v>0</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="34">
         <v>55</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="34">
         <f>J14^2*F14</f>
         <v>48400</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="34">
         <f>J14^2*E14</f>
         <v>387200</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="34">
+        <f>D14^2*E14*F14</f>
         <v>2048</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="34">
         <f>F14</f>
         <v>16</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="35">
         <f>_xlfn.CEILING.MATH(D14^2*E14/2)*F14</f>
         <v>1024</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="55">
+        <f>R16</f>
+        <v>2272032</v>
+      </c>
+      <c r="Q14" s="18" t="str">
+        <f>DEC2HEX(P14)</f>
+        <v>22AB20</v>
+      </c>
+      <c r="R14" s="18">
+        <f>R10+K10</f>
+        <v>2223632</v>
+      </c>
+      <c r="S14" s="18" t="str">
+        <f>DEC2HEX(R14)</f>
+        <v>21EE10</v>
+      </c>
+      <c r="T14" s="18">
+        <f>T10+O10</f>
+        <v>10624</v>
+      </c>
+      <c r="U14" s="18" t="str">
+        <f>DEC2HEX(T14)</f>
+        <v>2980</v>
+      </c>
+      <c r="V14" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y14" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q14" s="4">
-        <v>1</v>
-      </c>
-      <c r="R14" s="4">
+      <c r="Z14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="4">
         <f>0.0000032*M14+0.0000064*K14</f>
         <v>0.31631359999999997</v>
       </c>
-      <c r="S14" s="4">
-        <f>L14*P14*Q14</f>
+      <c r="AB14" s="4">
+        <f>L14*Y14*Z14</f>
         <v>77440</v>
       </c>
-      <c r="T14" s="26"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC14" s="26"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="26"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="40">
-        <v>3</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="34">
         <v>16</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="34">
         <v>64</v>
       </c>
-      <c r="G16" s="40">
-        <v>1</v>
-      </c>
-      <c r="H16" s="40">
+      <c r="G16" s="34">
+        <v>1</v>
+      </c>
+      <c r="H16" s="34">
         <v>0</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="34">
         <v>55</v>
       </c>
-      <c r="K16" s="40">
-        <f t="shared" ref="K16:K17" si="4">J16^2*F16</f>
+      <c r="K16" s="34">
+        <f t="shared" ref="K16:K17" si="8">J16^2*F16</f>
         <v>193600</v>
       </c>
-      <c r="L16" s="40">
-        <f t="shared" ref="L16:L17" si="5">J16^2*E16</f>
+      <c r="L16" s="34">
+        <f t="shared" ref="L16:L17" si="9">J16^2*E16</f>
         <v>48400</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="34">
+        <f t="shared" ref="M16:M17" si="10">D16^2*E16*F16</f>
         <v>1024</v>
       </c>
-      <c r="N16" s="40">
-        <f t="shared" ref="N16:N17" si="6">F16</f>
+      <c r="N16" s="34">
+        <f t="shared" ref="N16:N17" si="11">F16</f>
         <v>64</v>
       </c>
-      <c r="O16" s="41">
-        <f t="shared" ref="O16:O17" si="7">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
-        <v>4608</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="O16" s="35">
+        <f t="shared" ref="O16:O17" si="12">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
+        <v>512</v>
+      </c>
+      <c r="P16" s="55">
+        <f>R17</f>
+        <v>2465632</v>
+      </c>
+      <c r="Q16" s="18" t="str">
+        <f t="shared" ref="Q16:Q17" si="13">DEC2HEX(P16)</f>
+        <v>259F60</v>
+      </c>
+      <c r="R16" s="18">
+        <f>R14+K14</f>
+        <v>2272032</v>
+      </c>
+      <c r="S16" s="18" t="str">
+        <f t="shared" ref="S16:S17" si="14">DEC2HEX(R16)</f>
+        <v>22AB20</v>
+      </c>
+      <c r="T16" s="18">
+        <f>T14+O14</f>
+        <v>11648</v>
+      </c>
+      <c r="U16" s="18" t="str">
+        <f t="shared" ref="U16:U17" si="15">DEC2HEX(T16)</f>
+        <v>2D80</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Z16" s="4">
         <v>0</v>
       </c>
-      <c r="R16" s="4">
+      <c r="AA16" s="4">
         <f>0.0000032*M16+0.0000064*K16</f>
         <v>1.2423168</v>
       </c>
-      <c r="S16" s="4">
-        <f>L16*P16*Q16</f>
+      <c r="AB16" s="4">
+        <f>L16*Y16*Z16</f>
         <v>0</v>
       </c>
-      <c r="T16" s="26"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC16" s="26"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="34">
         <v>3</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="34">
         <v>16</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="34">
         <v>64</v>
       </c>
-      <c r="G17" s="40">
-        <v>1</v>
-      </c>
-      <c r="H17" s="40">
-        <v>1</v>
-      </c>
-      <c r="I17" s="40" t="s">
+      <c r="G17" s="34">
+        <v>1</v>
+      </c>
+      <c r="H17" s="34">
+        <v>1</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="34">
         <v>55</v>
       </c>
-      <c r="K17" s="40">
-        <f t="shared" si="4"/>
+      <c r="K17" s="34">
+        <f t="shared" si="8"/>
         <v>193600</v>
       </c>
-      <c r="L17" s="40">
-        <f t="shared" si="5"/>
+      <c r="L17" s="34">
+        <f t="shared" si="9"/>
         <v>48400</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="34">
+        <f t="shared" si="10"/>
         <v>9216</v>
       </c>
-      <c r="N17" s="40">
-        <f t="shared" si="6"/>
+      <c r="N17" s="34">
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="O17" s="41">
-        <f t="shared" si="7"/>
+      <c r="O17" s="35">
+        <f t="shared" si="12"/>
         <v>4608</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="55">
+        <f>R21</f>
+        <v>2659232</v>
+      </c>
+      <c r="Q17" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>2893A0</v>
+      </c>
+      <c r="R17" s="18">
+        <f>R16+K16</f>
+        <v>2465632</v>
+      </c>
+      <c r="S17" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>259F60</v>
+      </c>
+      <c r="T17" s="18">
+        <f>T16+O16</f>
+        <v>12160</v>
+      </c>
+      <c r="U17" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v>2F80</v>
+      </c>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="4">
         <f>0.0000032*M17+0.0000064*K17</f>
         <v>1.2685312</v>
       </c>
-      <c r="S17" s="4">
-        <f>L17*P17*Q17</f>
+      <c r="AB17" s="4">
+        <f>L17*Y17*Z17</f>
         <v>9680</v>
       </c>
-      <c r="T17" s="26"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC17" s="26"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="26"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="26"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="26"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="26"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="32">
         <v>55</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="26"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="26"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38">
         <v>128</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="38">
         <v>2</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="38">
         <v>0</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="38">
         <v>27</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="38">
         <f>J21^2*F21</f>
         <v>93312</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="38">
         <f>K21</f>
         <v>93312</v>
       </c>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="6">
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="57">
+        <f>R22</f>
+        <v>2752544</v>
+      </c>
+      <c r="Q21" s="22" t="str">
+        <f>DEC2HEX(P21)</f>
+        <v>2A0020</v>
+      </c>
+      <c r="R21" s="22">
+        <f>R17+K17</f>
+        <v>2659232</v>
+      </c>
+      <c r="S21" s="22" t="str">
+        <f>DEC2HEX(R21)</f>
+        <v>2893A0</v>
+      </c>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="6">
         <v>0.31</v>
       </c>
-      <c r="Q21" s="6">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="Z21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="6">
         <f>0.0000064*K21</f>
         <v>0.59719679999999997</v>
       </c>
-      <c r="S21" s="6">
-        <f>L21*P21*Q21</f>
+      <c r="AB21" s="6">
+        <f>L21*Y21*Z21</f>
         <v>28926.720000000001</v>
       </c>
-      <c r="T21" s="26"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC21" s="26"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="40">
-        <v>1</v>
-      </c>
-      <c r="E22" s="40">
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
         <v>128</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="34">
         <v>32</v>
       </c>
-      <c r="G22" s="40">
-        <v>1</v>
-      </c>
-      <c r="H22" s="40">
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="H22" s="34">
         <v>0</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="34">
         <v>27</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="34">
         <f>J22^2*F22</f>
         <v>23328</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="34">
         <f>J22^2*E22</f>
         <v>93312</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="34">
+        <f>D22^2*E22*F22</f>
         <v>4096</v>
       </c>
-      <c r="N22" s="40">
+      <c r="N22" s="34">
         <f>F22</f>
         <v>32</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="35">
         <f>_xlfn.CEILING.MATH(D22^2*E22/2)*F22</f>
         <v>2048</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="55">
+        <f>R24</f>
+        <v>2775872</v>
+      </c>
+      <c r="Q22" s="18" t="str">
+        <f>DEC2HEX(P22)</f>
+        <v>2A5B40</v>
+      </c>
+      <c r="R22" s="18">
+        <f>R21+K21</f>
+        <v>2752544</v>
+      </c>
+      <c r="S22" s="18" t="str">
+        <f>DEC2HEX(R22)</f>
+        <v>2A0020</v>
+      </c>
+      <c r="T22" s="18">
+        <f>T17+O17</f>
+        <v>16768</v>
+      </c>
+      <c r="U22" s="18" t="str">
+        <f>DEC2HEX(T22)</f>
+        <v>4180</v>
+      </c>
+      <c r="V22" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W22" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="X22" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y22" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4">
+      <c r="Z22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="4">
         <f>0.0000032*M22+0.0000064*K22</f>
         <v>0.16240640000000001</v>
       </c>
-      <c r="S22" s="4">
-        <f>L22*P22*Q22</f>
+      <c r="AB22" s="4">
+        <f>L22*Y22*Z22</f>
         <v>18662.400000000001</v>
       </c>
-      <c r="T22" s="26"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC22" s="26"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="26"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="26"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="40">
-        <v>1</v>
-      </c>
-      <c r="E24" s="40">
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34">
         <v>32</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="34">
         <v>128</v>
       </c>
-      <c r="G24" s="40">
-        <v>1</v>
-      </c>
-      <c r="H24" s="40">
+      <c r="G24" s="34">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34">
         <v>0</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="34">
         <v>27</v>
       </c>
-      <c r="K24" s="40">
-        <f t="shared" ref="K24:K25" si="8">J24^2*F24</f>
+      <c r="K24" s="34">
+        <f t="shared" ref="K24:K25" si="16">J24^2*F24</f>
         <v>93312</v>
       </c>
-      <c r="L24" s="40">
-        <f t="shared" ref="L24:L25" si="9">J24^2*E24</f>
+      <c r="L24" s="34">
+        <f t="shared" ref="L24:L25" si="17">J24^2*E24</f>
         <v>23328</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="34">
+        <f t="shared" ref="M24:M25" si="18">D24^2*E24*F24</f>
         <v>4096</v>
       </c>
-      <c r="N24" s="40">
-        <f t="shared" ref="N24:N25" si="10">F24</f>
+      <c r="N24" s="34">
+        <f t="shared" ref="N24:N25" si="19">F24</f>
         <v>128</v>
       </c>
-      <c r="O24" s="41">
-        <f t="shared" ref="O24:O25" si="11">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
+      <c r="O24" s="35">
+        <f t="shared" ref="O24:O25" si="20">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
         <v>2048</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="55">
+        <f>R25</f>
+        <v>2869184</v>
+      </c>
+      <c r="Q24" s="18" t="str">
+        <f t="shared" ref="Q24:Q25" si="21">DEC2HEX(P24)</f>
+        <v>2BC7C0</v>
+      </c>
+      <c r="R24" s="18">
+        <f>R22+K22</f>
+        <v>2775872</v>
+      </c>
+      <c r="S24" s="18" t="str">
+        <f t="shared" ref="S24:S25" si="22">DEC2HEX(R24)</f>
+        <v>2A5B40</v>
+      </c>
+      <c r="T24" s="18">
+        <f>T22+O22</f>
+        <v>18816</v>
+      </c>
+      <c r="U24" s="18" t="str">
+        <f t="shared" ref="U24:U25" si="23">DEC2HEX(T24)</f>
+        <v>4980</v>
+      </c>
+      <c r="V24" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="X24" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y24" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Z24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="4">
+      <c r="AA24" s="4">
         <f>0.0000032*M24+0.0000064*K24</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="S24" s="4">
-        <f>L24*P24*Q24</f>
+      <c r="AB24" s="4">
+        <f>L24*Y24*Z24</f>
         <v>0</v>
       </c>
-      <c r="T24" s="26"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC24" s="26"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="34">
         <v>3</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="34">
         <v>32</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="34">
         <v>128</v>
       </c>
-      <c r="G25" s="40">
-        <v>1</v>
-      </c>
-      <c r="H25" s="40">
-        <v>1</v>
-      </c>
-      <c r="I25" s="40" t="s">
+      <c r="G25" s="34">
+        <v>1</v>
+      </c>
+      <c r="H25" s="34">
+        <v>1</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="34">
         <v>27</v>
       </c>
-      <c r="K25" s="40">
-        <f t="shared" si="8"/>
+      <c r="K25" s="34">
+        <f t="shared" si="16"/>
         <v>93312</v>
       </c>
-      <c r="L25" s="40">
-        <f t="shared" si="9"/>
+      <c r="L25" s="34">
+        <f t="shared" si="17"/>
         <v>23328</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="34">
+        <f t="shared" si="18"/>
         <v>36864</v>
       </c>
-      <c r="N25" s="40">
-        <f t="shared" si="10"/>
+      <c r="N25" s="34">
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
-      <c r="O25" s="41">
-        <f t="shared" si="11"/>
+      <c r="O25" s="35">
+        <f t="shared" si="20"/>
         <v>18432</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="55">
+        <f>R29</f>
+        <v>2962496</v>
+      </c>
+      <c r="Q25" s="18" t="str">
+        <f t="shared" si="21"/>
+        <v>2D3440</v>
+      </c>
+      <c r="R25" s="18">
+        <f>R24+K24</f>
+        <v>2869184</v>
+      </c>
+      <c r="S25" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v>2BC7C0</v>
+      </c>
+      <c r="T25" s="18">
+        <f>T24+O24</f>
+        <v>20864</v>
+      </c>
+      <c r="U25" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v>5180</v>
+      </c>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4">
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
         <f>0.0000032*M25+0.0000064*K25</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="S25" s="4">
-        <f>L25*P25*Q25</f>
+      <c r="AB25" s="4">
+        <f>L25*Y25*Z25</f>
         <v>4665.6000000000004</v>
       </c>
-      <c r="T25" s="26"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC25" s="26"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="26"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="26"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="26"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="26"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="32">
         <v>27</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="26"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="40">
-        <v>1</v>
-      </c>
-      <c r="E29" s="40">
+      <c r="D29" s="34">
+        <v>1</v>
+      </c>
+      <c r="E29" s="34">
         <v>256</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="34">
         <v>32</v>
       </c>
-      <c r="G29" s="40">
-        <v>1</v>
-      </c>
-      <c r="H29" s="40">
+      <c r="G29" s="34">
+        <v>1</v>
+      </c>
+      <c r="H29" s="34">
         <v>0</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="34">
         <v>27</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="34">
         <f>J29^2*F29</f>
         <v>23328</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="34">
         <f>J29^2*E29</f>
         <v>186624</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="34">
+        <f>D29^2*E29*F29</f>
         <v>8192</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="34">
         <f>F29</f>
         <v>32</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="35">
         <f>_xlfn.CEILING.MATH(D29^2*E29/2)*F29</f>
         <v>4096</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="55">
+        <f>R31</f>
+        <v>2985824</v>
+      </c>
+      <c r="Q29" s="18" t="str">
+        <f>DEC2HEX(P29)</f>
+        <v>2D8F60</v>
+      </c>
+      <c r="R29" s="18">
+        <f>R25+K25</f>
+        <v>2962496</v>
+      </c>
+      <c r="S29" s="18" t="str">
+        <f>DEC2HEX(R29)</f>
+        <v>2D3440</v>
+      </c>
+      <c r="T29" s="18">
+        <f>T25+O25</f>
+        <v>39296</v>
+      </c>
+      <c r="U29" s="18" t="str">
+        <f>DEC2HEX(T29)</f>
+        <v>9980</v>
+      </c>
+      <c r="V29" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W29" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="X29" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y29" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4">
+      <c r="Z29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="4">
         <f>0.0000032*M29+0.0000064*K29</f>
         <v>0.17551359999999999</v>
       </c>
-      <c r="S29" s="4">
-        <f>L29*P29*Q29</f>
+      <c r="AB29" s="4">
+        <f>L29*Y29*Z29</f>
         <v>37324.800000000003</v>
       </c>
-      <c r="T29" s="26"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC29" s="26"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="26"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="26"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="40">
-        <v>1</v>
-      </c>
-      <c r="E31" s="40">
+      <c r="D31" s="34">
+        <v>1</v>
+      </c>
+      <c r="E31" s="34">
         <v>32</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="34">
         <v>128</v>
       </c>
-      <c r="G31" s="40">
-        <v>1</v>
-      </c>
-      <c r="H31" s="40">
+      <c r="G31" s="34">
+        <v>1</v>
+      </c>
+      <c r="H31" s="34">
         <v>0</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="34">
         <v>27</v>
       </c>
-      <c r="K31" s="40">
-        <f t="shared" ref="K31:K32" si="12">J31^2*F31</f>
+      <c r="K31" s="34">
+        <f t="shared" ref="K31:K32" si="24">J31^2*F31</f>
         <v>93312</v>
       </c>
-      <c r="L31" s="40">
-        <f t="shared" ref="L31:L32" si="13">J31^2*E31</f>
+      <c r="L31" s="34">
+        <f t="shared" ref="L31:L32" si="25">J31^2*E31</f>
         <v>23328</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="34">
+        <f t="shared" ref="M31:M32" si="26">D31^2*E31*F31</f>
         <v>4096</v>
       </c>
-      <c r="N31" s="40">
-        <f t="shared" ref="N31:N32" si="14">F31</f>
+      <c r="N31" s="34">
+        <f t="shared" ref="N31:N32" si="27">F31</f>
         <v>128</v>
       </c>
-      <c r="O31" s="41">
-        <f t="shared" ref="O31:O32" si="15">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
+      <c r="O31" s="35">
+        <f t="shared" ref="O31:O32" si="28">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
         <v>2048</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="55">
+        <f>R32</f>
+        <v>3079136</v>
+      </c>
+      <c r="Q31" s="18" t="str">
+        <f t="shared" ref="Q31:Q32" si="29">DEC2HEX(P31)</f>
+        <v>2EFBE0</v>
+      </c>
+      <c r="R31" s="18">
+        <f>R29+K29</f>
+        <v>2985824</v>
+      </c>
+      <c r="S31" s="18" t="str">
+        <f t="shared" ref="S31:S32" si="30">DEC2HEX(R31)</f>
+        <v>2D8F60</v>
+      </c>
+      <c r="T31" s="18">
+        <f>T29+O29</f>
+        <v>43392</v>
+      </c>
+      <c r="U31" s="18" t="str">
+        <f t="shared" ref="U31:U32" si="31">DEC2HEX(T31)</f>
+        <v>A980</v>
+      </c>
+      <c r="V31" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="W31" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="X31" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y31" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Z31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="4">
+      <c r="AA31" s="4">
         <f>0.0000032*M31+0.0000064*K31</f>
         <v>0.61030399999999996</v>
       </c>
-      <c r="S31" s="4">
-        <f>L31*P31*Q31</f>
+      <c r="AB31" s="4">
+        <f>L31*Y31*Z31</f>
         <v>0</v>
       </c>
-      <c r="T31" s="26"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC31" s="26"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="34">
         <v>3</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="34">
         <v>32</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="34">
         <v>128</v>
       </c>
-      <c r="G32" s="40">
-        <v>1</v>
-      </c>
-      <c r="H32" s="40">
-        <v>1</v>
-      </c>
-      <c r="I32" s="40" t="s">
+      <c r="G32" s="34">
+        <v>1</v>
+      </c>
+      <c r="H32" s="34">
+        <v>1</v>
+      </c>
+      <c r="I32" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="34">
         <v>27</v>
       </c>
-      <c r="K32" s="40">
-        <f t="shared" si="12"/>
+      <c r="K32" s="34">
+        <f t="shared" si="24"/>
         <v>93312</v>
       </c>
-      <c r="L32" s="40">
-        <f t="shared" si="13"/>
+      <c r="L32" s="34">
+        <f t="shared" si="25"/>
         <v>23328</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="34">
+        <f t="shared" si="26"/>
         <v>36864</v>
       </c>
-      <c r="N32" s="40">
-        <f t="shared" si="14"/>
+      <c r="N32" s="34">
+        <f t="shared" si="27"/>
         <v>128</v>
       </c>
-      <c r="O32" s="41">
-        <f t="shared" si="15"/>
+      <c r="O32" s="35">
+        <f t="shared" si="28"/>
         <v>18432</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="55">
+        <f>R36</f>
+        <v>3172448</v>
+      </c>
+      <c r="Q32" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>306860</v>
+      </c>
+      <c r="R32" s="18">
+        <f>R31+K31</f>
+        <v>3079136</v>
+      </c>
+      <c r="S32" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>2EFBE0</v>
+      </c>
+      <c r="T32" s="18">
+        <f>T31+O31</f>
+        <v>45440</v>
+      </c>
+      <c r="U32" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v>B180</v>
+      </c>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4">
+      <c r="Z32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="4">
         <f>0.0000032*M32+0.0000064*K32</f>
         <v>0.71516159999999995</v>
       </c>
-      <c r="S32" s="4">
-        <f>L32*P32*Q32</f>
+      <c r="AB32" s="4">
+        <f>L32*Y32*Z32</f>
         <v>4665.6000000000004</v>
       </c>
-      <c r="T32" s="26"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC32" s="26"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="26"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="26"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="26"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="26"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="26"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="26"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38">
         <v>256</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="38">
         <v>2</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="38">
         <v>0</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="38">
         <v>13</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="38">
         <f>J36^2*F36</f>
         <v>43264</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="38">
         <f>K36</f>
         <v>43264</v>
       </c>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="6">
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="57">
+        <f>R37</f>
+        <v>3215712</v>
+      </c>
+      <c r="Q36" s="22" t="str">
+        <f>DEC2HEX(P36)</f>
+        <v>311160</v>
+      </c>
+      <c r="R36" s="22">
+        <f>R32+K32</f>
+        <v>3172448</v>
+      </c>
+      <c r="S36" s="22" t="str">
+        <f>DEC2HEX(R36)</f>
+        <v>306860</v>
+      </c>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="6">
         <v>0.31</v>
       </c>
-      <c r="Q36" s="6">
-        <v>1</v>
-      </c>
-      <c r="R36" s="6">
+      <c r="Z36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="6">
         <f>0.0000064*K36</f>
         <v>0.27688960000000001</v>
       </c>
-      <c r="S36" s="6">
-        <f>L36*P36*Q36</f>
+      <c r="AB36" s="6">
+        <f>L36*Y36*Z36</f>
         <v>13411.84</v>
       </c>
-      <c r="T36" s="26"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC36" s="26"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="40">
-        <v>1</v>
-      </c>
-      <c r="E37" s="40">
+      <c r="D37" s="34">
+        <v>1</v>
+      </c>
+      <c r="E37" s="34">
         <v>256</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="34">
         <v>48</v>
       </c>
-      <c r="G37" s="40">
-        <v>1</v>
-      </c>
-      <c r="H37" s="40">
+      <c r="G37" s="34">
+        <v>1</v>
+      </c>
+      <c r="H37" s="34">
         <v>0</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="34">
         <v>13</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="34">
         <f>J37^2*F37</f>
         <v>8112</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="34">
         <f>J37^2*E37</f>
         <v>43264</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="34">
+        <f>D37^2*E37*F37</f>
         <v>12288</v>
       </c>
-      <c r="N37" s="40">
+      <c r="N37" s="34">
         <f>F37</f>
         <v>48</v>
       </c>
-      <c r="O37" s="41">
+      <c r="O37" s="35">
         <f>_xlfn.CEILING.MATH(D37^2*E37/2)*F37</f>
         <v>6144</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="55">
+        <f>R39</f>
+        <v>3223824</v>
+      </c>
+      <c r="Q37" s="18" t="str">
+        <f>DEC2HEX(P37)</f>
+        <v>313110</v>
+      </c>
+      <c r="R37" s="18">
+        <f>R36+K36</f>
+        <v>3215712</v>
+      </c>
+      <c r="S37" s="18" t="str">
+        <f>DEC2HEX(R37)</f>
+        <v>311160</v>
+      </c>
+      <c r="T37" s="18">
+        <f>T32+O32</f>
+        <v>63872</v>
+      </c>
+      <c r="U37" s="18" t="str">
+        <f>DEC2HEX(T37)</f>
+        <v>F980</v>
+      </c>
+      <c r="V37" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W37" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="X37" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y37" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q37" s="4">
-        <v>1</v>
-      </c>
-      <c r="R37" s="4">
+      <c r="Z37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="4">
         <f>0.0000032*M37+0.0000064*K37</f>
         <v>9.1238399999999997E-2</v>
       </c>
-      <c r="S37" s="4">
-        <f>L37*P37*Q37</f>
+      <c r="AB37" s="4">
+        <f>L37*Y37*Z37</f>
         <v>8652.8000000000011</v>
       </c>
-      <c r="T37" s="26"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC37" s="26"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="26"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="26"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="40">
-        <v>1</v>
-      </c>
-      <c r="E39" s="40">
+      <c r="D39" s="34">
+        <v>1</v>
+      </c>
+      <c r="E39" s="34">
         <v>48</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="34">
         <v>192</v>
       </c>
-      <c r="G39" s="40">
-        <v>1</v>
-      </c>
-      <c r="H39" s="40">
+      <c r="G39" s="34">
+        <v>1</v>
+      </c>
+      <c r="H39" s="34">
         <v>0</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="40">
+      <c r="J39" s="34">
         <v>13</v>
       </c>
-      <c r="K39" s="40">
-        <f t="shared" ref="K39:K40" si="16">J39^2*F39</f>
+      <c r="K39" s="34">
+        <f t="shared" ref="K39:K40" si="32">J39^2*F39</f>
         <v>32448</v>
       </c>
-      <c r="L39" s="40">
-        <f t="shared" ref="L39:L40" si="17">J39^2*E39</f>
+      <c r="L39" s="34">
+        <f t="shared" ref="L39:L40" si="33">J39^2*E39</f>
         <v>8112</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="34">
+        <f t="shared" ref="M39:M40" si="34">D39^2*E39*F39</f>
         <v>9216</v>
       </c>
-      <c r="N39" s="40">
-        <f t="shared" ref="N39:N40" si="18">F39</f>
+      <c r="N39" s="34">
+        <f t="shared" ref="N39:N40" si="35">F39</f>
         <v>192</v>
       </c>
-      <c r="O39" s="41">
-        <f t="shared" ref="O39:O40" si="19">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
+      <c r="O39" s="35">
+        <f t="shared" ref="O39:O40" si="36">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
         <v>4608</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="55">
+        <f>R40</f>
+        <v>3256272</v>
+      </c>
+      <c r="Q39" s="18" t="str">
+        <f t="shared" ref="Q39:Q40" si="37">DEC2HEX(P39)</f>
+        <v>31AFD0</v>
+      </c>
+      <c r="R39" s="18">
+        <f>R37+K37</f>
+        <v>3223824</v>
+      </c>
+      <c r="S39" s="18" t="str">
+        <f t="shared" ref="S39:S40" si="38">DEC2HEX(R39)</f>
+        <v>313110</v>
+      </c>
+      <c r="T39" s="18">
+        <f>T37+O37</f>
+        <v>70016</v>
+      </c>
+      <c r="U39" s="18" t="str">
+        <f t="shared" ref="U39:U40" si="39">DEC2HEX(T39)</f>
+        <v>11180</v>
+      </c>
+      <c r="V39" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W39" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="X39" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y39" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Z39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="4">
+      <c r="AA39" s="4">
         <f>0.0000032*M39+0.0000064*K39</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="S39" s="4">
-        <f>L39*P39*Q39</f>
+      <c r="AB39" s="4">
+        <f>L39*Y39*Z39</f>
         <v>0</v>
       </c>
-      <c r="T39" s="26"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC39" s="26"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="34">
         <v>3</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="34">
         <v>48</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="34">
         <v>192</v>
       </c>
-      <c r="G40" s="40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="40">
-        <v>1</v>
-      </c>
-      <c r="I40" s="40" t="s">
+      <c r="G40" s="34">
+        <v>1</v>
+      </c>
+      <c r="H40" s="34">
+        <v>1</v>
+      </c>
+      <c r="I40" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="40">
+      <c r="J40" s="34">
         <v>13</v>
       </c>
-      <c r="K40" s="40">
-        <f t="shared" si="16"/>
+      <c r="K40" s="34">
+        <f t="shared" si="32"/>
         <v>32448</v>
       </c>
-      <c r="L40" s="40">
-        <f t="shared" si="17"/>
+      <c r="L40" s="34">
+        <f t="shared" si="33"/>
         <v>8112</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="34">
+        <f t="shared" si="34"/>
         <v>82944</v>
       </c>
-      <c r="N40" s="40">
-        <f t="shared" si="18"/>
+      <c r="N40" s="34">
+        <f t="shared" si="35"/>
         <v>192</v>
       </c>
-      <c r="O40" s="41">
-        <f t="shared" si="19"/>
+      <c r="O40" s="35">
+        <f t="shared" si="36"/>
         <v>41472</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="55">
+        <f>R44</f>
+        <v>3288720</v>
+      </c>
+      <c r="Q40" s="18" t="str">
+        <f t="shared" si="37"/>
+        <v>322E90</v>
+      </c>
+      <c r="R40" s="18">
+        <f>R39+K39</f>
+        <v>3256272</v>
+      </c>
+      <c r="S40" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>31AFD0</v>
+      </c>
+      <c r="T40" s="18">
+        <f>T39+O39</f>
+        <v>74624</v>
+      </c>
+      <c r="U40" s="18" t="str">
+        <f t="shared" si="39"/>
+        <v>12380</v>
+      </c>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
+      <c r="Z40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="4">
         <f>0.0000032*M40+0.0000064*K40</f>
         <v>0.47308800000000001</v>
       </c>
-      <c r="S40" s="4">
-        <f>L40*P40*Q40</f>
+      <c r="AB40" s="4">
+        <f>L40*Y40*Z40</f>
         <v>1622.4</v>
       </c>
-      <c r="T40" s="26"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC40" s="26"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="26"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="26"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="26"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="26"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="32">
         <v>13</v>
       </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="26"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="26"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="40">
-        <v>1</v>
-      </c>
-      <c r="E44" s="40">
+      <c r="D44" s="34">
+        <v>1</v>
+      </c>
+      <c r="E44" s="34">
         <v>384</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="34">
         <v>48</v>
       </c>
-      <c r="G44" s="40">
-        <v>1</v>
-      </c>
-      <c r="H44" s="40">
+      <c r="G44" s="34">
+        <v>1</v>
+      </c>
+      <c r="H44" s="34">
         <v>0</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="40">
+      <c r="J44" s="34">
         <v>13</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="34">
         <f>J44^2*F44</f>
         <v>8112</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="34">
         <f>J44^2*E44</f>
         <v>64896</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="34">
+        <f>D44^2*E44*F44</f>
         <v>18432</v>
       </c>
-      <c r="N44" s="40">
+      <c r="N44" s="34">
         <f>F44</f>
         <v>48</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O44" s="35">
         <f>_xlfn.CEILING.MATH(D44^2*E44/2)*F44</f>
         <v>9216</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="55">
+        <f>R46</f>
+        <v>3296832</v>
+      </c>
+      <c r="Q44" s="18" t="str">
+        <f>DEC2HEX(P44)</f>
+        <v>324E40</v>
+      </c>
+      <c r="R44" s="18">
+        <f>R40+K40</f>
+        <v>3288720</v>
+      </c>
+      <c r="S44" s="18" t="str">
+        <f>DEC2HEX(R44)</f>
+        <v>322E90</v>
+      </c>
+      <c r="T44" s="18">
+        <f>T40+O40</f>
+        <v>116096</v>
+      </c>
+      <c r="U44" s="18" t="str">
+        <f>DEC2HEX(T44)</f>
+        <v>1C580</v>
+      </c>
+      <c r="V44" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W44" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="X44" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y44" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q44" s="4">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4">
+      <c r="Z44" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="4">
         <f>0.0000032*M44+0.0000064*K44</f>
         <v>0.1108992</v>
       </c>
-      <c r="S44" s="4">
-        <f>L44*P44*Q44</f>
+      <c r="AB44" s="4">
+        <f>L44*Y44*Z44</f>
         <v>12979.2</v>
       </c>
-      <c r="T44" s="26"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC44" s="26"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="26"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="26"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="40">
-        <v>1</v>
-      </c>
-      <c r="E46" s="40">
+      <c r="D46" s="34">
+        <v>1</v>
+      </c>
+      <c r="E46" s="34">
         <v>48</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="34">
         <v>192</v>
       </c>
-      <c r="G46" s="40">
-        <v>1</v>
-      </c>
-      <c r="H46" s="40">
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="34">
         <v>0</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="34">
         <v>13</v>
       </c>
-      <c r="K46" s="40">
-        <f t="shared" ref="K46:K47" si="20">J46^2*F46</f>
+      <c r="K46" s="34">
+        <f t="shared" ref="K46:K47" si="40">J46^2*F46</f>
         <v>32448</v>
       </c>
-      <c r="L46" s="40">
-        <f t="shared" ref="L46:L47" si="21">J46^2*E46</f>
+      <c r="L46" s="34">
+        <f t="shared" ref="L46:L47" si="41">J46^2*E46</f>
         <v>8112</v>
       </c>
-      <c r="M46" s="40">
+      <c r="M46" s="34">
+        <f t="shared" ref="M46:M47" si="42">D46^2*E46*F46</f>
         <v>9216</v>
       </c>
-      <c r="N46" s="40">
-        <f t="shared" ref="N46:N47" si="22">F46</f>
+      <c r="N46" s="34">
+        <f t="shared" ref="N46:N47" si="43">F46</f>
         <v>192</v>
       </c>
-      <c r="O46" s="41">
-        <f t="shared" ref="O46:O47" si="23">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
+      <c r="O46" s="35">
+        <f t="shared" ref="O46:O47" si="44">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
         <v>4608</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="55">
+        <f>R47</f>
+        <v>3329280</v>
+      </c>
+      <c r="Q46" s="18" t="str">
+        <f t="shared" ref="Q46:Q47" si="45">DEC2HEX(P46)</f>
+        <v>32CD00</v>
+      </c>
+      <c r="R46" s="18">
+        <f>R44+K44</f>
+        <v>3296832</v>
+      </c>
+      <c r="S46" s="18" t="str">
+        <f t="shared" ref="S46:S47" si="46">DEC2HEX(R46)</f>
+        <v>324E40</v>
+      </c>
+      <c r="T46" s="18">
+        <f>T44+O44</f>
+        <v>125312</v>
+      </c>
+      <c r="U46" s="18" t="str">
+        <f t="shared" ref="U46:U47" si="47">DEC2HEX(T46)</f>
+        <v>1E980</v>
+      </c>
+      <c r="V46" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W46" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="X46" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y46" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Z46" s="4">
         <v>0</v>
       </c>
-      <c r="R46" s="4">
+      <c r="AA46" s="4">
         <f>0.0000032*M46+0.0000064*K46</f>
         <v>0.23715839999999999</v>
       </c>
-      <c r="S46" s="4">
-        <f>L46*P46*Q46</f>
+      <c r="AB46" s="4">
+        <f>L46*Y46*Z46</f>
         <v>0</v>
       </c>
-      <c r="T46" s="26"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC46" s="26"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="34">
         <v>3</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="34">
         <v>48</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="34">
         <v>192</v>
       </c>
-      <c r="G47" s="40">
-        <v>1</v>
-      </c>
-      <c r="H47" s="40">
-        <v>1</v>
-      </c>
-      <c r="I47" s="40" t="s">
+      <c r="G47" s="34">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34">
+        <v>1</v>
+      </c>
+      <c r="I47" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="34">
         <v>13</v>
       </c>
-      <c r="K47" s="40">
-        <f t="shared" si="20"/>
+      <c r="K47" s="34">
+        <f t="shared" si="40"/>
         <v>32448</v>
       </c>
-      <c r="L47" s="40">
-        <f t="shared" si="21"/>
+      <c r="L47" s="34">
+        <f t="shared" si="41"/>
         <v>8112</v>
       </c>
-      <c r="M47" s="40">
+      <c r="M47" s="34">
+        <f t="shared" si="42"/>
         <v>82944</v>
       </c>
-      <c r="N47" s="40">
-        <f t="shared" si="22"/>
+      <c r="N47" s="34">
+        <f t="shared" si="43"/>
         <v>192</v>
       </c>
-      <c r="O47" s="41">
-        <f t="shared" si="23"/>
+      <c r="O47" s="35">
+        <f t="shared" si="44"/>
         <v>41472</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="55">
+        <f>R51</f>
+        <v>3361728</v>
+      </c>
+      <c r="Q47" s="18" t="str">
+        <f t="shared" si="45"/>
+        <v>334BC0</v>
+      </c>
+      <c r="R47" s="18">
+        <f>R46+K46</f>
+        <v>3329280</v>
+      </c>
+      <c r="S47" s="18" t="str">
+        <f t="shared" si="46"/>
+        <v>32CD00</v>
+      </c>
+      <c r="T47" s="18">
+        <f>T46+O46</f>
+        <v>129920</v>
+      </c>
+      <c r="U47" s="18" t="str">
+        <f t="shared" si="47"/>
+        <v>1FB80</v>
+      </c>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q47" s="4">
-        <v>1</v>
-      </c>
-      <c r="R47" s="4">
+      <c r="Z47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="4">
         <f>0.0000032*M47+0.0000064*K47</f>
         <v>0.47308800000000001</v>
       </c>
-      <c r="S47" s="4">
-        <f>L47*P47*Q47</f>
+      <c r="AB47" s="4">
+        <f>L47*Y47*Z47</f>
         <v>1622.4</v>
       </c>
-      <c r="T47" s="26"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC47" s="26"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="26"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="26"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="26"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="26"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="38">
+      <c r="J50" s="32">
         <v>13</v>
       </c>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="26"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="26"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="40">
-        <v>1</v>
-      </c>
-      <c r="E51" s="40">
+      <c r="D51" s="34">
+        <v>1</v>
+      </c>
+      <c r="E51" s="34">
         <v>384</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="34">
         <v>64</v>
       </c>
-      <c r="G51" s="40">
-        <v>1</v>
-      </c>
-      <c r="H51" s="40">
+      <c r="G51" s="34">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34">
         <v>0</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I51" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J51" s="40">
+      <c r="J51" s="34">
         <v>13</v>
       </c>
-      <c r="K51" s="40">
+      <c r="K51" s="34">
         <f>J51^2*F51</f>
         <v>10816</v>
       </c>
-      <c r="L51" s="40">
+      <c r="L51" s="34">
         <f>J51^2*E51</f>
         <v>64896</v>
       </c>
-      <c r="M51" s="40">
+      <c r="M51" s="34">
+        <f>D51^2*E51*F51</f>
         <v>24576</v>
       </c>
-      <c r="N51" s="40">
+      <c r="N51" s="34">
         <f>F51</f>
         <v>64</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="35">
         <f>_xlfn.CEILING.MATH(D51^2*E51/2)*F51</f>
         <v>12288</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="55">
+        <f>R53</f>
+        <v>3372544</v>
+      </c>
+      <c r="Q51" s="18" t="str">
+        <f>DEC2HEX(P51)</f>
+        <v>337600</v>
+      </c>
+      <c r="R51" s="18">
+        <f>R47+K47</f>
+        <v>3361728</v>
+      </c>
+      <c r="S51" s="18" t="str">
+        <f>DEC2HEX(R51)</f>
+        <v>334BC0</v>
+      </c>
+      <c r="T51" s="18">
+        <f>T47+O47</f>
+        <v>171392</v>
+      </c>
+      <c r="U51" s="18" t="str">
+        <f>DEC2HEX(T51)</f>
+        <v>29D80</v>
+      </c>
+      <c r="V51" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W51" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="X51" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y51" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q51" s="4">
-        <v>1</v>
-      </c>
-      <c r="R51" s="4">
+      <c r="Z51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="4">
         <f>0.0000032*M51+0.0000064*K51</f>
         <v>0.14786559999999999</v>
       </c>
-      <c r="S51" s="4">
-        <f>L51*P51*Q51</f>
+      <c r="AB51" s="4">
+        <f>L51*Y51*Z51</f>
         <v>12979.2</v>
       </c>
-      <c r="T51" s="26"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC51" s="26"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="26"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="26"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="40">
-        <v>1</v>
-      </c>
-      <c r="E53" s="40">
+      <c r="D53" s="34">
+        <v>1</v>
+      </c>
+      <c r="E53" s="34">
         <v>64</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="34">
         <v>256</v>
       </c>
-      <c r="G53" s="40">
-        <v>1</v>
-      </c>
-      <c r="H53" s="40">
+      <c r="G53" s="34">
+        <v>1</v>
+      </c>
+      <c r="H53" s="34">
         <v>0</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J53" s="40">
+      <c r="J53" s="34">
         <v>13</v>
       </c>
-      <c r="K53" s="40">
-        <f t="shared" ref="K53:K54" si="24">J53^2*F53</f>
+      <c r="K53" s="34">
+        <f t="shared" ref="K53:K54" si="48">J53^2*F53</f>
         <v>43264</v>
       </c>
-      <c r="L53" s="40">
-        <f t="shared" ref="L53:L54" si="25">J53^2*E53</f>
+      <c r="L53" s="34">
+        <f t="shared" ref="L53:L54" si="49">J53^2*E53</f>
         <v>10816</v>
       </c>
-      <c r="M53" s="40">
+      <c r="M53" s="34">
+        <f t="shared" ref="M53:M54" si="50">D53^2*E53*F53</f>
         <v>16384</v>
       </c>
-      <c r="N53" s="40">
-        <f t="shared" ref="N53:N54" si="26">F53</f>
+      <c r="N53" s="34">
+        <f t="shared" ref="N53:N54" si="51">F53</f>
         <v>256</v>
       </c>
-      <c r="O53" s="41">
-        <f t="shared" ref="O53:O54" si="27">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
+      <c r="O53" s="35">
+        <f t="shared" ref="O53:O54" si="52">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
         <v>8192</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="55">
+        <f>R54</f>
+        <v>3415808</v>
+      </c>
+      <c r="Q53" s="18" t="str">
+        <f t="shared" ref="Q53:Q54" si="53">DEC2HEX(P53)</f>
+        <v>341F00</v>
+      </c>
+      <c r="R53" s="18">
+        <f>R51+K51</f>
+        <v>3372544</v>
+      </c>
+      <c r="S53" s="18" t="str">
+        <f t="shared" ref="S53:S54" si="54">DEC2HEX(R53)</f>
+        <v>337600</v>
+      </c>
+      <c r="T53" s="18">
+        <f>T51+O51</f>
+        <v>183680</v>
+      </c>
+      <c r="U53" s="18" t="str">
+        <f t="shared" ref="U53:U54" si="55">DEC2HEX(T53)</f>
+        <v>2CD80</v>
+      </c>
+      <c r="V53" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W53" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="X53" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y53" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Z53" s="4">
         <v>0</v>
       </c>
-      <c r="R53" s="4">
+      <c r="AA53" s="4">
         <f>0.0000032*M53+0.0000064*K53</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="S53" s="4">
-        <f>L53*P53*Q53</f>
+      <c r="AB53" s="4">
+        <f>L53*Y53*Z53</f>
         <v>0</v>
       </c>
-      <c r="T53" s="26"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC53" s="26"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="34">
         <v>3</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="34">
         <v>64</v>
       </c>
-      <c r="F54" s="40">
+      <c r="F54" s="34">
         <v>256</v>
       </c>
-      <c r="G54" s="40">
-        <v>1</v>
-      </c>
-      <c r="H54" s="40">
-        <v>1</v>
-      </c>
-      <c r="I54" s="40" t="s">
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
+        <v>1</v>
+      </c>
+      <c r="I54" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="40">
+      <c r="J54" s="34">
         <v>13</v>
       </c>
-      <c r="K54" s="40">
-        <f t="shared" si="24"/>
+      <c r="K54" s="34">
+        <f t="shared" si="48"/>
         <v>43264</v>
       </c>
-      <c r="L54" s="40">
-        <f t="shared" si="25"/>
+      <c r="L54" s="34">
+        <f t="shared" si="49"/>
         <v>10816</v>
       </c>
-      <c r="M54" s="40">
+      <c r="M54" s="34">
+        <f t="shared" si="50"/>
         <v>147456</v>
       </c>
-      <c r="N54" s="40">
-        <f t="shared" si="26"/>
+      <c r="N54" s="34">
+        <f t="shared" si="51"/>
         <v>256</v>
       </c>
-      <c r="O54" s="41">
-        <f t="shared" si="27"/>
+      <c r="O54" s="35">
+        <f t="shared" si="52"/>
         <v>73728</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="55">
+        <f>R58</f>
+        <v>3459072</v>
+      </c>
+      <c r="Q54" s="18" t="str">
+        <f t="shared" si="53"/>
+        <v>34C800</v>
+      </c>
+      <c r="R54" s="18">
+        <f>R53+K53</f>
+        <v>3415808</v>
+      </c>
+      <c r="S54" s="18" t="str">
+        <f t="shared" si="54"/>
+        <v>341F00</v>
+      </c>
+      <c r="T54" s="18">
+        <f>T53+O53</f>
+        <v>191872</v>
+      </c>
+      <c r="U54" s="18" t="str">
+        <f t="shared" si="55"/>
+        <v>2ED80</v>
+      </c>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q54" s="4">
-        <v>1</v>
-      </c>
-      <c r="R54" s="4">
+      <c r="Z54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="4">
         <f>0.0000032*M54+0.0000064*K54</f>
         <v>0.74874879999999999</v>
       </c>
-      <c r="S54" s="4">
-        <f>L54*P54*Q54</f>
+      <c r="AB54" s="4">
+        <f>L54*Y54*Z54</f>
         <v>2163.2000000000003</v>
       </c>
-      <c r="T54" s="26"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC54" s="26"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="26"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="26"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="26"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="26"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38" t="s">
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J57" s="38">
+      <c r="J57" s="32">
         <v>13</v>
       </c>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="26"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="26"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="40">
-        <v>1</v>
-      </c>
-      <c r="E58" s="40">
+      <c r="D58" s="34">
+        <v>1</v>
+      </c>
+      <c r="E58" s="34">
         <v>512</v>
       </c>
-      <c r="F58" s="40">
+      <c r="F58" s="34">
         <v>64</v>
       </c>
-      <c r="G58" s="40">
-        <v>1</v>
-      </c>
-      <c r="H58" s="40">
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" s="34">
         <v>0</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J58" s="40">
+      <c r="J58" s="34">
         <v>13</v>
       </c>
-      <c r="K58" s="40">
+      <c r="K58" s="34">
         <f>J58^2*F58</f>
         <v>10816</v>
       </c>
-      <c r="L58" s="40">
+      <c r="L58" s="34">
         <f>J58^2*E58</f>
         <v>86528</v>
       </c>
-      <c r="M58" s="40">
+      <c r="M58" s="34">
+        <f>D58^2*E58*F58</f>
         <v>32768</v>
       </c>
-      <c r="N58" s="40">
+      <c r="N58" s="34">
         <f>F58</f>
         <v>64</v>
       </c>
-      <c r="O58" s="41">
+      <c r="O58" s="35">
         <f>_xlfn.CEILING.MATH(D58^2*E58/2)*F58</f>
         <v>16384</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="55">
+        <f>R60</f>
+        <v>3469888</v>
+      </c>
+      <c r="Q58" s="18" t="str">
+        <f>DEC2HEX(P58)</f>
+        <v>34F240</v>
+      </c>
+      <c r="R58" s="18">
+        <f>R54+K54</f>
+        <v>3459072</v>
+      </c>
+      <c r="S58" s="18" t="str">
+        <f>DEC2HEX(R58)</f>
+        <v>34C800</v>
+      </c>
+      <c r="T58" s="18">
+        <f>T54+O54</f>
+        <v>265600</v>
+      </c>
+      <c r="U58" s="18" t="str">
+        <f>DEC2HEX(T58)</f>
+        <v>40D80</v>
+      </c>
+      <c r="V58" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W58" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="X58" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y58" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q58" s="4">
-        <v>1</v>
-      </c>
-      <c r="R58" s="4">
+      <c r="Z58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="4">
         <f>0.0000032*M58+0.0000064*K58</f>
         <v>0.17408000000000001</v>
       </c>
-      <c r="S58" s="4">
-        <f>L58*P58*Q58</f>
+      <c r="AB58" s="4">
+        <f>L58*Y58*Z58</f>
         <v>17305.600000000002</v>
       </c>
-      <c r="T58" s="26"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC58" s="26"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="26"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="26"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="40">
-        <v>1</v>
-      </c>
-      <c r="E60" s="40">
+      <c r="D60" s="34">
+        <v>1</v>
+      </c>
+      <c r="E60" s="34">
         <v>64</v>
       </c>
-      <c r="F60" s="40">
+      <c r="F60" s="34">
         <v>256</v>
       </c>
-      <c r="G60" s="40">
-        <v>1</v>
-      </c>
-      <c r="H60" s="40">
+      <c r="G60" s="34">
+        <v>1</v>
+      </c>
+      <c r="H60" s="34">
         <v>0</v>
       </c>
-      <c r="I60" s="40" t="s">
+      <c r="I60" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J60" s="40">
+      <c r="J60" s="34">
         <v>13</v>
       </c>
-      <c r="K60" s="40">
-        <f t="shared" ref="K60:K61" si="28">J60^2*F60</f>
+      <c r="K60" s="34">
+        <f t="shared" ref="K60:K61" si="56">J60^2*F60</f>
         <v>43264</v>
       </c>
-      <c r="L60" s="40">
-        <f t="shared" ref="L60:L61" si="29">J60^2*E60</f>
+      <c r="L60" s="34">
+        <f t="shared" ref="L60:L61" si="57">J60^2*E60</f>
         <v>10816</v>
       </c>
-      <c r="M60" s="40">
+      <c r="M60" s="34">
+        <f t="shared" ref="M60:M61" si="58">D60^2*E60*F60</f>
         <v>16384</v>
       </c>
-      <c r="N60" s="40">
-        <f t="shared" ref="N60:N61" si="30">F60</f>
+      <c r="N60" s="34">
+        <f t="shared" ref="N60:N61" si="59">F60</f>
         <v>256</v>
       </c>
-      <c r="O60" s="41">
-        <f t="shared" ref="O60:O61" si="31">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
+      <c r="O60" s="35">
+        <f t="shared" ref="O60:O61" si="60">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
         <v>8192</v>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="55">
+        <f>R61</f>
+        <v>3513152</v>
+      </c>
+      <c r="Q60" s="18" t="str">
+        <f t="shared" ref="Q60:Q61" si="61">DEC2HEX(P60)</f>
+        <v>359B40</v>
+      </c>
+      <c r="R60" s="18">
+        <f>R58+K58</f>
+        <v>3469888</v>
+      </c>
+      <c r="S60" s="18" t="str">
+        <f t="shared" ref="S60:S61" si="62">DEC2HEX(R60)</f>
+        <v>34F240</v>
+      </c>
+      <c r="T60" s="18">
+        <f>T58+O58</f>
+        <v>281984</v>
+      </c>
+      <c r="U60" s="18" t="str">
+        <f t="shared" ref="U60:U61" si="63">DEC2HEX(T60)</f>
+        <v>44D80</v>
+      </c>
+      <c r="V60" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W60" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="X60" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y60" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="Z60" s="4">
         <v>0</v>
       </c>
-      <c r="R60" s="4">
+      <c r="AA60" s="4">
         <f>0.0000032*M60+0.0000064*K60</f>
         <v>0.32931840000000001</v>
       </c>
-      <c r="S60" s="4">
-        <f>L60*P60*Q60</f>
+      <c r="AB60" s="4">
+        <f>L60*Y60*Z60</f>
         <v>0</v>
       </c>
-      <c r="T60" s="26"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC60" s="26"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="34">
         <v>3</v>
       </c>
-      <c r="E61" s="40">
+      <c r="E61" s="34">
         <v>64</v>
       </c>
-      <c r="F61" s="40">
+      <c r="F61" s="34">
         <v>256</v>
       </c>
-      <c r="G61" s="40">
-        <v>1</v>
-      </c>
-      <c r="H61" s="40">
-        <v>1</v>
-      </c>
-      <c r="I61" s="40" t="s">
+      <c r="G61" s="34">
+        <v>1</v>
+      </c>
+      <c r="H61" s="34">
+        <v>1</v>
+      </c>
+      <c r="I61" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="J61" s="40">
+      <c r="J61" s="34">
         <v>13</v>
       </c>
-      <c r="K61" s="40">
-        <f t="shared" si="28"/>
+      <c r="K61" s="34">
+        <f t="shared" si="56"/>
         <v>43264</v>
       </c>
-      <c r="L61" s="40">
-        <f t="shared" si="29"/>
+      <c r="L61" s="34">
+        <f t="shared" si="57"/>
         <v>10816</v>
       </c>
-      <c r="M61" s="40">
+      <c r="M61" s="34">
+        <f t="shared" si="58"/>
         <v>147456</v>
       </c>
-      <c r="N61" s="40">
-        <f t="shared" si="30"/>
+      <c r="N61" s="34">
+        <f t="shared" si="59"/>
         <v>256</v>
       </c>
-      <c r="O61" s="41">
-        <f t="shared" si="31"/>
+      <c r="O61" s="35">
+        <f t="shared" si="60"/>
         <v>73728</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="55">
+        <f>R66</f>
+        <v>3556416</v>
+      </c>
+      <c r="Q61" s="18" t="str">
+        <f t="shared" si="61"/>
+        <v>364440</v>
+      </c>
+      <c r="R61" s="18">
+        <f>R60+K60</f>
+        <v>3513152</v>
+      </c>
+      <c r="S61" s="18" t="str">
+        <f t="shared" si="62"/>
+        <v>359B40</v>
+      </c>
+      <c r="T61" s="18">
+        <f>T60+O60</f>
+        <v>290176</v>
+      </c>
+      <c r="U61" s="18" t="str">
+        <f t="shared" si="63"/>
+        <v>46D80</v>
+      </c>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q61" s="4">
-        <v>1</v>
-      </c>
-      <c r="R61" s="4">
+      <c r="Z61" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="4">
         <f>0.0000032*M61+0.0000064*K61</f>
         <v>0.74874879999999999</v>
       </c>
-      <c r="S61" s="4">
-        <f>L61*P61*Q61</f>
+      <c r="AB61" s="4">
+        <f>L61*Y61*Z61</f>
         <v>2163.2000000000003</v>
       </c>
-      <c r="T61" s="26"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC61" s="26"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="26"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="26"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="26"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="26"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38" t="s">
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J64" s="38">
+      <c r="J64" s="32">
         <v>13</v>
       </c>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="26"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="26"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="26"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="48"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="26"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="40">
-        <v>1</v>
-      </c>
-      <c r="E66" s="40">
+      <c r="D66" s="34">
+        <v>1</v>
+      </c>
+      <c r="E66" s="34">
         <v>512</v>
       </c>
-      <c r="F66" s="40">
+      <c r="F66" s="34">
         <v>1000</v>
       </c>
-      <c r="G66" s="40">
-        <v>1</v>
-      </c>
-      <c r="H66" s="40">
+      <c r="G66" s="34">
+        <v>1</v>
+      </c>
+      <c r="H66" s="34">
         <v>0</v>
       </c>
-      <c r="I66" s="40" t="s">
+      <c r="I66" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="J66" s="40">
+      <c r="J66" s="34">
         <v>13</v>
       </c>
-      <c r="K66" s="40">
+      <c r="K66" s="34">
         <f>J66^2*F66</f>
         <v>169000</v>
       </c>
-      <c r="L66" s="40">
+      <c r="L66" s="34">
         <f>J66^2*E66</f>
         <v>86528</v>
       </c>
-      <c r="M66" s="40">
+      <c r="M66" s="34">
+        <f>D66^2*E66*F66</f>
         <v>512000</v>
       </c>
-      <c r="N66" s="40">
+      <c r="N66" s="34">
         <f>F66</f>
         <v>1000</v>
       </c>
-      <c r="O66" s="41">
+      <c r="O66" s="35">
         <f>_xlfn.CEILING.MATH(D66^2*E66/2)*F66</f>
         <v>256000</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="55">
+        <f>R68</f>
+        <v>3725416</v>
+      </c>
+      <c r="Q66" s="18" t="str">
+        <f>DEC2HEX(P66)</f>
+        <v>38D868</v>
+      </c>
+      <c r="R66" s="18">
+        <f>R61+K61</f>
+        <v>3556416</v>
+      </c>
+      <c r="S66" s="18" t="str">
+        <f>DEC2HEX(R66)</f>
+        <v>364440</v>
+      </c>
+      <c r="T66" s="18">
+        <f>T61+O61</f>
+        <v>363904</v>
+      </c>
+      <c r="U66" s="18" t="str">
+        <f>DEC2HEX(T66)</f>
+        <v>58D80</v>
+      </c>
+      <c r="V66" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="W66" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="X66" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y66" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q66" s="4">
-        <v>1</v>
-      </c>
-      <c r="R66" s="4">
+      <c r="Z66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="4">
         <f>0.0000032*M66+0.0000064*K66</f>
         <v>2.7199999999999998</v>
       </c>
-      <c r="S66" s="4">
-        <f>L66*P66*Q66</f>
+      <c r="AB66" s="4">
+        <f>L66*Y66*Z66</f>
         <v>17305.600000000002</v>
       </c>
-      <c r="T66" s="26"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC66" s="26"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="26"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="26"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44">
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38">
         <v>1000</v>
       </c>
-      <c r="G68" s="44">
-        <v>1</v>
-      </c>
-      <c r="H68" s="44">
+      <c r="G68" s="38">
+        <v>1</v>
+      </c>
+      <c r="H68" s="38">
         <v>0</v>
       </c>
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J68" s="44">
-        <v>1</v>
-      </c>
-      <c r="K68" s="44">
+      <c r="J68" s="38">
+        <v>1</v>
+      </c>
+      <c r="K68" s="38">
         <f>J68^2*F68</f>
         <v>1000</v>
       </c>
-      <c r="L68" s="44">
+      <c r="L68" s="38">
         <f>K68</f>
         <v>1000</v>
       </c>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="6">
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="57">
+        <f>R69</f>
+        <v>3726416</v>
+      </c>
+      <c r="Q68" s="22" t="str">
+        <f>DEC2HEX(P68)</f>
+        <v>38DC50</v>
+      </c>
+      <c r="R68" s="22">
+        <f>R66+K66</f>
+        <v>3725416</v>
+      </c>
+      <c r="S68" s="22" t="str">
+        <f>DEC2HEX(R68)</f>
+        <v>38D868</v>
+      </c>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="6">
         <v>1.2</v>
       </c>
-      <c r="Q68" s="6">
-        <v>1</v>
-      </c>
-      <c r="R68" s="6">
+      <c r="Z68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="6">
         <f>0.0000064*K68</f>
         <v>6.3999999999999994E-3</v>
       </c>
-      <c r="S68" s="6">
-        <f>L68*P68*Q68</f>
+      <c r="AB68" s="6">
+        <f>L68*Y68*Z68</f>
         <v>1200</v>
       </c>
-      <c r="T68" s="26"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC68" s="26"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="26"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16">
+        <f>R68+L68</f>
+        <v>3726416</v>
+      </c>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="44"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="26"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30">
         <f>SUM(K3:K69)</f>
         <v>3071056</v>
       </c>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35">
+      <c r="L70" s="30"/>
+      <c r="M70" s="30">
         <f>SUM(M4:M69)</f>
         <v>1231552</v>
       </c>
-      <c r="N70" s="35">
+      <c r="N70" s="30">
         <f>SUM(N4:N69)</f>
         <v>3944</v>
       </c>
-      <c r="O70" s="37">
+      <c r="O70" s="31">
         <f>SUM(O4:O69)</f>
-        <v>619904</v>
-      </c>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26">
-        <f>SUM(R3:R69)</f>
+        <v>615808</v>
+      </c>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="26"/>
+      <c r="AA70" s="26">
+        <f>SUM(AA3:AA69)</f>
         <v>23.114035199999996</v>
       </c>
-      <c r="S70" s="26">
-        <f t="shared" ref="S70" si="32">SUM(S4:S69)</f>
+      <c r="AB70" s="26">
+        <f t="shared" ref="AB70" si="64">SUM(AB4:AB69)</f>
         <v>388579.16000000003</v>
       </c>
-      <c r="T70" s="26"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="AC70" s="26"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30">
         <f>K70*16/1024/8</f>
         <v>5998.15625</v>
       </c>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35">
+      <c r="L71" s="30"/>
+      <c r="M71" s="30">
         <f>M70*16/1024/8</f>
         <v>2405.375</v>
       </c>
-      <c r="N71" s="35">
+      <c r="N71" s="30">
         <f>M70+N70</f>
         <v>1235496</v>
       </c>
-      <c r="O71" s="37"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="I1:O1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="R4 R58 R60:R61 R66 R68 R6:R10 R14:R25 R29:R40 R44:R54 T7:T24 T25:T40 T44:T54 T58:T66" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F17E8-C6D4-4CC8-931F-A2A0F89888FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF30648-3F2D-4D3A-9C43-46D32F2485BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="186">
   <si>
     <t>INPUT</t>
   </si>
@@ -403,24 +403,12 @@
     <t>wgt staddr</t>
   </si>
   <si>
-    <t>oiknsize</t>
-  </si>
-  <si>
     <t>oichsize</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>????_0101</t>
-  </si>
-  <si>
-    <t>????_0212</t>
-  </si>
-  <si>
-    <t>????_0103</t>
-  </si>
-  <si>
     <t>0040_0003</t>
   </si>
   <si>
@@ -463,18 +451,6 @@
     <t>03e8_0200</t>
   </si>
   <si>
-    <t>006f_0003</t>
-  </si>
-  <si>
-    <t>0037_0001</t>
-  </si>
-  <si>
-    <t>001b_0001</t>
-  </si>
-  <si>
-    <t>000d_0001</t>
-  </si>
-  <si>
     <t>Single OP</t>
   </si>
   <si>
@@ -494,13 +470,136 @@
   </si>
   <si>
     <t>2B Aligned</t>
+  </si>
+  <si>
+    <t>0040_0040</t>
+  </si>
+  <si>
+    <t>0080_0080</t>
+  </si>
+  <si>
+    <t>0100_0100</t>
+  </si>
+  <si>
+    <t>000d_000d</t>
+  </si>
+  <si>
+    <t>03e8_03e8</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>001b_6f03</t>
+  </si>
+  <si>
+    <t>op_num, oiknsize</t>
+  </si>
+  <si>
+    <t>0040_3701</t>
+  </si>
+  <si>
+    <t>0010_3701</t>
+  </si>
+  <si>
+    <t>0090_3703</t>
+  </si>
+  <si>
+    <t>0080_3701</t>
+  </si>
+  <si>
+    <t>xxxx_1b03</t>
+  </si>
+  <si>
+    <t>xxxx_3703</t>
+  </si>
+  <si>
+    <t>0080_1b01</t>
+  </si>
+  <si>
+    <t>0020_1b01</t>
+  </si>
+  <si>
+    <t>0120_1b03</t>
+  </si>
+  <si>
+    <t>0100_1b01</t>
+  </si>
+  <si>
+    <t>xxxx_0d03</t>
+  </si>
+  <si>
+    <t>0100_0d01</t>
+  </si>
+  <si>
+    <t>0030_0d01</t>
+  </si>
+  <si>
+    <t>01B0_0d03</t>
+  </si>
+  <si>
+    <t>0180_0d01</t>
+  </si>
+  <si>
+    <t>0080_0d01</t>
+  </si>
+  <si>
+    <t>0040_0d01</t>
+  </si>
+  <si>
+    <t>0240_0d03</t>
+  </si>
+  <si>
+    <t>0200_0d01</t>
+  </si>
+  <si>
+    <t>3021_0202</t>
+  </si>
+  <si>
+    <t>0bd1_0204</t>
+  </si>
+  <si>
+    <t>0bd1_0101</t>
+  </si>
+  <si>
+    <t>0bd1_0103</t>
+  </si>
+  <si>
+    <t>0bd1_0113</t>
+  </si>
+  <si>
+    <t>02d9_0204</t>
+  </si>
+  <si>
+    <t>02d9_0101</t>
+  </si>
+  <si>
+    <t>02d9_0103</t>
+  </si>
+  <si>
+    <t>02d9_0113</t>
+  </si>
+  <si>
+    <t>00a9_0204</t>
+  </si>
+  <si>
+    <t>00a9_0101</t>
+  </si>
+  <si>
+    <t>00a9_0103</t>
+  </si>
+  <si>
+    <t>00a9_0113</t>
+  </si>
+  <si>
+    <t>0001_0105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +609,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Ubuntu Mono"/>
@@ -609,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -751,22 +872,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,10 +897,48 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,32 +1317,32 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="62"/>
+      <c r="S1" s="56"/>
       <c r="T1" s="14" t="s">
         <v>115</v>
       </c>
@@ -5025,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X68" sqref="X68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5043,12 +5186,14 @@
     <col min="13" max="13" width="12.90625" style="41" customWidth="1"/>
     <col min="14" max="14" width="7.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.81640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.81640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.81640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.81640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.81640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.26953125" style="51" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.81640625" style="52" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.90625" bestFit="1" customWidth="1"/>
@@ -5059,42 +5204,42 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="29" t="s">
         <v>118</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
-      <c r="I1" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="67" t="s">
+      <c r="I1" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -5103,10 +5248,10 @@
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="30" t="s">
         <v>84</v>
       </c>
@@ -5119,11 +5264,11 @@
       <c r="H2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="30" t="s">
         <v>116</v>
       </c>
@@ -5131,43 +5276,43 @@
         <v>86</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" s="75"/>
+      <c r="V2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="69"/>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="Y2" s="26" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Z2" s="26" t="s">
         <v>108</v>
       </c>
       <c r="AA2" s="26" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AB2" s="26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>81</v>
@@ -5202,7 +5347,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="32"/>
       <c r="O3" s="33"/>
-      <c r="P3" s="54">
+      <c r="P3" s="62">
         <f>R4</f>
         <v>805888</v>
       </c>
@@ -5210,11 +5355,14 @@
         <f>DEC2HEX(P3)</f>
         <v>C4C00</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="68">
         <v>655360</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="S3" s="16" t="str">
+        <f>DEC2HEX(R3)</f>
+        <v>A0000</v>
+      </c>
+      <c r="T3" s="68"/>
       <c r="U3" s="16"/>
       <c r="V3" s="43"/>
       <c r="W3" s="43"/>
@@ -5281,7 +5429,7 @@
         <f>_xlfn.CEILING.MATH(D4^2*E4/2)*F4</f>
         <v>896</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="63">
         <f>R6</f>
         <v>1594432</v>
       </c>
@@ -5289,7 +5437,7 @@
         <f>DEC2HEX(P4)</f>
         <v>185440</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="69">
         <f>R3+K3</f>
         <v>805888</v>
       </c>
@@ -5297,7 +5445,7 @@
         <f>DEC2HEX(R4)</f>
         <v>C4C00</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="69">
         <v>4096</v>
       </c>
       <c r="U4" s="18" t="str">
@@ -5305,13 +5453,13 @@
         <v>1000</v>
       </c>
       <c r="V4" s="45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="W4" s="45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="X4" s="46" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="Y4" s="4">
         <v>0.2</v>
@@ -5349,11 +5497,11 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="37"/>
-      <c r="P5" s="56"/>
+      <c r="P5" s="64"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="R5" s="70"/>
       <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="T5" s="70"/>
       <c r="U5" s="20"/>
       <c r="V5" s="47"/>
       <c r="W5" s="47"/>
@@ -5402,7 +5550,7 @@
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="39"/>
-      <c r="P6" s="57">
+      <c r="P6" s="65">
         <f>R7</f>
         <v>1788032</v>
       </c>
@@ -5410,7 +5558,7 @@
         <f>DEC2HEX(P6)</f>
         <v>1B4880</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="71">
         <f>R4+K4</f>
         <v>1594432</v>
       </c>
@@ -5418,11 +5566,19 @@
         <f>DEC2HEX(R6)</f>
         <v>185440</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="W6" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="X6" s="50" t="s">
+        <v>173</v>
+      </c>
       <c r="Y6" s="6">
         <v>0.31</v>
       </c>
@@ -5490,7 +5646,7 @@
         <f>_xlfn.CEILING.MATH(D7^2*E7/2)*F7</f>
         <v>512</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="63">
         <f>R9</f>
         <v>1836432</v>
       </c>
@@ -5498,7 +5654,7 @@
         <f>DEC2HEX(P7)</f>
         <v>1C0590</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="69">
         <f>R6+K6</f>
         <v>1788032</v>
       </c>
@@ -5506,7 +5662,7 @@
         <f>DEC2HEX(R7)</f>
         <v>1B4880</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="69">
         <f>T4+O4</f>
         <v>4992</v>
       </c>
@@ -5515,13 +5671,13 @@
         <v>1380</v>
       </c>
       <c r="V7" s="45" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="W7" s="45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="X7" s="46" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="Y7" s="4">
         <v>0.2</v>
@@ -5559,11 +5715,11 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
       <c r="O8" s="37"/>
-      <c r="P8" s="56"/>
+      <c r="P8" s="64"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="R8" s="70"/>
       <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="T8" s="70"/>
       <c r="U8" s="20"/>
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
@@ -5625,7 +5781,7 @@
         <f t="shared" ref="O9:O10" si="4">_xlfn.CEILING.MATH(D9^2*E9/2)*F9</f>
         <v>512</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="63">
         <f>R10</f>
         <v>2030032</v>
       </c>
@@ -5633,7 +5789,7 @@
         <f t="shared" ref="Q9:Q10" si="5">DEC2HEX(P9)</f>
         <v>1EF9D0</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="69">
         <f>R7+K7</f>
         <v>1836432</v>
       </c>
@@ -5641,7 +5797,7 @@
         <f t="shared" ref="S9:S10" si="6">DEC2HEX(R9)</f>
         <v>1C0590</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="69">
         <f>T7+O7</f>
         <v>5504</v>
       </c>
@@ -5650,13 +5806,13 @@
         <v>1580</v>
       </c>
       <c r="V9" s="45" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="W9" s="45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="X9" s="46" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="Y9" s="4">
         <v>0.2</v>
@@ -5725,7 +5881,7 @@
         <f t="shared" si="4"/>
         <v>4608</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="63">
         <f>R14</f>
         <v>2223632</v>
       </c>
@@ -5733,7 +5889,7 @@
         <f t="shared" si="5"/>
         <v>21EE10</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="69">
         <f>R9+K9</f>
         <v>2030032</v>
       </c>
@@ -5741,7 +5897,7 @@
         <f t="shared" si="6"/>
         <v>1EF9D0</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="69">
         <f>T9+O9</f>
         <v>6016</v>
       </c>
@@ -5749,9 +5905,15 @@
         <f t="shared" si="7"/>
         <v>1780</v>
       </c>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46"/>
+      <c r="V10" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="W10" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" s="46" t="s">
+        <v>176</v>
+      </c>
       <c r="Y10" s="4">
         <v>0.2</v>
       </c>
@@ -5788,11 +5950,11 @@
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="56"/>
+      <c r="P11" s="64"/>
       <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="R11" s="70"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="T11" s="70"/>
       <c r="U11" s="20"/>
       <c r="V11" s="47"/>
       <c r="W11" s="47"/>
@@ -5823,11 +5985,11 @@
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="37"/>
-      <c r="P12" s="56"/>
+      <c r="P12" s="64"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="R12" s="70"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="T12" s="70"/>
       <c r="U12" s="20"/>
       <c r="V12" s="47"/>
       <c r="W12" s="47"/>
@@ -5862,11 +6024,11 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="33"/>
-      <c r="P13" s="54"/>
+      <c r="P13" s="62"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="R13" s="68"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+      <c r="T13" s="68"/>
       <c r="U13" s="16"/>
       <c r="V13" s="43"/>
       <c r="W13" s="43"/>
@@ -5928,7 +6090,7 @@
         <f>_xlfn.CEILING.MATH(D14^2*E14/2)*F14</f>
         <v>1024</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="63">
         <f>R16</f>
         <v>2272032</v>
       </c>
@@ -5936,7 +6098,7 @@
         <f>DEC2HEX(P14)</f>
         <v>22AB20</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="69">
         <f>R10+K10</f>
         <v>2223632</v>
       </c>
@@ -5944,7 +6106,7 @@
         <f>DEC2HEX(R14)</f>
         <v>21EE10</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="69">
         <f>T10+O10</f>
         <v>10624</v>
       </c>
@@ -5953,13 +6115,13 @@
         <v>2980</v>
       </c>
       <c r="V14" s="45" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="X14" s="46" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="Y14" s="4">
         <v>0.2</v>
@@ -5997,11 +6159,11 @@
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
       <c r="O15" s="37"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="64"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="R15" s="70"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="20"/>
       <c r="V15" s="47"/>
       <c r="W15" s="47"/>
@@ -6063,7 +6225,7 @@
         <f t="shared" ref="O16:O17" si="12">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
         <v>512</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16" s="63">
         <f>R17</f>
         <v>2465632</v>
       </c>
@@ -6071,7 +6233,7 @@
         <f t="shared" ref="Q16:Q17" si="13">DEC2HEX(P16)</f>
         <v>259F60</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="69">
         <f>R14+K14</f>
         <v>2272032</v>
       </c>
@@ -6079,7 +6241,7 @@
         <f t="shared" ref="S16:S17" si="14">DEC2HEX(R16)</f>
         <v>22AB20</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="69">
         <f>T14+O14</f>
         <v>11648</v>
       </c>
@@ -6088,13 +6250,13 @@
         <v>2D80</v>
       </c>
       <c r="V16" s="45" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="X16" s="46" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="Y16" s="4">
         <v>0.2</v>
@@ -6163,7 +6325,7 @@
         <f t="shared" si="12"/>
         <v>4608</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="63">
         <f>R21</f>
         <v>2659232</v>
       </c>
@@ -6171,7 +6333,7 @@
         <f t="shared" si="13"/>
         <v>2893A0</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="69">
         <f>R16+K16</f>
         <v>2465632</v>
       </c>
@@ -6179,7 +6341,7 @@
         <f t="shared" si="14"/>
         <v>259F60</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="69">
         <f>T16+O16</f>
         <v>12160</v>
       </c>
@@ -6187,9 +6349,15 @@
         <f t="shared" si="15"/>
         <v>2F80</v>
       </c>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="46"/>
+      <c r="V17" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="W17" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="X17" s="46" t="s">
+        <v>176</v>
+      </c>
       <c r="Y17" s="4">
         <v>0.2</v>
       </c>
@@ -6226,11 +6394,11 @@
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
-      <c r="P18" s="56"/>
+      <c r="P18" s="64"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="R18" s="70"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="20"/>
       <c r="V18" s="47"/>
       <c r="W18" s="47"/>
@@ -6261,11 +6429,11 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="37"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="64"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="R19" s="70"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="20"/>
       <c r="V19" s="47"/>
       <c r="W19" s="47"/>
@@ -6300,11 +6468,11 @@
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="33"/>
-      <c r="P20" s="54"/>
+      <c r="P20" s="62"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
+      <c r="T20" s="68"/>
       <c r="U20" s="16"/>
       <c r="V20" s="43"/>
       <c r="W20" s="43"/>
@@ -6353,7 +6521,7 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="39"/>
-      <c r="P21" s="57">
+      <c r="P21" s="65">
         <f>R22</f>
         <v>2752544</v>
       </c>
@@ -6361,7 +6529,7 @@
         <f>DEC2HEX(P21)</f>
         <v>2A0020</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="71">
         <f>R17+K17</f>
         <v>2659232</v>
       </c>
@@ -6369,11 +6537,19 @@
         <f>DEC2HEX(R21)</f>
         <v>2893A0</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="50"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="V21" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="W21" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="X21" s="50" t="s">
+        <v>177</v>
+      </c>
       <c r="Y21" s="6">
         <v>0.31</v>
       </c>
@@ -6441,7 +6617,7 @@
         <f>_xlfn.CEILING.MATH(D22^2*E22/2)*F22</f>
         <v>2048</v>
       </c>
-      <c r="P22" s="55">
+      <c r="P22" s="63">
         <f>R24</f>
         <v>2775872</v>
       </c>
@@ -6449,7 +6625,7 @@
         <f>DEC2HEX(P22)</f>
         <v>2A5B40</v>
       </c>
-      <c r="R22" s="18">
+      <c r="R22" s="69">
         <f>R21+K21</f>
         <v>2752544</v>
       </c>
@@ -6457,7 +6633,7 @@
         <f>DEC2HEX(R22)</f>
         <v>2A0020</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="69">
         <f>T17+O17</f>
         <v>16768</v>
       </c>
@@ -6466,13 +6642,13 @@
         <v>4180</v>
       </c>
       <c r="V22" s="45" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="W22" s="45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="X22" s="46" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="Y22" s="4">
         <v>0.2</v>
@@ -6510,11 +6686,11 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
       <c r="O23" s="37"/>
-      <c r="P23" s="56"/>
+      <c r="P23" s="64"/>
       <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
+      <c r="R23" s="70"/>
       <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="20"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
@@ -6576,7 +6752,7 @@
         <f t="shared" ref="O24:O25" si="20">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
         <v>2048</v>
       </c>
-      <c r="P24" s="55">
+      <c r="P24" s="63">
         <f>R25</f>
         <v>2869184</v>
       </c>
@@ -6584,7 +6760,7 @@
         <f t="shared" ref="Q24:Q25" si="21">DEC2HEX(P24)</f>
         <v>2BC7C0</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="69">
         <f>R22+K22</f>
         <v>2775872</v>
       </c>
@@ -6592,7 +6768,7 @@
         <f t="shared" ref="S24:S25" si="22">DEC2HEX(R24)</f>
         <v>2A5B40</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="69">
         <f>T22+O22</f>
         <v>18816</v>
       </c>
@@ -6601,13 +6777,13 @@
         <v>4980</v>
       </c>
       <c r="V24" s="45" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="W24" s="45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X24" s="46" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Y24" s="4">
         <v>0.2</v>
@@ -6676,7 +6852,7 @@
         <f t="shared" si="20"/>
         <v>18432</v>
       </c>
-      <c r="P25" s="55">
+      <c r="P25" s="63">
         <f>R29</f>
         <v>2962496</v>
       </c>
@@ -6684,7 +6860,7 @@
         <f t="shared" si="21"/>
         <v>2D3440</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="69">
         <f>R24+K24</f>
         <v>2869184</v>
       </c>
@@ -6692,7 +6868,7 @@
         <f t="shared" si="22"/>
         <v>2BC7C0</v>
       </c>
-      <c r="T25" s="18">
+      <c r="T25" s="69">
         <f>T24+O24</f>
         <v>20864</v>
       </c>
@@ -6700,9 +6876,15 @@
         <f t="shared" si="23"/>
         <v>5180</v>
       </c>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="46"/>
+      <c r="V25" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="W25" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="X25" s="46" t="s">
+        <v>180</v>
+      </c>
       <c r="Y25" s="4">
         <v>0.2</v>
       </c>
@@ -6739,11 +6921,11 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
       <c r="O26" s="37"/>
-      <c r="P26" s="56"/>
+      <c r="P26" s="64"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
+      <c r="R26" s="70"/>
       <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="20"/>
       <c r="V26" s="47"/>
       <c r="W26" s="47"/>
@@ -6774,11 +6956,11 @@
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
       <c r="O27" s="37"/>
-      <c r="P27" s="56"/>
+      <c r="P27" s="64"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
+      <c r="R27" s="70"/>
       <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="20"/>
       <c r="V27" s="47"/>
       <c r="W27" s="47"/>
@@ -6813,11 +6995,11 @@
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="33"/>
-      <c r="P28" s="54"/>
+      <c r="P28" s="62"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="R28" s="68"/>
       <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="T28" s="68"/>
       <c r="U28" s="16"/>
       <c r="V28" s="43"/>
       <c r="W28" s="43"/>
@@ -6879,7 +7061,7 @@
         <f>_xlfn.CEILING.MATH(D29^2*E29/2)*F29</f>
         <v>4096</v>
       </c>
-      <c r="P29" s="55">
+      <c r="P29" s="63">
         <f>R31</f>
         <v>2985824</v>
       </c>
@@ -6887,7 +7069,7 @@
         <f>DEC2HEX(P29)</f>
         <v>2D8F60</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="69">
         <f>R25+K25</f>
         <v>2962496</v>
       </c>
@@ -6895,7 +7077,7 @@
         <f>DEC2HEX(R29)</f>
         <v>2D3440</v>
       </c>
-      <c r="T29" s="18">
+      <c r="T29" s="69">
         <f>T25+O25</f>
         <v>39296</v>
       </c>
@@ -6904,13 +7086,13 @@
         <v>9980</v>
       </c>
       <c r="V29" s="45" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="W29" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="X29" s="46" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="Y29" s="4">
         <v>0.2</v>
@@ -6948,11 +7130,11 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
       <c r="O30" s="37"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="64"/>
       <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
+      <c r="R30" s="70"/>
       <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="20"/>
       <c r="V30" s="47"/>
       <c r="W30" s="47"/>
@@ -7014,7 +7196,7 @@
         <f t="shared" ref="O31:O32" si="28">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
         <v>2048</v>
       </c>
-      <c r="P31" s="55">
+      <c r="P31" s="63">
         <f>R32</f>
         <v>3079136</v>
       </c>
@@ -7022,7 +7204,7 @@
         <f t="shared" ref="Q31:Q32" si="29">DEC2HEX(P31)</f>
         <v>2EFBE0</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="69">
         <f>R29+K29</f>
         <v>2985824</v>
       </c>
@@ -7030,7 +7212,7 @@
         <f t="shared" ref="S31:S32" si="30">DEC2HEX(R31)</f>
         <v>2D8F60</v>
       </c>
-      <c r="T31" s="18">
+      <c r="T31" s="69">
         <f>T29+O29</f>
         <v>43392</v>
       </c>
@@ -7039,13 +7221,13 @@
         <v>A980</v>
       </c>
       <c r="V31" s="45" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="W31" s="45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="X31" s="46" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Y31" s="4">
         <v>0.2</v>
@@ -7114,7 +7296,7 @@
         <f t="shared" si="28"/>
         <v>18432</v>
       </c>
-      <c r="P32" s="55">
+      <c r="P32" s="63">
         <f>R36</f>
         <v>3172448</v>
       </c>
@@ -7122,7 +7304,7 @@
         <f t="shared" si="29"/>
         <v>306860</v>
       </c>
-      <c r="R32" s="18">
+      <c r="R32" s="69">
         <f>R31+K31</f>
         <v>3079136</v>
       </c>
@@ -7130,7 +7312,7 @@
         <f t="shared" si="30"/>
         <v>2EFBE0</v>
       </c>
-      <c r="T32" s="18">
+      <c r="T32" s="69">
         <f>T31+O31</f>
         <v>45440</v>
       </c>
@@ -7138,9 +7320,15 @@
         <f t="shared" si="31"/>
         <v>B180</v>
       </c>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="46"/>
+      <c r="V32" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="W32" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="X32" s="46" t="s">
+        <v>180</v>
+      </c>
       <c r="Y32" s="4">
         <v>0.2</v>
       </c>
@@ -7177,11 +7365,11 @@
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
       <c r="O33" s="37"/>
-      <c r="P33" s="56"/>
+      <c r="P33" s="64"/>
       <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
+      <c r="R33" s="70"/>
       <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="20"/>
       <c r="V33" s="47"/>
       <c r="W33" s="47"/>
@@ -7212,11 +7400,11 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="37"/>
-      <c r="P34" s="56"/>
+      <c r="P34" s="64"/>
       <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
+      <c r="R34" s="70"/>
       <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="20"/>
       <c r="V34" s="47"/>
       <c r="W34" s="47"/>
@@ -7249,11 +7437,11 @@
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
       <c r="O35" s="33"/>
-      <c r="P35" s="54"/>
+      <c r="P35" s="62"/>
       <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
+      <c r="R35" s="68"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
+      <c r="T35" s="68"/>
       <c r="U35" s="16"/>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
@@ -7302,7 +7490,7 @@
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="57">
+      <c r="P36" s="65">
         <f>R37</f>
         <v>3215712</v>
       </c>
@@ -7310,7 +7498,7 @@
         <f>DEC2HEX(P36)</f>
         <v>311160</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="71">
         <f>R32+K32</f>
         <v>3172448</v>
       </c>
@@ -7318,11 +7506,19 @@
         <f>DEC2HEX(R36)</f>
         <v>306860</v>
       </c>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="50"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="V36" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="W36" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="X36" s="50" t="s">
+        <v>181</v>
+      </c>
       <c r="Y36" s="6">
         <v>0.31</v>
       </c>
@@ -7390,7 +7586,7 @@
         <f>_xlfn.CEILING.MATH(D37^2*E37/2)*F37</f>
         <v>6144</v>
       </c>
-      <c r="P37" s="55">
+      <c r="P37" s="63">
         <f>R39</f>
         <v>3223824</v>
       </c>
@@ -7398,7 +7594,7 @@
         <f>DEC2HEX(P37)</f>
         <v>313110</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="69">
         <f>R36+K36</f>
         <v>3215712</v>
       </c>
@@ -7406,7 +7602,7 @@
         <f>DEC2HEX(R37)</f>
         <v>311160</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="69">
         <f>T32+O32</f>
         <v>63872</v>
       </c>
@@ -7415,13 +7611,13 @@
         <v>F980</v>
       </c>
       <c r="V37" s="45" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="W37" s="45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="X37" s="46" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="Y37" s="4">
         <v>0.2</v>
@@ -7459,11 +7655,11 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
       <c r="O38" s="37"/>
-      <c r="P38" s="56"/>
+      <c r="P38" s="64"/>
       <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
+      <c r="R38" s="70"/>
       <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="20"/>
       <c r="V38" s="47"/>
       <c r="W38" s="47"/>
@@ -7525,7 +7721,7 @@
         <f t="shared" ref="O39:O40" si="36">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
         <v>4608</v>
       </c>
-      <c r="P39" s="55">
+      <c r="P39" s="63">
         <f>R40</f>
         <v>3256272</v>
       </c>
@@ -7533,7 +7729,7 @@
         <f t="shared" ref="Q39:Q40" si="37">DEC2HEX(P39)</f>
         <v>31AFD0</v>
       </c>
-      <c r="R39" s="18">
+      <c r="R39" s="69">
         <f>R37+K37</f>
         <v>3223824</v>
       </c>
@@ -7541,7 +7737,7 @@
         <f t="shared" ref="S39:S40" si="38">DEC2HEX(R39)</f>
         <v>313110</v>
       </c>
-      <c r="T39" s="18">
+      <c r="T39" s="69">
         <f>T37+O37</f>
         <v>70016</v>
       </c>
@@ -7550,13 +7746,13 @@
         <v>11180</v>
       </c>
       <c r="V39" s="45" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="W39" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="X39" s="46" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="Y39" s="4">
         <v>0.2</v>
@@ -7625,7 +7821,7 @@
         <f t="shared" si="36"/>
         <v>41472</v>
       </c>
-      <c r="P40" s="55">
+      <c r="P40" s="63">
         <f>R44</f>
         <v>3288720</v>
       </c>
@@ -7633,7 +7829,7 @@
         <f t="shared" si="37"/>
         <v>322E90</v>
       </c>
-      <c r="R40" s="18">
+      <c r="R40" s="69">
         <f>R39+K39</f>
         <v>3256272</v>
       </c>
@@ -7641,7 +7837,7 @@
         <f t="shared" si="38"/>
         <v>31AFD0</v>
       </c>
-      <c r="T40" s="18">
+      <c r="T40" s="69">
         <f>T39+O39</f>
         <v>74624</v>
       </c>
@@ -7649,9 +7845,15 @@
         <f t="shared" si="39"/>
         <v>12380</v>
       </c>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="46"/>
+      <c r="V40" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="W40" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="X40" s="46" t="s">
+        <v>184</v>
+      </c>
       <c r="Y40" s="4">
         <v>0.2</v>
       </c>
@@ -7688,11 +7890,11 @@
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
       <c r="O41" s="37"/>
-      <c r="P41" s="56"/>
+      <c r="P41" s="64"/>
       <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
+      <c r="R41" s="70"/>
       <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
+      <c r="T41" s="70"/>
       <c r="U41" s="20"/>
       <c r="V41" s="47"/>
       <c r="W41" s="47"/>
@@ -7723,11 +7925,11 @@
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
       <c r="O42" s="37"/>
-      <c r="P42" s="56"/>
+      <c r="P42" s="64"/>
       <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
+      <c r="R42" s="70"/>
       <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
+      <c r="T42" s="70"/>
       <c r="U42" s="20"/>
       <c r="V42" s="47"/>
       <c r="W42" s="47"/>
@@ -7762,11 +7964,11 @@
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
       <c r="O43" s="33"/>
-      <c r="P43" s="54"/>
+      <c r="P43" s="62"/>
       <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
+      <c r="R43" s="68"/>
       <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
+      <c r="T43" s="68"/>
       <c r="U43" s="16"/>
       <c r="V43" s="43"/>
       <c r="W43" s="43"/>
@@ -7828,7 +8030,7 @@
         <f>_xlfn.CEILING.MATH(D44^2*E44/2)*F44</f>
         <v>9216</v>
       </c>
-      <c r="P44" s="55">
+      <c r="P44" s="63">
         <f>R46</f>
         <v>3296832</v>
       </c>
@@ -7836,7 +8038,7 @@
         <f>DEC2HEX(P44)</f>
         <v>324E40</v>
       </c>
-      <c r="R44" s="18">
+      <c r="R44" s="69">
         <f>R40+K40</f>
         <v>3288720</v>
       </c>
@@ -7844,7 +8046,7 @@
         <f>DEC2HEX(R44)</f>
         <v>322E90</v>
       </c>
-      <c r="T44" s="18">
+      <c r="T44" s="69">
         <f>T40+O40</f>
         <v>116096</v>
       </c>
@@ -7853,13 +8055,13 @@
         <v>1C580</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="W44" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="X44" s="46" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="Y44" s="4">
         <v>0.2</v>
@@ -7897,11 +8099,11 @@
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
       <c r="O45" s="37"/>
-      <c r="P45" s="56"/>
+      <c r="P45" s="64"/>
       <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
+      <c r="R45" s="70"/>
       <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
+      <c r="T45" s="70"/>
       <c r="U45" s="20"/>
       <c r="V45" s="47"/>
       <c r="W45" s="47"/>
@@ -7963,7 +8165,7 @@
         <f t="shared" ref="O46:O47" si="44">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
         <v>4608</v>
       </c>
-      <c r="P46" s="55">
+      <c r="P46" s="63">
         <f>R47</f>
         <v>3329280</v>
       </c>
@@ -7971,7 +8173,7 @@
         <f t="shared" ref="Q46:Q47" si="45">DEC2HEX(P46)</f>
         <v>32CD00</v>
       </c>
-      <c r="R46" s="18">
+      <c r="R46" s="69">
         <f>R44+K44</f>
         <v>3296832</v>
       </c>
@@ -7979,7 +8181,7 @@
         <f t="shared" ref="S46:S47" si="46">DEC2HEX(R46)</f>
         <v>324E40</v>
       </c>
-      <c r="T46" s="18">
+      <c r="T46" s="69">
         <f>T44+O44</f>
         <v>125312</v>
       </c>
@@ -7988,13 +8190,13 @@
         <v>1E980</v>
       </c>
       <c r="V46" s="45" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="W46" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="X46" s="46" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="Y46" s="4">
         <v>0.2</v>
@@ -8063,7 +8265,7 @@
         <f t="shared" si="44"/>
         <v>41472</v>
       </c>
-      <c r="P47" s="55">
+      <c r="P47" s="63">
         <f>R51</f>
         <v>3361728</v>
       </c>
@@ -8071,7 +8273,7 @@
         <f t="shared" si="45"/>
         <v>334BC0</v>
       </c>
-      <c r="R47" s="18">
+      <c r="R47" s="69">
         <f>R46+K46</f>
         <v>3329280</v>
       </c>
@@ -8079,7 +8281,7 @@
         <f t="shared" si="46"/>
         <v>32CD00</v>
       </c>
-      <c r="T47" s="18">
+      <c r="T47" s="69">
         <f>T46+O46</f>
         <v>129920</v>
       </c>
@@ -8087,9 +8289,15 @@
         <f t="shared" si="47"/>
         <v>1FB80</v>
       </c>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="46"/>
+      <c r="V47" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="W47" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="X47" s="46" t="s">
+        <v>184</v>
+      </c>
       <c r="Y47" s="4">
         <v>0.2</v>
       </c>
@@ -8126,11 +8334,11 @@
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
       <c r="O48" s="37"/>
-      <c r="P48" s="56"/>
+      <c r="P48" s="64"/>
       <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
+      <c r="R48" s="70"/>
       <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
+      <c r="T48" s="70"/>
       <c r="U48" s="20"/>
       <c r="V48" s="47"/>
       <c r="W48" s="47"/>
@@ -8161,11 +8369,11 @@
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
       <c r="O49" s="37"/>
-      <c r="P49" s="56"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
+      <c r="R49" s="70"/>
       <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
+      <c r="T49" s="70"/>
       <c r="U49" s="20"/>
       <c r="V49" s="47"/>
       <c r="W49" s="47"/>
@@ -8200,11 +8408,11 @@
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="33"/>
-      <c r="P50" s="54"/>
+      <c r="P50" s="62"/>
       <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
+      <c r="R50" s="68"/>
       <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
+      <c r="T50" s="68"/>
       <c r="U50" s="16"/>
       <c r="V50" s="43"/>
       <c r="W50" s="43"/>
@@ -8266,7 +8474,7 @@
         <f>_xlfn.CEILING.MATH(D51^2*E51/2)*F51</f>
         <v>12288</v>
       </c>
-      <c r="P51" s="55">
+      <c r="P51" s="63">
         <f>R53</f>
         <v>3372544</v>
       </c>
@@ -8274,7 +8482,7 @@
         <f>DEC2HEX(P51)</f>
         <v>337600</v>
       </c>
-      <c r="R51" s="18">
+      <c r="R51" s="69">
         <f>R47+K47</f>
         <v>3361728</v>
       </c>
@@ -8282,7 +8490,7 @@
         <f>DEC2HEX(R51)</f>
         <v>334BC0</v>
       </c>
-      <c r="T51" s="18">
+      <c r="T51" s="69">
         <f>T47+O47</f>
         <v>171392</v>
       </c>
@@ -8291,13 +8499,13 @@
         <v>29D80</v>
       </c>
       <c r="V51" s="45" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="W51" s="45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="X51" s="46" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="Y51" s="4">
         <v>0.2</v>
@@ -8335,11 +8543,11 @@
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
       <c r="O52" s="37"/>
-      <c r="P52" s="56"/>
+      <c r="P52" s="64"/>
       <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
+      <c r="R52" s="70"/>
       <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
+      <c r="T52" s="70"/>
       <c r="U52" s="20"/>
       <c r="V52" s="47"/>
       <c r="W52" s="47"/>
@@ -8401,7 +8609,7 @@
         <f t="shared" ref="O53:O54" si="52">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
         <v>8192</v>
       </c>
-      <c r="P53" s="55">
+      <c r="P53" s="63">
         <f>R54</f>
         <v>3415808</v>
       </c>
@@ -8409,7 +8617,7 @@
         <f t="shared" ref="Q53:Q54" si="53">DEC2HEX(P53)</f>
         <v>341F00</v>
       </c>
-      <c r="R53" s="18">
+      <c r="R53" s="69">
         <f>R51+K51</f>
         <v>3372544</v>
       </c>
@@ -8417,7 +8625,7 @@
         <f t="shared" ref="S53:S54" si="54">DEC2HEX(R53)</f>
         <v>337600</v>
       </c>
-      <c r="T53" s="18">
+      <c r="T53" s="69">
         <f>T51+O51</f>
         <v>183680</v>
       </c>
@@ -8426,13 +8634,13 @@
         <v>2CD80</v>
       </c>
       <c r="V53" s="45" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="W53" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="X53" s="46" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="Y53" s="4">
         <v>0.2</v>
@@ -8501,7 +8709,7 @@
         <f t="shared" si="52"/>
         <v>73728</v>
       </c>
-      <c r="P54" s="55">
+      <c r="P54" s="63">
         <f>R58</f>
         <v>3459072</v>
       </c>
@@ -8509,7 +8717,7 @@
         <f t="shared" si="53"/>
         <v>34C800</v>
       </c>
-      <c r="R54" s="18">
+      <c r="R54" s="69">
         <f>R53+K53</f>
         <v>3415808</v>
       </c>
@@ -8517,7 +8725,7 @@
         <f t="shared" si="54"/>
         <v>341F00</v>
       </c>
-      <c r="T54" s="18">
+      <c r="T54" s="69">
         <f>T53+O53</f>
         <v>191872</v>
       </c>
@@ -8525,9 +8733,15 @@
         <f t="shared" si="55"/>
         <v>2ED80</v>
       </c>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="46"/>
+      <c r="V54" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="W54" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="X54" s="46" t="s">
+        <v>184</v>
+      </c>
       <c r="Y54" s="4">
         <v>0.2</v>
       </c>
@@ -8564,11 +8778,11 @@
       <c r="M55" s="36"/>
       <c r="N55" s="36"/>
       <c r="O55" s="37"/>
-      <c r="P55" s="56"/>
+      <c r="P55" s="64"/>
       <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
+      <c r="R55" s="70"/>
       <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
+      <c r="T55" s="70"/>
       <c r="U55" s="20"/>
       <c r="V55" s="47"/>
       <c r="W55" s="47"/>
@@ -8599,11 +8813,11 @@
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
       <c r="O56" s="37"/>
-      <c r="P56" s="56"/>
+      <c r="P56" s="64"/>
       <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
+      <c r="R56" s="70"/>
       <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
+      <c r="T56" s="70"/>
       <c r="U56" s="20"/>
       <c r="V56" s="47"/>
       <c r="W56" s="47"/>
@@ -8638,11 +8852,11 @@
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
       <c r="O57" s="33"/>
-      <c r="P57" s="54"/>
+      <c r="P57" s="62"/>
       <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
+      <c r="R57" s="68"/>
       <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
+      <c r="T57" s="68"/>
       <c r="U57" s="16"/>
       <c r="V57" s="43"/>
       <c r="W57" s="43"/>
@@ -8704,7 +8918,7 @@
         <f>_xlfn.CEILING.MATH(D58^2*E58/2)*F58</f>
         <v>16384</v>
       </c>
-      <c r="P58" s="55">
+      <c r="P58" s="63">
         <f>R60</f>
         <v>3469888</v>
       </c>
@@ -8712,7 +8926,7 @@
         <f>DEC2HEX(P58)</f>
         <v>34F240</v>
       </c>
-      <c r="R58" s="18">
+      <c r="R58" s="69">
         <f>R54+K54</f>
         <v>3459072</v>
       </c>
@@ -8720,7 +8934,7 @@
         <f>DEC2HEX(R58)</f>
         <v>34C800</v>
       </c>
-      <c r="T58" s="18">
+      <c r="T58" s="69">
         <f>T54+O54</f>
         <v>265600</v>
       </c>
@@ -8729,13 +8943,13 @@
         <v>40D80</v>
       </c>
       <c r="V58" s="45" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="W58" s="45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="X58" s="46" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="Y58" s="4">
         <v>0.2</v>
@@ -8773,11 +8987,11 @@
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
       <c r="O59" s="37"/>
-      <c r="P59" s="56"/>
+      <c r="P59" s="64"/>
       <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
+      <c r="R59" s="70"/>
       <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
+      <c r="T59" s="70"/>
       <c r="U59" s="20"/>
       <c r="V59" s="47"/>
       <c r="W59" s="47"/>
@@ -8839,7 +9053,7 @@
         <f t="shared" ref="O60:O61" si="60">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
         <v>8192</v>
       </c>
-      <c r="P60" s="55">
+      <c r="P60" s="63">
         <f>R61</f>
         <v>3513152</v>
       </c>
@@ -8847,7 +9061,7 @@
         <f t="shared" ref="Q60:Q61" si="61">DEC2HEX(P60)</f>
         <v>359B40</v>
       </c>
-      <c r="R60" s="18">
+      <c r="R60" s="69">
         <f>R58+K58</f>
         <v>3469888</v>
       </c>
@@ -8855,7 +9069,7 @@
         <f t="shared" ref="S60:S61" si="62">DEC2HEX(R60)</f>
         <v>34F240</v>
       </c>
-      <c r="T60" s="18">
+      <c r="T60" s="69">
         <f>T58+O58</f>
         <v>281984</v>
       </c>
@@ -8864,13 +9078,13 @@
         <v>44D80</v>
       </c>
       <c r="V60" s="45" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="W60" s="45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="X60" s="46" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="Y60" s="4">
         <v>0.2</v>
@@ -8939,7 +9153,7 @@
         <f t="shared" si="60"/>
         <v>73728</v>
       </c>
-      <c r="P61" s="55">
+      <c r="P61" s="63">
         <f>R66</f>
         <v>3556416</v>
       </c>
@@ -8947,7 +9161,7 @@
         <f t="shared" si="61"/>
         <v>364440</v>
       </c>
-      <c r="R61" s="18">
+      <c r="R61" s="69">
         <f>R60+K60</f>
         <v>3513152</v>
       </c>
@@ -8955,7 +9169,7 @@
         <f t="shared" si="62"/>
         <v>359B40</v>
       </c>
-      <c r="T61" s="18">
+      <c r="T61" s="69">
         <f>T60+O60</f>
         <v>290176</v>
       </c>
@@ -8963,9 +9177,15 @@
         <f t="shared" si="63"/>
         <v>46D80</v>
       </c>
-      <c r="V61" s="45"/>
-      <c r="W61" s="45"/>
-      <c r="X61" s="46"/>
+      <c r="V61" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="W61" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="X61" s="46" t="s">
+        <v>184</v>
+      </c>
       <c r="Y61" s="4">
         <v>0.2</v>
       </c>
@@ -9002,11 +9222,11 @@
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
       <c r="O62" s="37"/>
-      <c r="P62" s="56"/>
+      <c r="P62" s="64"/>
       <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
+      <c r="R62" s="70"/>
       <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
+      <c r="T62" s="70"/>
       <c r="U62" s="20"/>
       <c r="V62" s="47"/>
       <c r="W62" s="47"/>
@@ -9037,11 +9257,11 @@
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
       <c r="O63" s="37"/>
-      <c r="P63" s="56"/>
+      <c r="P63" s="64"/>
       <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
+      <c r="R63" s="70"/>
       <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
+      <c r="T63" s="70"/>
       <c r="U63" s="20"/>
       <c r="V63" s="47"/>
       <c r="W63" s="47"/>
@@ -9076,11 +9296,11 @@
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="33"/>
-      <c r="P64" s="54"/>
+      <c r="P64" s="62"/>
       <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
+      <c r="R64" s="68"/>
       <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
+      <c r="T64" s="68"/>
       <c r="U64" s="16"/>
       <c r="V64" s="43"/>
       <c r="W64" s="43"/>
@@ -9111,11 +9331,11 @@
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
       <c r="O65" s="37"/>
-      <c r="P65" s="56"/>
+      <c r="P65" s="64"/>
       <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
+      <c r="R65" s="70"/>
       <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
+      <c r="T65" s="70"/>
       <c r="U65" s="20"/>
       <c r="V65" s="47"/>
       <c r="W65" s="47"/>
@@ -9177,7 +9397,7 @@
         <f>_xlfn.CEILING.MATH(D66^2*E66/2)*F66</f>
         <v>256000</v>
       </c>
-      <c r="P66" s="55">
+      <c r="P66" s="63">
         <f>R68</f>
         <v>3725416</v>
       </c>
@@ -9185,7 +9405,7 @@
         <f>DEC2HEX(P66)</f>
         <v>38D868</v>
       </c>
-      <c r="R66" s="18">
+      <c r="R66" s="69">
         <f>R61+K61</f>
         <v>3556416</v>
       </c>
@@ -9193,7 +9413,7 @@
         <f>DEC2HEX(R66)</f>
         <v>364440</v>
       </c>
-      <c r="T66" s="18">
+      <c r="T66" s="69">
         <f>T61+O61</f>
         <v>363904</v>
       </c>
@@ -9202,13 +9422,13 @@
         <v>58D80</v>
       </c>
       <c r="V66" s="45" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="W66" s="45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X66" s="46" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="Y66" s="4">
         <v>0.2</v>
@@ -9246,11 +9466,11 @@
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
       <c r="O67" s="37"/>
-      <c r="P67" s="56"/>
+      <c r="P67" s="64"/>
       <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
+      <c r="R67" s="70"/>
       <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
+      <c r="T67" s="70"/>
       <c r="U67" s="20"/>
       <c r="V67" s="47"/>
       <c r="W67" s="47"/>
@@ -9299,7 +9519,7 @@
       <c r="M68" s="38"/>
       <c r="N68" s="38"/>
       <c r="O68" s="39"/>
-      <c r="P68" s="57">
+      <c r="P68" s="65">
         <f>R69</f>
         <v>3726416</v>
       </c>
@@ -9307,7 +9527,7 @@
         <f>DEC2HEX(P68)</f>
         <v>38DC50</v>
       </c>
-      <c r="R68" s="22">
+      <c r="R68" s="71">
         <f>R66+K66</f>
         <v>3725416</v>
       </c>
@@ -9315,11 +9535,19 @@
         <f>DEC2HEX(R68)</f>
         <v>38D868</v>
       </c>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="50"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="V68" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="W68" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="X68" s="50" t="s">
+        <v>185</v>
+      </c>
       <c r="Y68" s="6">
         <v>1.2</v>
       </c>
@@ -9356,14 +9584,14 @@
       <c r="M69" s="32"/>
       <c r="N69" s="32"/>
       <c r="O69" s="33"/>
-      <c r="P69" s="54"/>
+      <c r="P69" s="62"/>
       <c r="Q69" s="16"/>
-      <c r="R69" s="16">
+      <c r="R69" s="68">
         <f>R68+L68</f>
         <v>3726416</v>
       </c>
       <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
+      <c r="T69" s="68"/>
       <c r="U69" s="16"/>
       <c r="V69" s="43"/>
       <c r="W69" s="43"/>
@@ -9402,11 +9630,11 @@
         <f>SUM(O4:O69)</f>
         <v>615808</v>
       </c>
-      <c r="P70" s="53"/>
+      <c r="P70" s="66"/>
       <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
+      <c r="R70" s="72"/>
       <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
+      <c r="T70" s="72"/>
       <c r="U70" s="24"/>
       <c r="V70" s="14"/>
       <c r="W70" s="14"/>
@@ -9448,11 +9676,11 @@
         <v>1235496</v>
       </c>
       <c r="O71" s="31"/>
-      <c r="P71" s="53"/>
+      <c r="P71" s="66"/>
       <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
+      <c r="R71" s="72"/>
       <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
+      <c r="T71" s="72"/>
       <c r="U71" s="24"/>
       <c r="V71" s="14"/>
       <c r="W71" s="14"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF30648-3F2D-4D3A-9C43-46D32F2485BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A01F76A-E7AE-4EAF-863A-EE77608D3C57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -873,30 +873,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,16 +905,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,32 +1317,32 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="54"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55" t="s">
+      <c r="M1" s="69"/>
+      <c r="N1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55" t="s">
+      <c r="O1" s="69"/>
+      <c r="P1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55" t="s">
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="56"/>
+      <c r="S1" s="70"/>
       <c r="T1" s="14" t="s">
         <v>115</v>
       </c>
@@ -5168,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X68" sqref="X68"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5186,11 +5186,11 @@
     <col min="13" max="13" width="12.90625" style="41" customWidth="1"/>
     <col min="14" max="14" width="7.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.81640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.81640625" style="59" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.81640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="65" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.81640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" style="73" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" style="65" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.81640625" style="53" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.26953125" style="51" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.81640625" style="51" bestFit="1" customWidth="1"/>
@@ -5204,42 +5204,42 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="29" t="s">
         <v>118</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="61" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="57" t="s">
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -5248,10 +5248,10 @@
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="30" t="s">
         <v>84</v>
       </c>
@@ -5264,11 +5264,11 @@
       <c r="H2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="30" t="s">
         <v>116</v>
       </c>
@@ -5281,25 +5281,25 @@
       <c r="O2" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75" t="s">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75" t="s">
+      <c r="S2" s="77"/>
+      <c r="T2" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="U2" s="75"/>
+      <c r="U2" s="77"/>
       <c r="V2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="77" t="s">
+      <c r="X2" s="67" t="s">
         <v>123</v>
       </c>
       <c r="Y2" s="26" t="s">
@@ -5347,7 +5347,7 @@
       <c r="M3" s="32"/>
       <c r="N3" s="32"/>
       <c r="O3" s="33"/>
-      <c r="P3" s="62">
+      <c r="P3" s="54">
         <f>R4</f>
         <v>805888</v>
       </c>
@@ -5355,14 +5355,14 @@
         <f>DEC2HEX(P3)</f>
         <v>C4C00</v>
       </c>
-      <c r="R3" s="68">
+      <c r="R3" s="60">
         <v>655360</v>
       </c>
       <c r="S3" s="16" t="str">
         <f>DEC2HEX(R3)</f>
         <v>A0000</v>
       </c>
-      <c r="T3" s="68"/>
+      <c r="T3" s="60"/>
       <c r="U3" s="16"/>
       <c r="V3" s="43"/>
       <c r="W3" s="43"/>
@@ -5429,7 +5429,7 @@
         <f>_xlfn.CEILING.MATH(D4^2*E4/2)*F4</f>
         <v>896</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="55">
         <f>R6</f>
         <v>1594432</v>
       </c>
@@ -5437,7 +5437,7 @@
         <f>DEC2HEX(P4)</f>
         <v>185440</v>
       </c>
-      <c r="R4" s="69">
+      <c r="R4" s="61">
         <f>R3+K3</f>
         <v>805888</v>
       </c>
@@ -5445,7 +5445,7 @@
         <f>DEC2HEX(R4)</f>
         <v>C4C00</v>
       </c>
-      <c r="T4" s="69">
+      <c r="T4" s="61">
         <v>4096</v>
       </c>
       <c r="U4" s="18" t="str">
@@ -5497,11 +5497,11 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="37"/>
-      <c r="P5" s="64"/>
+      <c r="P5" s="56"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="70"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="20"/>
-      <c r="T5" s="70"/>
+      <c r="T5" s="62"/>
       <c r="U5" s="20"/>
       <c r="V5" s="47"/>
       <c r="W5" s="47"/>
@@ -5550,7 +5550,7 @@
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="39"/>
-      <c r="P6" s="65">
+      <c r="P6" s="57">
         <f>R7</f>
         <v>1788032</v>
       </c>
@@ -5558,7 +5558,7 @@
         <f>DEC2HEX(P6)</f>
         <v>1B4880</v>
       </c>
-      <c r="R6" s="71">
+      <c r="R6" s="63">
         <f>R4+K4</f>
         <v>1594432</v>
       </c>
@@ -5566,7 +5566,7 @@
         <f>DEC2HEX(R6)</f>
         <v>185440</v>
       </c>
-      <c r="T6" s="71"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="22" t="s">
         <v>150</v>
       </c>
@@ -5646,7 +5646,7 @@
         <f>_xlfn.CEILING.MATH(D7^2*E7/2)*F7</f>
         <v>512</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="55">
         <f>R9</f>
         <v>1836432</v>
       </c>
@@ -5654,7 +5654,7 @@
         <f>DEC2HEX(P7)</f>
         <v>1C0590</v>
       </c>
-      <c r="R7" s="69">
+      <c r="R7" s="61">
         <f>R6+K6</f>
         <v>1788032</v>
       </c>
@@ -5662,7 +5662,7 @@
         <f>DEC2HEX(R7)</f>
         <v>1B4880</v>
       </c>
-      <c r="T7" s="69">
+      <c r="T7" s="61">
         <f>T4+O4</f>
         <v>4992</v>
       </c>
@@ -5715,11 +5715,11 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
       <c r="O8" s="37"/>
-      <c r="P8" s="64"/>
+      <c r="P8" s="56"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="70"/>
+      <c r="R8" s="62"/>
       <c r="S8" s="20"/>
-      <c r="T8" s="70"/>
+      <c r="T8" s="62"/>
       <c r="U8" s="20"/>
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
@@ -5781,7 +5781,7 @@
         <f t="shared" ref="O9:O10" si="4">_xlfn.CEILING.MATH(D9^2*E9/2)*F9</f>
         <v>512</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="55">
         <f>R10</f>
         <v>2030032</v>
       </c>
@@ -5789,7 +5789,7 @@
         <f t="shared" ref="Q9:Q10" si="5">DEC2HEX(P9)</f>
         <v>1EF9D0</v>
       </c>
-      <c r="R9" s="69">
+      <c r="R9" s="61">
         <f>R7+K7</f>
         <v>1836432</v>
       </c>
@@ -5797,7 +5797,7 @@
         <f t="shared" ref="S9:S10" si="6">DEC2HEX(R9)</f>
         <v>1C0590</v>
       </c>
-      <c r="T9" s="69">
+      <c r="T9" s="61">
         <f>T7+O7</f>
         <v>5504</v>
       </c>
@@ -5881,7 +5881,7 @@
         <f t="shared" si="4"/>
         <v>4608</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="55">
         <f>R14</f>
         <v>2223632</v>
       </c>
@@ -5889,7 +5889,7 @@
         <f t="shared" si="5"/>
         <v>21EE10</v>
       </c>
-      <c r="R10" s="69">
+      <c r="R10" s="61">
         <f>R9+K9</f>
         <v>2030032</v>
       </c>
@@ -5897,7 +5897,7 @@
         <f t="shared" si="6"/>
         <v>1EF9D0</v>
       </c>
-      <c r="T10" s="69">
+      <c r="T10" s="61">
         <f>T9+O9</f>
         <v>6016</v>
       </c>
@@ -5950,11 +5950,11 @@
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="64"/>
+      <c r="P11" s="56"/>
       <c r="Q11" s="20"/>
-      <c r="R11" s="70"/>
+      <c r="R11" s="62"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="70"/>
+      <c r="T11" s="62"/>
       <c r="U11" s="20"/>
       <c r="V11" s="47"/>
       <c r="W11" s="47"/>
@@ -5985,11 +5985,11 @@
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="37"/>
-      <c r="P12" s="64"/>
+      <c r="P12" s="56"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="70"/>
+      <c r="R12" s="62"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="70"/>
+      <c r="T12" s="62"/>
       <c r="U12" s="20"/>
       <c r="V12" s="47"/>
       <c r="W12" s="47"/>
@@ -6024,11 +6024,11 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="33"/>
-      <c r="P13" s="62"/>
+      <c r="P13" s="54"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="68"/>
+      <c r="R13" s="60"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="68"/>
+      <c r="T13" s="60"/>
       <c r="U13" s="16"/>
       <c r="V13" s="43"/>
       <c r="W13" s="43"/>
@@ -6090,7 +6090,7 @@
         <f>_xlfn.CEILING.MATH(D14^2*E14/2)*F14</f>
         <v>1024</v>
       </c>
-      <c r="P14" s="63">
+      <c r="P14" s="55">
         <f>R16</f>
         <v>2272032</v>
       </c>
@@ -6098,7 +6098,7 @@
         <f>DEC2HEX(P14)</f>
         <v>22AB20</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="61">
         <f>R10+K10</f>
         <v>2223632</v>
       </c>
@@ -6106,7 +6106,7 @@
         <f>DEC2HEX(R14)</f>
         <v>21EE10</v>
       </c>
-      <c r="T14" s="69">
+      <c r="T14" s="61">
         <f>T10+O10</f>
         <v>10624</v>
       </c>
@@ -6159,11 +6159,11 @@
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
       <c r="O15" s="37"/>
-      <c r="P15" s="64"/>
+      <c r="P15" s="56"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="70"/>
+      <c r="R15" s="62"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="70"/>
+      <c r="T15" s="62"/>
       <c r="U15" s="20"/>
       <c r="V15" s="47"/>
       <c r="W15" s="47"/>
@@ -6225,7 +6225,7 @@
         <f t="shared" ref="O16:O17" si="12">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
         <v>512</v>
       </c>
-      <c r="P16" s="63">
+      <c r="P16" s="55">
         <f>R17</f>
         <v>2465632</v>
       </c>
@@ -6233,7 +6233,7 @@
         <f t="shared" ref="Q16:Q17" si="13">DEC2HEX(P16)</f>
         <v>259F60</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="61">
         <f>R14+K14</f>
         <v>2272032</v>
       </c>
@@ -6241,7 +6241,7 @@
         <f t="shared" ref="S16:S17" si="14">DEC2HEX(R16)</f>
         <v>22AB20</v>
       </c>
-      <c r="T16" s="69">
+      <c r="T16" s="61">
         <f>T14+O14</f>
         <v>11648</v>
       </c>
@@ -6325,7 +6325,7 @@
         <f t="shared" si="12"/>
         <v>4608</v>
       </c>
-      <c r="P17" s="63">
+      <c r="P17" s="55">
         <f>R21</f>
         <v>2659232</v>
       </c>
@@ -6333,7 +6333,7 @@
         <f t="shared" si="13"/>
         <v>2893A0</v>
       </c>
-      <c r="R17" s="69">
+      <c r="R17" s="61">
         <f>R16+K16</f>
         <v>2465632</v>
       </c>
@@ -6341,7 +6341,7 @@
         <f t="shared" si="14"/>
         <v>259F60</v>
       </c>
-      <c r="T17" s="69">
+      <c r="T17" s="61">
         <f>T16+O16</f>
         <v>12160</v>
       </c>
@@ -6394,11 +6394,11 @@
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
-      <c r="P18" s="64"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="70"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="70"/>
+      <c r="T18" s="62"/>
       <c r="U18" s="20"/>
       <c r="V18" s="47"/>
       <c r="W18" s="47"/>
@@ -6429,11 +6429,11 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="37"/>
-      <c r="P19" s="64"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="70"/>
+      <c r="R19" s="62"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="70"/>
+      <c r="T19" s="62"/>
       <c r="U19" s="20"/>
       <c r="V19" s="47"/>
       <c r="W19" s="47"/>
@@ -6468,11 +6468,11 @@
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="33"/>
-      <c r="P20" s="62"/>
+      <c r="P20" s="54"/>
       <c r="Q20" s="16"/>
-      <c r="R20" s="68"/>
+      <c r="R20" s="60"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="68"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="16"/>
       <c r="V20" s="43"/>
       <c r="W20" s="43"/>
@@ -6521,7 +6521,7 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="39"/>
-      <c r="P21" s="65">
+      <c r="P21" s="57">
         <f>R22</f>
         <v>2752544</v>
       </c>
@@ -6529,7 +6529,7 @@
         <f>DEC2HEX(P21)</f>
         <v>2A0020</v>
       </c>
-      <c r="R21" s="71">
+      <c r="R21" s="63">
         <f>R17+K17</f>
         <v>2659232</v>
       </c>
@@ -6537,7 +6537,7 @@
         <f>DEC2HEX(R21)</f>
         <v>2893A0</v>
       </c>
-      <c r="T21" s="71"/>
+      <c r="T21" s="63"/>
       <c r="U21" s="22" t="s">
         <v>150</v>
       </c>
@@ -6617,7 +6617,7 @@
         <f>_xlfn.CEILING.MATH(D22^2*E22/2)*F22</f>
         <v>2048</v>
       </c>
-      <c r="P22" s="63">
+      <c r="P22" s="55">
         <f>R24</f>
         <v>2775872</v>
       </c>
@@ -6625,7 +6625,7 @@
         <f>DEC2HEX(P22)</f>
         <v>2A5B40</v>
       </c>
-      <c r="R22" s="69">
+      <c r="R22" s="61">
         <f>R21+K21</f>
         <v>2752544</v>
       </c>
@@ -6633,7 +6633,7 @@
         <f>DEC2HEX(R22)</f>
         <v>2A0020</v>
       </c>
-      <c r="T22" s="69">
+      <c r="T22" s="61">
         <f>T17+O17</f>
         <v>16768</v>
       </c>
@@ -6686,11 +6686,11 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
       <c r="O23" s="37"/>
-      <c r="P23" s="64"/>
+      <c r="P23" s="56"/>
       <c r="Q23" s="20"/>
-      <c r="R23" s="70"/>
+      <c r="R23" s="62"/>
       <c r="S23" s="20"/>
-      <c r="T23" s="70"/>
+      <c r="T23" s="62"/>
       <c r="U23" s="20"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
@@ -6752,7 +6752,7 @@
         <f t="shared" ref="O24:O25" si="20">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
         <v>2048</v>
       </c>
-      <c r="P24" s="63">
+      <c r="P24" s="55">
         <f>R25</f>
         <v>2869184</v>
       </c>
@@ -6760,7 +6760,7 @@
         <f t="shared" ref="Q24:Q25" si="21">DEC2HEX(P24)</f>
         <v>2BC7C0</v>
       </c>
-      <c r="R24" s="69">
+      <c r="R24" s="61">
         <f>R22+K22</f>
         <v>2775872</v>
       </c>
@@ -6768,7 +6768,7 @@
         <f t="shared" ref="S24:S25" si="22">DEC2HEX(R24)</f>
         <v>2A5B40</v>
       </c>
-      <c r="T24" s="69">
+      <c r="T24" s="61">
         <f>T22+O22</f>
         <v>18816</v>
       </c>
@@ -6852,7 +6852,7 @@
         <f t="shared" si="20"/>
         <v>18432</v>
       </c>
-      <c r="P25" s="63">
+      <c r="P25" s="55">
         <f>R29</f>
         <v>2962496</v>
       </c>
@@ -6860,7 +6860,7 @@
         <f t="shared" si="21"/>
         <v>2D3440</v>
       </c>
-      <c r="R25" s="69">
+      <c r="R25" s="61">
         <f>R24+K24</f>
         <v>2869184</v>
       </c>
@@ -6868,7 +6868,7 @@
         <f t="shared" si="22"/>
         <v>2BC7C0</v>
       </c>
-      <c r="T25" s="69">
+      <c r="T25" s="61">
         <f>T24+O24</f>
         <v>20864</v>
       </c>
@@ -6921,11 +6921,11 @@
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
       <c r="O26" s="37"/>
-      <c r="P26" s="64"/>
+      <c r="P26" s="56"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="70"/>
+      <c r="R26" s="62"/>
       <c r="S26" s="20"/>
-      <c r="T26" s="70"/>
+      <c r="T26" s="62"/>
       <c r="U26" s="20"/>
       <c r="V26" s="47"/>
       <c r="W26" s="47"/>
@@ -6956,11 +6956,11 @@
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
       <c r="O27" s="37"/>
-      <c r="P27" s="64"/>
+      <c r="P27" s="56"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="70"/>
+      <c r="R27" s="62"/>
       <c r="S27" s="20"/>
-      <c r="T27" s="70"/>
+      <c r="T27" s="62"/>
       <c r="U27" s="20"/>
       <c r="V27" s="47"/>
       <c r="W27" s="47"/>
@@ -6995,11 +6995,11 @@
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="33"/>
-      <c r="P28" s="62"/>
+      <c r="P28" s="54"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="68"/>
+      <c r="R28" s="60"/>
       <c r="S28" s="16"/>
-      <c r="T28" s="68"/>
+      <c r="T28" s="60"/>
       <c r="U28" s="16"/>
       <c r="V28" s="43"/>
       <c r="W28" s="43"/>
@@ -7061,7 +7061,7 @@
         <f>_xlfn.CEILING.MATH(D29^2*E29/2)*F29</f>
         <v>4096</v>
       </c>
-      <c r="P29" s="63">
+      <c r="P29" s="55">
         <f>R31</f>
         <v>2985824</v>
       </c>
@@ -7069,7 +7069,7 @@
         <f>DEC2HEX(P29)</f>
         <v>2D8F60</v>
       </c>
-      <c r="R29" s="69">
+      <c r="R29" s="61">
         <f>R25+K25</f>
         <v>2962496</v>
       </c>
@@ -7077,7 +7077,7 @@
         <f>DEC2HEX(R29)</f>
         <v>2D3440</v>
       </c>
-      <c r="T29" s="69">
+      <c r="T29" s="61">
         <f>T25+O25</f>
         <v>39296</v>
       </c>
@@ -7130,11 +7130,11 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
       <c r="O30" s="37"/>
-      <c r="P30" s="64"/>
+      <c r="P30" s="56"/>
       <c r="Q30" s="20"/>
-      <c r="R30" s="70"/>
+      <c r="R30" s="62"/>
       <c r="S30" s="20"/>
-      <c r="T30" s="70"/>
+      <c r="T30" s="62"/>
       <c r="U30" s="20"/>
       <c r="V30" s="47"/>
       <c r="W30" s="47"/>
@@ -7196,7 +7196,7 @@
         <f t="shared" ref="O31:O32" si="28">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
         <v>2048</v>
       </c>
-      <c r="P31" s="63">
+      <c r="P31" s="55">
         <f>R32</f>
         <v>3079136</v>
       </c>
@@ -7204,7 +7204,7 @@
         <f t="shared" ref="Q31:Q32" si="29">DEC2HEX(P31)</f>
         <v>2EFBE0</v>
       </c>
-      <c r="R31" s="69">
+      <c r="R31" s="61">
         <f>R29+K29</f>
         <v>2985824</v>
       </c>
@@ -7212,7 +7212,7 @@
         <f t="shared" ref="S31:S32" si="30">DEC2HEX(R31)</f>
         <v>2D8F60</v>
       </c>
-      <c r="T31" s="69">
+      <c r="T31" s="61">
         <f>T29+O29</f>
         <v>43392</v>
       </c>
@@ -7296,7 +7296,7 @@
         <f t="shared" si="28"/>
         <v>18432</v>
       </c>
-      <c r="P32" s="63">
+      <c r="P32" s="55">
         <f>R36</f>
         <v>3172448</v>
       </c>
@@ -7304,7 +7304,7 @@
         <f t="shared" si="29"/>
         <v>306860</v>
       </c>
-      <c r="R32" s="69">
+      <c r="R32" s="61">
         <f>R31+K31</f>
         <v>3079136</v>
       </c>
@@ -7312,7 +7312,7 @@
         <f t="shared" si="30"/>
         <v>2EFBE0</v>
       </c>
-      <c r="T32" s="69">
+      <c r="T32" s="61">
         <f>T31+O31</f>
         <v>45440</v>
       </c>
@@ -7365,11 +7365,11 @@
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
       <c r="O33" s="37"/>
-      <c r="P33" s="64"/>
+      <c r="P33" s="56"/>
       <c r="Q33" s="20"/>
-      <c r="R33" s="70"/>
+      <c r="R33" s="62"/>
       <c r="S33" s="20"/>
-      <c r="T33" s="70"/>
+      <c r="T33" s="62"/>
       <c r="U33" s="20"/>
       <c r="V33" s="47"/>
       <c r="W33" s="47"/>
@@ -7400,11 +7400,11 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="37"/>
-      <c r="P34" s="64"/>
+      <c r="P34" s="56"/>
       <c r="Q34" s="20"/>
-      <c r="R34" s="70"/>
+      <c r="R34" s="62"/>
       <c r="S34" s="20"/>
-      <c r="T34" s="70"/>
+      <c r="T34" s="62"/>
       <c r="U34" s="20"/>
       <c r="V34" s="47"/>
       <c r="W34" s="47"/>
@@ -7437,11 +7437,11 @@
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
       <c r="O35" s="33"/>
-      <c r="P35" s="62"/>
+      <c r="P35" s="54"/>
       <c r="Q35" s="16"/>
-      <c r="R35" s="68"/>
+      <c r="R35" s="60"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="68"/>
+      <c r="T35" s="60"/>
       <c r="U35" s="16"/>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
@@ -7490,7 +7490,7 @@
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="65">
+      <c r="P36" s="57">
         <f>R37</f>
         <v>3215712</v>
       </c>
@@ -7498,7 +7498,7 @@
         <f>DEC2HEX(P36)</f>
         <v>311160</v>
       </c>
-      <c r="R36" s="71">
+      <c r="R36" s="63">
         <f>R32+K32</f>
         <v>3172448</v>
       </c>
@@ -7506,7 +7506,7 @@
         <f>DEC2HEX(R36)</f>
         <v>306860</v>
       </c>
-      <c r="T36" s="71"/>
+      <c r="T36" s="63"/>
       <c r="U36" s="22" t="s">
         <v>150</v>
       </c>
@@ -7586,7 +7586,7 @@
         <f>_xlfn.CEILING.MATH(D37^2*E37/2)*F37</f>
         <v>6144</v>
       </c>
-      <c r="P37" s="63">
+      <c r="P37" s="55">
         <f>R39</f>
         <v>3223824</v>
       </c>
@@ -7594,7 +7594,7 @@
         <f>DEC2HEX(P37)</f>
         <v>313110</v>
       </c>
-      <c r="R37" s="69">
+      <c r="R37" s="61">
         <f>R36+K36</f>
         <v>3215712</v>
       </c>
@@ -7602,7 +7602,7 @@
         <f>DEC2HEX(R37)</f>
         <v>311160</v>
       </c>
-      <c r="T37" s="69">
+      <c r="T37" s="61">
         <f>T32+O32</f>
         <v>63872</v>
       </c>
@@ -7655,11 +7655,11 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
       <c r="O38" s="37"/>
-      <c r="P38" s="64"/>
+      <c r="P38" s="56"/>
       <c r="Q38" s="20"/>
-      <c r="R38" s="70"/>
+      <c r="R38" s="62"/>
       <c r="S38" s="20"/>
-      <c r="T38" s="70"/>
+      <c r="T38" s="62"/>
       <c r="U38" s="20"/>
       <c r="V38" s="47"/>
       <c r="W38" s="47"/>
@@ -7721,7 +7721,7 @@
         <f t="shared" ref="O39:O40" si="36">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
         <v>4608</v>
       </c>
-      <c r="P39" s="63">
+      <c r="P39" s="55">
         <f>R40</f>
         <v>3256272</v>
       </c>
@@ -7729,7 +7729,7 @@
         <f t="shared" ref="Q39:Q40" si="37">DEC2HEX(P39)</f>
         <v>31AFD0</v>
       </c>
-      <c r="R39" s="69">
+      <c r="R39" s="61">
         <f>R37+K37</f>
         <v>3223824</v>
       </c>
@@ -7737,7 +7737,7 @@
         <f t="shared" ref="S39:S40" si="38">DEC2HEX(R39)</f>
         <v>313110</v>
       </c>
-      <c r="T39" s="69">
+      <c r="T39" s="61">
         <f>T37+O37</f>
         <v>70016</v>
       </c>
@@ -7821,7 +7821,7 @@
         <f t="shared" si="36"/>
         <v>41472</v>
       </c>
-      <c r="P40" s="63">
+      <c r="P40" s="55">
         <f>R44</f>
         <v>3288720</v>
       </c>
@@ -7829,7 +7829,7 @@
         <f t="shared" si="37"/>
         <v>322E90</v>
       </c>
-      <c r="R40" s="69">
+      <c r="R40" s="61">
         <f>R39+K39</f>
         <v>3256272</v>
       </c>
@@ -7837,7 +7837,7 @@
         <f t="shared" si="38"/>
         <v>31AFD0</v>
       </c>
-      <c r="T40" s="69">
+      <c r="T40" s="61">
         <f>T39+O39</f>
         <v>74624</v>
       </c>
@@ -7890,11 +7890,11 @@
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
       <c r="O41" s="37"/>
-      <c r="P41" s="64"/>
+      <c r="P41" s="56"/>
       <c r="Q41" s="20"/>
-      <c r="R41" s="70"/>
+      <c r="R41" s="62"/>
       <c r="S41" s="20"/>
-      <c r="T41" s="70"/>
+      <c r="T41" s="62"/>
       <c r="U41" s="20"/>
       <c r="V41" s="47"/>
       <c r="W41" s="47"/>
@@ -7925,11 +7925,11 @@
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
       <c r="O42" s="37"/>
-      <c r="P42" s="64"/>
+      <c r="P42" s="56"/>
       <c r="Q42" s="20"/>
-      <c r="R42" s="70"/>
+      <c r="R42" s="62"/>
       <c r="S42" s="20"/>
-      <c r="T42" s="70"/>
+      <c r="T42" s="62"/>
       <c r="U42" s="20"/>
       <c r="V42" s="47"/>
       <c r="W42" s="47"/>
@@ -7964,11 +7964,11 @@
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
       <c r="O43" s="33"/>
-      <c r="P43" s="62"/>
+      <c r="P43" s="54"/>
       <c r="Q43" s="16"/>
-      <c r="R43" s="68"/>
+      <c r="R43" s="60"/>
       <c r="S43" s="16"/>
-      <c r="T43" s="68"/>
+      <c r="T43" s="60"/>
       <c r="U43" s="16"/>
       <c r="V43" s="43"/>
       <c r="W43" s="43"/>
@@ -8030,7 +8030,7 @@
         <f>_xlfn.CEILING.MATH(D44^2*E44/2)*F44</f>
         <v>9216</v>
       </c>
-      <c r="P44" s="63">
+      <c r="P44" s="55">
         <f>R46</f>
         <v>3296832</v>
       </c>
@@ -8038,7 +8038,7 @@
         <f>DEC2HEX(P44)</f>
         <v>324E40</v>
       </c>
-      <c r="R44" s="69">
+      <c r="R44" s="61">
         <f>R40+K40</f>
         <v>3288720</v>
       </c>
@@ -8046,7 +8046,7 @@
         <f>DEC2HEX(R44)</f>
         <v>322E90</v>
       </c>
-      <c r="T44" s="69">
+      <c r="T44" s="61">
         <f>T40+O40</f>
         <v>116096</v>
       </c>
@@ -8099,11 +8099,11 @@
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
       <c r="O45" s="37"/>
-      <c r="P45" s="64"/>
+      <c r="P45" s="56"/>
       <c r="Q45" s="20"/>
-      <c r="R45" s="70"/>
+      <c r="R45" s="62"/>
       <c r="S45" s="20"/>
-      <c r="T45" s="70"/>
+      <c r="T45" s="62"/>
       <c r="U45" s="20"/>
       <c r="V45" s="47"/>
       <c r="W45" s="47"/>
@@ -8165,7 +8165,7 @@
         <f t="shared" ref="O46:O47" si="44">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
         <v>4608</v>
       </c>
-      <c r="P46" s="63">
+      <c r="P46" s="55">
         <f>R47</f>
         <v>3329280</v>
       </c>
@@ -8173,7 +8173,7 @@
         <f t="shared" ref="Q46:Q47" si="45">DEC2HEX(P46)</f>
         <v>32CD00</v>
       </c>
-      <c r="R46" s="69">
+      <c r="R46" s="61">
         <f>R44+K44</f>
         <v>3296832</v>
       </c>
@@ -8181,7 +8181,7 @@
         <f t="shared" ref="S46:S47" si="46">DEC2HEX(R46)</f>
         <v>324E40</v>
       </c>
-      <c r="T46" s="69">
+      <c r="T46" s="61">
         <f>T44+O44</f>
         <v>125312</v>
       </c>
@@ -8265,7 +8265,7 @@
         <f t="shared" si="44"/>
         <v>41472</v>
       </c>
-      <c r="P47" s="63">
+      <c r="P47" s="55">
         <f>R51</f>
         <v>3361728</v>
       </c>
@@ -8273,7 +8273,7 @@
         <f t="shared" si="45"/>
         <v>334BC0</v>
       </c>
-      <c r="R47" s="69">
+      <c r="R47" s="61">
         <f>R46+K46</f>
         <v>3329280</v>
       </c>
@@ -8281,7 +8281,7 @@
         <f t="shared" si="46"/>
         <v>32CD00</v>
       </c>
-      <c r="T47" s="69">
+      <c r="T47" s="61">
         <f>T46+O46</f>
         <v>129920</v>
       </c>
@@ -8334,11 +8334,11 @@
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
       <c r="O48" s="37"/>
-      <c r="P48" s="64"/>
+      <c r="P48" s="56"/>
       <c r="Q48" s="20"/>
-      <c r="R48" s="70"/>
+      <c r="R48" s="62"/>
       <c r="S48" s="20"/>
-      <c r="T48" s="70"/>
+      <c r="T48" s="62"/>
       <c r="U48" s="20"/>
       <c r="V48" s="47"/>
       <c r="W48" s="47"/>
@@ -8369,11 +8369,11 @@
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
       <c r="O49" s="37"/>
-      <c r="P49" s="64"/>
+      <c r="P49" s="56"/>
       <c r="Q49" s="20"/>
-      <c r="R49" s="70"/>
+      <c r="R49" s="62"/>
       <c r="S49" s="20"/>
-      <c r="T49" s="70"/>
+      <c r="T49" s="62"/>
       <c r="U49" s="20"/>
       <c r="V49" s="47"/>
       <c r="W49" s="47"/>
@@ -8408,11 +8408,11 @@
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="33"/>
-      <c r="P50" s="62"/>
+      <c r="P50" s="54"/>
       <c r="Q50" s="16"/>
-      <c r="R50" s="68"/>
+      <c r="R50" s="60"/>
       <c r="S50" s="16"/>
-      <c r="T50" s="68"/>
+      <c r="T50" s="60"/>
       <c r="U50" s="16"/>
       <c r="V50" s="43"/>
       <c r="W50" s="43"/>
@@ -8474,7 +8474,7 @@
         <f>_xlfn.CEILING.MATH(D51^2*E51/2)*F51</f>
         <v>12288</v>
       </c>
-      <c r="P51" s="63">
+      <c r="P51" s="55">
         <f>R53</f>
         <v>3372544</v>
       </c>
@@ -8482,7 +8482,7 @@
         <f>DEC2HEX(P51)</f>
         <v>337600</v>
       </c>
-      <c r="R51" s="69">
+      <c r="R51" s="61">
         <f>R47+K47</f>
         <v>3361728</v>
       </c>
@@ -8490,7 +8490,7 @@
         <f>DEC2HEX(R51)</f>
         <v>334BC0</v>
       </c>
-      <c r="T51" s="69">
+      <c r="T51" s="61">
         <f>T47+O47</f>
         <v>171392</v>
       </c>
@@ -8543,11 +8543,11 @@
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
       <c r="O52" s="37"/>
-      <c r="P52" s="64"/>
+      <c r="P52" s="56"/>
       <c r="Q52" s="20"/>
-      <c r="R52" s="70"/>
+      <c r="R52" s="62"/>
       <c r="S52" s="20"/>
-      <c r="T52" s="70"/>
+      <c r="T52" s="62"/>
       <c r="U52" s="20"/>
       <c r="V52" s="47"/>
       <c r="W52" s="47"/>
@@ -8609,7 +8609,7 @@
         <f t="shared" ref="O53:O54" si="52">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
         <v>8192</v>
       </c>
-      <c r="P53" s="63">
+      <c r="P53" s="55">
         <f>R54</f>
         <v>3415808</v>
       </c>
@@ -8617,7 +8617,7 @@
         <f t="shared" ref="Q53:Q54" si="53">DEC2HEX(P53)</f>
         <v>341F00</v>
       </c>
-      <c r="R53" s="69">
+      <c r="R53" s="61">
         <f>R51+K51</f>
         <v>3372544</v>
       </c>
@@ -8625,7 +8625,7 @@
         <f t="shared" ref="S53:S54" si="54">DEC2HEX(R53)</f>
         <v>337600</v>
       </c>
-      <c r="T53" s="69">
+      <c r="T53" s="61">
         <f>T51+O51</f>
         <v>183680</v>
       </c>
@@ -8709,7 +8709,7 @@
         <f t="shared" si="52"/>
         <v>73728</v>
       </c>
-      <c r="P54" s="63">
+      <c r="P54" s="55">
         <f>R58</f>
         <v>3459072</v>
       </c>
@@ -8717,7 +8717,7 @@
         <f t="shared" si="53"/>
         <v>34C800</v>
       </c>
-      <c r="R54" s="69">
+      <c r="R54" s="61">
         <f>R53+K53</f>
         <v>3415808</v>
       </c>
@@ -8725,7 +8725,7 @@
         <f t="shared" si="54"/>
         <v>341F00</v>
       </c>
-      <c r="T54" s="69">
+      <c r="T54" s="61">
         <f>T53+O53</f>
         <v>191872</v>
       </c>
@@ -8778,11 +8778,11 @@
       <c r="M55" s="36"/>
       <c r="N55" s="36"/>
       <c r="O55" s="37"/>
-      <c r="P55" s="64"/>
+      <c r="P55" s="56"/>
       <c r="Q55" s="20"/>
-      <c r="R55" s="70"/>
+      <c r="R55" s="62"/>
       <c r="S55" s="20"/>
-      <c r="T55" s="70"/>
+      <c r="T55" s="62"/>
       <c r="U55" s="20"/>
       <c r="V55" s="47"/>
       <c r="W55" s="47"/>
@@ -8813,11 +8813,11 @@
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
       <c r="O56" s="37"/>
-      <c r="P56" s="64"/>
+      <c r="P56" s="56"/>
       <c r="Q56" s="20"/>
-      <c r="R56" s="70"/>
+      <c r="R56" s="62"/>
       <c r="S56" s="20"/>
-      <c r="T56" s="70"/>
+      <c r="T56" s="62"/>
       <c r="U56" s="20"/>
       <c r="V56" s="47"/>
       <c r="W56" s="47"/>
@@ -8852,11 +8852,11 @@
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
       <c r="O57" s="33"/>
-      <c r="P57" s="62"/>
+      <c r="P57" s="54"/>
       <c r="Q57" s="16"/>
-      <c r="R57" s="68"/>
+      <c r="R57" s="60"/>
       <c r="S57" s="16"/>
-      <c r="T57" s="68"/>
+      <c r="T57" s="60"/>
       <c r="U57" s="16"/>
       <c r="V57" s="43"/>
       <c r="W57" s="43"/>
@@ -8918,7 +8918,7 @@
         <f>_xlfn.CEILING.MATH(D58^2*E58/2)*F58</f>
         <v>16384</v>
       </c>
-      <c r="P58" s="63">
+      <c r="P58" s="55">
         <f>R60</f>
         <v>3469888</v>
       </c>
@@ -8926,7 +8926,7 @@
         <f>DEC2HEX(P58)</f>
         <v>34F240</v>
       </c>
-      <c r="R58" s="69">
+      <c r="R58" s="61">
         <f>R54+K54</f>
         <v>3459072</v>
       </c>
@@ -8934,7 +8934,7 @@
         <f>DEC2HEX(R58)</f>
         <v>34C800</v>
       </c>
-      <c r="T58" s="69">
+      <c r="T58" s="61">
         <f>T54+O54</f>
         <v>265600</v>
       </c>
@@ -8987,11 +8987,11 @@
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
       <c r="O59" s="37"/>
-      <c r="P59" s="64"/>
+      <c r="P59" s="56"/>
       <c r="Q59" s="20"/>
-      <c r="R59" s="70"/>
+      <c r="R59" s="62"/>
       <c r="S59" s="20"/>
-      <c r="T59" s="70"/>
+      <c r="T59" s="62"/>
       <c r="U59" s="20"/>
       <c r="V59" s="47"/>
       <c r="W59" s="47"/>
@@ -9053,7 +9053,7 @@
         <f t="shared" ref="O60:O61" si="60">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
         <v>8192</v>
       </c>
-      <c r="P60" s="63">
+      <c r="P60" s="55">
         <f>R61</f>
         <v>3513152</v>
       </c>
@@ -9061,7 +9061,7 @@
         <f t="shared" ref="Q60:Q61" si="61">DEC2HEX(P60)</f>
         <v>359B40</v>
       </c>
-      <c r="R60" s="69">
+      <c r="R60" s="61">
         <f>R58+K58</f>
         <v>3469888</v>
       </c>
@@ -9069,7 +9069,7 @@
         <f t="shared" ref="S60:S61" si="62">DEC2HEX(R60)</f>
         <v>34F240</v>
       </c>
-      <c r="T60" s="69">
+      <c r="T60" s="61">
         <f>T58+O58</f>
         <v>281984</v>
       </c>
@@ -9153,7 +9153,7 @@
         <f t="shared" si="60"/>
         <v>73728</v>
       </c>
-      <c r="P61" s="63">
+      <c r="P61" s="55">
         <f>R66</f>
         <v>3556416</v>
       </c>
@@ -9161,7 +9161,7 @@
         <f t="shared" si="61"/>
         <v>364440</v>
       </c>
-      <c r="R61" s="69">
+      <c r="R61" s="61">
         <f>R60+K60</f>
         <v>3513152</v>
       </c>
@@ -9169,7 +9169,7 @@
         <f t="shared" si="62"/>
         <v>359B40</v>
       </c>
-      <c r="T61" s="69">
+      <c r="T61" s="61">
         <f>T60+O60</f>
         <v>290176</v>
       </c>
@@ -9222,11 +9222,11 @@
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
       <c r="O62" s="37"/>
-      <c r="P62" s="64"/>
+      <c r="P62" s="56"/>
       <c r="Q62" s="20"/>
-      <c r="R62" s="70"/>
+      <c r="R62" s="62"/>
       <c r="S62" s="20"/>
-      <c r="T62" s="70"/>
+      <c r="T62" s="62"/>
       <c r="U62" s="20"/>
       <c r="V62" s="47"/>
       <c r="W62" s="47"/>
@@ -9257,11 +9257,11 @@
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
       <c r="O63" s="37"/>
-      <c r="P63" s="64"/>
+      <c r="P63" s="56"/>
       <c r="Q63" s="20"/>
-      <c r="R63" s="70"/>
+      <c r="R63" s="62"/>
       <c r="S63" s="20"/>
-      <c r="T63" s="70"/>
+      <c r="T63" s="62"/>
       <c r="U63" s="20"/>
       <c r="V63" s="47"/>
       <c r="W63" s="47"/>
@@ -9296,11 +9296,11 @@
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="33"/>
-      <c r="P64" s="62"/>
+      <c r="P64" s="54"/>
       <c r="Q64" s="16"/>
-      <c r="R64" s="68"/>
+      <c r="R64" s="60"/>
       <c r="S64" s="16"/>
-      <c r="T64" s="68"/>
+      <c r="T64" s="60"/>
       <c r="U64" s="16"/>
       <c r="V64" s="43"/>
       <c r="W64" s="43"/>
@@ -9331,11 +9331,11 @@
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
       <c r="O65" s="37"/>
-      <c r="P65" s="64"/>
+      <c r="P65" s="56"/>
       <c r="Q65" s="20"/>
-      <c r="R65" s="70"/>
+      <c r="R65" s="62"/>
       <c r="S65" s="20"/>
-      <c r="T65" s="70"/>
+      <c r="T65" s="62"/>
       <c r="U65" s="20"/>
       <c r="V65" s="47"/>
       <c r="W65" s="47"/>
@@ -9397,7 +9397,7 @@
         <f>_xlfn.CEILING.MATH(D66^2*E66/2)*F66</f>
         <v>256000</v>
       </c>
-      <c r="P66" s="63">
+      <c r="P66" s="55">
         <f>R68</f>
         <v>3725416</v>
       </c>
@@ -9405,7 +9405,7 @@
         <f>DEC2HEX(P66)</f>
         <v>38D868</v>
       </c>
-      <c r="R66" s="69">
+      <c r="R66" s="61">
         <f>R61+K61</f>
         <v>3556416</v>
       </c>
@@ -9413,7 +9413,7 @@
         <f>DEC2HEX(R66)</f>
         <v>364440</v>
       </c>
-      <c r="T66" s="69">
+      <c r="T66" s="61">
         <f>T61+O61</f>
         <v>363904</v>
       </c>
@@ -9466,11 +9466,11 @@
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
       <c r="O67" s="37"/>
-      <c r="P67" s="64"/>
+      <c r="P67" s="56"/>
       <c r="Q67" s="20"/>
-      <c r="R67" s="70"/>
+      <c r="R67" s="62"/>
       <c r="S67" s="20"/>
-      <c r="T67" s="70"/>
+      <c r="T67" s="62"/>
       <c r="U67" s="20"/>
       <c r="V67" s="47"/>
       <c r="W67" s="47"/>
@@ -9519,7 +9519,7 @@
       <c r="M68" s="38"/>
       <c r="N68" s="38"/>
       <c r="O68" s="39"/>
-      <c r="P68" s="65">
+      <c r="P68" s="57">
         <f>R69</f>
         <v>3726416</v>
       </c>
@@ -9527,7 +9527,7 @@
         <f>DEC2HEX(P68)</f>
         <v>38DC50</v>
       </c>
-      <c r="R68" s="71">
+      <c r="R68" s="63">
         <f>R66+K66</f>
         <v>3725416</v>
       </c>
@@ -9535,7 +9535,7 @@
         <f>DEC2HEX(R68)</f>
         <v>38D868</v>
       </c>
-      <c r="T68" s="71"/>
+      <c r="T68" s="63"/>
       <c r="U68" s="22" t="s">
         <v>150</v>
       </c>
@@ -9584,14 +9584,14 @@
       <c r="M69" s="32"/>
       <c r="N69" s="32"/>
       <c r="O69" s="33"/>
-      <c r="P69" s="62"/>
+      <c r="P69" s="54"/>
       <c r="Q69" s="16"/>
-      <c r="R69" s="68">
+      <c r="R69" s="60">
         <f>R68+L68</f>
         <v>3726416</v>
       </c>
       <c r="S69" s="16"/>
-      <c r="T69" s="68"/>
+      <c r="T69" s="60"/>
       <c r="U69" s="16"/>
       <c r="V69" s="43"/>
       <c r="W69" s="43"/>
@@ -9630,11 +9630,11 @@
         <f>SUM(O4:O69)</f>
         <v>615808</v>
       </c>
-      <c r="P70" s="66"/>
+      <c r="P70" s="58"/>
       <c r="Q70" s="24"/>
-      <c r="R70" s="72"/>
+      <c r="R70" s="64"/>
       <c r="S70" s="24"/>
-      <c r="T70" s="72"/>
+      <c r="T70" s="64"/>
       <c r="U70" s="24"/>
       <c r="V70" s="14"/>
       <c r="W70" s="14"/>
@@ -9676,11 +9676,11 @@
         <v>1235496</v>
       </c>
       <c r="O71" s="31"/>
-      <c r="P71" s="66"/>
+      <c r="P71" s="58"/>
       <c r="Q71" s="24"/>
-      <c r="R71" s="72"/>
+      <c r="R71" s="64"/>
       <c r="S71" s="24"/>
-      <c r="T71" s="72"/>
+      <c r="T71" s="64"/>
       <c r="U71" s="24"/>
       <c r="V71" s="14"/>
       <c r="W71" s="14"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A01F76A-E7AE-4EAF-863A-EE77608D3C57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EB47A-C77E-4367-9A6B-ACE2E37896DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
   <sheets>
     <sheet name="SqueezeNet @ 100MHz + 312.5MHz" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5168,8 +5169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6:AA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5370,8 +5371,8 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3">
-        <f>0.0000032*K3</f>
-        <v>0.4816896</v>
+        <f>K3/64*0.97</f>
+        <v>2281.44</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="26" t="s">
@@ -5468,8 +5469,8 @@
         <v>1</v>
       </c>
       <c r="AA4" s="4">
-        <f>0.0000032*M4+0.0000064*K4</f>
-        <v>5.0522111999999995</v>
+        <f>K4/64*0.97</f>
+        <v>11951.369999999999</v>
       </c>
       <c r="AB4" s="4">
         <f>L4*Y4*Z4</f>
@@ -5586,8 +5587,8 @@
         <v>1</v>
       </c>
       <c r="AA6" s="6">
-        <f>0.0000064*K6</f>
-        <v>1.2390399999999999</v>
+        <f>K6/64*0.97</f>
+        <v>2934.25</v>
       </c>
       <c r="AB6" s="6">
         <f>L6*Y6*Z6</f>
@@ -5686,8 +5687,8 @@
         <v>1</v>
       </c>
       <c r="AA7" s="4">
-        <f>0.0000032*M7+0.0000064*K7</f>
-        <v>0.3130368</v>
+        <f>K7/64*0.97</f>
+        <v>733.5625</v>
       </c>
       <c r="AB7" s="4">
         <f>L7*Y7*Z7</f>
@@ -5821,8 +5822,8 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4">
-        <f>0.0000032*M9+0.0000064*K9</f>
-        <v>1.2423168</v>
+        <f t="shared" ref="AA9:AA10" si="8">K9/64*0.97</f>
+        <v>2934.25</v>
       </c>
       <c r="AB9" s="4">
         <f>L9*Y9*Z9</f>
@@ -5921,8 +5922,8 @@
         <v>1</v>
       </c>
       <c r="AA10" s="4">
-        <f>0.0000032*M10+0.0000064*K10</f>
-        <v>1.2685312</v>
+        <f t="shared" si="8"/>
+        <v>2934.25</v>
       </c>
       <c r="AB10" s="4">
         <f>L10*Y10*Z10</f>
@@ -6130,8 +6131,8 @@
         <v>1</v>
       </c>
       <c r="AA14" s="4">
-        <f>0.0000032*M14+0.0000064*K14</f>
-        <v>0.31631359999999997</v>
+        <f>K14/64*0.97</f>
+        <v>733.5625</v>
       </c>
       <c r="AB14" s="4">
         <f>L14*Y14*Z14</f>
@@ -6206,23 +6207,23 @@
         <v>55</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" ref="K16:K17" si="8">J16^2*F16</f>
+        <f t="shared" ref="K16:K17" si="9">J16^2*F16</f>
         <v>193600</v>
       </c>
       <c r="L16" s="34">
-        <f t="shared" ref="L16:L17" si="9">J16^2*E16</f>
+        <f t="shared" ref="L16:L17" si="10">J16^2*E16</f>
         <v>48400</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" ref="M16:M17" si="10">D16^2*E16*F16</f>
+        <f t="shared" ref="M16:M17" si="11">D16^2*E16*F16</f>
         <v>1024</v>
       </c>
       <c r="N16" s="34">
-        <f t="shared" ref="N16:N17" si="11">F16</f>
+        <f t="shared" ref="N16:N17" si="12">F16</f>
         <v>64</v>
       </c>
       <c r="O16" s="35">
-        <f t="shared" ref="O16:O17" si="12">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
+        <f t="shared" ref="O16:O17" si="13">_xlfn.CEILING.MATH(D16^2*E16/2)*F16</f>
         <v>512</v>
       </c>
       <c r="P16" s="55">
@@ -6230,7 +6231,7 @@
         <v>2465632</v>
       </c>
       <c r="Q16" s="18" t="str">
-        <f t="shared" ref="Q16:Q17" si="13">DEC2HEX(P16)</f>
+        <f t="shared" ref="Q16:Q17" si="14">DEC2HEX(P16)</f>
         <v>259F60</v>
       </c>
       <c r="R16" s="61">
@@ -6238,7 +6239,7 @@
         <v>2272032</v>
       </c>
       <c r="S16" s="18" t="str">
-        <f t="shared" ref="S16:S17" si="14">DEC2HEX(R16)</f>
+        <f t="shared" ref="S16:S17" si="15">DEC2HEX(R16)</f>
         <v>22AB20</v>
       </c>
       <c r="T16" s="61">
@@ -6246,7 +6247,7 @@
         <v>11648</v>
       </c>
       <c r="U16" s="18" t="str">
-        <f t="shared" ref="U16:U17" si="15">DEC2HEX(T16)</f>
+        <f t="shared" ref="U16:U17" si="16">DEC2HEX(T16)</f>
         <v>2D80</v>
       </c>
       <c r="V16" s="45" t="s">
@@ -6265,8 +6266,8 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4">
-        <f>0.0000032*M16+0.0000064*K16</f>
-        <v>1.2423168</v>
+        <f t="shared" ref="AA16:AA17" si="17">K16/64*0.97</f>
+        <v>2934.25</v>
       </c>
       <c r="AB16" s="4">
         <f>L16*Y16*Z16</f>
@@ -6306,23 +6307,23 @@
         <v>55</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>193600</v>
       </c>
       <c r="L17" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48400</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9216</v>
       </c>
       <c r="N17" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="O17" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4608</v>
       </c>
       <c r="P17" s="55">
@@ -6330,7 +6331,7 @@
         <v>2659232</v>
       </c>
       <c r="Q17" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2893A0</v>
       </c>
       <c r="R17" s="61">
@@ -6338,7 +6339,7 @@
         <v>2465632</v>
       </c>
       <c r="S17" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>259F60</v>
       </c>
       <c r="T17" s="61">
@@ -6346,7 +6347,7 @@
         <v>12160</v>
       </c>
       <c r="U17" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2F80</v>
       </c>
       <c r="V17" s="45" t="s">
@@ -6365,8 +6366,8 @@
         <v>1</v>
       </c>
       <c r="AA17" s="4">
-        <f>0.0000032*M17+0.0000064*K17</f>
-        <v>1.2685312</v>
+        <f t="shared" si="17"/>
+        <v>2934.25</v>
       </c>
       <c r="AB17" s="4">
         <f>L17*Y17*Z17</f>
@@ -6557,8 +6558,8 @@
         <v>1</v>
       </c>
       <c r="AA21" s="6">
-        <f>0.0000064*K21</f>
-        <v>0.59719679999999997</v>
+        <f>K21/64*0.97</f>
+        <v>1414.26</v>
       </c>
       <c r="AB21" s="6">
         <f>L21*Y21*Z21</f>
@@ -6657,8 +6658,8 @@
         <v>1</v>
       </c>
       <c r="AA22" s="4">
-        <f>0.0000032*M22+0.0000064*K22</f>
-        <v>0.16240640000000001</v>
+        <f>K22/64*0.97</f>
+        <v>353.565</v>
       </c>
       <c r="AB22" s="4">
         <f>L22*Y22*Z22</f>
@@ -6733,23 +6734,23 @@
         <v>27</v>
       </c>
       <c r="K24" s="34">
-        <f t="shared" ref="K24:K25" si="16">J24^2*F24</f>
+        <f t="shared" ref="K24:K25" si="18">J24^2*F24</f>
         <v>93312</v>
       </c>
       <c r="L24" s="34">
-        <f t="shared" ref="L24:L25" si="17">J24^2*E24</f>
+        <f t="shared" ref="L24:L25" si="19">J24^2*E24</f>
         <v>23328</v>
       </c>
       <c r="M24" s="34">
-        <f t="shared" ref="M24:M25" si="18">D24^2*E24*F24</f>
+        <f t="shared" ref="M24:M25" si="20">D24^2*E24*F24</f>
         <v>4096</v>
       </c>
       <c r="N24" s="34">
-        <f t="shared" ref="N24:N25" si="19">F24</f>
+        <f t="shared" ref="N24:N25" si="21">F24</f>
         <v>128</v>
       </c>
       <c r="O24" s="35">
-        <f t="shared" ref="O24:O25" si="20">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
+        <f t="shared" ref="O24:O25" si="22">_xlfn.CEILING.MATH(D24^2*E24/2)*F24</f>
         <v>2048</v>
       </c>
       <c r="P24" s="55">
@@ -6757,7 +6758,7 @@
         <v>2869184</v>
       </c>
       <c r="Q24" s="18" t="str">
-        <f t="shared" ref="Q24:Q25" si="21">DEC2HEX(P24)</f>
+        <f t="shared" ref="Q24:Q25" si="23">DEC2HEX(P24)</f>
         <v>2BC7C0</v>
       </c>
       <c r="R24" s="61">
@@ -6765,7 +6766,7 @@
         <v>2775872</v>
       </c>
       <c r="S24" s="18" t="str">
-        <f t="shared" ref="S24:S25" si="22">DEC2HEX(R24)</f>
+        <f t="shared" ref="S24:S25" si="24">DEC2HEX(R24)</f>
         <v>2A5B40</v>
       </c>
       <c r="T24" s="61">
@@ -6773,7 +6774,7 @@
         <v>18816</v>
       </c>
       <c r="U24" s="18" t="str">
-        <f t="shared" ref="U24:U25" si="23">DEC2HEX(T24)</f>
+        <f t="shared" ref="U24:U25" si="25">DEC2HEX(T24)</f>
         <v>4980</v>
       </c>
       <c r="V24" s="45" t="s">
@@ -6792,8 +6793,8 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4">
-        <f>0.0000032*M24+0.0000064*K24</f>
-        <v>0.61030399999999996</v>
+        <f t="shared" ref="AA24:AA25" si="26">K24/64*0.97</f>
+        <v>1414.26</v>
       </c>
       <c r="AB24" s="4">
         <f>L24*Y24*Z24</f>
@@ -6833,23 +6834,23 @@
         <v>27</v>
       </c>
       <c r="K25" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>93312</v>
       </c>
       <c r="L25" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23328</v>
       </c>
       <c r="M25" s="34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36864</v>
       </c>
       <c r="N25" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="O25" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18432</v>
       </c>
       <c r="P25" s="55">
@@ -6857,7 +6858,7 @@
         <v>2962496</v>
       </c>
       <c r="Q25" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2D3440</v>
       </c>
       <c r="R25" s="61">
@@ -6865,7 +6866,7 @@
         <v>2869184</v>
       </c>
       <c r="S25" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2BC7C0</v>
       </c>
       <c r="T25" s="61">
@@ -6873,7 +6874,7 @@
         <v>20864</v>
       </c>
       <c r="U25" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5180</v>
       </c>
       <c r="V25" s="45" t="s">
@@ -6892,8 +6893,8 @@
         <v>1</v>
       </c>
       <c r="AA25" s="4">
-        <f>0.0000032*M25+0.0000064*K25</f>
-        <v>0.71516159999999995</v>
+        <f t="shared" si="26"/>
+        <v>1414.26</v>
       </c>
       <c r="AB25" s="4">
         <f>L25*Y25*Z25</f>
@@ -7101,8 +7102,8 @@
         <v>1</v>
       </c>
       <c r="AA29" s="4">
-        <f>0.0000032*M29+0.0000064*K29</f>
-        <v>0.17551359999999999</v>
+        <f>K29/64*0.97</f>
+        <v>353.565</v>
       </c>
       <c r="AB29" s="4">
         <f>L29*Y29*Z29</f>
@@ -7177,23 +7178,23 @@
         <v>27</v>
       </c>
       <c r="K31" s="34">
-        <f t="shared" ref="K31:K32" si="24">J31^2*F31</f>
+        <f t="shared" ref="K31:K32" si="27">J31^2*F31</f>
         <v>93312</v>
       </c>
       <c r="L31" s="34">
-        <f t="shared" ref="L31:L32" si="25">J31^2*E31</f>
+        <f t="shared" ref="L31:L32" si="28">J31^2*E31</f>
         <v>23328</v>
       </c>
       <c r="M31" s="34">
-        <f t="shared" ref="M31:M32" si="26">D31^2*E31*F31</f>
+        <f t="shared" ref="M31:M32" si="29">D31^2*E31*F31</f>
         <v>4096</v>
       </c>
       <c r="N31" s="34">
-        <f t="shared" ref="N31:N32" si="27">F31</f>
+        <f t="shared" ref="N31:N32" si="30">F31</f>
         <v>128</v>
       </c>
       <c r="O31" s="35">
-        <f t="shared" ref="O31:O32" si="28">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
+        <f t="shared" ref="O31:O32" si="31">_xlfn.CEILING.MATH(D31^2*E31/2)*F31</f>
         <v>2048</v>
       </c>
       <c r="P31" s="55">
@@ -7201,7 +7202,7 @@
         <v>3079136</v>
       </c>
       <c r="Q31" s="18" t="str">
-        <f t="shared" ref="Q31:Q32" si="29">DEC2HEX(P31)</f>
+        <f t="shared" ref="Q31:Q32" si="32">DEC2HEX(P31)</f>
         <v>2EFBE0</v>
       </c>
       <c r="R31" s="61">
@@ -7209,7 +7210,7 @@
         <v>2985824</v>
       </c>
       <c r="S31" s="18" t="str">
-        <f t="shared" ref="S31:S32" si="30">DEC2HEX(R31)</f>
+        <f t="shared" ref="S31:S32" si="33">DEC2HEX(R31)</f>
         <v>2D8F60</v>
       </c>
       <c r="T31" s="61">
@@ -7217,7 +7218,7 @@
         <v>43392</v>
       </c>
       <c r="U31" s="18" t="str">
-        <f t="shared" ref="U31:U32" si="31">DEC2HEX(T31)</f>
+        <f t="shared" ref="U31:U32" si="34">DEC2HEX(T31)</f>
         <v>A980</v>
       </c>
       <c r="V31" s="45" t="s">
@@ -7236,8 +7237,8 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4">
-        <f>0.0000032*M31+0.0000064*K31</f>
-        <v>0.61030399999999996</v>
+        <f t="shared" ref="AA31:AA32" si="35">K31/64*0.97</f>
+        <v>1414.26</v>
       </c>
       <c r="AB31" s="4">
         <f>L31*Y31*Z31</f>
@@ -7277,23 +7278,23 @@
         <v>27</v>
       </c>
       <c r="K32" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>93312</v>
       </c>
       <c r="L32" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>23328</v>
       </c>
       <c r="M32" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>36864</v>
       </c>
       <c r="N32" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>128</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>18432</v>
       </c>
       <c r="P32" s="55">
@@ -7301,7 +7302,7 @@
         <v>3172448</v>
       </c>
       <c r="Q32" s="18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>306860</v>
       </c>
       <c r="R32" s="61">
@@ -7309,7 +7310,7 @@
         <v>3079136</v>
       </c>
       <c r="S32" s="18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2EFBE0</v>
       </c>
       <c r="T32" s="61">
@@ -7317,7 +7318,7 @@
         <v>45440</v>
       </c>
       <c r="U32" s="18" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>B180</v>
       </c>
       <c r="V32" s="45" t="s">
@@ -7336,8 +7337,8 @@
         <v>1</v>
       </c>
       <c r="AA32" s="4">
-        <f>0.0000032*M32+0.0000064*K32</f>
-        <v>0.71516159999999995</v>
+        <f t="shared" si="35"/>
+        <v>1414.26</v>
       </c>
       <c r="AB32" s="4">
         <f>L32*Y32*Z32</f>
@@ -7526,8 +7527,8 @@
         <v>1</v>
       </c>
       <c r="AA36" s="6">
-        <f>0.0000064*K36</f>
-        <v>0.27688960000000001</v>
+        <f>K36/64*0.97</f>
+        <v>655.72</v>
       </c>
       <c r="AB36" s="6">
         <f>L36*Y36*Z36</f>
@@ -7626,8 +7627,8 @@
         <v>1</v>
       </c>
       <c r="AA37" s="4">
-        <f>0.0000032*M37+0.0000064*K37</f>
-        <v>9.1238399999999997E-2</v>
+        <f>K37/64*0.97</f>
+        <v>122.94749999999999</v>
       </c>
       <c r="AB37" s="4">
         <f>L37*Y37*Z37</f>
@@ -7702,23 +7703,23 @@
         <v>13</v>
       </c>
       <c r="K39" s="34">
-        <f t="shared" ref="K39:K40" si="32">J39^2*F39</f>
+        <f t="shared" ref="K39:K40" si="36">J39^2*F39</f>
         <v>32448</v>
       </c>
       <c r="L39" s="34">
-        <f t="shared" ref="L39:L40" si="33">J39^2*E39</f>
+        <f t="shared" ref="L39:L40" si="37">J39^2*E39</f>
         <v>8112</v>
       </c>
       <c r="M39" s="34">
-        <f t="shared" ref="M39:M40" si="34">D39^2*E39*F39</f>
+        <f t="shared" ref="M39:M40" si="38">D39^2*E39*F39</f>
         <v>9216</v>
       </c>
       <c r="N39" s="34">
-        <f t="shared" ref="N39:N40" si="35">F39</f>
+        <f t="shared" ref="N39:N40" si="39">F39</f>
         <v>192</v>
       </c>
       <c r="O39" s="35">
-        <f t="shared" ref="O39:O40" si="36">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
+        <f t="shared" ref="O39:O40" si="40">_xlfn.CEILING.MATH(D39^2*E39/2)*F39</f>
         <v>4608</v>
       </c>
       <c r="P39" s="55">
@@ -7726,7 +7727,7 @@
         <v>3256272</v>
       </c>
       <c r="Q39" s="18" t="str">
-        <f t="shared" ref="Q39:Q40" si="37">DEC2HEX(P39)</f>
+        <f t="shared" ref="Q39:Q40" si="41">DEC2HEX(P39)</f>
         <v>31AFD0</v>
       </c>
       <c r="R39" s="61">
@@ -7734,7 +7735,7 @@
         <v>3223824</v>
       </c>
       <c r="S39" s="18" t="str">
-        <f t="shared" ref="S39:S40" si="38">DEC2HEX(R39)</f>
+        <f t="shared" ref="S39:S40" si="42">DEC2HEX(R39)</f>
         <v>313110</v>
       </c>
       <c r="T39" s="61">
@@ -7742,7 +7743,7 @@
         <v>70016</v>
       </c>
       <c r="U39" s="18" t="str">
-        <f t="shared" ref="U39:U40" si="39">DEC2HEX(T39)</f>
+        <f t="shared" ref="U39:U40" si="43">DEC2HEX(T39)</f>
         <v>11180</v>
       </c>
       <c r="V39" s="45" t="s">
@@ -7761,8 +7762,8 @@
         <v>0</v>
       </c>
       <c r="AA39" s="4">
-        <f>0.0000032*M39+0.0000064*K39</f>
-        <v>0.23715839999999999</v>
+        <f t="shared" ref="AA39:AA40" si="44">K39/64*0.97</f>
+        <v>491.78999999999996</v>
       </c>
       <c r="AB39" s="4">
         <f>L39*Y39*Z39</f>
@@ -7802,23 +7803,23 @@
         <v>13</v>
       </c>
       <c r="K40" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>32448</v>
       </c>
       <c r="L40" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8112</v>
       </c>
       <c r="M40" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>82944</v>
       </c>
       <c r="N40" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>192</v>
       </c>
       <c r="O40" s="35">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>41472</v>
       </c>
       <c r="P40" s="55">
@@ -7826,7 +7827,7 @@
         <v>3288720</v>
       </c>
       <c r="Q40" s="18" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>322E90</v>
       </c>
       <c r="R40" s="61">
@@ -7834,7 +7835,7 @@
         <v>3256272</v>
       </c>
       <c r="S40" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>31AFD0</v>
       </c>
       <c r="T40" s="61">
@@ -7842,7 +7843,7 @@
         <v>74624</v>
       </c>
       <c r="U40" s="18" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>12380</v>
       </c>
       <c r="V40" s="45" t="s">
@@ -7861,8 +7862,8 @@
         <v>1</v>
       </c>
       <c r="AA40" s="4">
-        <f>0.0000032*M40+0.0000064*K40</f>
-        <v>0.47308800000000001</v>
+        <f t="shared" si="44"/>
+        <v>491.78999999999996</v>
       </c>
       <c r="AB40" s="4">
         <f>L40*Y40*Z40</f>
@@ -8070,8 +8071,8 @@
         <v>1</v>
       </c>
       <c r="AA44" s="4">
-        <f>0.0000032*M44+0.0000064*K44</f>
-        <v>0.1108992</v>
+        <f>K44/64*0.97</f>
+        <v>122.94749999999999</v>
       </c>
       <c r="AB44" s="4">
         <f>L44*Y44*Z44</f>
@@ -8146,23 +8147,23 @@
         <v>13</v>
       </c>
       <c r="K46" s="34">
-        <f t="shared" ref="K46:K47" si="40">J46^2*F46</f>
+        <f t="shared" ref="K46:K47" si="45">J46^2*F46</f>
         <v>32448</v>
       </c>
       <c r="L46" s="34">
-        <f t="shared" ref="L46:L47" si="41">J46^2*E46</f>
+        <f t="shared" ref="L46:L47" si="46">J46^2*E46</f>
         <v>8112</v>
       </c>
       <c r="M46" s="34">
-        <f t="shared" ref="M46:M47" si="42">D46^2*E46*F46</f>
+        <f t="shared" ref="M46:M47" si="47">D46^2*E46*F46</f>
         <v>9216</v>
       </c>
       <c r="N46" s="34">
-        <f t="shared" ref="N46:N47" si="43">F46</f>
+        <f t="shared" ref="N46:N47" si="48">F46</f>
         <v>192</v>
       </c>
       <c r="O46" s="35">
-        <f t="shared" ref="O46:O47" si="44">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
+        <f t="shared" ref="O46:O47" si="49">_xlfn.CEILING.MATH(D46^2*E46/2)*F46</f>
         <v>4608</v>
       </c>
       <c r="P46" s="55">
@@ -8170,7 +8171,7 @@
         <v>3329280</v>
       </c>
       <c r="Q46" s="18" t="str">
-        <f t="shared" ref="Q46:Q47" si="45">DEC2HEX(P46)</f>
+        <f t="shared" ref="Q46:Q47" si="50">DEC2HEX(P46)</f>
         <v>32CD00</v>
       </c>
       <c r="R46" s="61">
@@ -8178,7 +8179,7 @@
         <v>3296832</v>
       </c>
       <c r="S46" s="18" t="str">
-        <f t="shared" ref="S46:S47" si="46">DEC2HEX(R46)</f>
+        <f t="shared" ref="S46:S47" si="51">DEC2HEX(R46)</f>
         <v>324E40</v>
       </c>
       <c r="T46" s="61">
@@ -8186,7 +8187,7 @@
         <v>125312</v>
       </c>
       <c r="U46" s="18" t="str">
-        <f t="shared" ref="U46:U47" si="47">DEC2HEX(T46)</f>
+        <f t="shared" ref="U46:U47" si="52">DEC2HEX(T46)</f>
         <v>1E980</v>
       </c>
       <c r="V46" s="45" t="s">
@@ -8205,8 +8206,8 @@
         <v>0</v>
       </c>
       <c r="AA46" s="4">
-        <f>0.0000032*M46+0.0000064*K46</f>
-        <v>0.23715839999999999</v>
+        <f t="shared" ref="AA46:AA47" si="53">K46/64*0.97</f>
+        <v>491.78999999999996</v>
       </c>
       <c r="AB46" s="4">
         <f>L46*Y46*Z46</f>
@@ -8246,23 +8247,23 @@
         <v>13</v>
       </c>
       <c r="K47" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>32448</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8112</v>
       </c>
       <c r="M47" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>82944</v>
       </c>
       <c r="N47" s="34">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>192</v>
       </c>
       <c r="O47" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>41472</v>
       </c>
       <c r="P47" s="55">
@@ -8270,7 +8271,7 @@
         <v>3361728</v>
       </c>
       <c r="Q47" s="18" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>334BC0</v>
       </c>
       <c r="R47" s="61">
@@ -8278,7 +8279,7 @@
         <v>3329280</v>
       </c>
       <c r="S47" s="18" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>32CD00</v>
       </c>
       <c r="T47" s="61">
@@ -8286,7 +8287,7 @@
         <v>129920</v>
       </c>
       <c r="U47" s="18" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>1FB80</v>
       </c>
       <c r="V47" s="45" t="s">
@@ -8305,8 +8306,8 @@
         <v>1</v>
       </c>
       <c r="AA47" s="4">
-        <f>0.0000032*M47+0.0000064*K47</f>
-        <v>0.47308800000000001</v>
+        <f t="shared" si="53"/>
+        <v>491.78999999999996</v>
       </c>
       <c r="AB47" s="4">
         <f>L47*Y47*Z47</f>
@@ -8514,8 +8515,8 @@
         <v>1</v>
       </c>
       <c r="AA51" s="4">
-        <f>0.0000032*M51+0.0000064*K51</f>
-        <v>0.14786559999999999</v>
+        <f>K51/64*0.97</f>
+        <v>163.93</v>
       </c>
       <c r="AB51" s="4">
         <f>L51*Y51*Z51</f>
@@ -8590,23 +8591,23 @@
         <v>13</v>
       </c>
       <c r="K53" s="34">
-        <f t="shared" ref="K53:K54" si="48">J53^2*F53</f>
+        <f t="shared" ref="K53:K54" si="54">J53^2*F53</f>
         <v>43264</v>
       </c>
       <c r="L53" s="34">
-        <f t="shared" ref="L53:L54" si="49">J53^2*E53</f>
+        <f t="shared" ref="L53:L54" si="55">J53^2*E53</f>
         <v>10816</v>
       </c>
       <c r="M53" s="34">
-        <f t="shared" ref="M53:M54" si="50">D53^2*E53*F53</f>
+        <f t="shared" ref="M53:M54" si="56">D53^2*E53*F53</f>
         <v>16384</v>
       </c>
       <c r="N53" s="34">
-        <f t="shared" ref="N53:N54" si="51">F53</f>
+        <f t="shared" ref="N53:N54" si="57">F53</f>
         <v>256</v>
       </c>
       <c r="O53" s="35">
-        <f t="shared" ref="O53:O54" si="52">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
+        <f t="shared" ref="O53:O54" si="58">_xlfn.CEILING.MATH(D53^2*E53/2)*F53</f>
         <v>8192</v>
       </c>
       <c r="P53" s="55">
@@ -8614,7 +8615,7 @@
         <v>3415808</v>
       </c>
       <c r="Q53" s="18" t="str">
-        <f t="shared" ref="Q53:Q54" si="53">DEC2HEX(P53)</f>
+        <f t="shared" ref="Q53:Q54" si="59">DEC2HEX(P53)</f>
         <v>341F00</v>
       </c>
       <c r="R53" s="61">
@@ -8622,7 +8623,7 @@
         <v>3372544</v>
       </c>
       <c r="S53" s="18" t="str">
-        <f t="shared" ref="S53:S54" si="54">DEC2HEX(R53)</f>
+        <f t="shared" ref="S53:S54" si="60">DEC2HEX(R53)</f>
         <v>337600</v>
       </c>
       <c r="T53" s="61">
@@ -8630,7 +8631,7 @@
         <v>183680</v>
       </c>
       <c r="U53" s="18" t="str">
-        <f t="shared" ref="U53:U54" si="55">DEC2HEX(T53)</f>
+        <f t="shared" ref="U53:U54" si="61">DEC2HEX(T53)</f>
         <v>2CD80</v>
       </c>
       <c r="V53" s="45" t="s">
@@ -8649,8 +8650,8 @@
         <v>0</v>
       </c>
       <c r="AA53" s="4">
-        <f>0.0000032*M53+0.0000064*K53</f>
-        <v>0.32931840000000001</v>
+        <f t="shared" ref="AA53:AA54" si="62">K53/64*0.97</f>
+        <v>655.72</v>
       </c>
       <c r="AB53" s="4">
         <f>L53*Y53*Z53</f>
@@ -8690,23 +8691,23 @@
         <v>13</v>
       </c>
       <c r="K54" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>43264</v>
       </c>
       <c r="L54" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>10816</v>
       </c>
       <c r="M54" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>147456</v>
       </c>
       <c r="N54" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>256</v>
       </c>
       <c r="O54" s="35">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>73728</v>
       </c>
       <c r="P54" s="55">
@@ -8714,7 +8715,7 @@
         <v>3459072</v>
       </c>
       <c r="Q54" s="18" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>34C800</v>
       </c>
       <c r="R54" s="61">
@@ -8722,7 +8723,7 @@
         <v>3415808</v>
       </c>
       <c r="S54" s="18" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>341F00</v>
       </c>
       <c r="T54" s="61">
@@ -8730,7 +8731,7 @@
         <v>191872</v>
       </c>
       <c r="U54" s="18" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>2ED80</v>
       </c>
       <c r="V54" s="45" t="s">
@@ -8749,8 +8750,8 @@
         <v>1</v>
       </c>
       <c r="AA54" s="4">
-        <f>0.0000032*M54+0.0000064*K54</f>
-        <v>0.74874879999999999</v>
+        <f t="shared" si="62"/>
+        <v>655.72</v>
       </c>
       <c r="AB54" s="4">
         <f>L54*Y54*Z54</f>
@@ -8958,8 +8959,8 @@
         <v>1</v>
       </c>
       <c r="AA58" s="4">
-        <f>0.0000032*M58+0.0000064*K58</f>
-        <v>0.17408000000000001</v>
+        <f>K58/64*0.97</f>
+        <v>163.93</v>
       </c>
       <c r="AB58" s="4">
         <f>L58*Y58*Z58</f>
@@ -9034,23 +9035,23 @@
         <v>13</v>
       </c>
       <c r="K60" s="34">
-        <f t="shared" ref="K60:K61" si="56">J60^2*F60</f>
+        <f t="shared" ref="K60:K61" si="63">J60^2*F60</f>
         <v>43264</v>
       </c>
       <c r="L60" s="34">
-        <f t="shared" ref="L60:L61" si="57">J60^2*E60</f>
+        <f t="shared" ref="L60:L61" si="64">J60^2*E60</f>
         <v>10816</v>
       </c>
       <c r="M60" s="34">
-        <f t="shared" ref="M60:M61" si="58">D60^2*E60*F60</f>
+        <f t="shared" ref="M60:M61" si="65">D60^2*E60*F60</f>
         <v>16384</v>
       </c>
       <c r="N60" s="34">
-        <f t="shared" ref="N60:N61" si="59">F60</f>
+        <f t="shared" ref="N60:N61" si="66">F60</f>
         <v>256</v>
       </c>
       <c r="O60" s="35">
-        <f t="shared" ref="O60:O61" si="60">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
+        <f t="shared" ref="O60:O61" si="67">_xlfn.CEILING.MATH(D60^2*E60/2)*F60</f>
         <v>8192</v>
       </c>
       <c r="P60" s="55">
@@ -9058,7 +9059,7 @@
         <v>3513152</v>
       </c>
       <c r="Q60" s="18" t="str">
-        <f t="shared" ref="Q60:Q61" si="61">DEC2HEX(P60)</f>
+        <f t="shared" ref="Q60:Q61" si="68">DEC2HEX(P60)</f>
         <v>359B40</v>
       </c>
       <c r="R60" s="61">
@@ -9066,7 +9067,7 @@
         <v>3469888</v>
       </c>
       <c r="S60" s="18" t="str">
-        <f t="shared" ref="S60:S61" si="62">DEC2HEX(R60)</f>
+        <f t="shared" ref="S60:S61" si="69">DEC2HEX(R60)</f>
         <v>34F240</v>
       </c>
       <c r="T60" s="61">
@@ -9074,7 +9075,7 @@
         <v>281984</v>
       </c>
       <c r="U60" s="18" t="str">
-        <f t="shared" ref="U60:U61" si="63">DEC2HEX(T60)</f>
+        <f t="shared" ref="U60:U61" si="70">DEC2HEX(T60)</f>
         <v>44D80</v>
       </c>
       <c r="V60" s="45" t="s">
@@ -9093,8 +9094,8 @@
         <v>0</v>
       </c>
       <c r="AA60" s="4">
-        <f>0.0000032*M60+0.0000064*K60</f>
-        <v>0.32931840000000001</v>
+        <f t="shared" ref="AA60:AA61" si="71">K60/64*0.97</f>
+        <v>655.72</v>
       </c>
       <c r="AB60" s="4">
         <f>L60*Y60*Z60</f>
@@ -9134,23 +9135,23 @@
         <v>13</v>
       </c>
       <c r="K61" s="34">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>43264</v>
       </c>
       <c r="L61" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>10816</v>
       </c>
       <c r="M61" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>147456</v>
       </c>
       <c r="N61" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>256</v>
       </c>
       <c r="O61" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>73728</v>
       </c>
       <c r="P61" s="55">
@@ -9158,7 +9159,7 @@
         <v>3556416</v>
       </c>
       <c r="Q61" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>364440</v>
       </c>
       <c r="R61" s="61">
@@ -9166,7 +9167,7 @@
         <v>3513152</v>
       </c>
       <c r="S61" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>359B40</v>
       </c>
       <c r="T61" s="61">
@@ -9174,7 +9175,7 @@
         <v>290176</v>
       </c>
       <c r="U61" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>46D80</v>
       </c>
       <c r="V61" s="45" t="s">
@@ -9193,8 +9194,8 @@
         <v>1</v>
       </c>
       <c r="AA61" s="4">
-        <f>0.0000032*M61+0.0000064*K61</f>
-        <v>0.74874879999999999</v>
+        <f t="shared" si="71"/>
+        <v>655.72</v>
       </c>
       <c r="AB61" s="4">
         <f>L61*Y61*Z61</f>
@@ -9437,8 +9438,8 @@
         <v>1</v>
       </c>
       <c r="AA66" s="4">
-        <f>0.0000032*M66+0.0000064*K66</f>
-        <v>2.7199999999999998</v>
+        <f>K66/64*0.97</f>
+        <v>2561.40625</v>
       </c>
       <c r="AB66" s="4">
         <f>L66*Y66*Z66</f>
@@ -9555,8 +9556,8 @@
         <v>1</v>
       </c>
       <c r="AA68" s="6">
-        <f>0.0000064*K68</f>
-        <v>6.3999999999999994E-3</v>
+        <f>K68/64*0.97</f>
+        <v>15.15625</v>
       </c>
       <c r="AB68" s="6">
         <f>L68*Y68*Z68</f>
@@ -9643,10 +9644,10 @@
       <c r="Z70" s="26"/>
       <c r="AA70" s="26">
         <f>SUM(AA3:AA69)</f>
-        <v>23.114035199999996</v>
+        <v>46545.692500000019</v>
       </c>
       <c r="AB70" s="26">
-        <f t="shared" ref="AB70" si="64">SUM(AB4:AB69)</f>
+        <f t="shared" ref="AB70" si="72">SUM(AB4:AB69)</f>
         <v>388579.16000000003</v>
       </c>
       <c r="AC70" s="26"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EB47A-C77E-4367-9A6B-ACE2E37896DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C18A31-827D-4AA1-A5A0-594E52357ED4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -600,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +632,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Ubuntu Mono"/>
@@ -731,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -940,6 +948,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5169,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AA71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9313,10 +9327,10 @@
       <c r="AC64" s="26"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="79" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="36"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C18A31-827D-4AA1-A5A0-594E52357ED4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CA3EC-2772-4BBB-8418-9BCB6DA06CD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="202">
   <si>
     <t>INPUT</t>
   </si>
@@ -594,6 +594,54 @@
   </si>
   <si>
     <t>0001_0105</t>
+  </si>
+  <si>
+    <t>227x227x3</t>
+  </si>
+  <si>
+    <t>113x113x64</t>
+  </si>
+  <si>
+    <t>56x56x64</t>
+  </si>
+  <si>
+    <t>56x56x16</t>
+  </si>
+  <si>
+    <t>56x56x128</t>
+  </si>
+  <si>
+    <t>28x28x32</t>
+  </si>
+  <si>
+    <t>28x28x128</t>
+  </si>
+  <si>
+    <t>28x28x256</t>
+  </si>
+  <si>
+    <t>14x14x256</t>
+  </si>
+  <si>
+    <t>14x14x48</t>
+  </si>
+  <si>
+    <t>14x14x192</t>
+  </si>
+  <si>
+    <t>14x14x384</t>
+  </si>
+  <si>
+    <t>14x14x64</t>
+  </si>
+  <si>
+    <t>14x14x512</t>
+  </si>
+  <si>
+    <t>14x14x1000</t>
+  </si>
+  <si>
+    <t>14x14(0)</t>
   </si>
 </sst>
 </file>
@@ -920,6 +968,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,12 +1002,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,32 +1380,32 @@
       <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="68"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69" t="s">
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="70"/>
+      <c r="S1" s="72"/>
       <c r="T1" s="14" t="s">
         <v>115</v>
       </c>
@@ -5183,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5219,42 +5267,42 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="29" t="s">
         <v>118</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="75" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="71" t="s">
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -5263,10 +5311,10 @@
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="30" t="s">
         <v>84</v>
       </c>
@@ -5279,11 +5327,11 @@
       <c r="H2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="30" t="s">
         <v>116</v>
       </c>
@@ -5296,18 +5344,18 @@
       <c r="O2" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77" t="s">
+      <c r="S2" s="79"/>
+      <c r="T2" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="U2" s="77"/>
+      <c r="U2" s="79"/>
       <c r="V2" s="14" t="s">
         <v>152</v>
       </c>
@@ -5349,14 +5397,14 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="J3" s="32">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K3" s="32">
         <f>J3^2*F3</f>
-        <v>150528</v>
+        <v>154587</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
@@ -5364,11 +5412,11 @@
       <c r="O3" s="33"/>
       <c r="P3" s="54">
         <f>R4</f>
-        <v>805888</v>
+        <v>809947</v>
       </c>
       <c r="Q3" s="16" t="str">
         <f>DEC2HEX(P3)</f>
-        <v>C4C00</v>
+        <v>C5BDB</v>
       </c>
       <c r="R3" s="60">
         <v>655360</v>
@@ -5386,7 +5434,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3">
         <f>K3/64*0.97</f>
-        <v>2281.44</v>
+        <v>2342.9592187499998</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="26" t="s">
@@ -5419,18 +5467,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="J4" s="34">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" s="34">
         <f>J4^2*F4</f>
-        <v>788544</v>
+        <v>817216</v>
       </c>
       <c r="L4" s="34">
         <f>J4^2*E4</f>
-        <v>36963</v>
+        <v>38307</v>
       </c>
       <c r="M4" s="34">
         <f>D4^2*E4*F4</f>
@@ -5446,19 +5494,19 @@
       </c>
       <c r="P4" s="55">
         <f>R6</f>
-        <v>1594432</v>
+        <v>1627163</v>
       </c>
       <c r="Q4" s="18" t="str">
         <f>DEC2HEX(P4)</f>
-        <v>185440</v>
+        <v>18D41B</v>
       </c>
       <c r="R4" s="61">
         <f>R3+K3</f>
-        <v>805888</v>
+        <v>809947</v>
       </c>
       <c r="S4" s="18" t="str">
         <f>DEC2HEX(R4)</f>
-        <v>C4C00</v>
+        <v>C5BDB</v>
       </c>
       <c r="T4" s="61">
         <v>4096</v>
@@ -5484,11 +5532,11 @@
       </c>
       <c r="AA4" s="4">
         <f>K4/64*0.97</f>
-        <v>11951.369999999999</v>
+        <v>12385.93</v>
       </c>
       <c r="AB4" s="4">
         <f>L4*Y4*Z4</f>
-        <v>7392.6</v>
+        <v>7661.4000000000005</v>
       </c>
       <c r="AC4" s="26"/>
     </row>
@@ -5549,37 +5597,37 @@
         <v>0</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="J6" s="38">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6" s="38">
         <f>J6^2*F6</f>
-        <v>193600</v>
+        <v>200704</v>
       </c>
       <c r="L6" s="38">
         <f>K6</f>
-        <v>193600</v>
+        <v>200704</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="39"/>
       <c r="P6" s="57">
         <f>R7</f>
-        <v>1788032</v>
+        <v>1827867</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f>DEC2HEX(P6)</f>
-        <v>1B4880</v>
+        <v>1BE41B</v>
       </c>
       <c r="R6" s="63">
         <f>R4+K4</f>
-        <v>1594432</v>
+        <v>1627163</v>
       </c>
       <c r="S6" s="22" t="str">
         <f>DEC2HEX(R6)</f>
-        <v>185440</v>
+        <v>18D41B</v>
       </c>
       <c r="T6" s="63"/>
       <c r="U6" s="22" t="s">
@@ -5602,11 +5650,11 @@
       </c>
       <c r="AA6" s="6">
         <f>K6/64*0.97</f>
-        <v>2934.25</v>
+        <v>3041.92</v>
       </c>
       <c r="AB6" s="6">
         <f>L6*Y6*Z6</f>
-        <v>60016</v>
+        <v>62218.239999999998</v>
       </c>
       <c r="AC6" s="26"/>
     </row>
@@ -5636,18 +5684,18 @@
         <v>0</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="J7" s="34">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" s="34">
         <f>J7^2*F7</f>
-        <v>48400</v>
+        <v>50176</v>
       </c>
       <c r="L7" s="34">
         <f>J7^2*E7</f>
-        <v>193600</v>
+        <v>200704</v>
       </c>
       <c r="M7" s="34">
         <f>D7^2*E7*F7</f>
@@ -5663,19 +5711,19 @@
       </c>
       <c r="P7" s="55">
         <f>R9</f>
-        <v>1836432</v>
+        <v>1878043</v>
       </c>
       <c r="Q7" s="18" t="str">
         <f>DEC2HEX(P7)</f>
-        <v>1C0590</v>
+        <v>1CA81B</v>
       </c>
       <c r="R7" s="61">
         <f>R6+K6</f>
-        <v>1788032</v>
+        <v>1827867</v>
       </c>
       <c r="S7" s="18" t="str">
         <f>DEC2HEX(R7)</f>
-        <v>1B4880</v>
+        <v>1BE41B</v>
       </c>
       <c r="T7" s="61">
         <f>T4+O4</f>
@@ -5702,11 +5750,11 @@
       </c>
       <c r="AA7" s="4">
         <f>K7/64*0.97</f>
-        <v>733.5625</v>
+        <v>760.48</v>
       </c>
       <c r="AB7" s="4">
         <f>L7*Y7*Z7</f>
-        <v>38720</v>
+        <v>40140.800000000003</v>
       </c>
       <c r="AC7" s="26"/>
     </row>
@@ -5771,18 +5819,18 @@
         <v>0</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="J9" s="34">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="34">
         <f t="shared" ref="K9:K10" si="0">J9^2*F9</f>
-        <v>193600</v>
+        <v>200704</v>
       </c>
       <c r="L9" s="34">
         <f t="shared" ref="L9:L10" si="1">J9^2*E9</f>
-        <v>48400</v>
+        <v>50176</v>
       </c>
       <c r="M9" s="34">
         <f t="shared" ref="M9:M10" si="2">D9^2*E9*F9</f>
@@ -5798,19 +5846,19 @@
       </c>
       <c r="P9" s="55">
         <f>R10</f>
-        <v>2030032</v>
+        <v>2078747</v>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" ref="Q9:Q10" si="5">DEC2HEX(P9)</f>
-        <v>1EF9D0</v>
+        <v>1FB81B</v>
       </c>
       <c r="R9" s="61">
         <f>R7+K7</f>
-        <v>1836432</v>
+        <v>1878043</v>
       </c>
       <c r="S9" s="18" t="str">
         <f t="shared" ref="S9:S10" si="6">DEC2HEX(R9)</f>
-        <v>1C0590</v>
+        <v>1CA81B</v>
       </c>
       <c r="T9" s="61">
         <f>T7+O7</f>
@@ -5837,7 +5885,7 @@
       </c>
       <c r="AA9" s="4">
         <f t="shared" ref="AA9:AA10" si="8">K9/64*0.97</f>
-        <v>2934.25</v>
+        <v>3041.92</v>
       </c>
       <c r="AB9" s="4">
         <f>L9*Y9*Z9</f>
@@ -5871,18 +5919,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="J10" s="34">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="34">
         <f t="shared" si="0"/>
-        <v>193600</v>
+        <v>200704</v>
       </c>
       <c r="L10" s="34">
         <f t="shared" si="1"/>
-        <v>48400</v>
+        <v>50176</v>
       </c>
       <c r="M10" s="34">
         <f t="shared" si="2"/>
@@ -5898,19 +5946,19 @@
       </c>
       <c r="P10" s="55">
         <f>R14</f>
-        <v>2223632</v>
+        <v>2279451</v>
       </c>
       <c r="Q10" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>21EE10</v>
+        <v>22C81B</v>
       </c>
       <c r="R10" s="61">
         <f>R9+K9</f>
-        <v>2030032</v>
+        <v>2078747</v>
       </c>
       <c r="S10" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>1EF9D0</v>
+        <v>1FB81B</v>
       </c>
       <c r="T10" s="61">
         <f>T9+O9</f>
@@ -5937,11 +5985,11 @@
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="8"/>
-        <v>2934.25</v>
+        <v>3041.92</v>
       </c>
       <c r="AB10" s="4">
         <f>L10*Y10*Z10</f>
-        <v>9680</v>
+        <v>10035.200000000001</v>
       </c>
       <c r="AC10" s="26"/>
     </row>
@@ -6029,10 +6077,10 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="J13" s="32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
@@ -6080,18 +6128,18 @@
         <v>0</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="J14" s="34">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="34">
         <f>J14^2*F14</f>
-        <v>48400</v>
+        <v>50176</v>
       </c>
       <c r="L14" s="34">
         <f>J14^2*E14</f>
-        <v>387200</v>
+        <v>401408</v>
       </c>
       <c r="M14" s="34">
         <f>D14^2*E14*F14</f>
@@ -6107,19 +6155,19 @@
       </c>
       <c r="P14" s="55">
         <f>R16</f>
-        <v>2272032</v>
+        <v>2329627</v>
       </c>
       <c r="Q14" s="18" t="str">
         <f>DEC2HEX(P14)</f>
-        <v>22AB20</v>
+        <v>238C1B</v>
       </c>
       <c r="R14" s="61">
         <f>R10+K10</f>
-        <v>2223632</v>
+        <v>2279451</v>
       </c>
       <c r="S14" s="18" t="str">
         <f>DEC2HEX(R14)</f>
-        <v>21EE10</v>
+        <v>22C81B</v>
       </c>
       <c r="T14" s="61">
         <f>T10+O10</f>
@@ -6146,11 +6194,11 @@
       </c>
       <c r="AA14" s="4">
         <f>K14/64*0.97</f>
-        <v>733.5625</v>
+        <v>760.48</v>
       </c>
       <c r="AB14" s="4">
         <f>L14*Y14*Z14</f>
-        <v>77440</v>
+        <v>80281.600000000006</v>
       </c>
       <c r="AC14" s="26"/>
     </row>
@@ -6215,18 +6263,18 @@
         <v>0</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="J16" s="34">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="34">
         <f t="shared" ref="K16:K17" si="9">J16^2*F16</f>
-        <v>193600</v>
+        <v>200704</v>
       </c>
       <c r="L16" s="34">
         <f t="shared" ref="L16:L17" si="10">J16^2*E16</f>
-        <v>48400</v>
+        <v>50176</v>
       </c>
       <c r="M16" s="34">
         <f t="shared" ref="M16:M17" si="11">D16^2*E16*F16</f>
@@ -6242,19 +6290,19 @@
       </c>
       <c r="P16" s="55">
         <f>R17</f>
-        <v>2465632</v>
+        <v>2530331</v>
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" ref="Q16:Q17" si="14">DEC2HEX(P16)</f>
-        <v>259F60</v>
+        <v>269C1B</v>
       </c>
       <c r="R16" s="61">
         <f>R14+K14</f>
-        <v>2272032</v>
+        <v>2329627</v>
       </c>
       <c r="S16" s="18" t="str">
         <f t="shared" ref="S16:S17" si="15">DEC2HEX(R16)</f>
-        <v>22AB20</v>
+        <v>238C1B</v>
       </c>
       <c r="T16" s="61">
         <f>T14+O14</f>
@@ -6281,7 +6329,7 @@
       </c>
       <c r="AA16" s="4">
         <f t="shared" ref="AA16:AA17" si="17">K16/64*0.97</f>
-        <v>2934.25</v>
+        <v>3041.92</v>
       </c>
       <c r="AB16" s="4">
         <f>L16*Y16*Z16</f>
@@ -6315,18 +6363,18 @@
         <v>1</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="J17" s="34">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="34">
         <f t="shared" si="9"/>
-        <v>193600</v>
+        <v>200704</v>
       </c>
       <c r="L17" s="34">
         <f t="shared" si="10"/>
-        <v>48400</v>
+        <v>50176</v>
       </c>
       <c r="M17" s="34">
         <f t="shared" si="11"/>
@@ -6342,19 +6390,19 @@
       </c>
       <c r="P17" s="55">
         <f>R21</f>
-        <v>2659232</v>
+        <v>2731035</v>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>2893A0</v>
+        <v>29AC1B</v>
       </c>
       <c r="R17" s="61">
         <f>R16+K16</f>
-        <v>2465632</v>
+        <v>2530331</v>
       </c>
       <c r="S17" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>259F60</v>
+        <v>269C1B</v>
       </c>
       <c r="T17" s="61">
         <f>T16+O16</f>
@@ -6381,11 +6429,11 @@
       </c>
       <c r="AA17" s="4">
         <f t="shared" si="17"/>
-        <v>2934.25</v>
+        <v>3041.92</v>
       </c>
       <c r="AB17" s="4">
         <f>L17*Y17*Z17</f>
-        <v>9680</v>
+        <v>10035.200000000001</v>
       </c>
       <c r="AC17" s="26"/>
     </row>
@@ -6473,10 +6521,10 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="J20" s="32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
@@ -6523,34 +6571,34 @@
         <v>92</v>
       </c>
       <c r="J21" s="38">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K21" s="38">
         <f>J21^2*F21</f>
-        <v>93312</v>
+        <v>100352</v>
       </c>
       <c r="L21" s="38">
         <f>K21</f>
-        <v>93312</v>
+        <v>100352</v>
       </c>
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="39"/>
       <c r="P21" s="57">
         <f>R22</f>
-        <v>2752544</v>
+        <v>2831387</v>
       </c>
       <c r="Q21" s="22" t="str">
         <f>DEC2HEX(P21)</f>
-        <v>2A0020</v>
+        <v>2B341B</v>
       </c>
       <c r="R21" s="63">
         <f>R17+K17</f>
-        <v>2659232</v>
+        <v>2731035</v>
       </c>
       <c r="S21" s="22" t="str">
         <f>DEC2HEX(R21)</f>
-        <v>2893A0</v>
+        <v>29AC1B</v>
       </c>
       <c r="T21" s="63"/>
       <c r="U21" s="22" t="s">
@@ -6573,11 +6621,11 @@
       </c>
       <c r="AA21" s="6">
         <f>K21/64*0.97</f>
-        <v>1414.26</v>
+        <v>1520.96</v>
       </c>
       <c r="AB21" s="6">
         <f>L21*Y21*Z21</f>
-        <v>28926.720000000001</v>
+        <v>31109.119999999999</v>
       </c>
       <c r="AC21" s="26"/>
     </row>
@@ -6607,18 +6655,18 @@
         <v>0</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="J22" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K22" s="34">
         <f>J22^2*F22</f>
-        <v>23328</v>
+        <v>25088</v>
       </c>
       <c r="L22" s="34">
         <f>J22^2*E22</f>
-        <v>93312</v>
+        <v>100352</v>
       </c>
       <c r="M22" s="34">
         <f>D22^2*E22*F22</f>
@@ -6634,19 +6682,19 @@
       </c>
       <c r="P22" s="55">
         <f>R24</f>
-        <v>2775872</v>
+        <v>2856475</v>
       </c>
       <c r="Q22" s="18" t="str">
         <f>DEC2HEX(P22)</f>
-        <v>2A5B40</v>
+        <v>2B961B</v>
       </c>
       <c r="R22" s="61">
         <f>R21+K21</f>
-        <v>2752544</v>
+        <v>2831387</v>
       </c>
       <c r="S22" s="18" t="str">
         <f>DEC2HEX(R22)</f>
-        <v>2A0020</v>
+        <v>2B341B</v>
       </c>
       <c r="T22" s="61">
         <f>T17+O17</f>
@@ -6673,11 +6721,11 @@
       </c>
       <c r="AA22" s="4">
         <f>K22/64*0.97</f>
-        <v>353.565</v>
+        <v>380.24</v>
       </c>
       <c r="AB22" s="4">
         <f>L22*Y22*Z22</f>
-        <v>18662.400000000001</v>
+        <v>20070.400000000001</v>
       </c>
       <c r="AC22" s="26"/>
     </row>
@@ -6742,18 +6790,18 @@
         <v>0</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="J24" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K24" s="34">
         <f t="shared" ref="K24:K25" si="18">J24^2*F24</f>
-        <v>93312</v>
+        <v>100352</v>
       </c>
       <c r="L24" s="34">
         <f t="shared" ref="L24:L25" si="19">J24^2*E24</f>
-        <v>23328</v>
+        <v>25088</v>
       </c>
       <c r="M24" s="34">
         <f t="shared" ref="M24:M25" si="20">D24^2*E24*F24</f>
@@ -6769,19 +6817,19 @@
       </c>
       <c r="P24" s="55">
         <f>R25</f>
-        <v>2869184</v>
+        <v>2956827</v>
       </c>
       <c r="Q24" s="18" t="str">
         <f t="shared" ref="Q24:Q25" si="23">DEC2HEX(P24)</f>
-        <v>2BC7C0</v>
+        <v>2D1E1B</v>
       </c>
       <c r="R24" s="61">
         <f>R22+K22</f>
-        <v>2775872</v>
+        <v>2856475</v>
       </c>
       <c r="S24" s="18" t="str">
         <f t="shared" ref="S24:S25" si="24">DEC2HEX(R24)</f>
-        <v>2A5B40</v>
+        <v>2B961B</v>
       </c>
       <c r="T24" s="61">
         <f>T22+O22</f>
@@ -6808,7 +6856,7 @@
       </c>
       <c r="AA24" s="4">
         <f t="shared" ref="AA24:AA25" si="26">K24/64*0.97</f>
-        <v>1414.26</v>
+        <v>1520.96</v>
       </c>
       <c r="AB24" s="4">
         <f>L24*Y24*Z24</f>
@@ -6842,18 +6890,18 @@
         <v>1</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="J25" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K25" s="34">
         <f t="shared" si="18"/>
-        <v>93312</v>
+        <v>100352</v>
       </c>
       <c r="L25" s="34">
         <f t="shared" si="19"/>
-        <v>23328</v>
+        <v>25088</v>
       </c>
       <c r="M25" s="34">
         <f t="shared" si="20"/>
@@ -6869,19 +6917,19 @@
       </c>
       <c r="P25" s="55">
         <f>R29</f>
-        <v>2962496</v>
+        <v>3057179</v>
       </c>
       <c r="Q25" s="18" t="str">
         <f t="shared" si="23"/>
-        <v>2D3440</v>
+        <v>2EA61B</v>
       </c>
       <c r="R25" s="61">
         <f>R24+K24</f>
-        <v>2869184</v>
+        <v>2956827</v>
       </c>
       <c r="S25" s="18" t="str">
         <f t="shared" si="24"/>
-        <v>2BC7C0</v>
+        <v>2D1E1B</v>
       </c>
       <c r="T25" s="61">
         <f>T24+O24</f>
@@ -6908,11 +6956,11 @@
       </c>
       <c r="AA25" s="4">
         <f t="shared" si="26"/>
-        <v>1414.26</v>
+        <v>1520.96</v>
       </c>
       <c r="AB25" s="4">
         <f>L25*Y25*Z25</f>
-        <v>4665.6000000000004</v>
+        <v>5017.6000000000004</v>
       </c>
       <c r="AC25" s="26"/>
     </row>
@@ -7000,10 +7048,10 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="J28" s="32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
@@ -7051,18 +7099,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="J29" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K29" s="34">
         <f>J29^2*F29</f>
-        <v>23328</v>
+        <v>25088</v>
       </c>
       <c r="L29" s="34">
         <f>J29^2*E29</f>
-        <v>186624</v>
+        <v>200704</v>
       </c>
       <c r="M29" s="34">
         <f>D29^2*E29*F29</f>
@@ -7078,19 +7126,19 @@
       </c>
       <c r="P29" s="55">
         <f>R31</f>
-        <v>2985824</v>
+        <v>3082267</v>
       </c>
       <c r="Q29" s="18" t="str">
         <f>DEC2HEX(P29)</f>
-        <v>2D8F60</v>
+        <v>2F081B</v>
       </c>
       <c r="R29" s="61">
         <f>R25+K25</f>
-        <v>2962496</v>
+        <v>3057179</v>
       </c>
       <c r="S29" s="18" t="str">
         <f>DEC2HEX(R29)</f>
-        <v>2D3440</v>
+        <v>2EA61B</v>
       </c>
       <c r="T29" s="61">
         <f>T25+O25</f>
@@ -7117,11 +7165,11 @@
       </c>
       <c r="AA29" s="4">
         <f>K29/64*0.97</f>
-        <v>353.565</v>
+        <v>380.24</v>
       </c>
       <c r="AB29" s="4">
         <f>L29*Y29*Z29</f>
-        <v>37324.800000000003</v>
+        <v>40140.800000000003</v>
       </c>
       <c r="AC29" s="26"/>
     </row>
@@ -7186,18 +7234,18 @@
         <v>0</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="J31" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K31" s="34">
         <f t="shared" ref="K31:K32" si="27">J31^2*F31</f>
-        <v>93312</v>
+        <v>100352</v>
       </c>
       <c r="L31" s="34">
         <f t="shared" ref="L31:L32" si="28">J31^2*E31</f>
-        <v>23328</v>
+        <v>25088</v>
       </c>
       <c r="M31" s="34">
         <f t="shared" ref="M31:M32" si="29">D31^2*E31*F31</f>
@@ -7213,19 +7261,19 @@
       </c>
       <c r="P31" s="55">
         <f>R32</f>
-        <v>3079136</v>
+        <v>3182619</v>
       </c>
       <c r="Q31" s="18" t="str">
         <f t="shared" ref="Q31:Q32" si="32">DEC2HEX(P31)</f>
-        <v>2EFBE0</v>
+        <v>30901B</v>
       </c>
       <c r="R31" s="61">
         <f>R29+K29</f>
-        <v>2985824</v>
+        <v>3082267</v>
       </c>
       <c r="S31" s="18" t="str">
         <f t="shared" ref="S31:S32" si="33">DEC2HEX(R31)</f>
-        <v>2D8F60</v>
+        <v>2F081B</v>
       </c>
       <c r="T31" s="61">
         <f>T29+O29</f>
@@ -7252,7 +7300,7 @@
       </c>
       <c r="AA31" s="4">
         <f t="shared" ref="AA31:AA32" si="35">K31/64*0.97</f>
-        <v>1414.26</v>
+        <v>1520.96</v>
       </c>
       <c r="AB31" s="4">
         <f>L31*Y31*Z31</f>
@@ -7286,18 +7334,18 @@
         <v>1</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="J32" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K32" s="34">
         <f t="shared" si="27"/>
-        <v>93312</v>
+        <v>100352</v>
       </c>
       <c r="L32" s="34">
         <f t="shared" si="28"/>
-        <v>23328</v>
+        <v>25088</v>
       </c>
       <c r="M32" s="34">
         <f t="shared" si="29"/>
@@ -7313,19 +7361,19 @@
       </c>
       <c r="P32" s="55">
         <f>R36</f>
-        <v>3172448</v>
+        <v>3282971</v>
       </c>
       <c r="Q32" s="18" t="str">
         <f t="shared" si="32"/>
-        <v>306860</v>
+        <v>32181B</v>
       </c>
       <c r="R32" s="61">
         <f>R31+K31</f>
-        <v>3079136</v>
+        <v>3182619</v>
       </c>
       <c r="S32" s="18" t="str">
         <f t="shared" si="33"/>
-        <v>2EFBE0</v>
+        <v>30901B</v>
       </c>
       <c r="T32" s="61">
         <f>T31+O31</f>
@@ -7352,11 +7400,11 @@
       </c>
       <c r="AA32" s="4">
         <f t="shared" si="35"/>
-        <v>1414.26</v>
+        <v>1520.96</v>
       </c>
       <c r="AB32" s="4">
         <f>L32*Y32*Z32</f>
-        <v>4665.6000000000004</v>
+        <v>5017.6000000000004</v>
       </c>
       <c r="AC32" s="26"/>
     </row>
@@ -7444,7 +7492,7 @@
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="J35" s="32"/>
       <c r="K35" s="32"/>
@@ -7489,37 +7537,37 @@
         <v>0</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="J36" s="38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" s="38">
         <f>J36^2*F36</f>
-        <v>43264</v>
+        <v>50176</v>
       </c>
       <c r="L36" s="38">
         <f>K36</f>
-        <v>43264</v>
+        <v>50176</v>
       </c>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
       <c r="O36" s="39"/>
       <c r="P36" s="57">
         <f>R37</f>
-        <v>3215712</v>
+        <v>3333147</v>
       </c>
       <c r="Q36" s="22" t="str">
         <f>DEC2HEX(P36)</f>
-        <v>311160</v>
+        <v>32DC1B</v>
       </c>
       <c r="R36" s="63">
         <f>R32+K32</f>
-        <v>3172448</v>
+        <v>3282971</v>
       </c>
       <c r="S36" s="22" t="str">
         <f>DEC2HEX(R36)</f>
-        <v>306860</v>
+        <v>32181B</v>
       </c>
       <c r="T36" s="63"/>
       <c r="U36" s="22" t="s">
@@ -7542,11 +7590,11 @@
       </c>
       <c r="AA36" s="6">
         <f>K36/64*0.97</f>
-        <v>655.72</v>
+        <v>760.48</v>
       </c>
       <c r="AB36" s="6">
         <f>L36*Y36*Z36</f>
-        <v>13411.84</v>
+        <v>15554.56</v>
       </c>
       <c r="AC36" s="26"/>
     </row>
@@ -7576,18 +7624,18 @@
         <v>0</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="J37" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K37" s="34">
         <f>J37^2*F37</f>
-        <v>8112</v>
+        <v>9408</v>
       </c>
       <c r="L37" s="34">
         <f>J37^2*E37</f>
-        <v>43264</v>
+        <v>50176</v>
       </c>
       <c r="M37" s="34">
         <f>D37^2*E37*F37</f>
@@ -7603,19 +7651,19 @@
       </c>
       <c r="P37" s="55">
         <f>R39</f>
-        <v>3223824</v>
+        <v>3342555</v>
       </c>
       <c r="Q37" s="18" t="str">
         <f>DEC2HEX(P37)</f>
-        <v>313110</v>
+        <v>3300DB</v>
       </c>
       <c r="R37" s="61">
         <f>R36+K36</f>
-        <v>3215712</v>
+        <v>3333147</v>
       </c>
       <c r="S37" s="18" t="str">
         <f>DEC2HEX(R37)</f>
-        <v>311160</v>
+        <v>32DC1B</v>
       </c>
       <c r="T37" s="61">
         <f>T32+O32</f>
@@ -7642,11 +7690,11 @@
       </c>
       <c r="AA37" s="4">
         <f>K37/64*0.97</f>
-        <v>122.94749999999999</v>
+        <v>142.59</v>
       </c>
       <c r="AB37" s="4">
         <f>L37*Y37*Z37</f>
-        <v>8652.8000000000011</v>
+        <v>10035.200000000001</v>
       </c>
       <c r="AC37" s="26"/>
     </row>
@@ -7711,18 +7759,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="J39" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K39" s="34">
         <f t="shared" ref="K39:K40" si="36">J39^2*F39</f>
-        <v>32448</v>
+        <v>37632</v>
       </c>
       <c r="L39" s="34">
         <f t="shared" ref="L39:L40" si="37">J39^2*E39</f>
-        <v>8112</v>
+        <v>9408</v>
       </c>
       <c r="M39" s="34">
         <f t="shared" ref="M39:M40" si="38">D39^2*E39*F39</f>
@@ -7738,19 +7786,19 @@
       </c>
       <c r="P39" s="55">
         <f>R40</f>
-        <v>3256272</v>
+        <v>3380187</v>
       </c>
       <c r="Q39" s="18" t="str">
         <f t="shared" ref="Q39:Q40" si="41">DEC2HEX(P39)</f>
-        <v>31AFD0</v>
+        <v>3393DB</v>
       </c>
       <c r="R39" s="61">
         <f>R37+K37</f>
-        <v>3223824</v>
+        <v>3342555</v>
       </c>
       <c r="S39" s="18" t="str">
         <f t="shared" ref="S39:S40" si="42">DEC2HEX(R39)</f>
-        <v>313110</v>
+        <v>3300DB</v>
       </c>
       <c r="T39" s="61">
         <f>T37+O37</f>
@@ -7777,7 +7825,7 @@
       </c>
       <c r="AA39" s="4">
         <f t="shared" ref="AA39:AA40" si="44">K39/64*0.97</f>
-        <v>491.78999999999996</v>
+        <v>570.36</v>
       </c>
       <c r="AB39" s="4">
         <f>L39*Y39*Z39</f>
@@ -7811,18 +7859,18 @@
         <v>1</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="J40" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K40" s="34">
         <f t="shared" si="36"/>
-        <v>32448</v>
+        <v>37632</v>
       </c>
       <c r="L40" s="34">
         <f t="shared" si="37"/>
-        <v>8112</v>
+        <v>9408</v>
       </c>
       <c r="M40" s="34">
         <f t="shared" si="38"/>
@@ -7838,19 +7886,19 @@
       </c>
       <c r="P40" s="55">
         <f>R44</f>
-        <v>3288720</v>
+        <v>3417819</v>
       </c>
       <c r="Q40" s="18" t="str">
         <f t="shared" si="41"/>
-        <v>322E90</v>
+        <v>3426DB</v>
       </c>
       <c r="R40" s="61">
         <f>R39+K39</f>
-        <v>3256272</v>
+        <v>3380187</v>
       </c>
       <c r="S40" s="18" t="str">
         <f t="shared" si="42"/>
-        <v>31AFD0</v>
+        <v>3393DB</v>
       </c>
       <c r="T40" s="61">
         <f>T39+O39</f>
@@ -7877,11 +7925,11 @@
       </c>
       <c r="AA40" s="4">
         <f t="shared" si="44"/>
-        <v>491.78999999999996</v>
+        <v>570.36</v>
       </c>
       <c r="AB40" s="4">
         <f>L40*Y40*Z40</f>
-        <v>1622.4</v>
+        <v>1881.6000000000001</v>
       </c>
       <c r="AC40" s="26"/>
     </row>
@@ -7969,10 +8017,10 @@
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="J43" s="32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
@@ -8020,18 +8068,18 @@
         <v>0</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="J44" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K44" s="34">
         <f>J44^2*F44</f>
-        <v>8112</v>
+        <v>9408</v>
       </c>
       <c r="L44" s="34">
         <f>J44^2*E44</f>
-        <v>64896</v>
+        <v>75264</v>
       </c>
       <c r="M44" s="34">
         <f>D44^2*E44*F44</f>
@@ -8047,19 +8095,19 @@
       </c>
       <c r="P44" s="55">
         <f>R46</f>
-        <v>3296832</v>
+        <v>3427227</v>
       </c>
       <c r="Q44" s="18" t="str">
         <f>DEC2HEX(P44)</f>
-        <v>324E40</v>
+        <v>344B9B</v>
       </c>
       <c r="R44" s="61">
         <f>R40+K40</f>
-        <v>3288720</v>
+        <v>3417819</v>
       </c>
       <c r="S44" s="18" t="str">
         <f>DEC2HEX(R44)</f>
-        <v>322E90</v>
+        <v>3426DB</v>
       </c>
       <c r="T44" s="61">
         <f>T40+O40</f>
@@ -8086,11 +8134,11 @@
       </c>
       <c r="AA44" s="4">
         <f>K44/64*0.97</f>
-        <v>122.94749999999999</v>
+        <v>142.59</v>
       </c>
       <c r="AB44" s="4">
         <f>L44*Y44*Z44</f>
-        <v>12979.2</v>
+        <v>15052.800000000001</v>
       </c>
       <c r="AC44" s="26"/>
     </row>
@@ -8155,18 +8203,18 @@
         <v>0</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="J46" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K46" s="34">
         <f t="shared" ref="K46:K47" si="45">J46^2*F46</f>
-        <v>32448</v>
+        <v>37632</v>
       </c>
       <c r="L46" s="34">
         <f t="shared" ref="L46:L47" si="46">J46^2*E46</f>
-        <v>8112</v>
+        <v>9408</v>
       </c>
       <c r="M46" s="34">
         <f t="shared" ref="M46:M47" si="47">D46^2*E46*F46</f>
@@ -8182,19 +8230,19 @@
       </c>
       <c r="P46" s="55">
         <f>R47</f>
-        <v>3329280</v>
+        <v>3464859</v>
       </c>
       <c r="Q46" s="18" t="str">
         <f t="shared" ref="Q46:Q47" si="50">DEC2HEX(P46)</f>
-        <v>32CD00</v>
+        <v>34DE9B</v>
       </c>
       <c r="R46" s="61">
         <f>R44+K44</f>
-        <v>3296832</v>
+        <v>3427227</v>
       </c>
       <c r="S46" s="18" t="str">
         <f t="shared" ref="S46:S47" si="51">DEC2HEX(R46)</f>
-        <v>324E40</v>
+        <v>344B9B</v>
       </c>
       <c r="T46" s="61">
         <f>T44+O44</f>
@@ -8221,7 +8269,7 @@
       </c>
       <c r="AA46" s="4">
         <f t="shared" ref="AA46:AA47" si="53">K46/64*0.97</f>
-        <v>491.78999999999996</v>
+        <v>570.36</v>
       </c>
       <c r="AB46" s="4">
         <f>L46*Y46*Z46</f>
@@ -8255,18 +8303,18 @@
         <v>1</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="J47" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K47" s="34">
         <f t="shared" si="45"/>
-        <v>32448</v>
+        <v>37632</v>
       </c>
       <c r="L47" s="34">
         <f t="shared" si="46"/>
-        <v>8112</v>
+        <v>9408</v>
       </c>
       <c r="M47" s="34">
         <f t="shared" si="47"/>
@@ -8282,19 +8330,19 @@
       </c>
       <c r="P47" s="55">
         <f>R51</f>
-        <v>3361728</v>
+        <v>3502491</v>
       </c>
       <c r="Q47" s="18" t="str">
         <f t="shared" si="50"/>
-        <v>334BC0</v>
+        <v>35719B</v>
       </c>
       <c r="R47" s="61">
         <f>R46+K46</f>
-        <v>3329280</v>
+        <v>3464859</v>
       </c>
       <c r="S47" s="18" t="str">
         <f t="shared" si="51"/>
-        <v>32CD00</v>
+        <v>34DE9B</v>
       </c>
       <c r="T47" s="61">
         <f>T46+O46</f>
@@ -8321,11 +8369,11 @@
       </c>
       <c r="AA47" s="4">
         <f t="shared" si="53"/>
-        <v>491.78999999999996</v>
+        <v>570.36</v>
       </c>
       <c r="AB47" s="4">
         <f>L47*Y47*Z47</f>
-        <v>1622.4</v>
+        <v>1881.6000000000001</v>
       </c>
       <c r="AC47" s="26"/>
     </row>
@@ -8413,10 +8461,10 @@
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="J50" s="32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -8464,18 +8512,18 @@
         <v>0</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="J51" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K51" s="34">
         <f>J51^2*F51</f>
-        <v>10816</v>
+        <v>12544</v>
       </c>
       <c r="L51" s="34">
         <f>J51^2*E51</f>
-        <v>64896</v>
+        <v>75264</v>
       </c>
       <c r="M51" s="34">
         <f>D51^2*E51*F51</f>
@@ -8491,19 +8539,19 @@
       </c>
       <c r="P51" s="55">
         <f>R53</f>
-        <v>3372544</v>
+        <v>3515035</v>
       </c>
       <c r="Q51" s="18" t="str">
         <f>DEC2HEX(P51)</f>
-        <v>337600</v>
+        <v>35A29B</v>
       </c>
       <c r="R51" s="61">
         <f>R47+K47</f>
-        <v>3361728</v>
+        <v>3502491</v>
       </c>
       <c r="S51" s="18" t="str">
         <f>DEC2HEX(R51)</f>
-        <v>334BC0</v>
+        <v>35719B</v>
       </c>
       <c r="T51" s="61">
         <f>T47+O47</f>
@@ -8530,11 +8578,11 @@
       </c>
       <c r="AA51" s="4">
         <f>K51/64*0.97</f>
-        <v>163.93</v>
+        <v>190.12</v>
       </c>
       <c r="AB51" s="4">
         <f>L51*Y51*Z51</f>
-        <v>12979.2</v>
+        <v>15052.800000000001</v>
       </c>
       <c r="AC51" s="26"/>
     </row>
@@ -8599,18 +8647,18 @@
         <v>0</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="J53" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K53" s="34">
         <f t="shared" ref="K53:K54" si="54">J53^2*F53</f>
-        <v>43264</v>
+        <v>50176</v>
       </c>
       <c r="L53" s="34">
         <f t="shared" ref="L53:L54" si="55">J53^2*E53</f>
-        <v>10816</v>
+        <v>12544</v>
       </c>
       <c r="M53" s="34">
         <f t="shared" ref="M53:M54" si="56">D53^2*E53*F53</f>
@@ -8626,19 +8674,19 @@
       </c>
       <c r="P53" s="55">
         <f>R54</f>
-        <v>3415808</v>
+        <v>3565211</v>
       </c>
       <c r="Q53" s="18" t="str">
         <f t="shared" ref="Q53:Q54" si="59">DEC2HEX(P53)</f>
-        <v>341F00</v>
+        <v>36669B</v>
       </c>
       <c r="R53" s="61">
         <f>R51+K51</f>
-        <v>3372544</v>
+        <v>3515035</v>
       </c>
       <c r="S53" s="18" t="str">
         <f t="shared" ref="S53:S54" si="60">DEC2HEX(R53)</f>
-        <v>337600</v>
+        <v>35A29B</v>
       </c>
       <c r="T53" s="61">
         <f>T51+O51</f>
@@ -8665,7 +8713,7 @@
       </c>
       <c r="AA53" s="4">
         <f t="shared" ref="AA53:AA54" si="62">K53/64*0.97</f>
-        <v>655.72</v>
+        <v>760.48</v>
       </c>
       <c r="AB53" s="4">
         <f>L53*Y53*Z53</f>
@@ -8699,18 +8747,18 @@
         <v>1</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="J54" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K54" s="34">
         <f t="shared" si="54"/>
-        <v>43264</v>
+        <v>50176</v>
       </c>
       <c r="L54" s="34">
         <f t="shared" si="55"/>
-        <v>10816</v>
+        <v>12544</v>
       </c>
       <c r="M54" s="34">
         <f t="shared" si="56"/>
@@ -8726,19 +8774,19 @@
       </c>
       <c r="P54" s="55">
         <f>R58</f>
-        <v>3459072</v>
+        <v>3615387</v>
       </c>
       <c r="Q54" s="18" t="str">
         <f t="shared" si="59"/>
-        <v>34C800</v>
+        <v>372A9B</v>
       </c>
       <c r="R54" s="61">
         <f>R53+K53</f>
-        <v>3415808</v>
+        <v>3565211</v>
       </c>
       <c r="S54" s="18" t="str">
         <f t="shared" si="60"/>
-        <v>341F00</v>
+        <v>36669B</v>
       </c>
       <c r="T54" s="61">
         <f>T53+O53</f>
@@ -8765,11 +8813,11 @@
       </c>
       <c r="AA54" s="4">
         <f t="shared" si="62"/>
-        <v>655.72</v>
+        <v>760.48</v>
       </c>
       <c r="AB54" s="4">
         <f>L54*Y54*Z54</f>
-        <v>2163.2000000000003</v>
+        <v>2508.8000000000002</v>
       </c>
       <c r="AC54" s="26"/>
     </row>
@@ -8857,10 +8905,10 @@
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="J57" s="32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
@@ -8908,18 +8956,18 @@
         <v>0</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="J58" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K58" s="34">
         <f>J58^2*F58</f>
-        <v>10816</v>
+        <v>12544</v>
       </c>
       <c r="L58" s="34">
         <f>J58^2*E58</f>
-        <v>86528</v>
+        <v>100352</v>
       </c>
       <c r="M58" s="34">
         <f>D58^2*E58*F58</f>
@@ -8935,19 +8983,19 @@
       </c>
       <c r="P58" s="55">
         <f>R60</f>
-        <v>3469888</v>
+        <v>3627931</v>
       </c>
       <c r="Q58" s="18" t="str">
         <f>DEC2HEX(P58)</f>
-        <v>34F240</v>
+        <v>375B9B</v>
       </c>
       <c r="R58" s="61">
         <f>R54+K54</f>
-        <v>3459072</v>
+        <v>3615387</v>
       </c>
       <c r="S58" s="18" t="str">
         <f>DEC2HEX(R58)</f>
-        <v>34C800</v>
+        <v>372A9B</v>
       </c>
       <c r="T58" s="61">
         <f>T54+O54</f>
@@ -8974,11 +9022,11 @@
       </c>
       <c r="AA58" s="4">
         <f>K58/64*0.97</f>
-        <v>163.93</v>
+        <v>190.12</v>
       </c>
       <c r="AB58" s="4">
         <f>L58*Y58*Z58</f>
-        <v>17305.600000000002</v>
+        <v>20070.400000000001</v>
       </c>
       <c r="AC58" s="26"/>
     </row>
@@ -9043,18 +9091,18 @@
         <v>0</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="J60" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K60" s="34">
         <f t="shared" ref="K60:K61" si="63">J60^2*F60</f>
-        <v>43264</v>
+        <v>50176</v>
       </c>
       <c r="L60" s="34">
         <f t="shared" ref="L60:L61" si="64">J60^2*E60</f>
-        <v>10816</v>
+        <v>12544</v>
       </c>
       <c r="M60" s="34">
         <f t="shared" ref="M60:M61" si="65">D60^2*E60*F60</f>
@@ -9070,19 +9118,19 @@
       </c>
       <c r="P60" s="55">
         <f>R61</f>
-        <v>3513152</v>
+        <v>3678107</v>
       </c>
       <c r="Q60" s="18" t="str">
         <f t="shared" ref="Q60:Q61" si="68">DEC2HEX(P60)</f>
-        <v>359B40</v>
+        <v>381F9B</v>
       </c>
       <c r="R60" s="61">
         <f>R58+K58</f>
-        <v>3469888</v>
+        <v>3627931</v>
       </c>
       <c r="S60" s="18" t="str">
         <f t="shared" ref="S60:S61" si="69">DEC2HEX(R60)</f>
-        <v>34F240</v>
+        <v>375B9B</v>
       </c>
       <c r="T60" s="61">
         <f>T58+O58</f>
@@ -9109,7 +9157,7 @@
       </c>
       <c r="AA60" s="4">
         <f t="shared" ref="AA60:AA61" si="71">K60/64*0.97</f>
-        <v>655.72</v>
+        <v>760.48</v>
       </c>
       <c r="AB60" s="4">
         <f>L60*Y60*Z60</f>
@@ -9143,18 +9191,18 @@
         <v>1</v>
       </c>
       <c r="I61" s="34" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="J61" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K61" s="34">
         <f t="shared" si="63"/>
-        <v>43264</v>
+        <v>50176</v>
       </c>
       <c r="L61" s="34">
         <f t="shared" si="64"/>
-        <v>10816</v>
+        <v>12544</v>
       </c>
       <c r="M61" s="34">
         <f t="shared" si="65"/>
@@ -9170,19 +9218,19 @@
       </c>
       <c r="P61" s="55">
         <f>R66</f>
-        <v>3556416</v>
+        <v>3728283</v>
       </c>
       <c r="Q61" s="18" t="str">
         <f t="shared" si="68"/>
-        <v>364440</v>
+        <v>38E39B</v>
       </c>
       <c r="R61" s="61">
         <f>R60+K60</f>
-        <v>3513152</v>
+        <v>3678107</v>
       </c>
       <c r="S61" s="18" t="str">
         <f t="shared" si="69"/>
-        <v>359B40</v>
+        <v>381F9B</v>
       </c>
       <c r="T61" s="61">
         <f>T60+O60</f>
@@ -9209,11 +9257,11 @@
       </c>
       <c r="AA61" s="4">
         <f t="shared" si="71"/>
-        <v>655.72</v>
+        <v>760.48</v>
       </c>
       <c r="AB61" s="4">
         <f>L61*Y61*Z61</f>
-        <v>2163.2000000000003</v>
+        <v>2508.8000000000002</v>
       </c>
       <c r="AC61" s="26"/>
     </row>
@@ -9301,10 +9349,10 @@
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="J64" s="32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
@@ -9327,10 +9375,10 @@
       <c r="AC64" s="26"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="69" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="36"/>
@@ -9387,18 +9435,18 @@
         <v>0</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="J66" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K66" s="34">
         <f>J66^2*F66</f>
-        <v>169000</v>
+        <v>196000</v>
       </c>
       <c r="L66" s="34">
         <f>J66^2*E66</f>
-        <v>86528</v>
+        <v>100352</v>
       </c>
       <c r="M66" s="34">
         <f>D66^2*E66*F66</f>
@@ -9414,19 +9462,19 @@
       </c>
       <c r="P66" s="55">
         <f>R68</f>
-        <v>3725416</v>
+        <v>3924283</v>
       </c>
       <c r="Q66" s="18" t="str">
         <f>DEC2HEX(P66)</f>
-        <v>38D868</v>
+        <v>3BE13B</v>
       </c>
       <c r="R66" s="61">
         <f>R61+K61</f>
-        <v>3556416</v>
+        <v>3728283</v>
       </c>
       <c r="S66" s="18" t="str">
         <f>DEC2HEX(R66)</f>
-        <v>364440</v>
+        <v>38E39B</v>
       </c>
       <c r="T66" s="61">
         <f>T61+O61</f>
@@ -9453,11 +9501,11 @@
       </c>
       <c r="AA66" s="4">
         <f>K66/64*0.97</f>
-        <v>2561.40625</v>
+        <v>2970.625</v>
       </c>
       <c r="AB66" s="4">
         <f>L66*Y66*Z66</f>
-        <v>17305.600000000002</v>
+        <v>20070.400000000001</v>
       </c>
       <c r="AC66" s="26"/>
     </row>
@@ -9504,7 +9552,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
@@ -9536,19 +9584,19 @@
       <c r="O68" s="39"/>
       <c r="P68" s="57">
         <f>R69</f>
-        <v>3726416</v>
+        <v>3925283</v>
       </c>
       <c r="Q68" s="22" t="str">
         <f>DEC2HEX(P68)</f>
-        <v>38DC50</v>
+        <v>3BE523</v>
       </c>
       <c r="R68" s="63">
         <f>R66+K66</f>
-        <v>3725416</v>
+        <v>3924283</v>
       </c>
       <c r="S68" s="22" t="str">
         <f>DEC2HEX(R68)</f>
-        <v>38D868</v>
+        <v>3BE13B</v>
       </c>
       <c r="T68" s="63"/>
       <c r="U68" s="22" t="s">
@@ -9603,7 +9651,7 @@
       <c r="Q69" s="16"/>
       <c r="R69" s="60">
         <f>R68+L68</f>
-        <v>3726416</v>
+        <v>3925283</v>
       </c>
       <c r="S69" s="16"/>
       <c r="T69" s="60"/>
@@ -9630,7 +9678,7 @@
       <c r="J70" s="30"/>
       <c r="K70" s="30">
         <f>SUM(K3:K69)</f>
-        <v>3071056</v>
+        <v>3269923</v>
       </c>
       <c r="L70" s="30"/>
       <c r="M70" s="30">
@@ -9658,11 +9706,11 @@
       <c r="Z70" s="26"/>
       <c r="AA70" s="26">
         <f>SUM(AA3:AA69)</f>
-        <v>46545.692500000019</v>
+        <v>49559.770468750008</v>
       </c>
       <c r="AB70" s="26">
         <f t="shared" ref="AB70" si="72">SUM(AB4:AB69)</f>
-        <v>388579.16000000003</v>
+        <v>417544.91999999993</v>
       </c>
       <c r="AC70" s="26"/>
     </row>
@@ -9679,7 +9727,7 @@
       <c r="J71" s="30"/>
       <c r="K71" s="30">
         <f>K70*16/1024/8</f>
-        <v>5998.15625</v>
+        <v>6386.568359375</v>
       </c>
       <c r="L71" s="30"/>
       <c r="M71" s="30">

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F8D756-DB66-4FB8-9160-2B7A7B49E61C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C4B9B6-A1C5-41DC-918C-76508AD64412}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
   <si>
     <t>INPUT</t>
   </si>
@@ -319,9 +319,6 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>WB addr</t>
-  </si>
-  <si>
     <t>data staddr</t>
   </si>
   <si>
@@ -442,24 +439,15 @@
     <t>14x14x1000</t>
   </si>
   <si>
-    <t>14x14(0)</t>
-  </si>
-  <si>
     <t>Op_type</t>
   </si>
   <si>
-    <t>oiknsize</t>
-  </si>
-  <si>
     <t>op_num|stride|padding|type</t>
   </si>
   <si>
     <t>006C0_202</t>
   </si>
   <si>
-    <t>0000_7103</t>
-  </si>
-  <si>
     <t>00001000</t>
   </si>
   <si>
@@ -469,12 +457,6 @@
     <t>0018D41B</t>
   </si>
   <si>
-    <t>00C40_204</t>
-  </si>
-  <si>
-    <t>0000_3803</t>
-  </si>
-  <si>
     <t>00000000</t>
   </si>
   <si>
@@ -484,9 +466,6 @@
     <t>00400_101</t>
   </si>
   <si>
-    <t>0000_3801</t>
-  </si>
-  <si>
     <t>00001380</t>
   </si>
   <si>
@@ -532,21 +511,12 @@
     <t>0029AC1B</t>
   </si>
   <si>
-    <t>00310_204</t>
-  </si>
-  <si>
-    <t>0000_1C03</t>
-  </si>
-  <si>
     <t>002B341B</t>
   </si>
   <si>
     <t>01000_101</t>
   </si>
   <si>
-    <t>0000_1C01</t>
-  </si>
-  <si>
     <t>00004180</t>
   </si>
   <si>
@@ -592,21 +562,12 @@
     <t>0032181B</t>
   </si>
   <si>
-    <t>000C4_204</t>
-  </si>
-  <si>
-    <t>0000_0E03</t>
-  </si>
-  <si>
     <t>0032DC1B</t>
   </si>
   <si>
     <t>03000_101</t>
   </si>
   <si>
-    <t>0000_0E01</t>
-  </si>
-  <si>
     <t>0000F980</t>
   </si>
   <si>
@@ -715,16 +676,49 @@
     <t>003BE13B</t>
   </si>
   <si>
-    <t>00001_105</t>
-  </si>
-  <si>
     <t>03E8_03E8</t>
   </si>
   <si>
-    <t>0000_010E</t>
-  </si>
-  <si>
     <t>003BE523</t>
+  </si>
+  <si>
+    <t>result addr</t>
+  </si>
+  <si>
+    <t>14x14</t>
+  </si>
+  <si>
+    <t>osurf, oiknsize</t>
+  </si>
+  <si>
+    <t>31E1_7103</t>
+  </si>
+  <si>
+    <t>00009_204</t>
+  </si>
+  <si>
+    <t>0C40_3803</t>
+  </si>
+  <si>
+    <t>0C40_3801</t>
+  </si>
+  <si>
+    <t>0310_1C03</t>
+  </si>
+  <si>
+    <t>0310_1C01</t>
+  </si>
+  <si>
+    <t>00C4_0E03</t>
+  </si>
+  <si>
+    <t>00C4_0E01</t>
+  </si>
+  <si>
+    <t>000C4_105</t>
+  </si>
+  <si>
+    <t>0001_010E</t>
   </si>
 </sst>
 </file>
@@ -986,37 +980,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,6 +997,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1353,83 +1347,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Y4" activeCellId="3" sqref="Q4:S68 U4:U68 W4:W68 Y4:Y68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="30"/>
-    <col min="10" max="10" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="30"/>
-    <col min="13" max="13" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" style="30" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.1796875" style="59" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.7109375" style="30"/>
+    <col min="10" max="10" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="30"/>
+    <col min="13" max="13" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="30" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="23" t="s">
         <v>93</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="50" t="s">
+      <c r="J1" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1437,12 +1433,12 @@
         <v>10</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="24" t="s">
         <v>83</v>
       </c>
@@ -1455,11 +1451,11 @@
       <c r="I2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="24" t="s">
         <v>91</v>
       </c>
@@ -1467,49 +1463,49 @@
         <v>85</v>
       </c>
       <c r="O2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="40" t="s">
-        <v>116</v>
-      </c>
       <c r="Q2" s="41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="T2" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="U2" s="58"/>
+      <c r="V2" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="53"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y2" s="59"/>
       <c r="Z2" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>89</v>
       </c>
       <c r="AB2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="AD2" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1522,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="25">
         <v>227</v>
@@ -1539,7 +1535,7 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
-      <c r="Q3" s="54"/>
+      <c r="Q3" s="44"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="32"/>
@@ -1570,7 +1566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="26">
         <v>113</v>
@@ -1624,7 +1620,7 @@
         <f>_xlfn.CEILING.MATH(E4^2*F4/2)*G4</f>
         <v>896</v>
       </c>
-      <c r="Q4" s="55" t="str">
+      <c r="Q4" s="45" t="str">
         <f>DEC2HEX(N4,5)&amp;"_"&amp;DEC2HEX(H4,1)&amp;DEC2HEX(I4,1)&amp;DEC2HEX(C4,1)</f>
         <v>006C0_202</v>
       </c>
@@ -1633,8 +1629,8 @@
         <v>0040_0003</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K4,2)&amp;DEC2HEX(E4,2)</f>
-        <v>0000_7103</v>
+        <f>DEC2HEX(K4^2,4)&amp;"_"&amp;DEC2HEX(K4,2)&amp;DEC2HEX(E4,2)</f>
+        <v>31E1_7103</v>
       </c>
       <c r="T4" s="33">
         <v>4096</v>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="AD4" s="20"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1692,7 @@
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="46"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="34"/>
@@ -1711,7 +1707,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="20"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1723,9 @@
       <c r="E6" s="28">
         <v>3</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
       <c r="G6" s="28">
         <v>64</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="28">
         <v>56</v>
@@ -1754,17 +1752,17 @@
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
-      <c r="Q6" s="57" t="str">
-        <f>DEC2HEX(K6^2,5)&amp;"_"&amp;DEC2HEX(H6,1)&amp;DEC2HEX(I6,1)&amp;DEC2HEX(C6,1)</f>
-        <v>00C40_204</v>
+      <c r="Q6" s="47" t="str">
+        <f>DEC2HEX(E6^2*F6,5)&amp;"_"&amp;DEC2HEX(H6,1)&amp;DEC2HEX(I6,1)&amp;DEC2HEX(C6,1)</f>
+        <v>00009_204</v>
       </c>
       <c r="R6" s="16" t="str">
         <f>DEC2HEX(G6,4)&amp;"_"&amp;DEC2HEX(G6,4)</f>
         <v>0040_0040</v>
       </c>
       <c r="S6" s="16" t="str">
-        <f>"0000_"&amp;DEC2HEX(K6,2)&amp;DEC2HEX(E6,2)</f>
-        <v>0000_3803</v>
+        <f>DEC2HEX(K6^2,4)&amp;"_"&amp;DEC2HEX(K6,2)&amp;DEC2HEX(E6,2)</f>
+        <v>0C40_3803</v>
       </c>
       <c r="T6" s="35"/>
       <c r="U6" s="16" t="str">
@@ -1803,7 +1801,7 @@
       </c>
       <c r="AD6" s="20"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" s="26">
         <v>56</v>
@@ -1857,7 +1855,7 @@
         <f>_xlfn.CEILING.MATH(E7^2*F7/2)*G7</f>
         <v>512</v>
       </c>
-      <c r="Q7" s="55" t="str">
+      <c r="Q7" s="45" t="str">
         <f>DEC2HEX(N7,5)&amp;"_"&amp;DEC2HEX(H7,1)&amp;DEC2HEX(I7,1)&amp;DEC2HEX(C7,1)</f>
         <v>00400_101</v>
       </c>
@@ -1866,8 +1864,8 @@
         <v>0010_0040</v>
       </c>
       <c r="S7" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K7,2)&amp;DEC2HEX(E7,2)</f>
-        <v>0000_3801</v>
+        <f>DEC2HEX(K7^2,4)&amp;"_"&amp;DEC2HEX(K7,2)&amp;DEC2HEX(E7,2)</f>
+        <v>0C40_3801</v>
       </c>
       <c r="T7" s="33">
         <f>T4+P4</f>
@@ -1909,7 +1907,7 @@
       </c>
       <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1930,7 +1928,7 @@
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
-      <c r="Q8" s="56"/>
+      <c r="Q8" s="46"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="34"/>
@@ -1945,7 +1943,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="20"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K9" s="26">
         <v>56</v>
@@ -1999,7 +1997,7 @@
         <f t="shared" ref="P9:P10" si="4">_xlfn.CEILING.MATH(E9^2*F9/2)*G9</f>
         <v>512</v>
       </c>
-      <c r="Q9" s="55" t="str">
+      <c r="Q9" s="45" t="str">
         <f>DEC2HEX(N9,5)&amp;"_"&amp;DEC2HEX(H9,1)&amp;DEC2HEX(I9,1)&amp;DEC2HEX(C9,1)</f>
         <v>00400_103</v>
       </c>
@@ -2008,15 +2006,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S9" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K9,2)&amp;DEC2HEX(E9,2)</f>
-        <v>0000_3801</v>
+        <f t="shared" ref="S9:S10" si="5">DEC2HEX(K9^2,4)&amp;"_"&amp;DEC2HEX(K9,2)&amp;DEC2HEX(E9,2)</f>
+        <v>0C40_3801</v>
       </c>
       <c r="T9" s="33">
         <f>T7+P7</f>
         <v>5504</v>
       </c>
       <c r="U9" s="12" t="str">
-        <f t="shared" ref="U9:U10" si="5">DEC2HEX(T9,8)</f>
+        <f t="shared" ref="U9:U10" si="6">DEC2HEX(T9,8)</f>
         <v>00001580</v>
       </c>
       <c r="V9" s="33">
@@ -2024,7 +2022,7 @@
         <v>1878043</v>
       </c>
       <c r="W9" s="12" t="str">
-        <f t="shared" ref="W9:W10" si="6">DEC2HEX(V9,8)</f>
+        <f t="shared" ref="W9:W10" si="7">DEC2HEX(V9,8)</f>
         <v>001CA81B</v>
       </c>
       <c r="X9" s="33">
@@ -2032,7 +2030,7 @@
         <v>2078747</v>
       </c>
       <c r="Y9" s="13" t="str">
-        <f t="shared" ref="Y9:Y10" si="7">DEC2HEX(X9,8)</f>
+        <f t="shared" ref="Y9:Y10" si="8">DEC2HEX(X9,8)</f>
         <v>001FB81B</v>
       </c>
       <c r="Z9" s="2">
@@ -2051,7 +2049,7 @@
       </c>
       <c r="AD9" s="20"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" s="26">
         <v>56</v>
@@ -2105,7 +2103,7 @@
         <f t="shared" si="4"/>
         <v>4608</v>
       </c>
-      <c r="Q10" s="55" t="str">
+      <c r="Q10" s="45" t="str">
         <f>DEC2HEX(N10,5)&amp;"_"&amp;DEC2HEX(H10,1)&amp;DEC2HEX(I10,1)&amp;DEC2HEX(C10,1)</f>
         <v>02400_113</v>
       </c>
@@ -2114,15 +2112,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S10" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K10,2)&amp;DEC2HEX(E10,2)</f>
-        <v>0000_3803</v>
+        <f t="shared" si="5"/>
+        <v>0C40_3803</v>
       </c>
       <c r="T10" s="33">
         <f>T9+P9</f>
         <v>6016</v>
       </c>
       <c r="U10" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00001780</v>
       </c>
       <c r="V10" s="33">
@@ -2130,7 +2128,7 @@
         <v>2078747</v>
       </c>
       <c r="W10" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>001FB81B</v>
       </c>
       <c r="X10" s="33">
@@ -2138,7 +2136,7 @@
         <v>2279451</v>
       </c>
       <c r="Y10" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0022C81B</v>
       </c>
       <c r="Z10" s="2">
@@ -2157,7 +2155,7 @@
       </c>
       <c r="AD10" s="20"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2178,7 +2176,7 @@
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="56"/>
+      <c r="Q11" s="46"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="34"/>
@@ -2193,7 +2191,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="20"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +2212,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="56"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="34"/>
@@ -2229,7 +2227,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="20"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2244,7 +2242,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="25">
         <v>56</v>
@@ -2254,7 +2252,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="54"/>
+      <c r="Q13" s="44"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="32"/>
@@ -2269,7 +2267,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="20"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="26">
         <v>56</v>
@@ -2323,7 +2321,7 @@
         <f>_xlfn.CEILING.MATH(E14^2*F14/2)*G14</f>
         <v>1024</v>
       </c>
-      <c r="Q14" s="55" t="str">
+      <c r="Q14" s="45" t="str">
         <f>DEC2HEX(N14,5)&amp;"_"&amp;DEC2HEX(H14,1)&amp;DEC2HEX(I14,1)&amp;DEC2HEX(C14,1)</f>
         <v>00800_101</v>
       </c>
@@ -2332,8 +2330,8 @@
         <v>0010_0080</v>
       </c>
       <c r="S14" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K14,2)&amp;DEC2HEX(E14,2)</f>
-        <v>0000_3801</v>
+        <f>DEC2HEX(K14^2,4)&amp;"_"&amp;DEC2HEX(K14,2)&amp;DEC2HEX(E14,2)</f>
+        <v>0C40_3801</v>
       </c>
       <c r="T14" s="33">
         <f>T10+P10</f>
@@ -2375,7 +2373,7 @@
       </c>
       <c r="AD14" s="20"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2396,7 +2394,7 @@
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="56"/>
+      <c r="Q15" s="46"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="34"/>
@@ -2411,7 +2409,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="20"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2440,32 +2438,32 @@
         <v>0</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K16" s="26">
         <v>56</v>
       </c>
       <c r="L16" s="26">
-        <f t="shared" ref="L16:L17" si="8">K16^2*G16</f>
+        <f t="shared" ref="L16:L17" si="9">K16^2*G16</f>
         <v>200704</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" ref="M16:M17" si="9">K16^2*F16</f>
+        <f t="shared" ref="M16:M17" si="10">K16^2*F16</f>
         <v>50176</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" ref="N16:N17" si="10">E16^2*F16*G16</f>
+        <f t="shared" ref="N16:N17" si="11">E16^2*F16*G16</f>
         <v>1024</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" ref="O16:O17" si="11">G16</f>
+        <f t="shared" ref="O16:O17" si="12">G16</f>
         <v>64</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" ref="P16:P17" si="12">_xlfn.CEILING.MATH(E16^2*F16/2)*G16</f>
+        <f t="shared" ref="P16:P17" si="13">_xlfn.CEILING.MATH(E16^2*F16/2)*G16</f>
         <v>512</v>
       </c>
-      <c r="Q16" s="55" t="str">
+      <c r="Q16" s="45" t="str">
         <f>DEC2HEX(N16,5)&amp;"_"&amp;DEC2HEX(H16,1)&amp;DEC2HEX(I16,1)&amp;DEC2HEX(C16,1)</f>
         <v>00400_103</v>
       </c>
@@ -2474,15 +2472,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S16" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K16,2)&amp;DEC2HEX(E16,2)</f>
-        <v>0000_3801</v>
+        <f t="shared" ref="S16:S17" si="14">DEC2HEX(K16^2,4)&amp;"_"&amp;DEC2HEX(K16,2)&amp;DEC2HEX(E16,2)</f>
+        <v>0C40_3801</v>
       </c>
       <c r="T16" s="33">
         <f>T14+P14</f>
         <v>11648</v>
       </c>
       <c r="U16" s="12" t="str">
-        <f t="shared" ref="U16:U17" si="13">DEC2HEX(T16,8)</f>
+        <f t="shared" ref="U16:U17" si="15">DEC2HEX(T16,8)</f>
         <v>00002D80</v>
       </c>
       <c r="V16" s="33">
@@ -2490,7 +2488,7 @@
         <v>2329627</v>
       </c>
       <c r="W16" s="12" t="str">
-        <f t="shared" ref="W16:W17" si="14">DEC2HEX(V16,8)</f>
+        <f t="shared" ref="W16:W17" si="16">DEC2HEX(V16,8)</f>
         <v>00238C1B</v>
       </c>
       <c r="X16" s="33">
@@ -2498,7 +2496,7 @@
         <v>2530331</v>
       </c>
       <c r="Y16" s="13" t="str">
-        <f t="shared" ref="Y16:Y17" si="15">DEC2HEX(X16,8)</f>
+        <f t="shared" ref="Y16:Y17" si="17">DEC2HEX(X16,8)</f>
         <v>00269C1B</v>
       </c>
       <c r="Z16" s="2">
@@ -2517,7 +2515,7 @@
       </c>
       <c r="AD16" s="20"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2546,32 +2544,32 @@
         <v>1</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" s="26">
         <v>56</v>
       </c>
       <c r="L17" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200704</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50176</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9216</v>
       </c>
       <c r="O17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="P17" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4608</v>
       </c>
-      <c r="Q17" s="55" t="str">
+      <c r="Q17" s="45" t="str">
         <f>DEC2HEX(N17,5)&amp;"_"&amp;DEC2HEX(H17,1)&amp;DEC2HEX(I17,1)&amp;DEC2HEX(C17,1)</f>
         <v>02400_113</v>
       </c>
@@ -2580,15 +2578,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S17" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K17,2)&amp;DEC2HEX(E17,2)</f>
-        <v>0000_3803</v>
+        <f t="shared" si="14"/>
+        <v>0C40_3803</v>
       </c>
       <c r="T17" s="33">
         <f>T16+P16</f>
         <v>12160</v>
       </c>
       <c r="U17" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>00002F80</v>
       </c>
       <c r="V17" s="33">
@@ -2596,7 +2594,7 @@
         <v>2530331</v>
       </c>
       <c r="W17" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>00269C1B</v>
       </c>
       <c r="X17" s="33">
@@ -2604,7 +2602,7 @@
         <v>2731035</v>
       </c>
       <c r="Y17" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0029AC1B</v>
       </c>
       <c r="Z17" s="2">
@@ -2623,7 +2621,7 @@
       </c>
       <c r="AD17" s="20"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2644,7 +2642,7 @@
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="56"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="34"/>
@@ -2659,7 +2657,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="20"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -2680,7 +2678,7 @@
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="56"/>
+      <c r="Q19" s="46"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="34"/>
@@ -2695,7 +2693,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="20"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2710,7 +2708,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K20" s="25">
         <v>56</v>
@@ -2720,7 +2718,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="54"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="32"/>
@@ -2735,7 +2733,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="20"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -2751,7 +2749,9 @@
       <c r="E21" s="28">
         <v>3</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>1</v>
+      </c>
       <c r="G21" s="28">
         <v>128</v>
       </c>
@@ -2778,17 +2778,17 @@
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
-      <c r="Q21" s="57" t="str">
-        <f>DEC2HEX(K21^2,5)&amp;"_"&amp;DEC2HEX(H21,1)&amp;DEC2HEX(I21,1)&amp;DEC2HEX(C21,1)</f>
-        <v>00310_204</v>
+      <c r="Q21" s="47" t="str">
+        <f>DEC2HEX(E21^2*F21,5)&amp;"_"&amp;DEC2HEX(H21,1)&amp;DEC2HEX(I21,1)&amp;DEC2HEX(C21,1)</f>
+        <v>00009_204</v>
       </c>
       <c r="R21" s="16" t="str">
         <f>DEC2HEX(G21,4)&amp;"_"&amp;DEC2HEX(G21,4)</f>
         <v>0080_0080</v>
       </c>
       <c r="S21" s="16" t="str">
-        <f>"0000_"&amp;DEC2HEX(K21,2)&amp;DEC2HEX(E21,2)</f>
-        <v>0000_1C03</v>
+        <f>DEC2HEX(K21^2,4)&amp;"_"&amp;DEC2HEX(K21,2)&amp;DEC2HEX(E21,2)</f>
+        <v>0310_1C03</v>
       </c>
       <c r="T21" s="35"/>
       <c r="U21" s="16" t="str">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K22" s="26">
         <v>28</v>
@@ -2881,7 +2881,7 @@
         <f>_xlfn.CEILING.MATH(E22^2*F22/2)*G22</f>
         <v>2048</v>
       </c>
-      <c r="Q22" s="55" t="str">
+      <c r="Q22" s="45" t="str">
         <f>DEC2HEX(N22,5)&amp;"_"&amp;DEC2HEX(H22,1)&amp;DEC2HEX(I22,1)&amp;DEC2HEX(C22,1)</f>
         <v>01000_101</v>
       </c>
@@ -2890,8 +2890,8 @@
         <v>0020_0080</v>
       </c>
       <c r="S22" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K22,2)&amp;DEC2HEX(E22,2)</f>
-        <v>0000_1C01</v>
+        <f>DEC2HEX(K22^2,4)&amp;"_"&amp;DEC2HEX(K22,2)&amp;DEC2HEX(E22,2)</f>
+        <v>0310_1C01</v>
       </c>
       <c r="T22" s="33">
         <f>T17+P17</f>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="AD22" s="20"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="56"/>
+      <c r="Q23" s="46"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
       <c r="T23" s="34"/>
@@ -2969,7 +2969,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="20"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -2998,32 +2998,32 @@
         <v>0</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" s="26">
         <v>28</v>
       </c>
       <c r="L24" s="26">
-        <f t="shared" ref="L24:L25" si="16">K24^2*G24</f>
+        <f t="shared" ref="L24:L25" si="18">K24^2*G24</f>
         <v>100352</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" ref="M24:M25" si="17">K24^2*F24</f>
+        <f t="shared" ref="M24:M25" si="19">K24^2*F24</f>
         <v>25088</v>
       </c>
       <c r="N24" s="26">
-        <f t="shared" ref="N24:N25" si="18">E24^2*F24*G24</f>
+        <f t="shared" ref="N24:N25" si="20">E24^2*F24*G24</f>
         <v>4096</v>
       </c>
       <c r="O24" s="26">
-        <f t="shared" ref="O24:O25" si="19">G24</f>
+        <f t="shared" ref="O24:O25" si="21">G24</f>
         <v>128</v>
       </c>
       <c r="P24" s="26">
-        <f t="shared" ref="P24:P25" si="20">_xlfn.CEILING.MATH(E24^2*F24/2)*G24</f>
+        <f t="shared" ref="P24:P25" si="22">_xlfn.CEILING.MATH(E24^2*F24/2)*G24</f>
         <v>2048</v>
       </c>
-      <c r="Q24" s="55" t="str">
+      <c r="Q24" s="45" t="str">
         <f>DEC2HEX(N24,5)&amp;"_"&amp;DEC2HEX(H24,1)&amp;DEC2HEX(I24,1)&amp;DEC2HEX(C24,1)</f>
         <v>01000_103</v>
       </c>
@@ -3032,15 +3032,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S24" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K24,2)&amp;DEC2HEX(E24,2)</f>
-        <v>0000_1C01</v>
+        <f t="shared" ref="S24:S25" si="23">DEC2HEX(K24^2,4)&amp;"_"&amp;DEC2HEX(K24,2)&amp;DEC2HEX(E24,2)</f>
+        <v>0310_1C01</v>
       </c>
       <c r="T24" s="33">
         <f>T22+P22</f>
         <v>18816</v>
       </c>
       <c r="U24" s="12" t="str">
-        <f t="shared" ref="U24:U25" si="21">DEC2HEX(T24,8)</f>
+        <f t="shared" ref="U24:U25" si="24">DEC2HEX(T24,8)</f>
         <v>00004980</v>
       </c>
       <c r="V24" s="33">
@@ -3048,7 +3048,7 @@
         <v>2856475</v>
       </c>
       <c r="W24" s="12" t="str">
-        <f t="shared" ref="W24:W25" si="22">DEC2HEX(V24,8)</f>
+        <f t="shared" ref="W24:W25" si="25">DEC2HEX(V24,8)</f>
         <v>002B961B</v>
       </c>
       <c r="X24" s="33">
@@ -3056,7 +3056,7 @@
         <v>2956827</v>
       </c>
       <c r="Y24" s="13" t="str">
-        <f t="shared" ref="Y24:Y25" si="23">DEC2HEX(X24,8)</f>
+        <f t="shared" ref="Y24:Y25" si="26">DEC2HEX(X24,8)</f>
         <v>002D1E1B</v>
       </c>
       <c r="Z24" s="2">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="AD24" s="20"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3104,32 +3104,32 @@
         <v>1</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" s="26">
         <v>28</v>
       </c>
       <c r="L25" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>100352</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>25088</v>
       </c>
       <c r="N25" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36864</v>
       </c>
       <c r="O25" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18432</v>
       </c>
-      <c r="Q25" s="55" t="str">
+      <c r="Q25" s="45" t="str">
         <f>DEC2HEX(N25,5)&amp;"_"&amp;DEC2HEX(H25,1)&amp;DEC2HEX(I25,1)&amp;DEC2HEX(C25,1)</f>
         <v>09000_113</v>
       </c>
@@ -3138,15 +3138,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S25" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K25,2)&amp;DEC2HEX(E25,2)</f>
-        <v>0000_1C03</v>
+        <f t="shared" si="23"/>
+        <v>0310_1C03</v>
       </c>
       <c r="T25" s="33">
         <f>T24+P24</f>
         <v>20864</v>
       </c>
       <c r="U25" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>00005180</v>
       </c>
       <c r="V25" s="33">
@@ -3154,7 +3154,7 @@
         <v>2956827</v>
       </c>
       <c r="W25" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>002D1E1B</v>
       </c>
       <c r="X25" s="33">
@@ -3162,7 +3162,7 @@
         <v>3057179</v>
       </c>
       <c r="Y25" s="13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>002EA61B</v>
       </c>
       <c r="Z25" s="2">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="AD25" s="20"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
-      <c r="Q26" s="56"/>
+      <c r="Q26" s="46"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="34"/>
@@ -3217,7 +3217,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="20"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="56"/>
+      <c r="Q27" s="46"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="34"/>
@@ -3253,7 +3253,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="20"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" s="25">
         <v>28</v>
@@ -3278,7 +3278,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
-      <c r="Q28" s="54"/>
+      <c r="Q28" s="44"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="32"/>
@@ -3293,7 +3293,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K29" s="26">
         <v>28</v>
@@ -3347,7 +3347,7 @@
         <f>_xlfn.CEILING.MATH(E29^2*F29/2)*G29</f>
         <v>4096</v>
       </c>
-      <c r="Q29" s="55" t="str">
+      <c r="Q29" s="45" t="str">
         <f>DEC2HEX(N29,5)&amp;"_"&amp;DEC2HEX(H29,1)&amp;DEC2HEX(I29,1)&amp;DEC2HEX(C29,1)</f>
         <v>02000_101</v>
       </c>
@@ -3356,8 +3356,8 @@
         <v>0020_0100</v>
       </c>
       <c r="S29" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K29,2)&amp;DEC2HEX(E29,2)</f>
-        <v>0000_1C01</v>
+        <f>DEC2HEX(K29^2,4)&amp;"_"&amp;DEC2HEX(K29,2)&amp;DEC2HEX(E29,2)</f>
+        <v>0310_1C01</v>
       </c>
       <c r="T29" s="33">
         <f>T25+P25</f>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="AD29" s="20"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="56"/>
+      <c r="Q30" s="46"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="34"/>
@@ -3435,7 +3435,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="20"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3464,32 +3464,32 @@
         <v>0</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K31" s="26">
         <v>28</v>
       </c>
       <c r="L31" s="26">
-        <f t="shared" ref="L31:L32" si="24">K31^2*G31</f>
+        <f t="shared" ref="L31:L32" si="27">K31^2*G31</f>
         <v>100352</v>
       </c>
       <c r="M31" s="26">
-        <f t="shared" ref="M31:M32" si="25">K31^2*F31</f>
+        <f t="shared" ref="M31:M32" si="28">K31^2*F31</f>
         <v>25088</v>
       </c>
       <c r="N31" s="26">
-        <f t="shared" ref="N31:N32" si="26">E31^2*F31*G31</f>
+        <f t="shared" ref="N31:N32" si="29">E31^2*F31*G31</f>
         <v>4096</v>
       </c>
       <c r="O31" s="26">
-        <f t="shared" ref="O31:O32" si="27">G31</f>
+        <f t="shared" ref="O31:O32" si="30">G31</f>
         <v>128</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" ref="P31:P32" si="28">_xlfn.CEILING.MATH(E31^2*F31/2)*G31</f>
+        <f t="shared" ref="P31:P32" si="31">_xlfn.CEILING.MATH(E31^2*F31/2)*G31</f>
         <v>2048</v>
       </c>
-      <c r="Q31" s="55" t="str">
+      <c r="Q31" s="45" t="str">
         <f>DEC2HEX(N31,5)&amp;"_"&amp;DEC2HEX(H31,1)&amp;DEC2HEX(I31,1)&amp;DEC2HEX(C31,1)</f>
         <v>01000_103</v>
       </c>
@@ -3498,15 +3498,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S31" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K31,2)&amp;DEC2HEX(E31,2)</f>
-        <v>0000_1C01</v>
+        <f t="shared" ref="S31:S32" si="32">DEC2HEX(K31^2,4)&amp;"_"&amp;DEC2HEX(K31,2)&amp;DEC2HEX(E31,2)</f>
+        <v>0310_1C01</v>
       </c>
       <c r="T31" s="33">
         <f>T29+P29</f>
         <v>43392</v>
       </c>
       <c r="U31" s="12" t="str">
-        <f t="shared" ref="U31:U32" si="29">DEC2HEX(T31,8)</f>
+        <f t="shared" ref="U31:U32" si="33">DEC2HEX(T31,8)</f>
         <v>0000A980</v>
       </c>
       <c r="V31" s="33">
@@ -3514,7 +3514,7 @@
         <v>3082267</v>
       </c>
       <c r="W31" s="12" t="str">
-        <f t="shared" ref="W31:W32" si="30">DEC2HEX(V31,8)</f>
+        <f t="shared" ref="W31:W32" si="34">DEC2HEX(V31,8)</f>
         <v>002F081B</v>
       </c>
       <c r="X31" s="33">
@@ -3522,7 +3522,7 @@
         <v>3182619</v>
       </c>
       <c r="Y31" s="13" t="str">
-        <f t="shared" ref="Y31:Y32" si="31">DEC2HEX(X31,8)</f>
+        <f t="shared" ref="Y31:Y32" si="35">DEC2HEX(X31,8)</f>
         <v>0030901B</v>
       </c>
       <c r="Z31" s="2">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AD31" s="20"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -3570,32 +3570,32 @@
         <v>1</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K32" s="26">
         <v>28</v>
       </c>
       <c r="L32" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>100352</v>
       </c>
       <c r="M32" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>25088</v>
       </c>
       <c r="N32" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>36864</v>
       </c>
       <c r="O32" s="26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>128</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>18432</v>
       </c>
-      <c r="Q32" s="55" t="str">
+      <c r="Q32" s="45" t="str">
         <f>DEC2HEX(N32,5)&amp;"_"&amp;DEC2HEX(H32,1)&amp;DEC2HEX(I32,1)&amp;DEC2HEX(C32,1)</f>
         <v>09000_113</v>
       </c>
@@ -3604,15 +3604,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S32" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K32,2)&amp;DEC2HEX(E32,2)</f>
-        <v>0000_1C03</v>
+        <f t="shared" si="32"/>
+        <v>0310_1C03</v>
       </c>
       <c r="T32" s="33">
         <f>T31+P31</f>
         <v>45440</v>
       </c>
       <c r="U32" s="12" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0000B180</v>
       </c>
       <c r="V32" s="33">
@@ -3620,7 +3620,7 @@
         <v>3182619</v>
       </c>
       <c r="W32" s="12" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0030901B</v>
       </c>
       <c r="X32" s="33">
@@ -3628,7 +3628,7 @@
         <v>3282971</v>
       </c>
       <c r="Y32" s="13" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0032181B</v>
       </c>
       <c r="Z32" s="2">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="AD32" s="20"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
-      <c r="Q33" s="56"/>
+      <c r="Q33" s="46"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="34"/>
@@ -3683,7 +3683,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="20"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="56"/>
+      <c r="Q34" s="46"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="34"/>
@@ -3719,7 +3719,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="20"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -3742,7 +3742,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="54"/>
+      <c r="Q35" s="44"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="32"/>
@@ -3757,7 +3757,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="20"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
@@ -3773,7 +3773,9 @@
       <c r="E36" s="28">
         <v>3</v>
       </c>
-      <c r="F36" s="28"/>
+      <c r="F36" s="28">
+        <v>1</v>
+      </c>
       <c r="G36" s="28">
         <v>256</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K36" s="28">
         <v>14</v>
@@ -3800,17 +3802,17 @@
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
-      <c r="Q36" s="57" t="str">
-        <f>DEC2HEX(K36^2,5)&amp;"_"&amp;DEC2HEX(H36,1)&amp;DEC2HEX(I36,1)&amp;DEC2HEX(C36,1)</f>
-        <v>000C4_204</v>
+      <c r="Q36" s="47" t="str">
+        <f>DEC2HEX(E36^2*F36,5)&amp;"_"&amp;DEC2HEX(H36,1)&amp;DEC2HEX(I36,1)&amp;DEC2HEX(C36,1)</f>
+        <v>00009_204</v>
       </c>
       <c r="R36" s="16" t="str">
         <f>DEC2HEX(G36,4)&amp;"_"&amp;DEC2HEX(G36,4)</f>
         <v>0100_0100</v>
       </c>
       <c r="S36" s="16" t="str">
-        <f>"0000_"&amp;DEC2HEX(K36,2)&amp;DEC2HEX(E36,2)</f>
-        <v>0000_0E03</v>
+        <f>DEC2HEX(K36^2,4)&amp;"_"&amp;DEC2HEX(K36,2)&amp;DEC2HEX(E36,2)</f>
+        <v>00C4_0E03</v>
       </c>
       <c r="T36" s="35"/>
       <c r="U36" s="16" t="str">
@@ -3849,7 +3851,7 @@
       </c>
       <c r="AD36" s="20"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3878,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K37" s="26">
         <v>14</v>
@@ -3903,7 +3905,7 @@
         <f>_xlfn.CEILING.MATH(E37^2*F37/2)*G37</f>
         <v>6144</v>
       </c>
-      <c r="Q37" s="55" t="str">
+      <c r="Q37" s="45" t="str">
         <f>DEC2HEX(N37,5)&amp;"_"&amp;DEC2HEX(H37,1)&amp;DEC2HEX(I37,1)&amp;DEC2HEX(C37,1)</f>
         <v>03000_101</v>
       </c>
@@ -3912,8 +3914,8 @@
         <v>0030_0100</v>
       </c>
       <c r="S37" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K37,2)&amp;DEC2HEX(E37,2)</f>
-        <v>0000_0E01</v>
+        <f>DEC2HEX(K37^2,4)&amp;"_"&amp;DEC2HEX(K37,2)&amp;DEC2HEX(E37,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T37" s="33">
         <f>T32+P32</f>
@@ -3955,7 +3957,7 @@
       </c>
       <c r="AD37" s="20"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -3976,7 +3978,7 @@
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
-      <c r="Q38" s="56"/>
+      <c r="Q38" s="46"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="34"/>
@@ -3991,7 +3993,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="20"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -4020,32 +4022,32 @@
         <v>0</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K39" s="26">
         <v>14</v>
       </c>
       <c r="L39" s="26">
-        <f t="shared" ref="L39:L40" si="32">K39^2*G39</f>
+        <f t="shared" ref="L39:L40" si="36">K39^2*G39</f>
         <v>37632</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" ref="M39:M40" si="33">K39^2*F39</f>
+        <f t="shared" ref="M39:M40" si="37">K39^2*F39</f>
         <v>9408</v>
       </c>
       <c r="N39" s="26">
-        <f t="shared" ref="N39:N40" si="34">E39^2*F39*G39</f>
+        <f t="shared" ref="N39:N40" si="38">E39^2*F39*G39</f>
         <v>9216</v>
       </c>
       <c r="O39" s="26">
-        <f t="shared" ref="O39:O40" si="35">G39</f>
+        <f t="shared" ref="O39:O40" si="39">G39</f>
         <v>192</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" ref="P39:P40" si="36">_xlfn.CEILING.MATH(E39^2*F39/2)*G39</f>
+        <f t="shared" ref="P39:P40" si="40">_xlfn.CEILING.MATH(E39^2*F39/2)*G39</f>
         <v>4608</v>
       </c>
-      <c r="Q39" s="55" t="str">
+      <c r="Q39" s="45" t="str">
         <f>DEC2HEX(N39,5)&amp;"_"&amp;DEC2HEX(H39,1)&amp;DEC2HEX(I39,1)&amp;DEC2HEX(C39,1)</f>
         <v>02400_103</v>
       </c>
@@ -4054,15 +4056,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S39" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K39,2)&amp;DEC2HEX(E39,2)</f>
-        <v>0000_0E01</v>
+        <f t="shared" ref="S39:S40" si="41">DEC2HEX(K39^2,4)&amp;"_"&amp;DEC2HEX(K39,2)&amp;DEC2HEX(E39,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T39" s="33">
         <f>T37+P37</f>
         <v>70016</v>
       </c>
       <c r="U39" s="12" t="str">
-        <f t="shared" ref="U39:U40" si="37">DEC2HEX(T39,8)</f>
+        <f t="shared" ref="U39:U40" si="42">DEC2HEX(T39,8)</f>
         <v>00011180</v>
       </c>
       <c r="V39" s="33">
@@ -4070,7 +4072,7 @@
         <v>3342555</v>
       </c>
       <c r="W39" s="12" t="str">
-        <f t="shared" ref="W39:W40" si="38">DEC2HEX(V39,8)</f>
+        <f t="shared" ref="W39:W40" si="43">DEC2HEX(V39,8)</f>
         <v>003300DB</v>
       </c>
       <c r="X39" s="33">
@@ -4078,7 +4080,7 @@
         <v>3380187</v>
       </c>
       <c r="Y39" s="13" t="str">
-        <f t="shared" ref="Y39:Y40" si="39">DEC2HEX(X39,8)</f>
+        <f t="shared" ref="Y39:Y40" si="44">DEC2HEX(X39,8)</f>
         <v>003393DB</v>
       </c>
       <c r="Z39" s="2">
@@ -4097,7 +4099,7 @@
       </c>
       <c r="AD39" s="20"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -4126,32 +4128,32 @@
         <v>1</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K40" s="26">
         <v>14</v>
       </c>
       <c r="L40" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>37632</v>
       </c>
       <c r="M40" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>9408</v>
       </c>
       <c r="N40" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>82944</v>
       </c>
       <c r="O40" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>192</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>41472</v>
       </c>
-      <c r="Q40" s="55" t="str">
+      <c r="Q40" s="45" t="str">
         <f>DEC2HEX(N40,5)&amp;"_"&amp;DEC2HEX(H40,1)&amp;DEC2HEX(I40,1)&amp;DEC2HEX(C40,1)</f>
         <v>14400_113</v>
       </c>
@@ -4160,15 +4162,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S40" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K40,2)&amp;DEC2HEX(E40,2)</f>
-        <v>0000_0E03</v>
+        <f t="shared" si="41"/>
+        <v>00C4_0E03</v>
       </c>
       <c r="T40" s="33">
         <f>T39+P39</f>
         <v>74624</v>
       </c>
       <c r="U40" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>00012380</v>
       </c>
       <c r="V40" s="33">
@@ -4176,7 +4178,7 @@
         <v>3380187</v>
       </c>
       <c r="W40" s="12" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>003393DB</v>
       </c>
       <c r="X40" s="33">
@@ -4184,7 +4186,7 @@
         <v>3417819</v>
       </c>
       <c r="Y40" s="13" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>003426DB</v>
       </c>
       <c r="Z40" s="2">
@@ -4203,7 +4205,7 @@
       </c>
       <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
@@ -4224,7 +4226,7 @@
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
-      <c r="Q41" s="56"/>
+      <c r="Q41" s="46"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="34"/>
@@ -4239,7 +4241,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="20"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
@@ -4260,7 +4262,7 @@
       <c r="N42" s="27"/>
       <c r="O42" s="27"/>
       <c r="P42" s="27"/>
-      <c r="Q42" s="56"/>
+      <c r="Q42" s="46"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
       <c r="T42" s="34"/>
@@ -4275,7 +4277,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -4290,7 +4292,7 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K43" s="25">
         <v>14</v>
@@ -4300,7 +4302,7 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
-      <c r="Q43" s="54"/>
+      <c r="Q43" s="44"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="32"/>
@@ -4315,7 +4317,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="20"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K44" s="26">
         <v>14</v>
@@ -4369,7 +4371,7 @@
         <f>_xlfn.CEILING.MATH(E44^2*F44/2)*G44</f>
         <v>9216</v>
       </c>
-      <c r="Q44" s="55" t="str">
+      <c r="Q44" s="45" t="str">
         <f>DEC2HEX(N44,5)&amp;"_"&amp;DEC2HEX(H44,1)&amp;DEC2HEX(I44,1)&amp;DEC2HEX(C44,1)</f>
         <v>04800_101</v>
       </c>
@@ -4378,8 +4380,8 @@
         <v>0030_0180</v>
       </c>
       <c r="S44" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K44,2)&amp;DEC2HEX(E44,2)</f>
-        <v>0000_0E01</v>
+        <f>DEC2HEX(K44^2,4)&amp;"_"&amp;DEC2HEX(K44,2)&amp;DEC2HEX(E44,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T44" s="33">
         <f>T40+P40</f>
@@ -4421,7 +4423,7 @@
       </c>
       <c r="AD44" s="20"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
@@ -4442,7 +4444,7 @@
       <c r="N45" s="27"/>
       <c r="O45" s="27"/>
       <c r="P45" s="27"/>
-      <c r="Q45" s="56"/>
+      <c r="Q45" s="46"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
       <c r="T45" s="34"/>
@@ -4457,7 +4459,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="20"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -4486,32 +4488,32 @@
         <v>0</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K46" s="26">
         <v>14</v>
       </c>
       <c r="L46" s="26">
-        <f t="shared" ref="L46:L47" si="40">K46^2*G46</f>
+        <f t="shared" ref="L46:L47" si="45">K46^2*G46</f>
         <v>37632</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" ref="M46:M47" si="41">K46^2*F46</f>
+        <f t="shared" ref="M46:M47" si="46">K46^2*F46</f>
         <v>9408</v>
       </c>
       <c r="N46" s="26">
-        <f t="shared" ref="N46:N47" si="42">E46^2*F46*G46</f>
+        <f t="shared" ref="N46:N47" si="47">E46^2*F46*G46</f>
         <v>9216</v>
       </c>
       <c r="O46" s="26">
-        <f t="shared" ref="O46:O47" si="43">G46</f>
+        <f t="shared" ref="O46:O47" si="48">G46</f>
         <v>192</v>
       </c>
       <c r="P46" s="26">
-        <f t="shared" ref="P46:P47" si="44">_xlfn.CEILING.MATH(E46^2*F46/2)*G46</f>
+        <f t="shared" ref="P46:P47" si="49">_xlfn.CEILING.MATH(E46^2*F46/2)*G46</f>
         <v>4608</v>
       </c>
-      <c r="Q46" s="55" t="str">
+      <c r="Q46" s="45" t="str">
         <f>DEC2HEX(N46,5)&amp;"_"&amp;DEC2HEX(H46,1)&amp;DEC2HEX(I46,1)&amp;DEC2HEX(C46,1)</f>
         <v>02400_103</v>
       </c>
@@ -4520,15 +4522,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S46" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K46,2)&amp;DEC2HEX(E46,2)</f>
-        <v>0000_0E01</v>
+        <f t="shared" ref="S46:S47" si="50">DEC2HEX(K46^2,4)&amp;"_"&amp;DEC2HEX(K46,2)&amp;DEC2HEX(E46,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T46" s="33">
         <f>T44+P44</f>
         <v>125312</v>
       </c>
       <c r="U46" s="12" t="str">
-        <f t="shared" ref="U46:U47" si="45">DEC2HEX(T46,8)</f>
+        <f t="shared" ref="U46:U47" si="51">DEC2HEX(T46,8)</f>
         <v>0001E980</v>
       </c>
       <c r="V46" s="33">
@@ -4536,7 +4538,7 @@
         <v>3427227</v>
       </c>
       <c r="W46" s="12" t="str">
-        <f t="shared" ref="W46:W47" si="46">DEC2HEX(V46,8)</f>
+        <f t="shared" ref="W46:W47" si="52">DEC2HEX(V46,8)</f>
         <v>00344B9B</v>
       </c>
       <c r="X46" s="33">
@@ -4544,7 +4546,7 @@
         <v>3464859</v>
       </c>
       <c r="Y46" s="13" t="str">
-        <f t="shared" ref="Y46:Y47" si="47">DEC2HEX(X46,8)</f>
+        <f t="shared" ref="Y46:Y47" si="53">DEC2HEX(X46,8)</f>
         <v>0034DE9B</v>
       </c>
       <c r="Z46" s="2">
@@ -4563,7 +4565,7 @@
       </c>
       <c r="AD46" s="20"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4592,32 +4594,32 @@
         <v>1</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K47" s="26">
         <v>14</v>
       </c>
       <c r="L47" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>37632</v>
       </c>
       <c r="M47" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>9408</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>82944</v>
       </c>
       <c r="O47" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>192</v>
       </c>
       <c r="P47" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>41472</v>
       </c>
-      <c r="Q47" s="55" t="str">
+      <c r="Q47" s="45" t="str">
         <f>DEC2HEX(N47,5)&amp;"_"&amp;DEC2HEX(H47,1)&amp;DEC2HEX(I47,1)&amp;DEC2HEX(C47,1)</f>
         <v>14400_113</v>
       </c>
@@ -4626,15 +4628,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S47" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K47,2)&amp;DEC2HEX(E47,2)</f>
-        <v>0000_0E03</v>
+        <f t="shared" si="50"/>
+        <v>00C4_0E03</v>
       </c>
       <c r="T47" s="33">
         <f>T46+P46</f>
         <v>129920</v>
       </c>
       <c r="U47" s="12" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0001FB80</v>
       </c>
       <c r="V47" s="33">
@@ -4642,7 +4644,7 @@
         <v>3464859</v>
       </c>
       <c r="W47" s="12" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0034DE9B</v>
       </c>
       <c r="X47" s="33">
@@ -4650,7 +4652,7 @@
         <v>3502491</v>
       </c>
       <c r="Y47" s="13" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0035719B</v>
       </c>
       <c r="Z47" s="2">
@@ -4669,7 +4671,7 @@
       </c>
       <c r="AD47" s="20"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
@@ -4690,7 +4692,7 @@
       <c r="N48" s="27"/>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
-      <c r="Q48" s="56"/>
+      <c r="Q48" s="46"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="34"/>
@@ -4705,7 +4707,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="20"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
@@ -4726,7 +4728,7 @@
       <c r="N49" s="27"/>
       <c r="O49" s="27"/>
       <c r="P49" s="27"/>
-      <c r="Q49" s="56"/>
+      <c r="Q49" s="46"/>
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49" s="34"/>
@@ -4741,7 +4743,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="20"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
@@ -4756,7 +4758,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K50" s="25">
         <v>14</v>
@@ -4766,7 +4768,7 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
-      <c r="Q50" s="54"/>
+      <c r="Q50" s="44"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="32"/>
@@ -4781,7 +4783,7 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="20"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K51" s="26">
         <v>14</v>
@@ -4835,7 +4837,7 @@
         <f>_xlfn.CEILING.MATH(E51^2*F51/2)*G51</f>
         <v>12288</v>
       </c>
-      <c r="Q51" s="55" t="str">
+      <c r="Q51" s="45" t="str">
         <f>DEC2HEX(N51,5)&amp;"_"&amp;DEC2HEX(H51,1)&amp;DEC2HEX(I51,1)&amp;DEC2HEX(C51,1)</f>
         <v>06000_101</v>
       </c>
@@ -4844,8 +4846,8 @@
         <v>0040_0180</v>
       </c>
       <c r="S51" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K51,2)&amp;DEC2HEX(E51,2)</f>
-        <v>0000_0E01</v>
+        <f>DEC2HEX(K51^2,4)&amp;"_"&amp;DEC2HEX(K51,2)&amp;DEC2HEX(E51,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T51" s="33">
         <f>T47+P47</f>
@@ -4887,7 +4889,7 @@
       </c>
       <c r="AD51" s="20"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
@@ -4908,7 +4910,7 @@
       <c r="N52" s="27"/>
       <c r="O52" s="27"/>
       <c r="P52" s="27"/>
-      <c r="Q52" s="56"/>
+      <c r="Q52" s="46"/>
       <c r="R52" s="14"/>
       <c r="S52" s="14"/>
       <c r="T52" s="34"/>
@@ -4923,7 +4925,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -4952,32 +4954,32 @@
         <v>0</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K53" s="26">
         <v>14</v>
       </c>
       <c r="L53" s="26">
-        <f t="shared" ref="L53:L54" si="48">K53^2*G53</f>
+        <f t="shared" ref="L53:L54" si="54">K53^2*G53</f>
         <v>50176</v>
       </c>
       <c r="M53" s="26">
-        <f t="shared" ref="M53:M54" si="49">K53^2*F53</f>
+        <f t="shared" ref="M53:M54" si="55">K53^2*F53</f>
         <v>12544</v>
       </c>
       <c r="N53" s="26">
-        <f t="shared" ref="N53:N54" si="50">E53^2*F53*G53</f>
+        <f t="shared" ref="N53:N54" si="56">E53^2*F53*G53</f>
         <v>16384</v>
       </c>
       <c r="O53" s="26">
-        <f t="shared" ref="O53:O54" si="51">G53</f>
+        <f t="shared" ref="O53:O54" si="57">G53</f>
         <v>256</v>
       </c>
       <c r="P53" s="26">
-        <f t="shared" ref="P53:P54" si="52">_xlfn.CEILING.MATH(E53^2*F53/2)*G53</f>
+        <f t="shared" ref="P53:P54" si="58">_xlfn.CEILING.MATH(E53^2*F53/2)*G53</f>
         <v>8192</v>
       </c>
-      <c r="Q53" s="55" t="str">
+      <c r="Q53" s="45" t="str">
         <f>DEC2HEX(N53,5)&amp;"_"&amp;DEC2HEX(H53,1)&amp;DEC2HEX(I53,1)&amp;DEC2HEX(C53,1)</f>
         <v>04000_103</v>
       </c>
@@ -4986,15 +4988,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S53" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K53,2)&amp;DEC2HEX(E53,2)</f>
-        <v>0000_0E01</v>
+        <f t="shared" ref="S53:S54" si="59">DEC2HEX(K53^2,4)&amp;"_"&amp;DEC2HEX(K53,2)&amp;DEC2HEX(E53,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T53" s="33">
         <f>T51+P51</f>
         <v>183680</v>
       </c>
       <c r="U53" s="12" t="str">
-        <f t="shared" ref="U53:U54" si="53">DEC2HEX(T53,8)</f>
+        <f t="shared" ref="U53:U54" si="60">DEC2HEX(T53,8)</f>
         <v>0002CD80</v>
       </c>
       <c r="V53" s="33">
@@ -5002,7 +5004,7 @@
         <v>3515035</v>
       </c>
       <c r="W53" s="12" t="str">
-        <f t="shared" ref="W53:W54" si="54">DEC2HEX(V53,8)</f>
+        <f t="shared" ref="W53:W54" si="61">DEC2HEX(V53,8)</f>
         <v>0035A29B</v>
       </c>
       <c r="X53" s="33">
@@ -5010,7 +5012,7 @@
         <v>3565211</v>
       </c>
       <c r="Y53" s="13" t="str">
-        <f t="shared" ref="Y53:Y54" si="55">DEC2HEX(X53,8)</f>
+        <f t="shared" ref="Y53:Y54" si="62">DEC2HEX(X53,8)</f>
         <v>0036669B</v>
       </c>
       <c r="Z53" s="2">
@@ -5029,7 +5031,7 @@
       </c>
       <c r="AD53" s="20"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -5058,32 +5060,32 @@
         <v>1</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" s="26">
         <v>14</v>
       </c>
       <c r="L54" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>50176</v>
       </c>
       <c r="M54" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>12544</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>147456</v>
       </c>
       <c r="O54" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>256</v>
       </c>
       <c r="P54" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>73728</v>
       </c>
-      <c r="Q54" s="55" t="str">
+      <c r="Q54" s="45" t="str">
         <f>DEC2HEX(N54,5)&amp;"_"&amp;DEC2HEX(H54,1)&amp;DEC2HEX(I54,1)&amp;DEC2HEX(C54,1)</f>
         <v>24000_113</v>
       </c>
@@ -5092,15 +5094,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S54" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K54,2)&amp;DEC2HEX(E54,2)</f>
-        <v>0000_0E03</v>
+        <f t="shared" si="59"/>
+        <v>00C4_0E03</v>
       </c>
       <c r="T54" s="33">
         <f>T53+P53</f>
         <v>191872</v>
       </c>
       <c r="U54" s="12" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0002ED80</v>
       </c>
       <c r="V54" s="33">
@@ -5108,7 +5110,7 @@
         <v>3565211</v>
       </c>
       <c r="W54" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0036669B</v>
       </c>
       <c r="X54" s="33">
@@ -5116,7 +5118,7 @@
         <v>3615387</v>
       </c>
       <c r="Y54" s="13" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>00372A9B</v>
       </c>
       <c r="Z54" s="2">
@@ -5135,7 +5137,7 @@
       </c>
       <c r="AD54" s="20"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
@@ -5156,7 +5158,7 @@
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="56"/>
+      <c r="Q55" s="46"/>
       <c r="R55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="34"/>
@@ -5171,7 +5173,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="20"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
@@ -5192,7 +5194,7 @@
       <c r="N56" s="27"/>
       <c r="O56" s="27"/>
       <c r="P56" s="27"/>
-      <c r="Q56" s="56"/>
+      <c r="Q56" s="46"/>
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
       <c r="T56" s="34"/>
@@ -5207,7 +5209,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="20"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -5222,7 +5224,7 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K57" s="25">
         <v>14</v>
@@ -5232,7 +5234,7 @@
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
-      <c r="Q57" s="54"/>
+      <c r="Q57" s="44"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="32"/>
@@ -5247,7 +5249,7 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="20"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -5276,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K58" s="26">
         <v>14</v>
@@ -5301,7 +5303,7 @@
         <f>_xlfn.CEILING.MATH(E58^2*F58/2)*G58</f>
         <v>16384</v>
       </c>
-      <c r="Q58" s="55" t="str">
+      <c r="Q58" s="45" t="str">
         <f>DEC2HEX(N58,5)&amp;"_"&amp;DEC2HEX(H58,1)&amp;DEC2HEX(I58,1)&amp;DEC2HEX(C58,1)</f>
         <v>08000_101</v>
       </c>
@@ -5310,8 +5312,8 @@
         <v>0040_0200</v>
       </c>
       <c r="S58" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K58,2)&amp;DEC2HEX(E58,2)</f>
-        <v>0000_0E01</v>
+        <f>DEC2HEX(K58^2,4)&amp;"_"&amp;DEC2HEX(K58,2)&amp;DEC2HEX(E58,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T58" s="33">
         <f>T54+P54</f>
@@ -5353,7 +5355,7 @@
       </c>
       <c r="AD58" s="20"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
@@ -5374,7 +5376,7 @@
       <c r="N59" s="27"/>
       <c r="O59" s="27"/>
       <c r="P59" s="27"/>
-      <c r="Q59" s="56"/>
+      <c r="Q59" s="46"/>
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
       <c r="T59" s="34"/>
@@ -5389,7 +5391,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="20"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -5418,32 +5420,32 @@
         <v>0</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K60" s="26">
         <v>14</v>
       </c>
       <c r="L60" s="26">
-        <f t="shared" ref="L60:L61" si="56">K60^2*G60</f>
+        <f t="shared" ref="L60:L61" si="63">K60^2*G60</f>
         <v>50176</v>
       </c>
       <c r="M60" s="26">
-        <f t="shared" ref="M60:M61" si="57">K60^2*F60</f>
+        <f t="shared" ref="M60:M61" si="64">K60^2*F60</f>
         <v>12544</v>
       </c>
       <c r="N60" s="26">
-        <f t="shared" ref="N60:N61" si="58">E60^2*F60*G60</f>
+        <f t="shared" ref="N60:N61" si="65">E60^2*F60*G60</f>
         <v>16384</v>
       </c>
       <c r="O60" s="26">
-        <f t="shared" ref="O60:O61" si="59">G60</f>
+        <f t="shared" ref="O60:O61" si="66">G60</f>
         <v>256</v>
       </c>
       <c r="P60" s="26">
-        <f t="shared" ref="P60:P61" si="60">_xlfn.CEILING.MATH(E60^2*F60/2)*G60</f>
+        <f t="shared" ref="P60:P61" si="67">_xlfn.CEILING.MATH(E60^2*F60/2)*G60</f>
         <v>8192</v>
       </c>
-      <c r="Q60" s="55" t="str">
+      <c r="Q60" s="45" t="str">
         <f>DEC2HEX(N60,5)&amp;"_"&amp;DEC2HEX(H60,1)&amp;DEC2HEX(I60,1)&amp;DEC2HEX(C60,1)</f>
         <v>04000_103</v>
       </c>
@@ -5452,15 +5454,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S60" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K60,2)&amp;DEC2HEX(E60,2)</f>
-        <v>0000_0E01</v>
+        <f t="shared" ref="S60:S61" si="68">DEC2HEX(K60^2,4)&amp;"_"&amp;DEC2HEX(K60,2)&amp;DEC2HEX(E60,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T60" s="33">
         <f>T58+P58</f>
         <v>281984</v>
       </c>
       <c r="U60" s="12" t="str">
-        <f t="shared" ref="U60:U61" si="61">DEC2HEX(T60,8)</f>
+        <f t="shared" ref="U60:U61" si="69">DEC2HEX(T60,8)</f>
         <v>00044D80</v>
       </c>
       <c r="V60" s="33">
@@ -5468,7 +5470,7 @@
         <v>3627931</v>
       </c>
       <c r="W60" s="12" t="str">
-        <f t="shared" ref="W60:W61" si="62">DEC2HEX(V60,8)</f>
+        <f t="shared" ref="W60:W61" si="70">DEC2HEX(V60,8)</f>
         <v>00375B9B</v>
       </c>
       <c r="X60" s="33">
@@ -5476,7 +5478,7 @@
         <v>3678107</v>
       </c>
       <c r="Y60" s="13" t="str">
-        <f t="shared" ref="Y60:Y61" si="63">DEC2HEX(X60,8)</f>
+        <f t="shared" ref="Y60:Y61" si="71">DEC2HEX(X60,8)</f>
         <v>00381F9B</v>
       </c>
       <c r="Z60" s="2">
@@ -5495,7 +5497,7 @@
       </c>
       <c r="AD60" s="20"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -5524,32 +5526,32 @@
         <v>1</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K61" s="26">
         <v>14</v>
       </c>
       <c r="L61" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>50176</v>
       </c>
       <c r="M61" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>12544</v>
       </c>
       <c r="N61" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>147456</v>
       </c>
       <c r="O61" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>256</v>
       </c>
       <c r="P61" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>73728</v>
       </c>
-      <c r="Q61" s="55" t="str">
+      <c r="Q61" s="45" t="str">
         <f>DEC2HEX(N61,5)&amp;"_"&amp;DEC2HEX(H61,1)&amp;DEC2HEX(I61,1)&amp;DEC2HEX(C61,1)</f>
         <v>24000_113</v>
       </c>
@@ -5558,15 +5560,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S61" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K61,2)&amp;DEC2HEX(E61,2)</f>
-        <v>0000_0E03</v>
+        <f t="shared" si="68"/>
+        <v>00C4_0E03</v>
       </c>
       <c r="T61" s="33">
         <f>T60+P60</f>
         <v>290176</v>
       </c>
       <c r="U61" s="12" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>00046D80</v>
       </c>
       <c r="V61" s="33">
@@ -5574,7 +5576,7 @@
         <v>3678107</v>
       </c>
       <c r="W61" s="12" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>00381F9B</v>
       </c>
       <c r="X61" s="33">
@@ -5582,7 +5584,7 @@
         <v>3728283</v>
       </c>
       <c r="Y61" s="13" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0038E39B</v>
       </c>
       <c r="Z61" s="2">
@@ -5601,7 +5603,7 @@
       </c>
       <c r="AD61" s="20"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
@@ -5622,7 +5624,7 @@
       <c r="N62" s="27"/>
       <c r="O62" s="27"/>
       <c r="P62" s="27"/>
-      <c r="Q62" s="56"/>
+      <c r="Q62" s="46"/>
       <c r="R62" s="14"/>
       <c r="S62" s="14"/>
       <c r="T62" s="34"/>
@@ -5637,7 +5639,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
@@ -5658,7 +5660,7 @@
       <c r="N63" s="27"/>
       <c r="O63" s="27"/>
       <c r="P63" s="27"/>
-      <c r="Q63" s="56"/>
+      <c r="Q63" s="46"/>
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
       <c r="T63" s="34"/>
@@ -5673,7 +5675,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
@@ -5688,7 +5690,7 @@
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K64" s="25">
         <v>14</v>
@@ -5698,7 +5700,7 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
-      <c r="Q64" s="54"/>
+      <c r="Q64" s="44"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
       <c r="T64" s="32"/>
@@ -5713,7 +5715,7 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
         <v>65</v>
       </c>
@@ -5734,7 +5736,7 @@
       <c r="N65" s="27"/>
       <c r="O65" s="27"/>
       <c r="P65" s="27"/>
-      <c r="Q65" s="56"/>
+      <c r="Q65" s="46"/>
       <c r="R65" s="14"/>
       <c r="S65" s="14"/>
       <c r="T65" s="34"/>
@@ -5749,7 +5751,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="20"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K66" s="26">
         <v>14</v>
@@ -5803,7 +5805,7 @@
         <f>_xlfn.CEILING.MATH(E66^2*F66/2)*G66</f>
         <v>256000</v>
       </c>
-      <c r="Q66" s="55" t="str">
+      <c r="Q66" s="45" t="str">
         <f>DEC2HEX(N66,5)&amp;"_"&amp;DEC2HEX(H66,1)&amp;DEC2HEX(I66,1)&amp;DEC2HEX(C66,1)</f>
         <v>7D000_101</v>
       </c>
@@ -5812,8 +5814,8 @@
         <v>03E8_0200</v>
       </c>
       <c r="S66" s="12" t="str">
-        <f>"0000_"&amp;DEC2HEX(K66,2)&amp;DEC2HEX(E66,2)</f>
-        <v>0000_0E01</v>
+        <f>DEC2HEX(K66^2,4)&amp;"_"&amp;DEC2HEX(K66,2)&amp;DEC2HEX(E66,2)</f>
+        <v>00C4_0E01</v>
       </c>
       <c r="T66" s="33">
         <f>T61+P61</f>
@@ -5855,7 +5857,7 @@
       </c>
       <c r="AD66" s="20"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>67</v>
       </c>
@@ -5876,7 +5878,7 @@
       <c r="N67" s="27"/>
       <c r="O67" s="27"/>
       <c r="P67" s="27"/>
-      <c r="Q67" s="56"/>
+      <c r="Q67" s="46"/>
       <c r="R67" s="14"/>
       <c r="S67" s="14"/>
       <c r="T67" s="34"/>
@@ -5891,7 +5893,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="20"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
@@ -5902,12 +5904,14 @@
         <v>5</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="E68" s="28">
         <v>14</v>
       </c>
-      <c r="F68" s="28"/>
+      <c r="F68" s="28">
+        <v>1</v>
+      </c>
       <c r="G68" s="28">
         <v>1000</v>
       </c>
@@ -5934,17 +5938,17 @@
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="57" t="str">
-        <f>DEC2HEX(K68^2,5)&amp;"_"&amp;DEC2HEX(H68,1)&amp;DEC2HEX(I68,1)&amp;DEC2HEX(C68,1)</f>
-        <v>00001_105</v>
+      <c r="Q68" s="47" t="str">
+        <f>DEC2HEX(E68^2*F68,5)&amp;"_"&amp;DEC2HEX(H68,1)&amp;DEC2HEX(I68,1)&amp;DEC2HEX(C68,1)</f>
+        <v>000C4_105</v>
       </c>
       <c r="R68" s="16" t="str">
         <f>DEC2HEX(G68,4)&amp;"_"&amp;DEC2HEX(G68,4)</f>
         <v>03E8_03E8</v>
       </c>
       <c r="S68" s="16" t="str">
-        <f>"0000_"&amp;DEC2HEX(K68,2)&amp;DEC2HEX(E68,2)</f>
-        <v>0000_010E</v>
+        <f>DEC2HEX(K68^2,4)&amp;"_"&amp;DEC2HEX(K68,2)&amp;DEC2HEX(E68,2)</f>
+        <v>0001_010E</v>
       </c>
       <c r="T68" s="35"/>
       <c r="U68" s="16" t="str">
@@ -5983,7 +5987,7 @@
       </c>
       <c r="AD68" s="20"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -6004,7 +6008,7 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
-      <c r="Q69" s="54"/>
+      <c r="Q69" s="44"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
       <c r="T69" s="32"/>
@@ -6022,7 +6026,7 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="20"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="24"/>
       <c r="C70" s="40"/>
@@ -6051,7 +6055,7 @@
         <f>SUM(P4:P69)</f>
         <v>615808</v>
       </c>
-      <c r="Q70" s="58"/>
+      <c r="Q70" s="48"/>
       <c r="R70" s="18"/>
       <c r="S70" s="18"/>
       <c r="T70" s="36"/>
@@ -6067,12 +6071,12 @@
         <v>49559.770468750008</v>
       </c>
       <c r="AC70" s="20">
-        <f t="shared" ref="AC70" si="64">SUM(AC4:AC69)</f>
+        <f t="shared" ref="AC70" si="72">SUM(AC4:AC69)</f>
         <v>417544.91999999993</v>
       </c>
       <c r="AD70" s="20"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="24"/>
       <c r="C71" s="40"/>
@@ -6098,7 +6102,7 @@
         <v>1235496</v>
       </c>
       <c r="P71" s="40"/>
-      <c r="Q71" s="58"/>
+      <c r="Q71" s="48"/>
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
       <c r="T71" s="36"/>
@@ -6114,7 +6118,15 @@
       <c r="AD71" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
+  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AVE Pooling"/>
+        <filter val="Convolution"/>
+        <filter val="MAX Pooling"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="J1:P1"/>
@@ -6139,37 +6151,37 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H1" sqref="H1:M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="H1" t="str">
         <f>LEFT(SUBSTITUTE(A1,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A1,"_",),4)</f>
@@ -6181,7 +6193,7 @@
       </c>
       <c r="J1" t="str">
         <f t="shared" si="0"/>
-        <v>0000 7103</v>
+        <v>31E1 7103</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" si="0"/>
@@ -6196,28 +6208,28 @@
         <v>0018 D41B</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
-        <v>144</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H30" si="1">LEFT(SUBSTITUTE(A2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A2,"_",),4)</f>
-        <v>00C4 0204</v>
+        <v>0000 9204</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I30" si="2">LEFT(SUBSTITUTE(B2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(B2,"_",),4)</f>
@@ -6225,7 +6237,7 @@
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J30" si="3">LEFT(SUBSTITUTE(C2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(C2,"_",),4)</f>
-        <v>0000 3803</v>
+        <v>0C40 3803</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K30" si="4">LEFT(SUBSTITUTE(D2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(D2,"_",),4)</f>
@@ -6240,24 +6252,24 @@
         <v>001B E41B</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
-        <v>148</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -6269,7 +6281,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>0000 3801</v>
+        <v>0C40 3801</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
@@ -6284,24 +6296,24 @@
         <v>001C A81B</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
-        <v>152</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -6313,7 +6325,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>0000 3801</v>
+        <v>0C40 3801</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
@@ -6328,24 +6340,24 @@
         <v>001F B81B</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
-        <v>155</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -6357,7 +6369,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>0000 3803</v>
+        <v>0C40 3803</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
@@ -6372,24 +6384,24 @@
         <v>0022 C81B</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
-        <v>158</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -6401,7 +6413,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>0000 3801</v>
+        <v>0C40 3801</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
@@ -6416,24 +6428,24 @@
         <v>0023 8C1B</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
-        <v>152</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -6445,7 +6457,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>0000 3801</v>
+        <v>0C40 3801</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
@@ -6460,24 +6472,24 @@
         <v>0026 9C1B</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -6489,7 +6501,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>0000 3803</v>
+        <v>0C40 3803</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
@@ -6504,28 +6516,28 @@
         <v>0029 AC1B</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
-        <v>165</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>0031 0204</v>
+        <v>0000 9204</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
@@ -6533,7 +6545,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>0000 1C03</v>
+        <v>0310 1C03</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
@@ -6548,24 +6560,24 @@
         <v>002B 341B</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="s">
-        <v>168</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -6577,7 +6589,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>0000 1C01</v>
+        <v>0310 1C01</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
@@ -6592,24 +6604,24 @@
         <v>002B 961B</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
-        <v>172</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -6621,7 +6633,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>0000 1C01</v>
+        <v>0310 1C01</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
@@ -6636,24 +6648,24 @@
         <v>002D 1E1B</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
-        <v>175</v>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -6665,7 +6677,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>0000 1C03</v>
+        <v>0310 1C03</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
@@ -6680,24 +6692,24 @@
         <v>002E A61B</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="55" t="s">
-        <v>178</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -6709,7 +6721,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>0000 1C01</v>
+        <v>0310 1C01</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
@@ -6724,24 +6736,24 @@
         <v>002F 081B</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -6753,7 +6765,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>0000 1C01</v>
+        <v>0310 1C01</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
@@ -6768,24 +6780,24 @@
         <v>0030 901B</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
-        <v>175</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>165</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -6797,7 +6809,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>0000 1C03</v>
+        <v>0310 1C03</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
@@ -6812,28 +6824,28 @@
         <v>0032 181B</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="57" t="s">
-        <v>185</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>000C 4204</v>
+        <v>0000 9204</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
@@ -6841,7 +6853,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E03</v>
+        <v>00C4 0E03</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
@@ -6856,24 +6868,24 @@
         <v>0032 DC1B</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="55" t="s">
-        <v>188</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
@@ -6885,7 +6897,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="4"/>
@@ -6900,24 +6912,24 @@
         <v>0033 00DB</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="55" t="s">
-        <v>192</v>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
@@ -6929,7 +6941,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="4"/>
@@ -6944,24 +6956,24 @@
         <v>0033 93DB</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
-        <v>196</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
@@ -6973,7 +6985,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E03</v>
+        <v>00C4 0E03</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="4"/>
@@ -6988,24 +7000,24 @@
         <v>0034 26DB</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="55" t="s">
-        <v>199</v>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>186</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -7017,7 +7029,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="4"/>
@@ -7032,24 +7044,24 @@
         <v>0034 4B9B</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="55" t="s">
-        <v>192</v>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>202</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -7061,7 +7073,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
@@ -7076,24 +7088,24 @@
         <v>0034 DE9B</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="55" t="s">
-        <v>196</v>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -7105,7 +7117,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E03</v>
+        <v>00C4 0E03</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="4"/>
@@ -7120,24 +7132,24 @@
         <v>0035 719B</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="55" t="s">
-        <v>206</v>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
@@ -7149,7 +7161,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="4"/>
@@ -7164,24 +7176,24 @@
         <v>0035 A29B</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="55" t="s">
-        <v>209</v>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>196</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
@@ -7193,7 +7205,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="4"/>
@@ -7208,24 +7220,24 @@
         <v>0036 669B</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="55" t="s">
-        <v>212</v>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
@@ -7237,7 +7249,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E03</v>
+        <v>00C4 0E03</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
@@ -7252,24 +7264,24 @@
         <v>0037 2A9B</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="55" t="s">
-        <v>215</v>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
@@ -7281,7 +7293,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
@@ -7296,24 +7308,24 @@
         <v>0037 5B9B</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="55" t="s">
-        <v>209</v>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>196</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
@@ -7325,7 +7337,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="4"/>
@@ -7340,24 +7352,24 @@
         <v>0038 1F9B</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="55" t="s">
-        <v>212</v>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
@@ -7369,7 +7381,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E03</v>
+        <v>00C4 0E03</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="4"/>
@@ -7384,24 +7396,24 @@
         <v>0038 E39B</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="55" t="s">
-        <v>222</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
@@ -7413,7 +7425,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
-        <v>0000 0E01</v>
+        <v>00C4 0E01</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="4"/>
@@ -7428,28 +7440,28 @@
         <v>003B E13B</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="57" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>226</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>228</v>
-      </c>
       <c r="D30" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>0000 1105</v>
+        <v>000C 4105</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="2"/>
@@ -7457,7 +7469,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="3"/>
-        <v>0000 010E</v>
+        <v>0001 010E</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="4"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C4B9B6-A1C5-41DC-918C-76508AD64412}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657A6C0-5B99-4259-BDC6-6CA98DA00C81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
   <sheets>
     <sheet name="SqueezeNet v2 MEC Parallel Ch" sheetId="2" r:id="rId1"/>
@@ -382,9 +382,6 @@
     <t>Bias</t>
   </si>
   <si>
-    <t>2B Aligned</t>
-  </si>
-  <si>
     <t>0040_0040</t>
   </si>
   <si>
@@ -466,48 +463,30 @@
     <t>00400_101</t>
   </si>
   <si>
-    <t>00001380</t>
-  </si>
-  <si>
     <t>001CA81B</t>
   </si>
   <si>
     <t>00400_103</t>
   </si>
   <si>
-    <t>00001580</t>
-  </si>
-  <si>
     <t>001FB81B</t>
   </si>
   <si>
     <t>02400_113</t>
   </si>
   <si>
-    <t>00001780</t>
-  </si>
-  <si>
     <t>0022C81B</t>
   </si>
   <si>
     <t>00800_101</t>
   </si>
   <si>
-    <t>00002980</t>
-  </si>
-  <si>
     <t>00238C1B</t>
   </si>
   <si>
-    <t>00002D80</t>
-  </si>
-  <si>
     <t>00269C1B</t>
   </si>
   <si>
-    <t>00002F80</t>
-  </si>
-  <si>
     <t>0029AC1B</t>
   </si>
   <si>
@@ -517,48 +496,30 @@
     <t>01000_101</t>
   </si>
   <si>
-    <t>00004180</t>
-  </si>
-  <si>
     <t>002B961B</t>
   </si>
   <si>
     <t>01000_103</t>
   </si>
   <si>
-    <t>00004980</t>
-  </si>
-  <si>
     <t>002D1E1B</t>
   </si>
   <si>
     <t>09000_113</t>
   </si>
   <si>
-    <t>00005180</t>
-  </si>
-  <si>
     <t>002EA61B</t>
   </si>
   <si>
     <t>02000_101</t>
   </si>
   <si>
-    <t>00009980</t>
-  </si>
-  <si>
     <t>002F081B</t>
   </si>
   <si>
-    <t>0000A980</t>
-  </si>
-  <si>
     <t>0030901B</t>
   </si>
   <si>
-    <t>0000B180</t>
-  </si>
-  <si>
     <t>0032181B</t>
   </si>
   <si>
@@ -568,9 +529,6 @@
     <t>03000_101</t>
   </si>
   <si>
-    <t>0000F980</t>
-  </si>
-  <si>
     <t>003300DB</t>
   </si>
   <si>
@@ -580,87 +538,54 @@
     <t>00C0_0030</t>
   </si>
   <si>
-    <t>00011180</t>
-  </si>
-  <si>
     <t>003393DB</t>
   </si>
   <si>
     <t>14400_113</t>
   </si>
   <si>
-    <t>00012380</t>
-  </si>
-  <si>
     <t>003426DB</t>
   </si>
   <si>
     <t>04800_101</t>
   </si>
   <si>
-    <t>0001C580</t>
-  </si>
-  <si>
     <t>00344B9B</t>
   </si>
   <si>
-    <t>0001E980</t>
-  </si>
-  <si>
     <t>0034DE9B</t>
   </si>
   <si>
-    <t>0001FB80</t>
-  </si>
-  <si>
     <t>0035719B</t>
   </si>
   <si>
     <t>06000_101</t>
   </si>
   <si>
-    <t>00029D80</t>
-  </si>
-  <si>
     <t>0035A29B</t>
   </si>
   <si>
     <t>04000_103</t>
   </si>
   <si>
-    <t>0002CD80</t>
-  </si>
-  <si>
     <t>0036669B</t>
   </si>
   <si>
     <t>24000_113</t>
   </si>
   <si>
-    <t>0002ED80</t>
-  </si>
-  <si>
     <t>00372A9B</t>
   </si>
   <si>
     <t>08000_101</t>
   </si>
   <si>
-    <t>00040D80</t>
-  </si>
-  <si>
     <t>00375B9B</t>
   </si>
   <si>
-    <t>00044D80</t>
-  </si>
-  <si>
     <t>00381F9B</t>
   </si>
   <si>
-    <t>00046D80</t>
-  </si>
-  <si>
     <t>0038E39B</t>
   </si>
   <si>
@@ -670,18 +595,12 @@
     <t>03E8_0200</t>
   </si>
   <si>
-    <t>00058D80</t>
-  </si>
-  <si>
     <t>003BE13B</t>
   </si>
   <si>
     <t>03E8_03E8</t>
   </si>
   <si>
-    <t>003BE523</t>
-  </si>
-  <si>
     <t>result addr</t>
   </si>
   <si>
@@ -719,6 +638,87 @@
   </si>
   <si>
     <t>0001_010E</t>
+  </si>
+  <si>
+    <t>Conv Weight</t>
+  </si>
+  <si>
+    <t>000A0000</t>
+  </si>
+  <si>
+    <t>00001700</t>
+  </si>
+  <si>
+    <t>00001B10</t>
+  </si>
+  <si>
+    <t>00001F50</t>
+  </si>
+  <si>
+    <t>00004390</t>
+  </si>
+  <si>
+    <t>00004BA0</t>
+  </si>
+  <si>
+    <t>00004FE0</t>
+  </si>
+  <si>
+    <t>00007420</t>
+  </si>
+  <si>
+    <t>00008440</t>
+  </si>
+  <si>
+    <t>000094C0</t>
+  </si>
+  <si>
+    <t>00012540</t>
+  </si>
+  <si>
+    <t>00014560</t>
+  </si>
+  <si>
+    <t>000155E0</t>
+  </si>
+  <si>
+    <t>0001E660</t>
+  </si>
+  <si>
+    <t>00021690</t>
+  </si>
+  <si>
+    <t>00023B50</t>
+  </si>
+  <si>
+    <t>00038010</t>
+  </si>
+  <si>
+    <t>0003C840</t>
+  </si>
+  <si>
+    <t>0003ED00</t>
+  </si>
+  <si>
+    <t>000531C0</t>
+  </si>
+  <si>
+    <t>00059200</t>
+  </si>
+  <si>
+    <t>0005D300</t>
+  </si>
+  <si>
+    <t>00081400</t>
+  </si>
+  <si>
+    <t>00089440</t>
+  </si>
+  <si>
+    <t>0008D540</t>
+  </si>
+  <si>
+    <t>000B1640</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1350,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G10" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y4" activeCellId="3" sqref="Q4:S68 U4:U68 W4:W68 Y4:Y68"/>
     </sheetView>
   </sheetViews>
@@ -1368,11 +1368,11 @@
     <col min="13" max="13" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="30" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>77</v>
@@ -1460,22 +1460,22 @@
         <v>91</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>114</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R2" s="42" t="s">
         <v>96</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="T2" s="58" t="s">
         <v>95</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="W2" s="58"/>
       <c r="X2" s="58" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="Y2" s="59"/>
       <c r="Z2" s="20" t="s">
@@ -1522,7 +1522,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K3" s="25">
         <v>227</v>
@@ -1540,21 +1540,10 @@
       <c r="S3" s="10"/>
       <c r="T3" s="32"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="32">
-        <v>655360</v>
-      </c>
-      <c r="W3" s="10" t="str">
-        <f>DEC2HEX(V3,8)</f>
-        <v>000A0000</v>
-      </c>
-      <c r="X3" s="32">
-        <f>V4</f>
-        <v>809947</v>
-      </c>
-      <c r="Y3" s="11" t="str">
-        <f>DEC2HEX(X3,8)</f>
-        <v>000C5BDB</v>
-      </c>
+      <c r="V3" s="32"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="11"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1">
@@ -1595,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="26">
         <v>113</v>
@@ -1617,8 +1606,8 @@
         <v>64</v>
       </c>
       <c r="P4" s="26">
-        <f>_xlfn.CEILING.MATH(E4^2*F4/2)*G4</f>
-        <v>896</v>
+        <f>N4+O4</f>
+        <v>1792</v>
       </c>
       <c r="Q4" s="45" t="str">
         <f>DEC2HEX(N4,5)&amp;"_"&amp;DEC2HEX(H4,1)&amp;DEC2HEX(I4,1)&amp;DEC2HEX(C4,1)</f>
@@ -1640,20 +1629,19 @@
         <v>00001000</v>
       </c>
       <c r="V4" s="33">
-        <f>V3+L3</f>
-        <v>809947</v>
+        <v>655360</v>
       </c>
       <c r="W4" s="12" t="str">
         <f>DEC2HEX(V4,8)</f>
-        <v>000C5BDB</v>
+        <v>000A0000</v>
       </c>
       <c r="X4" s="33">
-        <f>V6</f>
-        <v>1627163</v>
+        <f>V4+L3</f>
+        <v>809947</v>
       </c>
       <c r="Y4" s="13" t="str">
         <f>DEC2HEX(X4,8)</f>
-        <v>0018D41B</v>
+        <v>000C5BDB</v>
       </c>
       <c r="Z4" s="2">
         <v>0.2</v>
@@ -1736,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K6" s="28">
         <v>56</v>
@@ -1770,20 +1758,20 @@
         <v>00000000</v>
       </c>
       <c r="V6" s="35">
-        <f>V4+L4</f>
-        <v>1627163</v>
+        <f>X4</f>
+        <v>809947</v>
       </c>
       <c r="W6" s="16" t="str">
         <f>DEC2HEX(V6,8)</f>
-        <v>0018D41B</v>
+        <v>000C5BDB</v>
       </c>
       <c r="X6" s="35">
-        <f>V7</f>
-        <v>1827867</v>
+        <f>V6+L4</f>
+        <v>1627163</v>
       </c>
       <c r="Y6" s="17" t="str">
         <f>DEC2HEX(X6,8)</f>
-        <v>001BE41B</v>
+        <v>0018D41B</v>
       </c>
       <c r="Z6" s="4">
         <v>0.31</v>
@@ -1830,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" s="26">
         <v>56</v>
@@ -1852,8 +1840,8 @@
         <v>16</v>
       </c>
       <c r="P7" s="26">
-        <f>_xlfn.CEILING.MATH(E7^2*F7/2)*G7</f>
-        <v>512</v>
+        <f>N7+O7</f>
+        <v>1040</v>
       </c>
       <c r="Q7" s="45" t="str">
         <f>DEC2HEX(N7,5)&amp;"_"&amp;DEC2HEX(H7,1)&amp;DEC2HEX(I7,1)&amp;DEC2HEX(C7,1)</f>
@@ -1869,27 +1857,27 @@
       </c>
       <c r="T7" s="33">
         <f>T4+P4</f>
-        <v>4992</v>
+        <v>5888</v>
       </c>
       <c r="U7" s="12" t="str">
         <f>DEC2HEX(T7,8)</f>
-        <v>00001380</v>
+        <v>00001700</v>
       </c>
       <c r="V7" s="33">
-        <f>V6+L6</f>
-        <v>1827867</v>
+        <f>X6</f>
+        <v>1627163</v>
       </c>
       <c r="W7" s="12" t="str">
         <f>DEC2HEX(V7,8)</f>
-        <v>001BE41B</v>
+        <v>0018D41B</v>
       </c>
       <c r="X7" s="33">
-        <f>V9</f>
-        <v>1878043</v>
+        <f>V7+L6</f>
+        <v>1827867</v>
       </c>
       <c r="Y7" s="13" t="str">
         <f>DEC2HEX(X7,8)</f>
-        <v>001CA81B</v>
+        <v>001BE41B</v>
       </c>
       <c r="Z7" s="2">
         <v>0.2</v>
@@ -1972,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="26">
         <v>56</v>
@@ -1994,8 +1982,8 @@
         <v>64</v>
       </c>
       <c r="P9" s="26">
-        <f t="shared" ref="P9:P10" si="4">_xlfn.CEILING.MATH(E9^2*F9/2)*G9</f>
-        <v>512</v>
+        <f t="shared" ref="P9:P10" si="4">N9+O9</f>
+        <v>1088</v>
       </c>
       <c r="Q9" s="45" t="str">
         <f>DEC2HEX(N9,5)&amp;"_"&amp;DEC2HEX(H9,1)&amp;DEC2HEX(I9,1)&amp;DEC2HEX(C9,1)</f>
@@ -2011,27 +1999,27 @@
       </c>
       <c r="T9" s="33">
         <f>T7+P7</f>
-        <v>5504</v>
+        <v>6928</v>
       </c>
       <c r="U9" s="12" t="str">
         <f t="shared" ref="U9:U10" si="6">DEC2HEX(T9,8)</f>
-        <v>00001580</v>
+        <v>00001B10</v>
       </c>
       <c r="V9" s="33">
-        <f>V7+L7</f>
-        <v>1878043</v>
+        <f>X7</f>
+        <v>1827867</v>
       </c>
       <c r="W9" s="12" t="str">
         <f t="shared" ref="W9:W10" si="7">DEC2HEX(V9,8)</f>
-        <v>001CA81B</v>
+        <v>001BE41B</v>
       </c>
       <c r="X9" s="33">
-        <f>V10</f>
-        <v>2078747</v>
+        <f>V9+L7</f>
+        <v>1878043</v>
       </c>
       <c r="Y9" s="13" t="str">
         <f t="shared" ref="Y9:Y10" si="8">DEC2HEX(X9,8)</f>
-        <v>001FB81B</v>
+        <v>001CA81B</v>
       </c>
       <c r="Z9" s="2">
         <v>0.2</v>
@@ -2078,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="26">
         <v>56</v>
@@ -2101,7 +2089,7 @@
       </c>
       <c r="P10" s="26">
         <f t="shared" si="4"/>
-        <v>4608</v>
+        <v>9280</v>
       </c>
       <c r="Q10" s="45" t="str">
         <f>DEC2HEX(N10,5)&amp;"_"&amp;DEC2HEX(H10,1)&amp;DEC2HEX(I10,1)&amp;DEC2HEX(C10,1)</f>
@@ -2117,27 +2105,27 @@
       </c>
       <c r="T10" s="33">
         <f>T9+P9</f>
-        <v>6016</v>
+        <v>8016</v>
       </c>
       <c r="U10" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>00001780</v>
+        <v>00001F50</v>
       </c>
       <c r="V10" s="33">
-        <f>V9+L9</f>
-        <v>2078747</v>
+        <f>X7</f>
+        <v>1827867</v>
       </c>
       <c r="W10" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>001FB81B</v>
+        <v>001BE41B</v>
       </c>
       <c r="X10" s="33">
-        <f>V14</f>
-        <v>2279451</v>
+        <f>V10++L7+L9</f>
+        <v>2078747</v>
       </c>
       <c r="Y10" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>0022C81B</v>
+        <v>001FB81B</v>
       </c>
       <c r="Z10" s="2">
         <v>0.2</v>
@@ -2242,7 +2230,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" s="25">
         <v>56</v>
@@ -2296,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" s="26">
         <v>56</v>
@@ -2318,8 +2306,8 @@
         <v>16</v>
       </c>
       <c r="P14" s="26">
-        <f>_xlfn.CEILING.MATH(E14^2*F14/2)*G14</f>
-        <v>1024</v>
+        <f>N14+O14</f>
+        <v>2064</v>
       </c>
       <c r="Q14" s="45" t="str">
         <f>DEC2HEX(N14,5)&amp;"_"&amp;DEC2HEX(H14,1)&amp;DEC2HEX(I14,1)&amp;DEC2HEX(C14,1)</f>
@@ -2335,27 +2323,27 @@
       </c>
       <c r="T14" s="33">
         <f>T10+P10</f>
-        <v>10624</v>
+        <v>17296</v>
       </c>
       <c r="U14" s="12" t="str">
         <f>DEC2HEX(T14,8)</f>
-        <v>00002980</v>
+        <v>00004390</v>
       </c>
       <c r="V14" s="33">
-        <f>V10+L10</f>
-        <v>2279451</v>
+        <f>X10</f>
+        <v>2078747</v>
       </c>
       <c r="W14" s="12" t="str">
         <f>DEC2HEX(V14,8)</f>
-        <v>0022C81B</v>
+        <v>001FB81B</v>
       </c>
       <c r="X14" s="33">
-        <f>V16</f>
-        <v>2329627</v>
+        <f>V14+L10</f>
+        <v>2279451</v>
       </c>
       <c r="Y14" s="13" t="str">
         <f>DEC2HEX(X14,8)</f>
-        <v>00238C1B</v>
+        <v>0022C81B</v>
       </c>
       <c r="Z14" s="2">
         <v>0.2</v>
@@ -2438,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16" s="26">
         <v>56</v>
@@ -2460,8 +2448,8 @@
         <v>64</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" ref="P16:P17" si="13">_xlfn.CEILING.MATH(E16^2*F16/2)*G16</f>
-        <v>512</v>
+        <f t="shared" ref="P16:P17" si="13">N16+O16</f>
+        <v>1088</v>
       </c>
       <c r="Q16" s="45" t="str">
         <f>DEC2HEX(N16,5)&amp;"_"&amp;DEC2HEX(H16,1)&amp;DEC2HEX(I16,1)&amp;DEC2HEX(C16,1)</f>
@@ -2477,27 +2465,27 @@
       </c>
       <c r="T16" s="33">
         <f>T14+P14</f>
-        <v>11648</v>
+        <v>19360</v>
       </c>
       <c r="U16" s="12" t="str">
         <f t="shared" ref="U16:U17" si="15">DEC2HEX(T16,8)</f>
-        <v>00002D80</v>
+        <v>00004BA0</v>
       </c>
       <c r="V16" s="33">
-        <f>V14+L14</f>
-        <v>2329627</v>
+        <f>X14</f>
+        <v>2279451</v>
       </c>
       <c r="W16" s="12" t="str">
         <f t="shared" ref="W16:W17" si="16">DEC2HEX(V16,8)</f>
-        <v>00238C1B</v>
+        <v>0022C81B</v>
       </c>
       <c r="X16" s="33">
-        <f>V17</f>
-        <v>2530331</v>
+        <f>V16+L14</f>
+        <v>2329627</v>
       </c>
       <c r="Y16" s="13" t="str">
         <f t="shared" ref="Y16:Y17" si="17">DEC2HEX(X16,8)</f>
-        <v>00269C1B</v>
+        <v>00238C1B</v>
       </c>
       <c r="Z16" s="2">
         <v>0.2</v>
@@ -2544,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K17" s="26">
         <v>56</v>
@@ -2567,7 +2555,7 @@
       </c>
       <c r="P17" s="26">
         <f t="shared" si="13"/>
-        <v>4608</v>
+        <v>9280</v>
       </c>
       <c r="Q17" s="45" t="str">
         <f>DEC2HEX(N17,5)&amp;"_"&amp;DEC2HEX(H17,1)&amp;DEC2HEX(I17,1)&amp;DEC2HEX(C17,1)</f>
@@ -2583,27 +2571,27 @@
       </c>
       <c r="T17" s="33">
         <f>T16+P16</f>
-        <v>12160</v>
+        <v>20448</v>
       </c>
       <c r="U17" s="12" t="str">
         <f t="shared" si="15"/>
-        <v>00002F80</v>
+        <v>00004FE0</v>
       </c>
       <c r="V17" s="33">
-        <f>V16+L16</f>
-        <v>2530331</v>
+        <f>X14</f>
+        <v>2279451</v>
       </c>
       <c r="W17" s="12" t="str">
         <f t="shared" si="16"/>
-        <v>00269C1B</v>
+        <v>0022C81B</v>
       </c>
       <c r="X17" s="33">
-        <f>V21</f>
-        <v>2731035</v>
+        <f>V17++L14+L16</f>
+        <v>2530331</v>
       </c>
       <c r="Y17" s="13" t="str">
         <f t="shared" si="17"/>
-        <v>0029AC1B</v>
+        <v>00269C1B</v>
       </c>
       <c r="Z17" s="2">
         <v>0.2</v>
@@ -2708,7 +2696,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K20" s="25">
         <v>56</v>
@@ -2796,20 +2784,20 @@
         <v>00000000</v>
       </c>
       <c r="V21" s="35">
-        <f>V17+L17</f>
-        <v>2731035</v>
+        <f>X17</f>
+        <v>2530331</v>
       </c>
       <c r="W21" s="16" t="str">
         <f>DEC2HEX(V21,8)</f>
-        <v>0029AC1B</v>
+        <v>00269C1B</v>
       </c>
       <c r="X21" s="35">
-        <f>V22</f>
-        <v>2831387</v>
+        <f>V21+L17</f>
+        <v>2731035</v>
       </c>
       <c r="Y21" s="17" t="str">
         <f>DEC2HEX(X21,8)</f>
-        <v>002B341B</v>
+        <v>0029AC1B</v>
       </c>
       <c r="Z21" s="4">
         <v>0.31</v>
@@ -2856,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K22" s="26">
         <v>28</v>
@@ -2878,8 +2866,8 @@
         <v>32</v>
       </c>
       <c r="P22" s="26">
-        <f>_xlfn.CEILING.MATH(E22^2*F22/2)*G22</f>
-        <v>2048</v>
+        <f>N22+O22</f>
+        <v>4128</v>
       </c>
       <c r="Q22" s="45" t="str">
         <f>DEC2HEX(N22,5)&amp;"_"&amp;DEC2HEX(H22,1)&amp;DEC2HEX(I22,1)&amp;DEC2HEX(C22,1)</f>
@@ -2895,27 +2883,27 @@
       </c>
       <c r="T22" s="33">
         <f>T17+P17</f>
-        <v>16768</v>
+        <v>29728</v>
       </c>
       <c r="U22" s="12" t="str">
         <f>DEC2HEX(T22,8)</f>
-        <v>00004180</v>
+        <v>00007420</v>
       </c>
       <c r="V22" s="33">
-        <f>V21+L21</f>
-        <v>2831387</v>
+        <f>X21</f>
+        <v>2731035</v>
       </c>
       <c r="W22" s="12" t="str">
         <f>DEC2HEX(V22,8)</f>
-        <v>002B341B</v>
+        <v>0029AC1B</v>
       </c>
       <c r="X22" s="33">
-        <f>V24</f>
-        <v>2856475</v>
+        <f>V22+L21</f>
+        <v>2831387</v>
       </c>
       <c r="Y22" s="13" t="str">
         <f>DEC2HEX(X22,8)</f>
-        <v>002B961B</v>
+        <v>002B341B</v>
       </c>
       <c r="Z22" s="2">
         <v>0.2</v>
@@ -2998,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" s="26">
         <v>28</v>
@@ -3020,8 +3008,8 @@
         <v>128</v>
       </c>
       <c r="P24" s="26">
-        <f t="shared" ref="P24:P25" si="22">_xlfn.CEILING.MATH(E24^2*F24/2)*G24</f>
-        <v>2048</v>
+        <f t="shared" ref="P24:P25" si="22">N24+O24</f>
+        <v>4224</v>
       </c>
       <c r="Q24" s="45" t="str">
         <f>DEC2HEX(N24,5)&amp;"_"&amp;DEC2HEX(H24,1)&amp;DEC2HEX(I24,1)&amp;DEC2HEX(C24,1)</f>
@@ -3037,27 +3025,27 @@
       </c>
       <c r="T24" s="33">
         <f>T22+P22</f>
-        <v>18816</v>
+        <v>33856</v>
       </c>
       <c r="U24" s="12" t="str">
         <f t="shared" ref="U24:U25" si="24">DEC2HEX(T24,8)</f>
-        <v>00004980</v>
+        <v>00008440</v>
       </c>
       <c r="V24" s="33">
-        <f>V22+L22</f>
-        <v>2856475</v>
+        <f>X22</f>
+        <v>2831387</v>
       </c>
       <c r="W24" s="12" t="str">
         <f t="shared" ref="W24:W25" si="25">DEC2HEX(V24,8)</f>
-        <v>002B961B</v>
+        <v>002B341B</v>
       </c>
       <c r="X24" s="33">
-        <f>V25</f>
-        <v>2956827</v>
+        <f>V24+L22</f>
+        <v>2856475</v>
       </c>
       <c r="Y24" s="13" t="str">
         <f t="shared" ref="Y24:Y25" si="26">DEC2HEX(X24,8)</f>
-        <v>002D1E1B</v>
+        <v>002B961B</v>
       </c>
       <c r="Z24" s="2">
         <v>0.2</v>
@@ -3104,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K25" s="26">
         <v>28</v>
@@ -3127,7 +3115,7 @@
       </c>
       <c r="P25" s="26">
         <f t="shared" si="22"/>
-        <v>18432</v>
+        <v>36992</v>
       </c>
       <c r="Q25" s="45" t="str">
         <f>DEC2HEX(N25,5)&amp;"_"&amp;DEC2HEX(H25,1)&amp;DEC2HEX(I25,1)&amp;DEC2HEX(C25,1)</f>
@@ -3143,27 +3131,27 @@
       </c>
       <c r="T25" s="33">
         <f>T24+P24</f>
-        <v>20864</v>
+        <v>38080</v>
       </c>
       <c r="U25" s="12" t="str">
         <f t="shared" si="24"/>
-        <v>00005180</v>
+        <v>000094C0</v>
       </c>
       <c r="V25" s="33">
-        <f>V24+L24</f>
-        <v>2956827</v>
+        <f>X22</f>
+        <v>2831387</v>
       </c>
       <c r="W25" s="12" t="str">
         <f t="shared" si="25"/>
-        <v>002D1E1B</v>
+        <v>002B341B</v>
       </c>
       <c r="X25" s="33">
-        <f>V29</f>
-        <v>3057179</v>
+        <f>V25++L22+L24</f>
+        <v>2956827</v>
       </c>
       <c r="Y25" s="13" t="str">
         <f t="shared" si="26"/>
-        <v>002EA61B</v>
+        <v>002D1E1B</v>
       </c>
       <c r="Z25" s="2">
         <v>0.2</v>
@@ -3268,7 +3256,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="25">
         <v>28</v>
@@ -3322,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K29" s="26">
         <v>28</v>
@@ -3344,8 +3332,8 @@
         <v>32</v>
       </c>
       <c r="P29" s="26">
-        <f>_xlfn.CEILING.MATH(E29^2*F29/2)*G29</f>
-        <v>4096</v>
+        <f>N29+O29</f>
+        <v>8224</v>
       </c>
       <c r="Q29" s="45" t="str">
         <f>DEC2HEX(N29,5)&amp;"_"&amp;DEC2HEX(H29,1)&amp;DEC2HEX(I29,1)&amp;DEC2HEX(C29,1)</f>
@@ -3361,27 +3349,27 @@
       </c>
       <c r="T29" s="33">
         <f>T25+P25</f>
-        <v>39296</v>
+        <v>75072</v>
       </c>
       <c r="U29" s="12" t="str">
         <f>DEC2HEX(T29,8)</f>
-        <v>00009980</v>
+        <v>00012540</v>
       </c>
       <c r="V29" s="33">
-        <f>V25+L25</f>
-        <v>3057179</v>
+        <f>X25</f>
+        <v>2956827</v>
       </c>
       <c r="W29" s="12" t="str">
         <f>DEC2HEX(V29,8)</f>
-        <v>002EA61B</v>
+        <v>002D1E1B</v>
       </c>
       <c r="X29" s="33">
-        <f>V31</f>
-        <v>3082267</v>
+        <f>V29+L25</f>
+        <v>3057179</v>
       </c>
       <c r="Y29" s="13" t="str">
         <f>DEC2HEX(X29,8)</f>
-        <v>002F081B</v>
+        <v>002EA61B</v>
       </c>
       <c r="Z29" s="2">
         <v>0.2</v>
@@ -3464,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K31" s="26">
         <v>28</v>
@@ -3486,8 +3474,8 @@
         <v>128</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" ref="P31:P32" si="31">_xlfn.CEILING.MATH(E31^2*F31/2)*G31</f>
-        <v>2048</v>
+        <f t="shared" ref="P31:P32" si="31">N31+O31</f>
+        <v>4224</v>
       </c>
       <c r="Q31" s="45" t="str">
         <f>DEC2HEX(N31,5)&amp;"_"&amp;DEC2HEX(H31,1)&amp;DEC2HEX(I31,1)&amp;DEC2HEX(C31,1)</f>
@@ -3503,27 +3491,27 @@
       </c>
       <c r="T31" s="33">
         <f>T29+P29</f>
-        <v>43392</v>
+        <v>83296</v>
       </c>
       <c r="U31" s="12" t="str">
         <f t="shared" ref="U31:U32" si="33">DEC2HEX(T31,8)</f>
-        <v>0000A980</v>
+        <v>00014560</v>
       </c>
       <c r="V31" s="33">
-        <f>V29+L29</f>
-        <v>3082267</v>
+        <f>X29</f>
+        <v>3057179</v>
       </c>
       <c r="W31" s="12" t="str">
         <f t="shared" ref="W31:W32" si="34">DEC2HEX(V31,8)</f>
-        <v>002F081B</v>
+        <v>002EA61B</v>
       </c>
       <c r="X31" s="33">
-        <f>V32</f>
-        <v>3182619</v>
+        <f>V31+L29</f>
+        <v>3082267</v>
       </c>
       <c r="Y31" s="13" t="str">
         <f t="shared" ref="Y31:Y32" si="35">DEC2HEX(X31,8)</f>
-        <v>0030901B</v>
+        <v>002F081B</v>
       </c>
       <c r="Z31" s="2">
         <v>0.2</v>
@@ -3570,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K32" s="26">
         <v>28</v>
@@ -3593,7 +3581,7 @@
       </c>
       <c r="P32" s="26">
         <f t="shared" si="31"/>
-        <v>18432</v>
+        <v>36992</v>
       </c>
       <c r="Q32" s="45" t="str">
         <f>DEC2HEX(N32,5)&amp;"_"&amp;DEC2HEX(H32,1)&amp;DEC2HEX(I32,1)&amp;DEC2HEX(C32,1)</f>
@@ -3609,27 +3597,27 @@
       </c>
       <c r="T32" s="33">
         <f>T31+P31</f>
-        <v>45440</v>
+        <v>87520</v>
       </c>
       <c r="U32" s="12" t="str">
         <f t="shared" si="33"/>
-        <v>0000B180</v>
+        <v>000155E0</v>
       </c>
       <c r="V32" s="33">
-        <f>V31+L31</f>
-        <v>3182619</v>
+        <f>X29</f>
+        <v>3057179</v>
       </c>
       <c r="W32" s="12" t="str">
         <f t="shared" si="34"/>
-        <v>0030901B</v>
+        <v>002EA61B</v>
       </c>
       <c r="X32" s="33">
-        <f>V36</f>
-        <v>3282971</v>
+        <f>V32+L29+L31</f>
+        <v>3182619</v>
       </c>
       <c r="Y32" s="13" t="str">
         <f t="shared" si="35"/>
-        <v>0032181B</v>
+        <v>0030901B</v>
       </c>
       <c r="Z32" s="2">
         <v>0.2</v>
@@ -3734,7 +3722,7 @@
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -3786,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" s="28">
         <v>14</v>
@@ -3820,20 +3808,20 @@
         <v>00000000</v>
       </c>
       <c r="V36" s="35">
-        <f>V32+L32</f>
-        <v>3282971</v>
+        <f>X32</f>
+        <v>3182619</v>
       </c>
       <c r="W36" s="16" t="str">
         <f>DEC2HEX(V36,8)</f>
-        <v>0032181B</v>
+        <v>0030901B</v>
       </c>
       <c r="X36" s="35">
-        <f>V37</f>
-        <v>3333147</v>
+        <f>V36+L32</f>
+        <v>3282971</v>
       </c>
       <c r="Y36" s="17" t="str">
         <f>DEC2HEX(X36,8)</f>
-        <v>0032DC1B</v>
+        <v>0032181B</v>
       </c>
       <c r="Z36" s="4">
         <v>0.31</v>
@@ -3880,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K37" s="26">
         <v>14</v>
@@ -3902,8 +3890,8 @@
         <v>48</v>
       </c>
       <c r="P37" s="26">
-        <f>_xlfn.CEILING.MATH(E37^2*F37/2)*G37</f>
-        <v>6144</v>
+        <f>N37+O37</f>
+        <v>12336</v>
       </c>
       <c r="Q37" s="45" t="str">
         <f>DEC2HEX(N37,5)&amp;"_"&amp;DEC2HEX(H37,1)&amp;DEC2HEX(I37,1)&amp;DEC2HEX(C37,1)</f>
@@ -3919,27 +3907,27 @@
       </c>
       <c r="T37" s="33">
         <f>T32+P32</f>
-        <v>63872</v>
+        <v>124512</v>
       </c>
       <c r="U37" s="12" t="str">
         <f>DEC2HEX(T37,8)</f>
-        <v>0000F980</v>
+        <v>0001E660</v>
       </c>
       <c r="V37" s="33">
-        <f>V36+L36</f>
-        <v>3333147</v>
+        <f>X36</f>
+        <v>3282971</v>
       </c>
       <c r="W37" s="12" t="str">
         <f>DEC2HEX(V37,8)</f>
-        <v>0032DC1B</v>
+        <v>0032181B</v>
       </c>
       <c r="X37" s="33">
-        <f>V39</f>
-        <v>3342555</v>
+        <f>V37+L36</f>
+        <v>3333147</v>
       </c>
       <c r="Y37" s="13" t="str">
         <f>DEC2HEX(X37,8)</f>
-        <v>003300DB</v>
+        <v>0032DC1B</v>
       </c>
       <c r="Z37" s="2">
         <v>0.2</v>
@@ -4022,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K39" s="26">
         <v>14</v>
@@ -4044,8 +4032,8 @@
         <v>192</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" ref="P39:P40" si="40">_xlfn.CEILING.MATH(E39^2*F39/2)*G39</f>
-        <v>4608</v>
+        <f t="shared" ref="P39:P40" si="40">N39+O39</f>
+        <v>9408</v>
       </c>
       <c r="Q39" s="45" t="str">
         <f>DEC2HEX(N39,5)&amp;"_"&amp;DEC2HEX(H39,1)&amp;DEC2HEX(I39,1)&amp;DEC2HEX(C39,1)</f>
@@ -4061,27 +4049,27 @@
       </c>
       <c r="T39" s="33">
         <f>T37+P37</f>
-        <v>70016</v>
+        <v>136848</v>
       </c>
       <c r="U39" s="12" t="str">
         <f t="shared" ref="U39:U40" si="42">DEC2HEX(T39,8)</f>
-        <v>00011180</v>
+        <v>00021690</v>
       </c>
       <c r="V39" s="33">
-        <f>V37+L37</f>
-        <v>3342555</v>
+        <f>X37</f>
+        <v>3333147</v>
       </c>
       <c r="W39" s="12" t="str">
         <f t="shared" ref="W39:W40" si="43">DEC2HEX(V39,8)</f>
-        <v>003300DB</v>
+        <v>0032DC1B</v>
       </c>
       <c r="X39" s="33">
-        <f>V40</f>
-        <v>3380187</v>
+        <f>V39+L37</f>
+        <v>3342555</v>
       </c>
       <c r="Y39" s="13" t="str">
         <f t="shared" ref="Y39:Y40" si="44">DEC2HEX(X39,8)</f>
-        <v>003393DB</v>
+        <v>003300DB</v>
       </c>
       <c r="Z39" s="2">
         <v>0.2</v>
@@ -4128,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K40" s="26">
         <v>14</v>
@@ -4151,7 +4139,7 @@
       </c>
       <c r="P40" s="26">
         <f t="shared" si="40"/>
-        <v>41472</v>
+        <v>83136</v>
       </c>
       <c r="Q40" s="45" t="str">
         <f>DEC2HEX(N40,5)&amp;"_"&amp;DEC2HEX(H40,1)&amp;DEC2HEX(I40,1)&amp;DEC2HEX(C40,1)</f>
@@ -4167,27 +4155,27 @@
       </c>
       <c r="T40" s="33">
         <f>T39+P39</f>
-        <v>74624</v>
+        <v>146256</v>
       </c>
       <c r="U40" s="12" t="str">
         <f t="shared" si="42"/>
-        <v>00012380</v>
+        <v>00023B50</v>
       </c>
       <c r="V40" s="33">
-        <f>V39+L39</f>
-        <v>3380187</v>
+        <f>X37</f>
+        <v>3333147</v>
       </c>
       <c r="W40" s="12" t="str">
         <f t="shared" si="43"/>
-        <v>003393DB</v>
+        <v>0032DC1B</v>
       </c>
       <c r="X40" s="33">
-        <f>V44</f>
-        <v>3417819</v>
+        <f>V40+L37+L39</f>
+        <v>3380187</v>
       </c>
       <c r="Y40" s="13" t="str">
         <f t="shared" si="44"/>
-        <v>003426DB</v>
+        <v>003393DB</v>
       </c>
       <c r="Z40" s="2">
         <v>0.2</v>
@@ -4292,7 +4280,7 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K43" s="25">
         <v>14</v>
@@ -4346,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K44" s="26">
         <v>14</v>
@@ -4368,8 +4356,8 @@
         <v>48</v>
       </c>
       <c r="P44" s="26">
-        <f>_xlfn.CEILING.MATH(E44^2*F44/2)*G44</f>
-        <v>9216</v>
+        <f>N44+O44</f>
+        <v>18480</v>
       </c>
       <c r="Q44" s="45" t="str">
         <f>DEC2HEX(N44,5)&amp;"_"&amp;DEC2HEX(H44,1)&amp;DEC2HEX(I44,1)&amp;DEC2HEX(C44,1)</f>
@@ -4385,27 +4373,27 @@
       </c>
       <c r="T44" s="33">
         <f>T40+P40</f>
-        <v>116096</v>
+        <v>229392</v>
       </c>
       <c r="U44" s="12" t="str">
         <f>DEC2HEX(T44,8)</f>
-        <v>0001C580</v>
+        <v>00038010</v>
       </c>
       <c r="V44" s="33">
-        <f>V40+L40</f>
-        <v>3417819</v>
+        <f>X40</f>
+        <v>3380187</v>
       </c>
       <c r="W44" s="12" t="str">
         <f>DEC2HEX(V44,8)</f>
-        <v>003426DB</v>
+        <v>003393DB</v>
       </c>
       <c r="X44" s="33">
-        <f>V46</f>
-        <v>3427227</v>
+        <f>V44+L40</f>
+        <v>3417819</v>
       </c>
       <c r="Y44" s="13" t="str">
         <f>DEC2HEX(X44,8)</f>
-        <v>00344B9B</v>
+        <v>003426DB</v>
       </c>
       <c r="Z44" s="2">
         <v>0.2</v>
@@ -4488,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K46" s="26">
         <v>14</v>
@@ -4510,8 +4498,8 @@
         <v>192</v>
       </c>
       <c r="P46" s="26">
-        <f t="shared" ref="P46:P47" si="49">_xlfn.CEILING.MATH(E46^2*F46/2)*G46</f>
-        <v>4608</v>
+        <f t="shared" ref="P46:P47" si="49">N46+O46</f>
+        <v>9408</v>
       </c>
       <c r="Q46" s="45" t="str">
         <f>DEC2HEX(N46,5)&amp;"_"&amp;DEC2HEX(H46,1)&amp;DEC2HEX(I46,1)&amp;DEC2HEX(C46,1)</f>
@@ -4527,27 +4515,27 @@
       </c>
       <c r="T46" s="33">
         <f>T44+P44</f>
-        <v>125312</v>
+        <v>247872</v>
       </c>
       <c r="U46" s="12" t="str">
         <f t="shared" ref="U46:U47" si="51">DEC2HEX(T46,8)</f>
-        <v>0001E980</v>
+        <v>0003C840</v>
       </c>
       <c r="V46" s="33">
-        <f>V44+L44</f>
-        <v>3427227</v>
+        <f>X44</f>
+        <v>3417819</v>
       </c>
       <c r="W46" s="12" t="str">
         <f t="shared" ref="W46:W47" si="52">DEC2HEX(V46,8)</f>
-        <v>00344B9B</v>
+        <v>003426DB</v>
       </c>
       <c r="X46" s="33">
-        <f>V47</f>
-        <v>3464859</v>
+        <f>V46+L44</f>
+        <v>3427227</v>
       </c>
       <c r="Y46" s="13" t="str">
         <f t="shared" ref="Y46:Y47" si="53">DEC2HEX(X46,8)</f>
-        <v>0034DE9B</v>
+        <v>00344B9B</v>
       </c>
       <c r="Z46" s="2">
         <v>0.2</v>
@@ -4594,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" s="26">
         <v>14</v>
@@ -4617,7 +4605,7 @@
       </c>
       <c r="P47" s="26">
         <f t="shared" si="49"/>
-        <v>41472</v>
+        <v>83136</v>
       </c>
       <c r="Q47" s="45" t="str">
         <f>DEC2HEX(N47,5)&amp;"_"&amp;DEC2HEX(H47,1)&amp;DEC2HEX(I47,1)&amp;DEC2HEX(C47,1)</f>
@@ -4633,27 +4621,27 @@
       </c>
       <c r="T47" s="33">
         <f>T46+P46</f>
-        <v>129920</v>
+        <v>257280</v>
       </c>
       <c r="U47" s="12" t="str">
         <f t="shared" si="51"/>
-        <v>0001FB80</v>
+        <v>0003ED00</v>
       </c>
       <c r="V47" s="33">
-        <f>V46+L46</f>
-        <v>3464859</v>
+        <f>X44</f>
+        <v>3417819</v>
       </c>
       <c r="W47" s="12" t="str">
         <f t="shared" si="52"/>
-        <v>0034DE9B</v>
+        <v>003426DB</v>
       </c>
       <c r="X47" s="33">
-        <f>V51</f>
-        <v>3502491</v>
+        <f>V47+L44+L46</f>
+        <v>3464859</v>
       </c>
       <c r="Y47" s="13" t="str">
         <f t="shared" si="53"/>
-        <v>0035719B</v>
+        <v>0034DE9B</v>
       </c>
       <c r="Z47" s="2">
         <v>0.2</v>
@@ -4758,7 +4746,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K50" s="25">
         <v>14</v>
@@ -4812,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K51" s="26">
         <v>14</v>
@@ -4834,8 +4822,8 @@
         <v>64</v>
       </c>
       <c r="P51" s="26">
-        <f>_xlfn.CEILING.MATH(E51^2*F51/2)*G51</f>
-        <v>12288</v>
+        <f>N51+O51</f>
+        <v>24640</v>
       </c>
       <c r="Q51" s="45" t="str">
         <f>DEC2HEX(N51,5)&amp;"_"&amp;DEC2HEX(H51,1)&amp;DEC2HEX(I51,1)&amp;DEC2HEX(C51,1)</f>
@@ -4851,27 +4839,27 @@
       </c>
       <c r="T51" s="33">
         <f>T47+P47</f>
-        <v>171392</v>
+        <v>340416</v>
       </c>
       <c r="U51" s="12" t="str">
         <f>DEC2HEX(T51,8)</f>
-        <v>00029D80</v>
+        <v>000531C0</v>
       </c>
       <c r="V51" s="33">
-        <f>V47+L47</f>
-        <v>3502491</v>
+        <f>X47</f>
+        <v>3464859</v>
       </c>
       <c r="W51" s="12" t="str">
         <f>DEC2HEX(V51,8)</f>
-        <v>0035719B</v>
+        <v>0034DE9B</v>
       </c>
       <c r="X51" s="33">
-        <f>V53</f>
-        <v>3515035</v>
+        <f>V51+L47</f>
+        <v>3502491</v>
       </c>
       <c r="Y51" s="13" t="str">
         <f>DEC2HEX(X51,8)</f>
-        <v>0035A29B</v>
+        <v>0035719B</v>
       </c>
       <c r="Z51" s="2">
         <v>0.2</v>
@@ -4954,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K53" s="26">
         <v>14</v>
@@ -4976,8 +4964,8 @@
         <v>256</v>
       </c>
       <c r="P53" s="26">
-        <f t="shared" ref="P53:P54" si="58">_xlfn.CEILING.MATH(E53^2*F53/2)*G53</f>
-        <v>8192</v>
+        <f t="shared" ref="P53:P54" si="58">N53+O53</f>
+        <v>16640</v>
       </c>
       <c r="Q53" s="45" t="str">
         <f>DEC2HEX(N53,5)&amp;"_"&amp;DEC2HEX(H53,1)&amp;DEC2HEX(I53,1)&amp;DEC2HEX(C53,1)</f>
@@ -4993,27 +4981,27 @@
       </c>
       <c r="T53" s="33">
         <f>T51+P51</f>
-        <v>183680</v>
+        <v>365056</v>
       </c>
       <c r="U53" s="12" t="str">
         <f t="shared" ref="U53:U54" si="60">DEC2HEX(T53,8)</f>
-        <v>0002CD80</v>
+        <v>00059200</v>
       </c>
       <c r="V53" s="33">
-        <f>V51+L51</f>
-        <v>3515035</v>
+        <f>X51</f>
+        <v>3502491</v>
       </c>
       <c r="W53" s="12" t="str">
         <f t="shared" ref="W53:W54" si="61">DEC2HEX(V53,8)</f>
-        <v>0035A29B</v>
+        <v>0035719B</v>
       </c>
       <c r="X53" s="33">
-        <f>V54</f>
-        <v>3565211</v>
+        <f>V53+L51</f>
+        <v>3515035</v>
       </c>
       <c r="Y53" s="13" t="str">
         <f t="shared" ref="Y53:Y54" si="62">DEC2HEX(X53,8)</f>
-        <v>0036669B</v>
+        <v>0035A29B</v>
       </c>
       <c r="Z53" s="2">
         <v>0.2</v>
@@ -5060,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K54" s="26">
         <v>14</v>
@@ -5083,7 +5071,7 @@
       </c>
       <c r="P54" s="26">
         <f t="shared" si="58"/>
-        <v>73728</v>
+        <v>147712</v>
       </c>
       <c r="Q54" s="45" t="str">
         <f>DEC2HEX(N54,5)&amp;"_"&amp;DEC2HEX(H54,1)&amp;DEC2HEX(I54,1)&amp;DEC2HEX(C54,1)</f>
@@ -5099,27 +5087,27 @@
       </c>
       <c r="T54" s="33">
         <f>T53+P53</f>
-        <v>191872</v>
+        <v>381696</v>
       </c>
       <c r="U54" s="12" t="str">
         <f t="shared" si="60"/>
-        <v>0002ED80</v>
+        <v>0005D300</v>
       </c>
       <c r="V54" s="33">
-        <f>V53+L53</f>
-        <v>3565211</v>
+        <f>X51</f>
+        <v>3502491</v>
       </c>
       <c r="W54" s="12" t="str">
         <f t="shared" si="61"/>
-        <v>0036669B</v>
+        <v>0035719B</v>
       </c>
       <c r="X54" s="33">
-        <f>V58</f>
-        <v>3615387</v>
+        <f>V54+L51+L53</f>
+        <v>3565211</v>
       </c>
       <c r="Y54" s="13" t="str">
         <f t="shared" si="62"/>
-        <v>00372A9B</v>
+        <v>0036669B</v>
       </c>
       <c r="Z54" s="2">
         <v>0.2</v>
@@ -5224,7 +5212,7 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K57" s="25">
         <v>14</v>
@@ -5278,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K58" s="26">
         <v>14</v>
@@ -5300,8 +5288,8 @@
         <v>64</v>
       </c>
       <c r="P58" s="26">
-        <f>_xlfn.CEILING.MATH(E58^2*F58/2)*G58</f>
-        <v>16384</v>
+        <f>N58+O58</f>
+        <v>32832</v>
       </c>
       <c r="Q58" s="45" t="str">
         <f>DEC2HEX(N58,5)&amp;"_"&amp;DEC2HEX(H58,1)&amp;DEC2HEX(I58,1)&amp;DEC2HEX(C58,1)</f>
@@ -5317,27 +5305,27 @@
       </c>
       <c r="T58" s="33">
         <f>T54+P54</f>
-        <v>265600</v>
+        <v>529408</v>
       </c>
       <c r="U58" s="12" t="str">
         <f>DEC2HEX(T58,8)</f>
-        <v>00040D80</v>
+        <v>00081400</v>
       </c>
       <c r="V58" s="33">
-        <f>V54+L54</f>
-        <v>3615387</v>
+        <f>X54</f>
+        <v>3565211</v>
       </c>
       <c r="W58" s="12" t="str">
         <f>DEC2HEX(V58,8)</f>
-        <v>00372A9B</v>
+        <v>0036669B</v>
       </c>
       <c r="X58" s="33">
-        <f>V60</f>
-        <v>3627931</v>
+        <f>V58+L54</f>
+        <v>3615387</v>
       </c>
       <c r="Y58" s="13" t="str">
         <f>DEC2HEX(X58,8)</f>
-        <v>00375B9B</v>
+        <v>00372A9B</v>
       </c>
       <c r="Z58" s="2">
         <v>0.2</v>
@@ -5420,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K60" s="26">
         <v>14</v>
@@ -5442,8 +5430,8 @@
         <v>256</v>
       </c>
       <c r="P60" s="26">
-        <f t="shared" ref="P60:P61" si="67">_xlfn.CEILING.MATH(E60^2*F60/2)*G60</f>
-        <v>8192</v>
+        <f t="shared" ref="P60:P61" si="67">N60+O60</f>
+        <v>16640</v>
       </c>
       <c r="Q60" s="45" t="str">
         <f>DEC2HEX(N60,5)&amp;"_"&amp;DEC2HEX(H60,1)&amp;DEC2HEX(I60,1)&amp;DEC2HEX(C60,1)</f>
@@ -5459,27 +5447,27 @@
       </c>
       <c r="T60" s="33">
         <f>T58+P58</f>
-        <v>281984</v>
+        <v>562240</v>
       </c>
       <c r="U60" s="12" t="str">
         <f t="shared" ref="U60:U61" si="69">DEC2HEX(T60,8)</f>
-        <v>00044D80</v>
+        <v>00089440</v>
       </c>
       <c r="V60" s="33">
-        <f>V58+L58</f>
-        <v>3627931</v>
+        <f>X58</f>
+        <v>3615387</v>
       </c>
       <c r="W60" s="12" t="str">
         <f t="shared" ref="W60:W61" si="70">DEC2HEX(V60,8)</f>
-        <v>00375B9B</v>
+        <v>00372A9B</v>
       </c>
       <c r="X60" s="33">
-        <f>V61</f>
-        <v>3678107</v>
+        <f>V60+L58</f>
+        <v>3627931</v>
       </c>
       <c r="Y60" s="13" t="str">
         <f t="shared" ref="Y60:Y61" si="71">DEC2HEX(X60,8)</f>
-        <v>00381F9B</v>
+        <v>00375B9B</v>
       </c>
       <c r="Z60" s="2">
         <v>0.2</v>
@@ -5526,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K61" s="26">
         <v>14</v>
@@ -5549,7 +5537,7 @@
       </c>
       <c r="P61" s="26">
         <f t="shared" si="67"/>
-        <v>73728</v>
+        <v>147712</v>
       </c>
       <c r="Q61" s="45" t="str">
         <f>DEC2HEX(N61,5)&amp;"_"&amp;DEC2HEX(H61,1)&amp;DEC2HEX(I61,1)&amp;DEC2HEX(C61,1)</f>
@@ -5565,27 +5553,27 @@
       </c>
       <c r="T61" s="33">
         <f>T60+P60</f>
-        <v>290176</v>
+        <v>578880</v>
       </c>
       <c r="U61" s="12" t="str">
         <f t="shared" si="69"/>
-        <v>00046D80</v>
+        <v>0008D540</v>
       </c>
       <c r="V61" s="33">
-        <f>V60+L60</f>
-        <v>3678107</v>
+        <f>X58</f>
+        <v>3615387</v>
       </c>
       <c r="W61" s="12" t="str">
         <f t="shared" si="70"/>
-        <v>00381F9B</v>
+        <v>00372A9B</v>
       </c>
       <c r="X61" s="33">
-        <f>V66</f>
-        <v>3728283</v>
+        <f>V61+L58+L60</f>
+        <v>3678107</v>
       </c>
       <c r="Y61" s="13" t="str">
         <f t="shared" si="71"/>
-        <v>0038E39B</v>
+        <v>00381F9B</v>
       </c>
       <c r="Z61" s="2">
         <v>0.2</v>
@@ -5690,7 +5678,7 @@
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K64" s="25">
         <v>14</v>
@@ -5780,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K66" s="26">
         <v>14</v>
@@ -5802,8 +5790,8 @@
         <v>1000</v>
       </c>
       <c r="P66" s="26">
-        <f>_xlfn.CEILING.MATH(E66^2*F66/2)*G66</f>
-        <v>256000</v>
+        <f>N66+O66</f>
+        <v>513000</v>
       </c>
       <c r="Q66" s="45" t="str">
         <f>DEC2HEX(N66,5)&amp;"_"&amp;DEC2HEX(H66,1)&amp;DEC2HEX(I66,1)&amp;DEC2HEX(C66,1)</f>
@@ -5819,27 +5807,27 @@
       </c>
       <c r="T66" s="33">
         <f>T61+P61</f>
-        <v>363904</v>
+        <v>726592</v>
       </c>
       <c r="U66" s="12" t="str">
         <f>DEC2HEX(T66,8)</f>
-        <v>00058D80</v>
+        <v>000B1640</v>
       </c>
       <c r="V66" s="33">
-        <f>V61+L61</f>
-        <v>3728283</v>
+        <f>X61</f>
+        <v>3678107</v>
       </c>
       <c r="W66" s="12" t="str">
         <f>DEC2HEX(V66,8)</f>
-        <v>0038E39B</v>
+        <v>00381F9B</v>
       </c>
       <c r="X66" s="33">
-        <f>V68</f>
-        <v>3924283</v>
+        <f>V66+L61</f>
+        <v>3728283</v>
       </c>
       <c r="Y66" s="13" t="str">
         <f>DEC2HEX(X66,8)</f>
-        <v>003BE13B</v>
+        <v>0038E39B</v>
       </c>
       <c r="Z66" s="2">
         <v>0.2</v>
@@ -5904,7 +5892,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E68" s="28">
         <v>14</v>
@@ -5956,20 +5944,20 @@
         <v>00000000</v>
       </c>
       <c r="V68" s="35">
-        <f>V66+L66</f>
-        <v>3924283</v>
+        <f>X66</f>
+        <v>3728283</v>
       </c>
       <c r="W68" s="16" t="str">
         <f>DEC2HEX(V68,8)</f>
-        <v>003BE13B</v>
+        <v>0038E39B</v>
       </c>
       <c r="X68" s="35">
-        <f>V69</f>
-        <v>3925283</v>
+        <f>V68+L66</f>
+        <v>3924283</v>
       </c>
       <c r="Y68" s="17" t="str">
         <f>DEC2HEX(X68,8)</f>
-        <v>003BE523</v>
+        <v>003BE13B</v>
       </c>
       <c r="Z68" s="4">
         <v>1.2</v>
@@ -6013,10 +6001,7 @@
       <c r="S69" s="10"/>
       <c r="T69" s="32"/>
       <c r="U69" s="10"/>
-      <c r="V69" s="32">
-        <f>V68+M68</f>
-        <v>3925283</v>
-      </c>
+      <c r="V69" s="32"/>
       <c r="W69" s="10"/>
       <c r="X69" s="32"/>
       <c r="Y69" s="11"/>
@@ -6053,7 +6038,7 @@
       </c>
       <c r="P70" s="40">
         <f>SUM(P4:P69)</f>
-        <v>615808</v>
+        <v>1235496</v>
       </c>
       <c r="Q70" s="48"/>
       <c r="R70" s="18"/>
@@ -6141,7 +6126,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="V4:V66 X3:X72" formula="1"/>
+    <ignoredError sqref="X70:X72 V7:V68 X4:X68" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6150,8 +6135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E501AE-4D2D-491C-85E4-0C34FDA03C89}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M30"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection sqref="A1:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6166,22 +6151,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="H1" t="str">
         <f>LEFT(SUBSTITUTE(A1,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A1,"_",),4)</f>
@@ -6201,31 +6186,31 @@
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>000C 5BDB</v>
+        <v>000A 0000</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>0018 D41B</v>
+        <v>000C 5BDB</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H30" si="1">LEFT(SUBSTITUTE(A2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A2,"_",),4)</f>
@@ -6245,31 +6230,31 @@
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L30" si="5">LEFT(SUBSTITUTE(E2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(E2,"_",),4)</f>
-        <v>0018 D41B</v>
+        <v>000C 5BDB</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M30" si="6">LEFT(SUBSTITUTE(F2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(F2,"_",),4)</f>
-        <v>001B E41B</v>
+        <v>0018 D41B</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -6285,35 +6270,35 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
-        <v>0000 1380</v>
+        <v>0000 1700</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="5"/>
-        <v>001B E41B</v>
+        <v>0018 D41B</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="6"/>
-        <v>001C A81B</v>
+        <v>001B E41B</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -6329,35 +6314,35 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>0000 1580</v>
+        <v>0000 1B10</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>001C A81B</v>
+        <v>001B E41B</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="6"/>
-        <v>001F B81B</v>
+        <v>001C A81B</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -6373,35 +6358,35 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>0000 1780</v>
+        <v>0000 1F50</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>001F B81B</v>
+        <v>001B E41B</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="6"/>
-        <v>0022 C81B</v>
+        <v>001F B81B</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -6417,35 +6402,35 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>0000 2980</v>
+        <v>0000 4390</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
-        <v>0022 C81B</v>
+        <v>001F B81B</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="6"/>
-        <v>0023 8C1B</v>
+        <v>0022 C81B</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -6461,35 +6446,35 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>0000 2D80</v>
+        <v>0000 4BA0</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>0023 8C1B</v>
+        <v>0022 C81B</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="6"/>
-        <v>0026 9C1B</v>
+        <v>0023 8C1B</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -6505,35 +6490,35 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
-        <v>0000 2F80</v>
+        <v>0000 4FE0</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>0026 9C1B</v>
+        <v>0022 C81B</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="6"/>
-        <v>0029 AC1B</v>
+        <v>0026 9C1B</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -6553,31 +6538,31 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="5"/>
-        <v>0029 AC1B</v>
+        <v>0026 9C1B</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="6"/>
-        <v>002B 341B</v>
+        <v>0029 AC1B</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -6593,35 +6578,35 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>0000 4180</v>
+        <v>0000 7420</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
-        <v>002B 341B</v>
+        <v>0029 AC1B</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="6"/>
-        <v>002B 961B</v>
+        <v>002B 341B</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -6637,35 +6622,35 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
-        <v>0000 4980</v>
+        <v>0000 8440</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
-        <v>002B 961B</v>
+        <v>002B 341B</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="6"/>
-        <v>002D 1E1B</v>
+        <v>002B 961B</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -6681,35 +6666,35 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
-        <v>0000 5180</v>
+        <v>0000 94C0</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
-        <v>002D 1E1B</v>
+        <v>002B 341B</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="6"/>
-        <v>002E A61B</v>
+        <v>002D 1E1B</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -6725,35 +6710,35 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
-        <v>0000 9980</v>
+        <v>0001 2540</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
-        <v>002E A61B</v>
+        <v>002D 1E1B</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="6"/>
-        <v>002F 081B</v>
+        <v>002E A61B</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -6769,35 +6754,35 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
-        <v>0000 A980</v>
+        <v>0001 4560</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="5"/>
-        <v>002F 081B</v>
+        <v>002E A61B</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="6"/>
-        <v>0030 901B</v>
+        <v>002F 081B</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -6813,35 +6798,35 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v>0000 B180</v>
+        <v>0001 55E0</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="5"/>
-        <v>0030 901B</v>
+        <v>002E A61B</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="6"/>
-        <v>0032 181B</v>
+        <v>0030 901B</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
@@ -6861,31 +6846,31 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="5"/>
-        <v>0032 181B</v>
+        <v>0030 901B</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="6"/>
-        <v>0032 DC1B</v>
+        <v>0032 181B</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
@@ -6901,35 +6886,35 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="4"/>
-        <v>0000 F980</v>
+        <v>0001 E660</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="5"/>
-        <v>0032 DC1B</v>
+        <v>0032 181B</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="6"/>
-        <v>0033 00DB</v>
+        <v>0032 DC1B</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
@@ -6945,35 +6930,35 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="4"/>
-        <v>0001 1180</v>
+        <v>0002 1690</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="5"/>
-        <v>0033 00DB</v>
+        <v>0032 DC1B</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="6"/>
-        <v>0033 93DB</v>
+        <v>0033 00DB</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
@@ -6989,35 +6974,35 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="4"/>
-        <v>0001 2380</v>
+        <v>0002 3B50</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="5"/>
-        <v>0033 93DB</v>
+        <v>0032 DC1B</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="6"/>
-        <v>0034 26DB</v>
+        <v>0033 93DB</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -7033,35 +7018,35 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="4"/>
-        <v>0001 C580</v>
+        <v>0003 8010</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="5"/>
-        <v>0034 26DB</v>
+        <v>0033 93DB</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="6"/>
-        <v>0034 4B9B</v>
+        <v>0034 26DB</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -7077,35 +7062,35 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
-        <v>0001 E980</v>
+        <v>0003 C840</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="5"/>
-        <v>0034 4B9B</v>
+        <v>0034 26DB</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="6"/>
-        <v>0034 DE9B</v>
+        <v>0034 4B9B</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -7121,35 +7106,35 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="4"/>
-        <v>0001 FB80</v>
+        <v>0003 ED00</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="5"/>
-        <v>0034 DE9B</v>
+        <v>0034 26DB</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="6"/>
-        <v>0035 719B</v>
+        <v>0034 DE9B</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
@@ -7165,35 +7150,35 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="4"/>
-        <v>0002 9D80</v>
+        <v>0005 31C0</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="5"/>
-        <v>0035 719B</v>
+        <v>0034 DE9B</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="6"/>
-        <v>0035 A29B</v>
+        <v>0035 719B</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
@@ -7209,35 +7194,35 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="4"/>
-        <v>0002 CD80</v>
+        <v>0005 9200</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="5"/>
-        <v>0035 A29B</v>
+        <v>0035 719B</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="6"/>
-        <v>0036 669B</v>
+        <v>0035 A29B</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
@@ -7253,35 +7238,35 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
-        <v>0002 ED80</v>
+        <v>0005 D300</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="5"/>
-        <v>0036 669B</v>
+        <v>0035 719B</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="6"/>
-        <v>0037 2A9B</v>
+        <v>0036 669B</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
@@ -7297,35 +7282,35 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
-        <v>0004 0D80</v>
+        <v>0008 1400</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="5"/>
-        <v>0037 2A9B</v>
+        <v>0036 669B</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="6"/>
-        <v>0037 5B9B</v>
+        <v>0037 2A9B</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
@@ -7341,35 +7326,35 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="4"/>
-        <v>0004 4D80</v>
+        <v>0008 9440</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="5"/>
-        <v>0037 5B9B</v>
+        <v>0037 2A9B</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="6"/>
-        <v>0038 1F9B</v>
+        <v>0037 5B9B</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
@@ -7385,35 +7370,35 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="4"/>
-        <v>0004 6D80</v>
+        <v>0008 D540</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="5"/>
-        <v>0038 1F9B</v>
+        <v>0037 2A9B</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="6"/>
-        <v>0038 E39B</v>
+        <v>0038 1F9B</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
@@ -7429,35 +7414,35 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="4"/>
-        <v>0005 8D80</v>
+        <v>000B 1640</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="5"/>
-        <v>0038 E39B</v>
+        <v>0038 1F9B</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="6"/>
-        <v>003B E13B</v>
+        <v>0038 E39B</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
@@ -7477,11 +7462,11 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" si="5"/>
-        <v>003B E13B</v>
+        <v>0038 E39B</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="6"/>
-        <v>003B E523</v>
+        <v>003B E13B</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657A6C0-5B99-4259-BDC6-6CA98DA00C81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B2FF0A-75F6-4546-9799-094F2568F573}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
   <sheets>
     <sheet name="SqueezeNet v2 MEC Parallel Ch" sheetId="2" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>wgt staddr</t>
   </si>
   <si>
-    <t>oichsize</t>
-  </si>
-  <si>
     <t>0040_0003</t>
   </si>
   <si>
@@ -607,33 +604,9 @@
     <t>14x14</t>
   </si>
   <si>
-    <t>osurf, oiknsize</t>
-  </si>
-  <si>
-    <t>31E1_7103</t>
-  </si>
-  <si>
     <t>00009_204</t>
   </si>
   <si>
-    <t>0C40_3803</t>
-  </si>
-  <si>
-    <t>0C40_3801</t>
-  </si>
-  <si>
-    <t>0310_1C03</t>
-  </si>
-  <si>
-    <t>0310_1C01</t>
-  </si>
-  <si>
-    <t>00C4_0E03</t>
-  </si>
-  <si>
-    <t>00C4_0E01</t>
-  </si>
-  <si>
     <t>000C4_105</t>
   </si>
   <si>
@@ -719,6 +692,33 @@
   </si>
   <si>
     <t>000B1640</t>
+  </si>
+  <si>
+    <t>osurf, oiside</t>
+  </si>
+  <si>
+    <t>oichannel</t>
+  </si>
+  <si>
+    <t>31E1_71E3</t>
+  </si>
+  <si>
+    <t>0C40_3871</t>
+  </si>
+  <si>
+    <t>0C40_3838</t>
+  </si>
+  <si>
+    <t>0310_1C38</t>
+  </si>
+  <si>
+    <t>0310_1C1C</t>
+  </si>
+  <si>
+    <t>00C4_0E1C</t>
+  </si>
+  <si>
+    <t>00C4_0E0E</t>
   </si>
 </sst>
 </file>
@@ -1347,44 +1347,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y4" activeCellId="3" sqref="Q4:S68 U4:U68 W4:W68 Y4:Y68"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7109375" style="30"/>
-    <col min="10" max="10" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="30"/>
-    <col min="13" max="13" width="10.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="30" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.7265625" style="30"/>
+    <col min="10" max="10" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="30"/>
+    <col min="13" max="13" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1399,7 +1396,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
@@ -1419,13 +1416,13 @@
       <c r="X1" s="56"/>
       <c r="Y1" s="57"/>
       <c r="Z1" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA1" s="51"/>
       <c r="AB1" s="51"/>
       <c r="AC1" s="51"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>77</v>
@@ -1460,22 +1457,22 @@
         <v>91</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>85</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="T2" s="58" t="s">
         <v>95</v>
@@ -1486,26 +1483,26 @@
       </c>
       <c r="W2" s="58"/>
       <c r="X2" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y2" s="59"/>
       <c r="Z2" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>89</v>
       </c>
       <c r="AB2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC2" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="AD2" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1519,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="25">
         <v>227</v>
@@ -1555,7 +1552,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="26">
         <v>113</v>
@@ -1618,8 +1615,8 @@
         <v>0040_0003</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f>DEC2HEX(K4^2,4)&amp;"_"&amp;DEC2HEX(K4,2)&amp;DEC2HEX(E4,2)</f>
-        <v>31E1_7103</v>
+        <f>DEC2HEX(K4^2,4)&amp;"_"&amp;DEC2HEX(K4,2)&amp;DEC2HEX(K3,2)</f>
+        <v>31E1_71E3</v>
       </c>
       <c r="T4" s="33">
         <v>4096</v>
@@ -1659,7 +1656,7 @@
       </c>
       <c r="AD4" s="20"/>
     </row>
-    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1692,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="20"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="28">
         <v>56</v>
@@ -1749,8 +1746,8 @@
         <v>0040_0040</v>
       </c>
       <c r="S6" s="16" t="str">
-        <f>DEC2HEX(K6^2,4)&amp;"_"&amp;DEC2HEX(K6,2)&amp;DEC2HEX(E6,2)</f>
-        <v>0C40_3803</v>
+        <f>DEC2HEX(K6^2,4)&amp;"_"&amp;DEC2HEX(K6,2)&amp;DEC2HEX(K4,2)</f>
+        <v>0C40_3871</v>
       </c>
       <c r="T6" s="35"/>
       <c r="U6" s="16" t="str">
@@ -1789,7 +1786,7 @@
       </c>
       <c r="AD6" s="20"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="26">
         <v>56</v>
@@ -1852,8 +1849,8 @@
         <v>0010_0040</v>
       </c>
       <c r="S7" s="12" t="str">
-        <f>DEC2HEX(K7^2,4)&amp;"_"&amp;DEC2HEX(K7,2)&amp;DEC2HEX(E7,2)</f>
-        <v>0C40_3801</v>
+        <f>DEC2HEX(K7^2,4)&amp;"_"&amp;DEC2HEX(K7,2)&amp;DEC2HEX(K6,2)</f>
+        <v>0C40_3838</v>
       </c>
       <c r="T7" s="33">
         <f>T4+P4</f>
@@ -1895,7 +1892,7 @@
       </c>
       <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1928,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="20"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="26">
         <v>56</v>
@@ -1994,15 +1991,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S9" s="12" t="str">
-        <f t="shared" ref="S9:S10" si="5">DEC2HEX(K9^2,4)&amp;"_"&amp;DEC2HEX(K9,2)&amp;DEC2HEX(E9,2)</f>
-        <v>0C40_3801</v>
+        <f>DEC2HEX(K9^2,4)&amp;"_"&amp;DEC2HEX(K9,2)&amp;DEC2HEX(K7,2)</f>
+        <v>0C40_3838</v>
       </c>
       <c r="T9" s="33">
         <f>T7+P7</f>
         <v>6928</v>
       </c>
       <c r="U9" s="12" t="str">
-        <f t="shared" ref="U9:U10" si="6">DEC2HEX(T9,8)</f>
+        <f t="shared" ref="U9:U10" si="5">DEC2HEX(T9,8)</f>
         <v>00001B10</v>
       </c>
       <c r="V9" s="33">
@@ -2010,7 +2007,7 @@
         <v>1827867</v>
       </c>
       <c r="W9" s="12" t="str">
-        <f t="shared" ref="W9:W10" si="7">DEC2HEX(V9,8)</f>
+        <f t="shared" ref="W9:W10" si="6">DEC2HEX(V9,8)</f>
         <v>001BE41B</v>
       </c>
       <c r="X9" s="33">
@@ -2018,7 +2015,7 @@
         <v>1878043</v>
       </c>
       <c r="Y9" s="13" t="str">
-        <f t="shared" ref="Y9:Y10" si="8">DEC2HEX(X9,8)</f>
+        <f t="shared" ref="Y9:Y10" si="7">DEC2HEX(X9,8)</f>
         <v>001CA81B</v>
       </c>
       <c r="Z9" s="2">
@@ -2037,7 +2034,7 @@
       </c>
       <c r="AD9" s="20"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="26">
         <v>56</v>
@@ -2100,15 +2097,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S10" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0C40_3803</v>
+        <f>DEC2HEX(K10^2,4)&amp;"_"&amp;DEC2HEX(K10,2)&amp;DEC2HEX(K7,2)</f>
+        <v>0C40_3838</v>
       </c>
       <c r="T10" s="33">
         <f>T9+P9</f>
         <v>8016</v>
       </c>
       <c r="U10" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>00001F50</v>
       </c>
       <c r="V10" s="33">
@@ -2116,7 +2113,7 @@
         <v>1827867</v>
       </c>
       <c r="W10" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>001BE41B</v>
       </c>
       <c r="X10" s="33">
@@ -2124,7 +2121,7 @@
         <v>2078747</v>
       </c>
       <c r="Y10" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>001FB81B</v>
       </c>
       <c r="Z10" s="2">
@@ -2143,7 +2140,7 @@
       </c>
       <c r="AD10" s="20"/>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2179,7 +2176,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="20"/>
     </row>
-    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2215,7 +2212,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="20"/>
     </row>
-    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2230,7 +2227,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" s="25">
         <v>56</v>
@@ -2255,7 +2252,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="20"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2284,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="26">
         <v>56</v>
@@ -2318,8 +2315,8 @@
         <v>0010_0080</v>
       </c>
       <c r="S14" s="12" t="str">
-        <f>DEC2HEX(K14^2,4)&amp;"_"&amp;DEC2HEX(K14,2)&amp;DEC2HEX(E14,2)</f>
-        <v>0C40_3801</v>
+        <f>DEC2HEX(K14^2,4)&amp;"_"&amp;DEC2HEX(K14,2)&amp;DEC2HEX(K9,2)</f>
+        <v>0C40_3838</v>
       </c>
       <c r="T14" s="33">
         <f>T10+P10</f>
@@ -2361,7 +2358,7 @@
       </c>
       <c r="AD14" s="20"/>
     </row>
-    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2397,7 +2394,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="20"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2426,29 +2423,29 @@
         <v>0</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K16" s="26">
         <v>56</v>
       </c>
       <c r="L16" s="26">
-        <f t="shared" ref="L16:L17" si="9">K16^2*G16</f>
+        <f t="shared" ref="L16:L17" si="8">K16^2*G16</f>
         <v>200704</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" ref="M16:M17" si="10">K16^2*F16</f>
+        <f t="shared" ref="M16:M17" si="9">K16^2*F16</f>
         <v>50176</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" ref="N16:N17" si="11">E16^2*F16*G16</f>
+        <f t="shared" ref="N16:N17" si="10">E16^2*F16*G16</f>
         <v>1024</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" ref="O16:O17" si="12">G16</f>
+        <f t="shared" ref="O16:O17" si="11">G16</f>
         <v>64</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" ref="P16:P17" si="13">N16+O16</f>
+        <f t="shared" ref="P16:P17" si="12">N16+O16</f>
         <v>1088</v>
       </c>
       <c r="Q16" s="45" t="str">
@@ -2460,15 +2457,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S16" s="12" t="str">
-        <f t="shared" ref="S16:S17" si="14">DEC2HEX(K16^2,4)&amp;"_"&amp;DEC2HEX(K16,2)&amp;DEC2HEX(E16,2)</f>
-        <v>0C40_3801</v>
+        <f>DEC2HEX(K16^2,4)&amp;"_"&amp;DEC2HEX(K16,2)&amp;DEC2HEX(K14,2)</f>
+        <v>0C40_3838</v>
       </c>
       <c r="T16" s="33">
         <f>T14+P14</f>
         <v>19360</v>
       </c>
       <c r="U16" s="12" t="str">
-        <f t="shared" ref="U16:U17" si="15">DEC2HEX(T16,8)</f>
+        <f t="shared" ref="U16:U17" si="13">DEC2HEX(T16,8)</f>
         <v>00004BA0</v>
       </c>
       <c r="V16" s="33">
@@ -2476,7 +2473,7 @@
         <v>2279451</v>
       </c>
       <c r="W16" s="12" t="str">
-        <f t="shared" ref="W16:W17" si="16">DEC2HEX(V16,8)</f>
+        <f t="shared" ref="W16:W17" si="14">DEC2HEX(V16,8)</f>
         <v>0022C81B</v>
       </c>
       <c r="X16" s="33">
@@ -2484,7 +2481,7 @@
         <v>2329627</v>
       </c>
       <c r="Y16" s="13" t="str">
-        <f t="shared" ref="Y16:Y17" si="17">DEC2HEX(X16,8)</f>
+        <f t="shared" ref="Y16:Y17" si="15">DEC2HEX(X16,8)</f>
         <v>00238C1B</v>
       </c>
       <c r="Z16" s="2">
@@ -2503,7 +2500,7 @@
       </c>
       <c r="AD16" s="20"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2532,29 +2529,29 @@
         <v>1</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K17" s="26">
         <v>56</v>
       </c>
       <c r="L17" s="26">
+        <f t="shared" si="8"/>
+        <v>200704</v>
+      </c>
+      <c r="M17" s="26">
         <f t="shared" si="9"/>
-        <v>200704</v>
-      </c>
-      <c r="M17" s="26">
+        <v>50176</v>
+      </c>
+      <c r="N17" s="26">
         <f t="shared" si="10"/>
-        <v>50176</v>
-      </c>
-      <c r="N17" s="26">
+        <v>9216</v>
+      </c>
+      <c r="O17" s="26">
         <f t="shared" si="11"/>
-        <v>9216</v>
-      </c>
-      <c r="O17" s="26">
+        <v>64</v>
+      </c>
+      <c r="P17" s="26">
         <f t="shared" si="12"/>
-        <v>64</v>
-      </c>
-      <c r="P17" s="26">
-        <f t="shared" si="13"/>
         <v>9280</v>
       </c>
       <c r="Q17" s="45" t="str">
@@ -2566,15 +2563,15 @@
         <v>0040_0010</v>
       </c>
       <c r="S17" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>0C40_3803</v>
+        <f>DEC2HEX(K17^2,4)&amp;"_"&amp;DEC2HEX(K17,2)&amp;DEC2HEX(K14,2)</f>
+        <v>0C40_3838</v>
       </c>
       <c r="T17" s="33">
         <f>T16+P16</f>
         <v>20448</v>
       </c>
       <c r="U17" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>00004FE0</v>
       </c>
       <c r="V17" s="33">
@@ -2582,7 +2579,7 @@
         <v>2279451</v>
       </c>
       <c r="W17" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0022C81B</v>
       </c>
       <c r="X17" s="33">
@@ -2590,7 +2587,7 @@
         <v>2530331</v>
       </c>
       <c r="Y17" s="13" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>00269C1B</v>
       </c>
       <c r="Z17" s="2">
@@ -2609,7 +2606,7 @@
       </c>
       <c r="AD17" s="20"/>
     </row>
-    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2645,7 +2642,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="20"/>
     </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -2681,7 +2678,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="20"/>
     </row>
-    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2696,7 +2693,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K20" s="25">
         <v>56</v>
@@ -2721,7 +2718,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="20"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -2775,8 +2772,8 @@
         <v>0080_0080</v>
       </c>
       <c r="S21" s="16" t="str">
-        <f>DEC2HEX(K21^2,4)&amp;"_"&amp;DEC2HEX(K21,2)&amp;DEC2HEX(E21,2)</f>
-        <v>0310_1C03</v>
+        <f>DEC2HEX(K21^2,4)&amp;"_"&amp;DEC2HEX(K21,2)&amp;DEC2HEX(K16,2)</f>
+        <v>0310_1C38</v>
       </c>
       <c r="T21" s="35"/>
       <c r="U21" s="16" t="str">
@@ -2815,7 +2812,7 @@
       </c>
       <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" s="26">
         <v>28</v>
@@ -2878,8 +2875,8 @@
         <v>0020_0080</v>
       </c>
       <c r="S22" s="12" t="str">
-        <f>DEC2HEX(K22^2,4)&amp;"_"&amp;DEC2HEX(K22,2)&amp;DEC2HEX(E22,2)</f>
-        <v>0310_1C01</v>
+        <f>DEC2HEX(K22^2,4)&amp;"_"&amp;DEC2HEX(K22,2)&amp;DEC2HEX(K21,2)</f>
+        <v>0310_1C1C</v>
       </c>
       <c r="T22" s="33">
         <f>T17+P17</f>
@@ -2921,7 +2918,7 @@
       </c>
       <c r="AD22" s="20"/>
     </row>
-    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2957,7 +2954,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="20"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -2986,29 +2983,29 @@
         <v>0</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K24" s="26">
         <v>28</v>
       </c>
       <c r="L24" s="26">
-        <f t="shared" ref="L24:L25" si="18">K24^2*G24</f>
+        <f t="shared" ref="L24:L25" si="16">K24^2*G24</f>
         <v>100352</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" ref="M24:M25" si="19">K24^2*F24</f>
+        <f t="shared" ref="M24:M25" si="17">K24^2*F24</f>
         <v>25088</v>
       </c>
       <c r="N24" s="26">
-        <f t="shared" ref="N24:N25" si="20">E24^2*F24*G24</f>
+        <f t="shared" ref="N24:N25" si="18">E24^2*F24*G24</f>
         <v>4096</v>
       </c>
       <c r="O24" s="26">
-        <f t="shared" ref="O24:O25" si="21">G24</f>
+        <f t="shared" ref="O24:O25" si="19">G24</f>
         <v>128</v>
       </c>
       <c r="P24" s="26">
-        <f t="shared" ref="P24:P25" si="22">N24+O24</f>
+        <f t="shared" ref="P24:P25" si="20">N24+O24</f>
         <v>4224</v>
       </c>
       <c r="Q24" s="45" t="str">
@@ -3020,15 +3017,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S24" s="12" t="str">
-        <f t="shared" ref="S24:S25" si="23">DEC2HEX(K24^2,4)&amp;"_"&amp;DEC2HEX(K24,2)&amp;DEC2HEX(E24,2)</f>
-        <v>0310_1C01</v>
+        <f>DEC2HEX(K24^2,4)&amp;"_"&amp;DEC2HEX(K24,2)&amp;DEC2HEX(K22,2)</f>
+        <v>0310_1C1C</v>
       </c>
       <c r="T24" s="33">
         <f>T22+P22</f>
         <v>33856</v>
       </c>
       <c r="U24" s="12" t="str">
-        <f t="shared" ref="U24:U25" si="24">DEC2HEX(T24,8)</f>
+        <f t="shared" ref="U24:U25" si="21">DEC2HEX(T24,8)</f>
         <v>00008440</v>
       </c>
       <c r="V24" s="33">
@@ -3036,7 +3033,7 @@
         <v>2831387</v>
       </c>
       <c r="W24" s="12" t="str">
-        <f t="shared" ref="W24:W25" si="25">DEC2HEX(V24,8)</f>
+        <f t="shared" ref="W24:W25" si="22">DEC2HEX(V24,8)</f>
         <v>002B341B</v>
       </c>
       <c r="X24" s="33">
@@ -3044,7 +3041,7 @@
         <v>2856475</v>
       </c>
       <c r="Y24" s="13" t="str">
-        <f t="shared" ref="Y24:Y25" si="26">DEC2HEX(X24,8)</f>
+        <f t="shared" ref="Y24:Y25" si="23">DEC2HEX(X24,8)</f>
         <v>002B961B</v>
       </c>
       <c r="Z24" s="2">
@@ -3063,7 +3060,7 @@
       </c>
       <c r="AD24" s="20"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3092,29 +3089,29 @@
         <v>1</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K25" s="26">
         <v>28</v>
       </c>
       <c r="L25" s="26">
+        <f t="shared" si="16"/>
+        <v>100352</v>
+      </c>
+      <c r="M25" s="26">
+        <f t="shared" si="17"/>
+        <v>25088</v>
+      </c>
+      <c r="N25" s="26">
         <f t="shared" si="18"/>
-        <v>100352</v>
-      </c>
-      <c r="M25" s="26">
+        <v>36864</v>
+      </c>
+      <c r="O25" s="26">
         <f t="shared" si="19"/>
-        <v>25088</v>
-      </c>
-      <c r="N25" s="26">
+        <v>128</v>
+      </c>
+      <c r="P25" s="26">
         <f t="shared" si="20"/>
-        <v>36864</v>
-      </c>
-      <c r="O25" s="26">
-        <f t="shared" si="21"/>
-        <v>128</v>
-      </c>
-      <c r="P25" s="26">
-        <f t="shared" si="22"/>
         <v>36992</v>
       </c>
       <c r="Q25" s="45" t="str">
@@ -3126,15 +3123,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S25" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v>0310_1C03</v>
+        <f>DEC2HEX(K25^2,4)&amp;"_"&amp;DEC2HEX(K25,2)&amp;DEC2HEX(K22,2)</f>
+        <v>0310_1C1C</v>
       </c>
       <c r="T25" s="33">
         <f>T24+P24</f>
         <v>38080</v>
       </c>
       <c r="U25" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>000094C0</v>
       </c>
       <c r="V25" s="33">
@@ -3142,7 +3139,7 @@
         <v>2831387</v>
       </c>
       <c r="W25" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>002B341B</v>
       </c>
       <c r="X25" s="33">
@@ -3150,7 +3147,7 @@
         <v>2956827</v>
       </c>
       <c r="Y25" s="13" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>002D1E1B</v>
       </c>
       <c r="Z25" s="2">
@@ -3169,7 +3166,7 @@
       </c>
       <c r="AD25" s="20"/>
     </row>
-    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -3205,7 +3202,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="20"/>
     </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -3241,7 +3238,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="20"/>
     </row>
-    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -3256,7 +3253,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" s="25">
         <v>28</v>
@@ -3281,7 +3278,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" s="26">
         <v>28</v>
@@ -3344,8 +3341,8 @@
         <v>0020_0100</v>
       </c>
       <c r="S29" s="12" t="str">
-        <f>DEC2HEX(K29^2,4)&amp;"_"&amp;DEC2HEX(K29,2)&amp;DEC2HEX(E29,2)</f>
-        <v>0310_1C01</v>
+        <f>DEC2HEX(K29^2,4)&amp;"_"&amp;DEC2HEX(K29,2)&amp;DEC2HEX(K24,2)</f>
+        <v>0310_1C1C</v>
       </c>
       <c r="T29" s="33">
         <f>T25+P25</f>
@@ -3387,7 +3384,7 @@
       </c>
       <c r="AD29" s="20"/>
     </row>
-    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -3423,7 +3420,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="20"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3452,29 +3449,29 @@
         <v>0</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K31" s="26">
         <v>28</v>
       </c>
       <c r="L31" s="26">
-        <f t="shared" ref="L31:L32" si="27">K31^2*G31</f>
+        <f t="shared" ref="L31:L32" si="24">K31^2*G31</f>
         <v>100352</v>
       </c>
       <c r="M31" s="26">
-        <f t="shared" ref="M31:M32" si="28">K31^2*F31</f>
+        <f t="shared" ref="M31:M32" si="25">K31^2*F31</f>
         <v>25088</v>
       </c>
       <c r="N31" s="26">
-        <f t="shared" ref="N31:N32" si="29">E31^2*F31*G31</f>
+        <f t="shared" ref="N31:N32" si="26">E31^2*F31*G31</f>
         <v>4096</v>
       </c>
       <c r="O31" s="26">
-        <f t="shared" ref="O31:O32" si="30">G31</f>
+        <f t="shared" ref="O31:O32" si="27">G31</f>
         <v>128</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" ref="P31:P32" si="31">N31+O31</f>
+        <f t="shared" ref="P31:P32" si="28">N31+O31</f>
         <v>4224</v>
       </c>
       <c r="Q31" s="45" t="str">
@@ -3486,15 +3483,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S31" s="12" t="str">
-        <f t="shared" ref="S31:S32" si="32">DEC2HEX(K31^2,4)&amp;"_"&amp;DEC2HEX(K31,2)&amp;DEC2HEX(E31,2)</f>
-        <v>0310_1C01</v>
+        <f>DEC2HEX(K31^2,4)&amp;"_"&amp;DEC2HEX(K31,2)&amp;DEC2HEX(K29,2)</f>
+        <v>0310_1C1C</v>
       </c>
       <c r="T31" s="33">
         <f>T29+P29</f>
         <v>83296</v>
       </c>
       <c r="U31" s="12" t="str">
-        <f t="shared" ref="U31:U32" si="33">DEC2HEX(T31,8)</f>
+        <f t="shared" ref="U31:U32" si="29">DEC2HEX(T31,8)</f>
         <v>00014560</v>
       </c>
       <c r="V31" s="33">
@@ -3502,7 +3499,7 @@
         <v>3057179</v>
       </c>
       <c r="W31" s="12" t="str">
-        <f t="shared" ref="W31:W32" si="34">DEC2HEX(V31,8)</f>
+        <f t="shared" ref="W31:W32" si="30">DEC2HEX(V31,8)</f>
         <v>002EA61B</v>
       </c>
       <c r="X31" s="33">
@@ -3510,7 +3507,7 @@
         <v>3082267</v>
       </c>
       <c r="Y31" s="13" t="str">
-        <f t="shared" ref="Y31:Y32" si="35">DEC2HEX(X31,8)</f>
+        <f t="shared" ref="Y31:Y32" si="31">DEC2HEX(X31,8)</f>
         <v>002F081B</v>
       </c>
       <c r="Z31" s="2">
@@ -3529,7 +3526,7 @@
       </c>
       <c r="AD31" s="20"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -3558,29 +3555,29 @@
         <v>1</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K32" s="26">
         <v>28</v>
       </c>
       <c r="L32" s="26">
+        <f t="shared" si="24"/>
+        <v>100352</v>
+      </c>
+      <c r="M32" s="26">
+        <f t="shared" si="25"/>
+        <v>25088</v>
+      </c>
+      <c r="N32" s="26">
+        <f t="shared" si="26"/>
+        <v>36864</v>
+      </c>
+      <c r="O32" s="26">
         <f t="shared" si="27"/>
-        <v>100352</v>
-      </c>
-      <c r="M32" s="26">
+        <v>128</v>
+      </c>
+      <c r="P32" s="26">
         <f t="shared" si="28"/>
-        <v>25088</v>
-      </c>
-      <c r="N32" s="26">
-        <f t="shared" si="29"/>
-        <v>36864</v>
-      </c>
-      <c r="O32" s="26">
-        <f t="shared" si="30"/>
-        <v>128</v>
-      </c>
-      <c r="P32" s="26">
-        <f t="shared" si="31"/>
         <v>36992</v>
       </c>
       <c r="Q32" s="45" t="str">
@@ -3592,15 +3589,15 @@
         <v>0080_0020</v>
       </c>
       <c r="S32" s="12" t="str">
-        <f t="shared" si="32"/>
-        <v>0310_1C03</v>
+        <f>DEC2HEX(K32^2,4)&amp;"_"&amp;DEC2HEX(K32,2)&amp;DEC2HEX(K29,2)</f>
+        <v>0310_1C1C</v>
       </c>
       <c r="T32" s="33">
         <f>T31+P31</f>
         <v>87520</v>
       </c>
       <c r="U32" s="12" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>000155E0</v>
       </c>
       <c r="V32" s="33">
@@ -3608,7 +3605,7 @@
         <v>3057179</v>
       </c>
       <c r="W32" s="12" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>002EA61B</v>
       </c>
       <c r="X32" s="33">
@@ -3616,7 +3613,7 @@
         <v>3182619</v>
       </c>
       <c r="Y32" s="13" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0030901B</v>
       </c>
       <c r="Z32" s="2">
@@ -3635,7 +3632,7 @@
       </c>
       <c r="AD32" s="20"/>
     </row>
-    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -3671,7 +3668,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="20"/>
     </row>
-    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
@@ -3707,7 +3704,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="20"/>
     </row>
-    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -3722,7 +3719,7 @@
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -3745,7 +3742,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="20"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
@@ -3774,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" s="28">
         <v>14</v>
@@ -3799,8 +3796,8 @@
         <v>0100_0100</v>
       </c>
       <c r="S36" s="16" t="str">
-        <f>DEC2HEX(K36^2,4)&amp;"_"&amp;DEC2HEX(K36,2)&amp;DEC2HEX(E36,2)</f>
-        <v>00C4_0E03</v>
+        <f>DEC2HEX(K36^2,4)&amp;"_"&amp;DEC2HEX(K36,2)&amp;DEC2HEX(K31,2)</f>
+        <v>00C4_0E1C</v>
       </c>
       <c r="T36" s="35"/>
       <c r="U36" s="16" t="str">
@@ -3839,7 +3836,7 @@
       </c>
       <c r="AD36" s="20"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3868,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K37" s="26">
         <v>14</v>
@@ -3902,8 +3899,8 @@
         <v>0030_0100</v>
       </c>
       <c r="S37" s="12" t="str">
-        <f>DEC2HEX(K37^2,4)&amp;"_"&amp;DEC2HEX(K37,2)&amp;DEC2HEX(E37,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K37^2,4)&amp;"_"&amp;DEC2HEX(K37,2)&amp;DEC2HEX(K36,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T37" s="33">
         <f>T32+P32</f>
@@ -3945,7 +3942,7 @@
       </c>
       <c r="AD37" s="20"/>
     </row>
-    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -3981,7 +3978,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="20"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -4010,29 +4007,29 @@
         <v>0</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K39" s="26">
         <v>14</v>
       </c>
       <c r="L39" s="26">
-        <f t="shared" ref="L39:L40" si="36">K39^2*G39</f>
+        <f t="shared" ref="L39:L40" si="32">K39^2*G39</f>
         <v>37632</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" ref="M39:M40" si="37">K39^2*F39</f>
+        <f t="shared" ref="M39:M40" si="33">K39^2*F39</f>
         <v>9408</v>
       </c>
       <c r="N39" s="26">
-        <f t="shared" ref="N39:N40" si="38">E39^2*F39*G39</f>
+        <f t="shared" ref="N39:N40" si="34">E39^2*F39*G39</f>
         <v>9216</v>
       </c>
       <c r="O39" s="26">
-        <f t="shared" ref="O39:O40" si="39">G39</f>
+        <f t="shared" ref="O39:O40" si="35">G39</f>
         <v>192</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" ref="P39:P40" si="40">N39+O39</f>
+        <f t="shared" ref="P39:P40" si="36">N39+O39</f>
         <v>9408</v>
       </c>
       <c r="Q39" s="45" t="str">
@@ -4044,15 +4041,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S39" s="12" t="str">
-        <f t="shared" ref="S39:S40" si="41">DEC2HEX(K39^2,4)&amp;"_"&amp;DEC2HEX(K39,2)&amp;DEC2HEX(E39,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K39^2,4)&amp;"_"&amp;DEC2HEX(K39,2)&amp;DEC2HEX(K37,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T39" s="33">
         <f>T37+P37</f>
         <v>136848</v>
       </c>
       <c r="U39" s="12" t="str">
-        <f t="shared" ref="U39:U40" si="42">DEC2HEX(T39,8)</f>
+        <f t="shared" ref="U39:U40" si="37">DEC2HEX(T39,8)</f>
         <v>00021690</v>
       </c>
       <c r="V39" s="33">
@@ -4060,7 +4057,7 @@
         <v>3333147</v>
       </c>
       <c r="W39" s="12" t="str">
-        <f t="shared" ref="W39:W40" si="43">DEC2HEX(V39,8)</f>
+        <f t="shared" ref="W39:W40" si="38">DEC2HEX(V39,8)</f>
         <v>0032DC1B</v>
       </c>
       <c r="X39" s="33">
@@ -4068,7 +4065,7 @@
         <v>3342555</v>
       </c>
       <c r="Y39" s="13" t="str">
-        <f t="shared" ref="Y39:Y40" si="44">DEC2HEX(X39,8)</f>
+        <f t="shared" ref="Y39:Y40" si="39">DEC2HEX(X39,8)</f>
         <v>003300DB</v>
       </c>
       <c r="Z39" s="2">
@@ -4087,7 +4084,7 @@
       </c>
       <c r="AD39" s="20"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -4116,29 +4113,29 @@
         <v>1</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K40" s="26">
         <v>14</v>
       </c>
       <c r="L40" s="26">
+        <f t="shared" si="32"/>
+        <v>37632</v>
+      </c>
+      <c r="M40" s="26">
+        <f t="shared" si="33"/>
+        <v>9408</v>
+      </c>
+      <c r="N40" s="26">
+        <f t="shared" si="34"/>
+        <v>82944</v>
+      </c>
+      <c r="O40" s="26">
+        <f t="shared" si="35"/>
+        <v>192</v>
+      </c>
+      <c r="P40" s="26">
         <f t="shared" si="36"/>
-        <v>37632</v>
-      </c>
-      <c r="M40" s="26">
-        <f t="shared" si="37"/>
-        <v>9408</v>
-      </c>
-      <c r="N40" s="26">
-        <f t="shared" si="38"/>
-        <v>82944</v>
-      </c>
-      <c r="O40" s="26">
-        <f t="shared" si="39"/>
-        <v>192</v>
-      </c>
-      <c r="P40" s="26">
-        <f t="shared" si="40"/>
         <v>83136</v>
       </c>
       <c r="Q40" s="45" t="str">
@@ -4150,15 +4147,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S40" s="12" t="str">
-        <f t="shared" si="41"/>
-        <v>00C4_0E03</v>
+        <f>DEC2HEX(K40^2,4)&amp;"_"&amp;DEC2HEX(K40,2)&amp;DEC2HEX(K37,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T40" s="33">
         <f>T39+P39</f>
         <v>146256</v>
       </c>
       <c r="U40" s="12" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>00023B50</v>
       </c>
       <c r="V40" s="33">
@@ -4166,7 +4163,7 @@
         <v>3333147</v>
       </c>
       <c r="W40" s="12" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0032DC1B</v>
       </c>
       <c r="X40" s="33">
@@ -4174,7 +4171,7 @@
         <v>3380187</v>
       </c>
       <c r="Y40" s="13" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>003393DB</v>
       </c>
       <c r="Z40" s="2">
@@ -4193,7 +4190,7 @@
       </c>
       <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
@@ -4229,7 +4226,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="20"/>
     </row>
-    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
@@ -4265,7 +4262,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -4280,7 +4277,7 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K43" s="25">
         <v>14</v>
@@ -4305,7 +4302,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="20"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -4334,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K44" s="26">
         <v>14</v>
@@ -4368,8 +4365,8 @@
         <v>0030_0180</v>
       </c>
       <c r="S44" s="12" t="str">
-        <f>DEC2HEX(K44^2,4)&amp;"_"&amp;DEC2HEX(K44,2)&amp;DEC2HEX(E44,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K44^2,4)&amp;"_"&amp;DEC2HEX(K44,2)&amp;DEC2HEX(K39,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T44" s="33">
         <f>T40+P40</f>
@@ -4411,7 +4408,7 @@
       </c>
       <c r="AD44" s="20"/>
     </row>
-    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
@@ -4447,7 +4444,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="20"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -4476,29 +4473,29 @@
         <v>0</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K46" s="26">
         <v>14</v>
       </c>
       <c r="L46" s="26">
-        <f t="shared" ref="L46:L47" si="45">K46^2*G46</f>
+        <f t="shared" ref="L46:L47" si="40">K46^2*G46</f>
         <v>37632</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" ref="M46:M47" si="46">K46^2*F46</f>
+        <f t="shared" ref="M46:M47" si="41">K46^2*F46</f>
         <v>9408</v>
       </c>
       <c r="N46" s="26">
-        <f t="shared" ref="N46:N47" si="47">E46^2*F46*G46</f>
+        <f t="shared" ref="N46:N47" si="42">E46^2*F46*G46</f>
         <v>9216</v>
       </c>
       <c r="O46" s="26">
-        <f t="shared" ref="O46:O47" si="48">G46</f>
+        <f t="shared" ref="O46:O47" si="43">G46</f>
         <v>192</v>
       </c>
       <c r="P46" s="26">
-        <f t="shared" ref="P46:P47" si="49">N46+O46</f>
+        <f t="shared" ref="P46:P47" si="44">N46+O46</f>
         <v>9408</v>
       </c>
       <c r="Q46" s="45" t="str">
@@ -4510,15 +4507,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S46" s="12" t="str">
-        <f t="shared" ref="S46:S47" si="50">DEC2HEX(K46^2,4)&amp;"_"&amp;DEC2HEX(K46,2)&amp;DEC2HEX(E46,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K46^2,4)&amp;"_"&amp;DEC2HEX(K46,2)&amp;DEC2HEX(K44,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T46" s="33">
         <f>T44+P44</f>
         <v>247872</v>
       </c>
       <c r="U46" s="12" t="str">
-        <f t="shared" ref="U46:U47" si="51">DEC2HEX(T46,8)</f>
+        <f t="shared" ref="U46:U47" si="45">DEC2HEX(T46,8)</f>
         <v>0003C840</v>
       </c>
       <c r="V46" s="33">
@@ -4526,7 +4523,7 @@
         <v>3417819</v>
       </c>
       <c r="W46" s="12" t="str">
-        <f t="shared" ref="W46:W47" si="52">DEC2HEX(V46,8)</f>
+        <f t="shared" ref="W46:W47" si="46">DEC2HEX(V46,8)</f>
         <v>003426DB</v>
       </c>
       <c r="X46" s="33">
@@ -4534,7 +4531,7 @@
         <v>3427227</v>
       </c>
       <c r="Y46" s="13" t="str">
-        <f t="shared" ref="Y46:Y47" si="53">DEC2HEX(X46,8)</f>
+        <f t="shared" ref="Y46:Y47" si="47">DEC2HEX(X46,8)</f>
         <v>00344B9B</v>
       </c>
       <c r="Z46" s="2">
@@ -4553,7 +4550,7 @@
       </c>
       <c r="AD46" s="20"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4582,29 +4579,29 @@
         <v>1</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K47" s="26">
         <v>14</v>
       </c>
       <c r="L47" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>37632</v>
       </c>
       <c r="M47" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>9408</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>82944</v>
       </c>
       <c r="O47" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>192</v>
       </c>
       <c r="P47" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>83136</v>
       </c>
       <c r="Q47" s="45" t="str">
@@ -4616,15 +4613,15 @@
         <v>00C0_0030</v>
       </c>
       <c r="S47" s="12" t="str">
-        <f t="shared" si="50"/>
-        <v>00C4_0E03</v>
+        <f>DEC2HEX(K47^2,4)&amp;"_"&amp;DEC2HEX(K47,2)&amp;DEC2HEX(K44,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T47" s="33">
         <f>T46+P46</f>
         <v>257280</v>
       </c>
       <c r="U47" s="12" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>0003ED00</v>
       </c>
       <c r="V47" s="33">
@@ -4632,7 +4629,7 @@
         <v>3417819</v>
       </c>
       <c r="W47" s="12" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>003426DB</v>
       </c>
       <c r="X47" s="33">
@@ -4640,7 +4637,7 @@
         <v>3464859</v>
       </c>
       <c r="Y47" s="13" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>0034DE9B</v>
       </c>
       <c r="Z47" s="2">
@@ -4659,7 +4656,7 @@
       </c>
       <c r="AD47" s="20"/>
     </row>
-    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
@@ -4695,7 +4692,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="20"/>
     </row>
-    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
@@ -4731,7 +4728,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="20"/>
     </row>
-    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
@@ -4746,7 +4743,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K50" s="25">
         <v>14</v>
@@ -4771,7 +4768,7 @@
       <c r="AC50" s="1"/>
       <c r="AD50" s="20"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -4800,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K51" s="26">
         <v>14</v>
@@ -4834,8 +4831,8 @@
         <v>0040_0180</v>
       </c>
       <c r="S51" s="12" t="str">
-        <f>DEC2HEX(K51^2,4)&amp;"_"&amp;DEC2HEX(K51,2)&amp;DEC2HEX(E51,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K51^2,4)&amp;"_"&amp;DEC2HEX(K51,2)&amp;DEC2HEX(K46,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T51" s="33">
         <f>T47+P47</f>
@@ -4877,7 +4874,7 @@
       </c>
       <c r="AD51" s="20"/>
     </row>
-    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
@@ -4913,7 +4910,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -4942,29 +4939,29 @@
         <v>0</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K53" s="26">
         <v>14</v>
       </c>
       <c r="L53" s="26">
-        <f t="shared" ref="L53:L54" si="54">K53^2*G53</f>
+        <f t="shared" ref="L53:L54" si="48">K53^2*G53</f>
         <v>50176</v>
       </c>
       <c r="M53" s="26">
-        <f t="shared" ref="M53:M54" si="55">K53^2*F53</f>
+        <f t="shared" ref="M53:M54" si="49">K53^2*F53</f>
         <v>12544</v>
       </c>
       <c r="N53" s="26">
-        <f t="shared" ref="N53:N54" si="56">E53^2*F53*G53</f>
+        <f t="shared" ref="N53:N54" si="50">E53^2*F53*G53</f>
         <v>16384</v>
       </c>
       <c r="O53" s="26">
-        <f t="shared" ref="O53:O54" si="57">G53</f>
+        <f t="shared" ref="O53:O54" si="51">G53</f>
         <v>256</v>
       </c>
       <c r="P53" s="26">
-        <f t="shared" ref="P53:P54" si="58">N53+O53</f>
+        <f t="shared" ref="P53:P54" si="52">N53+O53</f>
         <v>16640</v>
       </c>
       <c r="Q53" s="45" t="str">
@@ -4976,15 +4973,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S53" s="12" t="str">
-        <f t="shared" ref="S53:S54" si="59">DEC2HEX(K53^2,4)&amp;"_"&amp;DEC2HEX(K53,2)&amp;DEC2HEX(E53,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K53^2,4)&amp;"_"&amp;DEC2HEX(K53,2)&amp;DEC2HEX(K51,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T53" s="33">
         <f>T51+P51</f>
         <v>365056</v>
       </c>
       <c r="U53" s="12" t="str">
-        <f t="shared" ref="U53:U54" si="60">DEC2HEX(T53,8)</f>
+        <f t="shared" ref="U53:U54" si="53">DEC2HEX(T53,8)</f>
         <v>00059200</v>
       </c>
       <c r="V53" s="33">
@@ -4992,7 +4989,7 @@
         <v>3502491</v>
       </c>
       <c r="W53" s="12" t="str">
-        <f t="shared" ref="W53:W54" si="61">DEC2HEX(V53,8)</f>
+        <f t="shared" ref="W53:W54" si="54">DEC2HEX(V53,8)</f>
         <v>0035719B</v>
       </c>
       <c r="X53" s="33">
@@ -5000,7 +4997,7 @@
         <v>3515035</v>
       </c>
       <c r="Y53" s="13" t="str">
-        <f t="shared" ref="Y53:Y54" si="62">DEC2HEX(X53,8)</f>
+        <f t="shared" ref="Y53:Y54" si="55">DEC2HEX(X53,8)</f>
         <v>0035A29B</v>
       </c>
       <c r="Z53" s="2">
@@ -5019,7 +5016,7 @@
       </c>
       <c r="AD53" s="20"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -5048,29 +5045,29 @@
         <v>1</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K54" s="26">
         <v>14</v>
       </c>
       <c r="L54" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>50176</v>
       </c>
       <c r="M54" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>12544</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>147456</v>
       </c>
       <c r="O54" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="51"/>
         <v>256</v>
       </c>
       <c r="P54" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>147712</v>
       </c>
       <c r="Q54" s="45" t="str">
@@ -5082,15 +5079,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S54" s="12" t="str">
-        <f t="shared" si="59"/>
-        <v>00C4_0E03</v>
+        <f>DEC2HEX(K54^2,4)&amp;"_"&amp;DEC2HEX(K54,2)&amp;DEC2HEX(K51,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T54" s="33">
         <f>T53+P53</f>
         <v>381696</v>
       </c>
       <c r="U54" s="12" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>0005D300</v>
       </c>
       <c r="V54" s="33">
@@ -5098,7 +5095,7 @@
         <v>3502491</v>
       </c>
       <c r="W54" s="12" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>0035719B</v>
       </c>
       <c r="X54" s="33">
@@ -5106,7 +5103,7 @@
         <v>3565211</v>
       </c>
       <c r="Y54" s="13" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>0036669B</v>
       </c>
       <c r="Z54" s="2">
@@ -5125,7 +5122,7 @@
       </c>
       <c r="AD54" s="20"/>
     </row>
-    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
@@ -5161,7 +5158,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="20"/>
     </row>
-    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
@@ -5197,7 +5194,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="20"/>
     </row>
-    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -5212,7 +5209,7 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K57" s="25">
         <v>14</v>
@@ -5237,7 +5234,7 @@
       <c r="AC57" s="1"/>
       <c r="AD57" s="20"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K58" s="26">
         <v>14</v>
@@ -5300,8 +5297,8 @@
         <v>0040_0200</v>
       </c>
       <c r="S58" s="12" t="str">
-        <f>DEC2HEX(K58^2,4)&amp;"_"&amp;DEC2HEX(K58,2)&amp;DEC2HEX(E58,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K58^2,4)&amp;"_"&amp;DEC2HEX(K58,2)&amp;DEC2HEX(K53,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T58" s="33">
         <f>T54+P54</f>
@@ -5343,7 +5340,7 @@
       </c>
       <c r="AD58" s="20"/>
     </row>
-    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
@@ -5379,7 +5376,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="20"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -5408,29 +5405,29 @@
         <v>0</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K60" s="26">
         <v>14</v>
       </c>
       <c r="L60" s="26">
-        <f t="shared" ref="L60:L61" si="63">K60^2*G60</f>
+        <f t="shared" ref="L60:L61" si="56">K60^2*G60</f>
         <v>50176</v>
       </c>
       <c r="M60" s="26">
-        <f t="shared" ref="M60:M61" si="64">K60^2*F60</f>
+        <f t="shared" ref="M60:M61" si="57">K60^2*F60</f>
         <v>12544</v>
       </c>
       <c r="N60" s="26">
-        <f t="shared" ref="N60:N61" si="65">E60^2*F60*G60</f>
+        <f t="shared" ref="N60:N61" si="58">E60^2*F60*G60</f>
         <v>16384</v>
       </c>
       <c r="O60" s="26">
-        <f t="shared" ref="O60:O61" si="66">G60</f>
+        <f t="shared" ref="O60:O61" si="59">G60</f>
         <v>256</v>
       </c>
       <c r="P60" s="26">
-        <f t="shared" ref="P60:P61" si="67">N60+O60</f>
+        <f t="shared" ref="P60:P61" si="60">N60+O60</f>
         <v>16640</v>
       </c>
       <c r="Q60" s="45" t="str">
@@ -5442,15 +5439,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S60" s="12" t="str">
-        <f t="shared" ref="S60:S61" si="68">DEC2HEX(K60^2,4)&amp;"_"&amp;DEC2HEX(K60,2)&amp;DEC2HEX(E60,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K60^2,4)&amp;"_"&amp;DEC2HEX(K60,2)&amp;DEC2HEX(K58,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T60" s="33">
         <f>T58+P58</f>
         <v>562240</v>
       </c>
       <c r="U60" s="12" t="str">
-        <f t="shared" ref="U60:U61" si="69">DEC2HEX(T60,8)</f>
+        <f t="shared" ref="U60:U61" si="61">DEC2HEX(T60,8)</f>
         <v>00089440</v>
       </c>
       <c r="V60" s="33">
@@ -5458,7 +5455,7 @@
         <v>3615387</v>
       </c>
       <c r="W60" s="12" t="str">
-        <f t="shared" ref="W60:W61" si="70">DEC2HEX(V60,8)</f>
+        <f t="shared" ref="W60:W61" si="62">DEC2HEX(V60,8)</f>
         <v>00372A9B</v>
       </c>
       <c r="X60" s="33">
@@ -5466,7 +5463,7 @@
         <v>3627931</v>
       </c>
       <c r="Y60" s="13" t="str">
-        <f t="shared" ref="Y60:Y61" si="71">DEC2HEX(X60,8)</f>
+        <f t="shared" ref="Y60:Y61" si="63">DEC2HEX(X60,8)</f>
         <v>00375B9B</v>
       </c>
       <c r="Z60" s="2">
@@ -5485,7 +5482,7 @@
       </c>
       <c r="AD60" s="20"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -5514,29 +5511,29 @@
         <v>1</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K61" s="26">
         <v>14</v>
       </c>
       <c r="L61" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>50176</v>
       </c>
       <c r="M61" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="57"/>
         <v>12544</v>
       </c>
       <c r="N61" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="58"/>
         <v>147456</v>
       </c>
       <c r="O61" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="59"/>
         <v>256</v>
       </c>
       <c r="P61" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="60"/>
         <v>147712</v>
       </c>
       <c r="Q61" s="45" t="str">
@@ -5548,15 +5545,15 @@
         <v>0100_0040</v>
       </c>
       <c r="S61" s="12" t="str">
-        <f t="shared" si="68"/>
-        <v>00C4_0E03</v>
+        <f>DEC2HEX(K61^2,4)&amp;"_"&amp;DEC2HEX(K61,2)&amp;DEC2HEX(K58,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T61" s="33">
         <f>T60+P60</f>
         <v>578880</v>
       </c>
       <c r="U61" s="12" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="61"/>
         <v>0008D540</v>
       </c>
       <c r="V61" s="33">
@@ -5564,7 +5561,7 @@
         <v>3615387</v>
       </c>
       <c r="W61" s="12" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="62"/>
         <v>00372A9B</v>
       </c>
       <c r="X61" s="33">
@@ -5572,7 +5569,7 @@
         <v>3678107</v>
       </c>
       <c r="Y61" s="13" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v>00381F9B</v>
       </c>
       <c r="Z61" s="2">
@@ -5591,7 +5588,7 @@
       </c>
       <c r="AD61" s="20"/>
     </row>
-    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
@@ -5627,7 +5624,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
@@ -5663,7 +5660,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
@@ -5678,7 +5675,7 @@
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K64" s="25">
         <v>14</v>
@@ -5703,7 +5700,7 @@
       <c r="AC64" s="1"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="38" t="s">
         <v>65</v>
       </c>
@@ -5739,7 +5736,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="20"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -5768,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K66" s="26">
         <v>14</v>
@@ -5802,8 +5799,8 @@
         <v>03E8_0200</v>
       </c>
       <c r="S66" s="12" t="str">
-        <f>DEC2HEX(K66^2,4)&amp;"_"&amp;DEC2HEX(K66,2)&amp;DEC2HEX(E66,2)</f>
-        <v>00C4_0E01</v>
+        <f>DEC2HEX(K66^2,4)&amp;"_"&amp;DEC2HEX(K66,2)&amp;DEC2HEX(K60,2)</f>
+        <v>00C4_0E0E</v>
       </c>
       <c r="T66" s="33">
         <f>T61+P61</f>
@@ -5845,7 +5842,7 @@
       </c>
       <c r="AD66" s="20"/>
     </row>
-    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>67</v>
       </c>
@@ -5881,7 +5878,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="20"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
@@ -5892,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E68" s="28">
         <v>14</v>
@@ -5935,7 +5932,7 @@
         <v>03E8_03E8</v>
       </c>
       <c r="S68" s="16" t="str">
-        <f>DEC2HEX(K68^2,4)&amp;"_"&amp;DEC2HEX(K68,2)&amp;DEC2HEX(E68,2)</f>
+        <f>DEC2HEX(K68^2,4)&amp;"_"&amp;DEC2HEX(K68,2)&amp;DEC2HEX(K66,2)</f>
         <v>0001_010E</v>
       </c>
       <c r="T68" s="35"/>
@@ -5975,7 +5972,7 @@
       </c>
       <c r="AD68" s="20"/>
     </row>
-    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -6011,7 +6008,7 @@
       <c r="AC69" s="1"/>
       <c r="AD69" s="20"/>
     </row>
-    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="24"/>
       <c r="C70" s="40"/>
@@ -6056,12 +6053,12 @@
         <v>49559.770468750008</v>
       </c>
       <c r="AC70" s="20">
-        <f t="shared" ref="AC70" si="72">SUM(AC4:AC69)</f>
+        <f t="shared" ref="AC70" si="64">SUM(AC4:AC69)</f>
         <v>417544.91999999993</v>
       </c>
       <c r="AD70" s="20"/>
     </row>
-    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="24"/>
       <c r="C71" s="40"/>
@@ -6103,15 +6100,7 @@
       <c r="AD71" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="AVE Pooling"/>
-        <filter val="Convolution"/>
-        <filter val="MAX Pooling"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
   <mergeCells count="9">
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="J1:P1"/>
@@ -6135,38 +6124,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E501AE-4D2D-491C-85E4-0C34FDA03C89}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+    <sheetView zoomScale="76" workbookViewId="0">
       <selection sqref="A1:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="H1" t="str">
         <f>LEFT(SUBSTITUTE(A1,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A1,"_",),4)</f>
@@ -6178,7 +6167,7 @@
       </c>
       <c r="J1" t="str">
         <f t="shared" si="0"/>
-        <v>31E1 7103</v>
+        <v>31E1 71E3</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" si="0"/>
@@ -6193,24 +6182,24 @@
         <v>000C 5BDB</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H30" si="1">LEFT(SUBSTITUTE(A2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A2,"_",),4)</f>
@@ -6222,7 +6211,7 @@
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J30" si="3">LEFT(SUBSTITUTE(C2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(C2,"_",),4)</f>
-        <v>0C40 3803</v>
+        <v>0C40 3871</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K30" si="4">LEFT(SUBSTITUTE(D2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(D2,"_",),4)</f>
@@ -6237,24 +6226,24 @@
         <v>0018 D41B</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
@@ -6266,7 +6255,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3801</v>
+        <v>0C40 3838</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="4"/>
@@ -6281,24 +6270,24 @@
         <v>001B E41B</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
@@ -6310,7 +6299,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3801</v>
+        <v>0C40 3838</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="4"/>
@@ -6325,24 +6314,24 @@
         <v>001C A81B</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
@@ -6354,7 +6343,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3803</v>
+        <v>0C40 3838</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="4"/>
@@ -6369,24 +6358,24 @@
         <v>001F B81B</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -6398,7 +6387,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3801</v>
+        <v>0C40 3838</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
@@ -6413,24 +6402,24 @@
         <v>0022 C81B</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -6442,7 +6431,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3801</v>
+        <v>0C40 3838</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="4"/>
@@ -6457,24 +6446,24 @@
         <v>0023 8C1B</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -6486,7 +6475,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3803</v>
+        <v>0C40 3838</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="4"/>
@@ -6501,24 +6490,24 @@
         <v>0026 9C1B</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -6530,7 +6519,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C03</v>
+        <v>0310 1C38</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="4"/>
@@ -6545,24 +6534,24 @@
         <v>0029 AC1B</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -6574,7 +6563,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C01</v>
+        <v>0310 1C1C</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="4"/>
@@ -6589,24 +6578,24 @@
         <v>002B 341B</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -6618,7 +6607,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C01</v>
+        <v>0310 1C1C</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="4"/>
@@ -6633,24 +6622,24 @@
         <v>002B 961B</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -6662,7 +6651,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C03</v>
+        <v>0310 1C1C</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="4"/>
@@ -6677,24 +6666,24 @@
         <v>002D 1E1B</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -6706,7 +6695,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C01</v>
+        <v>0310 1C1C</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="4"/>
@@ -6721,24 +6710,24 @@
         <v>002E A61B</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -6750,7 +6739,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C01</v>
+        <v>0310 1C1C</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="4"/>
@@ -6765,24 +6754,24 @@
         <v>002F 081B</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="F15" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -6794,7 +6783,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C03</v>
+        <v>0310 1C1C</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="4"/>
@@ -6809,24 +6798,24 @@
         <v>0030 901B</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
@@ -6838,7 +6827,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E03</v>
+        <v>00C4 0E1C</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="4"/>
@@ -6853,24 +6842,24 @@
         <v>0032 181B</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
@@ -6882,7 +6871,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="4"/>
@@ -6897,24 +6886,24 @@
         <v>0032 DC1B</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
@@ -6926,7 +6915,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="4"/>
@@ -6941,24 +6930,24 @@
         <v>0033 00DB</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
@@ -6970,7 +6959,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E03</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="4"/>
@@ -6985,24 +6974,24 @@
         <v>0033 93DB</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -7014,7 +7003,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="4"/>
@@ -7029,24 +7018,24 @@
         <v>0034 26DB</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="C21" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -7058,7 +7047,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
@@ -7073,24 +7062,24 @@
         <v>0034 4B9B</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>169</v>
-      </c>
       <c r="F22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -7102,7 +7091,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E03</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="4"/>
@@ -7117,24 +7106,24 @@
         <v>0034 DE9B</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
@@ -7146,7 +7135,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="4"/>
@@ -7161,24 +7150,24 @@
         <v>0035 719B</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
@@ -7190,7 +7179,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="4"/>
@@ -7205,24 +7194,24 @@
         <v>0035 A29B</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
@@ -7234,7 +7223,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E03</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
@@ -7249,24 +7238,24 @@
         <v>0036 669B</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
@@ -7278,7 +7267,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
@@ -7293,24 +7282,24 @@
         <v>0037 2A9B</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
@@ -7322,7 +7311,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="4"/>
@@ -7337,24 +7326,24 @@
         <v>0037 5B9B</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>179</v>
-      </c>
       <c r="F28" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
@@ -7366,7 +7355,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E03</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="4"/>
@@ -7381,24 +7370,24 @@
         <v>0038 1F9B</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="C29" s="12" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E29" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
@@ -7410,7 +7399,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
-        <v>00C4 0E01</v>
+        <v>00C4 0E0E</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="4"/>
@@ -7425,24 +7414,24 @@
         <v>0038 E39B</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B2FF0A-75F6-4546-9799-094F2568F573}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13666504-F3D4-4B59-B815-0DE4A5F491F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="229">
   <si>
     <t>INPUT</t>
   </si>
@@ -463,15 +463,9 @@
     <t>001CA81B</t>
   </si>
   <si>
-    <t>00400_103</t>
-  </si>
-  <si>
     <t>001FB81B</t>
   </si>
   <si>
-    <t>02400_113</t>
-  </si>
-  <si>
     <t>0022C81B</t>
   </si>
   <si>
@@ -496,15 +490,9 @@
     <t>002B961B</t>
   </si>
   <si>
-    <t>01000_103</t>
-  </si>
-  <si>
     <t>002D1E1B</t>
   </si>
   <si>
-    <t>09000_113</t>
-  </si>
-  <si>
     <t>002EA61B</t>
   </si>
   <si>
@@ -529,18 +517,12 @@
     <t>003300DB</t>
   </si>
   <si>
-    <t>02400_103</t>
-  </si>
-  <si>
     <t>00C0_0030</t>
   </si>
   <si>
     <t>003393DB</t>
   </si>
   <si>
-    <t>14400_113</t>
-  </si>
-  <si>
     <t>003426DB</t>
   </si>
   <si>
@@ -562,15 +544,9 @@
     <t>0035A29B</t>
   </si>
   <si>
-    <t>04000_103</t>
-  </si>
-  <si>
     <t>0036669B</t>
   </si>
   <si>
-    <t>24000_113</t>
-  </si>
-  <si>
     <t>00372A9B</t>
   </si>
   <si>
@@ -719,6 +695,33 @@
   </si>
   <si>
     <t>00C4_0E0E</t>
+  </si>
+  <si>
+    <t>00400_102</t>
+  </si>
+  <si>
+    <t>02400_111</t>
+  </si>
+  <si>
+    <t>01000_102</t>
+  </si>
+  <si>
+    <t>09000_111</t>
+  </si>
+  <si>
+    <t>02400_102</t>
+  </si>
+  <si>
+    <t>14400_111</t>
+  </si>
+  <si>
+    <t>04000_102</t>
+  </si>
+  <si>
+    <t>24000_111</t>
+  </si>
+  <si>
+    <t>op_num</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,6 +1000,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,9 +1353,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
-  <dimension ref="A1:AD71"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:R68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1358,71 +1367,74 @@
     <col min="3" max="3" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="30"/>
-    <col min="10" max="10" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="30"/>
-    <col min="13" max="13" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" style="30" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.1796875" style="37" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="30"/>
+    <col min="7" max="7" width="6.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" style="30"/>
+    <col min="11" max="11" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="30"/>
+    <col min="14" max="14" width="10.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.90625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" style="31" customWidth="1"/>
+    <col min="23" max="23" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" style="31" customWidth="1"/>
+    <col min="25" max="25" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" style="43" customWidth="1"/>
+    <col min="27" max="27" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="22"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="53"/>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
       <c r="Y1" s="57"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1432,77 +1444,80 @@
       <c r="C2" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="O2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="Q2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="T2" s="58" t="s">
+      <c r="S2" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="U2" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58" t="s">
+      <c r="V2" s="59"/>
+      <c r="W2" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="20" t="s">
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AE2" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1513,46 +1528,47 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="25">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25">
         <v>3</v>
       </c>
-      <c r="H3" s="25"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="25">
+      <c r="L3" s="25">
         <v>227</v>
       </c>
-      <c r="L3" s="25">
-        <f>K3^2*G3</f>
+      <c r="M3" s="25">
+        <f>L3^2*H3</f>
         <v>154587</v>
       </c>
-      <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="10"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="44"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="1"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="11"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1">
-        <f>L3/64*0.97</f>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1">
+        <f>M3/64*0.97</f>
         <v>2342.9592187499998</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1572,91 +1588,95 @@
         <v>3</v>
       </c>
       <c r="G4" s="26">
+        <f>E4^2*F4</f>
+        <v>27</v>
+      </c>
+      <c r="H4" s="26">
         <v>64</v>
       </c>
-      <c r="H4" s="26">
+      <c r="I4" s="26">
         <v>2</v>
       </c>
-      <c r="I4" s="26">
+      <c r="J4" s="26">
         <v>0</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="K4" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="26">
+      <c r="L4" s="26">
         <v>113</v>
       </c>
-      <c r="L4" s="26">
-        <f>K4^2*G4</f>
+      <c r="M4" s="26">
+        <f>L4^2*H4</f>
         <v>817216</v>
       </c>
-      <c r="M4" s="26">
-        <f>K4^2*F4</f>
+      <c r="N4" s="26">
+        <f>L4^2*F4</f>
         <v>38307</v>
       </c>
-      <c r="N4" s="26">
-        <f>E4^2*F4*G4</f>
+      <c r="O4" s="26">
+        <f>E4^2*F4*H4</f>
         <v>1728</v>
       </c>
-      <c r="O4" s="26">
-        <f>G4</f>
+      <c r="P4" s="26">
+        <f>H4</f>
         <v>64</v>
       </c>
-      <c r="P4" s="26">
-        <f>N4+O4</f>
+      <c r="Q4" s="26">
+        <f>O4+P4</f>
         <v>1792</v>
       </c>
-      <c r="Q4" s="45" t="str">
-        <f>DEC2HEX(N4,5)&amp;"_"&amp;DEC2HEX(H4,1)&amp;DEC2HEX(I4,1)&amp;DEC2HEX(C4,1)</f>
-        <v>006C0_202</v>
-      </c>
-      <c r="R4" s="12" t="str">
-        <f>DEC2HEX(G4,4)&amp;"_"&amp;DEC2HEX(F4,4)</f>
+      <c r="R4" s="45" t="str">
+        <f>DEC2HEX(G4,4)&amp;"_0"&amp;DEC2HEX(I4,1)&amp;DEC2HEX(J4,1)&amp;DEC2HEX(C4,1)</f>
+        <v>001B_0202</v>
+      </c>
+      <c r="S4" s="12" t="str">
+        <f>DEC2HEX(H4,4)&amp;"_"&amp;DEC2HEX(F4,4)</f>
         <v>0040_0003</v>
       </c>
-      <c r="S4" s="12" t="str">
-        <f>DEC2HEX(K4^2,4)&amp;"_"&amp;DEC2HEX(K4,2)&amp;DEC2HEX(K3,2)</f>
+      <c r="T4" s="12" t="str">
+        <f>DEC2HEX(L4^2,4)&amp;"_"&amp;DEC2HEX(L4,2)&amp;DEC2HEX(L3,2)</f>
         <v>31E1_71E3</v>
       </c>
-      <c r="T4" s="33">
+      <c r="U4" s="33">
         <v>4096</v>
       </c>
-      <c r="U4" s="12" t="str">
-        <f>DEC2HEX(T4,8)</f>
+      <c r="V4" s="12" t="str">
+        <f>DEC2HEX(U4,8)</f>
         <v>00001000</v>
       </c>
-      <c r="V4" s="33">
+      <c r="W4" s="33">
         <v>655360</v>
       </c>
-      <c r="W4" s="12" t="str">
-        <f>DEC2HEX(V4,8)</f>
+      <c r="X4" s="12" t="str">
+        <f>DEC2HEX(W4,8)</f>
         <v>000A0000</v>
       </c>
-      <c r="X4" s="33">
-        <f>V4+L3</f>
+      <c r="Y4" s="33">
+        <f>W4+M3</f>
         <v>809947</v>
       </c>
-      <c r="Y4" s="13" t="str">
-        <f>DEC2HEX(X4,8)</f>
+      <c r="Z4" s="13" t="str">
+        <f>DEC2HEX(Y4,8)</f>
         <v>000C5BDB</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AA4" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
       <c r="AB4" s="2">
-        <f>L4/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>M4/64*0.97</f>
         <v>12385.93</v>
       </c>
-      <c r="AC4" s="2">
-        <f>M4*Z4*AA4</f>
+      <c r="AD4" s="2">
+        <f>N4*AA4*AB4</f>
         <v>7661.4000000000005</v>
       </c>
-      <c r="AD4" s="20"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE4" s="20"/>
+    </row>
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1677,22 +1697,23 @@
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="14"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="46"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="3"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="15"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="20"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="20"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1712,81 +1733,85 @@
         <v>1</v>
       </c>
       <c r="G6" s="28">
+        <f>E6^2*F6</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="28">
         <v>64</v>
       </c>
-      <c r="H6" s="28">
+      <c r="I6" s="28">
         <v>2</v>
       </c>
-      <c r="I6" s="28">
+      <c r="J6" s="28">
         <v>0</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="K6" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="28">
+      <c r="L6" s="28">
         <v>56</v>
       </c>
-      <c r="L6" s="28">
-        <f>K6^2*G6</f>
+      <c r="M6" s="28">
+        <f>L6^2*H6</f>
         <v>200704</v>
       </c>
-      <c r="M6" s="28">
-        <f>L6</f>
+      <c r="N6" s="28">
+        <f>M6</f>
         <v>200704</v>
       </c>
-      <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
-      <c r="Q6" s="47" t="str">
-        <f>DEC2HEX(E6^2*F6,5)&amp;"_"&amp;DEC2HEX(H6,1)&amp;DEC2HEX(I6,1)&amp;DEC2HEX(C6,1)</f>
-        <v>00009_204</v>
-      </c>
-      <c r="R6" s="16" t="str">
-        <f>DEC2HEX(G6,4)&amp;"_"&amp;DEC2HEX(G6,4)</f>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="47" t="str">
+        <f>DEC2HEX(G6,4)&amp;"_0"&amp;DEC2HEX(I6,1)&amp;DEC2HEX(J6,1)&amp;DEC2HEX(C6,1)</f>
+        <v>0009_0204</v>
+      </c>
+      <c r="S6" s="16" t="str">
+        <f>DEC2HEX(H6,4)&amp;"_"&amp;DEC2HEX(H6,4)</f>
         <v>0040_0040</v>
       </c>
-      <c r="S6" s="16" t="str">
-        <f>DEC2HEX(K6^2,4)&amp;"_"&amp;DEC2HEX(K6,2)&amp;DEC2HEX(K4,2)</f>
+      <c r="T6" s="16" t="str">
+        <f>DEC2HEX(L6^2,4)&amp;"_"&amp;DEC2HEX(L6,2)&amp;DEC2HEX(L4,2)</f>
         <v>0C40_3871</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="16" t="str">
+      <c r="U6" s="35"/>
+      <c r="V6" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="V6" s="35">
-        <f>X4</f>
+      <c r="W6" s="35">
+        <f>Y4</f>
         <v>809947</v>
       </c>
-      <c r="W6" s="16" t="str">
-        <f>DEC2HEX(V6,8)</f>
+      <c r="X6" s="16" t="str">
+        <f>DEC2HEX(W6,8)</f>
         <v>000C5BDB</v>
       </c>
-      <c r="X6" s="35">
-        <f>V6+L4</f>
+      <c r="Y6" s="35">
+        <f>W6+M4</f>
         <v>1627163</v>
       </c>
-      <c r="Y6" s="17" t="str">
-        <f>DEC2HEX(X6,8)</f>
+      <c r="Z6" s="17" t="str">
+        <f>DEC2HEX(Y6,8)</f>
         <v>0018D41B</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AA6" s="4">
         <v>0.31</v>
       </c>
-      <c r="AA6" s="4">
-        <v>1</v>
-      </c>
       <c r="AB6" s="4">
-        <f>L6/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>M6/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AC6" s="4">
-        <f>M6*Z6*AA6</f>
+      <c r="AD6" s="4">
+        <f>N6*AA6*AB6</f>
         <v>62218.239999999998</v>
       </c>
-      <c r="AD6" s="20"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE6" s="20"/>
+    </row>
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1806,93 +1831,97 @@
         <v>64</v>
       </c>
       <c r="G7" s="26">
+        <f>E7^2*F7</f>
+        <v>64</v>
+      </c>
+      <c r="H7" s="26">
         <v>16</v>
       </c>
-      <c r="H7" s="26">
-        <v>1</v>
-      </c>
       <c r="I7" s="26">
+        <v>1</v>
+      </c>
+      <c r="J7" s="26">
         <v>0</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="26">
+      <c r="L7" s="26">
         <v>56</v>
       </c>
-      <c r="L7" s="26">
-        <f>K7^2*G7</f>
+      <c r="M7" s="26">
+        <f>L7^2*H7</f>
         <v>50176</v>
       </c>
-      <c r="M7" s="26">
-        <f>K7^2*F7</f>
+      <c r="N7" s="26">
+        <f>L7^2*F7</f>
         <v>200704</v>
       </c>
-      <c r="N7" s="26">
-        <f>E7^2*F7*G7</f>
+      <c r="O7" s="26">
+        <f>E7^2*F7*H7</f>
         <v>1024</v>
       </c>
-      <c r="O7" s="26">
-        <f>G7</f>
+      <c r="P7" s="26">
+        <f>H7</f>
         <v>16</v>
       </c>
-      <c r="P7" s="26">
-        <f>N7+O7</f>
+      <c r="Q7" s="26">
+        <f>O7+P7</f>
         <v>1040</v>
       </c>
-      <c r="Q7" s="45" t="str">
-        <f>DEC2HEX(N7,5)&amp;"_"&amp;DEC2HEX(H7,1)&amp;DEC2HEX(I7,1)&amp;DEC2HEX(C7,1)</f>
-        <v>00400_101</v>
-      </c>
-      <c r="R7" s="12" t="str">
-        <f>DEC2HEX(G7,4)&amp;"_"&amp;DEC2HEX(F7,4)</f>
+      <c r="R7" s="45" t="str">
+        <f>DEC2HEX(G7,4)&amp;"_0"&amp;DEC2HEX(I7,1)&amp;DEC2HEX(J7,1)&amp;DEC2HEX(C7,1)</f>
+        <v>0040_0101</v>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>DEC2HEX(H7,4)&amp;"_"&amp;DEC2HEX(F7,4)</f>
         <v>0010_0040</v>
       </c>
-      <c r="S7" s="12" t="str">
-        <f>DEC2HEX(K7^2,4)&amp;"_"&amp;DEC2HEX(K7,2)&amp;DEC2HEX(K6,2)</f>
+      <c r="T7" s="12" t="str">
+        <f>DEC2HEX(L7^2,4)&amp;"_"&amp;DEC2HEX(L7,2)&amp;DEC2HEX(L6,2)</f>
         <v>0C40_3838</v>
       </c>
-      <c r="T7" s="33">
-        <f>T4+P4</f>
+      <c r="U7" s="33">
+        <f>U4+Q4</f>
         <v>5888</v>
       </c>
-      <c r="U7" s="12" t="str">
-        <f>DEC2HEX(T7,8)</f>
+      <c r="V7" s="12" t="str">
+        <f>DEC2HEX(U7,8)</f>
         <v>00001700</v>
       </c>
-      <c r="V7" s="33">
-        <f>X6</f>
+      <c r="W7" s="33">
+        <f>Y6</f>
         <v>1627163</v>
       </c>
-      <c r="W7" s="12" t="str">
-        <f>DEC2HEX(V7,8)</f>
+      <c r="X7" s="12" t="str">
+        <f>DEC2HEX(W7,8)</f>
         <v>0018D41B</v>
       </c>
-      <c r="X7" s="33">
-        <f>V7+L6</f>
+      <c r="Y7" s="33">
+        <f>W7+M6</f>
         <v>1827867</v>
       </c>
-      <c r="Y7" s="13" t="str">
-        <f>DEC2HEX(X7,8)</f>
+      <c r="Z7" s="13" t="str">
+        <f>DEC2HEX(Y7,8)</f>
         <v>001BE41B</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
       <c r="AB7" s="2">
-        <f>L7/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>M7/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AC7" s="2">
-        <f>M7*Z7*AA7</f>
+      <c r="AD7" s="2">
+        <f>N7*AA7*AB7</f>
         <v>40140.800000000003</v>
       </c>
-      <c r="AD7" s="20"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE7" s="20"/>
+    </row>
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1913,22 +1942,23 @@
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="14"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="46"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="3"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="15"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="20"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>86</v>
@@ -1948,93 +1978,97 @@
         <v>16</v>
       </c>
       <c r="G9" s="26">
+        <f t="shared" ref="G9:G10" si="0">E9^2*F9</f>
+        <v>16</v>
+      </c>
+      <c r="H9" s="26">
         <v>64</v>
       </c>
-      <c r="H9" s="26">
-        <v>1</v>
-      </c>
       <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="J9" s="26">
         <v>0</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="K9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="26">
+      <c r="L9" s="26">
         <v>56</v>
       </c>
-      <c r="L9" s="26">
-        <f t="shared" ref="L9:L10" si="0">K9^2*G9</f>
+      <c r="M9" s="26">
+        <f t="shared" ref="M9:M10" si="1">L9^2*H9</f>
         <v>200704</v>
       </c>
-      <c r="M9" s="26">
-        <f t="shared" ref="M9:M10" si="1">K9^2*F9</f>
+      <c r="N9" s="26">
+        <f t="shared" ref="N9:N10" si="2">L9^2*F9</f>
         <v>50176</v>
       </c>
-      <c r="N9" s="26">
-        <f t="shared" ref="N9:N10" si="2">E9^2*F9*G9</f>
+      <c r="O9" s="26">
+        <f t="shared" ref="O9:O10" si="3">E9^2*F9*H9</f>
         <v>1024</v>
       </c>
-      <c r="O9" s="26">
-        <f t="shared" ref="O9:O10" si="3">G9</f>
+      <c r="P9" s="26">
+        <f t="shared" ref="P9:P10" si="4">H9</f>
         <v>64</v>
       </c>
-      <c r="P9" s="26">
-        <f t="shared" ref="P9:P10" si="4">N9+O9</f>
+      <c r="Q9" s="26">
+        <f t="shared" ref="Q9:Q10" si="5">O9+P9</f>
         <v>1088</v>
       </c>
-      <c r="Q9" s="45" t="str">
-        <f>DEC2HEX(N9,5)&amp;"_"&amp;DEC2HEX(H9,1)&amp;DEC2HEX(I9,1)&amp;DEC2HEX(C9,1)</f>
-        <v>00400_103</v>
-      </c>
-      <c r="R9" s="12" t="str">
-        <f>DEC2HEX(G9,4)&amp;"_"&amp;DEC2HEX(F9,4)</f>
+      <c r="R9" s="45" t="str">
+        <f t="shared" ref="R9:R10" si="6">DEC2HEX(G9,4)&amp;"_0"&amp;DEC2HEX(I9,1)&amp;DEC2HEX(J9,1)&amp;DEC2HEX(C9,1)</f>
+        <v>0010_0102</v>
+      </c>
+      <c r="S9" s="12" t="str">
+        <f>DEC2HEX(H9,4)&amp;"_"&amp;DEC2HEX(F9,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="S9" s="12" t="str">
-        <f>DEC2HEX(K9^2,4)&amp;"_"&amp;DEC2HEX(K9,2)&amp;DEC2HEX(K7,2)</f>
+      <c r="T9" s="12" t="str">
+        <f>DEC2HEX(L9^2,4)&amp;"_"&amp;DEC2HEX(L9,2)&amp;DEC2HEX(L7,2)</f>
         <v>0C40_3838</v>
       </c>
-      <c r="T9" s="33">
-        <f>T7+P7</f>
+      <c r="U9" s="33">
+        <f>U7+Q7</f>
         <v>6928</v>
       </c>
-      <c r="U9" s="12" t="str">
-        <f t="shared" ref="U9:U10" si="5">DEC2HEX(T9,8)</f>
+      <c r="V9" s="12" t="str">
+        <f t="shared" ref="V9:V10" si="7">DEC2HEX(U9,8)</f>
         <v>00001B10</v>
       </c>
-      <c r="V9" s="33">
-        <f>X7</f>
+      <c r="W9" s="33">
+        <f>Y7</f>
         <v>1827867</v>
       </c>
-      <c r="W9" s="12" t="str">
-        <f t="shared" ref="W9:W10" si="6">DEC2HEX(V9,8)</f>
+      <c r="X9" s="12" t="str">
+        <f t="shared" ref="X9:X10" si="8">DEC2HEX(W9,8)</f>
         <v>001BE41B</v>
       </c>
-      <c r="X9" s="33">
-        <f>V9+L7</f>
+      <c r="Y9" s="33">
+        <f>W9+M7</f>
         <v>1878043</v>
       </c>
-      <c r="Y9" s="13" t="str">
-        <f t="shared" ref="Y9:Y10" si="7">DEC2HEX(X9,8)</f>
+      <c r="Z9" s="13" t="str">
+        <f t="shared" ref="Z9:Z10" si="9">DEC2HEX(Y9,8)</f>
         <v>001CA81B</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AA9" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AB9" s="2">
         <v>0</v>
       </c>
-      <c r="AB9" s="2">
-        <f>L9/64*0.97</f>
+      <c r="AC9" s="2">
+        <f>M9/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AC9" s="2">
-        <f>M9*Z9*AA9</f>
+      <c r="AD9" s="2">
+        <f>N9*AA9*AB9</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="20"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE9" s="20"/>
+    </row>
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2042,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>82</v>
@@ -2054,93 +2088,97 @@
         <v>16</v>
       </c>
       <c r="G10" s="26">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="H10" s="26">
         <v>64</v>
       </c>
-      <c r="H10" s="26">
-        <v>1</v>
-      </c>
       <c r="I10" s="26">
         <v>1</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="26">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="26">
+      <c r="L10" s="26">
         <v>56</v>
-      </c>
-      <c r="L10" s="26">
-        <f t="shared" si="0"/>
-        <v>200704</v>
       </c>
       <c r="M10" s="26">
         <f t="shared" si="1"/>
-        <v>50176</v>
+        <v>200704</v>
       </c>
       <c r="N10" s="26">
         <f t="shared" si="2"/>
-        <v>9216</v>
+        <v>50176</v>
       </c>
       <c r="O10" s="26">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>9216</v>
       </c>
       <c r="P10" s="26">
         <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="Q10" s="26">
+        <f t="shared" si="5"/>
         <v>9280</v>
       </c>
-      <c r="Q10" s="45" t="str">
-        <f>DEC2HEX(N10,5)&amp;"_"&amp;DEC2HEX(H10,1)&amp;DEC2HEX(I10,1)&amp;DEC2HEX(C10,1)</f>
-        <v>02400_113</v>
-      </c>
-      <c r="R10" s="12" t="str">
-        <f>DEC2HEX(G10,4)&amp;"_"&amp;DEC2HEX(F10,4)</f>
+      <c r="R10" s="45" t="str">
+        <f t="shared" si="6"/>
+        <v>0090_0111</v>
+      </c>
+      <c r="S10" s="12" t="str">
+        <f>DEC2HEX(H10,4)&amp;"_"&amp;DEC2HEX(F10,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="S10" s="12" t="str">
-        <f>DEC2HEX(K10^2,4)&amp;"_"&amp;DEC2HEX(K10,2)&amp;DEC2HEX(K7,2)</f>
+      <c r="T10" s="12" t="str">
+        <f>DEC2HEX(L10^2,4)&amp;"_"&amp;DEC2HEX(L10,2)&amp;DEC2HEX(L7,2)</f>
         <v>0C40_3838</v>
       </c>
-      <c r="T10" s="33">
-        <f>T9+P9</f>
+      <c r="U10" s="33">
+        <f>U9+Q9</f>
         <v>8016</v>
       </c>
-      <c r="U10" s="12" t="str">
-        <f t="shared" si="5"/>
+      <c r="V10" s="12" t="str">
+        <f t="shared" si="7"/>
         <v>00001F50</v>
       </c>
-      <c r="V10" s="33">
-        <f>X7</f>
+      <c r="W10" s="33">
+        <f>Y7</f>
         <v>1827867</v>
       </c>
-      <c r="W10" s="12" t="str">
-        <f t="shared" si="6"/>
+      <c r="X10" s="12" t="str">
+        <f t="shared" si="8"/>
         <v>001BE41B</v>
       </c>
-      <c r="X10" s="33">
-        <f>V10++L7+L9</f>
+      <c r="Y10" s="33">
+        <f>W10++M7+M9</f>
         <v>2078747</v>
       </c>
-      <c r="Y10" s="13" t="str">
-        <f t="shared" si="7"/>
+      <c r="Z10" s="13" t="str">
+        <f t="shared" si="9"/>
         <v>001FB81B</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AA10" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
       <c r="AB10" s="2">
-        <f>L10/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <f>M10/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AC10" s="2">
-        <f>M10*Z10*AA10</f>
+      <c r="AD10" s="2">
+        <f>N10*AA10*AB10</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AD10" s="20"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2161,22 +2199,23 @@
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="14"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="3"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="15"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="20"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="20"/>
+    </row>
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2197,22 +2236,23 @@
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="14"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="46"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="3"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="15"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="20"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="20"/>
+    </row>
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2226,33 +2266,34 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="25">
+      <c r="L13" s="25">
         <v>56</v>
       </c>
-      <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="10"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="44"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="1"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="11"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="20"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="20"/>
+    </row>
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2272,93 +2313,97 @@
         <v>128</v>
       </c>
       <c r="G14" s="26">
+        <f>E14^2*F14</f>
+        <v>128</v>
+      </c>
+      <c r="H14" s="26">
         <v>16</v>
       </c>
-      <c r="H14" s="26">
-        <v>1</v>
-      </c>
       <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="K14" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="26">
+      <c r="L14" s="26">
         <v>56</v>
       </c>
-      <c r="L14" s="26">
-        <f>K14^2*G14</f>
+      <c r="M14" s="26">
+        <f>L14^2*H14</f>
         <v>50176</v>
       </c>
-      <c r="M14" s="26">
-        <f>K14^2*F14</f>
+      <c r="N14" s="26">
+        <f>L14^2*F14</f>
         <v>401408</v>
       </c>
-      <c r="N14" s="26">
-        <f>E14^2*F14*G14</f>
+      <c r="O14" s="26">
+        <f>E14^2*F14*H14</f>
         <v>2048</v>
       </c>
-      <c r="O14" s="26">
-        <f>G14</f>
+      <c r="P14" s="26">
+        <f>H14</f>
         <v>16</v>
       </c>
-      <c r="P14" s="26">
-        <f>N14+O14</f>
+      <c r="Q14" s="26">
+        <f>O14+P14</f>
         <v>2064</v>
       </c>
-      <c r="Q14" s="45" t="str">
-        <f>DEC2HEX(N14,5)&amp;"_"&amp;DEC2HEX(H14,1)&amp;DEC2HEX(I14,1)&amp;DEC2HEX(C14,1)</f>
-        <v>00800_101</v>
-      </c>
-      <c r="R14" s="12" t="str">
-        <f>DEC2HEX(G14,4)&amp;"_"&amp;DEC2HEX(F14,4)</f>
+      <c r="R14" s="45" t="str">
+        <f>DEC2HEX(G14,4)&amp;"_0"&amp;DEC2HEX(I14,1)&amp;DEC2HEX(J14,1)&amp;DEC2HEX(C14,1)</f>
+        <v>0080_0101</v>
+      </c>
+      <c r="S14" s="12" t="str">
+        <f>DEC2HEX(H14,4)&amp;"_"&amp;DEC2HEX(F14,4)</f>
         <v>0010_0080</v>
       </c>
-      <c r="S14" s="12" t="str">
-        <f>DEC2HEX(K14^2,4)&amp;"_"&amp;DEC2HEX(K14,2)&amp;DEC2HEX(K9,2)</f>
+      <c r="T14" s="12" t="str">
+        <f>DEC2HEX(L14^2,4)&amp;"_"&amp;DEC2HEX(L14,2)&amp;DEC2HEX(L9,2)</f>
         <v>0C40_3838</v>
       </c>
-      <c r="T14" s="33">
-        <f>T10+P10</f>
+      <c r="U14" s="33">
+        <f>U10+Q10</f>
         <v>17296</v>
       </c>
-      <c r="U14" s="12" t="str">
-        <f>DEC2HEX(T14,8)</f>
+      <c r="V14" s="12" t="str">
+        <f>DEC2HEX(U14,8)</f>
         <v>00004390</v>
       </c>
-      <c r="V14" s="33">
-        <f>X10</f>
+      <c r="W14" s="33">
+        <f>Y10</f>
         <v>2078747</v>
       </c>
-      <c r="W14" s="12" t="str">
-        <f>DEC2HEX(V14,8)</f>
+      <c r="X14" s="12" t="str">
+        <f>DEC2HEX(W14,8)</f>
         <v>001FB81B</v>
       </c>
-      <c r="X14" s="33">
-        <f>V14+L10</f>
+      <c r="Y14" s="33">
+        <f>W14+M10</f>
         <v>2279451</v>
       </c>
-      <c r="Y14" s="13" t="str">
-        <f>DEC2HEX(X14,8)</f>
+      <c r="Z14" s="13" t="str">
+        <f>DEC2HEX(Y14,8)</f>
         <v>0022C81B</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AA14" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
       <c r="AB14" s="2">
-        <f>L14/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="2">
+        <f>M14/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AC14" s="2">
-        <f>M14*Z14*AA14</f>
+      <c r="AD14" s="2">
+        <f>N14*AA14*AB14</f>
         <v>80281.600000000006</v>
       </c>
-      <c r="AD14" s="20"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE14" s="20"/>
+    </row>
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2379,22 +2424,23 @@
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="14"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="3"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="15"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="20"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2402,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>86</v>
@@ -2414,93 +2460,97 @@
         <v>16</v>
       </c>
       <c r="G16" s="26">
+        <f t="shared" ref="G16:G17" si="10">E16^2*F16</f>
+        <v>16</v>
+      </c>
+      <c r="H16" s="26">
         <v>64</v>
       </c>
-      <c r="H16" s="26">
-        <v>1</v>
-      </c>
       <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26">
         <v>0</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="K16" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="26">
+      <c r="L16" s="26">
         <v>56</v>
       </c>
-      <c r="L16" s="26">
-        <f t="shared" ref="L16:L17" si="8">K16^2*G16</f>
+      <c r="M16" s="26">
+        <f t="shared" ref="M16:M17" si="11">L16^2*H16</f>
         <v>200704</v>
       </c>
-      <c r="M16" s="26">
-        <f t="shared" ref="M16:M17" si="9">K16^2*F16</f>
+      <c r="N16" s="26">
+        <f t="shared" ref="N16:N17" si="12">L16^2*F16</f>
         <v>50176</v>
       </c>
-      <c r="N16" s="26">
-        <f t="shared" ref="N16:N17" si="10">E16^2*F16*G16</f>
+      <c r="O16" s="26">
+        <f t="shared" ref="O16:O17" si="13">E16^2*F16*H16</f>
         <v>1024</v>
       </c>
-      <c r="O16" s="26">
-        <f t="shared" ref="O16:O17" si="11">G16</f>
+      <c r="P16" s="26">
+        <f t="shared" ref="P16:P17" si="14">H16</f>
         <v>64</v>
       </c>
-      <c r="P16" s="26">
-        <f t="shared" ref="P16:P17" si="12">N16+O16</f>
+      <c r="Q16" s="26">
+        <f t="shared" ref="Q16:Q17" si="15">O16+P16</f>
         <v>1088</v>
       </c>
-      <c r="Q16" s="45" t="str">
-        <f>DEC2HEX(N16,5)&amp;"_"&amp;DEC2HEX(H16,1)&amp;DEC2HEX(I16,1)&amp;DEC2HEX(C16,1)</f>
-        <v>00400_103</v>
-      </c>
-      <c r="R16" s="12" t="str">
-        <f>DEC2HEX(G16,4)&amp;"_"&amp;DEC2HEX(F16,4)</f>
+      <c r="R16" s="45" t="str">
+        <f t="shared" ref="R16:R17" si="16">DEC2HEX(G16,4)&amp;"_0"&amp;DEC2HEX(I16,1)&amp;DEC2HEX(J16,1)&amp;DEC2HEX(C16,1)</f>
+        <v>0010_0102</v>
+      </c>
+      <c r="S16" s="12" t="str">
+        <f>DEC2HEX(H16,4)&amp;"_"&amp;DEC2HEX(F16,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="S16" s="12" t="str">
-        <f>DEC2HEX(K16^2,4)&amp;"_"&amp;DEC2HEX(K16,2)&amp;DEC2HEX(K14,2)</f>
+      <c r="T16" s="12" t="str">
+        <f>DEC2HEX(L16^2,4)&amp;"_"&amp;DEC2HEX(L16,2)&amp;DEC2HEX(L14,2)</f>
         <v>0C40_3838</v>
       </c>
-      <c r="T16" s="33">
-        <f>T14+P14</f>
+      <c r="U16" s="33">
+        <f>U14+Q14</f>
         <v>19360</v>
       </c>
-      <c r="U16" s="12" t="str">
-        <f t="shared" ref="U16:U17" si="13">DEC2HEX(T16,8)</f>
+      <c r="V16" s="12" t="str">
+        <f t="shared" ref="V16:V17" si="17">DEC2HEX(U16,8)</f>
         <v>00004BA0</v>
       </c>
-      <c r="V16" s="33">
-        <f>X14</f>
+      <c r="W16" s="33">
+        <f>Y14</f>
         <v>2279451</v>
       </c>
-      <c r="W16" s="12" t="str">
-        <f t="shared" ref="W16:W17" si="14">DEC2HEX(V16,8)</f>
+      <c r="X16" s="12" t="str">
+        <f t="shared" ref="X16:X17" si="18">DEC2HEX(W16,8)</f>
         <v>0022C81B</v>
       </c>
-      <c r="X16" s="33">
-        <f>V16+L14</f>
+      <c r="Y16" s="33">
+        <f>W16+M14</f>
         <v>2329627</v>
       </c>
-      <c r="Y16" s="13" t="str">
-        <f t="shared" ref="Y16:Y17" si="15">DEC2HEX(X16,8)</f>
+      <c r="Z16" s="13" t="str">
+        <f t="shared" ref="Z16:Z17" si="19">DEC2HEX(Y16,8)</f>
         <v>00238C1B</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AB16" s="2">
         <v>0</v>
       </c>
-      <c r="AB16" s="2">
-        <f>L16/64*0.97</f>
+      <c r="AC16" s="2">
+        <f>M16/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AC16" s="2">
-        <f>M16*Z16*AA16</f>
+      <c r="AD16" s="2">
+        <f>N16*AA16*AB16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="20"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2508,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>82</v>
@@ -2520,93 +2570,97 @@
         <v>16</v>
       </c>
       <c r="G17" s="26">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="H17" s="26">
         <v>64</v>
       </c>
-      <c r="H17" s="26">
-        <v>1</v>
-      </c>
       <c r="I17" s="26">
         <v>1</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="26">
+        <v>1</v>
+      </c>
+      <c r="K17" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="26">
+      <c r="L17" s="26">
         <v>56</v>
       </c>
-      <c r="L17" s="26">
-        <f t="shared" si="8"/>
+      <c r="M17" s="26">
+        <f t="shared" si="11"/>
         <v>200704</v>
       </c>
-      <c r="M17" s="26">
-        <f t="shared" si="9"/>
+      <c r="N17" s="26">
+        <f t="shared" si="12"/>
         <v>50176</v>
       </c>
-      <c r="N17" s="26">
-        <f t="shared" si="10"/>
+      <c r="O17" s="26">
+        <f t="shared" si="13"/>
         <v>9216</v>
       </c>
-      <c r="O17" s="26">
-        <f t="shared" si="11"/>
+      <c r="P17" s="26">
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="P17" s="26">
-        <f t="shared" si="12"/>
+      <c r="Q17" s="26">
+        <f t="shared" si="15"/>
         <v>9280</v>
       </c>
-      <c r="Q17" s="45" t="str">
-        <f>DEC2HEX(N17,5)&amp;"_"&amp;DEC2HEX(H17,1)&amp;DEC2HEX(I17,1)&amp;DEC2HEX(C17,1)</f>
-        <v>02400_113</v>
-      </c>
-      <c r="R17" s="12" t="str">
-        <f>DEC2HEX(G17,4)&amp;"_"&amp;DEC2HEX(F17,4)</f>
+      <c r="R17" s="45" t="str">
+        <f t="shared" si="16"/>
+        <v>0090_0111</v>
+      </c>
+      <c r="S17" s="12" t="str">
+        <f>DEC2HEX(H17,4)&amp;"_"&amp;DEC2HEX(F17,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="S17" s="12" t="str">
-        <f>DEC2HEX(K17^2,4)&amp;"_"&amp;DEC2HEX(K17,2)&amp;DEC2HEX(K14,2)</f>
+      <c r="T17" s="12" t="str">
+        <f>DEC2HEX(L17^2,4)&amp;"_"&amp;DEC2HEX(L17,2)&amp;DEC2HEX(L14,2)</f>
         <v>0C40_3838</v>
       </c>
-      <c r="T17" s="33">
-        <f>T16+P16</f>
+      <c r="U17" s="33">
+        <f>U16+Q16</f>
         <v>20448</v>
       </c>
-      <c r="U17" s="12" t="str">
-        <f t="shared" si="13"/>
+      <c r="V17" s="12" t="str">
+        <f t="shared" si="17"/>
         <v>00004FE0</v>
       </c>
-      <c r="V17" s="33">
-        <f>X14</f>
+      <c r="W17" s="33">
+        <f>Y14</f>
         <v>2279451</v>
       </c>
-      <c r="W17" s="12" t="str">
-        <f t="shared" si="14"/>
+      <c r="X17" s="12" t="str">
+        <f t="shared" si="18"/>
         <v>0022C81B</v>
       </c>
-      <c r="X17" s="33">
-        <f>V17++L14+L16</f>
+      <c r="Y17" s="33">
+        <f>W17++M14+M16</f>
         <v>2530331</v>
       </c>
-      <c r="Y17" s="13" t="str">
-        <f t="shared" si="15"/>
+      <c r="Z17" s="13" t="str">
+        <f t="shared" si="19"/>
         <v>00269C1B</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AA17" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
       <c r="AB17" s="2">
-        <f>L17/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2">
+        <f>M17/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AC17" s="2">
-        <f>M17*Z17*AA17</f>
+      <c r="AD17" s="2">
+        <f>N17*AA17*AB17</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AD17" s="20"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2627,22 +2681,23 @@
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="14"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="46"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="3"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="15"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="20"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -2663,22 +2718,23 @@
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="14"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="14"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="3"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="15"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="20"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="20"/>
+    </row>
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2692,33 +2748,34 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="25">
+      <c r="L20" s="25">
         <v>56</v>
       </c>
-      <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="10"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="44"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="1"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="11"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="20"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -2738,81 +2795,85 @@
         <v>1</v>
       </c>
       <c r="G21" s="28">
+        <f>E21^2*F21</f>
+        <v>9</v>
+      </c>
+      <c r="H21" s="28">
         <v>128</v>
       </c>
-      <c r="H21" s="28">
+      <c r="I21" s="28">
         <v>2</v>
       </c>
-      <c r="I21" s="28">
+      <c r="J21" s="28">
         <v>0</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="K21" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="28">
+      <c r="L21" s="28">
         <v>28</v>
       </c>
-      <c r="L21" s="28">
-        <f>K21^2*G21</f>
+      <c r="M21" s="28">
+        <f>L21^2*H21</f>
         <v>100352</v>
       </c>
-      <c r="M21" s="28">
-        <f>L21</f>
+      <c r="N21" s="28">
+        <f>M21</f>
         <v>100352</v>
       </c>
-      <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
-      <c r="Q21" s="47" t="str">
-        <f>DEC2HEX(E21^2*F21,5)&amp;"_"&amp;DEC2HEX(H21,1)&amp;DEC2HEX(I21,1)&amp;DEC2HEX(C21,1)</f>
-        <v>00009_204</v>
-      </c>
-      <c r="R21" s="16" t="str">
-        <f>DEC2HEX(G21,4)&amp;"_"&amp;DEC2HEX(G21,4)</f>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="47" t="str">
+        <f>DEC2HEX(G21,4)&amp;"_0"&amp;DEC2HEX(I21,1)&amp;DEC2HEX(J21,1)&amp;DEC2HEX(C21,1)</f>
+        <v>0009_0204</v>
+      </c>
+      <c r="S21" s="16" t="str">
+        <f>DEC2HEX(H21,4)&amp;"_"&amp;DEC2HEX(H21,4)</f>
         <v>0080_0080</v>
       </c>
-      <c r="S21" s="16" t="str">
-        <f>DEC2HEX(K21^2,4)&amp;"_"&amp;DEC2HEX(K21,2)&amp;DEC2HEX(K16,2)</f>
+      <c r="T21" s="16" t="str">
+        <f>DEC2HEX(L21^2,4)&amp;"_"&amp;DEC2HEX(L21,2)&amp;DEC2HEX(L16,2)</f>
         <v>0310_1C38</v>
       </c>
-      <c r="T21" s="35"/>
-      <c r="U21" s="16" t="str">
+      <c r="U21" s="35"/>
+      <c r="V21" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="V21" s="35">
-        <f>X17</f>
+      <c r="W21" s="35">
+        <f>Y17</f>
         <v>2530331</v>
       </c>
-      <c r="W21" s="16" t="str">
-        <f>DEC2HEX(V21,8)</f>
+      <c r="X21" s="16" t="str">
+        <f>DEC2HEX(W21,8)</f>
         <v>00269C1B</v>
       </c>
-      <c r="X21" s="35">
-        <f>V21+L17</f>
+      <c r="Y21" s="35">
+        <f>W21+M17</f>
         <v>2731035</v>
       </c>
-      <c r="Y21" s="17" t="str">
-        <f>DEC2HEX(X21,8)</f>
+      <c r="Z21" s="17" t="str">
+        <f>DEC2HEX(Y21,8)</f>
         <v>0029AC1B</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AA21" s="4">
         <v>0.31</v>
       </c>
-      <c r="AA21" s="4">
-        <v>1</v>
-      </c>
       <c r="AB21" s="4">
-        <f>L21/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <f>M21/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AC21" s="4">
-        <f>M21*Z21*AA21</f>
+      <c r="AD21" s="4">
+        <f>N21*AA21*AB21</f>
         <v>31109.119999999999</v>
       </c>
-      <c r="AD21" s="20"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE21" s="20"/>
+    </row>
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2832,93 +2893,97 @@
         <v>128</v>
       </c>
       <c r="G22" s="26">
+        <f>E22^2*F22</f>
+        <v>128</v>
+      </c>
+      <c r="H22" s="26">
         <v>32</v>
       </c>
-      <c r="H22" s="26">
-        <v>1</v>
-      </c>
       <c r="I22" s="26">
+        <v>1</v>
+      </c>
+      <c r="J22" s="26">
         <v>0</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="26">
+      <c r="L22" s="26">
         <v>28</v>
       </c>
-      <c r="L22" s="26">
-        <f>K22^2*G22</f>
+      <c r="M22" s="26">
+        <f>L22^2*H22</f>
         <v>25088</v>
       </c>
-      <c r="M22" s="26">
-        <f>K22^2*F22</f>
+      <c r="N22" s="26">
+        <f>L22^2*F22</f>
         <v>100352</v>
       </c>
-      <c r="N22" s="26">
-        <f>E22^2*F22*G22</f>
+      <c r="O22" s="26">
+        <f>E22^2*F22*H22</f>
         <v>4096</v>
       </c>
-      <c r="O22" s="26">
-        <f>G22</f>
+      <c r="P22" s="26">
+        <f>H22</f>
         <v>32</v>
       </c>
-      <c r="P22" s="26">
-        <f>N22+O22</f>
+      <c r="Q22" s="26">
+        <f>O22+P22</f>
         <v>4128</v>
       </c>
-      <c r="Q22" s="45" t="str">
-        <f>DEC2HEX(N22,5)&amp;"_"&amp;DEC2HEX(H22,1)&amp;DEC2HEX(I22,1)&amp;DEC2HEX(C22,1)</f>
-        <v>01000_101</v>
-      </c>
-      <c r="R22" s="12" t="str">
-        <f>DEC2HEX(G22,4)&amp;"_"&amp;DEC2HEX(F22,4)</f>
+      <c r="R22" s="45" t="str">
+        <f>DEC2HEX(G22,4)&amp;"_0"&amp;DEC2HEX(I22,1)&amp;DEC2HEX(J22,1)&amp;DEC2HEX(C22,1)</f>
+        <v>0080_0101</v>
+      </c>
+      <c r="S22" s="12" t="str">
+        <f>DEC2HEX(H22,4)&amp;"_"&amp;DEC2HEX(F22,4)</f>
         <v>0020_0080</v>
       </c>
-      <c r="S22" s="12" t="str">
-        <f>DEC2HEX(K22^2,4)&amp;"_"&amp;DEC2HEX(K22,2)&amp;DEC2HEX(K21,2)</f>
+      <c r="T22" s="12" t="str">
+        <f>DEC2HEX(L22^2,4)&amp;"_"&amp;DEC2HEX(L22,2)&amp;DEC2HEX(L21,2)</f>
         <v>0310_1C1C</v>
       </c>
-      <c r="T22" s="33">
-        <f>T17+P17</f>
+      <c r="U22" s="33">
+        <f>U17+Q17</f>
         <v>29728</v>
       </c>
-      <c r="U22" s="12" t="str">
-        <f>DEC2HEX(T22,8)</f>
+      <c r="V22" s="12" t="str">
+        <f>DEC2HEX(U22,8)</f>
         <v>00007420</v>
       </c>
-      <c r="V22" s="33">
-        <f>X21</f>
+      <c r="W22" s="33">
+        <f>Y21</f>
         <v>2731035</v>
       </c>
-      <c r="W22" s="12" t="str">
-        <f>DEC2HEX(V22,8)</f>
+      <c r="X22" s="12" t="str">
+        <f>DEC2HEX(W22,8)</f>
         <v>0029AC1B</v>
       </c>
-      <c r="X22" s="33">
-        <f>V22+L21</f>
+      <c r="Y22" s="33">
+        <f>W22+M21</f>
         <v>2831387</v>
       </c>
-      <c r="Y22" s="13" t="str">
-        <f>DEC2HEX(X22,8)</f>
+      <c r="Z22" s="13" t="str">
+        <f>DEC2HEX(Y22,8)</f>
         <v>002B341B</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AA22" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
       <c r="AB22" s="2">
-        <f>L22/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="2">
+        <f>M22/64*0.97</f>
         <v>380.24</v>
       </c>
-      <c r="AC22" s="2">
-        <f>M22*Z22*AA22</f>
+      <c r="AD22" s="2">
+        <f>N22*AA22*AB22</f>
         <v>20070.400000000001</v>
       </c>
-      <c r="AD22" s="20"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE22" s="20"/>
+    </row>
+    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2939,22 +3004,23 @@
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="14"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="46"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="3"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="15"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-      <c r="AD23" s="20"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="20"/>
+    </row>
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -2962,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>86</v>
@@ -2974,93 +3040,97 @@
         <v>32</v>
       </c>
       <c r="G24" s="26">
+        <f t="shared" ref="G24:G25" si="20">E24^2*F24</f>
+        <v>32</v>
+      </c>
+      <c r="H24" s="26">
         <v>128</v>
       </c>
-      <c r="H24" s="26">
-        <v>1</v>
-      </c>
       <c r="I24" s="26">
+        <v>1</v>
+      </c>
+      <c r="J24" s="26">
         <v>0</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="K24" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="26">
+      <c r="L24" s="26">
         <v>28</v>
       </c>
-      <c r="L24" s="26">
-        <f t="shared" ref="L24:L25" si="16">K24^2*G24</f>
+      <c r="M24" s="26">
+        <f t="shared" ref="M24:M25" si="21">L24^2*H24</f>
         <v>100352</v>
       </c>
-      <c r="M24" s="26">
-        <f t="shared" ref="M24:M25" si="17">K24^2*F24</f>
+      <c r="N24" s="26">
+        <f t="shared" ref="N24:N25" si="22">L24^2*F24</f>
         <v>25088</v>
       </c>
-      <c r="N24" s="26">
-        <f t="shared" ref="N24:N25" si="18">E24^2*F24*G24</f>
+      <c r="O24" s="26">
+        <f t="shared" ref="O24:O25" si="23">E24^2*F24*H24</f>
         <v>4096</v>
       </c>
-      <c r="O24" s="26">
-        <f t="shared" ref="O24:O25" si="19">G24</f>
+      <c r="P24" s="26">
+        <f t="shared" ref="P24:P25" si="24">H24</f>
         <v>128</v>
       </c>
-      <c r="P24" s="26">
-        <f t="shared" ref="P24:P25" si="20">N24+O24</f>
+      <c r="Q24" s="26">
+        <f t="shared" ref="Q24:Q25" si="25">O24+P24</f>
         <v>4224</v>
       </c>
-      <c r="Q24" s="45" t="str">
-        <f>DEC2HEX(N24,5)&amp;"_"&amp;DEC2HEX(H24,1)&amp;DEC2HEX(I24,1)&amp;DEC2HEX(C24,1)</f>
-        <v>01000_103</v>
-      </c>
-      <c r="R24" s="12" t="str">
-        <f>DEC2HEX(G24,4)&amp;"_"&amp;DEC2HEX(F24,4)</f>
+      <c r="R24" s="45" t="str">
+        <f t="shared" ref="R24:R25" si="26">DEC2HEX(G24,4)&amp;"_0"&amp;DEC2HEX(I24,1)&amp;DEC2HEX(J24,1)&amp;DEC2HEX(C24,1)</f>
+        <v>0020_0102</v>
+      </c>
+      <c r="S24" s="12" t="str">
+        <f>DEC2HEX(H24,4)&amp;"_"&amp;DEC2HEX(F24,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="S24" s="12" t="str">
-        <f>DEC2HEX(K24^2,4)&amp;"_"&amp;DEC2HEX(K24,2)&amp;DEC2HEX(K22,2)</f>
+      <c r="T24" s="12" t="str">
+        <f>DEC2HEX(L24^2,4)&amp;"_"&amp;DEC2HEX(L24,2)&amp;DEC2HEX(L22,2)</f>
         <v>0310_1C1C</v>
       </c>
-      <c r="T24" s="33">
-        <f>T22+P22</f>
+      <c r="U24" s="33">
+        <f>U22+Q22</f>
         <v>33856</v>
       </c>
-      <c r="U24" s="12" t="str">
-        <f t="shared" ref="U24:U25" si="21">DEC2HEX(T24,8)</f>
+      <c r="V24" s="12" t="str">
+        <f t="shared" ref="V24:V25" si="27">DEC2HEX(U24,8)</f>
         <v>00008440</v>
       </c>
-      <c r="V24" s="33">
-        <f>X22</f>
+      <c r="W24" s="33">
+        <f>Y22</f>
         <v>2831387</v>
       </c>
-      <c r="W24" s="12" t="str">
-        <f t="shared" ref="W24:W25" si="22">DEC2HEX(V24,8)</f>
+      <c r="X24" s="12" t="str">
+        <f t="shared" ref="X24:X25" si="28">DEC2HEX(W24,8)</f>
         <v>002B341B</v>
       </c>
-      <c r="X24" s="33">
-        <f>V24+L22</f>
+      <c r="Y24" s="33">
+        <f>W24+M22</f>
         <v>2856475</v>
       </c>
-      <c r="Y24" s="13" t="str">
-        <f t="shared" ref="Y24:Y25" si="23">DEC2HEX(X24,8)</f>
+      <c r="Z24" s="13" t="str">
+        <f t="shared" ref="Z24:Z25" si="29">DEC2HEX(Y24,8)</f>
         <v>002B961B</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AA24" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AB24" s="2">
-        <f>L24/64*0.97</f>
+      <c r="AC24" s="2">
+        <f>M24/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AC24" s="2">
-        <f>M24*Z24*AA24</f>
+      <c r="AD24" s="2">
+        <f>N24*AA24*AB24</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="20"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE24" s="20"/>
+    </row>
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3068,7 +3138,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>82</v>
@@ -3080,93 +3150,97 @@
         <v>32</v>
       </c>
       <c r="G25" s="26">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+      <c r="H25" s="26">
         <v>128</v>
       </c>
-      <c r="H25" s="26">
-        <v>1</v>
-      </c>
       <c r="I25" s="26">
         <v>1</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="26">
+        <v>1</v>
+      </c>
+      <c r="K25" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="26">
+      <c r="L25" s="26">
         <v>28</v>
       </c>
-      <c r="L25" s="26">
-        <f t="shared" si="16"/>
+      <c r="M25" s="26">
+        <f t="shared" si="21"/>
         <v>100352</v>
       </c>
-      <c r="M25" s="26">
-        <f t="shared" si="17"/>
+      <c r="N25" s="26">
+        <f t="shared" si="22"/>
         <v>25088</v>
       </c>
-      <c r="N25" s="26">
-        <f t="shared" si="18"/>
+      <c r="O25" s="26">
+        <f t="shared" si="23"/>
         <v>36864</v>
       </c>
-      <c r="O25" s="26">
-        <f t="shared" si="19"/>
+      <c r="P25" s="26">
+        <f t="shared" si="24"/>
         <v>128</v>
       </c>
-      <c r="P25" s="26">
-        <f t="shared" si="20"/>
+      <c r="Q25" s="26">
+        <f t="shared" si="25"/>
         <v>36992</v>
       </c>
-      <c r="Q25" s="45" t="str">
-        <f>DEC2HEX(N25,5)&amp;"_"&amp;DEC2HEX(H25,1)&amp;DEC2HEX(I25,1)&amp;DEC2HEX(C25,1)</f>
-        <v>09000_113</v>
-      </c>
-      <c r="R25" s="12" t="str">
-        <f>DEC2HEX(G25,4)&amp;"_"&amp;DEC2HEX(F25,4)</f>
+      <c r="R25" s="45" t="str">
+        <f t="shared" si="26"/>
+        <v>0120_0111</v>
+      </c>
+      <c r="S25" s="12" t="str">
+        <f>DEC2HEX(H25,4)&amp;"_"&amp;DEC2HEX(F25,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="S25" s="12" t="str">
-        <f>DEC2HEX(K25^2,4)&amp;"_"&amp;DEC2HEX(K25,2)&amp;DEC2HEX(K22,2)</f>
+      <c r="T25" s="12" t="str">
+        <f>DEC2HEX(L25^2,4)&amp;"_"&amp;DEC2HEX(L25,2)&amp;DEC2HEX(L22,2)</f>
         <v>0310_1C1C</v>
       </c>
-      <c r="T25" s="33">
-        <f>T24+P24</f>
+      <c r="U25" s="33">
+        <f>U24+Q24</f>
         <v>38080</v>
       </c>
-      <c r="U25" s="12" t="str">
-        <f t="shared" si="21"/>
+      <c r="V25" s="12" t="str">
+        <f t="shared" si="27"/>
         <v>000094C0</v>
       </c>
-      <c r="V25" s="33">
-        <f>X22</f>
+      <c r="W25" s="33">
+        <f>Y22</f>
         <v>2831387</v>
       </c>
-      <c r="W25" s="12" t="str">
-        <f t="shared" si="22"/>
+      <c r="X25" s="12" t="str">
+        <f t="shared" si="28"/>
         <v>002B341B</v>
       </c>
-      <c r="X25" s="33">
-        <f>V25++L22+L24</f>
+      <c r="Y25" s="33">
+        <f>W25++M22+M24</f>
         <v>2956827</v>
       </c>
-      <c r="Y25" s="13" t="str">
-        <f t="shared" si="23"/>
+      <c r="Z25" s="13" t="str">
+        <f t="shared" si="29"/>
         <v>002D1E1B</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AA25" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
       <c r="AB25" s="2">
-        <f>L25/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC25" s="2">
+        <f>M25/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AC25" s="2">
-        <f>M25*Z25*AA25</f>
+      <c r="AD25" s="2">
+        <f>N25*AA25*AB25</f>
         <v>5017.6000000000004</v>
       </c>
-      <c r="AD25" s="20"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE25" s="20"/>
+    </row>
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -3187,22 +3261,23 @@
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="14"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="3"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="15"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="20"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="20"/>
+    </row>
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -3223,22 +3298,23 @@
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="14"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="46"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="3"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="15"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="20"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="20"/>
+    </row>
+    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -3252,33 +3328,34 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="25">
+      <c r="L28" s="25">
         <v>28</v>
       </c>
-      <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="10"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="44"/>
       <c r="S28" s="10"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="1"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="11"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="20"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="20"/>
+    </row>
+    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3298,93 +3375,97 @@
         <v>256</v>
       </c>
       <c r="G29" s="26">
+        <f>E29^2*F29</f>
+        <v>256</v>
+      </c>
+      <c r="H29" s="26">
         <v>32</v>
       </c>
-      <c r="H29" s="26">
-        <v>1</v>
-      </c>
       <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
         <v>0</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="K29" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="K29" s="26">
+      <c r="L29" s="26">
         <v>28</v>
       </c>
-      <c r="L29" s="26">
-        <f>K29^2*G29</f>
+      <c r="M29" s="26">
+        <f>L29^2*H29</f>
         <v>25088</v>
       </c>
-      <c r="M29" s="26">
-        <f>K29^2*F29</f>
+      <c r="N29" s="26">
+        <f>L29^2*F29</f>
         <v>200704</v>
       </c>
-      <c r="N29" s="26">
-        <f>E29^2*F29*G29</f>
+      <c r="O29" s="26">
+        <f>E29^2*F29*H29</f>
         <v>8192</v>
       </c>
-      <c r="O29" s="26">
-        <f>G29</f>
+      <c r="P29" s="26">
+        <f>H29</f>
         <v>32</v>
       </c>
-      <c r="P29" s="26">
-        <f>N29+O29</f>
+      <c r="Q29" s="26">
+        <f>O29+P29</f>
         <v>8224</v>
       </c>
-      <c r="Q29" s="45" t="str">
-        <f>DEC2HEX(N29,5)&amp;"_"&amp;DEC2HEX(H29,1)&amp;DEC2HEX(I29,1)&amp;DEC2HEX(C29,1)</f>
-        <v>02000_101</v>
-      </c>
-      <c r="R29" s="12" t="str">
-        <f>DEC2HEX(G29,4)&amp;"_"&amp;DEC2HEX(F29,4)</f>
+      <c r="R29" s="45" t="str">
+        <f>DEC2HEX(G29,4)&amp;"_0"&amp;DEC2HEX(I29,1)&amp;DEC2HEX(J29,1)&amp;DEC2HEX(C29,1)</f>
+        <v>0100_0101</v>
+      </c>
+      <c r="S29" s="12" t="str">
+        <f>DEC2HEX(H29,4)&amp;"_"&amp;DEC2HEX(F29,4)</f>
         <v>0020_0100</v>
       </c>
-      <c r="S29" s="12" t="str">
-        <f>DEC2HEX(K29^2,4)&amp;"_"&amp;DEC2HEX(K29,2)&amp;DEC2HEX(K24,2)</f>
+      <c r="T29" s="12" t="str">
+        <f>DEC2HEX(L29^2,4)&amp;"_"&amp;DEC2HEX(L29,2)&amp;DEC2HEX(L24,2)</f>
         <v>0310_1C1C</v>
       </c>
-      <c r="T29" s="33">
-        <f>T25+P25</f>
+      <c r="U29" s="33">
+        <f>U25+Q25</f>
         <v>75072</v>
       </c>
-      <c r="U29" s="12" t="str">
-        <f>DEC2HEX(T29,8)</f>
+      <c r="V29" s="12" t="str">
+        <f>DEC2HEX(U29,8)</f>
         <v>00012540</v>
       </c>
-      <c r="V29" s="33">
-        <f>X25</f>
+      <c r="W29" s="33">
+        <f>Y25</f>
         <v>2956827</v>
       </c>
-      <c r="W29" s="12" t="str">
-        <f>DEC2HEX(V29,8)</f>
+      <c r="X29" s="12" t="str">
+        <f>DEC2HEX(W29,8)</f>
         <v>002D1E1B</v>
       </c>
-      <c r="X29" s="33">
-        <f>V29+L25</f>
+      <c r="Y29" s="33">
+        <f>W29+M25</f>
         <v>3057179</v>
       </c>
-      <c r="Y29" s="13" t="str">
-        <f>DEC2HEX(X29,8)</f>
+      <c r="Z29" s="13" t="str">
+        <f>DEC2HEX(Y29,8)</f>
         <v>002EA61B</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AA29" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA29" s="2">
-        <v>1</v>
-      </c>
       <c r="AB29" s="2">
-        <f>L29/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC29" s="2">
+        <f>M29/64*0.97</f>
         <v>380.24</v>
       </c>
-      <c r="AC29" s="2">
-        <f>M29*Z29*AA29</f>
+      <c r="AD29" s="2">
+        <f>N29*AA29*AB29</f>
         <v>40140.800000000003</v>
       </c>
-      <c r="AD29" s="20"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE29" s="20"/>
+    </row>
+    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -3405,22 +3486,23 @@
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="14"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="46"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="3"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="15"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="20"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="20"/>
+    </row>
+    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3428,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>86</v>
@@ -3440,93 +3522,97 @@
         <v>32</v>
       </c>
       <c r="G31" s="26">
+        <f t="shared" ref="G31:G32" si="30">E31^2*F31</f>
+        <v>32</v>
+      </c>
+      <c r="H31" s="26">
         <v>128</v>
       </c>
-      <c r="H31" s="26">
-        <v>1</v>
-      </c>
       <c r="I31" s="26">
+        <v>1</v>
+      </c>
+      <c r="J31" s="26">
         <v>0</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="K31" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K31" s="26">
+      <c r="L31" s="26">
         <v>28</v>
       </c>
-      <c r="L31" s="26">
-        <f t="shared" ref="L31:L32" si="24">K31^2*G31</f>
+      <c r="M31" s="26">
+        <f t="shared" ref="M31:M32" si="31">L31^2*H31</f>
         <v>100352</v>
       </c>
-      <c r="M31" s="26">
-        <f t="shared" ref="M31:M32" si="25">K31^2*F31</f>
+      <c r="N31" s="26">
+        <f t="shared" ref="N31:N32" si="32">L31^2*F31</f>
         <v>25088</v>
       </c>
-      <c r="N31" s="26">
-        <f t="shared" ref="N31:N32" si="26">E31^2*F31*G31</f>
+      <c r="O31" s="26">
+        <f t="shared" ref="O31:O32" si="33">E31^2*F31*H31</f>
         <v>4096</v>
       </c>
-      <c r="O31" s="26">
-        <f t="shared" ref="O31:O32" si="27">G31</f>
+      <c r="P31" s="26">
+        <f t="shared" ref="P31:P32" si="34">H31</f>
         <v>128</v>
       </c>
-      <c r="P31" s="26">
-        <f t="shared" ref="P31:P32" si="28">N31+O31</f>
+      <c r="Q31" s="26">
+        <f t="shared" ref="Q31:Q32" si="35">O31+P31</f>
         <v>4224</v>
       </c>
-      <c r="Q31" s="45" t="str">
-        <f>DEC2HEX(N31,5)&amp;"_"&amp;DEC2HEX(H31,1)&amp;DEC2HEX(I31,1)&amp;DEC2HEX(C31,1)</f>
-        <v>01000_103</v>
-      </c>
-      <c r="R31" s="12" t="str">
-        <f>DEC2HEX(G31,4)&amp;"_"&amp;DEC2HEX(F31,4)</f>
+      <c r="R31" s="45" t="str">
+        <f t="shared" ref="R31:R32" si="36">DEC2HEX(G31,4)&amp;"_0"&amp;DEC2HEX(I31,1)&amp;DEC2HEX(J31,1)&amp;DEC2HEX(C31,1)</f>
+        <v>0020_0102</v>
+      </c>
+      <c r="S31" s="12" t="str">
+        <f>DEC2HEX(H31,4)&amp;"_"&amp;DEC2HEX(F31,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="S31" s="12" t="str">
-        <f>DEC2HEX(K31^2,4)&amp;"_"&amp;DEC2HEX(K31,2)&amp;DEC2HEX(K29,2)</f>
+      <c r="T31" s="12" t="str">
+        <f>DEC2HEX(L31^2,4)&amp;"_"&amp;DEC2HEX(L31,2)&amp;DEC2HEX(L29,2)</f>
         <v>0310_1C1C</v>
       </c>
-      <c r="T31" s="33">
-        <f>T29+P29</f>
+      <c r="U31" s="33">
+        <f>U29+Q29</f>
         <v>83296</v>
       </c>
-      <c r="U31" s="12" t="str">
-        <f t="shared" ref="U31:U32" si="29">DEC2HEX(T31,8)</f>
+      <c r="V31" s="12" t="str">
+        <f t="shared" ref="V31:V32" si="37">DEC2HEX(U31,8)</f>
         <v>00014560</v>
       </c>
-      <c r="V31" s="33">
-        <f>X29</f>
+      <c r="W31" s="33">
+        <f>Y29</f>
         <v>3057179</v>
       </c>
-      <c r="W31" s="12" t="str">
-        <f t="shared" ref="W31:W32" si="30">DEC2HEX(V31,8)</f>
+      <c r="X31" s="12" t="str">
+        <f t="shared" ref="X31:X32" si="38">DEC2HEX(W31,8)</f>
         <v>002EA61B</v>
       </c>
-      <c r="X31" s="33">
-        <f>V31+L29</f>
+      <c r="Y31" s="33">
+        <f>W31+M29</f>
         <v>3082267</v>
       </c>
-      <c r="Y31" s="13" t="str">
-        <f t="shared" ref="Y31:Y32" si="31">DEC2HEX(X31,8)</f>
+      <c r="Z31" s="13" t="str">
+        <f t="shared" ref="Z31:Z32" si="39">DEC2HEX(Y31,8)</f>
         <v>002F081B</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AA31" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AB31" s="2">
-        <f>L31/64*0.97</f>
+      <c r="AC31" s="2">
+        <f>M31/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AC31" s="2">
-        <f>M31*Z31*AA31</f>
+      <c r="AD31" s="2">
+        <f>N31*AA31*AB31</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="20"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE31" s="20"/>
+    </row>
+    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -3534,7 +3620,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>82</v>
@@ -3546,93 +3632,97 @@
         <v>32</v>
       </c>
       <c r="G32" s="26">
+        <f t="shared" si="30"/>
+        <v>288</v>
+      </c>
+      <c r="H32" s="26">
         <v>128</v>
       </c>
-      <c r="H32" s="26">
-        <v>1</v>
-      </c>
       <c r="I32" s="26">
         <v>1</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="26">
+        <v>1</v>
+      </c>
+      <c r="K32" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K32" s="26">
+      <c r="L32" s="26">
         <v>28</v>
       </c>
-      <c r="L32" s="26">
-        <f t="shared" si="24"/>
+      <c r="M32" s="26">
+        <f t="shared" si="31"/>
         <v>100352</v>
       </c>
-      <c r="M32" s="26">
-        <f t="shared" si="25"/>
+      <c r="N32" s="26">
+        <f t="shared" si="32"/>
         <v>25088</v>
       </c>
-      <c r="N32" s="26">
-        <f t="shared" si="26"/>
+      <c r="O32" s="26">
+        <f t="shared" si="33"/>
         <v>36864</v>
       </c>
-      <c r="O32" s="26">
-        <f t="shared" si="27"/>
+      <c r="P32" s="26">
+        <f t="shared" si="34"/>
         <v>128</v>
       </c>
-      <c r="P32" s="26">
-        <f t="shared" si="28"/>
+      <c r="Q32" s="26">
+        <f t="shared" si="35"/>
         <v>36992</v>
       </c>
-      <c r="Q32" s="45" t="str">
-        <f>DEC2HEX(N32,5)&amp;"_"&amp;DEC2HEX(H32,1)&amp;DEC2HEX(I32,1)&amp;DEC2HEX(C32,1)</f>
-        <v>09000_113</v>
-      </c>
-      <c r="R32" s="12" t="str">
-        <f>DEC2HEX(G32,4)&amp;"_"&amp;DEC2HEX(F32,4)</f>
+      <c r="R32" s="45" t="str">
+        <f t="shared" si="36"/>
+        <v>0120_0111</v>
+      </c>
+      <c r="S32" s="12" t="str">
+        <f>DEC2HEX(H32,4)&amp;"_"&amp;DEC2HEX(F32,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="S32" s="12" t="str">
-        <f>DEC2HEX(K32^2,4)&amp;"_"&amp;DEC2HEX(K32,2)&amp;DEC2HEX(K29,2)</f>
+      <c r="T32" s="12" t="str">
+        <f>DEC2HEX(L32^2,4)&amp;"_"&amp;DEC2HEX(L32,2)&amp;DEC2HEX(L29,2)</f>
         <v>0310_1C1C</v>
       </c>
-      <c r="T32" s="33">
-        <f>T31+P31</f>
+      <c r="U32" s="33">
+        <f>U31+Q31</f>
         <v>87520</v>
       </c>
-      <c r="U32" s="12" t="str">
-        <f t="shared" si="29"/>
+      <c r="V32" s="12" t="str">
+        <f t="shared" si="37"/>
         <v>000155E0</v>
       </c>
-      <c r="V32" s="33">
-        <f>X29</f>
+      <c r="W32" s="33">
+        <f>Y29</f>
         <v>3057179</v>
       </c>
-      <c r="W32" s="12" t="str">
-        <f t="shared" si="30"/>
+      <c r="X32" s="12" t="str">
+        <f t="shared" si="38"/>
         <v>002EA61B</v>
       </c>
-      <c r="X32" s="33">
-        <f>V32+L29+L31</f>
+      <c r="Y32" s="33">
+        <f>W32+M29+M31</f>
         <v>3182619</v>
       </c>
-      <c r="Y32" s="13" t="str">
-        <f t="shared" si="31"/>
+      <c r="Z32" s="13" t="str">
+        <f t="shared" si="39"/>
         <v>0030901B</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AA32" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA32" s="2">
-        <v>1</v>
-      </c>
       <c r="AB32" s="2">
-        <f>L32/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="2">
+        <f>M32/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AC32" s="2">
-        <f>M32*Z32*AA32</f>
+      <c r="AD32" s="2">
+        <f>N32*AA32*AB32</f>
         <v>5017.6000000000004</v>
       </c>
-      <c r="AD32" s="20"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE32" s="20"/>
+    </row>
+    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -3653,22 +3743,23 @@
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="14"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="46"/>
       <c r="S33" s="14"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="3"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="15"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-      <c r="AD33" s="20"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="20"/>
+    </row>
+    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
@@ -3689,22 +3780,23 @@
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="14"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="46"/>
       <c r="S34" s="14"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="3"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="15"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-      <c r="AD34" s="20"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="20"/>
+    </row>
+    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -3718,31 +3810,32 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="25"/>
+      <c r="K35" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="10"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="44"/>
       <c r="S35" s="10"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="1"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="11"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="20"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="20"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
@@ -3762,81 +3855,85 @@
         <v>1</v>
       </c>
       <c r="G36" s="28">
+        <f>E36^2*F36</f>
+        <v>9</v>
+      </c>
+      <c r="H36" s="28">
         <v>256</v>
       </c>
-      <c r="H36" s="28">
+      <c r="I36" s="28">
         <v>2</v>
       </c>
-      <c r="I36" s="28">
+      <c r="J36" s="28">
         <v>0</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="K36" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="K36" s="28">
+      <c r="L36" s="28">
         <v>14</v>
       </c>
-      <c r="L36" s="28">
-        <f>K36^2*G36</f>
+      <c r="M36" s="28">
+        <f>L36^2*H36</f>
         <v>50176</v>
       </c>
-      <c r="M36" s="28">
-        <f>L36</f>
+      <c r="N36" s="28">
+        <f>M36</f>
         <v>50176</v>
       </c>
-      <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
-      <c r="Q36" s="47" t="str">
-        <f>DEC2HEX(E36^2*F36,5)&amp;"_"&amp;DEC2HEX(H36,1)&amp;DEC2HEX(I36,1)&amp;DEC2HEX(C36,1)</f>
-        <v>00009_204</v>
-      </c>
-      <c r="R36" s="16" t="str">
-        <f>DEC2HEX(G36,4)&amp;"_"&amp;DEC2HEX(G36,4)</f>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="47" t="str">
+        <f>DEC2HEX(G36,4)&amp;"_0"&amp;DEC2HEX(I36,1)&amp;DEC2HEX(J36,1)&amp;DEC2HEX(C36,1)</f>
+        <v>0009_0204</v>
+      </c>
+      <c r="S36" s="16" t="str">
+        <f>DEC2HEX(H36,4)&amp;"_"&amp;DEC2HEX(H36,4)</f>
         <v>0100_0100</v>
       </c>
-      <c r="S36" s="16" t="str">
-        <f>DEC2HEX(K36^2,4)&amp;"_"&amp;DEC2HEX(K36,2)&amp;DEC2HEX(K31,2)</f>
+      <c r="T36" s="16" t="str">
+        <f>DEC2HEX(L36^2,4)&amp;"_"&amp;DEC2HEX(L36,2)&amp;DEC2HEX(L31,2)</f>
         <v>00C4_0E1C</v>
       </c>
-      <c r="T36" s="35"/>
-      <c r="U36" s="16" t="str">
+      <c r="U36" s="35"/>
+      <c r="V36" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="V36" s="35">
-        <f>X32</f>
+      <c r="W36" s="35">
+        <f>Y32</f>
         <v>3182619</v>
       </c>
-      <c r="W36" s="16" t="str">
-        <f>DEC2HEX(V36,8)</f>
+      <c r="X36" s="16" t="str">
+        <f>DEC2HEX(W36,8)</f>
         <v>0030901B</v>
       </c>
-      <c r="X36" s="35">
-        <f>V36+L32</f>
+      <c r="Y36" s="35">
+        <f>W36+M32</f>
         <v>3282971</v>
       </c>
-      <c r="Y36" s="17" t="str">
-        <f>DEC2HEX(X36,8)</f>
+      <c r="Z36" s="17" t="str">
+        <f>DEC2HEX(Y36,8)</f>
         <v>0032181B</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="AA36" s="4">
         <v>0.31</v>
       </c>
-      <c r="AA36" s="4">
-        <v>1</v>
-      </c>
       <c r="AB36" s="4">
-        <f>L36/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC36" s="4">
+        <f>M36/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AC36" s="4">
-        <f>M36*Z36*AA36</f>
+      <c r="AD36" s="4">
+        <f>N36*AA36*AB36</f>
         <v>15554.56</v>
       </c>
-      <c r="AD36" s="20"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE36" s="20"/>
+    </row>
+    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3856,93 +3953,97 @@
         <v>256</v>
       </c>
       <c r="G37" s="26">
+        <f>E37^2*F37</f>
+        <v>256</v>
+      </c>
+      <c r="H37" s="26">
         <v>48</v>
       </c>
-      <c r="H37" s="26">
-        <v>1</v>
-      </c>
       <c r="I37" s="26">
+        <v>1</v>
+      </c>
+      <c r="J37" s="26">
         <v>0</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="K37" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="K37" s="26">
+      <c r="L37" s="26">
         <v>14</v>
       </c>
-      <c r="L37" s="26">
-        <f>K37^2*G37</f>
+      <c r="M37" s="26">
+        <f>L37^2*H37</f>
         <v>9408</v>
       </c>
-      <c r="M37" s="26">
-        <f>K37^2*F37</f>
+      <c r="N37" s="26">
+        <f>L37^2*F37</f>
         <v>50176</v>
       </c>
-      <c r="N37" s="26">
-        <f>E37^2*F37*G37</f>
+      <c r="O37" s="26">
+        <f>E37^2*F37*H37</f>
         <v>12288</v>
       </c>
-      <c r="O37" s="26">
-        <f>G37</f>
+      <c r="P37" s="26">
+        <f>H37</f>
         <v>48</v>
       </c>
-      <c r="P37" s="26">
-        <f>N37+O37</f>
+      <c r="Q37" s="26">
+        <f>O37+P37</f>
         <v>12336</v>
       </c>
-      <c r="Q37" s="45" t="str">
-        <f>DEC2HEX(N37,5)&amp;"_"&amp;DEC2HEX(H37,1)&amp;DEC2HEX(I37,1)&amp;DEC2HEX(C37,1)</f>
-        <v>03000_101</v>
-      </c>
-      <c r="R37" s="12" t="str">
-        <f>DEC2HEX(G37,4)&amp;"_"&amp;DEC2HEX(F37,4)</f>
+      <c r="R37" s="45" t="str">
+        <f>DEC2HEX(G37,4)&amp;"_0"&amp;DEC2HEX(I37,1)&amp;DEC2HEX(J37,1)&amp;DEC2HEX(C37,1)</f>
+        <v>0100_0101</v>
+      </c>
+      <c r="S37" s="12" t="str">
+        <f>DEC2HEX(H37,4)&amp;"_"&amp;DEC2HEX(F37,4)</f>
         <v>0030_0100</v>
       </c>
-      <c r="S37" s="12" t="str">
-        <f>DEC2HEX(K37^2,4)&amp;"_"&amp;DEC2HEX(K37,2)&amp;DEC2HEX(K36,2)</f>
+      <c r="T37" s="12" t="str">
+        <f>DEC2HEX(L37^2,4)&amp;"_"&amp;DEC2HEX(L37,2)&amp;DEC2HEX(L36,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T37" s="33">
-        <f>T32+P32</f>
+      <c r="U37" s="33">
+        <f>U32+Q32</f>
         <v>124512</v>
       </c>
-      <c r="U37" s="12" t="str">
-        <f>DEC2HEX(T37,8)</f>
+      <c r="V37" s="12" t="str">
+        <f>DEC2HEX(U37,8)</f>
         <v>0001E660</v>
       </c>
-      <c r="V37" s="33">
-        <f>X36</f>
+      <c r="W37" s="33">
+        <f>Y36</f>
         <v>3282971</v>
       </c>
-      <c r="W37" s="12" t="str">
-        <f>DEC2HEX(V37,8)</f>
+      <c r="X37" s="12" t="str">
+        <f>DEC2HEX(W37,8)</f>
         <v>0032181B</v>
       </c>
-      <c r="X37" s="33">
-        <f>V37+L36</f>
+      <c r="Y37" s="33">
+        <f>W37+M36</f>
         <v>3333147</v>
       </c>
-      <c r="Y37" s="13" t="str">
-        <f>DEC2HEX(X37,8)</f>
+      <c r="Z37" s="13" t="str">
+        <f>DEC2HEX(Y37,8)</f>
         <v>0032DC1B</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AA37" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA37" s="2">
-        <v>1</v>
-      </c>
       <c r="AB37" s="2">
-        <f>L37/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="2">
+        <f>M37/64*0.97</f>
         <v>142.59</v>
       </c>
-      <c r="AC37" s="2">
-        <f>M37*Z37*AA37</f>
+      <c r="AD37" s="2">
+        <f>N37*AA37*AB37</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AD37" s="20"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE37" s="20"/>
+    </row>
+    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -3963,22 +4064,23 @@
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="14"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="46"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="3"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="15"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="20"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="20"/>
+    </row>
+    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -3986,7 +4088,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>86</v>
@@ -3998,93 +4100,97 @@
         <v>48</v>
       </c>
       <c r="G39" s="26">
+        <f t="shared" ref="G39:G40" si="40">E39^2*F39</f>
+        <v>48</v>
+      </c>
+      <c r="H39" s="26">
         <v>192</v>
       </c>
-      <c r="H39" s="26">
-        <v>1</v>
-      </c>
       <c r="I39" s="26">
+        <v>1</v>
+      </c>
+      <c r="J39" s="26">
         <v>0</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="K39" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K39" s="26">
+      <c r="L39" s="26">
         <v>14</v>
       </c>
-      <c r="L39" s="26">
-        <f t="shared" ref="L39:L40" si="32">K39^2*G39</f>
+      <c r="M39" s="26">
+        <f t="shared" ref="M39:M40" si="41">L39^2*H39</f>
         <v>37632</v>
       </c>
-      <c r="M39" s="26">
-        <f t="shared" ref="M39:M40" si="33">K39^2*F39</f>
+      <c r="N39" s="26">
+        <f t="shared" ref="N39:N40" si="42">L39^2*F39</f>
         <v>9408</v>
       </c>
-      <c r="N39" s="26">
-        <f t="shared" ref="N39:N40" si="34">E39^2*F39*G39</f>
+      <c r="O39" s="26">
+        <f t="shared" ref="O39:O40" si="43">E39^2*F39*H39</f>
         <v>9216</v>
       </c>
-      <c r="O39" s="26">
-        <f t="shared" ref="O39:O40" si="35">G39</f>
+      <c r="P39" s="26">
+        <f t="shared" ref="P39:P40" si="44">H39</f>
         <v>192</v>
       </c>
-      <c r="P39" s="26">
-        <f t="shared" ref="P39:P40" si="36">N39+O39</f>
+      <c r="Q39" s="26">
+        <f t="shared" ref="Q39:Q40" si="45">O39+P39</f>
         <v>9408</v>
       </c>
-      <c r="Q39" s="45" t="str">
-        <f>DEC2HEX(N39,5)&amp;"_"&amp;DEC2HEX(H39,1)&amp;DEC2HEX(I39,1)&amp;DEC2HEX(C39,1)</f>
-        <v>02400_103</v>
-      </c>
-      <c r="R39" s="12" t="str">
-        <f>DEC2HEX(G39,4)&amp;"_"&amp;DEC2HEX(F39,4)</f>
+      <c r="R39" s="45" t="str">
+        <f t="shared" ref="R39:R40" si="46">DEC2HEX(G39,4)&amp;"_0"&amp;DEC2HEX(I39,1)&amp;DEC2HEX(J39,1)&amp;DEC2HEX(C39,1)</f>
+        <v>0030_0102</v>
+      </c>
+      <c r="S39" s="12" t="str">
+        <f>DEC2HEX(H39,4)&amp;"_"&amp;DEC2HEX(F39,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="S39" s="12" t="str">
-        <f>DEC2HEX(K39^2,4)&amp;"_"&amp;DEC2HEX(K39,2)&amp;DEC2HEX(K37,2)</f>
+      <c r="T39" s="12" t="str">
+        <f>DEC2HEX(L39^2,4)&amp;"_"&amp;DEC2HEX(L39,2)&amp;DEC2HEX(L37,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T39" s="33">
-        <f>T37+P37</f>
+      <c r="U39" s="33">
+        <f>U37+Q37</f>
         <v>136848</v>
       </c>
-      <c r="U39" s="12" t="str">
-        <f t="shared" ref="U39:U40" si="37">DEC2HEX(T39,8)</f>
+      <c r="V39" s="12" t="str">
+        <f t="shared" ref="V39:V40" si="47">DEC2HEX(U39,8)</f>
         <v>00021690</v>
       </c>
-      <c r="V39" s="33">
-        <f>X37</f>
+      <c r="W39" s="33">
+        <f>Y37</f>
         <v>3333147</v>
       </c>
-      <c r="W39" s="12" t="str">
-        <f t="shared" ref="W39:W40" si="38">DEC2HEX(V39,8)</f>
+      <c r="X39" s="12" t="str">
+        <f t="shared" ref="X39:X40" si="48">DEC2HEX(W39,8)</f>
         <v>0032DC1B</v>
       </c>
-      <c r="X39" s="33">
-        <f>V39+L37</f>
+      <c r="Y39" s="33">
+        <f>W39+M37</f>
         <v>3342555</v>
       </c>
-      <c r="Y39" s="13" t="str">
-        <f t="shared" ref="Y39:Y40" si="39">DEC2HEX(X39,8)</f>
+      <c r="Z39" s="13" t="str">
+        <f t="shared" ref="Z39:Z40" si="49">DEC2HEX(Y39,8)</f>
         <v>003300DB</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="AA39" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AB39" s="2">
         <v>0</v>
       </c>
-      <c r="AB39" s="2">
-        <f>L39/64*0.97</f>
+      <c r="AC39" s="2">
+        <f>M39/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AC39" s="2">
-        <f>M39*Z39*AA39</f>
+      <c r="AD39" s="2">
+        <f>N39*AA39*AB39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="20"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE39" s="20"/>
+    </row>
+    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -4092,7 +4198,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>82</v>
@@ -4104,93 +4210,97 @@
         <v>48</v>
       </c>
       <c r="G40" s="26">
+        <f t="shared" si="40"/>
+        <v>432</v>
+      </c>
+      <c r="H40" s="26">
         <v>192</v>
       </c>
-      <c r="H40" s="26">
-        <v>1</v>
-      </c>
       <c r="I40" s="26">
         <v>1</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="26">
+        <v>1</v>
+      </c>
+      <c r="K40" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K40" s="26">
+      <c r="L40" s="26">
         <v>14</v>
       </c>
-      <c r="L40" s="26">
-        <f t="shared" si="32"/>
+      <c r="M40" s="26">
+        <f t="shared" si="41"/>
         <v>37632</v>
       </c>
-      <c r="M40" s="26">
-        <f t="shared" si="33"/>
+      <c r="N40" s="26">
+        <f t="shared" si="42"/>
         <v>9408</v>
       </c>
-      <c r="N40" s="26">
-        <f t="shared" si="34"/>
+      <c r="O40" s="26">
+        <f t="shared" si="43"/>
         <v>82944</v>
       </c>
-      <c r="O40" s="26">
-        <f t="shared" si="35"/>
+      <c r="P40" s="26">
+        <f t="shared" si="44"/>
         <v>192</v>
       </c>
-      <c r="P40" s="26">
-        <f t="shared" si="36"/>
+      <c r="Q40" s="26">
+        <f t="shared" si="45"/>
         <v>83136</v>
       </c>
-      <c r="Q40" s="45" t="str">
-        <f>DEC2HEX(N40,5)&amp;"_"&amp;DEC2HEX(H40,1)&amp;DEC2HEX(I40,1)&amp;DEC2HEX(C40,1)</f>
-        <v>14400_113</v>
-      </c>
-      <c r="R40" s="12" t="str">
-        <f>DEC2HEX(G40,4)&amp;"_"&amp;DEC2HEX(F40,4)</f>
+      <c r="R40" s="45" t="str">
+        <f t="shared" si="46"/>
+        <v>01B0_0111</v>
+      </c>
+      <c r="S40" s="12" t="str">
+        <f>DEC2HEX(H40,4)&amp;"_"&amp;DEC2HEX(F40,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="S40" s="12" t="str">
-        <f>DEC2HEX(K40^2,4)&amp;"_"&amp;DEC2HEX(K40,2)&amp;DEC2HEX(K37,2)</f>
+      <c r="T40" s="12" t="str">
+        <f>DEC2HEX(L40^2,4)&amp;"_"&amp;DEC2HEX(L40,2)&amp;DEC2HEX(L37,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T40" s="33">
-        <f>T39+P39</f>
+      <c r="U40" s="33">
+        <f>U39+Q39</f>
         <v>146256</v>
       </c>
-      <c r="U40" s="12" t="str">
-        <f t="shared" si="37"/>
+      <c r="V40" s="12" t="str">
+        <f t="shared" si="47"/>
         <v>00023B50</v>
       </c>
-      <c r="V40" s="33">
-        <f>X37</f>
+      <c r="W40" s="33">
+        <f>Y37</f>
         <v>3333147</v>
       </c>
-      <c r="W40" s="12" t="str">
-        <f t="shared" si="38"/>
+      <c r="X40" s="12" t="str">
+        <f t="shared" si="48"/>
         <v>0032DC1B</v>
       </c>
-      <c r="X40" s="33">
-        <f>V40+L37+L39</f>
+      <c r="Y40" s="33">
+        <f>W40+M37+M39</f>
         <v>3380187</v>
       </c>
-      <c r="Y40" s="13" t="str">
-        <f t="shared" si="39"/>
+      <c r="Z40" s="13" t="str">
+        <f t="shared" si="49"/>
         <v>003393DB</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="AA40" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA40" s="2">
-        <v>1</v>
-      </c>
       <c r="AB40" s="2">
-        <f>L40/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="2">
+        <f>M40/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AC40" s="2">
-        <f>M40*Z40*AA40</f>
+      <c r="AD40" s="2">
+        <f>N40*AA40*AB40</f>
         <v>1881.6000000000001</v>
       </c>
-      <c r="AD40" s="20"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE40" s="20"/>
+    </row>
+    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
@@ -4211,22 +4321,23 @@
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="14"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="46"/>
       <c r="S41" s="14"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="3"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="15"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="20"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="20"/>
+    </row>
+    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
@@ -4247,22 +4358,23 @@
       <c r="N42" s="27"/>
       <c r="O42" s="27"/>
       <c r="P42" s="27"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="14"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="46"/>
       <c r="S42" s="14"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="3"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="15"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="20"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="20"/>
+    </row>
+    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -4276,33 +4388,34 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="25"/>
+      <c r="K43" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="K43" s="25">
+      <c r="L43" s="25">
         <v>14</v>
       </c>
-      <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="10"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="44"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="1"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="11"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="20"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="20"/>
+    </row>
+    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -4322,93 +4435,97 @@
         <v>384</v>
       </c>
       <c r="G44" s="26">
+        <f>E44^2*F44</f>
+        <v>384</v>
+      </c>
+      <c r="H44" s="26">
         <v>48</v>
       </c>
-      <c r="H44" s="26">
-        <v>1</v>
-      </c>
       <c r="I44" s="26">
+        <v>1</v>
+      </c>
+      <c r="J44" s="26">
         <v>0</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="K44" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="K44" s="26">
+      <c r="L44" s="26">
         <v>14</v>
       </c>
-      <c r="L44" s="26">
-        <f>K44^2*G44</f>
+      <c r="M44" s="26">
+        <f>L44^2*H44</f>
         <v>9408</v>
       </c>
-      <c r="M44" s="26">
-        <f>K44^2*F44</f>
+      <c r="N44" s="26">
+        <f>L44^2*F44</f>
         <v>75264</v>
       </c>
-      <c r="N44" s="26">
-        <f>E44^2*F44*G44</f>
+      <c r="O44" s="26">
+        <f>E44^2*F44*H44</f>
         <v>18432</v>
       </c>
-      <c r="O44" s="26">
-        <f>G44</f>
+      <c r="P44" s="26">
+        <f>H44</f>
         <v>48</v>
       </c>
-      <c r="P44" s="26">
-        <f>N44+O44</f>
+      <c r="Q44" s="26">
+        <f>O44+P44</f>
         <v>18480</v>
       </c>
-      <c r="Q44" s="45" t="str">
-        <f>DEC2HEX(N44,5)&amp;"_"&amp;DEC2HEX(H44,1)&amp;DEC2HEX(I44,1)&amp;DEC2HEX(C44,1)</f>
-        <v>04800_101</v>
-      </c>
-      <c r="R44" s="12" t="str">
-        <f>DEC2HEX(G44,4)&amp;"_"&amp;DEC2HEX(F44,4)</f>
+      <c r="R44" s="45" t="str">
+        <f>DEC2HEX(G44,4)&amp;"_0"&amp;DEC2HEX(I44,1)&amp;DEC2HEX(J44,1)&amp;DEC2HEX(C44,1)</f>
+        <v>0180_0101</v>
+      </c>
+      <c r="S44" s="12" t="str">
+        <f>DEC2HEX(H44,4)&amp;"_"&amp;DEC2HEX(F44,4)</f>
         <v>0030_0180</v>
       </c>
-      <c r="S44" s="12" t="str">
-        <f>DEC2HEX(K44^2,4)&amp;"_"&amp;DEC2HEX(K44,2)&amp;DEC2HEX(K39,2)</f>
+      <c r="T44" s="12" t="str">
+        <f>DEC2HEX(L44^2,4)&amp;"_"&amp;DEC2HEX(L44,2)&amp;DEC2HEX(L39,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T44" s="33">
-        <f>T40+P40</f>
+      <c r="U44" s="33">
+        <f>U40+Q40</f>
         <v>229392</v>
       </c>
-      <c r="U44" s="12" t="str">
-        <f>DEC2HEX(T44,8)</f>
+      <c r="V44" s="12" t="str">
+        <f>DEC2HEX(U44,8)</f>
         <v>00038010</v>
       </c>
-      <c r="V44" s="33">
-        <f>X40</f>
+      <c r="W44" s="33">
+        <f>Y40</f>
         <v>3380187</v>
       </c>
-      <c r="W44" s="12" t="str">
-        <f>DEC2HEX(V44,8)</f>
+      <c r="X44" s="12" t="str">
+        <f>DEC2HEX(W44,8)</f>
         <v>003393DB</v>
       </c>
-      <c r="X44" s="33">
-        <f>V44+L40</f>
+      <c r="Y44" s="33">
+        <f>W44+M40</f>
         <v>3417819</v>
       </c>
-      <c r="Y44" s="13" t="str">
-        <f>DEC2HEX(X44,8)</f>
+      <c r="Z44" s="13" t="str">
+        <f>DEC2HEX(Y44,8)</f>
         <v>003426DB</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="AA44" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA44" s="2">
-        <v>1</v>
-      </c>
       <c r="AB44" s="2">
-        <f>L44/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2">
+        <f>M44/64*0.97</f>
         <v>142.59</v>
       </c>
-      <c r="AC44" s="2">
-        <f>M44*Z44*AA44</f>
+      <c r="AD44" s="2">
+        <f>N44*AA44*AB44</f>
         <v>15052.800000000001</v>
       </c>
-      <c r="AD44" s="20"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE44" s="20"/>
+    </row>
+    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
@@ -4429,22 +4546,23 @@
       <c r="N45" s="27"/>
       <c r="O45" s="27"/>
       <c r="P45" s="27"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="14"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="46"/>
       <c r="S45" s="14"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="3"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="15"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="20"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="20"/>
+    </row>
+    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -4452,7 +4570,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>86</v>
@@ -4464,93 +4582,97 @@
         <v>48</v>
       </c>
       <c r="G46" s="26">
+        <f t="shared" ref="G46:G47" si="50">E46^2*F46</f>
+        <v>48</v>
+      </c>
+      <c r="H46" s="26">
         <v>192</v>
       </c>
-      <c r="H46" s="26">
-        <v>1</v>
-      </c>
       <c r="I46" s="26">
+        <v>1</v>
+      </c>
+      <c r="J46" s="26">
         <v>0</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="K46" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="26">
+      <c r="L46" s="26">
         <v>14</v>
       </c>
-      <c r="L46" s="26">
-        <f t="shared" ref="L46:L47" si="40">K46^2*G46</f>
+      <c r="M46" s="26">
+        <f t="shared" ref="M46:M47" si="51">L46^2*H46</f>
         <v>37632</v>
       </c>
-      <c r="M46" s="26">
-        <f t="shared" ref="M46:M47" si="41">K46^2*F46</f>
+      <c r="N46" s="26">
+        <f t="shared" ref="N46:N47" si="52">L46^2*F46</f>
         <v>9408</v>
       </c>
-      <c r="N46" s="26">
-        <f t="shared" ref="N46:N47" si="42">E46^2*F46*G46</f>
+      <c r="O46" s="26">
+        <f t="shared" ref="O46:O47" si="53">E46^2*F46*H46</f>
         <v>9216</v>
       </c>
-      <c r="O46" s="26">
-        <f t="shared" ref="O46:O47" si="43">G46</f>
+      <c r="P46" s="26">
+        <f t="shared" ref="P46:P47" si="54">H46</f>
         <v>192</v>
       </c>
-      <c r="P46" s="26">
-        <f t="shared" ref="P46:P47" si="44">N46+O46</f>
+      <c r="Q46" s="26">
+        <f t="shared" ref="Q46:Q47" si="55">O46+P46</f>
         <v>9408</v>
       </c>
-      <c r="Q46" s="45" t="str">
-        <f>DEC2HEX(N46,5)&amp;"_"&amp;DEC2HEX(H46,1)&amp;DEC2HEX(I46,1)&amp;DEC2HEX(C46,1)</f>
-        <v>02400_103</v>
-      </c>
-      <c r="R46" s="12" t="str">
-        <f>DEC2HEX(G46,4)&amp;"_"&amp;DEC2HEX(F46,4)</f>
+      <c r="R46" s="45" t="str">
+        <f t="shared" ref="R46:R47" si="56">DEC2HEX(G46,4)&amp;"_0"&amp;DEC2HEX(I46,1)&amp;DEC2HEX(J46,1)&amp;DEC2HEX(C46,1)</f>
+        <v>0030_0102</v>
+      </c>
+      <c r="S46" s="12" t="str">
+        <f>DEC2HEX(H46,4)&amp;"_"&amp;DEC2HEX(F46,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="S46" s="12" t="str">
-        <f>DEC2HEX(K46^2,4)&amp;"_"&amp;DEC2HEX(K46,2)&amp;DEC2HEX(K44,2)</f>
+      <c r="T46" s="12" t="str">
+        <f>DEC2HEX(L46^2,4)&amp;"_"&amp;DEC2HEX(L46,2)&amp;DEC2HEX(L44,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T46" s="33">
-        <f>T44+P44</f>
+      <c r="U46" s="33">
+        <f>U44+Q44</f>
         <v>247872</v>
       </c>
-      <c r="U46" s="12" t="str">
-        <f t="shared" ref="U46:U47" si="45">DEC2HEX(T46,8)</f>
+      <c r="V46" s="12" t="str">
+        <f t="shared" ref="V46:V47" si="57">DEC2HEX(U46,8)</f>
         <v>0003C840</v>
       </c>
-      <c r="V46" s="33">
-        <f>X44</f>
+      <c r="W46" s="33">
+        <f>Y44</f>
         <v>3417819</v>
       </c>
-      <c r="W46" s="12" t="str">
-        <f t="shared" ref="W46:W47" si="46">DEC2HEX(V46,8)</f>
+      <c r="X46" s="12" t="str">
+        <f t="shared" ref="X46:X47" si="58">DEC2HEX(W46,8)</f>
         <v>003426DB</v>
       </c>
-      <c r="X46" s="33">
-        <f>V46+L44</f>
+      <c r="Y46" s="33">
+        <f>W46+M44</f>
         <v>3427227</v>
       </c>
-      <c r="Y46" s="13" t="str">
-        <f t="shared" ref="Y46:Y47" si="47">DEC2HEX(X46,8)</f>
+      <c r="Z46" s="13" t="str">
+        <f t="shared" ref="Z46:Z47" si="59">DEC2HEX(Y46,8)</f>
         <v>00344B9B</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="AA46" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AB46" s="2">
         <v>0</v>
       </c>
-      <c r="AB46" s="2">
-        <f>L46/64*0.97</f>
+      <c r="AC46" s="2">
+        <f>M46/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AC46" s="2">
-        <f>M46*Z46*AA46</f>
+      <c r="AD46" s="2">
+        <f>N46*AA46*AB46</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="20"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE46" s="20"/>
+    </row>
+    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4558,7 +4680,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>82</v>
@@ -4570,93 +4692,97 @@
         <v>48</v>
       </c>
       <c r="G47" s="26">
+        <f t="shared" si="50"/>
+        <v>432</v>
+      </c>
+      <c r="H47" s="26">
         <v>192</v>
       </c>
-      <c r="H47" s="26">
-        <v>1</v>
-      </c>
       <c r="I47" s="26">
         <v>1</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="J47" s="26">
+        <v>1</v>
+      </c>
+      <c r="K47" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K47" s="26">
+      <c r="L47" s="26">
         <v>14</v>
       </c>
-      <c r="L47" s="26">
-        <f t="shared" si="40"/>
+      <c r="M47" s="26">
+        <f t="shared" si="51"/>
         <v>37632</v>
       </c>
-      <c r="M47" s="26">
-        <f t="shared" si="41"/>
+      <c r="N47" s="26">
+        <f t="shared" si="52"/>
         <v>9408</v>
       </c>
-      <c r="N47" s="26">
-        <f t="shared" si="42"/>
+      <c r="O47" s="26">
+        <f t="shared" si="53"/>
         <v>82944</v>
       </c>
-      <c r="O47" s="26">
-        <f t="shared" si="43"/>
+      <c r="P47" s="26">
+        <f t="shared" si="54"/>
         <v>192</v>
       </c>
-      <c r="P47" s="26">
-        <f t="shared" si="44"/>
+      <c r="Q47" s="26">
+        <f t="shared" si="55"/>
         <v>83136</v>
       </c>
-      <c r="Q47" s="45" t="str">
-        <f>DEC2HEX(N47,5)&amp;"_"&amp;DEC2HEX(H47,1)&amp;DEC2HEX(I47,1)&amp;DEC2HEX(C47,1)</f>
-        <v>14400_113</v>
-      </c>
-      <c r="R47" s="12" t="str">
-        <f>DEC2HEX(G47,4)&amp;"_"&amp;DEC2HEX(F47,4)</f>
+      <c r="R47" s="45" t="str">
+        <f t="shared" si="56"/>
+        <v>01B0_0111</v>
+      </c>
+      <c r="S47" s="12" t="str">
+        <f>DEC2HEX(H47,4)&amp;"_"&amp;DEC2HEX(F47,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="S47" s="12" t="str">
-        <f>DEC2HEX(K47^2,4)&amp;"_"&amp;DEC2HEX(K47,2)&amp;DEC2HEX(K44,2)</f>
+      <c r="T47" s="12" t="str">
+        <f>DEC2HEX(L47^2,4)&amp;"_"&amp;DEC2HEX(L47,2)&amp;DEC2HEX(L44,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T47" s="33">
-        <f>T46+P46</f>
+      <c r="U47" s="33">
+        <f>U46+Q46</f>
         <v>257280</v>
       </c>
-      <c r="U47" s="12" t="str">
-        <f t="shared" si="45"/>
+      <c r="V47" s="12" t="str">
+        <f t="shared" si="57"/>
         <v>0003ED00</v>
       </c>
-      <c r="V47" s="33">
-        <f>X44</f>
+      <c r="W47" s="33">
+        <f>Y44</f>
         <v>3417819</v>
       </c>
-      <c r="W47" s="12" t="str">
-        <f t="shared" si="46"/>
+      <c r="X47" s="12" t="str">
+        <f t="shared" si="58"/>
         <v>003426DB</v>
       </c>
-      <c r="X47" s="33">
-        <f>V47+L44+L46</f>
+      <c r="Y47" s="33">
+        <f>W47+M44+M46</f>
         <v>3464859</v>
       </c>
-      <c r="Y47" s="13" t="str">
-        <f t="shared" si="47"/>
+      <c r="Z47" s="13" t="str">
+        <f t="shared" si="59"/>
         <v>0034DE9B</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="AA47" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA47" s="2">
-        <v>1</v>
-      </c>
       <c r="AB47" s="2">
-        <f>L47/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC47" s="2">
+        <f>M47/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AC47" s="2">
-        <f>M47*Z47*AA47</f>
+      <c r="AD47" s="2">
+        <f>N47*AA47*AB47</f>
         <v>1881.6000000000001</v>
       </c>
-      <c r="AD47" s="20"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE47" s="20"/>
+    </row>
+    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
@@ -4677,22 +4803,23 @@
       <c r="N48" s="27"/>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="14"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="46"/>
       <c r="S48" s="14"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="3"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="15"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="20"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="20"/>
+    </row>
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
@@ -4713,22 +4840,23 @@
       <c r="N49" s="27"/>
       <c r="O49" s="27"/>
       <c r="P49" s="27"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="14"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="46"/>
       <c r="S49" s="14"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="3"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="15"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="20"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="20"/>
+    </row>
+    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
@@ -4742,33 +4870,34 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="25"/>
+      <c r="K50" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="K50" s="25">
+      <c r="L50" s="25">
         <v>14</v>
       </c>
-      <c r="L50" s="25"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="10"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="10"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="1"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="11"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50" s="20"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="20"/>
+    </row>
+    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -4788,93 +4917,97 @@
         <v>384</v>
       </c>
       <c r="G51" s="26">
+        <f>E51^2*F51</f>
+        <v>384</v>
+      </c>
+      <c r="H51" s="26">
         <v>64</v>
       </c>
-      <c r="H51" s="26">
-        <v>1</v>
-      </c>
       <c r="I51" s="26">
+        <v>1</v>
+      </c>
+      <c r="J51" s="26">
         <v>0</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="K51" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="K51" s="26">
+      <c r="L51" s="26">
         <v>14</v>
       </c>
-      <c r="L51" s="26">
-        <f>K51^2*G51</f>
+      <c r="M51" s="26">
+        <f>L51^2*H51</f>
         <v>12544</v>
       </c>
-      <c r="M51" s="26">
-        <f>K51^2*F51</f>
+      <c r="N51" s="26">
+        <f>L51^2*F51</f>
         <v>75264</v>
       </c>
-      <c r="N51" s="26">
-        <f>E51^2*F51*G51</f>
+      <c r="O51" s="26">
+        <f>E51^2*F51*H51</f>
         <v>24576</v>
       </c>
-      <c r="O51" s="26">
-        <f>G51</f>
+      <c r="P51" s="26">
+        <f>H51</f>
         <v>64</v>
       </c>
-      <c r="P51" s="26">
-        <f>N51+O51</f>
+      <c r="Q51" s="26">
+        <f>O51+P51</f>
         <v>24640</v>
       </c>
-      <c r="Q51" s="45" t="str">
-        <f>DEC2HEX(N51,5)&amp;"_"&amp;DEC2HEX(H51,1)&amp;DEC2HEX(I51,1)&amp;DEC2HEX(C51,1)</f>
-        <v>06000_101</v>
-      </c>
-      <c r="R51" s="12" t="str">
-        <f>DEC2HEX(G51,4)&amp;"_"&amp;DEC2HEX(F51,4)</f>
+      <c r="R51" s="45" t="str">
+        <f>DEC2HEX(G51,4)&amp;"_0"&amp;DEC2HEX(I51,1)&amp;DEC2HEX(J51,1)&amp;DEC2HEX(C51,1)</f>
+        <v>0180_0101</v>
+      </c>
+      <c r="S51" s="12" t="str">
+        <f>DEC2HEX(H51,4)&amp;"_"&amp;DEC2HEX(F51,4)</f>
         <v>0040_0180</v>
       </c>
-      <c r="S51" s="12" t="str">
-        <f>DEC2HEX(K51^2,4)&amp;"_"&amp;DEC2HEX(K51,2)&amp;DEC2HEX(K46,2)</f>
+      <c r="T51" s="12" t="str">
+        <f>DEC2HEX(L51^2,4)&amp;"_"&amp;DEC2HEX(L51,2)&amp;DEC2HEX(L46,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T51" s="33">
-        <f>T47+P47</f>
+      <c r="U51" s="33">
+        <f>U47+Q47</f>
         <v>340416</v>
       </c>
-      <c r="U51" s="12" t="str">
-        <f>DEC2HEX(T51,8)</f>
+      <c r="V51" s="12" t="str">
+        <f>DEC2HEX(U51,8)</f>
         <v>000531C0</v>
       </c>
-      <c r="V51" s="33">
-        <f>X47</f>
+      <c r="W51" s="33">
+        <f>Y47</f>
         <v>3464859</v>
       </c>
-      <c r="W51" s="12" t="str">
-        <f>DEC2HEX(V51,8)</f>
+      <c r="X51" s="12" t="str">
+        <f>DEC2HEX(W51,8)</f>
         <v>0034DE9B</v>
       </c>
-      <c r="X51" s="33">
-        <f>V51+L47</f>
+      <c r="Y51" s="33">
+        <f>W51+M47</f>
         <v>3502491</v>
       </c>
-      <c r="Y51" s="13" t="str">
-        <f>DEC2HEX(X51,8)</f>
+      <c r="Z51" s="13" t="str">
+        <f>DEC2HEX(Y51,8)</f>
         <v>0035719B</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="AA51" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA51" s="2">
-        <v>1</v>
-      </c>
       <c r="AB51" s="2">
-        <f>L51/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC51" s="2">
+        <f>M51/64*0.97</f>
         <v>190.12</v>
       </c>
-      <c r="AC51" s="2">
-        <f>M51*Z51*AA51</f>
+      <c r="AD51" s="2">
+        <f>N51*AA51*AB51</f>
         <v>15052.800000000001</v>
       </c>
-      <c r="AD51" s="20"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE51" s="20"/>
+    </row>
+    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
@@ -4895,22 +5028,23 @@
       <c r="N52" s="27"/>
       <c r="O52" s="27"/>
       <c r="P52" s="27"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="14"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="46"/>
       <c r="S52" s="14"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="3"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="15"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="20"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="20"/>
+    </row>
+    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -4918,7 +5052,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>86</v>
@@ -4930,93 +5064,97 @@
         <v>64</v>
       </c>
       <c r="G53" s="26">
+        <f t="shared" ref="G53:G54" si="60">E53^2*F53</f>
+        <v>64</v>
+      </c>
+      <c r="H53" s="26">
         <v>256</v>
       </c>
-      <c r="H53" s="26">
-        <v>1</v>
-      </c>
       <c r="I53" s="26">
+        <v>1</v>
+      </c>
+      <c r="J53" s="26">
         <v>0</v>
       </c>
-      <c r="J53" s="26" t="s">
+      <c r="K53" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K53" s="26">
+      <c r="L53" s="26">
         <v>14</v>
       </c>
-      <c r="L53" s="26">
-        <f t="shared" ref="L53:L54" si="48">K53^2*G53</f>
+      <c r="M53" s="26">
+        <f t="shared" ref="M53:M54" si="61">L53^2*H53</f>
         <v>50176</v>
       </c>
-      <c r="M53" s="26">
-        <f t="shared" ref="M53:M54" si="49">K53^2*F53</f>
+      <c r="N53" s="26">
+        <f t="shared" ref="N53:N54" si="62">L53^2*F53</f>
         <v>12544</v>
       </c>
-      <c r="N53" s="26">
-        <f t="shared" ref="N53:N54" si="50">E53^2*F53*G53</f>
+      <c r="O53" s="26">
+        <f t="shared" ref="O53:O54" si="63">E53^2*F53*H53</f>
         <v>16384</v>
       </c>
-      <c r="O53" s="26">
-        <f t="shared" ref="O53:O54" si="51">G53</f>
+      <c r="P53" s="26">
+        <f t="shared" ref="P53:P54" si="64">H53</f>
         <v>256</v>
       </c>
-      <c r="P53" s="26">
-        <f t="shared" ref="P53:P54" si="52">N53+O53</f>
+      <c r="Q53" s="26">
+        <f t="shared" ref="Q53:Q54" si="65">O53+P53</f>
         <v>16640</v>
       </c>
-      <c r="Q53" s="45" t="str">
-        <f>DEC2HEX(N53,5)&amp;"_"&amp;DEC2HEX(H53,1)&amp;DEC2HEX(I53,1)&amp;DEC2HEX(C53,1)</f>
-        <v>04000_103</v>
-      </c>
-      <c r="R53" s="12" t="str">
-        <f>DEC2HEX(G53,4)&amp;"_"&amp;DEC2HEX(F53,4)</f>
+      <c r="R53" s="45" t="str">
+        <f t="shared" ref="R53:R54" si="66">DEC2HEX(G53,4)&amp;"_0"&amp;DEC2HEX(I53,1)&amp;DEC2HEX(J53,1)&amp;DEC2HEX(C53,1)</f>
+        <v>0040_0102</v>
+      </c>
+      <c r="S53" s="12" t="str">
+        <f>DEC2HEX(H53,4)&amp;"_"&amp;DEC2HEX(F53,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="S53" s="12" t="str">
-        <f>DEC2HEX(K53^2,4)&amp;"_"&amp;DEC2HEX(K53,2)&amp;DEC2HEX(K51,2)</f>
+      <c r="T53" s="12" t="str">
+        <f>DEC2HEX(L53^2,4)&amp;"_"&amp;DEC2HEX(L53,2)&amp;DEC2HEX(L51,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T53" s="33">
-        <f>T51+P51</f>
+      <c r="U53" s="33">
+        <f>U51+Q51</f>
         <v>365056</v>
       </c>
-      <c r="U53" s="12" t="str">
-        <f t="shared" ref="U53:U54" si="53">DEC2HEX(T53,8)</f>
+      <c r="V53" s="12" t="str">
+        <f t="shared" ref="V53:V54" si="67">DEC2HEX(U53,8)</f>
         <v>00059200</v>
       </c>
-      <c r="V53" s="33">
-        <f>X51</f>
+      <c r="W53" s="33">
+        <f>Y51</f>
         <v>3502491</v>
       </c>
-      <c r="W53" s="12" t="str">
-        <f t="shared" ref="W53:W54" si="54">DEC2HEX(V53,8)</f>
+      <c r="X53" s="12" t="str">
+        <f t="shared" ref="X53:X54" si="68">DEC2HEX(W53,8)</f>
         <v>0035719B</v>
       </c>
-      <c r="X53" s="33">
-        <f>V53+L51</f>
+      <c r="Y53" s="33">
+        <f>W53+M51</f>
         <v>3515035</v>
       </c>
-      <c r="Y53" s="13" t="str">
-        <f t="shared" ref="Y53:Y54" si="55">DEC2HEX(X53,8)</f>
+      <c r="Z53" s="13" t="str">
+        <f t="shared" ref="Z53:Z54" si="69">DEC2HEX(Y53,8)</f>
         <v>0035A29B</v>
       </c>
-      <c r="Z53" s="2">
+      <c r="AA53" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AB53" s="2">
         <v>0</v>
       </c>
-      <c r="AB53" s="2">
-        <f>L53/64*0.97</f>
+      <c r="AC53" s="2">
+        <f>M53/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AC53" s="2">
-        <f>M53*Z53*AA53</f>
+      <c r="AD53" s="2">
+        <f>N53*AA53*AB53</f>
         <v>0</v>
       </c>
-      <c r="AD53" s="20"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE53" s="20"/>
+    </row>
+    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -5024,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>82</v>
@@ -5036,93 +5174,97 @@
         <v>64</v>
       </c>
       <c r="G54" s="26">
+        <f t="shared" si="60"/>
+        <v>576</v>
+      </c>
+      <c r="H54" s="26">
         <v>256</v>
       </c>
-      <c r="H54" s="26">
-        <v>1</v>
-      </c>
       <c r="I54" s="26">
         <v>1</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="26">
+        <v>1</v>
+      </c>
+      <c r="K54" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K54" s="26">
+      <c r="L54" s="26">
         <v>14</v>
       </c>
-      <c r="L54" s="26">
-        <f t="shared" si="48"/>
+      <c r="M54" s="26">
+        <f t="shared" si="61"/>
         <v>50176</v>
       </c>
-      <c r="M54" s="26">
-        <f t="shared" si="49"/>
+      <c r="N54" s="26">
+        <f t="shared" si="62"/>
         <v>12544</v>
       </c>
-      <c r="N54" s="26">
-        <f t="shared" si="50"/>
+      <c r="O54" s="26">
+        <f t="shared" si="63"/>
         <v>147456</v>
       </c>
-      <c r="O54" s="26">
-        <f t="shared" si="51"/>
+      <c r="P54" s="26">
+        <f t="shared" si="64"/>
         <v>256</v>
       </c>
-      <c r="P54" s="26">
-        <f t="shared" si="52"/>
+      <c r="Q54" s="26">
+        <f t="shared" si="65"/>
         <v>147712</v>
       </c>
-      <c r="Q54" s="45" t="str">
-        <f>DEC2HEX(N54,5)&amp;"_"&amp;DEC2HEX(H54,1)&amp;DEC2HEX(I54,1)&amp;DEC2HEX(C54,1)</f>
-        <v>24000_113</v>
-      </c>
-      <c r="R54" s="12" t="str">
-        <f>DEC2HEX(G54,4)&amp;"_"&amp;DEC2HEX(F54,4)</f>
+      <c r="R54" s="45" t="str">
+        <f t="shared" si="66"/>
+        <v>0240_0111</v>
+      </c>
+      <c r="S54" s="12" t="str">
+        <f>DEC2HEX(H54,4)&amp;"_"&amp;DEC2HEX(F54,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="S54" s="12" t="str">
-        <f>DEC2HEX(K54^2,4)&amp;"_"&amp;DEC2HEX(K54,2)&amp;DEC2HEX(K51,2)</f>
+      <c r="T54" s="12" t="str">
+        <f>DEC2HEX(L54^2,4)&amp;"_"&amp;DEC2HEX(L54,2)&amp;DEC2HEX(L51,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T54" s="33">
-        <f>T53+P53</f>
+      <c r="U54" s="33">
+        <f>U53+Q53</f>
         <v>381696</v>
       </c>
-      <c r="U54" s="12" t="str">
-        <f t="shared" si="53"/>
+      <c r="V54" s="12" t="str">
+        <f t="shared" si="67"/>
         <v>0005D300</v>
       </c>
-      <c r="V54" s="33">
-        <f>X51</f>
+      <c r="W54" s="33">
+        <f>Y51</f>
         <v>3502491</v>
       </c>
-      <c r="W54" s="12" t="str">
-        <f t="shared" si="54"/>
+      <c r="X54" s="12" t="str">
+        <f t="shared" si="68"/>
         <v>0035719B</v>
       </c>
-      <c r="X54" s="33">
-        <f>V54+L51+L53</f>
+      <c r="Y54" s="33">
+        <f>W54+M51+M53</f>
         <v>3565211</v>
       </c>
-      <c r="Y54" s="13" t="str">
-        <f t="shared" si="55"/>
+      <c r="Z54" s="13" t="str">
+        <f t="shared" si="69"/>
         <v>0036669B</v>
       </c>
-      <c r="Z54" s="2">
+      <c r="AA54" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA54" s="2">
-        <v>1</v>
-      </c>
       <c r="AB54" s="2">
-        <f>L54/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC54" s="2">
+        <f>M54/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AC54" s="2">
-        <f>M54*Z54*AA54</f>
+      <c r="AD54" s="2">
+        <f>N54*AA54*AB54</f>
         <v>2508.8000000000002</v>
       </c>
-      <c r="AD54" s="20"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE54" s="20"/>
+    </row>
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
@@ -5143,22 +5285,23 @@
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="14"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="46"/>
       <c r="S55" s="14"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="3"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="15"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-      <c r="AD55" s="20"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="20"/>
+    </row>
+    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
@@ -5179,22 +5322,23 @@
       <c r="N56" s="27"/>
       <c r="O56" s="27"/>
       <c r="P56" s="27"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="14"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="46"/>
       <c r="S56" s="14"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="3"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="15"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-      <c r="AD56" s="20"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="20"/>
+    </row>
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -5208,33 +5352,34 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="25" t="s">
+      <c r="J57" s="25"/>
+      <c r="K57" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="K57" s="25">
+      <c r="L57" s="25">
         <v>14</v>
       </c>
-      <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="10"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="44"/>
       <c r="S57" s="10"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="1"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="11"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57" s="20"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="20"/>
+    </row>
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -5254,93 +5399,97 @@
         <v>512</v>
       </c>
       <c r="G58" s="26">
+        <f>E58^2*F58</f>
+        <v>512</v>
+      </c>
+      <c r="H58" s="26">
         <v>64</v>
       </c>
-      <c r="H58" s="26">
-        <v>1</v>
-      </c>
       <c r="I58" s="26">
+        <v>1</v>
+      </c>
+      <c r="J58" s="26">
         <v>0</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="K58" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="K58" s="26">
+      <c r="L58" s="26">
         <v>14</v>
       </c>
-      <c r="L58" s="26">
-        <f>K58^2*G58</f>
+      <c r="M58" s="26">
+        <f>L58^2*H58</f>
         <v>12544</v>
       </c>
-      <c r="M58" s="26">
-        <f>K58^2*F58</f>
+      <c r="N58" s="26">
+        <f>L58^2*F58</f>
         <v>100352</v>
       </c>
-      <c r="N58" s="26">
-        <f>E58^2*F58*G58</f>
+      <c r="O58" s="26">
+        <f>E58^2*F58*H58</f>
         <v>32768</v>
       </c>
-      <c r="O58" s="26">
-        <f>G58</f>
+      <c r="P58" s="26">
+        <f>H58</f>
         <v>64</v>
       </c>
-      <c r="P58" s="26">
-        <f>N58+O58</f>
+      <c r="Q58" s="26">
+        <f>O58+P58</f>
         <v>32832</v>
       </c>
-      <c r="Q58" s="45" t="str">
-        <f>DEC2HEX(N58,5)&amp;"_"&amp;DEC2HEX(H58,1)&amp;DEC2HEX(I58,1)&amp;DEC2HEX(C58,1)</f>
-        <v>08000_101</v>
-      </c>
-      <c r="R58" s="12" t="str">
-        <f>DEC2HEX(G58,4)&amp;"_"&amp;DEC2HEX(F58,4)</f>
+      <c r="R58" s="45" t="str">
+        <f>DEC2HEX(G58,4)&amp;"_0"&amp;DEC2HEX(I58,1)&amp;DEC2HEX(J58,1)&amp;DEC2HEX(C58,1)</f>
+        <v>0200_0101</v>
+      </c>
+      <c r="S58" s="12" t="str">
+        <f>DEC2HEX(H58,4)&amp;"_"&amp;DEC2HEX(F58,4)</f>
         <v>0040_0200</v>
       </c>
-      <c r="S58" s="12" t="str">
-        <f>DEC2HEX(K58^2,4)&amp;"_"&amp;DEC2HEX(K58,2)&amp;DEC2HEX(K53,2)</f>
+      <c r="T58" s="12" t="str">
+        <f>DEC2HEX(L58^2,4)&amp;"_"&amp;DEC2HEX(L58,2)&amp;DEC2HEX(L53,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T58" s="33">
-        <f>T54+P54</f>
+      <c r="U58" s="33">
+        <f>U54+Q54</f>
         <v>529408</v>
       </c>
-      <c r="U58" s="12" t="str">
-        <f>DEC2HEX(T58,8)</f>
+      <c r="V58" s="12" t="str">
+        <f>DEC2HEX(U58,8)</f>
         <v>00081400</v>
       </c>
-      <c r="V58" s="33">
-        <f>X54</f>
+      <c r="W58" s="33">
+        <f>Y54</f>
         <v>3565211</v>
       </c>
-      <c r="W58" s="12" t="str">
-        <f>DEC2HEX(V58,8)</f>
+      <c r="X58" s="12" t="str">
+        <f>DEC2HEX(W58,8)</f>
         <v>0036669B</v>
       </c>
-      <c r="X58" s="33">
-        <f>V58+L54</f>
+      <c r="Y58" s="33">
+        <f>W58+M54</f>
         <v>3615387</v>
       </c>
-      <c r="Y58" s="13" t="str">
-        <f>DEC2HEX(X58,8)</f>
+      <c r="Z58" s="13" t="str">
+        <f>DEC2HEX(Y58,8)</f>
         <v>00372A9B</v>
       </c>
-      <c r="Z58" s="2">
+      <c r="AA58" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA58" s="2">
-        <v>1</v>
-      </c>
       <c r="AB58" s="2">
-        <f>L58/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC58" s="2">
+        <f>M58/64*0.97</f>
         <v>190.12</v>
       </c>
-      <c r="AC58" s="2">
-        <f>M58*Z58*AA58</f>
+      <c r="AD58" s="2">
+        <f>N58*AA58*AB58</f>
         <v>20070.400000000001</v>
       </c>
-      <c r="AD58" s="20"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE58" s="20"/>
+    </row>
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
@@ -5361,22 +5510,23 @@
       <c r="N59" s="27"/>
       <c r="O59" s="27"/>
       <c r="P59" s="27"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="14"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="46"/>
       <c r="S59" s="14"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="3"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="15"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
-      <c r="AD59" s="20"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="20"/>
+    </row>
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -5384,7 +5534,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>86</v>
@@ -5396,93 +5546,97 @@
         <v>64</v>
       </c>
       <c r="G60" s="26">
+        <f t="shared" ref="G60:G61" si="70">E60^2*F60</f>
+        <v>64</v>
+      </c>
+      <c r="H60" s="26">
         <v>256</v>
       </c>
-      <c r="H60" s="26">
-        <v>1</v>
-      </c>
       <c r="I60" s="26">
+        <v>1</v>
+      </c>
+      <c r="J60" s="26">
         <v>0</v>
       </c>
-      <c r="J60" s="26" t="s">
+      <c r="K60" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K60" s="26">
+      <c r="L60" s="26">
         <v>14</v>
       </c>
-      <c r="L60" s="26">
-        <f t="shared" ref="L60:L61" si="56">K60^2*G60</f>
+      <c r="M60" s="26">
+        <f t="shared" ref="M60:M61" si="71">L60^2*H60</f>
         <v>50176</v>
       </c>
-      <c r="M60" s="26">
-        <f t="shared" ref="M60:M61" si="57">K60^2*F60</f>
+      <c r="N60" s="26">
+        <f t="shared" ref="N60:N61" si="72">L60^2*F60</f>
         <v>12544</v>
       </c>
-      <c r="N60" s="26">
-        <f t="shared" ref="N60:N61" si="58">E60^2*F60*G60</f>
+      <c r="O60" s="26">
+        <f t="shared" ref="O60:O61" si="73">E60^2*F60*H60</f>
         <v>16384</v>
       </c>
-      <c r="O60" s="26">
-        <f t="shared" ref="O60:O61" si="59">G60</f>
+      <c r="P60" s="26">
+        <f t="shared" ref="P60:P61" si="74">H60</f>
         <v>256</v>
       </c>
-      <c r="P60" s="26">
-        <f t="shared" ref="P60:P61" si="60">N60+O60</f>
+      <c r="Q60" s="26">
+        <f t="shared" ref="Q60:Q61" si="75">O60+P60</f>
         <v>16640</v>
       </c>
-      <c r="Q60" s="45" t="str">
-        <f>DEC2HEX(N60,5)&amp;"_"&amp;DEC2HEX(H60,1)&amp;DEC2HEX(I60,1)&amp;DEC2HEX(C60,1)</f>
-        <v>04000_103</v>
-      </c>
-      <c r="R60" s="12" t="str">
-        <f>DEC2HEX(G60,4)&amp;"_"&amp;DEC2HEX(F60,4)</f>
+      <c r="R60" s="45" t="str">
+        <f t="shared" ref="R60:R61" si="76">DEC2HEX(G60,4)&amp;"_0"&amp;DEC2HEX(I60,1)&amp;DEC2HEX(J60,1)&amp;DEC2HEX(C60,1)</f>
+        <v>0040_0102</v>
+      </c>
+      <c r="S60" s="12" t="str">
+        <f>DEC2HEX(H60,4)&amp;"_"&amp;DEC2HEX(F60,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="S60" s="12" t="str">
-        <f>DEC2HEX(K60^2,4)&amp;"_"&amp;DEC2HEX(K60,2)&amp;DEC2HEX(K58,2)</f>
+      <c r="T60" s="12" t="str">
+        <f>DEC2HEX(L60^2,4)&amp;"_"&amp;DEC2HEX(L60,2)&amp;DEC2HEX(L58,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T60" s="33">
-        <f>T58+P58</f>
+      <c r="U60" s="33">
+        <f>U58+Q58</f>
         <v>562240</v>
       </c>
-      <c r="U60" s="12" t="str">
-        <f t="shared" ref="U60:U61" si="61">DEC2HEX(T60,8)</f>
+      <c r="V60" s="12" t="str">
+        <f t="shared" ref="V60:V61" si="77">DEC2HEX(U60,8)</f>
         <v>00089440</v>
       </c>
-      <c r="V60" s="33">
-        <f>X58</f>
+      <c r="W60" s="33">
+        <f>Y58</f>
         <v>3615387</v>
       </c>
-      <c r="W60" s="12" t="str">
-        <f t="shared" ref="W60:W61" si="62">DEC2HEX(V60,8)</f>
+      <c r="X60" s="12" t="str">
+        <f t="shared" ref="X60:X61" si="78">DEC2HEX(W60,8)</f>
         <v>00372A9B</v>
       </c>
-      <c r="X60" s="33">
-        <f>V60+L58</f>
+      <c r="Y60" s="33">
+        <f>W60+M58</f>
         <v>3627931</v>
       </c>
-      <c r="Y60" s="13" t="str">
-        <f t="shared" ref="Y60:Y61" si="63">DEC2HEX(X60,8)</f>
+      <c r="Z60" s="13" t="str">
+        <f t="shared" ref="Z60:Z61" si="79">DEC2HEX(Y60,8)</f>
         <v>00375B9B</v>
       </c>
-      <c r="Z60" s="2">
+      <c r="AA60" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA60" s="2">
+      <c r="AB60" s="2">
         <v>0</v>
       </c>
-      <c r="AB60" s="2">
-        <f>L60/64*0.97</f>
+      <c r="AC60" s="2">
+        <f>M60/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AC60" s="2">
-        <f>M60*Z60*AA60</f>
+      <c r="AD60" s="2">
+        <f>N60*AA60*AB60</f>
         <v>0</v>
       </c>
-      <c r="AD60" s="20"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE60" s="20"/>
+    </row>
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -5490,7 +5644,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>82</v>
@@ -5502,93 +5656,97 @@
         <v>64</v>
       </c>
       <c r="G61" s="26">
+        <f t="shared" si="70"/>
+        <v>576</v>
+      </c>
+      <c r="H61" s="26">
         <v>256</v>
       </c>
-      <c r="H61" s="26">
-        <v>1</v>
-      </c>
       <c r="I61" s="26">
         <v>1</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="26">
+        <v>1</v>
+      </c>
+      <c r="K61" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="26">
+      <c r="L61" s="26">
         <v>14</v>
       </c>
-      <c r="L61" s="26">
-        <f t="shared" si="56"/>
+      <c r="M61" s="26">
+        <f t="shared" si="71"/>
         <v>50176</v>
       </c>
-      <c r="M61" s="26">
-        <f t="shared" si="57"/>
+      <c r="N61" s="26">
+        <f t="shared" si="72"/>
         <v>12544</v>
       </c>
-      <c r="N61" s="26">
-        <f t="shared" si="58"/>
+      <c r="O61" s="26">
+        <f t="shared" si="73"/>
         <v>147456</v>
       </c>
-      <c r="O61" s="26">
-        <f t="shared" si="59"/>
+      <c r="P61" s="26">
+        <f t="shared" si="74"/>
         <v>256</v>
       </c>
-      <c r="P61" s="26">
-        <f t="shared" si="60"/>
+      <c r="Q61" s="26">
+        <f t="shared" si="75"/>
         <v>147712</v>
       </c>
-      <c r="Q61" s="45" t="str">
-        <f>DEC2HEX(N61,5)&amp;"_"&amp;DEC2HEX(H61,1)&amp;DEC2HEX(I61,1)&amp;DEC2HEX(C61,1)</f>
-        <v>24000_113</v>
-      </c>
-      <c r="R61" s="12" t="str">
-        <f>DEC2HEX(G61,4)&amp;"_"&amp;DEC2HEX(F61,4)</f>
+      <c r="R61" s="45" t="str">
+        <f t="shared" si="76"/>
+        <v>0240_0111</v>
+      </c>
+      <c r="S61" s="12" t="str">
+        <f>DEC2HEX(H61,4)&amp;"_"&amp;DEC2HEX(F61,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="S61" s="12" t="str">
-        <f>DEC2HEX(K61^2,4)&amp;"_"&amp;DEC2HEX(K61,2)&amp;DEC2HEX(K58,2)</f>
+      <c r="T61" s="12" t="str">
+        <f>DEC2HEX(L61^2,4)&amp;"_"&amp;DEC2HEX(L61,2)&amp;DEC2HEX(L58,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T61" s="33">
-        <f>T60+P60</f>
+      <c r="U61" s="33">
+        <f>U60+Q60</f>
         <v>578880</v>
       </c>
-      <c r="U61" s="12" t="str">
-        <f t="shared" si="61"/>
+      <c r="V61" s="12" t="str">
+        <f t="shared" si="77"/>
         <v>0008D540</v>
       </c>
-      <c r="V61" s="33">
-        <f>X58</f>
+      <c r="W61" s="33">
+        <f>Y58</f>
         <v>3615387</v>
       </c>
-      <c r="W61" s="12" t="str">
-        <f t="shared" si="62"/>
+      <c r="X61" s="12" t="str">
+        <f t="shared" si="78"/>
         <v>00372A9B</v>
       </c>
-      <c r="X61" s="33">
-        <f>V61+L58+L60</f>
+      <c r="Y61" s="33">
+        <f>W61+M58+M60</f>
         <v>3678107</v>
       </c>
-      <c r="Y61" s="13" t="str">
-        <f t="shared" si="63"/>
+      <c r="Z61" s="13" t="str">
+        <f t="shared" si="79"/>
         <v>00381F9B</v>
       </c>
-      <c r="Z61" s="2">
+      <c r="AA61" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA61" s="2">
-        <v>1</v>
-      </c>
       <c r="AB61" s="2">
-        <f>L61/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC61" s="2">
+        <f>M61/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AC61" s="2">
-        <f>M61*Z61*AA61</f>
+      <c r="AD61" s="2">
+        <f>N61*AA61*AB61</f>
         <v>2508.8000000000002</v>
       </c>
-      <c r="AD61" s="20"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE61" s="20"/>
+    </row>
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
@@ -5609,22 +5767,23 @@
       <c r="N62" s="27"/>
       <c r="O62" s="27"/>
       <c r="P62" s="27"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="14"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="46"/>
       <c r="S62" s="14"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="3"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="15"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-      <c r="AD62" s="20"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="20"/>
+    </row>
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
@@ -5645,22 +5804,23 @@
       <c r="N63" s="27"/>
       <c r="O63" s="27"/>
       <c r="P63" s="27"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="14"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="46"/>
       <c r="S63" s="14"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="3"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="15"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="20"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="20"/>
+    </row>
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
@@ -5674,33 +5834,34 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="25"/>
+      <c r="K64" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="K64" s="25">
+      <c r="L64" s="25">
         <v>14</v>
       </c>
-      <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="10"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="44"/>
       <c r="S64" s="10"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="1"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="11"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-      <c r="AD64" s="20"/>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="20"/>
+    </row>
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="38" t="s">
         <v>65</v>
       </c>
@@ -5721,22 +5882,23 @@
       <c r="N65" s="27"/>
       <c r="O65" s="27"/>
       <c r="P65" s="27"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="14"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="46"/>
       <c r="S65" s="14"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="14"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="14"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="3"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="15"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
-      <c r="AD65" s="20"/>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="20"/>
+    </row>
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -5756,93 +5918,97 @@
         <v>512</v>
       </c>
       <c r="G66" s="26">
+        <f>E66^2*F66</f>
+        <v>512</v>
+      </c>
+      <c r="H66" s="26">
         <v>1000</v>
       </c>
-      <c r="H66" s="26">
-        <v>1</v>
-      </c>
       <c r="I66" s="26">
+        <v>1</v>
+      </c>
+      <c r="J66" s="26">
         <v>0</v>
       </c>
-      <c r="J66" s="26" t="s">
+      <c r="K66" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K66" s="26">
+      <c r="L66" s="26">
         <v>14</v>
       </c>
-      <c r="L66" s="26">
-        <f>K66^2*G66</f>
+      <c r="M66" s="26">
+        <f>L66^2*H66</f>
         <v>196000</v>
       </c>
-      <c r="M66" s="26">
-        <f>K66^2*F66</f>
+      <c r="N66" s="26">
+        <f>L66^2*F66</f>
         <v>100352</v>
       </c>
-      <c r="N66" s="26">
-        <f>E66^2*F66*G66</f>
+      <c r="O66" s="26">
+        <f>E66^2*F66*H66</f>
         <v>512000</v>
       </c>
-      <c r="O66" s="26">
-        <f>G66</f>
+      <c r="P66" s="26">
+        <f>H66</f>
         <v>1000</v>
       </c>
-      <c r="P66" s="26">
-        <f>N66+O66</f>
+      <c r="Q66" s="26">
+        <f>O66+P66</f>
         <v>513000</v>
       </c>
-      <c r="Q66" s="45" t="str">
-        <f>DEC2HEX(N66,5)&amp;"_"&amp;DEC2HEX(H66,1)&amp;DEC2HEX(I66,1)&amp;DEC2HEX(C66,1)</f>
-        <v>7D000_101</v>
-      </c>
-      <c r="R66" s="12" t="str">
-        <f>DEC2HEX(G66,4)&amp;"_"&amp;DEC2HEX(F66,4)</f>
+      <c r="R66" s="45" t="str">
+        <f>DEC2HEX(G66,4)&amp;"_0"&amp;DEC2HEX(I66,1)&amp;DEC2HEX(J66,1)&amp;DEC2HEX(C66,1)</f>
+        <v>0200_0101</v>
+      </c>
+      <c r="S66" s="12" t="str">
+        <f>DEC2HEX(H66,4)&amp;"_"&amp;DEC2HEX(F66,4)</f>
         <v>03E8_0200</v>
       </c>
-      <c r="S66" s="12" t="str">
-        <f>DEC2HEX(K66^2,4)&amp;"_"&amp;DEC2HEX(K66,2)&amp;DEC2HEX(K60,2)</f>
+      <c r="T66" s="12" t="str">
+        <f>DEC2HEX(L66^2,4)&amp;"_"&amp;DEC2HEX(L66,2)&amp;DEC2HEX(L60,2)</f>
         <v>00C4_0E0E</v>
       </c>
-      <c r="T66" s="33">
-        <f>T61+P61</f>
+      <c r="U66" s="33">
+        <f>U61+Q61</f>
         <v>726592</v>
       </c>
-      <c r="U66" s="12" t="str">
-        <f>DEC2HEX(T66,8)</f>
+      <c r="V66" s="12" t="str">
+        <f>DEC2HEX(U66,8)</f>
         <v>000B1640</v>
       </c>
-      <c r="V66" s="33">
-        <f>X61</f>
+      <c r="W66" s="33">
+        <f>Y61</f>
         <v>3678107</v>
       </c>
-      <c r="W66" s="12" t="str">
-        <f>DEC2HEX(V66,8)</f>
+      <c r="X66" s="12" t="str">
+        <f>DEC2HEX(W66,8)</f>
         <v>00381F9B</v>
       </c>
-      <c r="X66" s="33">
-        <f>V66+L61</f>
+      <c r="Y66" s="33">
+        <f>W66+M61</f>
         <v>3728283</v>
       </c>
-      <c r="Y66" s="13" t="str">
-        <f>DEC2HEX(X66,8)</f>
+      <c r="Z66" s="13" t="str">
+        <f>DEC2HEX(Y66,8)</f>
         <v>0038E39B</v>
       </c>
-      <c r="Z66" s="2">
+      <c r="AA66" s="2">
         <v>0.2</v>
       </c>
-      <c r="AA66" s="2">
-        <v>1</v>
-      </c>
       <c r="AB66" s="2">
-        <f>L66/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC66" s="2">
+        <f>M66/64*0.97</f>
         <v>2970.625</v>
       </c>
-      <c r="AC66" s="2">
-        <f>M66*Z66*AA66</f>
+      <c r="AD66" s="2">
+        <f>N66*AA66*AB66</f>
         <v>20070.400000000001</v>
       </c>
-      <c r="AD66" s="20"/>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE66" s="20"/>
+    </row>
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>67</v>
       </c>
@@ -5863,22 +6029,23 @@
       <c r="N67" s="27"/>
       <c r="O67" s="27"/>
       <c r="P67" s="27"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="14"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="46"/>
       <c r="S67" s="14"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="14"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="14"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="3"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="15"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-      <c r="AD67" s="20"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="20"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
@@ -5889,7 +6056,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E68" s="28">
         <v>14</v>
@@ -5898,81 +6065,85 @@
         <v>1</v>
       </c>
       <c r="G68" s="28">
+        <f>E68^2*F68</f>
+        <v>196</v>
+      </c>
+      <c r="H68" s="28">
         <v>1000</v>
       </c>
-      <c r="H68" s="28">
-        <v>1</v>
-      </c>
       <c r="I68" s="28">
+        <v>1</v>
+      </c>
+      <c r="J68" s="28">
         <v>0</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="K68" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="K68" s="28">
-        <v>1</v>
-      </c>
       <c r="L68" s="28">
-        <f>K68^2*G68</f>
+        <v>1</v>
+      </c>
+      <c r="M68" s="28">
+        <f>L68^2*H68</f>
         <v>1000</v>
       </c>
-      <c r="M68" s="28">
-        <f>L68</f>
+      <c r="N68" s="28">
+        <f>M68</f>
         <v>1000</v>
       </c>
-      <c r="N68" s="28"/>
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="47" t="str">
-        <f>DEC2HEX(E68^2*F68,5)&amp;"_"&amp;DEC2HEX(H68,1)&amp;DEC2HEX(I68,1)&amp;DEC2HEX(C68,1)</f>
-        <v>000C4_105</v>
-      </c>
-      <c r="R68" s="16" t="str">
-        <f>DEC2HEX(G68,4)&amp;"_"&amp;DEC2HEX(G68,4)</f>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="47" t="str">
+        <f>DEC2HEX(G68,4)&amp;"_0"&amp;DEC2HEX(I68,1)&amp;DEC2HEX(J68,1)&amp;DEC2HEX(C68,1)</f>
+        <v>00C4_0105</v>
+      </c>
+      <c r="S68" s="16" t="str">
+        <f>DEC2HEX(H68,4)&amp;"_"&amp;DEC2HEX(H68,4)</f>
         <v>03E8_03E8</v>
       </c>
-      <c r="S68" s="16" t="str">
-        <f>DEC2HEX(K68^2,4)&amp;"_"&amp;DEC2HEX(K68,2)&amp;DEC2HEX(K66,2)</f>
+      <c r="T68" s="16" t="str">
+        <f>DEC2HEX(L68^2,4)&amp;"_"&amp;DEC2HEX(L68,2)&amp;DEC2HEX(L66,2)</f>
         <v>0001_010E</v>
       </c>
-      <c r="T68" s="35"/>
-      <c r="U68" s="16" t="str">
+      <c r="U68" s="35"/>
+      <c r="V68" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="V68" s="35">
-        <f>X66</f>
+      <c r="W68" s="35">
+        <f>Y66</f>
         <v>3728283</v>
       </c>
-      <c r="W68" s="16" t="str">
-        <f>DEC2HEX(V68,8)</f>
+      <c r="X68" s="16" t="str">
+        <f>DEC2HEX(W68,8)</f>
         <v>0038E39B</v>
       </c>
-      <c r="X68" s="35">
-        <f>V68+L66</f>
+      <c r="Y68" s="35">
+        <f>W68+M66</f>
         <v>3924283</v>
       </c>
-      <c r="Y68" s="17" t="str">
-        <f>DEC2HEX(X68,8)</f>
+      <c r="Z68" s="17" t="str">
+        <f>DEC2HEX(Y68,8)</f>
         <v>003BE13B</v>
       </c>
-      <c r="Z68" s="4">
+      <c r="AA68" s="4">
         <v>1.2</v>
       </c>
-      <c r="AA68" s="4">
-        <v>1</v>
-      </c>
       <c r="AB68" s="4">
-        <f>L68/64*0.97</f>
+        <v>1</v>
+      </c>
+      <c r="AC68" s="4">
+        <f>M68/64*0.97</f>
         <v>15.15625</v>
       </c>
-      <c r="AC68" s="4">
-        <f>M68*Z68*AA68</f>
+      <c r="AD68" s="4">
+        <f>N68*AA68*AB68</f>
         <v>1200</v>
       </c>
-      <c r="AD68" s="20"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE68" s="20"/>
+    </row>
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -5993,129 +6164,139 @@
       <c r="N69" s="25"/>
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="10"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="44"/>
       <c r="S69" s="10"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="1"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="11"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69" s="20"/>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="20"/>
+    </row>
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="24"/>
       <c r="C70" s="40"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
-      <c r="L70" s="24">
-        <f>SUM(L3:L69)</f>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24">
+        <f>SUM(M3:M69)</f>
         <v>3269923</v>
       </c>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24">
-        <f>SUM(N4:N69)</f>
-        <v>1231552</v>
-      </c>
+      <c r="N70" s="24"/>
       <c r="O70" s="24">
         <f>SUM(O4:O69)</f>
+        <v>1231552</v>
+      </c>
+      <c r="P70" s="24">
+        <f>SUM(P4:P69)</f>
         <v>3944</v>
       </c>
-      <c r="P70" s="40">
-        <f>SUM(P4:P69)</f>
+      <c r="Q70" s="40">
+        <f>SUM(Q4:Q69)</f>
         <v>1235496</v>
       </c>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="18"/>
+      <c r="R70" s="48"/>
       <c r="S70" s="18"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="20"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="19"/>
       <c r="AA70" s="20"/>
-      <c r="AB70" s="20">
-        <f>SUM(AB3:AB69)</f>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20">
+        <f>SUM(AC3:AC69)</f>
         <v>49559.770468750008</v>
       </c>
-      <c r="AC70" s="20">
-        <f t="shared" ref="AC70" si="64">SUM(AC4:AC69)</f>
+      <c r="AD70" s="20">
+        <f t="shared" ref="AD70" si="80">SUM(AD4:AD69)</f>
         <v>417544.91999999993</v>
       </c>
-      <c r="AD70" s="20"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE70" s="20"/>
+    </row>
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="24"/>
       <c r="C71" s="40"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
+      <c r="G71" s="50"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
-      <c r="L71" s="24">
-        <f>L70*16/1024/8</f>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24">
+        <f>M70*16/1024/8</f>
         <v>6386.568359375</v>
       </c>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24">
-        <f>N70*16/1024/8</f>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24">
+        <f>O70*16/1024/8</f>
         <v>2405.375</v>
       </c>
-      <c r="O71" s="24">
-        <f>N70+O70</f>
+      <c r="P71" s="24">
+        <f>O70+P70</f>
         <v>1235496</v>
       </c>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="48"/>
-      <c r="R71" s="18"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="48"/>
       <c r="S71" s="18"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="20"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="19"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
+  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AVE Pooling"/>
+        <filter val="MAX Pooling"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="R1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="X70:X72 V7:V68 X4:X68" formula="1"/>
+    <ignoredError sqref="Y70:Y72 W7:W68 Y4:Y68" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6124,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E501AE-4D2D-491C-85E4-0C34FDA03C89}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+    <sheetView topLeftCell="A5" zoomScale="76" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6146,13 +6327,13 @@
         <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>136</v>
@@ -6184,13 +6365,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>138</v>
@@ -6234,10 +6415,10 @@
         <v>97</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>137</v>
@@ -6272,16 +6453,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>139</v>
@@ -6291,7 +6472,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>0040 0103</v>
+        <v>0040 0102</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
@@ -6316,26 +6497,26 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>139</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>0240 0113</v>
+        <v>0240 0111</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
@@ -6360,22 +6541,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -6404,26 +6585,26 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>0040 0103</v>
+        <v>0040 0102</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
@@ -6448,26 +6629,26 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>0240 0113</v>
+        <v>0240 0111</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
@@ -6492,22 +6673,22 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -6536,22 +6717,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -6580,26 +6761,26 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="45" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>0100 0103</v>
+        <v>0100 0102</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
@@ -6624,26 +6805,26 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>0900 0113</v>
+        <v>0900 0111</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
@@ -6668,22 +6849,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -6712,26 +6893,26 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="45" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>0100 0103</v>
+        <v>0100 0102</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
@@ -6756,26 +6937,26 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="45" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>0900 0113</v>
+        <v>0900 0111</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
@@ -6800,22 +6981,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>138</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
@@ -6844,22 +7025,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
@@ -6888,26 +7069,26 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="45" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>0240 0103</v>
+        <v>0240 0102</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
@@ -6932,26 +7113,26 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>1440 0113</v>
+        <v>1440 0111</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="2"/>
@@ -6976,22 +7157,22 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -7020,26 +7201,26 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>0240 0103</v>
+        <v>0240 0102</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="2"/>
@@ -7064,26 +7245,26 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>1440 0113</v>
+        <v>1440 0111</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="2"/>
@@ -7108,22 +7289,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
@@ -7152,26 +7333,26 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="45" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>0400 0103</v>
+        <v>0400 0102</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="2"/>
@@ -7196,26 +7377,26 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>2400 0113</v>
+        <v>2400 0111</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="2"/>
@@ -7240,22 +7421,22 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="45" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
@@ -7284,26 +7465,26 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="45" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>0400 0103</v>
+        <v>0400 0102</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="2"/>
@@ -7328,26 +7509,26 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="45" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>2400 0113</v>
+        <v>2400 0111</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="2"/>
@@ -7372,22 +7553,22 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="45" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
@@ -7416,22 +7597,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13666504-F3D4-4B59-B815-0DE4A5F491F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7E5844-8295-42BB-99D7-961A1BB5F0FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="248">
   <si>
     <t>INPUT</t>
   </si>
@@ -298,9 +298,6 @@
     <t>1x1</t>
   </si>
   <si>
-    <t>27x27x128</t>
-  </si>
-  <si>
     <t>1x1x1000</t>
   </si>
   <si>
@@ -436,12 +433,6 @@
     <t>Op_type</t>
   </si>
   <si>
-    <t>op_num|stride|padding|type</t>
-  </si>
-  <si>
-    <t>006C0_202</t>
-  </si>
-  <si>
     <t>00001000</t>
   </si>
   <si>
@@ -457,9 +448,6 @@
     <t>001BE41B</t>
   </si>
   <si>
-    <t>00400_101</t>
-  </si>
-  <si>
     <t>001CA81B</t>
   </si>
   <si>
@@ -469,9 +457,6 @@
     <t>0022C81B</t>
   </si>
   <si>
-    <t>00800_101</t>
-  </si>
-  <si>
     <t>00238C1B</t>
   </si>
   <si>
@@ -484,9 +469,6 @@
     <t>002B341B</t>
   </si>
   <si>
-    <t>01000_101</t>
-  </si>
-  <si>
     <t>002B961B</t>
   </si>
   <si>
@@ -496,9 +478,6 @@
     <t>002EA61B</t>
   </si>
   <si>
-    <t>02000_101</t>
-  </si>
-  <si>
     <t>002F081B</t>
   </si>
   <si>
@@ -511,9 +490,6 @@
     <t>0032DC1B</t>
   </si>
   <si>
-    <t>03000_101</t>
-  </si>
-  <si>
     <t>003300DB</t>
   </si>
   <si>
@@ -526,9 +502,6 @@
     <t>003426DB</t>
   </si>
   <si>
-    <t>04800_101</t>
-  </si>
-  <si>
     <t>00344B9B</t>
   </si>
   <si>
@@ -538,9 +511,6 @@
     <t>0035719B</t>
   </si>
   <si>
-    <t>06000_101</t>
-  </si>
-  <si>
     <t>0035A29B</t>
   </si>
   <si>
@@ -550,9 +520,6 @@
     <t>00372A9B</t>
   </si>
   <si>
-    <t>08000_101</t>
-  </si>
-  <si>
     <t>00375B9B</t>
   </si>
   <si>
@@ -562,9 +529,6 @@
     <t>0038E39B</t>
   </si>
   <si>
-    <t>7D000_101</t>
-  </si>
-  <si>
     <t>03E8_0200</t>
   </si>
   <si>
@@ -580,15 +544,6 @@
     <t>14x14</t>
   </si>
   <si>
-    <t>00009_204</t>
-  </si>
-  <si>
-    <t>000C4_105</t>
-  </si>
-  <si>
-    <t>0001_010E</t>
-  </si>
-  <si>
     <t>Conv Weight</t>
   </si>
   <si>
@@ -670,58 +625,160 @@
     <t>000B1640</t>
   </si>
   <si>
-    <t>osurf, oiside</t>
-  </si>
-  <si>
     <t>oichannel</t>
   </si>
   <si>
-    <t>31E1_71E3</t>
-  </si>
-  <si>
-    <t>0C40_3871</t>
-  </si>
-  <si>
-    <t>0C40_3838</t>
-  </si>
-  <si>
-    <t>0310_1C38</t>
-  </si>
-  <si>
-    <t>0310_1C1C</t>
-  </si>
-  <si>
-    <t>00C4_0E1C</t>
-  </si>
-  <si>
-    <t>00C4_0E0E</t>
-  </si>
-  <si>
-    <t>00400_102</t>
-  </si>
-  <si>
-    <t>02400_111</t>
-  </si>
-  <si>
-    <t>01000_102</t>
-  </si>
-  <si>
-    <t>09000_111</t>
-  </si>
-  <si>
-    <t>02400_102</t>
-  </si>
-  <si>
-    <t>14400_111</t>
-  </si>
-  <si>
-    <t>04000_102</t>
-  </si>
-  <si>
-    <t>24000_111</t>
-  </si>
-  <si>
     <t>op_num</t>
+  </si>
+  <si>
+    <t>op_center|stride|padding|type</t>
+  </si>
+  <si>
+    <t>op_side|op_corner</t>
+  </si>
+  <si>
+    <t>001B_0202</t>
+  </si>
+  <si>
+    <t>001B_001B</t>
+  </si>
+  <si>
+    <t>0009_0204</t>
+  </si>
+  <si>
+    <t>0009_0009</t>
+  </si>
+  <si>
+    <t>0040_0101</t>
+  </si>
+  <si>
+    <t>0010_0102</t>
+  </si>
+  <si>
+    <t>0010_0010</t>
+  </si>
+  <si>
+    <t>0090_0111</t>
+  </si>
+  <si>
+    <t>0060_0040</t>
+  </si>
+  <si>
+    <t>0080_0101</t>
+  </si>
+  <si>
+    <t>0020_0102</t>
+  </si>
+  <si>
+    <t>0020_0020</t>
+  </si>
+  <si>
+    <t>0120_0111</t>
+  </si>
+  <si>
+    <t>00C0_0080</t>
+  </si>
+  <si>
+    <t>0100_0101</t>
+  </si>
+  <si>
+    <t>0030_0102</t>
+  </si>
+  <si>
+    <t>0030_0030</t>
+  </si>
+  <si>
+    <t>01B0_0111</t>
+  </si>
+  <si>
+    <t>0120_00C0</t>
+  </si>
+  <si>
+    <t>0180_0101</t>
+  </si>
+  <si>
+    <t>0180_0180</t>
+  </si>
+  <si>
+    <t>0040_0102</t>
+  </si>
+  <si>
+    <t>0240_0111</t>
+  </si>
+  <si>
+    <t>0180_0100</t>
+  </si>
+  <si>
+    <t>0200_0101</t>
+  </si>
+  <si>
+    <t>0200_0200</t>
+  </si>
+  <si>
+    <t>00C4_0105</t>
+  </si>
+  <si>
+    <t>00C4_00C4</t>
+  </si>
+  <si>
+    <t>oisurf</t>
+  </si>
+  <si>
+    <t>kernel, oiside</t>
+  </si>
+  <si>
+    <t>0003_71E3</t>
+  </si>
+  <si>
+    <t>31E1_C949</t>
+  </si>
+  <si>
+    <t>0009_3871</t>
+  </si>
+  <si>
+    <t>0C40_31E1</t>
+  </si>
+  <si>
+    <t>0001_3838</t>
+  </si>
+  <si>
+    <t>0C40_0C40</t>
+  </si>
+  <si>
+    <t>0003_3838</t>
+  </si>
+  <si>
+    <t>0003_1C38</t>
+  </si>
+  <si>
+    <t>0310_0C40</t>
+  </si>
+  <si>
+    <t>0001_1C1C</t>
+  </si>
+  <si>
+    <t>0310_0310</t>
+  </si>
+  <si>
+    <t>0003_1C1C</t>
+  </si>
+  <si>
+    <t>0003_0E1C</t>
+  </si>
+  <si>
+    <t>00C4_0310</t>
+  </si>
+  <si>
+    <t>0001_0E0E</t>
+  </si>
+  <si>
+    <t>0003_0E0E</t>
+  </si>
+  <si>
+    <t>000E_010E</t>
+  </si>
+  <si>
+    <t>0001_00C4</t>
   </si>
 </sst>
 </file>
@@ -867,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,6 +1058,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1353,11 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE71"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R68"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,64 +1436,68 @@
     <col min="15" max="15" width="12.81640625" style="30" customWidth="1"/>
     <col min="16" max="16" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" style="31" customWidth="1"/>
-    <col min="23" max="23" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.26953125" style="49" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.90625" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.81640625" style="37" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.81640625" style="31" customWidth="1"/>
     <col min="25" max="25" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.81640625" style="43" customWidth="1"/>
-    <col min="27" max="27" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" style="31" customWidth="1"/>
+    <col min="27" max="27" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="43" customWidth="1"/>
+    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
+      <c r="K1" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
       <c r="Z1" s="58"/>
-      <c r="AA1" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1442,17 +1505,17 @@
         <v>10</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="24" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>84</v>
@@ -1463,61 +1526,67 @@
       <c r="J2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>85</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="T2" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="W2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59" t="s">
-        <v>179</v>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="Z2" s="60"/>
-      <c r="AA2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="AA2" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB2" s="61"/>
       <c r="AC2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1604,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="25">
         <v>227</v>
@@ -1551,24 +1620,26 @@
       <c r="R3" s="44"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="32"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="32"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="32"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1">
         <f>M3/64*0.97</f>
         <v>2342.9592187499998</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="20" t="s">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L4" s="26">
         <v>113</v>
@@ -1631,52 +1702,60 @@
         <v>001B_0202</v>
       </c>
       <c r="S4" s="12" t="str">
+        <f>IF(J4=0,DEC2HEX(G4,4)&amp;"_"&amp;DEC2HEX(G4,4), DEC2HEX(G4/9*6,4)&amp;"_"&amp;DEC2HEX(G4/9*4,4))</f>
+        <v>001B_001B</v>
+      </c>
+      <c r="T4" s="12" t="str">
         <f>DEC2HEX(H4,4)&amp;"_"&amp;DEC2HEX(F4,4)</f>
         <v>0040_0003</v>
       </c>
-      <c r="T4" s="12" t="str">
-        <f>DEC2HEX(L4^2,4)&amp;"_"&amp;DEC2HEX(L4,2)&amp;DEC2HEX(L3,2)</f>
-        <v>31E1_71E3</v>
-      </c>
-      <c r="U4" s="33">
+      <c r="U4" s="12" t="str">
+        <f>DEC2HEX(E4,4)&amp;"_"&amp;DEC2HEX(L4,2)&amp;DEC2HEX(L3,2)</f>
+        <v>0003_71E3</v>
+      </c>
+      <c r="V4" s="12" t="str">
+        <f>DEC2HEX(L4^2,4)&amp;"_"&amp;DEC2HEX(L3^2,4)</f>
+        <v>31E1_C949</v>
+      </c>
+      <c r="W4" s="33">
         <v>4096</v>
-      </c>
-      <c r="V4" s="12" t="str">
-        <f>DEC2HEX(U4,8)</f>
-        <v>00001000</v>
-      </c>
-      <c r="W4" s="33">
-        <v>655360</v>
       </c>
       <c r="X4" s="12" t="str">
         <f>DEC2HEX(W4,8)</f>
+        <v>00001000</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>655360</v>
+      </c>
+      <c r="Z4" s="12" t="str">
+        <f>DEC2HEX(Y4,8)</f>
         <v>000A0000</v>
       </c>
-      <c r="Y4" s="33">
-        <f>W4+M3</f>
+      <c r="AA4" s="33">
+        <f>Y4+M3</f>
         <v>809947</v>
       </c>
-      <c r="Z4" s="13" t="str">
-        <f>DEC2HEX(Y4,8)</f>
+      <c r="AB4" s="13" t="str">
+        <f>DEC2HEX(AA4,8)</f>
         <v>000C5BDB</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AC4" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
         <f>M4/64*0.97</f>
         <v>12385.93</v>
       </c>
-      <c r="AD4" s="2">
-        <f>N4*AA4*AB4</f>
+      <c r="AF4" s="2">
+        <f>N4*AC4*AD4</f>
         <v>7661.4000000000005</v>
       </c>
-      <c r="AE4" s="20"/>
-    </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG4" s="20"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1701,19 +1780,21 @@
       <c r="R5" s="46"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="34"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="34"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="34"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="15"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="20"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="20"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="28">
         <v>56</v>
@@ -1767,51 +1848,59 @@
         <v>0009_0204</v>
       </c>
       <c r="S6" s="16" t="str">
+        <f>IF(J6=0,DEC2HEX(G6,4)&amp;"_"&amp;DEC2HEX(G6,4), DEC2HEX(G6/9*6,4)&amp;"_"&amp;DEC2HEX(G6/9*4,4))</f>
+        <v>0009_0009</v>
+      </c>
+      <c r="T6" s="16" t="str">
         <f>DEC2HEX(H6,4)&amp;"_"&amp;DEC2HEX(H6,4)</f>
         <v>0040_0040</v>
       </c>
-      <c r="T6" s="16" t="str">
-        <f>DEC2HEX(L6^2,4)&amp;"_"&amp;DEC2HEX(L6,2)&amp;DEC2HEX(L4,2)</f>
-        <v>0C40_3871</v>
-      </c>
-      <c r="U6" s="35"/>
+      <c r="U6" s="16" t="str">
+        <f>DEC2HEX(E6^2,4)&amp;"_"&amp;DEC2HEX(L6,2)&amp;DEC2HEX(L4,2)</f>
+        <v>0009_3871</v>
+      </c>
       <c r="V6" s="16" t="str">
+        <f>DEC2HEX(L6^2,4)&amp;"_"&amp;DEC2HEX(L4^2,4)</f>
+        <v>0C40_31E1</v>
+      </c>
+      <c r="W6" s="35"/>
+      <c r="X6" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="W6" s="35">
-        <f>Y4</f>
+      <c r="Y6" s="35">
+        <f>AA4</f>
         <v>809947</v>
       </c>
-      <c r="X6" s="16" t="str">
-        <f>DEC2HEX(W6,8)</f>
+      <c r="Z6" s="16" t="str">
+        <f>DEC2HEX(Y6,8)</f>
         <v>000C5BDB</v>
       </c>
-      <c r="Y6" s="35">
-        <f>W6+M4</f>
+      <c r="AA6" s="35">
+        <f>Y6+M4</f>
         <v>1627163</v>
       </c>
-      <c r="Z6" s="17" t="str">
-        <f>DEC2HEX(Y6,8)</f>
+      <c r="AB6" s="17" t="str">
+        <f>DEC2HEX(AA6,8)</f>
         <v>0018D41B</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AC6" s="4">
         <v>0.31</v>
       </c>
-      <c r="AB6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4">
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
         <f>M6/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD6" s="4">
-        <f>N6*AA6*AB6</f>
+      <c r="AF6" s="4">
+        <f>N6*AC6*AD6</f>
         <v>62218.239999999998</v>
       </c>
-      <c r="AE6" s="20"/>
-    </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG6" s="20"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L7" s="26">
         <v>56</v>
@@ -1874,54 +1963,62 @@
         <v>0040_0101</v>
       </c>
       <c r="S7" s="12" t="str">
+        <f>IF(J7=0,DEC2HEX(G7,4)&amp;"_"&amp;DEC2HEX(G7,4), DEC2HEX(G7/9*6,4)&amp;"_"&amp;DEC2HEX(G7/9*4,4))</f>
+        <v>0040_0040</v>
+      </c>
+      <c r="T7" s="12" t="str">
         <f>DEC2HEX(H7,4)&amp;"_"&amp;DEC2HEX(F7,4)</f>
         <v>0010_0040</v>
       </c>
-      <c r="T7" s="12" t="str">
-        <f>DEC2HEX(L7^2,4)&amp;"_"&amp;DEC2HEX(L7,2)&amp;DEC2HEX(L6,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U7" s="33">
-        <f>U4+Q4</f>
+      <c r="U7" s="12" t="str">
+        <f>DEC2HEX(E7,4)&amp;"_"&amp;DEC2HEX(L7,2)&amp;DEC2HEX(L6,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f>DEC2HEX(L7^2,4)&amp;"_"&amp;DEC2HEX(L6^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W7" s="33">
+        <f>W4+Q4</f>
         <v>5888</v>
-      </c>
-      <c r="V7" s="12" t="str">
-        <f>DEC2HEX(U7,8)</f>
-        <v>00001700</v>
-      </c>
-      <c r="W7" s="33">
-        <f>Y6</f>
-        <v>1627163</v>
       </c>
       <c r="X7" s="12" t="str">
         <f>DEC2HEX(W7,8)</f>
+        <v>00001700</v>
+      </c>
+      <c r="Y7" s="33">
+        <f>AA6</f>
+        <v>1627163</v>
+      </c>
+      <c r="Z7" s="12" t="str">
+        <f>DEC2HEX(Y7,8)</f>
         <v>0018D41B</v>
       </c>
-      <c r="Y7" s="33">
-        <f>W7+M6</f>
+      <c r="AA7" s="33">
+        <f>Y7+M6</f>
         <v>1827867</v>
       </c>
-      <c r="Z7" s="13" t="str">
-        <f>DEC2HEX(Y7,8)</f>
+      <c r="AB7" s="13" t="str">
+        <f>DEC2HEX(AA7,8)</f>
         <v>001BE41B</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
         <f>M7/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD7" s="2">
-        <f>N7*AA7*AB7</f>
+      <c r="AF7" s="2">
+        <f>N7*AC7*AD7</f>
         <v>40140.800000000003</v>
       </c>
-      <c r="AE7" s="20"/>
-    </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG7" s="20"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1946,19 +2043,21 @@
       <c r="R8" s="46"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="34"/>
+      <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="34"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="34"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="15"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="20"/>
-    </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="20"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>86</v>
@@ -1991,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" s="26">
         <v>56</v>
@@ -2018,57 +2117,65 @@
       </c>
       <c r="R9" s="45" t="str">
         <f t="shared" ref="R9:R10" si="6">DEC2HEX(G9,4)&amp;"_0"&amp;DEC2HEX(I9,1)&amp;DEC2HEX(J9,1)&amp;DEC2HEX(C9,1)</f>
-        <v>0010_0102</v>
+        <v>0010_0101</v>
       </c>
       <c r="S9" s="12" t="str">
+        <f t="shared" ref="S9:S10" si="7">IF(J9=0,DEC2HEX(G9,4)&amp;"_"&amp;DEC2HEX(G9,4), DEC2HEX(G9/9*6,4)&amp;"_"&amp;DEC2HEX(G9/9*4,4))</f>
+        <v>0010_0010</v>
+      </c>
+      <c r="T9" s="12" t="str">
         <f>DEC2HEX(H9,4)&amp;"_"&amp;DEC2HEX(F9,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T9" s="12" t="str">
-        <f>DEC2HEX(L9^2,4)&amp;"_"&amp;DEC2HEX(L9,2)&amp;DEC2HEX(L7,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U9" s="33">
-        <f>U7+Q7</f>
+      <c r="U9" s="12" t="str">
+        <f>DEC2HEX(E9,4)&amp;"_"&amp;DEC2HEX(L9,2)&amp;DEC2HEX(L7,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V9" s="12" t="str">
+        <f>DEC2HEX(L9^2,4)&amp;"_"&amp;DEC2HEX(L7^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W9" s="33">
+        <f>W7+Q7</f>
         <v>6928</v>
-      </c>
-      <c r="V9" s="12" t="str">
-        <f t="shared" ref="V9:V10" si="7">DEC2HEX(U9,8)</f>
-        <v>00001B10</v>
-      </c>
-      <c r="W9" s="33">
-        <f>Y7</f>
-        <v>1827867</v>
       </c>
       <c r="X9" s="12" t="str">
         <f t="shared" ref="X9:X10" si="8">DEC2HEX(W9,8)</f>
+        <v>00001B10</v>
+      </c>
+      <c r="Y9" s="33">
+        <f>AA7</f>
+        <v>1827867</v>
+      </c>
+      <c r="Z9" s="12" t="str">
+        <f t="shared" ref="Z9:Z10" si="9">DEC2HEX(Y9,8)</f>
         <v>001BE41B</v>
       </c>
-      <c r="Y9" s="33">
-        <f>W9+M7</f>
+      <c r="AA9" s="33">
+        <f>Y9+M7</f>
         <v>1878043</v>
       </c>
-      <c r="Z9" s="13" t="str">
-        <f t="shared" ref="Z9:Z10" si="9">DEC2HEX(Y9,8)</f>
+      <c r="AB9" s="13" t="str">
+        <f t="shared" ref="AB9:AB10" si="10">DEC2HEX(AA9,8)</f>
         <v>001CA81B</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AC9" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AD9" s="2">
         <v>0</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AE9" s="2">
         <f>M9/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD9" s="2">
-        <f>N9*AA9*AB9</f>
+      <c r="AF9" s="2">
+        <f>N9*AC9*AD9</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="20"/>
-    </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG9" s="20"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2183,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>82</v>
@@ -2101,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="26">
         <v>56</v>
@@ -2128,57 +2235,65 @@
       </c>
       <c r="R10" s="45" t="str">
         <f t="shared" si="6"/>
-        <v>0090_0111</v>
+        <v>0090_0112</v>
       </c>
       <c r="S10" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>0060_0040</v>
+      </c>
+      <c r="T10" s="12" t="str">
         <f>DEC2HEX(H10,4)&amp;"_"&amp;DEC2HEX(F10,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T10" s="12" t="str">
-        <f>DEC2HEX(L10^2,4)&amp;"_"&amp;DEC2HEX(L10,2)&amp;DEC2HEX(L7,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U10" s="33">
-        <f>U9+Q9</f>
+      <c r="U10" s="12" t="str">
+        <f>DEC2HEX(E10,4)&amp;"_"&amp;DEC2HEX(L10,2)&amp;DEC2HEX(L7,2)</f>
+        <v>0003_3838</v>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f>DEC2HEX(L10^2,4)&amp;"_"&amp;DEC2HEX(L7^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W10" s="33">
+        <f>W9+Q9</f>
         <v>8016</v>
-      </c>
-      <c r="V10" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>00001F50</v>
-      </c>
-      <c r="W10" s="33">
-        <f>Y7</f>
-        <v>1827867</v>
       </c>
       <c r="X10" s="12" t="str">
         <f t="shared" si="8"/>
+        <v>00001F50</v>
+      </c>
+      <c r="Y10" s="33">
+        <f>AA7</f>
+        <v>1827867</v>
+      </c>
+      <c r="Z10" s="12" t="str">
+        <f t="shared" si="9"/>
         <v>001BE41B</v>
       </c>
-      <c r="Y10" s="33">
-        <f>W10++M7+M9</f>
+      <c r="AA10" s="33">
+        <f>Y10++M7+M9</f>
         <v>2078747</v>
       </c>
-      <c r="Z10" s="13" t="str">
-        <f t="shared" si="9"/>
+      <c r="AB10" s="13" t="str">
+        <f t="shared" si="10"/>
         <v>001FB81B</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AC10" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="2">
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
         <f>M10/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD10" s="2">
-        <f>N10*AA10*AB10</f>
+      <c r="AF10" s="2">
+        <f>N10*AC10*AD10</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AE10" s="20"/>
-    </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG10" s="20"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2203,19 +2318,21 @@
       <c r="R11" s="46"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="34"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="34"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="15"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="20"/>
-    </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="20"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2240,19 +2357,21 @@
       <c r="R12" s="46"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="34"/>
+      <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="34"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="34"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="15"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="20"/>
-    </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="20"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +2387,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="25">
         <v>56</v>
@@ -2281,19 +2400,21 @@
       <c r="R13" s="44"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="32"/>
+      <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="32"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="32"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="11"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="20"/>
-    </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="20"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" s="26">
         <v>56</v>
@@ -2356,54 +2477,62 @@
         <v>0080_0101</v>
       </c>
       <c r="S14" s="12" t="str">
+        <f>IF(J14=0,DEC2HEX(G14,4)&amp;"_"&amp;DEC2HEX(G14,4), DEC2HEX(G14/9*6,4)&amp;"_"&amp;DEC2HEX(G14/9*4,4))</f>
+        <v>0080_0080</v>
+      </c>
+      <c r="T14" s="12" t="str">
         <f>DEC2HEX(H14,4)&amp;"_"&amp;DEC2HEX(F14,4)</f>
         <v>0010_0080</v>
       </c>
-      <c r="T14" s="12" t="str">
-        <f>DEC2HEX(L14^2,4)&amp;"_"&amp;DEC2HEX(L14,2)&amp;DEC2HEX(L9,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U14" s="33">
-        <f>U10+Q10</f>
+      <c r="U14" s="12" t="str">
+        <f>DEC2HEX(E14,4)&amp;"_"&amp;DEC2HEX(L14,2)&amp;DEC2HEX(L9,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V14" s="12" t="str">
+        <f>DEC2HEX(L14^2,4)&amp;"_"&amp;DEC2HEX(L9^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W14" s="33">
+        <f>W10+Q10</f>
         <v>17296</v>
-      </c>
-      <c r="V14" s="12" t="str">
-        <f>DEC2HEX(U14,8)</f>
-        <v>00004390</v>
-      </c>
-      <c r="W14" s="33">
-        <f>Y10</f>
-        <v>2078747</v>
       </c>
       <c r="X14" s="12" t="str">
         <f>DEC2HEX(W14,8)</f>
+        <v>00004390</v>
+      </c>
+      <c r="Y14" s="33">
+        <f>AA10</f>
+        <v>2078747</v>
+      </c>
+      <c r="Z14" s="12" t="str">
+        <f>DEC2HEX(Y14,8)</f>
         <v>001FB81B</v>
       </c>
-      <c r="Y14" s="33">
-        <f>W14+M10</f>
+      <c r="AA14" s="33">
+        <f>Y14+M10</f>
         <v>2279451</v>
       </c>
-      <c r="Z14" s="13" t="str">
-        <f>DEC2HEX(Y14,8)</f>
+      <c r="AB14" s="13" t="str">
+        <f>DEC2HEX(AA14,8)</f>
         <v>0022C81B</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AC14" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
         <f>M14/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD14" s="2">
-        <f>N14*AA14*AB14</f>
+      <c r="AF14" s="2">
+        <f>N14*AC14*AD14</f>
         <v>80281.600000000006</v>
       </c>
-      <c r="AE14" s="20"/>
-    </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG14" s="20"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2428,19 +2557,21 @@
       <c r="R15" s="46"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="34"/>
+      <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="34"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="34"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="15"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="20"/>
-    </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="20"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>86</v>
@@ -2460,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="26">
-        <f t="shared" ref="G16:G17" si="10">E16^2*F16</f>
+        <f t="shared" ref="G16:G17" si="11">E16^2*F16</f>
         <v>16</v>
       </c>
       <c r="H16" s="26">
@@ -2473,84 +2604,92 @@
         <v>0</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L16" s="26">
         <v>56</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" ref="M16:M17" si="11">L16^2*H16</f>
+        <f t="shared" ref="M16:M17" si="12">L16^2*H16</f>
         <v>200704</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" ref="N16:N17" si="12">L16^2*F16</f>
+        <f t="shared" ref="N16:N17" si="13">L16^2*F16</f>
         <v>50176</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" ref="O16:O17" si="13">E16^2*F16*H16</f>
+        <f t="shared" ref="O16:O17" si="14">E16^2*F16*H16</f>
         <v>1024</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" ref="P16:P17" si="14">H16</f>
+        <f t="shared" ref="P16:P17" si="15">H16</f>
         <v>64</v>
       </c>
       <c r="Q16" s="26">
-        <f t="shared" ref="Q16:Q17" si="15">O16+P16</f>
+        <f t="shared" ref="Q16:Q17" si="16">O16+P16</f>
         <v>1088</v>
       </c>
       <c r="R16" s="45" t="str">
-        <f t="shared" ref="R16:R17" si="16">DEC2HEX(G16,4)&amp;"_0"&amp;DEC2HEX(I16,1)&amp;DEC2HEX(J16,1)&amp;DEC2HEX(C16,1)</f>
-        <v>0010_0102</v>
+        <f t="shared" ref="R16:R17" si="17">DEC2HEX(G16,4)&amp;"_0"&amp;DEC2HEX(I16,1)&amp;DEC2HEX(J16,1)&amp;DEC2HEX(C16,1)</f>
+        <v>0010_0101</v>
       </c>
       <c r="S16" s="12" t="str">
+        <f t="shared" ref="S16:S17" si="18">IF(J16=0,DEC2HEX(G16,4)&amp;"_"&amp;DEC2HEX(G16,4), DEC2HEX(G16/9*6,4)&amp;"_"&amp;DEC2HEX(G16/9*4,4))</f>
+        <v>0010_0010</v>
+      </c>
+      <c r="T16" s="12" t="str">
         <f>DEC2HEX(H16,4)&amp;"_"&amp;DEC2HEX(F16,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T16" s="12" t="str">
-        <f>DEC2HEX(L16^2,4)&amp;"_"&amp;DEC2HEX(L16,2)&amp;DEC2HEX(L14,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U16" s="33">
-        <f>U14+Q14</f>
+      <c r="U16" s="12" t="str">
+        <f>DEC2HEX(E16,4)&amp;"_"&amp;DEC2HEX(L16,2)&amp;DEC2HEX(L14,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V16" s="12" t="str">
+        <f>DEC2HEX(L16^2,4)&amp;"_"&amp;DEC2HEX(L14^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W16" s="33">
+        <f>W14+Q14</f>
         <v>19360</v>
       </c>
-      <c r="V16" s="12" t="str">
-        <f t="shared" ref="V16:V17" si="17">DEC2HEX(U16,8)</f>
+      <c r="X16" s="12" t="str">
+        <f t="shared" ref="X16:X17" si="19">DEC2HEX(W16,8)</f>
         <v>00004BA0</v>
       </c>
-      <c r="W16" s="33">
-        <f>Y14</f>
+      <c r="Y16" s="33">
+        <f>AA14</f>
         <v>2279451</v>
       </c>
-      <c r="X16" s="12" t="str">
-        <f t="shared" ref="X16:X17" si="18">DEC2HEX(W16,8)</f>
+      <c r="Z16" s="12" t="str">
+        <f t="shared" ref="Z16:Z17" si="20">DEC2HEX(Y16,8)</f>
         <v>0022C81B</v>
       </c>
-      <c r="Y16" s="33">
-        <f>W16+M14</f>
+      <c r="AA16" s="33">
+        <f>Y16+M14</f>
         <v>2329627</v>
       </c>
-      <c r="Z16" s="13" t="str">
-        <f t="shared" ref="Z16:Z17" si="19">DEC2HEX(Y16,8)</f>
+      <c r="AB16" s="13" t="str">
+        <f t="shared" ref="AB16:AB17" si="21">DEC2HEX(AA16,8)</f>
         <v>00238C1B</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AC16" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AD16" s="2">
         <v>0</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AE16" s="2">
         <f>M16/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD16" s="2">
-        <f>N16*AA16*AB16</f>
+      <c r="AF16" s="2">
+        <f>N16*AC16*AD16</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="20"/>
-    </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG16" s="20"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2558,7 +2697,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>82</v>
@@ -2570,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="H17" s="26">
@@ -2583,84 +2722,92 @@
         <v>1</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L17" s="26">
         <v>56</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200704</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50176</v>
       </c>
       <c r="O17" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9216</v>
       </c>
       <c r="P17" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="Q17" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9280</v>
       </c>
       <c r="R17" s="45" t="str">
-        <f t="shared" si="16"/>
-        <v>0090_0111</v>
+        <f t="shared" si="17"/>
+        <v>0090_0112</v>
       </c>
       <c r="S17" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v>0060_0040</v>
+      </c>
+      <c r="T17" s="12" t="str">
         <f>DEC2HEX(H17,4)&amp;"_"&amp;DEC2HEX(F17,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T17" s="12" t="str">
-        <f>DEC2HEX(L17^2,4)&amp;"_"&amp;DEC2HEX(L17,2)&amp;DEC2HEX(L14,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U17" s="33">
-        <f>U16+Q16</f>
+      <c r="U17" s="12" t="str">
+        <f>DEC2HEX(E17,4)&amp;"_"&amp;DEC2HEX(L17,2)&amp;DEC2HEX(L14,2)</f>
+        <v>0003_3838</v>
+      </c>
+      <c r="V17" s="12" t="str">
+        <f>DEC2HEX(L17^2,4)&amp;"_"&amp;DEC2HEX(L14^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W17" s="33">
+        <f>W16+Q16</f>
         <v>20448</v>
       </c>
-      <c r="V17" s="12" t="str">
-        <f t="shared" si="17"/>
+      <c r="X17" s="12" t="str">
+        <f t="shared" si="19"/>
         <v>00004FE0</v>
       </c>
-      <c r="W17" s="33">
-        <f>Y14</f>
+      <c r="Y17" s="33">
+        <f>AA14</f>
         <v>2279451</v>
       </c>
-      <c r="X17" s="12" t="str">
-        <f t="shared" si="18"/>
+      <c r="Z17" s="12" t="str">
+        <f t="shared" si="20"/>
         <v>0022C81B</v>
       </c>
-      <c r="Y17" s="33">
-        <f>W17++M14+M16</f>
+      <c r="AA17" s="33">
+        <f>Y17++M14+M16</f>
         <v>2530331</v>
       </c>
-      <c r="Z17" s="13" t="str">
-        <f t="shared" si="19"/>
+      <c r="AB17" s="13" t="str">
+        <f t="shared" si="21"/>
         <v>00269C1B</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AC17" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="2">
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2">
         <f>M17/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD17" s="2">
-        <f>N17*AA17*AB17</f>
+      <c r="AF17" s="2">
+        <f>N17*AC17*AD17</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AE17" s="20"/>
-    </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG17" s="20"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2685,19 +2832,21 @@
       <c r="R18" s="46"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="34"/>
+      <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="34"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="34"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="15"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="20"/>
-    </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="20"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -2722,19 +2871,21 @@
       <c r="R19" s="46"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="34"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="34"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="34"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="15"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="20"/>
-    </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="20"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2750,7 +2901,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L20" s="25">
         <v>56</v>
@@ -2763,19 +2914,21 @@
       <c r="R20" s="44"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="32"/>
+      <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="32"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="32"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="11"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="20"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="20"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -2808,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="L21" s="28">
         <v>28</v>
@@ -2829,51 +2982,59 @@
         <v>0009_0204</v>
       </c>
       <c r="S21" s="16" t="str">
+        <f>IF(J21=0,DEC2HEX(G21,4)&amp;"_"&amp;DEC2HEX(G21,4), DEC2HEX(G21/9*6,4)&amp;"_"&amp;DEC2HEX(G21/9*4,4))</f>
+        <v>0009_0009</v>
+      </c>
+      <c r="T21" s="16" t="str">
         <f>DEC2HEX(H21,4)&amp;"_"&amp;DEC2HEX(H21,4)</f>
         <v>0080_0080</v>
       </c>
-      <c r="T21" s="16" t="str">
-        <f>DEC2HEX(L21^2,4)&amp;"_"&amp;DEC2HEX(L21,2)&amp;DEC2HEX(L16,2)</f>
-        <v>0310_1C38</v>
-      </c>
-      <c r="U21" s="35"/>
+      <c r="U21" s="16" t="str">
+        <f>DEC2HEX(E21,4)&amp;"_"&amp;DEC2HEX(L21,2)&amp;DEC2HEX(L16,2)</f>
+        <v>0003_1C38</v>
+      </c>
       <c r="V21" s="16" t="str">
+        <f>DEC2HEX(L21^2,4)&amp;"_"&amp;DEC2HEX(L16^2,4)</f>
+        <v>0310_0C40</v>
+      </c>
+      <c r="W21" s="35"/>
+      <c r="X21" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="W21" s="35">
-        <f>Y17</f>
+      <c r="Y21" s="35">
+        <f>AA17</f>
         <v>2530331</v>
       </c>
-      <c r="X21" s="16" t="str">
-        <f>DEC2HEX(W21,8)</f>
+      <c r="Z21" s="16" t="str">
+        <f>DEC2HEX(Y21,8)</f>
         <v>00269C1B</v>
       </c>
-      <c r="Y21" s="35">
-        <f>W21+M17</f>
+      <c r="AA21" s="35">
+        <f>Y21+M17</f>
         <v>2731035</v>
       </c>
-      <c r="Z21" s="17" t="str">
-        <f>DEC2HEX(Y21,8)</f>
+      <c r="AB21" s="17" t="str">
+        <f>DEC2HEX(AA21,8)</f>
         <v>0029AC1B</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AC21" s="4">
         <v>0.31</v>
       </c>
-      <c r="AB21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="4">
+      <c r="AD21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="4">
         <f>M21/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD21" s="4">
-        <f>N21*AA21*AB21</f>
+      <c r="AF21" s="4">
+        <f>N21*AC21*AD21</f>
         <v>31109.119999999999</v>
       </c>
-      <c r="AE21" s="20"/>
-    </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG21" s="20"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2906,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L22" s="26">
         <v>28</v>
@@ -2936,54 +3097,62 @@
         <v>0080_0101</v>
       </c>
       <c r="S22" s="12" t="str">
+        <f>IF(J22=0,DEC2HEX(G22,4)&amp;"_"&amp;DEC2HEX(G22,4), DEC2HEX(G22/9*6,4)&amp;"_"&amp;DEC2HEX(G22/9*4,4))</f>
+        <v>0080_0080</v>
+      </c>
+      <c r="T22" s="12" t="str">
         <f>DEC2HEX(H22,4)&amp;"_"&amp;DEC2HEX(F22,4)</f>
         <v>0020_0080</v>
       </c>
-      <c r="T22" s="12" t="str">
-        <f>DEC2HEX(L22^2,4)&amp;"_"&amp;DEC2HEX(L22,2)&amp;DEC2HEX(L21,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U22" s="33">
-        <f>U17+Q17</f>
+      <c r="U22" s="12" t="str">
+        <f>DEC2HEX(E22,4)&amp;"_"&amp;DEC2HEX(L22,2)&amp;DEC2HEX(L21,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V22" s="12" t="str">
+        <f>DEC2HEX(L22^2,4)&amp;"_"&amp;DEC2HEX(L21^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W22" s="33">
+        <f>W17+Q17</f>
         <v>29728</v>
-      </c>
-      <c r="V22" s="12" t="str">
-        <f>DEC2HEX(U22,8)</f>
-        <v>00007420</v>
-      </c>
-      <c r="W22" s="33">
-        <f>Y21</f>
-        <v>2731035</v>
       </c>
       <c r="X22" s="12" t="str">
         <f>DEC2HEX(W22,8)</f>
+        <v>00007420</v>
+      </c>
+      <c r="Y22" s="33">
+        <f>AA21</f>
+        <v>2731035</v>
+      </c>
+      <c r="Z22" s="12" t="str">
+        <f>DEC2HEX(Y22,8)</f>
         <v>0029AC1B</v>
       </c>
-      <c r="Y22" s="33">
-        <f>W22+M21</f>
+      <c r="AA22" s="33">
+        <f>Y22+M21</f>
         <v>2831387</v>
       </c>
-      <c r="Z22" s="13" t="str">
-        <f>DEC2HEX(Y22,8)</f>
+      <c r="AB22" s="13" t="str">
+        <f>DEC2HEX(AA22,8)</f>
         <v>002B341B</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AC22" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
         <f>M22/64*0.97</f>
         <v>380.24</v>
       </c>
-      <c r="AD22" s="2">
-        <f>N22*AA22*AB22</f>
+      <c r="AF22" s="2">
+        <f>N22*AC22*AD22</f>
         <v>20070.400000000001</v>
       </c>
-      <c r="AE22" s="20"/>
-    </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG22" s="20"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -3008,19 +3177,21 @@
       <c r="R23" s="46"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="34"/>
+      <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="W23" s="34"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="34"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="15"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="20"/>
-    </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="20"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -3028,7 +3199,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>86</v>
@@ -3040,7 +3211,7 @@
         <v>32</v>
       </c>
       <c r="G24" s="26">
-        <f t="shared" ref="G24:G25" si="20">E24^2*F24</f>
+        <f t="shared" ref="G24:G25" si="22">E24^2*F24</f>
         <v>32</v>
       </c>
       <c r="H24" s="26">
@@ -3053,84 +3224,92 @@
         <v>0</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" s="26">
         <v>28</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" ref="M24:M25" si="21">L24^2*H24</f>
+        <f t="shared" ref="M24:M25" si="23">L24^2*H24</f>
         <v>100352</v>
       </c>
       <c r="N24" s="26">
-        <f t="shared" ref="N24:N25" si="22">L24^2*F24</f>
+        <f t="shared" ref="N24:N25" si="24">L24^2*F24</f>
         <v>25088</v>
       </c>
       <c r="O24" s="26">
-        <f t="shared" ref="O24:O25" si="23">E24^2*F24*H24</f>
+        <f t="shared" ref="O24:O25" si="25">E24^2*F24*H24</f>
         <v>4096</v>
       </c>
       <c r="P24" s="26">
-        <f t="shared" ref="P24:P25" si="24">H24</f>
+        <f t="shared" ref="P24:P25" si="26">H24</f>
         <v>128</v>
       </c>
       <c r="Q24" s="26">
-        <f t="shared" ref="Q24:Q25" si="25">O24+P24</f>
+        <f t="shared" ref="Q24:Q25" si="27">O24+P24</f>
         <v>4224</v>
       </c>
       <c r="R24" s="45" t="str">
-        <f t="shared" ref="R24:R25" si="26">DEC2HEX(G24,4)&amp;"_0"&amp;DEC2HEX(I24,1)&amp;DEC2HEX(J24,1)&amp;DEC2HEX(C24,1)</f>
-        <v>0020_0102</v>
+        <f t="shared" ref="R24:R25" si="28">DEC2HEX(G24,4)&amp;"_0"&amp;DEC2HEX(I24,1)&amp;DEC2HEX(J24,1)&amp;DEC2HEX(C24,1)</f>
+        <v>0020_0101</v>
       </c>
       <c r="S24" s="12" t="str">
+        <f t="shared" ref="S24:S25" si="29">IF(J24=0,DEC2HEX(G24,4)&amp;"_"&amp;DEC2HEX(G24,4), DEC2HEX(G24/9*6,4)&amp;"_"&amp;DEC2HEX(G24/9*4,4))</f>
+        <v>0020_0020</v>
+      </c>
+      <c r="T24" s="12" t="str">
         <f>DEC2HEX(H24,4)&amp;"_"&amp;DEC2HEX(F24,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T24" s="12" t="str">
-        <f>DEC2HEX(L24^2,4)&amp;"_"&amp;DEC2HEX(L24,2)&amp;DEC2HEX(L22,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U24" s="33">
-        <f>U22+Q22</f>
+      <c r="U24" s="12" t="str">
+        <f>DEC2HEX(E24,4)&amp;"_"&amp;DEC2HEX(L24,2)&amp;DEC2HEX(L22,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V24" s="12" t="str">
+        <f>DEC2HEX(L24^2,4)&amp;"_"&amp;DEC2HEX(L22^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W24" s="33">
+        <f>W22+Q22</f>
         <v>33856</v>
       </c>
-      <c r="V24" s="12" t="str">
-        <f t="shared" ref="V24:V25" si="27">DEC2HEX(U24,8)</f>
+      <c r="X24" s="12" t="str">
+        <f t="shared" ref="X24:X25" si="30">DEC2HEX(W24,8)</f>
         <v>00008440</v>
       </c>
-      <c r="W24" s="33">
-        <f>Y22</f>
+      <c r="Y24" s="33">
+        <f>AA22</f>
         <v>2831387</v>
       </c>
-      <c r="X24" s="12" t="str">
-        <f t="shared" ref="X24:X25" si="28">DEC2HEX(W24,8)</f>
+      <c r="Z24" s="12" t="str">
+        <f t="shared" ref="Z24:Z25" si="31">DEC2HEX(Y24,8)</f>
         <v>002B341B</v>
       </c>
-      <c r="Y24" s="33">
-        <f>W24+M22</f>
+      <c r="AA24" s="33">
+        <f>Y24+M22</f>
         <v>2856475</v>
       </c>
-      <c r="Z24" s="13" t="str">
-        <f t="shared" ref="Z24:Z25" si="29">DEC2HEX(Y24,8)</f>
+      <c r="AB24" s="13" t="str">
+        <f t="shared" ref="AB24:AB25" si="32">DEC2HEX(AA24,8)</f>
         <v>002B961B</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AC24" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AD24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AE24" s="2">
         <f>M24/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD24" s="2">
-        <f>N24*AA24*AB24</f>
+      <c r="AF24" s="2">
+        <f>N24*AC24*AD24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="20"/>
-    </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG24" s="20"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3138,7 +3317,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>82</v>
@@ -3150,7 +3329,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>288</v>
       </c>
       <c r="H25" s="26">
@@ -3163,84 +3342,92 @@
         <v>1</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" s="26">
         <v>28</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100352</v>
       </c>
       <c r="N25" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>25088</v>
       </c>
       <c r="O25" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36864</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="Q25" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>36992</v>
       </c>
       <c r="R25" s="45" t="str">
-        <f t="shared" si="26"/>
-        <v>0120_0111</v>
+        <f t="shared" si="28"/>
+        <v>0120_0112</v>
       </c>
       <c r="S25" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v>00C0_0080</v>
+      </c>
+      <c r="T25" s="12" t="str">
         <f>DEC2HEX(H25,4)&amp;"_"&amp;DEC2HEX(F25,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T25" s="12" t="str">
-        <f>DEC2HEX(L25^2,4)&amp;"_"&amp;DEC2HEX(L25,2)&amp;DEC2HEX(L22,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U25" s="33">
-        <f>U24+Q24</f>
+      <c r="U25" s="12" t="str">
+        <f>DEC2HEX(E25,4)&amp;"_"&amp;DEC2HEX(L25,2)&amp;DEC2HEX(L22,2)</f>
+        <v>0003_1C1C</v>
+      </c>
+      <c r="V25" s="12" t="str">
+        <f>DEC2HEX(L25^2,4)&amp;"_"&amp;DEC2HEX(L22^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W25" s="33">
+        <f>W24+Q24</f>
         <v>38080</v>
       </c>
-      <c r="V25" s="12" t="str">
-        <f t="shared" si="27"/>
+      <c r="X25" s="12" t="str">
+        <f t="shared" si="30"/>
         <v>000094C0</v>
       </c>
-      <c r="W25" s="33">
-        <f>Y22</f>
+      <c r="Y25" s="33">
+        <f>AA22</f>
         <v>2831387</v>
       </c>
-      <c r="X25" s="12" t="str">
-        <f t="shared" si="28"/>
+      <c r="Z25" s="12" t="str">
+        <f t="shared" si="31"/>
         <v>002B341B</v>
       </c>
-      <c r="Y25" s="33">
-        <f>W25++M22+M24</f>
+      <c r="AA25" s="33">
+        <f>Y25++M22+M24</f>
         <v>2956827</v>
       </c>
-      <c r="Z25" s="13" t="str">
-        <f t="shared" si="29"/>
+      <c r="AB25" s="13" t="str">
+        <f t="shared" si="32"/>
         <v>002D1E1B</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AC25" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="2">
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="2">
         <f>M25/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD25" s="2">
-        <f>N25*AA25*AB25</f>
+      <c r="AF25" s="2">
+        <f>N25*AC25*AD25</f>
         <v>5017.6000000000004</v>
       </c>
-      <c r="AE25" s="20"/>
-    </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG25" s="20"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -3265,19 +3452,21 @@
       <c r="R26" s="46"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="34"/>
+      <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="34"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="34"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="15"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="20"/>
-    </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="20"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -3302,19 +3491,21 @@
       <c r="R27" s="46"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="34"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="34"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="34"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="15"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="20"/>
-    </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="20"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -3330,7 +3521,7 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L28" s="25">
         <v>28</v>
@@ -3343,19 +3534,21 @@
       <c r="R28" s="44"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="32"/>
+      <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="32"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="32"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="11"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="20"/>
-    </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="20"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3388,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L29" s="26">
         <v>28</v>
@@ -3418,54 +3611,62 @@
         <v>0100_0101</v>
       </c>
       <c r="S29" s="12" t="str">
+        <f>IF(J29=0,DEC2HEX(G29,4)&amp;"_"&amp;DEC2HEX(G29,4), DEC2HEX(G29/9*6,4)&amp;"_"&amp;DEC2HEX(G29/9*4,4))</f>
+        <v>0100_0100</v>
+      </c>
+      <c r="T29" s="12" t="str">
         <f>DEC2HEX(H29,4)&amp;"_"&amp;DEC2HEX(F29,4)</f>
         <v>0020_0100</v>
       </c>
-      <c r="T29" s="12" t="str">
-        <f>DEC2HEX(L29^2,4)&amp;"_"&amp;DEC2HEX(L29,2)&amp;DEC2HEX(L24,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U29" s="33">
-        <f>U25+Q25</f>
+      <c r="U29" s="12" t="str">
+        <f>DEC2HEX(E29,4)&amp;"_"&amp;DEC2HEX(L29,2)&amp;DEC2HEX(L24,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V29" s="12" t="str">
+        <f>DEC2HEX(L29^2,4)&amp;"_"&amp;DEC2HEX(L24^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W29" s="33">
+        <f>W25+Q25</f>
         <v>75072</v>
-      </c>
-      <c r="V29" s="12" t="str">
-        <f>DEC2HEX(U29,8)</f>
-        <v>00012540</v>
-      </c>
-      <c r="W29" s="33">
-        <f>Y25</f>
-        <v>2956827</v>
       </c>
       <c r="X29" s="12" t="str">
         <f>DEC2HEX(W29,8)</f>
+        <v>00012540</v>
+      </c>
+      <c r="Y29" s="33">
+        <f>AA25</f>
+        <v>2956827</v>
+      </c>
+      <c r="Z29" s="12" t="str">
+        <f>DEC2HEX(Y29,8)</f>
         <v>002D1E1B</v>
       </c>
-      <c r="Y29" s="33">
-        <f>W29+M25</f>
+      <c r="AA29" s="33">
+        <f>Y29+M25</f>
         <v>3057179</v>
       </c>
-      <c r="Z29" s="13" t="str">
-        <f>DEC2HEX(Y29,8)</f>
+      <c r="AB29" s="13" t="str">
+        <f>DEC2HEX(AA29,8)</f>
         <v>002EA61B</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AC29" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="2">
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="2">
         <f>M29/64*0.97</f>
         <v>380.24</v>
       </c>
-      <c r="AD29" s="2">
-        <f>N29*AA29*AB29</f>
+      <c r="AF29" s="2">
+        <f>N29*AC29*AD29</f>
         <v>40140.800000000003</v>
       </c>
-      <c r="AE29" s="20"/>
-    </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG29" s="20"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -3490,19 +3691,21 @@
       <c r="R30" s="46"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="34"/>
+      <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="34"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="34"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="15"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="20"/>
-    </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="20"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3510,7 +3713,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>86</v>
@@ -3522,7 +3725,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="26">
-        <f t="shared" ref="G31:G32" si="30">E31^2*F31</f>
+        <f t="shared" ref="G31:G32" si="33">E31^2*F31</f>
         <v>32</v>
       </c>
       <c r="H31" s="26">
@@ -3535,84 +3738,92 @@
         <v>0</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L31" s="26">
         <v>28</v>
       </c>
       <c r="M31" s="26">
-        <f t="shared" ref="M31:M32" si="31">L31^2*H31</f>
+        <f t="shared" ref="M31:M32" si="34">L31^2*H31</f>
         <v>100352</v>
       </c>
       <c r="N31" s="26">
-        <f t="shared" ref="N31:N32" si="32">L31^2*F31</f>
+        <f t="shared" ref="N31:N32" si="35">L31^2*F31</f>
         <v>25088</v>
       </c>
       <c r="O31" s="26">
-        <f t="shared" ref="O31:O32" si="33">E31^2*F31*H31</f>
+        <f t="shared" ref="O31:O32" si="36">E31^2*F31*H31</f>
         <v>4096</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" ref="P31:P32" si="34">H31</f>
+        <f t="shared" ref="P31:P32" si="37">H31</f>
         <v>128</v>
       </c>
       <c r="Q31" s="26">
-        <f t="shared" ref="Q31:Q32" si="35">O31+P31</f>
+        <f t="shared" ref="Q31:Q32" si="38">O31+P31</f>
         <v>4224</v>
       </c>
       <c r="R31" s="45" t="str">
-        <f t="shared" ref="R31:R32" si="36">DEC2HEX(G31,4)&amp;"_0"&amp;DEC2HEX(I31,1)&amp;DEC2HEX(J31,1)&amp;DEC2HEX(C31,1)</f>
-        <v>0020_0102</v>
+        <f t="shared" ref="R31:R32" si="39">DEC2HEX(G31,4)&amp;"_0"&amp;DEC2HEX(I31,1)&amp;DEC2HEX(J31,1)&amp;DEC2HEX(C31,1)</f>
+        <v>0020_0101</v>
       </c>
       <c r="S31" s="12" t="str">
+        <f t="shared" ref="S31:S32" si="40">IF(J31=0,DEC2HEX(G31,4)&amp;"_"&amp;DEC2HEX(G31,4), DEC2HEX(G31/9*6,4)&amp;"_"&amp;DEC2HEX(G31/9*4,4))</f>
+        <v>0020_0020</v>
+      </c>
+      <c r="T31" s="12" t="str">
         <f>DEC2HEX(H31,4)&amp;"_"&amp;DEC2HEX(F31,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T31" s="12" t="str">
-        <f>DEC2HEX(L31^2,4)&amp;"_"&amp;DEC2HEX(L31,2)&amp;DEC2HEX(L29,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U31" s="33">
-        <f>U29+Q29</f>
+      <c r="U31" s="12" t="str">
+        <f>DEC2HEX(E31,4)&amp;"_"&amp;DEC2HEX(L31,2)&amp;DEC2HEX(L29,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V31" s="12" t="str">
+        <f>DEC2HEX(L31^2,4)&amp;"_"&amp;DEC2HEX(L29^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W31" s="33">
+        <f>W29+Q29</f>
         <v>83296</v>
       </c>
-      <c r="V31" s="12" t="str">
-        <f t="shared" ref="V31:V32" si="37">DEC2HEX(U31,8)</f>
+      <c r="X31" s="12" t="str">
+        <f t="shared" ref="X31:X32" si="41">DEC2HEX(W31,8)</f>
         <v>00014560</v>
       </c>
-      <c r="W31" s="33">
-        <f>Y29</f>
+      <c r="Y31" s="33">
+        <f>AA29</f>
         <v>3057179</v>
       </c>
-      <c r="X31" s="12" t="str">
-        <f t="shared" ref="X31:X32" si="38">DEC2HEX(W31,8)</f>
+      <c r="Z31" s="12" t="str">
+        <f t="shared" ref="Z31:Z32" si="42">DEC2HEX(Y31,8)</f>
         <v>002EA61B</v>
       </c>
-      <c r="Y31" s="33">
-        <f>W31+M29</f>
+      <c r="AA31" s="33">
+        <f>Y31+M29</f>
         <v>3082267</v>
       </c>
-      <c r="Z31" s="13" t="str">
-        <f t="shared" ref="Z31:Z32" si="39">DEC2HEX(Y31,8)</f>
+      <c r="AB31" s="13" t="str">
+        <f t="shared" ref="AB31:AB32" si="43">DEC2HEX(AA31,8)</f>
         <v>002F081B</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AC31" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AD31" s="2">
         <v>0</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AE31" s="2">
         <f>M31/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD31" s="2">
-        <f>N31*AA31*AB31</f>
+      <c r="AF31" s="2">
+        <f>N31*AC31*AD31</f>
         <v>0</v>
       </c>
-      <c r="AE31" s="20"/>
-    </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG31" s="20"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -3620,7 +3831,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>82</v>
@@ -3632,7 +3843,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>288</v>
       </c>
       <c r="H32" s="26">
@@ -3645,84 +3856,92 @@
         <v>1</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L32" s="26">
         <v>28</v>
       </c>
       <c r="M32" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>100352</v>
       </c>
       <c r="N32" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>25088</v>
       </c>
       <c r="O32" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>36864</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>128</v>
       </c>
       <c r="Q32" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>36992</v>
       </c>
       <c r="R32" s="45" t="str">
-        <f t="shared" si="36"/>
-        <v>0120_0111</v>
+        <f t="shared" si="39"/>
+        <v>0120_0112</v>
       </c>
       <c r="S32" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>00C0_0080</v>
+      </c>
+      <c r="T32" s="12" t="str">
         <f>DEC2HEX(H32,4)&amp;"_"&amp;DEC2HEX(F32,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T32" s="12" t="str">
-        <f>DEC2HEX(L32^2,4)&amp;"_"&amp;DEC2HEX(L32,2)&amp;DEC2HEX(L29,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U32" s="33">
-        <f>U31+Q31</f>
+      <c r="U32" s="12" t="str">
+        <f>DEC2HEX(E32,4)&amp;"_"&amp;DEC2HEX(L32,2)&amp;DEC2HEX(L29,2)</f>
+        <v>0003_1C1C</v>
+      </c>
+      <c r="V32" s="12" t="str">
+        <f>DEC2HEX(L32^2,4)&amp;"_"&amp;DEC2HEX(L29^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W32" s="33">
+        <f>W31+Q31</f>
         <v>87520</v>
       </c>
-      <c r="V32" s="12" t="str">
-        <f t="shared" si="37"/>
+      <c r="X32" s="12" t="str">
+        <f t="shared" si="41"/>
         <v>000155E0</v>
       </c>
-      <c r="W32" s="33">
-        <f>Y29</f>
+      <c r="Y32" s="33">
+        <f>AA29</f>
         <v>3057179</v>
       </c>
-      <c r="X32" s="12" t="str">
-        <f t="shared" si="38"/>
+      <c r="Z32" s="12" t="str">
+        <f t="shared" si="42"/>
         <v>002EA61B</v>
       </c>
-      <c r="Y32" s="33">
-        <f>W32+M29+M31</f>
+      <c r="AA32" s="33">
+        <f>Y32+M29+M31</f>
         <v>3182619</v>
       </c>
-      <c r="Z32" s="13" t="str">
-        <f t="shared" si="39"/>
+      <c r="AB32" s="13" t="str">
+        <f t="shared" si="43"/>
         <v>0030901B</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AC32" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="2">
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2">
         <f>M32/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD32" s="2">
-        <f>N32*AA32*AB32</f>
+      <c r="AF32" s="2">
+        <f>N32*AC32*AD32</f>
         <v>5017.6000000000004</v>
       </c>
-      <c r="AE32" s="20"/>
-    </row>
-    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG32" s="20"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -3747,19 +3966,21 @@
       <c r="R33" s="46"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="34"/>
+      <c r="U33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="34"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="34"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="15"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="20"/>
-    </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="20"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
@@ -3784,19 +4005,21 @@
       <c r="R34" s="46"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="34"/>
+      <c r="U34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="34"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="34"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="15"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="20"/>
-    </row>
-    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="20"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -3812,7 +4035,7 @@
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -3823,19 +4046,21 @@
       <c r="R35" s="44"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="32"/>
+      <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="32"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="32"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="11"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="20"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="20"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
@@ -3868,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L36" s="28">
         <v>14</v>
@@ -3889,51 +4114,59 @@
         <v>0009_0204</v>
       </c>
       <c r="S36" s="16" t="str">
+        <f>IF(J36=0,DEC2HEX(G36,4)&amp;"_"&amp;DEC2HEX(G36,4), DEC2HEX(G36/9*6,4)&amp;"_"&amp;DEC2HEX(G36/9*4,4))</f>
+        <v>0009_0009</v>
+      </c>
+      <c r="T36" s="16" t="str">
         <f>DEC2HEX(H36,4)&amp;"_"&amp;DEC2HEX(H36,4)</f>
         <v>0100_0100</v>
       </c>
-      <c r="T36" s="16" t="str">
-        <f>DEC2HEX(L36^2,4)&amp;"_"&amp;DEC2HEX(L36,2)&amp;DEC2HEX(L31,2)</f>
-        <v>00C4_0E1C</v>
-      </c>
-      <c r="U36" s="35"/>
+      <c r="U36" s="16" t="str">
+        <f>DEC2HEX(E36,4)&amp;"_"&amp;DEC2HEX(L36,2)&amp;DEC2HEX(L31,2)</f>
+        <v>0003_0E1C</v>
+      </c>
       <c r="V36" s="16" t="str">
+        <f>DEC2HEX(L36^2,4)&amp;"_"&amp;DEC2HEX(L31^2,4)</f>
+        <v>00C4_0310</v>
+      </c>
+      <c r="W36" s="35"/>
+      <c r="X36" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="W36" s="35">
-        <f>Y32</f>
+      <c r="Y36" s="35">
+        <f>AA32</f>
         <v>3182619</v>
       </c>
-      <c r="X36" s="16" t="str">
-        <f>DEC2HEX(W36,8)</f>
+      <c r="Z36" s="16" t="str">
+        <f>DEC2HEX(Y36,8)</f>
         <v>0030901B</v>
       </c>
-      <c r="Y36" s="35">
-        <f>W36+M32</f>
+      <c r="AA36" s="35">
+        <f>Y36+M32</f>
         <v>3282971</v>
       </c>
-      <c r="Z36" s="17" t="str">
-        <f>DEC2HEX(Y36,8)</f>
+      <c r="AB36" s="17" t="str">
+        <f>DEC2HEX(AA36,8)</f>
         <v>0032181B</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AC36" s="4">
         <v>0.31</v>
       </c>
-      <c r="AB36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="4">
+      <c r="AD36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="4">
         <f>M36/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD36" s="4">
-        <f>N36*AA36*AB36</f>
+      <c r="AF36" s="4">
+        <f>N36*AC36*AD36</f>
         <v>15554.56</v>
       </c>
-      <c r="AE36" s="20"/>
-    </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG36" s="20"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3966,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L37" s="26">
         <v>14</v>
@@ -3996,54 +4229,62 @@
         <v>0100_0101</v>
       </c>
       <c r="S37" s="12" t="str">
+        <f>IF(J37=0,DEC2HEX(G37,4)&amp;"_"&amp;DEC2HEX(G37,4), DEC2HEX(G37/9*6,4)&amp;"_"&amp;DEC2HEX(G37/9*4,4))</f>
+        <v>0100_0100</v>
+      </c>
+      <c r="T37" s="12" t="str">
         <f>DEC2HEX(H37,4)&amp;"_"&amp;DEC2HEX(F37,4)</f>
         <v>0030_0100</v>
       </c>
-      <c r="T37" s="12" t="str">
-        <f>DEC2HEX(L37^2,4)&amp;"_"&amp;DEC2HEX(L37,2)&amp;DEC2HEX(L36,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U37" s="33">
-        <f>U32+Q32</f>
+      <c r="U37" s="12" t="str">
+        <f>DEC2HEX(E37,4)&amp;"_"&amp;DEC2HEX(L37,2)&amp;DEC2HEX(L36,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V37" s="12" t="str">
+        <f>DEC2HEX(L37^2,4)&amp;"_"&amp;DEC2HEX(L36^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W37" s="33">
+        <f>W32+Q32</f>
         <v>124512</v>
-      </c>
-      <c r="V37" s="12" t="str">
-        <f>DEC2HEX(U37,8)</f>
-        <v>0001E660</v>
-      </c>
-      <c r="W37" s="33">
-        <f>Y36</f>
-        <v>3282971</v>
       </c>
       <c r="X37" s="12" t="str">
         <f>DEC2HEX(W37,8)</f>
+        <v>0001E660</v>
+      </c>
+      <c r="Y37" s="33">
+        <f>AA36</f>
+        <v>3282971</v>
+      </c>
+      <c r="Z37" s="12" t="str">
+        <f>DEC2HEX(Y37,8)</f>
         <v>0032181B</v>
       </c>
-      <c r="Y37" s="33">
-        <f>W37+M36</f>
+      <c r="AA37" s="33">
+        <f>Y37+M36</f>
         <v>3333147</v>
       </c>
-      <c r="Z37" s="13" t="str">
-        <f>DEC2HEX(Y37,8)</f>
+      <c r="AB37" s="13" t="str">
+        <f>DEC2HEX(AA37,8)</f>
         <v>0032DC1B</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AC37" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="2">
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="2">
         <f>M37/64*0.97</f>
         <v>142.59</v>
       </c>
-      <c r="AD37" s="2">
-        <f>N37*AA37*AB37</f>
+      <c r="AF37" s="2">
+        <f>N37*AC37*AD37</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AE37" s="20"/>
-    </row>
-    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG37" s="20"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -4068,19 +4309,21 @@
       <c r="R38" s="46"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="34"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="14"/>
       <c r="W38" s="34"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="34"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="15"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-      <c r="AE38" s="20"/>
-    </row>
-    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="20"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -4088,7 +4331,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>86</v>
@@ -4100,7 +4343,7 @@
         <v>48</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" ref="G39:G40" si="40">E39^2*F39</f>
+        <f t="shared" ref="G39:G40" si="44">E39^2*F39</f>
         <v>48</v>
       </c>
       <c r="H39" s="26">
@@ -4113,84 +4356,92 @@
         <v>0</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L39" s="26">
         <v>14</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" ref="M39:M40" si="41">L39^2*H39</f>
+        <f t="shared" ref="M39:M40" si="45">L39^2*H39</f>
         <v>37632</v>
       </c>
       <c r="N39" s="26">
-        <f t="shared" ref="N39:N40" si="42">L39^2*F39</f>
+        <f t="shared" ref="N39:N40" si="46">L39^2*F39</f>
         <v>9408</v>
       </c>
       <c r="O39" s="26">
-        <f t="shared" ref="O39:O40" si="43">E39^2*F39*H39</f>
+        <f t="shared" ref="O39:O40" si="47">E39^2*F39*H39</f>
         <v>9216</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" ref="P39:P40" si="44">H39</f>
+        <f t="shared" ref="P39:P40" si="48">H39</f>
         <v>192</v>
       </c>
       <c r="Q39" s="26">
-        <f t="shared" ref="Q39:Q40" si="45">O39+P39</f>
+        <f t="shared" ref="Q39:Q40" si="49">O39+P39</f>
         <v>9408</v>
       </c>
       <c r="R39" s="45" t="str">
-        <f t="shared" ref="R39:R40" si="46">DEC2HEX(G39,4)&amp;"_0"&amp;DEC2HEX(I39,1)&amp;DEC2HEX(J39,1)&amp;DEC2HEX(C39,1)</f>
-        <v>0030_0102</v>
+        <f t="shared" ref="R39:R40" si="50">DEC2HEX(G39,4)&amp;"_0"&amp;DEC2HEX(I39,1)&amp;DEC2HEX(J39,1)&amp;DEC2HEX(C39,1)</f>
+        <v>0030_0101</v>
       </c>
       <c r="S39" s="12" t="str">
+        <f t="shared" ref="S39:S40" si="51">IF(J39=0,DEC2HEX(G39,4)&amp;"_"&amp;DEC2HEX(G39,4), DEC2HEX(G39/9*6,4)&amp;"_"&amp;DEC2HEX(G39/9*4,4))</f>
+        <v>0030_0030</v>
+      </c>
+      <c r="T39" s="12" t="str">
         <f>DEC2HEX(H39,4)&amp;"_"&amp;DEC2HEX(F39,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="T39" s="12" t="str">
-        <f>DEC2HEX(L39^2,4)&amp;"_"&amp;DEC2HEX(L39,2)&amp;DEC2HEX(L37,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U39" s="33">
-        <f>U37+Q37</f>
+      <c r="U39" s="12" t="str">
+        <f>DEC2HEX(E39,4)&amp;"_"&amp;DEC2HEX(L39,2)&amp;DEC2HEX(L37,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V39" s="12" t="str">
+        <f>DEC2HEX(L39^2,4)&amp;"_"&amp;DEC2HEX(L37^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W39" s="33">
+        <f>W37+Q37</f>
         <v>136848</v>
       </c>
-      <c r="V39" s="12" t="str">
-        <f t="shared" ref="V39:V40" si="47">DEC2HEX(U39,8)</f>
+      <c r="X39" s="12" t="str">
+        <f t="shared" ref="X39:X40" si="52">DEC2HEX(W39,8)</f>
         <v>00021690</v>
       </c>
-      <c r="W39" s="33">
-        <f>Y37</f>
+      <c r="Y39" s="33">
+        <f>AA37</f>
         <v>3333147</v>
       </c>
-      <c r="X39" s="12" t="str">
-        <f t="shared" ref="X39:X40" si="48">DEC2HEX(W39,8)</f>
+      <c r="Z39" s="12" t="str">
+        <f t="shared" ref="Z39:Z40" si="53">DEC2HEX(Y39,8)</f>
         <v>0032DC1B</v>
       </c>
-      <c r="Y39" s="33">
-        <f>W39+M37</f>
+      <c r="AA39" s="33">
+        <f>Y39+M37</f>
         <v>3342555</v>
       </c>
-      <c r="Z39" s="13" t="str">
-        <f t="shared" ref="Z39:Z40" si="49">DEC2HEX(Y39,8)</f>
+      <c r="AB39" s="13" t="str">
+        <f t="shared" ref="AB39:AB40" si="54">DEC2HEX(AA39,8)</f>
         <v>003300DB</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AC39" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB39" s="2">
+      <c r="AD39" s="2">
         <v>0</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AE39" s="2">
         <f>M39/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AD39" s="2">
-        <f>N39*AA39*AB39</f>
+      <c r="AF39" s="2">
+        <f>N39*AC39*AD39</f>
         <v>0</v>
       </c>
-      <c r="AE39" s="20"/>
-    </row>
-    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG39" s="20"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -4198,7 +4449,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>82</v>
@@ -4210,7 +4461,7 @@
         <v>48</v>
       </c>
       <c r="G40" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>432</v>
       </c>
       <c r="H40" s="26">
@@ -4223,84 +4474,92 @@
         <v>1</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L40" s="26">
         <v>14</v>
       </c>
       <c r="M40" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>37632</v>
       </c>
       <c r="N40" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9408</v>
       </c>
       <c r="O40" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>82944</v>
       </c>
       <c r="P40" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>192</v>
       </c>
       <c r="Q40" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>83136</v>
       </c>
       <c r="R40" s="45" t="str">
-        <f t="shared" si="46"/>
-        <v>01B0_0111</v>
+        <f t="shared" si="50"/>
+        <v>01B0_0112</v>
       </c>
       <c r="S40" s="12" t="str">
+        <f t="shared" si="51"/>
+        <v>0120_00C0</v>
+      </c>
+      <c r="T40" s="12" t="str">
         <f>DEC2HEX(H40,4)&amp;"_"&amp;DEC2HEX(F40,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="T40" s="12" t="str">
-        <f>DEC2HEX(L40^2,4)&amp;"_"&amp;DEC2HEX(L40,2)&amp;DEC2HEX(L37,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U40" s="33">
-        <f>U39+Q39</f>
+      <c r="U40" s="12" t="str">
+        <f>DEC2HEX(E40,4)&amp;"_"&amp;DEC2HEX(L40,2)&amp;DEC2HEX(L37,2)</f>
+        <v>0003_0E0E</v>
+      </c>
+      <c r="V40" s="12" t="str">
+        <f>DEC2HEX(L40^2,4)&amp;"_"&amp;DEC2HEX(L37^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W40" s="33">
+        <f>W39+Q39</f>
         <v>146256</v>
       </c>
-      <c r="V40" s="12" t="str">
-        <f t="shared" si="47"/>
+      <c r="X40" s="12" t="str">
+        <f t="shared" si="52"/>
         <v>00023B50</v>
       </c>
-      <c r="W40" s="33">
-        <f>Y37</f>
+      <c r="Y40" s="33">
+        <f>AA37</f>
         <v>3333147</v>
       </c>
-      <c r="X40" s="12" t="str">
-        <f t="shared" si="48"/>
+      <c r="Z40" s="12" t="str">
+        <f t="shared" si="53"/>
         <v>0032DC1B</v>
       </c>
-      <c r="Y40" s="33">
-        <f>W40+M37+M39</f>
+      <c r="AA40" s="33">
+        <f>Y40+M37+M39</f>
         <v>3380187</v>
       </c>
-      <c r="Z40" s="13" t="str">
-        <f t="shared" si="49"/>
+      <c r="AB40" s="13" t="str">
+        <f t="shared" si="54"/>
         <v>003393DB</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AC40" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="2">
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2">
         <f>M40/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AD40" s="2">
-        <f>N40*AA40*AB40</f>
+      <c r="AF40" s="2">
+        <f>N40*AC40*AD40</f>
         <v>1881.6000000000001</v>
       </c>
-      <c r="AE40" s="20"/>
-    </row>
-    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG40" s="20"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
@@ -4325,19 +4584,21 @@
       <c r="R41" s="46"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="34"/>
+      <c r="U41" s="14"/>
       <c r="V41" s="14"/>
       <c r="W41" s="34"/>
       <c r="X41" s="14"/>
       <c r="Y41" s="34"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="15"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="20"/>
-    </row>
-    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="20"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
@@ -4362,19 +4623,21 @@
       <c r="R42" s="46"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="34"/>
+      <c r="U42" s="14"/>
       <c r="V42" s="14"/>
       <c r="W42" s="34"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="34"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="15"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="20"/>
-    </row>
-    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="20"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -4390,7 +4653,7 @@
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L43" s="25">
         <v>14</v>
@@ -4403,19 +4666,21 @@
       <c r="R43" s="44"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="32"/>
+      <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="32"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="32"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="11"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
-      <c r="AE43" s="20"/>
-    </row>
-    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="20"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -4448,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L44" s="26">
         <v>14</v>
@@ -4478,54 +4743,62 @@
         <v>0180_0101</v>
       </c>
       <c r="S44" s="12" t="str">
+        <f>IF(J44=0,DEC2HEX(G44,4)&amp;"_"&amp;DEC2HEX(G44,4), DEC2HEX(G44/9*6,4)&amp;"_"&amp;DEC2HEX(G44/9*4,4))</f>
+        <v>0180_0180</v>
+      </c>
+      <c r="T44" s="12" t="str">
         <f>DEC2HEX(H44,4)&amp;"_"&amp;DEC2HEX(F44,4)</f>
         <v>0030_0180</v>
       </c>
-      <c r="T44" s="12" t="str">
-        <f>DEC2HEX(L44^2,4)&amp;"_"&amp;DEC2HEX(L44,2)&amp;DEC2HEX(L39,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U44" s="33">
-        <f>U40+Q40</f>
+      <c r="U44" s="12" t="str">
+        <f>DEC2HEX(E44,4)&amp;"_"&amp;DEC2HEX(L44,2)&amp;DEC2HEX(L39,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V44" s="12" t="str">
+        <f>DEC2HEX(L44^2,4)&amp;"_"&amp;DEC2HEX(L39^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W44" s="33">
+        <f>W40+Q40</f>
         <v>229392</v>
-      </c>
-      <c r="V44" s="12" t="str">
-        <f>DEC2HEX(U44,8)</f>
-        <v>00038010</v>
-      </c>
-      <c r="W44" s="33">
-        <f>Y40</f>
-        <v>3380187</v>
       </c>
       <c r="X44" s="12" t="str">
         <f>DEC2HEX(W44,8)</f>
+        <v>00038010</v>
+      </c>
+      <c r="Y44" s="33">
+        <f>AA40</f>
+        <v>3380187</v>
+      </c>
+      <c r="Z44" s="12" t="str">
+        <f>DEC2HEX(Y44,8)</f>
         <v>003393DB</v>
       </c>
-      <c r="Y44" s="33">
-        <f>W44+M40</f>
+      <c r="AA44" s="33">
+        <f>Y44+M40</f>
         <v>3417819</v>
       </c>
-      <c r="Z44" s="13" t="str">
-        <f>DEC2HEX(Y44,8)</f>
+      <c r="AB44" s="13" t="str">
+        <f>DEC2HEX(AA44,8)</f>
         <v>003426DB</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AC44" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="2">
+      <c r="AD44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="2">
         <f>M44/64*0.97</f>
         <v>142.59</v>
       </c>
-      <c r="AD44" s="2">
-        <f>N44*AA44*AB44</f>
+      <c r="AF44" s="2">
+        <f>N44*AC44*AD44</f>
         <v>15052.800000000001</v>
       </c>
-      <c r="AE44" s="20"/>
-    </row>
-    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG44" s="20"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>45</v>
       </c>
@@ -4550,19 +4823,21 @@
       <c r="R45" s="46"/>
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
-      <c r="U45" s="34"/>
+      <c r="U45" s="14"/>
       <c r="V45" s="14"/>
       <c r="W45" s="34"/>
       <c r="X45" s="14"/>
       <c r="Y45" s="34"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="15"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="20"/>
-    </row>
-    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="20"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -4570,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>86</v>
@@ -4582,7 +4857,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="26">
-        <f t="shared" ref="G46:G47" si="50">E46^2*F46</f>
+        <f t="shared" ref="G46:G47" si="55">E46^2*F46</f>
         <v>48</v>
       </c>
       <c r="H46" s="26">
@@ -4595,84 +4870,92 @@
         <v>0</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L46" s="26">
         <v>14</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" ref="M46:M47" si="51">L46^2*H46</f>
+        <f t="shared" ref="M46:M47" si="56">L46^2*H46</f>
         <v>37632</v>
       </c>
       <c r="N46" s="26">
-        <f t="shared" ref="N46:N47" si="52">L46^2*F46</f>
+        <f t="shared" ref="N46:N47" si="57">L46^2*F46</f>
         <v>9408</v>
       </c>
       <c r="O46" s="26">
-        <f t="shared" ref="O46:O47" si="53">E46^2*F46*H46</f>
+        <f t="shared" ref="O46:O47" si="58">E46^2*F46*H46</f>
         <v>9216</v>
       </c>
       <c r="P46" s="26">
-        <f t="shared" ref="P46:P47" si="54">H46</f>
+        <f t="shared" ref="P46:P47" si="59">H46</f>
         <v>192</v>
       </c>
       <c r="Q46" s="26">
-        <f t="shared" ref="Q46:Q47" si="55">O46+P46</f>
+        <f t="shared" ref="Q46:Q47" si="60">O46+P46</f>
         <v>9408</v>
       </c>
       <c r="R46" s="45" t="str">
-        <f t="shared" ref="R46:R47" si="56">DEC2HEX(G46,4)&amp;"_0"&amp;DEC2HEX(I46,1)&amp;DEC2HEX(J46,1)&amp;DEC2HEX(C46,1)</f>
-        <v>0030_0102</v>
+        <f t="shared" ref="R46:R47" si="61">DEC2HEX(G46,4)&amp;"_0"&amp;DEC2HEX(I46,1)&amp;DEC2HEX(J46,1)&amp;DEC2HEX(C46,1)</f>
+        <v>0030_0101</v>
       </c>
       <c r="S46" s="12" t="str">
+        <f t="shared" ref="S46:S47" si="62">IF(J46=0,DEC2HEX(G46,4)&amp;"_"&amp;DEC2HEX(G46,4), DEC2HEX(G46/9*6,4)&amp;"_"&amp;DEC2HEX(G46/9*4,4))</f>
+        <v>0030_0030</v>
+      </c>
+      <c r="T46" s="12" t="str">
         <f>DEC2HEX(H46,4)&amp;"_"&amp;DEC2HEX(F46,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="T46" s="12" t="str">
-        <f>DEC2HEX(L46^2,4)&amp;"_"&amp;DEC2HEX(L46,2)&amp;DEC2HEX(L44,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U46" s="33">
-        <f>U44+Q44</f>
+      <c r="U46" s="12" t="str">
+        <f>DEC2HEX(E46,4)&amp;"_"&amp;DEC2HEX(L46,2)&amp;DEC2HEX(L44,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V46" s="12" t="str">
+        <f>DEC2HEX(L46^2,4)&amp;"_"&amp;DEC2HEX(L44^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W46" s="33">
+        <f>W44+Q44</f>
         <v>247872</v>
       </c>
-      <c r="V46" s="12" t="str">
-        <f t="shared" ref="V46:V47" si="57">DEC2HEX(U46,8)</f>
+      <c r="X46" s="12" t="str">
+        <f t="shared" ref="X46:X47" si="63">DEC2HEX(W46,8)</f>
         <v>0003C840</v>
       </c>
-      <c r="W46" s="33">
-        <f>Y44</f>
+      <c r="Y46" s="33">
+        <f>AA44</f>
         <v>3417819</v>
       </c>
-      <c r="X46" s="12" t="str">
-        <f t="shared" ref="X46:X47" si="58">DEC2HEX(W46,8)</f>
+      <c r="Z46" s="12" t="str">
+        <f t="shared" ref="Z46:Z47" si="64">DEC2HEX(Y46,8)</f>
         <v>003426DB</v>
       </c>
-      <c r="Y46" s="33">
-        <f>W46+M44</f>
+      <c r="AA46" s="33">
+        <f>Y46+M44</f>
         <v>3427227</v>
       </c>
-      <c r="Z46" s="13" t="str">
-        <f t="shared" ref="Z46:Z47" si="59">DEC2HEX(Y46,8)</f>
+      <c r="AB46" s="13" t="str">
+        <f t="shared" ref="AB46:AB47" si="65">DEC2HEX(AA46,8)</f>
         <v>00344B9B</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AC46" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB46" s="2">
+      <c r="AD46" s="2">
         <v>0</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AE46" s="2">
         <f>M46/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AD46" s="2">
-        <f>N46*AA46*AB46</f>
+      <c r="AF46" s="2">
+        <f>N46*AC46*AD46</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="20"/>
-    </row>
-    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG46" s="20"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4680,7 +4963,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>82</v>
@@ -4692,7 +4975,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>432</v>
       </c>
       <c r="H47" s="26">
@@ -4705,84 +4988,92 @@
         <v>1</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L47" s="26">
         <v>14</v>
       </c>
       <c r="M47" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>37632</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>9408</v>
       </c>
       <c r="O47" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>82944</v>
       </c>
       <c r="P47" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>192</v>
       </c>
       <c r="Q47" s="26">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>83136</v>
       </c>
       <c r="R47" s="45" t="str">
-        <f t="shared" si="56"/>
-        <v>01B0_0111</v>
+        <f t="shared" si="61"/>
+        <v>01B0_0112</v>
       </c>
       <c r="S47" s="12" t="str">
+        <f t="shared" si="62"/>
+        <v>0120_00C0</v>
+      </c>
+      <c r="T47" s="12" t="str">
         <f>DEC2HEX(H47,4)&amp;"_"&amp;DEC2HEX(F47,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="T47" s="12" t="str">
-        <f>DEC2HEX(L47^2,4)&amp;"_"&amp;DEC2HEX(L47,2)&amp;DEC2HEX(L44,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U47" s="33">
-        <f>U46+Q46</f>
+      <c r="U47" s="12" t="str">
+        <f>DEC2HEX(E47,4)&amp;"_"&amp;DEC2HEX(L47,2)&amp;DEC2HEX(L44,2)</f>
+        <v>0003_0E0E</v>
+      </c>
+      <c r="V47" s="12" t="str">
+        <f>DEC2HEX(L47^2,4)&amp;"_"&amp;DEC2HEX(L44^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W47" s="33">
+        <f>W46+Q46</f>
         <v>257280</v>
       </c>
-      <c r="V47" s="12" t="str">
-        <f t="shared" si="57"/>
+      <c r="X47" s="12" t="str">
+        <f t="shared" si="63"/>
         <v>0003ED00</v>
       </c>
-      <c r="W47" s="33">
-        <f>Y44</f>
+      <c r="Y47" s="33">
+        <f>AA44</f>
         <v>3417819</v>
       </c>
-      <c r="X47" s="12" t="str">
-        <f t="shared" si="58"/>
+      <c r="Z47" s="12" t="str">
+        <f t="shared" si="64"/>
         <v>003426DB</v>
       </c>
-      <c r="Y47" s="33">
-        <f>W47+M44+M46</f>
+      <c r="AA47" s="33">
+        <f>Y47+M44+M46</f>
         <v>3464859</v>
       </c>
-      <c r="Z47" s="13" t="str">
-        <f t="shared" si="59"/>
+      <c r="AB47" s="13" t="str">
+        <f t="shared" si="65"/>
         <v>0034DE9B</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AC47" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="2">
+      <c r="AD47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="2">
         <f>M47/64*0.97</f>
         <v>570.36</v>
       </c>
-      <c r="AD47" s="2">
-        <f>N47*AA47*AB47</f>
+      <c r="AF47" s="2">
+        <f>N47*AC47*AD47</f>
         <v>1881.6000000000001</v>
       </c>
-      <c r="AE47" s="20"/>
-    </row>
-    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG47" s="20"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
@@ -4807,19 +5098,21 @@
       <c r="R48" s="46"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
-      <c r="U48" s="34"/>
+      <c r="U48" s="14"/>
       <c r="V48" s="14"/>
       <c r="W48" s="34"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="34"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="15"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-      <c r="AE48" s="20"/>
-    </row>
-    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="20"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
@@ -4844,19 +5137,21 @@
       <c r="R49" s="46"/>
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
-      <c r="U49" s="34"/>
+      <c r="U49" s="14"/>
       <c r="V49" s="14"/>
       <c r="W49" s="34"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="34"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="15"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-      <c r="AE49" s="20"/>
-    </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="20"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
@@ -4872,7 +5167,7 @@
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L50" s="25">
         <v>14</v>
@@ -4885,19 +5180,21 @@
       <c r="R50" s="44"/>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="32"/>
+      <c r="U50" s="10"/>
       <c r="V50" s="10"/>
       <c r="W50" s="32"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="32"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="11"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
-      <c r="AE50" s="20"/>
-    </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="20"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -4930,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L51" s="26">
         <v>14</v>
@@ -4960,54 +5257,62 @@
         <v>0180_0101</v>
       </c>
       <c r="S51" s="12" t="str">
+        <f>IF(J51=0,DEC2HEX(G51,4)&amp;"_"&amp;DEC2HEX(G51,4), DEC2HEX(G51/9*6,4)&amp;"_"&amp;DEC2HEX(G51/9*4,4))</f>
+        <v>0180_0180</v>
+      </c>
+      <c r="T51" s="12" t="str">
         <f>DEC2HEX(H51,4)&amp;"_"&amp;DEC2HEX(F51,4)</f>
         <v>0040_0180</v>
       </c>
-      <c r="T51" s="12" t="str">
-        <f>DEC2HEX(L51^2,4)&amp;"_"&amp;DEC2HEX(L51,2)&amp;DEC2HEX(L46,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U51" s="33">
-        <f>U47+Q47</f>
+      <c r="U51" s="12" t="str">
+        <f>DEC2HEX(E51,4)&amp;"_"&amp;DEC2HEX(L51,2)&amp;DEC2HEX(L46,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V51" s="12" t="str">
+        <f>DEC2HEX(L51^2,4)&amp;"_"&amp;DEC2HEX(L46^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W51" s="33">
+        <f>W47+Q47</f>
         <v>340416</v>
-      </c>
-      <c r="V51" s="12" t="str">
-        <f>DEC2HEX(U51,8)</f>
-        <v>000531C0</v>
-      </c>
-      <c r="W51" s="33">
-        <f>Y47</f>
-        <v>3464859</v>
       </c>
       <c r="X51" s="12" t="str">
         <f>DEC2HEX(W51,8)</f>
+        <v>000531C0</v>
+      </c>
+      <c r="Y51" s="33">
+        <f>AA47</f>
+        <v>3464859</v>
+      </c>
+      <c r="Z51" s="12" t="str">
+        <f>DEC2HEX(Y51,8)</f>
         <v>0034DE9B</v>
       </c>
-      <c r="Y51" s="33">
-        <f>W51+M47</f>
+      <c r="AA51" s="33">
+        <f>Y51+M47</f>
         <v>3502491</v>
       </c>
-      <c r="Z51" s="13" t="str">
-        <f>DEC2HEX(Y51,8)</f>
+      <c r="AB51" s="13" t="str">
+        <f>DEC2HEX(AA51,8)</f>
         <v>0035719B</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AC51" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="2">
+      <c r="AD51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="2">
         <f>M51/64*0.97</f>
         <v>190.12</v>
       </c>
-      <c r="AD51" s="2">
-        <f>N51*AA51*AB51</f>
+      <c r="AF51" s="2">
+        <f>N51*AC51*AD51</f>
         <v>15052.800000000001</v>
       </c>
-      <c r="AE51" s="20"/>
-    </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG51" s="20"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
@@ -5032,19 +5337,21 @@
       <c r="R52" s="46"/>
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
-      <c r="U52" s="34"/>
+      <c r="U52" s="14"/>
       <c r="V52" s="14"/>
       <c r="W52" s="34"/>
       <c r="X52" s="14"/>
       <c r="Y52" s="34"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="15"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
-      <c r="AE52" s="20"/>
-    </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="20"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -5052,7 +5359,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>86</v>
@@ -5064,7 +5371,7 @@
         <v>64</v>
       </c>
       <c r="G53" s="26">
-        <f t="shared" ref="G53:G54" si="60">E53^2*F53</f>
+        <f t="shared" ref="G53:G54" si="66">E53^2*F53</f>
         <v>64</v>
       </c>
       <c r="H53" s="26">
@@ -5077,84 +5384,92 @@
         <v>0</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L53" s="26">
         <v>14</v>
       </c>
       <c r="M53" s="26">
-        <f t="shared" ref="M53:M54" si="61">L53^2*H53</f>
+        <f t="shared" ref="M53:M54" si="67">L53^2*H53</f>
         <v>50176</v>
       </c>
       <c r="N53" s="26">
-        <f t="shared" ref="N53:N54" si="62">L53^2*F53</f>
+        <f t="shared" ref="N53:N54" si="68">L53^2*F53</f>
         <v>12544</v>
       </c>
       <c r="O53" s="26">
-        <f t="shared" ref="O53:O54" si="63">E53^2*F53*H53</f>
+        <f t="shared" ref="O53:O54" si="69">E53^2*F53*H53</f>
         <v>16384</v>
       </c>
       <c r="P53" s="26">
-        <f t="shared" ref="P53:P54" si="64">H53</f>
+        <f t="shared" ref="P53:P54" si="70">H53</f>
         <v>256</v>
       </c>
       <c r="Q53" s="26">
-        <f t="shared" ref="Q53:Q54" si="65">O53+P53</f>
+        <f t="shared" ref="Q53:Q54" si="71">O53+P53</f>
         <v>16640</v>
       </c>
       <c r="R53" s="45" t="str">
-        <f t="shared" ref="R53:R54" si="66">DEC2HEX(G53,4)&amp;"_0"&amp;DEC2HEX(I53,1)&amp;DEC2HEX(J53,1)&amp;DEC2HEX(C53,1)</f>
-        <v>0040_0102</v>
+        <f t="shared" ref="R53:R54" si="72">DEC2HEX(G53,4)&amp;"_0"&amp;DEC2HEX(I53,1)&amp;DEC2HEX(J53,1)&amp;DEC2HEX(C53,1)</f>
+        <v>0040_0101</v>
       </c>
       <c r="S53" s="12" t="str">
+        <f t="shared" ref="S53:S54" si="73">IF(J53=0,DEC2HEX(G53,4)&amp;"_"&amp;DEC2HEX(G53,4), DEC2HEX(G53/9*6,4)&amp;"_"&amp;DEC2HEX(G53/9*4,4))</f>
+        <v>0040_0040</v>
+      </c>
+      <c r="T53" s="12" t="str">
         <f>DEC2HEX(H53,4)&amp;"_"&amp;DEC2HEX(F53,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="T53" s="12" t="str">
-        <f>DEC2HEX(L53^2,4)&amp;"_"&amp;DEC2HEX(L53,2)&amp;DEC2HEX(L51,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U53" s="33">
-        <f>U51+Q51</f>
+      <c r="U53" s="12" t="str">
+        <f>DEC2HEX(E53,4)&amp;"_"&amp;DEC2HEX(L53,2)&amp;DEC2HEX(L51,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V53" s="12" t="str">
+        <f>DEC2HEX(L53^2,4)&amp;"_"&amp;DEC2HEX(L51^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W53" s="33">
+        <f>W51+Q51</f>
         <v>365056</v>
       </c>
-      <c r="V53" s="12" t="str">
-        <f t="shared" ref="V53:V54" si="67">DEC2HEX(U53,8)</f>
+      <c r="X53" s="12" t="str">
+        <f t="shared" ref="X53:X54" si="74">DEC2HEX(W53,8)</f>
         <v>00059200</v>
       </c>
-      <c r="W53" s="33">
-        <f>Y51</f>
+      <c r="Y53" s="33">
+        <f>AA51</f>
         <v>3502491</v>
       </c>
-      <c r="X53" s="12" t="str">
-        <f t="shared" ref="X53:X54" si="68">DEC2HEX(W53,8)</f>
+      <c r="Z53" s="12" t="str">
+        <f t="shared" ref="Z53:Z54" si="75">DEC2HEX(Y53,8)</f>
         <v>0035719B</v>
       </c>
-      <c r="Y53" s="33">
-        <f>W53+M51</f>
+      <c r="AA53" s="33">
+        <f>Y53+M51</f>
         <v>3515035</v>
       </c>
-      <c r="Z53" s="13" t="str">
-        <f t="shared" ref="Z53:Z54" si="69">DEC2HEX(Y53,8)</f>
+      <c r="AB53" s="13" t="str">
+        <f t="shared" ref="AB53:AB54" si="76">DEC2HEX(AA53,8)</f>
         <v>0035A29B</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AC53" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB53" s="2">
+      <c r="AD53" s="2">
         <v>0</v>
       </c>
-      <c r="AC53" s="2">
+      <c r="AE53" s="2">
         <f>M53/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD53" s="2">
-        <f>N53*AA53*AB53</f>
+      <c r="AF53" s="2">
+        <f>N53*AC53*AD53</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="20"/>
-    </row>
-    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG53" s="20"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -5162,7 +5477,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>82</v>
@@ -5174,7 +5489,7 @@
         <v>64</v>
       </c>
       <c r="G54" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>576</v>
       </c>
       <c r="H54" s="26">
@@ -5187,84 +5502,92 @@
         <v>1</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L54" s="26">
         <v>14</v>
       </c>
       <c r="M54" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>50176</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>12544</v>
       </c>
       <c r="O54" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>147456</v>
       </c>
       <c r="P54" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>256</v>
       </c>
       <c r="Q54" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>147712</v>
       </c>
       <c r="R54" s="45" t="str">
-        <f t="shared" si="66"/>
-        <v>0240_0111</v>
+        <f t="shared" si="72"/>
+        <v>0240_0112</v>
       </c>
       <c r="S54" s="12" t="str">
+        <f t="shared" si="73"/>
+        <v>0180_0100</v>
+      </c>
+      <c r="T54" s="12" t="str">
         <f>DEC2HEX(H54,4)&amp;"_"&amp;DEC2HEX(F54,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="T54" s="12" t="str">
-        <f>DEC2HEX(L54^2,4)&amp;"_"&amp;DEC2HEX(L54,2)&amp;DEC2HEX(L51,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U54" s="33">
-        <f>U53+Q53</f>
+      <c r="U54" s="12" t="str">
+        <f>DEC2HEX(E54,4)&amp;"_"&amp;DEC2HEX(L54,2)&amp;DEC2HEX(L51,2)</f>
+        <v>0003_0E0E</v>
+      </c>
+      <c r="V54" s="12" t="str">
+        <f>DEC2HEX(L54^2,4)&amp;"_"&amp;DEC2HEX(L51^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W54" s="33">
+        <f>W53+Q53</f>
         <v>381696</v>
       </c>
-      <c r="V54" s="12" t="str">
-        <f t="shared" si="67"/>
+      <c r="X54" s="12" t="str">
+        <f t="shared" si="74"/>
         <v>0005D300</v>
       </c>
-      <c r="W54" s="33">
-        <f>Y51</f>
+      <c r="Y54" s="33">
+        <f>AA51</f>
         <v>3502491</v>
       </c>
-      <c r="X54" s="12" t="str">
-        <f t="shared" si="68"/>
+      <c r="Z54" s="12" t="str">
+        <f t="shared" si="75"/>
         <v>0035719B</v>
       </c>
-      <c r="Y54" s="33">
-        <f>W54+M51+M53</f>
+      <c r="AA54" s="33">
+        <f>Y54+M51+M53</f>
         <v>3565211</v>
       </c>
-      <c r="Z54" s="13" t="str">
-        <f t="shared" si="69"/>
+      <c r="AB54" s="13" t="str">
+        <f t="shared" si="76"/>
         <v>0036669B</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="AC54" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="2">
+      <c r="AD54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="2">
         <f>M54/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD54" s="2">
-        <f>N54*AA54*AB54</f>
+      <c r="AF54" s="2">
+        <f>N54*AC54*AD54</f>
         <v>2508.8000000000002</v>
       </c>
-      <c r="AE54" s="20"/>
-    </row>
-    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG54" s="20"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
@@ -5289,19 +5612,21 @@
       <c r="R55" s="46"/>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
-      <c r="U55" s="34"/>
+      <c r="U55" s="14"/>
       <c r="V55" s="14"/>
       <c r="W55" s="34"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="34"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="15"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-      <c r="AE55" s="20"/>
-    </row>
-    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="20"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
@@ -5326,19 +5651,21 @@
       <c r="R56" s="46"/>
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
-      <c r="U56" s="34"/>
+      <c r="U56" s="14"/>
       <c r="V56" s="14"/>
       <c r="W56" s="34"/>
       <c r="X56" s="14"/>
       <c r="Y56" s="34"/>
-      <c r="Z56" s="15"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="15"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-      <c r="AE56" s="20"/>
-    </row>
-    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="20"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -5354,7 +5681,7 @@
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L57" s="25">
         <v>14</v>
@@ -5367,19 +5694,21 @@
       <c r="R57" s="44"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
-      <c r="U57" s="32"/>
+      <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="32"/>
       <c r="X57" s="10"/>
       <c r="Y57" s="32"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="11"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
-      <c r="AE57" s="20"/>
-    </row>
-    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="20"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
@@ -5412,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L58" s="26">
         <v>14</v>
@@ -5442,54 +5771,62 @@
         <v>0200_0101</v>
       </c>
       <c r="S58" s="12" t="str">
+        <f>IF(J58=0,DEC2HEX(G58,4)&amp;"_"&amp;DEC2HEX(G58,4), DEC2HEX(G58/9*6,4)&amp;"_"&amp;DEC2HEX(G58/9*4,4))</f>
+        <v>0200_0200</v>
+      </c>
+      <c r="T58" s="12" t="str">
         <f>DEC2HEX(H58,4)&amp;"_"&amp;DEC2HEX(F58,4)</f>
         <v>0040_0200</v>
       </c>
-      <c r="T58" s="12" t="str">
-        <f>DEC2HEX(L58^2,4)&amp;"_"&amp;DEC2HEX(L58,2)&amp;DEC2HEX(L53,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U58" s="33">
-        <f>U54+Q54</f>
+      <c r="U58" s="12" t="str">
+        <f>DEC2HEX(E58,4)&amp;"_"&amp;DEC2HEX(L58,2)&amp;DEC2HEX(L53,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V58" s="12" t="str">
+        <f>DEC2HEX(L58^2,4)&amp;"_"&amp;DEC2HEX(L53^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W58" s="33">
+        <f>W54+Q54</f>
         <v>529408</v>
-      </c>
-      <c r="V58" s="12" t="str">
-        <f>DEC2HEX(U58,8)</f>
-        <v>00081400</v>
-      </c>
-      <c r="W58" s="33">
-        <f>Y54</f>
-        <v>3565211</v>
       </c>
       <c r="X58" s="12" t="str">
         <f>DEC2HEX(W58,8)</f>
+        <v>00081400</v>
+      </c>
+      <c r="Y58" s="33">
+        <f>AA54</f>
+        <v>3565211</v>
+      </c>
+      <c r="Z58" s="12" t="str">
+        <f>DEC2HEX(Y58,8)</f>
         <v>0036669B</v>
       </c>
-      <c r="Y58" s="33">
-        <f>W58+M54</f>
+      <c r="AA58" s="33">
+        <f>Y58+M54</f>
         <v>3615387</v>
       </c>
-      <c r="Z58" s="13" t="str">
-        <f>DEC2HEX(Y58,8)</f>
+      <c r="AB58" s="13" t="str">
+        <f>DEC2HEX(AA58,8)</f>
         <v>00372A9B</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="AC58" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="2">
+      <c r="AD58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="2">
         <f>M58/64*0.97</f>
         <v>190.12</v>
       </c>
-      <c r="AD58" s="2">
-        <f>N58*AA58*AB58</f>
+      <c r="AF58" s="2">
+        <f>N58*AC58*AD58</f>
         <v>20070.400000000001</v>
       </c>
-      <c r="AE58" s="20"/>
-    </row>
-    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG58" s="20"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
@@ -5514,19 +5851,21 @@
       <c r="R59" s="46"/>
       <c r="S59" s="14"/>
       <c r="T59" s="14"/>
-      <c r="U59" s="34"/>
+      <c r="U59" s="14"/>
       <c r="V59" s="14"/>
       <c r="W59" s="34"/>
       <c r="X59" s="14"/>
       <c r="Y59" s="34"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="15"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
-      <c r="AE59" s="20"/>
-    </row>
-    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="20"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -5534,7 +5873,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>86</v>
@@ -5546,7 +5885,7 @@
         <v>64</v>
       </c>
       <c r="G60" s="26">
-        <f t="shared" ref="G60:G61" si="70">E60^2*F60</f>
+        <f t="shared" ref="G60:G61" si="77">E60^2*F60</f>
         <v>64</v>
       </c>
       <c r="H60" s="26">
@@ -5559,84 +5898,92 @@
         <v>0</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L60" s="26">
         <v>14</v>
       </c>
       <c r="M60" s="26">
-        <f t="shared" ref="M60:M61" si="71">L60^2*H60</f>
+        <f t="shared" ref="M60:M61" si="78">L60^2*H60</f>
         <v>50176</v>
       </c>
       <c r="N60" s="26">
-        <f t="shared" ref="N60:N61" si="72">L60^2*F60</f>
+        <f t="shared" ref="N60:N61" si="79">L60^2*F60</f>
         <v>12544</v>
       </c>
       <c r="O60" s="26">
-        <f t="shared" ref="O60:O61" si="73">E60^2*F60*H60</f>
+        <f t="shared" ref="O60:O61" si="80">E60^2*F60*H60</f>
         <v>16384</v>
       </c>
       <c r="P60" s="26">
-        <f t="shared" ref="P60:P61" si="74">H60</f>
+        <f t="shared" ref="P60:P61" si="81">H60</f>
         <v>256</v>
       </c>
       <c r="Q60" s="26">
-        <f t="shared" ref="Q60:Q61" si="75">O60+P60</f>
+        <f t="shared" ref="Q60:Q61" si="82">O60+P60</f>
         <v>16640</v>
       </c>
       <c r="R60" s="45" t="str">
-        <f t="shared" ref="R60:R61" si="76">DEC2HEX(G60,4)&amp;"_0"&amp;DEC2HEX(I60,1)&amp;DEC2HEX(J60,1)&amp;DEC2HEX(C60,1)</f>
-        <v>0040_0102</v>
+        <f t="shared" ref="R60:R61" si="83">DEC2HEX(G60,4)&amp;"_0"&amp;DEC2HEX(I60,1)&amp;DEC2HEX(J60,1)&amp;DEC2HEX(C60,1)</f>
+        <v>0040_0101</v>
       </c>
       <c r="S60" s="12" t="str">
+        <f t="shared" ref="S60:S61" si="84">IF(J60=0,DEC2HEX(G60,4)&amp;"_"&amp;DEC2HEX(G60,4), DEC2HEX(G60/9*6,4)&amp;"_"&amp;DEC2HEX(G60/9*4,4))</f>
+        <v>0040_0040</v>
+      </c>
+      <c r="T60" s="12" t="str">
         <f>DEC2HEX(H60,4)&amp;"_"&amp;DEC2HEX(F60,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="T60" s="12" t="str">
-        <f>DEC2HEX(L60^2,4)&amp;"_"&amp;DEC2HEX(L60,2)&amp;DEC2HEX(L58,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U60" s="33">
-        <f>U58+Q58</f>
+      <c r="U60" s="12" t="str">
+        <f>DEC2HEX(E60,4)&amp;"_"&amp;DEC2HEX(L60,2)&amp;DEC2HEX(L58,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V60" s="12" t="str">
+        <f>DEC2HEX(L60^2,4)&amp;"_"&amp;DEC2HEX(L58^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W60" s="33">
+        <f>W58+Q58</f>
         <v>562240</v>
       </c>
-      <c r="V60" s="12" t="str">
-        <f t="shared" ref="V60:V61" si="77">DEC2HEX(U60,8)</f>
+      <c r="X60" s="12" t="str">
+        <f t="shared" ref="X60:X61" si="85">DEC2HEX(W60,8)</f>
         <v>00089440</v>
       </c>
-      <c r="W60" s="33">
-        <f>Y58</f>
+      <c r="Y60" s="33">
+        <f>AA58</f>
         <v>3615387</v>
       </c>
-      <c r="X60" s="12" t="str">
-        <f t="shared" ref="X60:X61" si="78">DEC2HEX(W60,8)</f>
+      <c r="Z60" s="12" t="str">
+        <f t="shared" ref="Z60:Z61" si="86">DEC2HEX(Y60,8)</f>
         <v>00372A9B</v>
       </c>
-      <c r="Y60" s="33">
-        <f>W60+M58</f>
+      <c r="AA60" s="33">
+        <f>Y60+M58</f>
         <v>3627931</v>
       </c>
-      <c r="Z60" s="13" t="str">
-        <f t="shared" ref="Z60:Z61" si="79">DEC2HEX(Y60,8)</f>
+      <c r="AB60" s="13" t="str">
+        <f t="shared" ref="AB60:AB61" si="87">DEC2HEX(AA60,8)</f>
         <v>00375B9B</v>
       </c>
-      <c r="AA60" s="2">
+      <c r="AC60" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB60" s="2">
+      <c r="AD60" s="2">
         <v>0</v>
       </c>
-      <c r="AC60" s="2">
+      <c r="AE60" s="2">
         <f>M60/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD60" s="2">
-        <f>N60*AA60*AB60</f>
+      <c r="AF60" s="2">
+        <f>N60*AC60*AD60</f>
         <v>0</v>
       </c>
-      <c r="AE60" s="20"/>
-    </row>
-    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG60" s="20"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -5644,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>82</v>
@@ -5656,7 +6003,7 @@
         <v>64</v>
       </c>
       <c r="G61" s="26">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>576</v>
       </c>
       <c r="H61" s="26">
@@ -5669,84 +6016,92 @@
         <v>1</v>
       </c>
       <c r="K61" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L61" s="26">
         <v>14</v>
       </c>
       <c r="M61" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>50176</v>
       </c>
       <c r="N61" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>12544</v>
       </c>
       <c r="O61" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>147456</v>
       </c>
       <c r="P61" s="26">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>256</v>
       </c>
       <c r="Q61" s="26">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>147712</v>
       </c>
       <c r="R61" s="45" t="str">
-        <f t="shared" si="76"/>
-        <v>0240_0111</v>
+        <f t="shared" si="83"/>
+        <v>0240_0112</v>
       </c>
       <c r="S61" s="12" t="str">
+        <f t="shared" si="84"/>
+        <v>0180_0100</v>
+      </c>
+      <c r="T61" s="12" t="str">
         <f>DEC2HEX(H61,4)&amp;"_"&amp;DEC2HEX(F61,4)</f>
         <v>0100_0040</v>
       </c>
-      <c r="T61" s="12" t="str">
-        <f>DEC2HEX(L61^2,4)&amp;"_"&amp;DEC2HEX(L61,2)&amp;DEC2HEX(L58,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U61" s="33">
-        <f>U60+Q60</f>
+      <c r="U61" s="12" t="str">
+        <f>DEC2HEX(E61,4)&amp;"_"&amp;DEC2HEX(L61,2)&amp;DEC2HEX(L58,2)</f>
+        <v>0003_0E0E</v>
+      </c>
+      <c r="V61" s="12" t="str">
+        <f>DEC2HEX(L61^2,4)&amp;"_"&amp;DEC2HEX(L58^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W61" s="33">
+        <f>W60+Q60</f>
         <v>578880</v>
       </c>
-      <c r="V61" s="12" t="str">
-        <f t="shared" si="77"/>
+      <c r="X61" s="12" t="str">
+        <f t="shared" si="85"/>
         <v>0008D540</v>
       </c>
-      <c r="W61" s="33">
-        <f>Y58</f>
+      <c r="Y61" s="33">
+        <f>AA58</f>
         <v>3615387</v>
       </c>
-      <c r="X61" s="12" t="str">
-        <f t="shared" si="78"/>
+      <c r="Z61" s="12" t="str">
+        <f t="shared" si="86"/>
         <v>00372A9B</v>
       </c>
-      <c r="Y61" s="33">
-        <f>W61+M58+M60</f>
+      <c r="AA61" s="33">
+        <f>Y61+M58+M60</f>
         <v>3678107</v>
       </c>
-      <c r="Z61" s="13" t="str">
-        <f t="shared" si="79"/>
+      <c r="AB61" s="13" t="str">
+        <f t="shared" si="87"/>
         <v>00381F9B</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AC61" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="2">
+      <c r="AD61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="2">
         <f>M61/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD61" s="2">
-        <f>N61*AA61*AB61</f>
+      <c r="AF61" s="2">
+        <f>N61*AC61*AD61</f>
         <v>2508.8000000000002</v>
       </c>
-      <c r="AE61" s="20"/>
-    </row>
-    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG61" s="20"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
@@ -5771,19 +6126,21 @@
       <c r="R62" s="46"/>
       <c r="S62" s="14"/>
       <c r="T62" s="14"/>
-      <c r="U62" s="34"/>
+      <c r="U62" s="14"/>
       <c r="V62" s="14"/>
       <c r="W62" s="34"/>
       <c r="X62" s="14"/>
       <c r="Y62" s="34"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="15"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
-      <c r="AE62" s="20"/>
-    </row>
-    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="20"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>63</v>
       </c>
@@ -5808,19 +6165,21 @@
       <c r="R63" s="46"/>
       <c r="S63" s="14"/>
       <c r="T63" s="14"/>
-      <c r="U63" s="34"/>
+      <c r="U63" s="14"/>
       <c r="V63" s="14"/>
       <c r="W63" s="34"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="34"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="15"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
-      <c r="AE63" s="20"/>
-    </row>
-    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="20"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
@@ -5836,7 +6195,7 @@
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L64" s="25">
         <v>14</v>
@@ -5849,19 +6208,21 @@
       <c r="R64" s="44"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
-      <c r="U64" s="32"/>
+      <c r="U64" s="10"/>
       <c r="V64" s="10"/>
       <c r="W64" s="32"/>
       <c r="X64" s="10"/>
       <c r="Y64" s="32"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="11"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
-      <c r="AE64" s="20"/>
-    </row>
-    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="20"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="38" t="s">
         <v>65</v>
       </c>
@@ -5886,19 +6247,21 @@
       <c r="R65" s="46"/>
       <c r="S65" s="14"/>
       <c r="T65" s="14"/>
-      <c r="U65" s="34"/>
+      <c r="U65" s="14"/>
       <c r="V65" s="14"/>
       <c r="W65" s="34"/>
       <c r="X65" s="14"/>
       <c r="Y65" s="34"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="15"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
-      <c r="AE65" s="20"/>
-    </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="20"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
@@ -5931,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L66" s="26">
         <v>14</v>
@@ -5961,54 +6324,62 @@
         <v>0200_0101</v>
       </c>
       <c r="S66" s="12" t="str">
+        <f>IF(J66=0,DEC2HEX(G66,4)&amp;"_"&amp;DEC2HEX(G66,4), DEC2HEX(G66/9*6,4)&amp;"_"&amp;DEC2HEX(G66/9*4,4))</f>
+        <v>0200_0200</v>
+      </c>
+      <c r="T66" s="12" t="str">
         <f>DEC2HEX(H66,4)&amp;"_"&amp;DEC2HEX(F66,4)</f>
         <v>03E8_0200</v>
       </c>
-      <c r="T66" s="12" t="str">
-        <f>DEC2HEX(L66^2,4)&amp;"_"&amp;DEC2HEX(L66,2)&amp;DEC2HEX(L60,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U66" s="33">
-        <f>U61+Q61</f>
+      <c r="U66" s="12" t="str">
+        <f>DEC2HEX(E66,4)&amp;"_"&amp;DEC2HEX(L66,2)&amp;DEC2HEX(L60,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V66" s="12" t="str">
+        <f>DEC2HEX(L66^2,4)&amp;"_"&amp;DEC2HEX(L60^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W66" s="33">
+        <f>W61+Q61</f>
         <v>726592</v>
-      </c>
-      <c r="V66" s="12" t="str">
-        <f>DEC2HEX(U66,8)</f>
-        <v>000B1640</v>
-      </c>
-      <c r="W66" s="33">
-        <f>Y61</f>
-        <v>3678107</v>
       </c>
       <c r="X66" s="12" t="str">
         <f>DEC2HEX(W66,8)</f>
+        <v>000B1640</v>
+      </c>
+      <c r="Y66" s="33">
+        <f>AA61</f>
+        <v>3678107</v>
+      </c>
+      <c r="Z66" s="12" t="str">
+        <f>DEC2HEX(Y66,8)</f>
         <v>00381F9B</v>
       </c>
-      <c r="Y66" s="33">
-        <f>W66+M61</f>
+      <c r="AA66" s="33">
+        <f>Y66+M61</f>
         <v>3728283</v>
       </c>
-      <c r="Z66" s="13" t="str">
-        <f>DEC2HEX(Y66,8)</f>
+      <c r="AB66" s="13" t="str">
+        <f>DEC2HEX(AA66,8)</f>
         <v>0038E39B</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AC66" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="2">
+      <c r="AD66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="2">
         <f>M66/64*0.97</f>
         <v>2970.625</v>
       </c>
-      <c r="AD66" s="2">
-        <f>N66*AA66*AB66</f>
+      <c r="AF66" s="2">
+        <f>N66*AC66*AD66</f>
         <v>20070.400000000001</v>
       </c>
-      <c r="AE66" s="20"/>
-    </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG66" s="20"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>67</v>
       </c>
@@ -6033,19 +6404,21 @@
       <c r="R67" s="46"/>
       <c r="S67" s="14"/>
       <c r="T67" s="14"/>
-      <c r="U67" s="34"/>
+      <c r="U67" s="14"/>
       <c r="V67" s="14"/>
       <c r="W67" s="34"/>
       <c r="X67" s="14"/>
       <c r="Y67" s="34"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="15"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-      <c r="AE67" s="20"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="20"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
@@ -6056,7 +6429,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E68" s="28">
         <v>14</v>
@@ -6078,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L68" s="28">
         <v>1</v>
@@ -6099,51 +6472,59 @@
         <v>00C4_0105</v>
       </c>
       <c r="S68" s="16" t="str">
+        <f>IF(J68=0,DEC2HEX(G68,4)&amp;"_"&amp;DEC2HEX(G68,4), DEC2HEX(G68/9*6,4)&amp;"_"&amp;DEC2HEX(G68/9*4,4))</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="T68" s="16" t="str">
         <f>DEC2HEX(H68,4)&amp;"_"&amp;DEC2HEX(H68,4)</f>
         <v>03E8_03E8</v>
       </c>
-      <c r="T68" s="16" t="str">
-        <f>DEC2HEX(L68^2,4)&amp;"_"&amp;DEC2HEX(L68,2)&amp;DEC2HEX(L66,2)</f>
-        <v>0001_010E</v>
-      </c>
-      <c r="U68" s="35"/>
+      <c r="U68" s="16" t="str">
+        <f>DEC2HEX(E68,4)&amp;"_"&amp;DEC2HEX(L68,2)&amp;DEC2HEX(L66,2)</f>
+        <v>000E_010E</v>
+      </c>
       <c r="V68" s="16" t="str">
+        <f>DEC2HEX(L68^2,4)&amp;"_"&amp;DEC2HEX(L66^2,4)</f>
+        <v>0001_00C4</v>
+      </c>
+      <c r="W68" s="35"/>
+      <c r="X68" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="W68" s="35">
-        <f>Y66</f>
+      <c r="Y68" s="35">
+        <f>AA66</f>
         <v>3728283</v>
       </c>
-      <c r="X68" s="16" t="str">
-        <f>DEC2HEX(W68,8)</f>
+      <c r="Z68" s="16" t="str">
+        <f>DEC2HEX(Y68,8)</f>
         <v>0038E39B</v>
       </c>
-      <c r="Y68" s="35">
-        <f>W68+M66</f>
+      <c r="AA68" s="35">
+        <f>Y68+M66</f>
         <v>3924283</v>
       </c>
-      <c r="Z68" s="17" t="str">
-        <f>DEC2HEX(Y68,8)</f>
+      <c r="AB68" s="17" t="str">
+        <f>DEC2HEX(AA68,8)</f>
         <v>003BE13B</v>
       </c>
-      <c r="AA68" s="4">
+      <c r="AC68" s="4">
         <v>1.2</v>
       </c>
-      <c r="AB68" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="4">
+      <c r="AD68" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE68" s="4">
         <f>M68/64*0.97</f>
         <v>15.15625</v>
       </c>
-      <c r="AD68" s="4">
-        <f>N68*AA68*AB68</f>
+      <c r="AF68" s="4">
+        <f>N68*AC68*AD68</f>
         <v>1200</v>
       </c>
-      <c r="AE68" s="20"/>
-    </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG68" s="20"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -6168,19 +6549,21 @@
       <c r="R69" s="44"/>
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
-      <c r="U69" s="32"/>
+      <c r="U69" s="10"/>
       <c r="V69" s="10"/>
       <c r="W69" s="32"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="32"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="32"/>
+      <c r="AB69" s="11"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
-      <c r="AE69" s="20"/>
-    </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="20"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="24"/>
       <c r="C70" s="40"/>
@@ -6213,25 +6596,27 @@
       <c r="R70" s="48"/>
       <c r="S70" s="18"/>
       <c r="T70" s="18"/>
-      <c r="U70" s="36"/>
+      <c r="U70" s="18"/>
       <c r="V70" s="18"/>
       <c r="W70" s="36"/>
       <c r="X70" s="18"/>
       <c r="Y70" s="36"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="20"/>
-      <c r="AB70" s="20"/>
-      <c r="AC70" s="20">
-        <f>SUM(AC3:AC69)</f>
+      <c r="Z70" s="18"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20">
+        <f>SUM(AE3:AE69)</f>
         <v>49559.770468750008</v>
       </c>
-      <c r="AD70" s="20">
-        <f t="shared" ref="AD70" si="80">SUM(AD4:AD69)</f>
+      <c r="AF70" s="20">
+        <f t="shared" ref="AF70" si="88">SUM(AF4:AF69)</f>
         <v>417544.91999999993</v>
       </c>
-      <c r="AE70" s="20"/>
-    </row>
-    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG70" s="20"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="24"/>
       <c r="C71" s="40"/>
@@ -6261,52 +6646,47 @@
       <c r="R71" s="48"/>
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
-      <c r="U71" s="36"/>
+      <c r="U71" s="18"/>
       <c r="V71" s="18"/>
       <c r="W71" s="36"/>
       <c r="X71" s="18"/>
       <c r="Y71" s="36"/>
-      <c r="Z71" s="19"/>
-      <c r="AA71" s="20"/>
-      <c r="AB71" s="20"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="36"/>
+      <c r="AB71" s="19"/>
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
       <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="AVE Pooling"/>
-        <filter val="MAX Pooling"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:B71" xr:uid="{009522EF-F8DC-42BE-8F4B-D751FC8B03E1}"/>
   <mergeCells count="9">
-    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="R1:Z1"/>
+    <mergeCell ref="R1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="U2:V2"/>
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Y70:Y72 W7:W68 Y4:Y68" formula="1"/>
+    <ignoredError sqref="AA70:AA72 Y7:Y68 AA4:AA68" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E501AE-4D2D-491C-85E4-0C34FDA03C89}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="76" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M30"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6314,1328 +6694,1747 @@
     <col min="1" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="str">
+        <v>231</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="str">
         <f>LEFT(SUBSTITUTE(A1,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A1,"_",),4)</f>
-        <v>006C 0202</v>
-      </c>
-      <c r="I1" t="str">
-        <f t="shared" ref="I1:M1" si="0">LEFT(SUBSTITUTE(B1,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(B1,"_",),4)</f>
+        <v>001B 0202</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" ref="K1:Q1" si="0">LEFT(SUBSTITUTE(B1,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(B1,"_",),4)</f>
+        <v>001B 001B</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
         <v>0040 0003</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>31E1 71E3</v>
-      </c>
-      <c r="K1" t="str">
+        <v>0003 71E3</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>31E1 C949</v>
+      </c>
+      <c r="O1" t="str">
         <f t="shared" si="0"/>
         <v>0000 1000</v>
       </c>
-      <c r="L1" t="str">
+      <c r="P1" t="str">
         <f t="shared" si="0"/>
         <v>000A 0000</v>
       </c>
-      <c r="M1" t="str">
+      <c r="Q1" t="str">
         <f t="shared" si="0"/>
         <v>000C 5BDB</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J30" si="1">LEFT(SUBSTITUTE(A2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A2,"_",),4)</f>
+        <v>0009 0204</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K30" si="2">LEFT(SUBSTITUTE(B2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(B2,"_",),4)</f>
+        <v>0009 0009</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L30" si="3">LEFT(SUBSTITUTE(C2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(C2,"_",),4)</f>
+        <v>0040 0040</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M30" si="4">LEFT(SUBSTITUTE(D2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(D2,"_",),4)</f>
+        <v>0009 3871</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N30" si="5">LEFT(SUBSTITUTE(E2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(E2,"_",),4)</f>
+        <v>0C40 31E1</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O30" si="6">LEFT(SUBSTITUTE(F2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(F2,"_",),4)</f>
+        <v>0000 0000</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P30" si="7">LEFT(SUBSTITUTE(G2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(G2,"_",),4)</f>
+        <v>000C 5BDB</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q30" si="8">LEFT(SUBSTITUTE(H2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(H2,"_",),4)</f>
+        <v>0018 D41B</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H30" si="1">LEFT(SUBSTITUTE(A2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(A2,"_",),4)</f>
-        <v>0000 9204</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I30" si="2">LEFT(SUBSTITUTE(B2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(B2,"_",),4)</f>
-        <v>0040 0040</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J30" si="3">LEFT(SUBSTITUTE(C2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(C2,"_",),4)</f>
-        <v>0C40 3871</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K30" si="4">LEFT(SUBSTITUTE(D2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(D2,"_",),4)</f>
-        <v>0000 0000</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L30" si="5">LEFT(SUBSTITUTE(E2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(E2,"_",),4)</f>
-        <v>000C 5BDB</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2:M30" si="6">LEFT(SUBSTITUTE(F2,"_",),4)&amp;" "&amp;RIGHT(SUBSTITUTE(F2,"_",),4)</f>
-        <v>0018 D41B</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <f t="shared" si="1"/>
         <v>0040 0101</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <f t="shared" si="2"/>
+        <v>0040 0040</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="3"/>
         <v>0010 0040</v>
       </c>
-      <c r="J3" t="str">
+      <c r="M3" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 3838</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="5"/>
+        <v>0C40 0C40</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 1700</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>0018 D41B</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="8"/>
+        <v>001B E41B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>0010 0102</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>0010 0010</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3838</v>
-      </c>
-      <c r="K3" t="str">
+        <v>0040 0010</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="4"/>
-        <v>0000 1700</v>
-      </c>
-      <c r="L3" t="str">
+        <v>0001 3838</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="5"/>
-        <v>0018 D41B</v>
-      </c>
-      <c r="M3" t="str">
+        <v>0C40 0C40</v>
+      </c>
+      <c r="O4" t="str">
         <f t="shared" si="6"/>
+        <v>0000 1B10</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
         <v>001B E41B</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
+      <c r="Q4" t="str">
+        <f t="shared" si="8"/>
+        <v>001C A81B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>0090 0111</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>0060 0040</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>0040 0010</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 3838</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="5"/>
+        <v>0C40 0C40</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 1F50</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>001B E41B</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="8"/>
+        <v>001F B81B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>0080 0101</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>0080 0080</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>0010 0080</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 3838</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="5"/>
+        <v>0C40 0C40</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 4390</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>001F B81B</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="8"/>
+        <v>0022 C81B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>0010 0102</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>0010 0010</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>0040 0010</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 3838</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>0C40 0C40</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 4BA0</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>0022 C81B</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="8"/>
+        <v>0023 8C1B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>0090 0111</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>0060 0040</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>0040 0010</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 3838</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v>0C40 0C40</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 4FE0</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>0022 C81B</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="8"/>
+        <v>0026 9C1B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>0009 0204</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>0009 0009</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>0080 0080</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 1C38</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v>0310 0C40</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 0000</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>0026 9C1B</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="8"/>
+        <v>0029 AC1B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>0080 0101</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>0080 0080</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>0020 0080</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 1C1C</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v>0310 0310</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 7420</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>0029 AC1B</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="8"/>
+        <v>002B 341B</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>0020 0102</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>0020 0020</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>0080 0020</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 1C1C</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="5"/>
+        <v>0310 0310</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 8440</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>002B 341B</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="8"/>
+        <v>002B 961B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>0120 0111</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>00C0 0080</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>0080 0020</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 1C1C</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>0310 0310</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 94C0</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>002B 341B</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="8"/>
+        <v>002D 1E1B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>0100 0101</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>0100 0100</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>0020 0100</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 1C1C</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
+        <v>0310 0310</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>0001 2540</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>002D 1E1B</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="8"/>
+        <v>002E A61B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>0020 0102</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>0020 0020</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v>0080 0020</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 1C1C</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v>0310 0310</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>0001 4560</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>002E A61B</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="8"/>
+        <v>002F 081B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>0120 0111</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>00C0 0080</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>0080 0020</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 1C1C</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="5"/>
+        <v>0310 0310</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>0001 55E0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>002E A61B</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="8"/>
+        <v>0030 901B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>0009 0204</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>0009 0009</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>0100 0100</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 0E1C</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 0310</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>0000 0000</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>0030 901B</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="8"/>
+        <v>0032 181B</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>0100 0101</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>0100 0100</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>0030 0100</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="6"/>
+        <v>0001 E660</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="7"/>
+        <v>0032 181B</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="8"/>
+        <v>0032 DC1B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>0030 0102</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>0030 0030</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v>00C0 0030</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>0002 1690</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>0032 DC1B</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="8"/>
+        <v>0033 00DB</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>01B0 0111</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>0120 00C0</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v>00C0 0030</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 0E0E</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>0002 3B50</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>0032 DC1B</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="8"/>
+        <v>0033 93DB</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="C20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>0180 0101</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>0180 0180</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>0030 0180</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>0003 8010</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>0033 93DB</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="8"/>
+        <v>0034 26DB</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="B21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="G21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>0030 0102</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>0030 0030</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>00C0 0030</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>0003 C840</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>0034 26DB</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="8"/>
+        <v>0034 4B9B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>01B0 0111</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>0120 00C0</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>00C0 0030</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>0003 0E0E</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>0003 ED00</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>0034 26DB</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="8"/>
+        <v>0034 DE9B</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>0180 0101</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>0180 0180</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>0040 0180</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="5"/>
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>0005 31C0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>0034 DE9B</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="8"/>
+        <v>0035 719B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="1"/>
         <v>0040 0102</v>
       </c>
-      <c r="I4" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="2"/>
-        <v>0040 0010</v>
-      </c>
-      <c r="J4" t="str">
+        <v>0040 0040</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3838</v>
-      </c>
-      <c r="K4" t="str">
+        <v>0100 0040</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="4"/>
-        <v>0000 1B10</v>
-      </c>
-      <c r="L4" t="str">
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="5"/>
-        <v>001B E41B</v>
-      </c>
-      <c r="M4" t="str">
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="6"/>
-        <v>001C A81B</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" t="str">
+        <v>0005 9200</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>0035 719B</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="8"/>
+        <v>0035 A29B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="1"/>
         <v>0240 0111</v>
       </c>
-      <c r="I5" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="2"/>
-        <v>0040 0010</v>
-      </c>
-      <c r="J5" t="str">
+        <v>0180 0100</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3838</v>
-      </c>
-      <c r="K5" t="str">
+        <v>0100 0040</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="4"/>
-        <v>0000 1F50</v>
-      </c>
-      <c r="L5" t="str">
+        <v>0003 0E0E</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="5"/>
-        <v>001B E41B</v>
-      </c>
-      <c r="M5" t="str">
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="6"/>
-        <v>001F B81B</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" t="str">
+        <v>0005 D300</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>0035 719B</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="8"/>
+        <v>0036 669B</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="1"/>
-        <v>0080 0101</v>
-      </c>
-      <c r="I6" t="str">
+        <v>0200 0101</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="2"/>
-        <v>0010 0080</v>
-      </c>
-      <c r="J6" t="str">
+        <v>0200 0200</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3838</v>
-      </c>
-      <c r="K6" t="str">
+        <v>0040 0200</v>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" si="4"/>
-        <v>0000 4390</v>
-      </c>
-      <c r="L6" t="str">
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="5"/>
-        <v>001F B81B</v>
-      </c>
-      <c r="M6" t="str">
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="6"/>
-        <v>0022 C81B</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" t="str">
+        <v>0008 1400</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>0036 669B</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="8"/>
+        <v>0037 2A9B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="1"/>
         <v>0040 0102</v>
       </c>
-      <c r="I7" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="2"/>
-        <v>0040 0010</v>
-      </c>
-      <c r="J7" t="str">
+        <v>0040 0040</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3838</v>
-      </c>
-      <c r="K7" t="str">
+        <v>0100 0040</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="4"/>
-        <v>0000 4BA0</v>
-      </c>
-      <c r="L7" t="str">
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="5"/>
-        <v>0022 C81B</v>
-      </c>
-      <c r="M7" t="str">
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O27" t="str">
         <f t="shared" si="6"/>
-        <v>0023 8C1B</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" t="str">
+        <v>0008 9440</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>0037 2A9B</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="8"/>
+        <v>0037 5B9B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="1"/>
         <v>0240 0111</v>
       </c>
-      <c r="I8" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="2"/>
-        <v>0040 0010</v>
-      </c>
-      <c r="J8" t="str">
+        <v>0180 0100</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="3"/>
-        <v>0C40 3838</v>
-      </c>
-      <c r="K8" t="str">
+        <v>0100 0040</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="4"/>
-        <v>0000 4FE0</v>
-      </c>
-      <c r="L8" t="str">
+        <v>0003 0E0E</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="5"/>
-        <v>0022 C81B</v>
-      </c>
-      <c r="M8" t="str">
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="6"/>
-        <v>0026 9C1B</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>0000 9204</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>0080 0080</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>0310 1C38</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0000</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="5"/>
-        <v>0026 9C1B</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="6"/>
-        <v>0029 AC1B</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>0100 0101</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>0020 0080</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>0310 1C1C</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 7420</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="5"/>
-        <v>0029 AC1B</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="6"/>
-        <v>002B 341B</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>0100 0102</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>0080 0020</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>0310 1C1C</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 8440</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="5"/>
-        <v>002B 341B</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="6"/>
-        <v>002B 961B</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>0900 0111</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>0080 0020</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>0310 1C1C</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 94C0</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="5"/>
-        <v>002B 341B</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="6"/>
-        <v>002D 1E1B</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="12" t="s">
+        <v>0008 D540</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>0037 2A9B</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="8"/>
+        <v>0038 1F9B</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="G29" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v>0200 0101</v>
       </c>
-      <c r="I13" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="2"/>
-        <v>0020 0100</v>
-      </c>
-      <c r="J13" t="str">
+        <v>0200 0200</v>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C1C</v>
-      </c>
-      <c r="K13" t="str">
+        <v>03E8 0200</v>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" si="4"/>
-        <v>0001 2540</v>
-      </c>
-      <c r="L13" t="str">
+        <v>0001 0E0E</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="5"/>
-        <v>002D 1E1B</v>
-      </c>
-      <c r="M13" t="str">
+        <v>00C4 00C4</v>
+      </c>
+      <c r="O29" t="str">
         <f t="shared" si="6"/>
-        <v>002E A61B</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" t="str">
+        <v>000B 1640</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>0038 1F9B</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="8"/>
+        <v>0038 E39B</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="1"/>
-        <v>0100 0102</v>
-      </c>
-      <c r="I14" t="str">
+        <v>00C4 0105</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="2"/>
-        <v>0080 0020</v>
-      </c>
-      <c r="J14" t="str">
+        <v>00C4 00C4</v>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="3"/>
-        <v>0310 1C1C</v>
-      </c>
-      <c r="K14" t="str">
+        <v>03E8 03E8</v>
+      </c>
+      <c r="M30" t="str">
         <f t="shared" si="4"/>
-        <v>0001 4560</v>
-      </c>
-      <c r="L14" t="str">
+        <v>000E 010E</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="5"/>
-        <v>002E A61B</v>
-      </c>
-      <c r="M14" t="str">
+        <v>0001 00C4</v>
+      </c>
+      <c r="O30" t="str">
         <f t="shared" si="6"/>
-        <v>002F 081B</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>0900 0111</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>0080 0020</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>0310 1C1C</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="4"/>
-        <v>0001 55E0</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="5"/>
-        <v>002E A61B</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="6"/>
-        <v>0030 901B</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>0000 9204</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>0100 0100</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E1C</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="4"/>
         <v>0000 0000</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="5"/>
-        <v>0030 901B</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="6"/>
-        <v>0032 181B</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>0300 0101</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>0030 0100</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="4"/>
-        <v>0001 E660</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="5"/>
-        <v>0032 181B</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="6"/>
-        <v>0032 DC1B</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>0240 0102</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>00C0 0030</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="4"/>
-        <v>0002 1690</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="5"/>
-        <v>0032 DC1B</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="6"/>
-        <v>0033 00DB</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>1440 0111</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>00C0 0030</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="4"/>
-        <v>0002 3B50</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="5"/>
-        <v>0032 DC1B</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="6"/>
-        <v>0033 93DB</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>0480 0101</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>0030 0180</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v>0003 8010</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="5"/>
-        <v>0033 93DB</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="6"/>
-        <v>0034 26DB</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>0240 0102</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v>00C0 0030</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="4"/>
-        <v>0003 C840</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="5"/>
-        <v>0034 26DB</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="6"/>
-        <v>0034 4B9B</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>1440 0111</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>00C0 0030</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="4"/>
-        <v>0003 ED00</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="5"/>
-        <v>0034 26DB</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="6"/>
-        <v>0034 DE9B</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>0600 0101</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="2"/>
-        <v>0040 0180</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="4"/>
-        <v>0005 31C0</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="5"/>
-        <v>0034 DE9B</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="6"/>
-        <v>0035 719B</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>0400 0102</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="2"/>
-        <v>0100 0040</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="4"/>
-        <v>0005 9200</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="5"/>
-        <v>0035 719B</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="6"/>
-        <v>0035 A29B</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>2400 0111</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="2"/>
-        <v>0100 0040</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="4"/>
-        <v>0005 D300</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="5"/>
-        <v>0035 719B</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="6"/>
-        <v>0036 669B</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>0800 0101</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>0040 0200</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="4"/>
-        <v>0008 1400</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="5"/>
-        <v>0036 669B</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="6"/>
-        <v>0037 2A9B</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>0400 0102</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>0100 0040</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="4"/>
-        <v>0008 9440</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="5"/>
-        <v>0037 2A9B</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="6"/>
-        <v>0037 5B9B</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>2400 0111</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>0100 0040</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="4"/>
-        <v>0008 D540</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="5"/>
-        <v>0037 2A9B</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="6"/>
-        <v>0038 1F9B</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>7D00 0101</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>03E8 0200</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>00C4 0E0E</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="4"/>
-        <v>000B 1640</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="5"/>
-        <v>0038 1F9B</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="6"/>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
         <v>0038 E39B</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>000C 4105</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>03E8 03E8</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>0001 010E</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0000</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="5"/>
-        <v>0038 E39B</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q30" t="str">
+        <f t="shared" si="8"/>
         <v>003B E13B</v>
       </c>
     </row>

--- a/docs/Squeezenet.xlsx
+++ b/docs/Squeezenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shish\source\repos\FusionAccel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13666504-F3D4-4B59-B815-0DE4A5F491F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E0EC2-CD07-4D84-AE28-9102EF8A929D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9317FBE-E145-410C-9025-73E70D2DEE99}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="239">
   <si>
     <t>INPUT</t>
   </si>
@@ -436,12 +436,6 @@
     <t>Op_type</t>
   </si>
   <si>
-    <t>op_num|stride|padding|type</t>
-  </si>
-  <si>
-    <t>006C0_202</t>
-  </si>
-  <si>
     <t>00001000</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>001BE41B</t>
   </si>
   <si>
-    <t>00400_101</t>
-  </si>
-  <si>
     <t>001CA81B</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>0022C81B</t>
   </si>
   <si>
-    <t>00800_101</t>
-  </si>
-  <si>
     <t>00238C1B</t>
   </si>
   <si>
@@ -484,9 +472,6 @@
     <t>002B341B</t>
   </si>
   <si>
-    <t>01000_101</t>
-  </si>
-  <si>
     <t>002B961B</t>
   </si>
   <si>
@@ -496,9 +481,6 @@
     <t>002EA61B</t>
   </si>
   <si>
-    <t>02000_101</t>
-  </si>
-  <si>
     <t>002F081B</t>
   </si>
   <si>
@@ -511,9 +493,6 @@
     <t>0032DC1B</t>
   </si>
   <si>
-    <t>03000_101</t>
-  </si>
-  <si>
     <t>003300DB</t>
   </si>
   <si>
@@ -526,9 +505,6 @@
     <t>003426DB</t>
   </si>
   <si>
-    <t>04800_101</t>
-  </si>
-  <si>
     <t>00344B9B</t>
   </si>
   <si>
@@ -538,9 +514,6 @@
     <t>0035719B</t>
   </si>
   <si>
-    <t>06000_101</t>
-  </si>
-  <si>
     <t>0035A29B</t>
   </si>
   <si>
@@ -550,9 +523,6 @@
     <t>00372A9B</t>
   </si>
   <si>
-    <t>08000_101</t>
-  </si>
-  <si>
     <t>00375B9B</t>
   </si>
   <si>
@@ -562,9 +532,6 @@
     <t>0038E39B</t>
   </si>
   <si>
-    <t>7D000_101</t>
-  </si>
-  <si>
     <t>03E8_0200</t>
   </si>
   <si>
@@ -580,12 +547,6 @@
     <t>14x14</t>
   </si>
   <si>
-    <t>00009_204</t>
-  </si>
-  <si>
-    <t>000C4_105</t>
-  </si>
-  <si>
     <t>0001_010E</t>
   </si>
   <si>
@@ -670,9 +631,6 @@
     <t>000B1640</t>
   </si>
   <si>
-    <t>osurf, oiside</t>
-  </si>
-  <si>
     <t>oichannel</t>
   </si>
   <si>
@@ -697,31 +655,103 @@
     <t>00C4_0E0E</t>
   </si>
   <si>
-    <t>00400_102</t>
-  </si>
-  <si>
-    <t>02400_111</t>
-  </si>
-  <si>
-    <t>01000_102</t>
-  </si>
-  <si>
-    <t>09000_111</t>
-  </si>
-  <si>
-    <t>02400_102</t>
-  </si>
-  <si>
-    <t>14400_111</t>
-  </si>
-  <si>
-    <t>04000_102</t>
-  </si>
-  <si>
-    <t>24000_111</t>
-  </si>
-  <si>
     <t>op_num</t>
+  </si>
+  <si>
+    <t>op_center|stride|padding|type</t>
+  </si>
+  <si>
+    <t>op_side|op_corner</t>
+  </si>
+  <si>
+    <t>001B_0202</t>
+  </si>
+  <si>
+    <t>001B_001B</t>
+  </si>
+  <si>
+    <t>0009_0204</t>
+  </si>
+  <si>
+    <t>0009_0009</t>
+  </si>
+  <si>
+    <t>0040_0101</t>
+  </si>
+  <si>
+    <t>0010_0102</t>
+  </si>
+  <si>
+    <t>0010_0010</t>
+  </si>
+  <si>
+    <t>0090_0111</t>
+  </si>
+  <si>
+    <t>0060_0040</t>
+  </si>
+  <si>
+    <t>0080_0101</t>
+  </si>
+  <si>
+    <t>0020_0102</t>
+  </si>
+  <si>
+    <t>0020_0020</t>
+  </si>
+  <si>
+    <t>0120_0111</t>
+  </si>
+  <si>
+    <t>00C0_0080</t>
+  </si>
+  <si>
+    <t>0100_0101</t>
+  </si>
+  <si>
+    <t>0030_0102</t>
+  </si>
+  <si>
+    <t>0030_0030</t>
+  </si>
+  <si>
+    <t>01B0_0111</t>
+  </si>
+  <si>
+    <t>0120_00C0</t>
+  </si>
+  <si>
+    <t>0180_0101</t>
+  </si>
+  <si>
+    <t>0180_0180</t>
+  </si>
+  <si>
+    <t>0040_0102</t>
+  </si>
+  <si>
+    <t>0240_0111</t>
+  </si>
+  <si>
+    <t>0180_0100</t>
+  </si>
+  <si>
+    <t>0200_0101</t>
+  </si>
+  <si>
+    <t>0200_0200</t>
+  </si>
+  <si>
+    <t>00C4_0105</t>
+  </si>
+  <si>
+    <t>00C4_00C4</t>
+  </si>
+  <si>
+    <t>oisurf</t>
+  </si>
+  <si>
+    <t>kernel, oiside</t>
   </si>
 </sst>
 </file>
@@ -867,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1353,11 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B23C6-EAEB-43B1-B045-456C36085CFA}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE71"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:R68"/>
+    <sheetView tabSelected="1" topLeftCell="I50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V69" sqref="V69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,64 +1409,68 @@
     <col min="15" max="15" width="12.81640625" style="30" customWidth="1"/>
     <col min="16" max="16" width="7.81640625" style="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" style="31" customWidth="1"/>
-    <col min="23" max="23" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.26953125" style="49" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.90625" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.90625" style="31" customWidth="1"/>
+    <col min="23" max="23" width="6.81640625" style="37" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.81640625" style="31" customWidth="1"/>
     <col min="25" max="25" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.81640625" style="43" customWidth="1"/>
-    <col min="27" max="27" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" style="31" customWidth="1"/>
+    <col min="27" max="27" width="7.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="43" customWidth="1"/>
+    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="56" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
       <c r="Z1" s="58"/>
-      <c r="AA1" s="51" t="s">
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -1444,15 +1480,15 @@
       <c r="C2" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="24" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>84</v>
@@ -1463,16 +1499,16 @@
       <c r="J2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>113</v>
@@ -1481,43 +1517,49 @@
         <v>85</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="U2" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="T2" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="W2" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59" t="s">
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59" t="s">
-        <v>179</v>
-      </c>
       <c r="Z2" s="60"/>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AE2" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AF2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1551,24 +1593,26 @@
       <c r="R3" s="44"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="32"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="32"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="32"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1">
         <f>M3/64*0.97</f>
         <v>2342.9592187499998</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="20" t="s">
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1631,52 +1675,60 @@
         <v>001B_0202</v>
       </c>
       <c r="S4" s="12" t="str">
+        <f>IF(J4=0,DEC2HEX(G4,4)&amp;"_"&amp;DEC2HEX(G4,4), DEC2HEX(G4/9*6,4)&amp;"_"&amp;DEC2HEX(G4/9*4,4))</f>
+        <v>001B_001B</v>
+      </c>
+      <c r="T4" s="12" t="str">
         <f>DEC2HEX(H4,4)&amp;"_"&amp;DEC2HEX(F4,4)</f>
         <v>0040_0003</v>
       </c>
-      <c r="T4" s="12" t="str">
-        <f>DEC2HEX(L4^2,4)&amp;"_"&amp;DEC2HEX(L4,2)&amp;DEC2HEX(L3,2)</f>
-        <v>31E1_71E3</v>
-      </c>
-      <c r="U4" s="33">
+      <c r="U4" s="12" t="str">
+        <f>DEC2HEX(E4,4)&amp;"_"&amp;DEC2HEX(L4,2)&amp;DEC2HEX(L3,2)</f>
+        <v>0003_71E3</v>
+      </c>
+      <c r="V4" s="12" t="str">
+        <f>DEC2HEX(L4^2,4)&amp;"_"&amp;DEC2HEX(L3^2,4)</f>
+        <v>31E1_C949</v>
+      </c>
+      <c r="W4" s="33">
         <v>4096</v>
-      </c>
-      <c r="V4" s="12" t="str">
-        <f>DEC2HEX(U4,8)</f>
-        <v>00001000</v>
-      </c>
-      <c r="W4" s="33">
-        <v>655360</v>
       </c>
       <c r="X4" s="12" t="str">
         <f>DEC2HEX(W4,8)</f>
+        <v>00001000</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>655360</v>
+      </c>
+      <c r="Z4" s="12" t="str">
+        <f>DEC2HEX(Y4,8)</f>
         <v>000A0000</v>
       </c>
-      <c r="Y4" s="33">
-        <f>W4+M3</f>
+      <c r="AA4" s="33">
+        <f>Y4+M3</f>
         <v>809947</v>
       </c>
-      <c r="Z4" s="13" t="str">
-        <f>DEC2HEX(Y4,8)</f>
+      <c r="AB4" s="13" t="str">
+        <f>DEC2HEX(AA4,8)</f>
         <v>000C5BDB</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AC4" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
         <f>M4/64*0.97</f>
         <v>12385.93</v>
       </c>
-      <c r="AD4" s="2">
-        <f>N4*AA4*AB4</f>
+      <c r="AF4" s="2">
+        <f>N4*AC4*AD4</f>
         <v>7661.4000000000005</v>
       </c>
-      <c r="AE4" s="20"/>
-    </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG4" s="20"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1701,19 +1753,21 @@
       <c r="R5" s="46"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="34"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="34"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="34"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="15"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="20"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="20"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1767,51 +1821,59 @@
         <v>0009_0204</v>
       </c>
       <c r="S6" s="16" t="str">
+        <f>IF(J6=0,DEC2HEX(G6,4)&amp;"_"&amp;DEC2HEX(G6,4), DEC2HEX(G6/9*6,4)&amp;"_"&amp;DEC2HEX(G6/9*4,4))</f>
+        <v>0009_0009</v>
+      </c>
+      <c r="T6" s="16" t="str">
         <f>DEC2HEX(H6,4)&amp;"_"&amp;DEC2HEX(H6,4)</f>
         <v>0040_0040</v>
       </c>
-      <c r="T6" s="16" t="str">
-        <f>DEC2HEX(L6^2,4)&amp;"_"&amp;DEC2HEX(L6,2)&amp;DEC2HEX(L4,2)</f>
-        <v>0C40_3871</v>
-      </c>
-      <c r="U6" s="35"/>
+      <c r="U6" s="16" t="str">
+        <f>DEC2HEX(E6^2,4)&amp;"_"&amp;DEC2HEX(L6,2)&amp;DEC2HEX(L4,2)</f>
+        <v>0009_3871</v>
+      </c>
       <c r="V6" s="16" t="str">
+        <f>DEC2HEX(L6^2,4)&amp;"_"&amp;DEC2HEX(L4^2,4)</f>
+        <v>0C40_31E1</v>
+      </c>
+      <c r="W6" s="35"/>
+      <c r="X6" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="W6" s="35">
-        <f>Y4</f>
+      <c r="Y6" s="35">
+        <f>AA4</f>
         <v>809947</v>
       </c>
-      <c r="X6" s="16" t="str">
-        <f>DEC2HEX(W6,8)</f>
+      <c r="Z6" s="16" t="str">
+        <f>DEC2HEX(Y6,8)</f>
         <v>000C5BDB</v>
       </c>
-      <c r="Y6" s="35">
-        <f>W6+M4</f>
+      <c r="AA6" s="35">
+        <f>Y6+M4</f>
         <v>1627163</v>
       </c>
-      <c r="Z6" s="17" t="str">
-        <f>DEC2HEX(Y6,8)</f>
+      <c r="AB6" s="17" t="str">
+        <f>DEC2HEX(AA6,8)</f>
         <v>0018D41B</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AC6" s="4">
         <v>0.31</v>
       </c>
-      <c r="AB6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4">
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
         <f>M6/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD6" s="4">
-        <f>N6*AA6*AB6</f>
+      <c r="AF6" s="4">
+        <f>N6*AC6*AD6</f>
         <v>62218.239999999998</v>
       </c>
-      <c r="AE6" s="20"/>
-    </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG6" s="20"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1874,54 +1936,62 @@
         <v>0040_0101</v>
       </c>
       <c r="S7" s="12" t="str">
+        <f>IF(J7=0,DEC2HEX(G7,4)&amp;"_"&amp;DEC2HEX(G7,4), DEC2HEX(G7/9*6,4)&amp;"_"&amp;DEC2HEX(G7/9*4,4))</f>
+        <v>0040_0040</v>
+      </c>
+      <c r="T7" s="12" t="str">
         <f>DEC2HEX(H7,4)&amp;"_"&amp;DEC2HEX(F7,4)</f>
         <v>0010_0040</v>
       </c>
-      <c r="T7" s="12" t="str">
-        <f>DEC2HEX(L7^2,4)&amp;"_"&amp;DEC2HEX(L7,2)&amp;DEC2HEX(L6,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U7" s="33">
-        <f>U4+Q4</f>
+      <c r="U7" s="12" t="str">
+        <f>DEC2HEX(E7,4)&amp;"_"&amp;DEC2HEX(L7,2)&amp;DEC2HEX(L6,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V7" s="12" t="str">
+        <f>DEC2HEX(L7^2,4)&amp;"_"&amp;DEC2HEX(L6^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W7" s="33">
+        <f>W4+Q4</f>
         <v>5888</v>
-      </c>
-      <c r="V7" s="12" t="str">
-        <f>DEC2HEX(U7,8)</f>
-        <v>00001700</v>
-      </c>
-      <c r="W7" s="33">
-        <f>Y6</f>
-        <v>1627163</v>
       </c>
       <c r="X7" s="12" t="str">
         <f>DEC2HEX(W7,8)</f>
+        <v>00001700</v>
+      </c>
+      <c r="Y7" s="33">
+        <f>AA6</f>
+        <v>1627163</v>
+      </c>
+      <c r="Z7" s="12" t="str">
+        <f>DEC2HEX(Y7,8)</f>
         <v>0018D41B</v>
       </c>
-      <c r="Y7" s="33">
-        <f>W7+M6</f>
+      <c r="AA7" s="33">
+        <f>Y7+M6</f>
         <v>1827867</v>
       </c>
-      <c r="Z7" s="13" t="str">
-        <f>DEC2HEX(Y7,8)</f>
+      <c r="AB7" s="13" t="str">
+        <f>DEC2HEX(AA7,8)</f>
         <v>001BE41B</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
         <f>M7/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD7" s="2">
-        <f>N7*AA7*AB7</f>
+      <c r="AF7" s="2">
+        <f>N7*AC7*AD7</f>
         <v>40140.800000000003</v>
       </c>
-      <c r="AE7" s="20"/>
-    </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG7" s="20"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1946,19 +2016,21 @@
       <c r="R8" s="46"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="34"/>
+      <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="34"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="34"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="15"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="20"/>
-    </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="20"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2021,54 +2093,62 @@
         <v>0010_0102</v>
       </c>
       <c r="S9" s="12" t="str">
+        <f t="shared" ref="S9:S10" si="7">IF(J9=0,DEC2HEX(G9,4)&amp;"_"&amp;DEC2HEX(G9,4), DEC2HEX(G9/9*6,4)&amp;"_"&amp;DEC2HEX(G9/9*4,4))</f>
+        <v>0010_0010</v>
+      </c>
+      <c r="T9" s="12" t="str">
         <f>DEC2HEX(H9,4)&amp;"_"&amp;DEC2HEX(F9,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T9" s="12" t="str">
-        <f>DEC2HEX(L9^2,4)&amp;"_"&amp;DEC2HEX(L9,2)&amp;DEC2HEX(L7,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U9" s="33">
-        <f>U7+Q7</f>
+      <c r="U9" s="12" t="str">
+        <f>DEC2HEX(E9,4)&amp;"_"&amp;DEC2HEX(L9,2)&amp;DEC2HEX(L7,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V9" s="12" t="str">
+        <f>DEC2HEX(L9^2,4)&amp;"_"&amp;DEC2HEX(L7^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W9" s="33">
+        <f>W7+Q7</f>
         <v>6928</v>
-      </c>
-      <c r="V9" s="12" t="str">
-        <f t="shared" ref="V9:V10" si="7">DEC2HEX(U9,8)</f>
-        <v>00001B10</v>
-      </c>
-      <c r="W9" s="33">
-        <f>Y7</f>
-        <v>1827867</v>
       </c>
       <c r="X9" s="12" t="str">
         <f t="shared" ref="X9:X10" si="8">DEC2HEX(W9,8)</f>
+        <v>00001B10</v>
+      </c>
+      <c r="Y9" s="33">
+        <f>AA7</f>
+        <v>1827867</v>
+      </c>
+      <c r="Z9" s="12" t="str">
+        <f t="shared" ref="Z9:Z10" si="9">DEC2HEX(Y9,8)</f>
         <v>001BE41B</v>
       </c>
-      <c r="Y9" s="33">
-        <f>W9+M7</f>
+      <c r="AA9" s="33">
+        <f>Y9+M7</f>
         <v>1878043</v>
       </c>
-      <c r="Z9" s="13" t="str">
-        <f t="shared" ref="Z9:Z10" si="9">DEC2HEX(Y9,8)</f>
+      <c r="AB9" s="13" t="str">
+        <f t="shared" ref="AB9:AB10" si="10">DEC2HEX(AA9,8)</f>
         <v>001CA81B</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AC9" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AD9" s="2">
         <v>0</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AE9" s="2">
         <f>M9/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD9" s="2">
-        <f>N9*AA9*AB9</f>
+      <c r="AF9" s="2">
+        <f>N9*AC9*AD9</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="20"/>
-    </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG9" s="20"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2131,54 +2211,62 @@
         <v>0090_0111</v>
       </c>
       <c r="S10" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>0060_0040</v>
+      </c>
+      <c r="T10" s="12" t="str">
         <f>DEC2HEX(H10,4)&amp;"_"&amp;DEC2HEX(F10,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T10" s="12" t="str">
-        <f>DEC2HEX(L10^2,4)&amp;"_"&amp;DEC2HEX(L10,2)&amp;DEC2HEX(L7,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U10" s="33">
-        <f>U9+Q9</f>
+      <c r="U10" s="12" t="str">
+        <f>DEC2HEX(E10,4)&amp;"_"&amp;DEC2HEX(L10,2)&amp;DEC2HEX(L7,2)</f>
+        <v>0003_3838</v>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f>DEC2HEX(L10^2,4)&amp;"_"&amp;DEC2HEX(L7^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W10" s="33">
+        <f>W9+Q9</f>
         <v>8016</v>
-      </c>
-      <c r="V10" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>00001F50</v>
-      </c>
-      <c r="W10" s="33">
-        <f>Y7</f>
-        <v>1827867</v>
       </c>
       <c r="X10" s="12" t="str">
         <f t="shared" si="8"/>
+        <v>00001F50</v>
+      </c>
+      <c r="Y10" s="33">
+        <f>AA7</f>
+        <v>1827867</v>
+      </c>
+      <c r="Z10" s="12" t="str">
+        <f t="shared" si="9"/>
         <v>001BE41B</v>
       </c>
-      <c r="Y10" s="33">
-        <f>W10++M7+M9</f>
+      <c r="AA10" s="33">
+        <f>Y10++M7+M9</f>
         <v>2078747</v>
       </c>
-      <c r="Z10" s="13" t="str">
-        <f t="shared" si="9"/>
+      <c r="AB10" s="13" t="str">
+        <f t="shared" si="10"/>
         <v>001FB81B</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AC10" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="2">
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
         <f>M10/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD10" s="2">
-        <f>N10*AA10*AB10</f>
+      <c r="AF10" s="2">
+        <f>N10*AC10*AD10</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AE10" s="20"/>
-    </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG10" s="20"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -2203,19 +2291,21 @@
       <c r="R11" s="46"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="34"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="34"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="34"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="15"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="20"/>
-    </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="20"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2240,19 +2330,21 @@
       <c r="R12" s="46"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="34"/>
+      <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="34"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="34"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="15"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="20"/>
-    </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="20"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2281,19 +2373,21 @@
       <c r="R13" s="44"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="32"/>
+      <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="32"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="32"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="11"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="20"/>
-    </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="20"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2356,54 +2450,62 @@
         <v>0080_0101</v>
       </c>
       <c r="S14" s="12" t="str">
+        <f>IF(J14=0,DEC2HEX(G14,4)&amp;"_"&amp;DEC2HEX(G14,4), DEC2HEX(G14/9*6,4)&amp;"_"&amp;DEC2HEX(G14/9*4,4))</f>
+        <v>0080_0080</v>
+      </c>
+      <c r="T14" s="12" t="str">
         <f>DEC2HEX(H14,4)&amp;"_"&amp;DEC2HEX(F14,4)</f>
         <v>0010_0080</v>
       </c>
-      <c r="T14" s="12" t="str">
-        <f>DEC2HEX(L14^2,4)&amp;"_"&amp;DEC2HEX(L14,2)&amp;DEC2HEX(L9,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U14" s="33">
-        <f>U10+Q10</f>
+      <c r="U14" s="12" t="str">
+        <f>DEC2HEX(E14,4)&amp;"_"&amp;DEC2HEX(L14,2)&amp;DEC2HEX(L9,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V14" s="12" t="str">
+        <f>DEC2HEX(L14^2,4)&amp;"_"&amp;DEC2HEX(L9^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W14" s="33">
+        <f>W10+Q10</f>
         <v>17296</v>
-      </c>
-      <c r="V14" s="12" t="str">
-        <f>DEC2HEX(U14,8)</f>
-        <v>00004390</v>
-      </c>
-      <c r="W14" s="33">
-        <f>Y10</f>
-        <v>2078747</v>
       </c>
       <c r="X14" s="12" t="str">
         <f>DEC2HEX(W14,8)</f>
+        <v>00004390</v>
+      </c>
+      <c r="Y14" s="33">
+        <f>AA10</f>
+        <v>2078747</v>
+      </c>
+      <c r="Z14" s="12" t="str">
+        <f>DEC2HEX(Y14,8)</f>
         <v>001FB81B</v>
       </c>
-      <c r="Y14" s="33">
-        <f>W14+M10</f>
+      <c r="AA14" s="33">
+        <f>Y14+M10</f>
         <v>2279451</v>
       </c>
-      <c r="Z14" s="13" t="str">
-        <f>DEC2HEX(Y14,8)</f>
+      <c r="AB14" s="13" t="str">
+        <f>DEC2HEX(AA14,8)</f>
         <v>0022C81B</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AC14" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
         <f>M14/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD14" s="2">
-        <f>N14*AA14*AB14</f>
+      <c r="AF14" s="2">
+        <f>N14*AC14*AD14</f>
         <v>80281.600000000006</v>
       </c>
-      <c r="AE14" s="20"/>
-    </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG14" s="20"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2428,19 +2530,21 @@
       <c r="R15" s="46"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="34"/>
+      <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="34"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="34"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="15"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="20"/>
-    </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="20"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2460,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="26">
-        <f t="shared" ref="G16:G17" si="10">E16^2*F16</f>
+        <f t="shared" ref="G16:G17" si="11">E16^2*F16</f>
         <v>16</v>
       </c>
       <c r="H16" s="26">
@@ -2479,78 +2583,86 @@
         <v>56</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" ref="M16:M17" si="11">L16^2*H16</f>
+        <f t="shared" ref="M16:M17" si="12">L16^2*H16</f>
         <v>200704</v>
       </c>
       <c r="N16" s="26">
-        <f t="shared" ref="N16:N17" si="12">L16^2*F16</f>
+        <f t="shared" ref="N16:N17" si="13">L16^2*F16</f>
         <v>50176</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" ref="O16:O17" si="13">E16^2*F16*H16</f>
+        <f t="shared" ref="O16:O17" si="14">E16^2*F16*H16</f>
         <v>1024</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" ref="P16:P17" si="14">H16</f>
+        <f t="shared" ref="P16:P17" si="15">H16</f>
         <v>64</v>
       </c>
       <c r="Q16" s="26">
-        <f t="shared" ref="Q16:Q17" si="15">O16+P16</f>
+        <f t="shared" ref="Q16:Q17" si="16">O16+P16</f>
         <v>1088</v>
       </c>
       <c r="R16" s="45" t="str">
-        <f t="shared" ref="R16:R17" si="16">DEC2HEX(G16,4)&amp;"_0"&amp;DEC2HEX(I16,1)&amp;DEC2HEX(J16,1)&amp;DEC2HEX(C16,1)</f>
+        <f t="shared" ref="R16:R17" si="17">DEC2HEX(G16,4)&amp;"_0"&amp;DEC2HEX(I16,1)&amp;DEC2HEX(J16,1)&amp;DEC2HEX(C16,1)</f>
         <v>0010_0102</v>
       </c>
       <c r="S16" s="12" t="str">
+        <f t="shared" ref="S16:S17" si="18">IF(J16=0,DEC2HEX(G16,4)&amp;"_"&amp;DEC2HEX(G16,4), DEC2HEX(G16/9*6,4)&amp;"_"&amp;DEC2HEX(G16/9*4,4))</f>
+        <v>0010_0010</v>
+      </c>
+      <c r="T16" s="12" t="str">
         <f>DEC2HEX(H16,4)&amp;"_"&amp;DEC2HEX(F16,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T16" s="12" t="str">
-        <f>DEC2HEX(L16^2,4)&amp;"_"&amp;DEC2HEX(L16,2)&amp;DEC2HEX(L14,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U16" s="33">
-        <f>U14+Q14</f>
+      <c r="U16" s="12" t="str">
+        <f>DEC2HEX(E16,4)&amp;"_"&amp;DEC2HEX(L16,2)&amp;DEC2HEX(L14,2)</f>
+        <v>0001_3838</v>
+      </c>
+      <c r="V16" s="12" t="str">
+        <f>DEC2HEX(L16^2,4)&amp;"_"&amp;DEC2HEX(L14^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W16" s="33">
+        <f>W14+Q14</f>
         <v>19360</v>
       </c>
-      <c r="V16" s="12" t="str">
-        <f t="shared" ref="V16:V17" si="17">DEC2HEX(U16,8)</f>
+      <c r="X16" s="12" t="str">
+        <f t="shared" ref="X16:X17" si="19">DEC2HEX(W16,8)</f>
         <v>00004BA0</v>
       </c>
-      <c r="W16" s="33">
-        <f>Y14</f>
+      <c r="Y16" s="33">
+        <f>AA14</f>
         <v>2279451</v>
       </c>
-      <c r="X16" s="12" t="str">
-        <f t="shared" ref="X16:X17" si="18">DEC2HEX(W16,8)</f>
+      <c r="Z16" s="12" t="str">
+        <f t="shared" ref="Z16:Z17" si="20">DEC2HEX(Y16,8)</f>
         <v>0022C81B</v>
       </c>
-      <c r="Y16" s="33">
-        <f>W16+M14</f>
+      <c r="AA16" s="33">
+        <f>Y16+M14</f>
         <v>2329627</v>
       </c>
-      <c r="Z16" s="13" t="str">
-        <f t="shared" ref="Z16:Z17" si="19">DEC2HEX(Y16,8)</f>
+      <c r="AB16" s="13" t="str">
+        <f t="shared" ref="AB16:AB17" si="21">DEC2HEX(AA16,8)</f>
         <v>00238C1B</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AC16" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AD16" s="2">
         <v>0</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AE16" s="2">
         <f>M16/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD16" s="2">
-        <f>N16*AA16*AB16</f>
+      <c r="AF16" s="2">
+        <f>N16*AC16*AD16</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="20"/>
-    </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG16" s="20"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2570,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="H17" s="26">
@@ -2589,78 +2701,86 @@
         <v>56</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200704</v>
       </c>
       <c r="N17" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50176</v>
       </c>
       <c r="O17" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9216</v>
       </c>
       <c r="P17" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="Q17" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9280</v>
       </c>
       <c r="R17" s="45" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0090_0111</v>
       </c>
       <c r="S17" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v>0060_0040</v>
+      </c>
+      <c r="T17" s="12" t="str">
         <f>DEC2HEX(H17,4)&amp;"_"&amp;DEC2HEX(F17,4)</f>
         <v>0040_0010</v>
       </c>
-      <c r="T17" s="12" t="str">
-        <f>DEC2HEX(L17^2,4)&amp;"_"&amp;DEC2HEX(L17,2)&amp;DEC2HEX(L14,2)</f>
-        <v>0C40_3838</v>
-      </c>
-      <c r="U17" s="33">
-        <f>U16+Q16</f>
+      <c r="U17" s="12" t="str">
+        <f>DEC2HEX(E17,4)&amp;"_"&amp;DEC2HEX(L17,2)&amp;DEC2HEX(L14,2)</f>
+        <v>0003_3838</v>
+      </c>
+      <c r="V17" s="12" t="str">
+        <f>DEC2HEX(L17^2,4)&amp;"_"&amp;DEC2HEX(L14^2,4)</f>
+        <v>0C40_0C40</v>
+      </c>
+      <c r="W17" s="33">
+        <f>W16+Q16</f>
         <v>20448</v>
       </c>
-      <c r="V17" s="12" t="str">
-        <f t="shared" si="17"/>
+      <c r="X17" s="12" t="str">
+        <f t="shared" si="19"/>
         <v>00004FE0</v>
       </c>
-      <c r="W17" s="33">
-        <f>Y14</f>
+      <c r="Y17" s="33">
+        <f>AA14</f>
         <v>2279451</v>
       </c>
-      <c r="X17" s="12" t="str">
-        <f t="shared" si="18"/>
+      <c r="Z17" s="12" t="str">
+        <f t="shared" si="20"/>
         <v>0022C81B</v>
       </c>
-      <c r="Y17" s="33">
-        <f>W17++M14+M16</f>
+      <c r="AA17" s="33">
+        <f>Y17++M14+M16</f>
         <v>2530331</v>
       </c>
-      <c r="Z17" s="13" t="str">
-        <f t="shared" si="19"/>
+      <c r="AB17" s="13" t="str">
+        <f t="shared" si="21"/>
         <v>00269C1B</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AC17" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="2">
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2">
         <f>M17/64*0.97</f>
         <v>3041.92</v>
       </c>
-      <c r="AD17" s="2">
-        <f>N17*AA17*AB17</f>
+      <c r="AF17" s="2">
+        <f>N17*AC17*AD17</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AE17" s="20"/>
-    </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG17" s="20"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2685,19 +2805,21 @@
       <c r="R18" s="46"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="34"/>
+      <c r="U18" s="14"/>
       <c r="V18" s="14"/>
       <c r="W18" s="34"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="34"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="15"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="20"/>
-    </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="20"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -2722,19 +2844,21 @@
       <c r="R19" s="46"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="34"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="34"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="34"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="15"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="20"/>
-    </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="20"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -2763,19 +2887,21 @@
       <c r="R20" s="44"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="32"/>
+      <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="32"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="32"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="11"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="20"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="20"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -2829,51 +2955,59 @@
         <v>0009_0204</v>
       </c>
       <c r="S21" s="16" t="str">
+        <f>IF(J21=0,DEC2HEX(G21,4)&amp;"_"&amp;DEC2HEX(G21,4), DEC2HEX(G21/9*6,4)&amp;"_"&amp;DEC2HEX(G21/9*4,4))</f>
+        <v>0009_0009</v>
+      </c>
+      <c r="T21" s="16" t="str">
         <f>DEC2HEX(H21,4)&amp;"_"&amp;DEC2HEX(H21,4)</f>
         <v>0080_0080</v>
       </c>
-      <c r="T21" s="16" t="str">
-        <f>DEC2HEX(L21^2,4)&amp;"_"&amp;DEC2HEX(L21,2)&amp;DEC2HEX(L16,2)</f>
-        <v>0310_1C38</v>
-      </c>
-      <c r="U21" s="35"/>
+      <c r="U21" s="16" t="str">
+        <f>DEC2HEX(E21,4)&amp;"_"&amp;DEC2HEX(L21,2)&amp;DEC2HEX(L16,2)</f>
+        <v>0003_1C38</v>
+      </c>
       <c r="V21" s="16" t="str">
+        <f>DEC2HEX(L21^2,4)&amp;"_"&amp;DEC2HEX(L16^2,4)</f>
+        <v>0310_0C40</v>
+      </c>
+      <c r="W21" s="35"/>
+      <c r="X21" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="W21" s="35">
-        <f>Y17</f>
+      <c r="Y21" s="35">
+        <f>AA17</f>
         <v>2530331</v>
       </c>
-      <c r="X21" s="16" t="str">
-        <f>DEC2HEX(W21,8)</f>
+      <c r="Z21" s="16" t="str">
+        <f>DEC2HEX(Y21,8)</f>
         <v>00269C1B</v>
       </c>
-      <c r="Y21" s="35">
-        <f>W21+M17</f>
+      <c r="AA21" s="35">
+        <f>Y21+M17</f>
         <v>2731035</v>
       </c>
-      <c r="Z21" s="17" t="str">
-        <f>DEC2HEX(Y21,8)</f>
+      <c r="AB21" s="17" t="str">
+        <f>DEC2HEX(AA21,8)</f>
         <v>0029AC1B</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AC21" s="4">
         <v>0.31</v>
       </c>
-      <c r="AB21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="4">
+      <c r="AD21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="4">
         <f>M21/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD21" s="4">
-        <f>N21*AA21*AB21</f>
+      <c r="AF21" s="4">
+        <f>N21*AC21*AD21</f>
         <v>31109.119999999999</v>
       </c>
-      <c r="AE21" s="20"/>
-    </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG21" s="20"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -2936,54 +3070,62 @@
         <v>0080_0101</v>
       </c>
       <c r="S22" s="12" t="str">
+        <f>IF(J22=0,DEC2HEX(G22,4)&amp;"_"&amp;DEC2HEX(G22,4), DEC2HEX(G22/9*6,4)&amp;"_"&amp;DEC2HEX(G22/9*4,4))</f>
+        <v>0080_0080</v>
+      </c>
+      <c r="T22" s="12" t="str">
         <f>DEC2HEX(H22,4)&amp;"_"&amp;DEC2HEX(F22,4)</f>
         <v>0020_0080</v>
       </c>
-      <c r="T22" s="12" t="str">
-        <f>DEC2HEX(L22^2,4)&amp;"_"&amp;DEC2HEX(L22,2)&amp;DEC2HEX(L21,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U22" s="33">
-        <f>U17+Q17</f>
+      <c r="U22" s="12" t="str">
+        <f>DEC2HEX(E22,4)&amp;"_"&amp;DEC2HEX(L22,2)&amp;DEC2HEX(L21,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V22" s="12" t="str">
+        <f>DEC2HEX(L22^2,4)&amp;"_"&amp;DEC2HEX(L21^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W22" s="33">
+        <f>W17+Q17</f>
         <v>29728</v>
-      </c>
-      <c r="V22" s="12" t="str">
-        <f>DEC2HEX(U22,8)</f>
-        <v>00007420</v>
-      </c>
-      <c r="W22" s="33">
-        <f>Y21</f>
-        <v>2731035</v>
       </c>
       <c r="X22" s="12" t="str">
         <f>DEC2HEX(W22,8)</f>
+        <v>00007420</v>
+      </c>
+      <c r="Y22" s="33">
+        <f>AA21</f>
+        <v>2731035</v>
+      </c>
+      <c r="Z22" s="12" t="str">
+        <f>DEC2HEX(Y22,8)</f>
         <v>0029AC1B</v>
       </c>
-      <c r="Y22" s="33">
-        <f>W22+M21</f>
+      <c r="AA22" s="33">
+        <f>Y22+M21</f>
         <v>2831387</v>
       </c>
-      <c r="Z22" s="13" t="str">
-        <f>DEC2HEX(Y22,8)</f>
+      <c r="AB22" s="13" t="str">
+        <f>DEC2HEX(AA22,8)</f>
         <v>002B341B</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AC22" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
         <f>M22/64*0.97</f>
         <v>380.24</v>
       </c>
-      <c r="AD22" s="2">
-        <f>N22*AA22*AB22</f>
+      <c r="AF22" s="2">
+        <f>N22*AC22*AD22</f>
         <v>20070.400000000001</v>
       </c>
-      <c r="AE22" s="20"/>
-    </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG22" s="20"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -3008,19 +3150,21 @@
       <c r="R23" s="46"/>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
-      <c r="U23" s="34"/>
+      <c r="U23" s="14"/>
       <c r="V23" s="14"/>
       <c r="W23" s="34"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="34"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="15"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="20"/>
-    </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="20"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -3040,7 +3184,7 @@
         <v>32</v>
       </c>
       <c r="G24" s="26">
-        <f t="shared" ref="G24:G25" si="20">E24^2*F24</f>
+        <f t="shared" ref="G24:G25" si="22">E24^2*F24</f>
         <v>32</v>
       </c>
       <c r="H24" s="26">
@@ -3059,78 +3203,86 @@
         <v>28</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" ref="M24:M25" si="21">L24^2*H24</f>
+        <f t="shared" ref="M24:M25" si="23">L24^2*H24</f>
         <v>100352</v>
       </c>
       <c r="N24" s="26">
-        <f t="shared" ref="N24:N25" si="22">L24^2*F24</f>
+        <f t="shared" ref="N24:N25" si="24">L24^2*F24</f>
         <v>25088</v>
       </c>
       <c r="O24" s="26">
-        <f t="shared" ref="O24:O25" si="23">E24^2*F24*H24</f>
+        <f t="shared" ref="O24:O25" si="25">E24^2*F24*H24</f>
         <v>4096</v>
       </c>
       <c r="P24" s="26">
-        <f t="shared" ref="P24:P25" si="24">H24</f>
+        <f t="shared" ref="P24:P25" si="26">H24</f>
         <v>128</v>
       </c>
       <c r="Q24" s="26">
-        <f t="shared" ref="Q24:Q25" si="25">O24+P24</f>
+        <f t="shared" ref="Q24:Q25" si="27">O24+P24</f>
         <v>4224</v>
       </c>
       <c r="R24" s="45" t="str">
-        <f t="shared" ref="R24:R25" si="26">DEC2HEX(G24,4)&amp;"_0"&amp;DEC2HEX(I24,1)&amp;DEC2HEX(J24,1)&amp;DEC2HEX(C24,1)</f>
+        <f t="shared" ref="R24:R25" si="28">DEC2HEX(G24,4)&amp;"_0"&amp;DEC2HEX(I24,1)&amp;DEC2HEX(J24,1)&amp;DEC2HEX(C24,1)</f>
         <v>0020_0102</v>
       </c>
       <c r="S24" s="12" t="str">
+        <f t="shared" ref="S24:S25" si="29">IF(J24=0,DEC2HEX(G24,4)&amp;"_"&amp;DEC2HEX(G24,4), DEC2HEX(G24/9*6,4)&amp;"_"&amp;DEC2HEX(G24/9*4,4))</f>
+        <v>0020_0020</v>
+      </c>
+      <c r="T24" s="12" t="str">
         <f>DEC2HEX(H24,4)&amp;"_"&amp;DEC2HEX(F24,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T24" s="12" t="str">
-        <f>DEC2HEX(L24^2,4)&amp;"_"&amp;DEC2HEX(L24,2)&amp;DEC2HEX(L22,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U24" s="33">
-        <f>U22+Q22</f>
+      <c r="U24" s="12" t="str">
+        <f>DEC2HEX(E24,4)&amp;"_"&amp;DEC2HEX(L24,2)&amp;DEC2HEX(L22,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V24" s="12" t="str">
+        <f>DEC2HEX(L24^2,4)&amp;"_"&amp;DEC2HEX(L22^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W24" s="33">
+        <f>W22+Q22</f>
         <v>33856</v>
       </c>
-      <c r="V24" s="12" t="str">
-        <f t="shared" ref="V24:V25" si="27">DEC2HEX(U24,8)</f>
+      <c r="X24" s="12" t="str">
+        <f t="shared" ref="X24:X25" si="30">DEC2HEX(W24,8)</f>
         <v>00008440</v>
       </c>
-      <c r="W24" s="33">
-        <f>Y22</f>
+      <c r="Y24" s="33">
+        <f>AA22</f>
         <v>2831387</v>
       </c>
-      <c r="X24" s="12" t="str">
-        <f t="shared" ref="X24:X25" si="28">DEC2HEX(W24,8)</f>
+      <c r="Z24" s="12" t="str">
+        <f t="shared" ref="Z24:Z25" si="31">DEC2HEX(Y24,8)</f>
         <v>002B341B</v>
       </c>
-      <c r="Y24" s="33">
-        <f>W24+M22</f>
+      <c r="AA24" s="33">
+        <f>Y24+M22</f>
         <v>2856475</v>
       </c>
-      <c r="Z24" s="13" t="str">
-        <f t="shared" ref="Z24:Z25" si="29">DEC2HEX(Y24,8)</f>
+      <c r="AB24" s="13" t="str">
+        <f t="shared" ref="AB24:AB25" si="32">DEC2HEX(AA24,8)</f>
         <v>002B961B</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AC24" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AD24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AE24" s="2">
         <f>M24/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD24" s="2">
-        <f>N24*AA24*AB24</f>
+      <c r="AF24" s="2">
+        <f>N24*AC24*AD24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="20"/>
-    </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG24" s="20"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3150,7 +3302,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>288</v>
       </c>
       <c r="H25" s="26">
@@ -3169,78 +3321,86 @@
         <v>28</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100352</v>
       </c>
       <c r="N25" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>25088</v>
       </c>
       <c r="O25" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36864</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="Q25" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>36992</v>
       </c>
       <c r="R25" s="45" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0120_0111</v>
       </c>
       <c r="S25" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v>00C0_0080</v>
+      </c>
+      <c r="T25" s="12" t="str">
         <f>DEC2HEX(H25,4)&amp;"_"&amp;DEC2HEX(F25,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T25" s="12" t="str">
-        <f>DEC2HEX(L25^2,4)&amp;"_"&amp;DEC2HEX(L25,2)&amp;DEC2HEX(L22,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U25" s="33">
-        <f>U24+Q24</f>
+      <c r="U25" s="12" t="str">
+        <f>DEC2HEX(E25,4)&amp;"_"&amp;DEC2HEX(L25,2)&amp;DEC2HEX(L22,2)</f>
+        <v>0003_1C1C</v>
+      </c>
+      <c r="V25" s="12" t="str">
+        <f>DEC2HEX(L25^2,4)&amp;"_"&amp;DEC2HEX(L22^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W25" s="33">
+        <f>W24+Q24</f>
         <v>38080</v>
       </c>
-      <c r="V25" s="12" t="str">
-        <f t="shared" si="27"/>
+      <c r="X25" s="12" t="str">
+        <f t="shared" si="30"/>
         <v>000094C0</v>
       </c>
-      <c r="W25" s="33">
-        <f>Y22</f>
+      <c r="Y25" s="33">
+        <f>AA22</f>
         <v>2831387</v>
       </c>
-      <c r="X25" s="12" t="str">
-        <f t="shared" si="28"/>
+      <c r="Z25" s="12" t="str">
+        <f t="shared" si="31"/>
         <v>002B341B</v>
       </c>
-      <c r="Y25" s="33">
-        <f>W25++M22+M24</f>
+      <c r="AA25" s="33">
+        <f>Y25++M22+M24</f>
         <v>2956827</v>
       </c>
-      <c r="Z25" s="13" t="str">
-        <f t="shared" si="29"/>
+      <c r="AB25" s="13" t="str">
+        <f t="shared" si="32"/>
         <v>002D1E1B</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AC25" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="2">
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="2">
         <f>M25/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD25" s="2">
-        <f>N25*AA25*AB25</f>
+      <c r="AF25" s="2">
+        <f>N25*AC25*AD25</f>
         <v>5017.6000000000004</v>
       </c>
-      <c r="AE25" s="20"/>
-    </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG25" s="20"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -3265,19 +3425,21 @@
       <c r="R26" s="46"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="34"/>
+      <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="34"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="34"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="15"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="20"/>
-    </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="20"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -3302,19 +3464,21 @@
       <c r="R27" s="46"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="34"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="34"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="34"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="15"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="20"/>
-    </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="20"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -3343,19 +3507,21 @@
       <c r="R28" s="44"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="32"/>
+      <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="32"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="32"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="11"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="20"/>
-    </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="20"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3418,54 +3584,62 @@
         <v>0100_0101</v>
       </c>
       <c r="S29" s="12" t="str">
+        <f>IF(J29=0,DEC2HEX(G29,4)&amp;"_"&amp;DEC2HEX(G29,4), DEC2HEX(G29/9*6,4)&amp;"_"&amp;DEC2HEX(G29/9*4,4))</f>
+        <v>0100_0100</v>
+      </c>
+      <c r="T29" s="12" t="str">
         <f>DEC2HEX(H29,4)&amp;"_"&amp;DEC2HEX(F29,4)</f>
         <v>0020_0100</v>
       </c>
-      <c r="T29" s="12" t="str">
-        <f>DEC2HEX(L29^2,4)&amp;"_"&amp;DEC2HEX(L29,2)&amp;DEC2HEX(L24,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U29" s="33">
-        <f>U25+Q25</f>
+      <c r="U29" s="12" t="str">
+        <f>DEC2HEX(E29,4)&amp;"_"&amp;DEC2HEX(L29,2)&amp;DEC2HEX(L24,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V29" s="12" t="str">
+        <f>DEC2HEX(L29^2,4)&amp;"_"&amp;DEC2HEX(L24^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W29" s="33">
+        <f>W25+Q25</f>
         <v>75072</v>
-      </c>
-      <c r="V29" s="12" t="str">
-        <f>DEC2HEX(U29,8)</f>
-        <v>00012540</v>
-      </c>
-      <c r="W29" s="33">
-        <f>Y25</f>
-        <v>2956827</v>
       </c>
       <c r="X29" s="12" t="str">
         <f>DEC2HEX(W29,8)</f>
+        <v>00012540</v>
+      </c>
+      <c r="Y29" s="33">
+        <f>AA25</f>
+        <v>2956827</v>
+      </c>
+      <c r="Z29" s="12" t="str">
+        <f>DEC2HEX(Y29,8)</f>
         <v>002D1E1B</v>
       </c>
-      <c r="Y29" s="33">
-        <f>W29+M25</f>
+      <c r="AA29" s="33">
+        <f>Y29+M25</f>
         <v>3057179</v>
       </c>
-      <c r="Z29" s="13" t="str">
-        <f>DEC2HEX(Y29,8)</f>
+      <c r="AB29" s="13" t="str">
+        <f>DEC2HEX(AA29,8)</f>
         <v>002EA61B</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AC29" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="2">
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="2">
         <f>M29/64*0.97</f>
         <v>380.24</v>
       </c>
-      <c r="AD29" s="2">
-        <f>N29*AA29*AB29</f>
+      <c r="AF29" s="2">
+        <f>N29*AC29*AD29</f>
         <v>40140.800000000003</v>
       </c>
-      <c r="AE29" s="20"/>
-    </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG29" s="20"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -3490,19 +3664,21 @@
       <c r="R30" s="46"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="34"/>
+      <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="34"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="34"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="15"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="20"/>
-    </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="20"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3522,7 +3698,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="26">
-        <f t="shared" ref="G31:G32" si="30">E31^2*F31</f>
+        <f t="shared" ref="G31:G32" si="33">E31^2*F31</f>
         <v>32</v>
       </c>
       <c r="H31" s="26">
@@ -3541,78 +3717,86 @@
         <v>28</v>
       </c>
       <c r="M31" s="26">
-        <f t="shared" ref="M31:M32" si="31">L31^2*H31</f>
+        <f t="shared" ref="M31:M32" si="34">L31^2*H31</f>
         <v>100352</v>
       </c>
       <c r="N31" s="26">
-        <f t="shared" ref="N31:N32" si="32">L31^2*F31</f>
+        <f t="shared" ref="N31:N32" si="35">L31^2*F31</f>
         <v>25088</v>
       </c>
       <c r="O31" s="26">
-        <f t="shared" ref="O31:O32" si="33">E31^2*F31*H31</f>
+        <f t="shared" ref="O31:O32" si="36">E31^2*F31*H31</f>
         <v>4096</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" ref="P31:P32" si="34">H31</f>
+        <f t="shared" ref="P31:P32" si="37">H31</f>
         <v>128</v>
       </c>
       <c r="Q31" s="26">
-        <f t="shared" ref="Q31:Q32" si="35">O31+P31</f>
+        <f t="shared" ref="Q31:Q32" si="38">O31+P31</f>
         <v>4224</v>
       </c>
       <c r="R31" s="45" t="str">
-        <f t="shared" ref="R31:R32" si="36">DEC2HEX(G31,4)&amp;"_0"&amp;DEC2HEX(I31,1)&amp;DEC2HEX(J31,1)&amp;DEC2HEX(C31,1)</f>
+        <f t="shared" ref="R31:R32" si="39">DEC2HEX(G31,4)&amp;"_0"&amp;DEC2HEX(I31,1)&amp;DEC2HEX(J31,1)&amp;DEC2HEX(C31,1)</f>
         <v>0020_0102</v>
       </c>
       <c r="S31" s="12" t="str">
+        <f t="shared" ref="S31:S32" si="40">IF(J31=0,DEC2HEX(G31,4)&amp;"_"&amp;DEC2HEX(G31,4), DEC2HEX(G31/9*6,4)&amp;"_"&amp;DEC2HEX(G31/9*4,4))</f>
+        <v>0020_0020</v>
+      </c>
+      <c r="T31" s="12" t="str">
         <f>DEC2HEX(H31,4)&amp;"_"&amp;DEC2HEX(F31,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T31" s="12" t="str">
-        <f>DEC2HEX(L31^2,4)&amp;"_"&amp;DEC2HEX(L31,2)&amp;DEC2HEX(L29,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U31" s="33">
-        <f>U29+Q29</f>
+      <c r="U31" s="12" t="str">
+        <f>DEC2HEX(E31,4)&amp;"_"&amp;DEC2HEX(L31,2)&amp;DEC2HEX(L29,2)</f>
+        <v>0001_1C1C</v>
+      </c>
+      <c r="V31" s="12" t="str">
+        <f>DEC2HEX(L31^2,4)&amp;"_"&amp;DEC2HEX(L29^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W31" s="33">
+        <f>W29+Q29</f>
         <v>83296</v>
       </c>
-      <c r="V31" s="12" t="str">
-        <f t="shared" ref="V31:V32" si="37">DEC2HEX(U31,8)</f>
+      <c r="X31" s="12" t="str">
+        <f t="shared" ref="X31:X32" si="41">DEC2HEX(W31,8)</f>
         <v>00014560</v>
       </c>
-      <c r="W31" s="33">
-        <f>Y29</f>
+      <c r="Y31" s="33">
+        <f>AA29</f>
         <v>3057179</v>
       </c>
-      <c r="X31" s="12" t="str">
-        <f t="shared" ref="X31:X32" si="38">DEC2HEX(W31,8)</f>
+      <c r="Z31" s="12" t="str">
+        <f t="shared" ref="Z31:Z32" si="42">DEC2HEX(Y31,8)</f>
         <v>002EA61B</v>
       </c>
-      <c r="Y31" s="33">
-        <f>W31+M29</f>
+      <c r="AA31" s="33">
+        <f>Y31+M29</f>
         <v>3082267</v>
       </c>
-      <c r="Z31" s="13" t="str">
-        <f t="shared" ref="Z31:Z32" si="39">DEC2HEX(Y31,8)</f>
+      <c r="AB31" s="13" t="str">
+        <f t="shared" ref="AB31:AB32" si="43">DEC2HEX(AA31,8)</f>
         <v>002F081B</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AC31" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AD31" s="2">
         <v>0</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AE31" s="2">
         <f>M31/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD31" s="2">
-        <f>N31*AA31*AB31</f>
+      <c r="AF31" s="2">
+        <f>N31*AC31*AD31</f>
         <v>0</v>
       </c>
-      <c r="AE31" s="20"/>
-    </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG31" s="20"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3816,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>288</v>
       </c>
       <c r="H32" s="26">
@@ -3651,78 +3835,86 @@
         <v>28</v>
       </c>
       <c r="M32" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>100352</v>
       </c>
       <c r="N32" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>25088</v>
       </c>
       <c r="O32" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>36864</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>128</v>
       </c>
       <c r="Q32" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>36992</v>
       </c>
       <c r="R32" s="45" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0120_0111</v>
       </c>
       <c r="S32" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v>00C0_0080</v>
+      </c>
+      <c r="T32" s="12" t="str">
         <f>DEC2HEX(H32,4)&amp;"_"&amp;DEC2HEX(F32,4)</f>
         <v>0080_0020</v>
       </c>
-      <c r="T32" s="12" t="str">
-        <f>DEC2HEX(L32^2,4)&amp;"_"&amp;DEC2HEX(L32,2)&amp;DEC2HEX(L29,2)</f>
-        <v>0310_1C1C</v>
-      </c>
-      <c r="U32" s="33">
-        <f>U31+Q31</f>
+      <c r="U32" s="12" t="str">
+        <f>DEC2HEX(E32,4)&amp;"_"&amp;DEC2HEX(L32,2)&amp;DEC2HEX(L29,2)</f>
+        <v>0003_1C1C</v>
+      </c>
+      <c r="V32" s="12" t="str">
+        <f>DEC2HEX(L32^2,4)&amp;"_"&amp;DEC2HEX(L29^2,4)</f>
+        <v>0310_0310</v>
+      </c>
+      <c r="W32" s="33">
+        <f>W31+Q31</f>
         <v>87520</v>
       </c>
-      <c r="V32" s="12" t="str">
-        <f t="shared" si="37"/>
+      <c r="X32" s="12" t="str">
+        <f t="shared" si="41"/>
         <v>000155E0</v>
       </c>
-      <c r="W32" s="33">
-        <f>Y29</f>
+      <c r="Y32" s="33">
+        <f>AA29</f>
         <v>3057179</v>
       </c>
-      <c r="X32" s="12" t="str">
-        <f t="shared" si="38"/>
+      <c r="Z32" s="12" t="str">
+        <f t="shared" si="42"/>
         <v>002EA61B</v>
       </c>
-      <c r="Y32" s="33">
-        <f>W32+M29+M31</f>
+      <c r="AA32" s="33">
+        <f>Y32+M29+M31</f>
         <v>3182619</v>
       </c>
-      <c r="Z32" s="13" t="str">
-        <f t="shared" si="39"/>
+      <c r="AB32" s="13" t="str">
+        <f t="shared" si="43"/>
         <v>0030901B</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AC32" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="2">
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2">
         <f>M32/64*0.97</f>
         <v>1520.96</v>
       </c>
-      <c r="AD32" s="2">
-        <f>N32*AA32*AB32</f>
+      <c r="AF32" s="2">
+        <f>N32*AC32*AD32</f>
         <v>5017.6000000000004</v>
       </c>
-      <c r="AE32" s="20"/>
-    </row>
-    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG32" s="20"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
@@ -3747,19 +3939,21 @@
       <c r="R33" s="46"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="34"/>
+      <c r="U33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="34"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="34"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="15"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="20"/>
-    </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="20"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
@@ -3784,19 +3978,21 @@
       <c r="R34" s="46"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="34"/>
+      <c r="U34" s="14"/>
       <c r="V34" s="14"/>
       <c r="W34" s="34"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="34"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="15"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="20"/>
-    </row>
-    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="20"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -3823,19 +4019,21 @@
       <c r="R35" s="44"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="32"/>
+      <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="32"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="32"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="11"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="20"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="20"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>36</v>
       </c>
@@ -3889,51 +4087,59 @@
         <v>0009_0204</v>
       </c>
       <c r="S36" s="16" t="str">
+        <f>IF(J36=0,DEC2HEX(G36,4)&amp;"_"&amp;DEC2HEX(G36,4), DEC2HEX(G36/9*6,4)&amp;"_"&amp;DEC2HEX(G36/9*4,4))</f>
+        <v>0009_0009</v>
+      </c>
+      <c r="T36" s="16" t="str">
         <f>DEC2HEX(H36,4)&amp;"_"&amp;DEC2HEX(H36,4)</f>
         <v>0100_0100</v>
       </c>
-      <c r="T36" s="16" t="str">
-        <f>DEC2HEX(L36^2,4)&amp;"_"&amp;DEC2HEX(L36,2)&amp;DEC2HEX(L31,2)</f>
-        <v>00C4_0E1C</v>
-      </c>
-      <c r="U36" s="35"/>
+      <c r="U36" s="16" t="str">
+        <f>DEC2HEX(E36,4)&amp;"_"&amp;DEC2HEX(L36,2)&amp;DEC2HEX(L31,2)</f>
+        <v>0003_0E1C</v>
+      </c>
       <c r="V36" s="16" t="str">
+        <f>DEC2HEX(L36^2,4)&amp;"_"&amp;DEC2HEX(L31^2,4)</f>
+        <v>00C4_0310</v>
+      </c>
+      <c r="W36" s="35"/>
+      <c r="X36" s="16" t="str">
         <f>DEC2HEX(0,8)</f>
         <v>00000000</v>
       </c>
-      <c r="W36" s="35">
-        <f>Y32</f>
+      <c r="Y36" s="35">
+        <f>AA32</f>
         <v>3182619</v>
       </c>
-      <c r="X36" s="16" t="str">
-        <f>DEC2HEX(W36,8)</f>
+      <c r="Z36" s="16" t="str">
+        <f>DEC2HEX(Y36,8)</f>
         <v>0030901B</v>
       </c>
-      <c r="Y36" s="35">
-        <f>W36+M32</f>
+      <c r="AA36" s="35">
+        <f>Y36+M32</f>
         <v>3282971</v>
       </c>
-      <c r="Z36" s="17" t="str">
-        <f>DEC2HEX(Y36,8)</f>
+      <c r="AB36" s="17" t="str">
+        <f>DEC2HEX(AA36,8)</f>
         <v>0032181B</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AC36" s="4">
         <v>0.31</v>
       </c>
-      <c r="AB36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="4">
+      <c r="AD36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="4">
         <f>M36/64*0.97</f>
         <v>760.48</v>
       </c>
-      <c r="AD36" s="4">
-        <f>N36*AA36*AB36</f>
+      <c r="AF36" s="4">
+        <f>N36*AC36*AD36</f>
         <v>15554.56</v>
       </c>
-      <c r="AE36" s="20"/>
-    </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG36" s="20"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3996,54 +4202,62 @@
         <v>0100_0101</v>
       </c>
       <c r="S37" s="12" t="str">
+        <f>IF(J37=0,DEC2HEX(G37,4)&amp;"_"&amp;DEC2HEX(G37,4), DEC2HEX(G37/9*6,4)&amp;"_"&amp;DEC2HEX(G37/9*4,4))</f>
+        <v>0100_0100</v>
+      </c>
+      <c r="T37" s="12" t="str">
         <f>DEC2HEX(H37,4)&amp;"_"&amp;DEC2HEX(F37,4)</f>
         <v>0030_0100</v>
       </c>
-      <c r="T37" s="12" t="str">
-        <f>DEC2HEX(L37^2,4)&amp;"_"&amp;DEC2HEX(L37,2)&amp;DEC2HEX(L36,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U37" s="33">
-        <f>U32+Q32</f>
+      <c r="U37" s="12" t="str">
+        <f>DEC2HEX(E37,4)&amp;"_"&amp;DEC2HEX(L37,2)&amp;DEC2HEX(L36,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V37" s="12" t="str">
+        <f>DEC2HEX(L37^2,4)&amp;"_"&amp;DEC2HEX(L36^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W37" s="33">
+        <f>W32+Q32</f>
         <v>124512</v>
-      </c>
-      <c r="V37" s="12" t="str">
-        <f>DEC2HEX(U37,8)</f>
-        <v>0001E660</v>
-      </c>
-      <c r="W37" s="33">
-        <f>Y36</f>
-        <v>3282971</v>
       </c>
       <c r="X37" s="12" t="str">
         <f>DEC2HEX(W37,8)</f>
+        <v>0001E660</v>
+      </c>
+      <c r="Y37" s="33">
+        <f>AA36</f>
+        <v>3282971</v>
+      </c>
+      <c r="Z37" s="12" t="str">
+        <f>DEC2HEX(Y37,8)</f>
         <v>0032181B</v>
       </c>
-      <c r="Y37" s="33">
-        <f>W37+M36</f>
+      <c r="AA37" s="33">
+        <f>Y37+M36</f>
         <v>3333147</v>
       </c>
-      <c r="Z37" s="13" t="str">
-        <f>DEC2HEX(Y37,8)</f>
+      <c r="AB37" s="13" t="str">
+        <f>DEC2HEX(AA37,8)</f>
         <v>0032DC1B</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AC37" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="2">
+      <c r="AD37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="2">
         <f>M37/64*0.97</f>
         <v>142.59</v>
       </c>
-      <c r="AD37" s="2">
-        <f>N37*AA37*AB37</f>
+      <c r="AF37" s="2">
+        <f>N37*AC37*AD37</f>
         <v>10035.200000000001</v>
       </c>
-      <c r="AE37" s="20"/>
-    </row>
-    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AG37" s="20"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -4068,19 +4282,21 @@
       <c r="R38" s="46"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="34"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="14"/>
       <c r="W38" s="34"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="34"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="15"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-      <c r="AE38" s="20"/>
-    </row>
-    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="20"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -4100,7 +4316,7 @@
         <v>48</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" ref="G39:G40" si="40">E39^2*F39</f>
+        <f t="shared" ref="G39:G40" si="44">E39^2*F39</f>
         <v>48</v>
       </c>
       <c r="H39" s="26">
@@ -4119,78 +4335,86 @@
         <v>14</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" ref="M39:M40" si="41">L39^2*H39</f>
+        <f t="shared" ref="M39:M40" si="45">L39^2*H39</f>
         <v>37632</v>
       </c>
       <c r="N39" s="26">
-        <f t="shared" ref="N39:N40" si="42">L39^2*F39</f>
+        <f t="shared" ref="N39:N40" si="46">L39^2*F39</f>
         <v>9408</v>
       </c>
       <c r="O39" s="26">
-        <f t="shared" ref="O39:O40" si="43">E39^2*F39*H39</f>
+        <f t="shared" ref="O39:O40" si="47">E39^2*F39*H39</f>
         <v>9216</v>
       </c>
       <c r="P39" s="26">
-        <f t="shared" ref="P39:P40" si="44">H39</f>
+        <f t="shared" ref="P39:P40" si="48">H39</f>
         <v>192</v>
       </c>
       <c r="Q39" s="26">
-        <f t="shared" ref="Q39:Q40" si="45">O39+P39</f>
+        <f t="shared" ref="Q39:Q40" si="49">O39+P39</f>
         <v>9408</v>
       </c>
       <c r="R39" s="45" t="str">
-        <f t="shared" ref="R39:R40" si="46">DEC2HEX(G39,4)&amp;"_0"&amp;DEC2HEX(I39,1)&amp;DEC2HEX(J39,1)&amp;DEC2HEX(C39,1)</f>
+        <f t="shared" ref="R39:R40" si="50">DEC2HEX(G39,4)&amp;"_0"&amp;DEC2HEX(I39,1)&amp;DEC2HEX(J39,1)&amp;DEC2HEX(C39,1)</f>
         <v>0030_0102</v>
       </c>
       <c r="S39" s="12" t="str">
+        <f t="shared" ref="S39:S40" si="51">IF(J39=0,DEC2HEX(G39,4)&amp;"_"&amp;DEC2HEX(G39,4), DEC2HEX(G39/9*6,4)&amp;"_"&amp;DEC2HEX(G39/9*4,4))</f>
+        <v>0030_0030</v>
+      </c>
+      <c r="T39" s="12" t="str">
         <f>DEC2HEX(H39,4)&amp;"_"&amp;DEC2HEX(F39,4)</f>
         <v>00C0_0030</v>
       </c>
-      <c r="T39" s="12" t="str">
-        <f>DEC2HEX(L39^2,4)&amp;"_"&amp;DEC2HEX(L39,2)&amp;DEC2HEX(L37,2)</f>
-        <v>00C4_0E0E</v>
-      </c>
-      <c r="U39" s="33">
-        <f>U37+Q37</f>
+      <c r="U39" s="12" t="str">
+        <f>DEC2HEX(E39,4)&amp;"_"&amp;DEC2HEX(L39,2)&amp;DEC2HEX(L37,2)</f>
+        <v>0001_0E0E</v>
+      </c>
+      <c r="V39" s="12" t="str">
+        <f>DEC2HEX(L39^2,4)&amp;"_"&amp;DEC2HEX(L37^2,4)</f>
+        <v>00C4_00C4</v>
+      </c>
+      <c r="W39" s="33">
+        <f>W37+Q37</f>
         <v>136848</v>
       </c>
-      <c r="V39" s="12" t="str">
-        <f t="shared" ref="V39:V40" si="47">DEC2HEX(U39,8)</f>
+      <c r="X39" s="12" t="str">
+        <f t="shared" ref="X39:X40" si="52">DEC2HEX(W39,8)</f>
         <v>00021690</v>
       </c>
-      <c r="W39" s="33">
-        <f>Y37</f>
+      <c r="Y39" s="33">
+        <f>AA37</f>
         <v>3333147</v>
       </c>
-      <c r="X39" s="12" t="str">
-        <f t="shared" ref="X39:X40" si="48">DEC2HEX(W39,8)</f>
+      <c r="Z39" s="12" t="str">
+        <f t="shared" ref="Z39:Z40" si="53">DEC2HEX(Y39,8)</f>
         <v>0032DC1B</v>
       </c>
-      <c r="Y39" s="33">
-        <f>W39+M37</f>
+      <c r="AA39" s="33">
+        <f>Y39+M37</f>
         <v>3342555</v>
       </c>
-      <c r="Z39" s="13" t="str">
-        <f t="shared" ref="Z39:Z40" si="49">DEC2HEX(Y39,8)</f>
+      <c r="AB39" s="13" 